--- a/grades.xlsx
+++ b/grades.xlsx
@@ -361,6 +361,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -381,30 +382,35 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFF8F8FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -561,10 +567,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,6 +577,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -597,7 +603,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -693,154 +699,154 @@
   <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5102040816326"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="2" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="24.0357142857143"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="27.234693877551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="30.8418367346939"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="12.5"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="17.9183673469388"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="29.734693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="18.6122448979592"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="26.9540816326531"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="20.5612244897959"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="2" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="23.6224489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="26.5918367346939"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="20.25"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="11"/>
+      <c r="AK1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -855,6 +861,8 @@
       <c r="E2" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="L2" s="3" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.25</v>
@@ -903,7 +911,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -918,6 +926,8 @@
       <c r="E3" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="L3" s="3" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
         <v>0.25</v>
@@ -965,7 +975,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -980,6 +990,8 @@
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="L4" s="3" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
         <v>0.25</v>
@@ -1027,7 +1039,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -1042,6 +1054,8 @@
       <c r="E5" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="L5" s="3" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
         <v>0.25</v>
@@ -1089,7 +1103,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -1104,6 +1118,8 @@
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="L6" s="3" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
         <v>0.225</v>
@@ -1152,7 +1168,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -1167,6 +1183,8 @@
       <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="L7" s="3" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
         <v>0.225</v>
@@ -1214,7 +1232,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -1229,6 +1247,8 @@
       <c r="E8" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="L8" s="3" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
         <v>0.25</v>
@@ -1278,7 +1298,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -1293,6 +1313,8 @@
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="L9" s="3" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.125</v>
@@ -1340,7 +1362,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -1355,6 +1377,8 @@
       <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="L10" s="3" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
         <v>0.25</v>
@@ -1403,7 +1427,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -1418,6 +1442,8 @@
       <c r="E11" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="L11" s="3" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
         <v>0.25</v>
@@ -1465,7 +1491,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -1480,6 +1506,8 @@
       <c r="E12" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="L12" s="3" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
         <v>0.25</v>
@@ -1527,7 +1555,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -1542,6 +1570,8 @@
       <c r="E13" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="L13" s="3" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
         <v>0.2375</v>
@@ -1589,7 +1619,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -1604,6 +1634,8 @@
       <c r="E14" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="L14" s="3" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
         <v>0.2</v>
@@ -1653,7 +1685,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -1668,6 +1700,8 @@
       <c r="E15" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="L15" s="3" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
         <v>0.25</v>
@@ -1715,7 +1749,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -1730,6 +1764,8 @@
       <c r="E16" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="L16" s="3" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
         <v>0.25</v>
@@ -1778,7 +1814,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -1793,6 +1829,8 @@
       <c r="E17" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
       <c r="L17" s="3" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
         <v>0.2</v>
@@ -1842,7 +1880,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -1857,6 +1895,8 @@
       <c r="E18" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
       <c r="L18" s="3" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.25</v>
@@ -1905,7 +1945,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -1920,6 +1960,8 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="L19" s="3" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
         <v>0.25</v>
@@ -1968,7 +2010,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -1983,6 +2025,8 @@
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="L20" s="3" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
         <v>0.25</v>
@@ -2031,7 +2075,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -2046,6 +2090,8 @@
       <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
       <c r="L21" s="3" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.25</v>
@@ -2109,6 +2155,8 @@
       <c r="E22" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="L22" s="3" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
         <v>0.25</v>
@@ -2172,6 +2220,8 @@
       <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
       <c r="L23" s="3" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
         <v>0.25</v>
@@ -2236,6 +2286,8 @@
       <c r="E24" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="L24" s="3" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
         <v>0.25</v>
@@ -2300,6 +2352,8 @@
       <c r="E25" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="L25" s="3" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
         <v>0.25</v>
@@ -2363,6 +2417,8 @@
       <c r="E26" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="L26" s="3" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
         <v>0.25</v>
@@ -2426,6 +2482,8 @@
       <c r="E27" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
       <c r="L27" s="3" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
         <v>0.25</v>
@@ -2488,6 +2546,8 @@
       <c r="E28" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="L28" s="3" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
         <v>0.25</v>
@@ -2551,6 +2611,8 @@
       <c r="E29" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="L29" s="3" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.25</v>
@@ -2614,6 +2676,8 @@
       <c r="E30" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="L30" s="3" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.25</v>
@@ -2676,6 +2740,8 @@
       <c r="E31" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="L31" s="3" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
         <v>0.125</v>
@@ -2739,6 +2805,8 @@
       <c r="E32" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="L32" s="3" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.25</v>
@@ -2802,6 +2870,8 @@
       <c r="E33" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
       <c r="L33" s="3" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.25</v>
@@ -2866,6 +2936,8 @@
       <c r="E34" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
       <c r="L34" s="3" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.25</v>
@@ -2928,6 +3000,8 @@
       <c r="E35" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
       <c r="L35" s="3" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
         <v>0.125</v>
@@ -2991,6 +3065,8 @@
       <c r="E36" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
       <c r="L36" s="3" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
         <v>0.125</v>
@@ -3053,6 +3129,8 @@
       <c r="E37" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="L37" s="3" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
         <v>0.25</v>
@@ -3116,6 +3194,8 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
       <c r="L38" s="3" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
         <v>0.25</v>
@@ -3180,6 +3260,8 @@
       <c r="E39" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
       <c r="L39" s="3" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
         <v>0.25</v>
@@ -3243,6 +3325,8 @@
       <c r="E40" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
       <c r="L40" s="3" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.25</v>
@@ -3306,6 +3390,8 @@
       <c r="E41" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
       <c r="L41" s="3" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
         <v>0.125</v>
@@ -3369,6 +3455,8 @@
       <c r="E42" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="L42" s="3" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.125</v>
@@ -3432,6 +3520,8 @@
       <c r="E43" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
       <c r="L43" s="3" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
         <v>0.25</v>
@@ -3495,6 +3585,8 @@
       <c r="E44" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
       <c r="L44" s="3" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.25</v>
@@ -3558,6 +3650,8 @@
       <c r="E45" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
       <c r="L45" s="3" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
         <v>0</v>
@@ -3620,6 +3714,8 @@
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
         <v>0.125</v>
@@ -3682,6 +3778,8 @@
       <c r="E47" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
       <c r="L47" s="3" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
         <v>0</v>
@@ -3744,6 +3842,8 @@
       <c r="E48" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
       <c r="L48" s="3" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
         <v>0.25</v>
@@ -3806,6 +3906,8 @@
       <c r="E49" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
       <c r="L49" s="3" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.125</v>
@@ -3869,6 +3971,8 @@
       <c r="E50" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
       <c r="L50" s="3" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
         <v>0.125</v>
@@ -3931,6 +4035,8 @@
       <c r="E51" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
       <c r="L51" s="3" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.125</v>
@@ -3993,6 +4099,8 @@
       <c r="E52" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
       <c r="L52" s="3" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
         <v>0.25</v>
@@ -4039,7 +4147,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+    </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
       <c r="E57" s="19" t="s">
         <v>87</v>
       </c>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -698,40 +698,40 @@
   </sheetPr>
   <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O50" activeCellId="0" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="2" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="26.5918367346939"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="20.25"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P17" s="6" t="n">
         <f aca="false">0.7+0.5+1+1+0.5</f>
@@ -2259,15 +2259,15 @@
         <v>3.75</v>
       </c>
       <c r="AC23" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH23" s="4" t="n">
         <f aca="false">AC23+AD23+AE23+AF23+AG23</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ23" s="8" t="n">
         <f aca="false">AI23+AH23+AB23+AA23+Z23+M23</f>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,15 +2455,15 @@
         <v>3.75</v>
       </c>
       <c r="AC26" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="4" t="n">
         <f aca="false">AC26+AD26+AE26+AF26+AG26</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ26" s="8" t="n">
         <f aca="false">AI26+AH26+AB26+AA26+Z26+M26</f>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,7 +2561,7 @@
         <v>3.5</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>4.5</v>
@@ -2584,15 +2584,15 @@
         <v>3.75</v>
       </c>
       <c r="AC28" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH28" s="4" t="n">
         <f aca="false">AC28+AD28+AE28+AF28+AG28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ28" s="8" t="n">
         <f aca="false">AI28+AH28+AB28+AA28+Z28+M28</f>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,7 +2629,7 @@
         <v>1.5</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q29" s="6" t="n">
         <v>5</v>
@@ -2649,15 +2649,15 @@
         <v>3.75</v>
       </c>
       <c r="AC29" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH29" s="4" t="n">
         <f aca="false">AC29+AD29+AE29+AF29+AG29</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ29" s="8" t="n">
         <f aca="false">AI29+AH29+AB29+AA29+Z29+M29</f>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,15 +3167,15 @@
         <v>3.75</v>
       </c>
       <c r="AC37" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH37" s="4" t="n">
         <f aca="false">AC37+AD37+AE37+AF37+AG37</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ37" s="8" t="n">
         <f aca="false">AI37+AH37+AB37+AA37+Z37+M37</f>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,15 +3623,15 @@
         <v>1.25</v>
       </c>
       <c r="AC44" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH44" s="4" t="n">
         <f aca="false">AC44+AD44+AE44+AF44+AG44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ44" s="8" t="n">
         <f aca="false">AI44+AH44+AB44+AA44+Z44+M44</f>
-        <v>3.75</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,7 +3985,7 @@
         <v>3.5</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="P50" s="6" t="n">
         <v>1.7</v>
@@ -4001,11 +4001,11 @@
       </c>
       <c r="Y50" s="7" t="n">
         <f aca="false">(SUM(O50:X50)-(SMALL(O50:X50,2)+SMALL(O50:X50,1)))/40</f>
-        <v>0.2925</v>
+        <v>0.3175</v>
       </c>
       <c r="Z50" s="4" t="n">
         <f aca="false">Y50*10</f>
-        <v>2.925</v>
+        <v>3.175</v>
       </c>
       <c r="AC50" s="5" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="AJ50" s="8" t="n">
         <f aca="false">AI50+AH50+AB50+AA50+Z50+M50</f>
-        <v>4.175</v>
+        <v>4.425</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -698,40 +698,45 @@
   </sheetPr>
   <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O50" activeCellId="0" sqref="O50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.0561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.5357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="22.9234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.0051020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.4489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.5051020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.9234693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="27.0867346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="22.6428571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="15" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="2.53571428571429"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,13 +895,16 @@
       <c r="S2" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="T2" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y2" s="7" t="n">
         <f aca="false">(SUM(O2:X2)-(SMALL(O2:X2,2)+SMALL(O2:X2,1)))/40</f>
-        <v>0.27</v>
+        <v>0.295</v>
       </c>
       <c r="Z2" s="4" t="n">
         <f aca="false">Y2*10</f>
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="AC2" s="5" t="n">
         <v>5</v>
@@ -906,8 +914,8 @@
         <v>5</v>
       </c>
       <c r="AJ2" s="8" t="n">
-        <f aca="false">AI2+AH2+AB2+AA2+Z2+M2</f>
-        <v>10.2</v>
+        <f aca="false">AI2+AH2+AB2+AA2+Z2+M2+(N2/2)</f>
+        <v>12.45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,13 +962,16 @@
       <c r="S3" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T3" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" s="7" t="n">
         <f aca="false">(SUM(O3:X3)-(SMALL(O3:X3,2)+SMALL(O3:X3,1)))/40</f>
-        <v>0.3625</v>
+        <v>0.3875</v>
       </c>
       <c r="Z3" s="4" t="n">
         <f aca="false">Y3*10</f>
-        <v>3.625</v>
+        <v>3.875</v>
       </c>
       <c r="AC3" s="5" t="n">
         <v>5</v>
@@ -970,8 +981,8 @@
         <v>5</v>
       </c>
       <c r="AJ3" s="8" t="n">
-        <f aca="false">AI3+AH3+AB3+AA3+Z3+M3</f>
-        <v>11.125</v>
+        <f aca="false">AI3+AH3+AB3+AA3+Z3+M3+(N3/2)</f>
+        <v>12.125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,13 +1029,16 @@
       <c r="S4" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T4" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y4" s="7" t="n">
         <f aca="false">(SUM(O4:X4)-(SMALL(O4:X4,2)+SMALL(O4:X4,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z4" s="4" t="n">
         <f aca="false">Y4*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="5" t="n">
         <v>5</v>
@@ -1034,8 +1048,8 @@
         <v>5</v>
       </c>
       <c r="AJ4" s="8" t="n">
-        <f aca="false">AI4+AH4+AB4+AA4+Z4+M4</f>
-        <v>11.25</v>
+        <f aca="false">AI4+AH4+AB4+AA4+Z4+M4+(N4/2)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,13 +1096,16 @@
       <c r="S5" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T5" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y5" s="7" t="n">
         <f aca="false">(SUM(O5:X5)-(SMALL(O5:X5,2)+SMALL(O5:X5,1)))/40</f>
-        <v>0.3125</v>
+        <v>0.3375</v>
       </c>
       <c r="Z5" s="4" t="n">
         <f aca="false">Y5*10</f>
-        <v>3.125</v>
+        <v>3.375</v>
       </c>
       <c r="AC5" s="5" t="n">
         <v>5</v>
@@ -1098,8 +1115,8 @@
         <v>5</v>
       </c>
       <c r="AJ5" s="8" t="n">
-        <f aca="false">AI5+AH5+AB5+AA5+Z5+M5</f>
-        <v>10.625</v>
+        <f aca="false">AI5+AH5+AB5+AA5+Z5+M5+(N5/2)</f>
+        <v>11.625</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,13 +1164,16 @@
       <c r="S6" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T6" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y6" s="7" t="n">
         <f aca="false">(SUM(O6:X6)-(SMALL(O6:X6,2)+SMALL(O6:X6,1)))/40</f>
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z6" s="4" t="n">
         <f aca="false">Y6*10</f>
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AC6" s="5" t="n">
         <v>0</v>
@@ -1163,8 +1183,8 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="8" t="n">
-        <f aca="false">AI6+AH6+AB6+AA6+Z6+M6</f>
-        <v>6</v>
+        <f aca="false">AI6+AH6+AB6+AA6+Z6+M6+(N6/2)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,13 +1231,16 @@
       <c r="S7" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T7" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y7" s="7" t="n">
         <f aca="false">(SUM(O7:X7)-(SMALL(O7:X7,2)+SMALL(O7:X7,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z7" s="4" t="n">
         <f aca="false">Y7*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC7" s="5" t="n">
         <v>0</v>
@@ -1227,8 +1250,8 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="8" t="n">
-        <f aca="false">AI7+AH7+AB7+AA7+Z7+M7</f>
-        <v>6</v>
+        <f aca="false">AI7+AH7+AB7+AA7+Z7+M7+(N7/2)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,13 +1300,16 @@
       <c r="S8" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T8" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y8" s="7" t="n">
         <f aca="false">(SUM(O8:X8)-(SMALL(O8:X8,2)+SMALL(O8:X8,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z8" s="4" t="n">
         <f aca="false">Y8*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC8" s="5" t="n">
         <v>0</v>
@@ -1293,8 +1319,8 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="8" t="n">
-        <f aca="false">AI8+AH8+AB8+AA8+Z8+M8</f>
-        <v>6.25</v>
+        <f aca="false">AI8+AH8+AB8+AA8+Z8+M8+(N8/2)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,13 +1367,16 @@
       <c r="S9" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="T9" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y9" s="7" t="n">
         <f aca="false">(SUM(O9:X9)-(SMALL(O9:X9,2)+SMALL(O9:X9,1)))/40</f>
-        <v>0.0725</v>
+        <v>0.0975</v>
       </c>
       <c r="Z9" s="4" t="n">
         <f aca="false">Y9*10</f>
-        <v>0.725</v>
+        <v>0.975</v>
       </c>
       <c r="AC9" s="5" t="n">
         <v>5</v>
@@ -1357,8 +1386,8 @@
         <v>5</v>
       </c>
       <c r="AJ9" s="8" t="n">
-        <f aca="false">AI9+AH9+AB9+AA9+Z9+M9</f>
-        <v>6.975</v>
+        <f aca="false">AI9+AH9+AB9+AA9+Z9+M9+(N9/2)</f>
+        <v>9.225</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,13 +1435,16 @@
       <c r="S10" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T10" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y10" s="7" t="n">
         <f aca="false">(SUM(O10:X10)-(SMALL(O10:X10,2)+SMALL(O10:X10,1)))/40</f>
-        <v>0.375</v>
+        <v>0.49</v>
       </c>
       <c r="Z10" s="4" t="n">
         <f aca="false">Y10*10</f>
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="AC10" s="5" t="n">
         <v>0</v>
@@ -1422,8 +1454,8 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="8" t="n">
-        <f aca="false">AI10+AH10+AB10+AA10+Z10+M10</f>
-        <v>6.25</v>
+        <f aca="false">AI10+AH10+AB10+AA10+Z10+M10+(N10/2)</f>
+        <v>9.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,13 +1502,16 @@
       <c r="S11" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T11" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y11" s="7" t="n">
         <f aca="false">(SUM(O11:X11)-(SMALL(O11:X11,2)+SMALL(O11:X11,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z11" s="4" t="n">
         <f aca="false">Y11*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC11" s="5" t="n">
         <v>5</v>
@@ -1486,8 +1521,8 @@
         <v>5</v>
       </c>
       <c r="AJ11" s="8" t="n">
-        <f aca="false">AI11+AH11+AB11+AA11+Z11+M11</f>
-        <v>11.25</v>
+        <f aca="false">AI11+AH11+AB11+AA11+Z11+M11+(N11/2)</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,13 +1569,16 @@
       <c r="S12" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T12" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y12" s="7" t="n">
         <f aca="false">(SUM(O12:X12)-(SMALL(O12:X12,2)+SMALL(O12:X12,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z12" s="4" t="n">
         <f aca="false">Y12*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC12" s="5" t="n">
         <v>5</v>
@@ -1550,8 +1588,8 @@
         <v>5</v>
       </c>
       <c r="AJ12" s="8" t="n">
-        <f aca="false">AI12+AH12+AB12+AA12+Z12+M12</f>
-        <v>11.25</v>
+        <f aca="false">AI12+AH12+AB12+AA12+Z12+M12+(N12/2)</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,13 +1636,16 @@
       <c r="S13" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T13" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y13" s="7" t="n">
         <f aca="false">(SUM(O13:X13)-(SMALL(O13:X13,2)+SMALL(O13:X13,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z13" s="4" t="n">
         <f aca="false">Y13*10</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AC13" s="5" t="n">
         <v>5</v>
@@ -1614,8 +1655,8 @@
         <v>5</v>
       </c>
       <c r="AJ13" s="8" t="n">
-        <f aca="false">AI13+AH13+AB13+AA13+Z13+M13</f>
-        <v>11.125</v>
+        <f aca="false">AI13+AH13+AB13+AA13+Z13+M13+(N13/2)</f>
+        <v>11.375</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,13 +1705,16 @@
       <c r="S14" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T14" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y14" s="7" t="n">
         <f aca="false">(SUM(O14:X14)-(SMALL(O14:X14,2)+SMALL(O14:X14,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z14" s="4" t="n">
         <f aca="false">Y14*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC14" s="5" t="n">
         <v>5</v>
@@ -1680,8 +1724,8 @@
         <v>5</v>
       </c>
       <c r="AJ14" s="8" t="n">
-        <f aca="false">AI14+AH14+AB14+AA14+Z14+M14</f>
-        <v>10.75</v>
+        <f aca="false">AI14+AH14+AB14+AA14+Z14+M14+(N14/2)</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,13 +1772,16 @@
       <c r="S15" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T15" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y15" s="7" t="n">
         <f aca="false">(SUM(O15:X15)-(SMALL(O15:X15,2)+SMALL(O15:X15,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z15" s="4" t="n">
         <f aca="false">Y15*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC15" s="5" t="n">
         <v>5</v>
@@ -1744,8 +1791,8 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="8" t="n">
-        <f aca="false">AI15+AH15+AB15+AA15+Z15+M15</f>
-        <v>11.25</v>
+        <f aca="false">AI15+AH15+AB15+AA15+Z15+M15+(N15/2)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,13 +1840,16 @@
       <c r="S16" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T16" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y16" s="7" t="n">
         <f aca="false">(SUM(O16:X16)-(SMALL(O16:X16,2)+SMALL(O16:X16,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z16" s="4" t="n">
         <f aca="false">Y16*10</f>
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
       <c r="AC16" s="5" t="n">
         <v>5</v>
@@ -1809,8 +1859,8 @@
         <v>5</v>
       </c>
       <c r="AJ16" s="8" t="n">
-        <f aca="false">AI16+AH16+AB16+AA16+Z16+M16</f>
-        <v>11.25</v>
+        <f aca="false">AI16+AH16+AB16+AA16+Z16+M16+(N16/2)</f>
+        <v>12.375</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,13 +1909,16 @@
       <c r="S17" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T17" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y17" s="7" t="n">
         <f aca="false">(SUM(O17:X17)-(SMALL(O17:X17,2)+SMALL(O17:X17,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4675</v>
       </c>
       <c r="Z17" s="4" t="n">
         <f aca="false">Y17*10</f>
-        <v>3.75</v>
+        <v>4.675</v>
       </c>
       <c r="AC17" s="5" t="n">
         <v>5</v>
@@ -1875,8 +1928,8 @@
         <v>5</v>
       </c>
       <c r="AJ17" s="8" t="n">
-        <f aca="false">AI17+AH17+AB17+AA17+Z17+M17</f>
-        <v>10.75</v>
+        <f aca="false">AI17+AH17+AB17+AA17+Z17+M17+(N17/2)</f>
+        <v>13.175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,13 +1977,16 @@
       <c r="S18" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T18" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y18" s="7" t="n">
         <f aca="false">(SUM(O18:X18)-(SMALL(O18:X18,2)+SMALL(O18:X18,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z18" s="4" t="n">
         <f aca="false">Y18*10</f>
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
       <c r="AC18" s="5" t="n">
         <v>5</v>
@@ -1940,8 +1996,8 @@
         <v>5</v>
       </c>
       <c r="AJ18" s="8" t="n">
-        <f aca="false">AI18+AH18+AB18+AA18+Z18+M18</f>
-        <v>11.25</v>
+        <f aca="false">AI18+AH18+AB18+AA18+Z18+M18+(N18/2)</f>
+        <v>12.375</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,13 +2045,16 @@
       <c r="S19" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T19" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y19" s="7" t="n">
         <f aca="false">(SUM(O19:X19)-(SMALL(O19:X19,2)+SMALL(O19:X19,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z19" s="4" t="n">
         <f aca="false">Y19*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC19" s="5" t="n">
         <v>5</v>
@@ -2005,8 +2064,8 @@
         <v>5</v>
       </c>
       <c r="AJ19" s="8" t="n">
-        <f aca="false">AI19+AH19+AB19+AA19+Z19+M19</f>
-        <v>11.25</v>
+        <f aca="false">AI19+AH19+AB19+AA19+Z19+M19+(N19/2)</f>
+        <v>14.25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,13 +2113,16 @@
       <c r="S20" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T20" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y20" s="7" t="n">
         <f aca="false">(SUM(O20:X20)-(SMALL(O20:X20,2)+SMALL(O20:X20,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z20" s="4" t="n">
         <f aca="false">Y20*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC20" s="5" t="n">
         <v>5</v>
@@ -2070,8 +2132,8 @@
         <v>5</v>
       </c>
       <c r="AJ20" s="8" t="n">
-        <f aca="false">AI20+AH20+AB20+AA20+Z20+M20</f>
-        <v>11.25</v>
+        <f aca="false">AI20+AH20+AB20+AA20+Z20+M20+(N20/2)</f>
+        <v>13.75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,13 +2181,16 @@
       <c r="S21" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T21" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y21" s="7" t="n">
         <f aca="false">(SUM(O21:X21)-(SMALL(O21:X21,2)+SMALL(O21:X21,1)))/40</f>
-        <v>0.375</v>
+        <v>0.465</v>
       </c>
       <c r="Z21" s="4" t="n">
         <f aca="false">Y21*10</f>
-        <v>3.75</v>
+        <v>4.65</v>
       </c>
       <c r="AC21" s="5" t="n">
         <v>5</v>
@@ -2135,8 +2200,8 @@
         <v>5</v>
       </c>
       <c r="AJ21" s="8" t="n">
-        <f aca="false">AI21+AH21+AB21+AA21+Z21+M21</f>
-        <v>11.25</v>
+        <f aca="false">AI21+AH21+AB21+AA21+Z21+M21+(N21/2)</f>
+        <v>13.9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,13 +2249,16 @@
       <c r="S22" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T22" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y22" s="7" t="n">
         <f aca="false">(SUM(O22:X22)-(SMALL(O22:X22,2)+SMALL(O22:X22,1)))/40</f>
-        <v>0.375</v>
+        <v>0.47</v>
       </c>
       <c r="Z22" s="4" t="n">
         <f aca="false">Y22*10</f>
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="AC22" s="5" t="n">
         <v>5</v>
@@ -2200,8 +2268,8 @@
         <v>5</v>
       </c>
       <c r="AJ22" s="8" t="n">
-        <f aca="false">AI22+AH22+AB22+AA22+Z22+M22</f>
-        <v>11.25</v>
+        <f aca="false">AI22+AH22+AB22+AA22+Z22+M22+(N22/2)</f>
+        <v>13.7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,13 +2318,16 @@
       <c r="S23" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T23" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y23" s="7" t="n">
         <f aca="false">(SUM(O23:X23)-(SMALL(O23:X23,2)+SMALL(O23:X23,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z23" s="4" t="n">
         <f aca="false">Y23*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC23" s="5" t="n">
         <v>5</v>
@@ -2266,8 +2337,8 @@
         <v>5</v>
       </c>
       <c r="AJ23" s="8" t="n">
-        <f aca="false">AI23+AH23+AB23+AA23+Z23+M23</f>
-        <v>11.25</v>
+        <f aca="false">AI23+AH23+AB23+AA23+Z23+M23+(N23/2)</f>
+        <v>14.25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,13 +2387,16 @@
       <c r="S24" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T24" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y24" s="7" t="n">
         <f aca="false">(SUM(O24:X24)-(SMALL(O24:X24,2)+SMALL(O24:X24,1)))/40</f>
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="Z24" s="4" t="n">
         <f aca="false">Y24*10</f>
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AC24" s="5" t="n">
         <v>5</v>
@@ -2332,8 +2406,8 @@
         <v>5</v>
       </c>
       <c r="AJ24" s="8" t="n">
-        <f aca="false">AI24+AH24+AB24+AA24+Z24+M24</f>
-        <v>11.25</v>
+        <f aca="false">AI24+AH24+AB24+AA24+Z24+M24+(N24/2)</f>
+        <v>13.25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,13 +2455,16 @@
       <c r="S25" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T25" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y25" s="7" t="n">
         <f aca="false">(SUM(O25:X25)-(SMALL(O25:X25,2)+SMALL(O25:X25,1)))/40</f>
-        <v>0.32</v>
+        <v>0.395</v>
       </c>
       <c r="Z25" s="4" t="n">
         <f aca="false">Y25*10</f>
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="AC25" s="5" t="n">
         <v>5</v>
@@ -2397,8 +2474,8 @@
         <v>5</v>
       </c>
       <c r="AJ25" s="8" t="n">
-        <f aca="false">AI25+AH25+AB25+AA25+Z25+M25</f>
-        <v>10.7</v>
+        <f aca="false">AI25+AH25+AB25+AA25+Z25+M25+(N25/2)</f>
+        <v>12.7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,13 +2523,16 @@
       <c r="S26" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T26" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y26" s="7" t="n">
         <f aca="false">(SUM(O26:X26)-(SMALL(O26:X26,2)+SMALL(O26:X26,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z26" s="4" t="n">
         <f aca="false">Y26*10</f>
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
       <c r="AC26" s="5" t="n">
         <v>5</v>
@@ -2462,8 +2542,8 @@
         <v>5</v>
       </c>
       <c r="AJ26" s="8" t="n">
-        <f aca="false">AI26+AH26+AB26+AA26+Z26+M26</f>
-        <v>11.25</v>
+        <f aca="false">AI26+AH26+AB26+AA26+Z26+M26+(N26/2)</f>
+        <v>14.125</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,13 +2590,16 @@
       <c r="S27" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T27" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y27" s="7" t="n">
         <f aca="false">(SUM(O27:X27)-(SMALL(O27:X27,2)+SMALL(O27:X27,1)))/40</f>
-        <v>0.375</v>
+        <v>0.495</v>
       </c>
       <c r="Z27" s="4" t="n">
         <f aca="false">Y27*10</f>
-        <v>3.75</v>
+        <v>4.95</v>
       </c>
       <c r="AC27" s="5" t="n">
         <v>5</v>
@@ -2526,8 +2609,8 @@
         <v>5</v>
       </c>
       <c r="AJ27" s="8" t="n">
-        <f aca="false">AI27+AH27+AB27+AA27+Z27+M27</f>
-        <v>11.25</v>
+        <f aca="false">AI27+AH27+AB27+AA27+Z27+M27+(N27/2)</f>
+        <v>13.95</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,13 +2658,16 @@
       <c r="S28" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T28" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y28" s="7" t="n">
         <f aca="false">(SUM(O28:X28)-(SMALL(O28:X28,2)+SMALL(O28:X28,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z28" s="4" t="n">
         <f aca="false">Y28*10</f>
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
       <c r="AC28" s="5" t="n">
         <v>5</v>
@@ -2591,8 +2677,8 @@
         <v>5</v>
       </c>
       <c r="AJ28" s="8" t="n">
-        <f aca="false">AI28+AH28+AB28+AA28+Z28+M28</f>
-        <v>11.25</v>
+        <f aca="false">AI28+AH28+AB28+AA28+Z28+M28+(N28/2)</f>
+        <v>14.125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,13 +2726,16 @@
       <c r="S29" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T29" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y29" s="7" t="n">
         <f aca="false">(SUM(O29:X29)-(SMALL(O29:X29,2)+SMALL(O29:X29,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z29" s="4" t="n">
         <f aca="false">Y29*10</f>
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
       <c r="AC29" s="5" t="n">
         <v>5</v>
@@ -2656,8 +2745,8 @@
         <v>5</v>
       </c>
       <c r="AJ29" s="8" t="n">
-        <f aca="false">AI29+AH29+AB29+AA29+Z29+M29</f>
-        <v>11.25</v>
+        <f aca="false">AI29+AH29+AB29+AA29+Z29+M29+(N29/2)</f>
+        <v>14.125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,13 +2793,16 @@
       <c r="S30" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T30" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y30" s="7" t="n">
         <f aca="false">(SUM(O30:X30)-(SMALL(O30:X30,2)+SMALL(O30:X30,1)))/40</f>
-        <v>0.375</v>
+        <v>0.463125</v>
       </c>
       <c r="Z30" s="4" t="n">
         <f aca="false">Y30*10</f>
-        <v>3.75</v>
+        <v>4.63125</v>
       </c>
       <c r="AC30" s="5" t="n">
         <v>5</v>
@@ -2720,8 +2812,8 @@
         <v>5</v>
       </c>
       <c r="AJ30" s="8" t="n">
-        <f aca="false">AI30+AH30+AB30+AA30+Z30+M30</f>
-        <v>11.25</v>
+        <f aca="false">AI30+AH30+AB30+AA30+Z30+M30+(N30/2)</f>
+        <v>13.13125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,13 +2861,16 @@
       <c r="S31" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T31" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y31" s="7" t="n">
         <f aca="false">(SUM(O31:X31)-(SMALL(O31:X31,2)+SMALL(O31:X31,1)))/40</f>
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="Z31" s="4" t="n">
         <f aca="false">Y31*10</f>
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="AC31" s="5" t="n">
         <v>0</v>
@@ -2785,8 +2880,8 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="8" t="n">
-        <f aca="false">AI31+AH31+AB31+AA31+Z31+M31</f>
-        <v>4.55</v>
+        <f aca="false">AI31+AH31+AB31+AA31+Z31+M31+(N31/2)</f>
+        <v>6.3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,13 +2929,16 @@
       <c r="S32" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T32" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y32" s="7" t="n">
         <f aca="false">(SUM(O32:X32)-(SMALL(O32:X32,2)+SMALL(O32:X32,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z32" s="4" t="n">
         <f aca="false">Y32*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC32" s="5" t="n">
         <v>5</v>
@@ -2850,8 +2948,8 @@
         <v>5</v>
       </c>
       <c r="AJ32" s="8" t="n">
-        <f aca="false">AI32+AH32+AB32+AA32+Z32+M32</f>
-        <v>11.25</v>
+        <f aca="false">AI32+AH32+AB32+AA32+Z32+M32+(N32/2)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,13 +2998,16 @@
       <c r="S33" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T33" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y33" s="7" t="n">
         <f aca="false">(SUM(O33:X33)-(SMALL(O33:X33,2)+SMALL(O33:X33,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z33" s="4" t="n">
         <f aca="false">Y33*10</f>
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
       <c r="AC33" s="5" t="n">
         <v>5</v>
@@ -2916,8 +3017,8 @@
         <v>5</v>
       </c>
       <c r="AJ33" s="8" t="n">
-        <f aca="false">AI33+AH33+AB33+AA33+Z33+M33</f>
-        <v>11.25</v>
+        <f aca="false">AI33+AH33+AB33+AA33+Z33+M33+(N33/2)</f>
+        <v>13.875</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,13 +3065,16 @@
       <c r="S34" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T34" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y34" s="7" t="n">
         <f aca="false">(SUM(O34:X34)-(SMALL(O34:X34,2)+SMALL(O34:X34,1)))/40</f>
-        <v>0.375</v>
+        <v>0.49</v>
       </c>
       <c r="Z34" s="4" t="n">
         <f aca="false">Y34*10</f>
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="AC34" s="5" t="n">
         <v>5</v>
@@ -2980,8 +3084,8 @@
         <v>5</v>
       </c>
       <c r="AJ34" s="8" t="n">
-        <f aca="false">AI34+AH34+AB34+AA34+Z34+M34</f>
-        <v>11.25</v>
+        <f aca="false">AI34+AH34+AB34+AA34+Z34+M34+(N34/2)</f>
+        <v>13.9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,13 +3133,16 @@
       <c r="S35" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T35" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y35" s="7" t="n">
         <f aca="false">(SUM(O35:X35)-(SMALL(O35:X35,2)+SMALL(O35:X35,1)))/40</f>
-        <v>0.3625</v>
+        <v>0.4625</v>
       </c>
       <c r="Z35" s="4" t="n">
         <f aca="false">Y35*10</f>
-        <v>3.625</v>
+        <v>4.625</v>
       </c>
       <c r="AC35" s="5" t="n">
         <v>5</v>
@@ -3045,8 +3152,8 @@
         <v>5</v>
       </c>
       <c r="AJ35" s="8" t="n">
-        <f aca="false">AI35+AH35+AB35+AA35+Z35+M35</f>
-        <v>9.875</v>
+        <f aca="false">AI35+AH35+AB35+AA35+Z35+M35+(N35/2)</f>
+        <v>12.625</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,13 +3200,16 @@
       <c r="S36" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T36" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y36" s="7" t="n">
         <f aca="false">(SUM(O36:X36)-(SMALL(O36:X36,2)+SMALL(O36:X36,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4025</v>
       </c>
       <c r="Z36" s="4" t="n">
         <f aca="false">Y36*10</f>
-        <v>3.75</v>
+        <v>4.025</v>
       </c>
       <c r="AC36" s="5" t="n">
         <v>0</v>
@@ -3109,8 +3219,8 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="8" t="n">
-        <f aca="false">AI36+AH36+AB36+AA36+Z36+M36</f>
-        <v>5</v>
+        <f aca="false">AI36+AH36+AB36+AA36+Z36+M36+(N36/2)</f>
+        <v>6.775</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,13 +3268,16 @@
       <c r="S37" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T37" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y37" s="7" t="n">
         <f aca="false">(SUM(O37:X37)-(SMALL(O37:X37,2)+SMALL(O37:X37,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z37" s="4" t="n">
         <f aca="false">Y37*10</f>
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
       <c r="AC37" s="5" t="n">
         <v>5</v>
@@ -3174,8 +3287,8 @@
         <v>5</v>
       </c>
       <c r="AJ37" s="8" t="n">
-        <f aca="false">AI37+AH37+AB37+AA37+Z37+M37</f>
-        <v>11.25</v>
+        <f aca="false">AI37+AH37+AB37+AA37+Z37+M37+(N37/2)</f>
+        <v>14.125</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,13 +3337,16 @@
       <c r="S38" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T38" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y38" s="7" t="n">
         <f aca="false">(SUM(O38:X38)-(SMALL(O38:X38,2)+SMALL(O38:X38,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z38" s="4" t="n">
         <f aca="false">Y38*10</f>
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
       <c r="AC38" s="5" t="n">
         <v>5</v>
@@ -3240,8 +3356,8 @@
         <v>5</v>
       </c>
       <c r="AJ38" s="8" t="n">
-        <f aca="false">AI38+AH38+AB38+AA38+Z38+M38</f>
-        <v>11.25</v>
+        <f aca="false">AI38+AH38+AB38+AA38+Z38+M38+(N38/2)</f>
+        <v>13.875</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,13 +3405,16 @@
       <c r="S39" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T39" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y39" s="7" t="n">
         <f aca="false">(SUM(O39:X39)-(SMALL(O39:X39,2)+SMALL(O39:X39,1)))/40</f>
-        <v>0.29875</v>
+        <v>0.32375</v>
       </c>
       <c r="Z39" s="4" t="n">
         <f aca="false">Y39*10</f>
-        <v>2.9875</v>
+        <v>3.2375</v>
       </c>
       <c r="AC39" s="5" t="n">
         <v>5</v>
@@ -3305,8 +3424,8 @@
         <v>5</v>
       </c>
       <c r="AJ39" s="8" t="n">
-        <f aca="false">AI39+AH39+AB39+AA39+Z39+M39</f>
-        <v>10.4875</v>
+        <f aca="false">AI39+AH39+AB39+AA39+Z39+M39+(N39/2)</f>
+        <v>10.7375</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,13 +3473,16 @@
       <c r="S40" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T40" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y40" s="7" t="n">
         <f aca="false">(SUM(O40:X40)-(SMALL(O40:X40,2)+SMALL(O40:X40,1)))/40</f>
-        <v>0.34875</v>
+        <v>0.44875</v>
       </c>
       <c r="Z40" s="4" t="n">
         <f aca="false">Y40*10</f>
-        <v>3.4875</v>
+        <v>4.4875</v>
       </c>
       <c r="AC40" s="5" t="n">
         <v>5</v>
@@ -3370,8 +3492,8 @@
         <v>5</v>
       </c>
       <c r="AJ40" s="8" t="n">
-        <f aca="false">AI40+AH40+AB40+AA40+Z40+M40</f>
-        <v>10.9875</v>
+        <f aca="false">AI40+AH40+AB40+AA40+Z40+M40+(N40/2)</f>
+        <v>11.9875</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,13 +3541,16 @@
       <c r="S41" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T41" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y41" s="7" t="n">
         <f aca="false">(SUM(O41:X41)-(SMALL(O41:X41,2)+SMALL(O41:X41,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z41" s="4" t="n">
         <f aca="false">Y41*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AC41" s="5" t="n">
         <v>5</v>
@@ -3435,8 +3560,8 @@
         <v>5</v>
       </c>
       <c r="AJ41" s="8" t="n">
-        <f aca="false">AI41+AH41+AB41+AA41+Z41+M41</f>
-        <v>10</v>
+        <f aca="false">AI41+AH41+AB41+AA41+Z41+M41+(N41/2)</f>
+        <v>11.25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,13 +3609,16 @@
       <c r="S42" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T42" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y42" s="7" t="n">
         <f aca="false">(SUM(O42:X42)-(SMALL(O42:X42,2)+SMALL(O42:X42,1)))/40</f>
-        <v>0.375</v>
+        <v>0.48</v>
       </c>
       <c r="Z42" s="4" t="n">
         <f aca="false">Y42*10</f>
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="AC42" s="5" t="n">
         <v>5</v>
@@ -3500,8 +3628,8 @@
         <v>5</v>
       </c>
       <c r="AJ42" s="8" t="n">
-        <f aca="false">AI42+AH42+AB42+AA42+Z42+M42</f>
-        <v>10</v>
+        <f aca="false">AI42+AH42+AB42+AA42+Z42+M42+(N42/2)</f>
+        <v>11.05</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,13 +3677,16 @@
       <c r="S43" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="T43" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y43" s="7" t="n">
         <f aca="false">(SUM(O43:X43)-(SMALL(O43:X43,2)+SMALL(O43:X43,1)))/40</f>
-        <v>0.3275</v>
+        <v>0.3525</v>
       </c>
       <c r="Z43" s="4" t="n">
         <f aca="false">Y43*10</f>
-        <v>3.275</v>
+        <v>3.525</v>
       </c>
       <c r="AC43" s="5" t="n">
         <v>0</v>
@@ -3565,8 +3696,8 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="8" t="n">
-        <f aca="false">AI43+AH43+AB43+AA43+Z43+M43</f>
-        <v>5.775</v>
+        <f aca="false">AI43+AH43+AB43+AA43+Z43+M43+(N43/2)</f>
+        <v>6.775</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,13 +3745,16 @@
       <c r="S44" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T44" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y44" s="7" t="n">
         <f aca="false">(SUM(O44:X44)-(SMALL(O44:X44,2)+SMALL(O44:X44,1)))/40</f>
-        <v>0.125</v>
+        <v>0.175</v>
       </c>
       <c r="Z44" s="4" t="n">
         <f aca="false">Y44*10</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AC44" s="5" t="n">
         <v>5</v>
@@ -3630,8 +3764,8 @@
         <v>5</v>
       </c>
       <c r="AJ44" s="8" t="n">
-        <f aca="false">AI44+AH44+AB44+AA44+Z44+M44</f>
-        <v>8.75</v>
+        <f aca="false">AI44+AH44+AB44+AA44+Z44+M44+(N44/2)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,13 +3812,16 @@
       <c r="S45" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="T45" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y45" s="7" t="n">
         <f aca="false">(SUM(O45:X45)-(SMALL(O45:X45,2)+SMALL(O45:X45,1)))/40</f>
-        <v>0.01</v>
+        <v>0.035</v>
       </c>
       <c r="Z45" s="4" t="n">
         <f aca="false">Y45*10</f>
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="AC45" s="5" t="n">
         <v>5</v>
@@ -3694,8 +3831,8 @@
         <v>5</v>
       </c>
       <c r="AJ45" s="8" t="n">
-        <f aca="false">AI45+AH45+AB45+AA45+Z45+M45</f>
-        <v>5.1</v>
+        <f aca="false">AI45+AH45+AB45+AA45+Z45+M45+(N45/2)</f>
+        <v>6.85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,13 +3879,16 @@
       <c r="S46" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T46" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y46" s="7" t="n">
         <f aca="false">(SUM(O46:X46)-(SMALL(O46:X46,2)+SMALL(O46:X46,1)))/40</f>
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="Z46" s="4" t="n">
         <f aca="false">Y46*10</f>
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AC46" s="5" t="n">
         <v>5</v>
@@ -3758,8 +3898,8 @@
         <v>5</v>
       </c>
       <c r="AJ46" s="8" t="n">
-        <f aca="false">AI46+AH46+AB46+AA46+Z46+M46</f>
-        <v>10</v>
+        <f aca="false">AI46+AH46+AB46+AA46+Z46+M46+(N46/2)</f>
+        <v>10.75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,13 +3946,16 @@
       <c r="S47" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T47" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y47" s="7" t="n">
         <f aca="false">(SUM(O47:X47)-(SMALL(O47:X47,2)+SMALL(O47:X47,1)))/40</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Z47" s="4" t="n">
         <f aca="false">Y47*10</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AC47" s="5" t="n">
         <v>0</v>
@@ -3822,8 +3965,8 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="8" t="n">
-        <f aca="false">AI47+AH47+AB47+AA47+Z47+M47</f>
-        <v>2.5</v>
+        <f aca="false">AI47+AH47+AB47+AA47+Z47+M47+(N47/2)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,13 +4013,16 @@
       <c r="S48" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T48" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y48" s="7" t="n">
         <f aca="false">(SUM(O48:X48)-(SMALL(O48:X48,2)+SMALL(O48:X48,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z48" s="4" t="n">
         <f aca="false">Y48*10</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AC48" s="5" t="n">
         <v>0</v>
@@ -3886,8 +4032,8 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="8" t="n">
-        <f aca="false">AI48+AH48+AB48+AA48+Z48+M48</f>
-        <v>6.25</v>
+        <f aca="false">AI48+AH48+AB48+AA48+Z48+M48+(N48/2)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,13 +4081,16 @@
       <c r="S49" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T49" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y49" s="7" t="n">
         <f aca="false">(SUM(O49:X49)-(SMALL(O49:X49,2)+SMALL(O49:X49,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4325</v>
       </c>
       <c r="Z49" s="4" t="n">
         <f aca="false">Y49*10</f>
-        <v>3.75</v>
+        <v>4.325</v>
       </c>
       <c r="AC49" s="5" t="n">
         <v>5</v>
@@ -3951,8 +4100,8 @@
         <v>5</v>
       </c>
       <c r="AJ49" s="8" t="n">
-        <f aca="false">AI49+AH49+AB49+AA49+Z49+M49</f>
-        <v>10</v>
+        <f aca="false">AI49+AH49+AB49+AA49+Z49+M49+(N49/2)</f>
+        <v>12.575</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,13 +4148,16 @@
       <c r="S50" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T50" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Y50" s="7" t="n">
         <f aca="false">(SUM(O50:X50)-(SMALL(O50:X50,2)+SMALL(O50:X50,1)))/40</f>
-        <v>0.3175</v>
+        <v>0.36</v>
       </c>
       <c r="Z50" s="4" t="n">
         <f aca="false">Y50*10</f>
-        <v>3.175</v>
+        <v>3.6</v>
       </c>
       <c r="AC50" s="5" t="n">
         <v>0</v>
@@ -4015,8 +4167,8 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="8" t="n">
-        <f aca="false">AI50+AH50+AB50+AA50+Z50+M50</f>
-        <v>4.425</v>
+        <f aca="false">AI50+AH50+AB50+AA50+Z50+M50+(N50/2)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,13 +4215,16 @@
       <c r="S51" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T51" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y51" s="7" t="n">
         <f aca="false">(SUM(O51:X51)-(SMALL(O51:X51,2)+SMALL(O51:X51,1)))/40</f>
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="Z51" s="4" t="n">
         <f aca="false">Y51*10</f>
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AC51" s="5" t="n">
         <v>0</v>
@@ -4079,8 +4234,8 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="8" t="n">
-        <f aca="false">AI51+AH51+AB51+AA51+Z51+M51</f>
-        <v>5</v>
+        <f aca="false">AI51+AH51+AB51+AA51+Z51+M51+(N51/2)</f>
+        <v>5.75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,13 +4282,16 @@
       <c r="S52" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="T52" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="Y52" s="7" t="n">
         <f aca="false">(SUM(O52:X52)-(SMALL(O52:X52,2)+SMALL(O52:X52,1)))/40</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Z52" s="4" t="n">
         <f aca="false">Y52*10</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AC52" s="5" t="n">
         <v>0</v>
@@ -4143,8 +4301,8 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="8" t="n">
-        <f aca="false">AI52+AH52+AB52+AA52+Z52+M52</f>
-        <v>5</v>
+        <f aca="false">AI52+AH52+AB52+AA52+Z52+M52+(N52/2)</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -704,39 +704,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.0561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.5357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.4489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.5051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="27.0867346938776"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="15" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="2.53571428571429"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="18" min="15" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="2.42857142857143"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t xml:space="preserve">Registered Trainee Name</t>
   </si>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Shahrukh Karim</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarang IShaque</t>
+    <t xml:space="preserve">Saad Ahmed</t>
   </si>
   <si>
     <t xml:space="preserve">Raza Ali</t>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rida Hassan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saad Ahmed</t>
   </si>
   <si>
     <t xml:space="preserve">M. Farhan Qamar</t>
@@ -356,7 +353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -401,6 +398,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -526,7 +530,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,6 +587,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -603,7 +615,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,7 +643,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF8F8FF"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -648,7 +660,7 @@
       <rgbColor rgb="FF708090"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF8F8FF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -698,45 +710,46 @@
   </sheetPr>
   <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="18" min="15" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="2.42857142857143"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.1122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.0051020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.1989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="20.2857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.2295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.3112244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.1275510204082"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="21.1581632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="9.76530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="13.515306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="20.5612244897959"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="17.2244897959184"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="17.2244897959184"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="16.9438775510204"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="28.0612244897959"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="25.2448979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,6 +911,7 @@
       <c r="T2" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U2" s="14"/>
       <c r="Y2" s="7" t="n">
         <f aca="false">(SUM(O2:X2)-(SMALL(O2:X2,2)+SMALL(O2:X2,1)))/40</f>
         <v>0.295</v>
@@ -965,13 +979,16 @@
       <c r="T3" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U3" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y3" s="7" t="n">
         <f aca="false">(SUM(O3:X3)-(SMALL(O3:X3,2)+SMALL(O3:X3,1)))/40</f>
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="4" t="n">
         <f aca="false">Y3*10</f>
-        <v>3.875</v>
+        <v>5</v>
       </c>
       <c r="AC3" s="5" t="n">
         <v>5</v>
@@ -982,7 +999,7 @@
       </c>
       <c r="AJ3" s="8" t="n">
         <f aca="false">AI3+AH3+AB3+AA3+Z3+M3+(N3/2)</f>
-        <v>12.125</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,6 +1049,7 @@
       <c r="T4" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U4" s="14"/>
       <c r="Y4" s="7" t="n">
         <f aca="false">(SUM(O4:X4)-(SMALL(O4:X4,2)+SMALL(O4:X4,1)))/40</f>
         <v>0.5</v>
@@ -1099,13 +1117,16 @@
       <c r="T5" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U5" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y5" s="7" t="n">
         <f aca="false">(SUM(O5:X5)-(SMALL(O5:X5,2)+SMALL(O5:X5,1)))/40</f>
-        <v>0.3375</v>
+        <v>0.45</v>
       </c>
       <c r="Z5" s="4" t="n">
         <f aca="false">Y5*10</f>
-        <v>3.375</v>
+        <v>4.5</v>
       </c>
       <c r="AC5" s="5" t="n">
         <v>5</v>
@@ -1116,7 +1137,7 @@
       </c>
       <c r="AJ5" s="8" t="n">
         <f aca="false">AI5+AH5+AB5+AA5+Z5+M5+(N5/2)</f>
-        <v>11.625</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1156,7 @@
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="13"/>
       <c r="L6" s="3" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
@@ -1167,13 +1188,16 @@
       <c r="T6" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U6" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y6" s="7" t="n">
         <f aca="false">(SUM(O6:X6)-(SMALL(O6:X6,2)+SMALL(O6:X6,1)))/40</f>
-        <v>0.475</v>
+        <v>0.6</v>
       </c>
       <c r="Z6" s="4" t="n">
         <f aca="false">Y6*10</f>
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AC6" s="5" t="n">
         <v>0</v>
@@ -1184,7 +1208,7 @@
       </c>
       <c r="AJ6" s="8" t="n">
         <f aca="false">AI6+AH6+AB6+AA6+Z6+M6+(N6/2)</f>
-        <v>7</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,13 +1258,16 @@
       <c r="T7" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="U7" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y7" s="7" t="n">
         <f aca="false">(SUM(O7:X7)-(SMALL(O7:X7,2)+SMALL(O7:X7,1)))/40</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Z7" s="4" t="n">
         <f aca="false">Y7*10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="5" t="n">
         <v>0</v>
@@ -1251,7 +1278,7 @@
       </c>
       <c r="AJ7" s="8" t="n">
         <f aca="false">AI7+AH7+AB7+AA7+Z7+M7+(N7/2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,13 +1330,16 @@
       <c r="T8" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="U8" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y8" s="7" t="n">
         <f aca="false">(SUM(O8:X8)-(SMALL(O8:X8,2)+SMALL(O8:X8,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Z8" s="4" t="n">
         <f aca="false">Y8*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AC8" s="5" t="n">
         <v>0</v>
@@ -1320,7 +1350,7 @@
       </c>
       <c r="AJ8" s="8" t="n">
         <f aca="false">AI8+AH8+AB8+AA8+Z8+M8+(N8/2)</f>
-        <v>9</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,17 +1367,17 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="L9" s="3" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M9" s="4" t="n">
         <f aca="false">L9*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N9" s="5" t="n">
         <v>4</v>
@@ -1370,13 +1400,16 @@
       <c r="T9" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U9" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y9" s="7" t="n">
         <f aca="false">(SUM(O9:X9)-(SMALL(O9:X9,2)+SMALL(O9:X9,1)))/40</f>
-        <v>0.0975</v>
+        <v>0.1975</v>
       </c>
       <c r="Z9" s="4" t="n">
         <f aca="false">Y9*10</f>
-        <v>0.975</v>
+        <v>1.975</v>
       </c>
       <c r="AC9" s="5" t="n">
         <v>5</v>
@@ -1387,7 +1420,7 @@
       </c>
       <c r="AJ9" s="8" t="n">
         <f aca="false">AI9+AH9+AB9+AA9+Z9+M9+(N9/2)</f>
-        <v>9.225</v>
+        <v>11.475</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,6 +1471,7 @@
       <c r="T10" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U10" s="14"/>
       <c r="Y10" s="7" t="n">
         <f aca="false">(SUM(O10:X10)-(SMALL(O10:X10,2)+SMALL(O10:X10,1)))/40</f>
         <v>0.49</v>
@@ -1505,13 +1539,16 @@
       <c r="T11" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="U11" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y11" s="7" t="n">
         <f aca="false">(SUM(O11:X11)-(SMALL(O11:X11,2)+SMALL(O11:X11,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Z11" s="4" t="n">
         <f aca="false">Y11*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AC11" s="5" t="n">
         <v>5</v>
@@ -1522,7 +1559,7 @@
       </c>
       <c r="AJ11" s="8" t="n">
         <f aca="false">AI11+AH11+AB11+AA11+Z11+M11+(N11/2)</f>
-        <v>13.5</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,13 +1609,16 @@
       <c r="T12" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="U12" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y12" s="7" t="n">
         <f aca="false">(SUM(O12:X12)-(SMALL(O12:X12,2)+SMALL(O12:X12,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Z12" s="4" t="n">
         <f aca="false">Y12*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AC12" s="5" t="n">
         <v>5</v>
@@ -1589,7 +1629,7 @@
       </c>
       <c r="AJ12" s="8" t="n">
         <f aca="false">AI12+AH12+AB12+AA12+Z12+M12+(N12/2)</f>
-        <v>13.5</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,6 +1679,7 @@
       <c r="T13" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U13" s="14"/>
       <c r="Y13" s="7" t="n">
         <f aca="false">(SUM(O13:X13)-(SMALL(O13:X13,2)+SMALL(O13:X13,1)))/40</f>
         <v>0.4</v>
@@ -1708,13 +1749,16 @@
       <c r="T14" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U14" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y14" s="7" t="n">
         <f aca="false">(SUM(O14:X14)-(SMALL(O14:X14,2)+SMALL(O14:X14,1)))/40</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Z14" s="4" t="n">
         <f aca="false">Y14*10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="5" t="n">
         <v>5</v>
@@ -1725,7 +1769,7 @@
       </c>
       <c r="AJ14" s="8" t="n">
         <f aca="false">AI14+AH14+AB14+AA14+Z14+M14+(N14/2)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,6 +1819,7 @@
       <c r="T15" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U15" s="14"/>
       <c r="Y15" s="7" t="n">
         <f aca="false">(SUM(O15:X15)-(SMALL(O15:X15,2)+SMALL(O15:X15,1)))/40</f>
         <v>0.5</v>
@@ -1843,13 +1888,16 @@
       <c r="T16" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U16" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y16" s="7" t="n">
         <f aca="false">(SUM(O16:X16)-(SMALL(O16:X16,2)+SMALL(O16:X16,1)))/40</f>
-        <v>0.4875</v>
+        <v>0.6</v>
       </c>
       <c r="Z16" s="4" t="n">
         <f aca="false">Y16*10</f>
-        <v>4.875</v>
+        <v>6</v>
       </c>
       <c r="AC16" s="5" t="n">
         <v>5</v>
@@ -1860,7 +1908,7 @@
       </c>
       <c r="AJ16" s="8" t="n">
         <f aca="false">AI16+AH16+AB16+AA16+Z16+M16+(N16/2)</f>
-        <v>12.375</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,7 +1927,7 @@
       <c r="E17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="13"/>
       <c r="L17" s="3" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
@@ -1912,13 +1960,16 @@
       <c r="T17" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U17" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y17" s="7" t="n">
         <f aca="false">(SUM(O17:X17)-(SMALL(O17:X17,2)+SMALL(O17:X17,1)))/40</f>
-        <v>0.4675</v>
+        <v>0.5925</v>
       </c>
       <c r="Z17" s="4" t="n">
         <f aca="false">Y17*10</f>
-        <v>4.675</v>
+        <v>5.925</v>
       </c>
       <c r="AC17" s="5" t="n">
         <v>5</v>
@@ -1929,7 +1980,7 @@
       </c>
       <c r="AJ17" s="8" t="n">
         <f aca="false">AI17+AH17+AB17+AA17+Z17+M17+(N17/2)</f>
-        <v>13.175</v>
+        <v>14.425</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,13 +2031,16 @@
       <c r="T18" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U18" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y18" s="7" t="n">
         <f aca="false">(SUM(O18:X18)-(SMALL(O18:X18,2)+SMALL(O18:X18,1)))/40</f>
-        <v>0.4875</v>
+        <v>0.6</v>
       </c>
       <c r="Z18" s="4" t="n">
         <f aca="false">Y18*10</f>
-        <v>4.875</v>
+        <v>6</v>
       </c>
       <c r="AC18" s="5" t="n">
         <v>5</v>
@@ -1997,7 +2051,7 @@
       </c>
       <c r="AJ18" s="8" t="n">
         <f aca="false">AI18+AH18+AB18+AA18+Z18+M18+(N18/2)</f>
-        <v>12.375</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2070,7 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="13"/>
       <c r="L19" s="3" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
@@ -2048,13 +2102,16 @@
       <c r="T19" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U19" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y19" s="7" t="n">
         <f aca="false">(SUM(O19:X19)-(SMALL(O19:X19,2)+SMALL(O19:X19,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Z19" s="4" t="n">
         <f aca="false">Y19*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AC19" s="5" t="n">
         <v>5</v>
@@ -2065,7 +2122,7 @@
       </c>
       <c r="AJ19" s="8" t="n">
         <f aca="false">AI19+AH19+AB19+AA19+Z19+M19+(N19/2)</f>
-        <v>14.25</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,13 +2173,16 @@
       <c r="T20" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U20" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y20" s="7" t="n">
         <f aca="false">(SUM(O20:X20)-(SMALL(O20:X20,2)+SMALL(O20:X20,1)))/40</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Z20" s="4" t="n">
         <f aca="false">Y20*10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC20" s="5" t="n">
         <v>5</v>
@@ -2133,7 +2193,7 @@
       </c>
       <c r="AJ20" s="8" t="n">
         <f aca="false">AI20+AH20+AB20+AA20+Z20+M20+(N20/2)</f>
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,7 +2212,7 @@
       <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="13"/>
       <c r="L21" s="3" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
@@ -2184,13 +2244,16 @@
       <c r="T21" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U21" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y21" s="7" t="n">
         <f aca="false">(SUM(O21:X21)-(SMALL(O21:X21,2)+SMALL(O21:X21,1)))/40</f>
-        <v>0.465</v>
+        <v>0.59</v>
       </c>
       <c r="Z21" s="4" t="n">
         <f aca="false">Y21*10</f>
-        <v>4.65</v>
+        <v>5.9</v>
       </c>
       <c r="AC21" s="5" t="n">
         <v>5</v>
@@ -2201,11 +2264,11 @@
       </c>
       <c r="AJ21" s="8" t="n">
         <f aca="false">AI21+AH21+AB21+AA21+Z21+M21+(N21/2)</f>
-        <v>13.9</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -2252,6 +2315,7 @@
       <c r="T22" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U22" s="14"/>
       <c r="Y22" s="7" t="n">
         <f aca="false">(SUM(O22:X22)-(SMALL(O22:X22,2)+SMALL(O22:X22,1)))/40</f>
         <v>0.47</v>
@@ -2273,7 +2337,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -2288,7 +2352,7 @@
       <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="13"/>
       <c r="L23" s="3" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
@@ -2321,13 +2385,16 @@
       <c r="T23" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="U23" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y23" s="7" t="n">
         <f aca="false">(SUM(O23:X23)-(SMALL(O23:X23,2)+SMALL(O23:X23,1)))/40</f>
-        <v>0.5</v>
+        <v>0.6125</v>
       </c>
       <c r="Z23" s="4" t="n">
         <f aca="false">Y23*10</f>
-        <v>5</v>
+        <v>6.125</v>
       </c>
       <c r="AC23" s="5" t="n">
         <v>5</v>
@@ -2338,11 +2405,11 @@
       </c>
       <c r="AJ23" s="8" t="n">
         <f aca="false">AI23+AH23+AB23+AA23+Z23+M23+(N23/2)</f>
-        <v>14.25</v>
+        <v>15.375</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -2390,13 +2457,16 @@
       <c r="T24" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="U24" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y24" s="7" t="n">
         <f aca="false">(SUM(O24:X24)-(SMALL(O24:X24,2)+SMALL(O24:X24,1)))/40</f>
-        <v>0.45</v>
+        <v>0.575</v>
       </c>
       <c r="Z24" s="4" t="n">
         <f aca="false">Y24*10</f>
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="AC24" s="5" t="n">
         <v>5</v>
@@ -2407,11 +2477,11 @@
       </c>
       <c r="AJ24" s="8" t="n">
         <f aca="false">AI24+AH24+AB24+AA24+Z24+M24+(N24/2)</f>
-        <v>13.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -2458,13 +2528,16 @@
       <c r="T25" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="U25" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y25" s="7" t="n">
         <f aca="false">(SUM(O25:X25)-(SMALL(O25:X25,2)+SMALL(O25:X25,1)))/40</f>
-        <v>0.395</v>
+        <v>0.52</v>
       </c>
       <c r="Z25" s="4" t="n">
         <f aca="false">Y25*10</f>
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="AC25" s="5" t="n">
         <v>5</v>
@@ -2475,11 +2548,11 @@
       </c>
       <c r="AJ25" s="8" t="n">
         <f aca="false">AI25+AH25+AB25+AA25+Z25+M25+(N25/2)</f>
-        <v>12.7</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -2526,6 +2599,7 @@
       <c r="T26" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="U26" s="14"/>
       <c r="Y26" s="7" t="n">
         <f aca="false">(SUM(O26:X26)-(SMALL(O26:X26,2)+SMALL(O26:X26,1)))/40</f>
         <v>0.4875</v>
@@ -2547,7 +2621,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -2593,13 +2667,16 @@
       <c r="T27" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="U27" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y27" s="7" t="n">
         <f aca="false">(SUM(O27:X27)-(SMALL(O27:X27,2)+SMALL(O27:X27,1)))/40</f>
-        <v>0.495</v>
+        <v>0.6075</v>
       </c>
       <c r="Z27" s="4" t="n">
         <f aca="false">Y27*10</f>
-        <v>4.95</v>
+        <v>6.075</v>
       </c>
       <c r="AC27" s="5" t="n">
         <v>5</v>
@@ -2610,11 +2687,11 @@
       </c>
       <c r="AJ27" s="8" t="n">
         <f aca="false">AI27+AH27+AB27+AA27+Z27+M27+(N27/2)</f>
-        <v>13.95</v>
+        <v>15.075</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -2661,13 +2738,16 @@
       <c r="T28" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U28" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y28" s="7" t="n">
         <f aca="false">(SUM(O28:X28)-(SMALL(O28:X28,2)+SMALL(O28:X28,1)))/40</f>
-        <v>0.4875</v>
+        <v>0.6</v>
       </c>
       <c r="Z28" s="4" t="n">
         <f aca="false">Y28*10</f>
-        <v>4.875</v>
+        <v>6</v>
       </c>
       <c r="AC28" s="5" t="n">
         <v>5</v>
@@ -2678,11 +2758,11 @@
       </c>
       <c r="AJ28" s="8" t="n">
         <f aca="false">AI28+AH28+AB28+AA28+Z28+M28+(N28/2)</f>
-        <v>14.125</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -2729,13 +2809,16 @@
       <c r="T29" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U29" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y29" s="7" t="n">
         <f aca="false">(SUM(O29:X29)-(SMALL(O29:X29,2)+SMALL(O29:X29,1)))/40</f>
-        <v>0.4875</v>
+        <v>0.6125</v>
       </c>
       <c r="Z29" s="4" t="n">
         <f aca="false">Y29*10</f>
-        <v>4.875</v>
+        <v>6.125</v>
       </c>
       <c r="AC29" s="5" t="n">
         <v>5</v>
@@ -2746,11 +2829,11 @@
       </c>
       <c r="AJ29" s="8" t="n">
         <f aca="false">AI29+AH29+AB29+AA29+Z29+M29+(N29/2)</f>
-        <v>14.125</v>
+        <v>15.375</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -2796,6 +2879,7 @@
       <c r="T30" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="U30" s="14"/>
       <c r="Y30" s="7" t="n">
         <f aca="false">(SUM(O30:X30)-(SMALL(O30:X30,2)+SMALL(O30:X30,1)))/40</f>
         <v>0.463125</v>
@@ -2817,7 +2901,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -2864,6 +2948,7 @@
       <c r="T31" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U31" s="14"/>
       <c r="Y31" s="7" t="n">
         <f aca="false">(SUM(O31:X31)-(SMALL(O31:X31,2)+SMALL(O31:X31,1)))/40</f>
         <v>0.355</v>
@@ -2885,7 +2970,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -2932,13 +3017,16 @@
       <c r="T32" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U32" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y32" s="7" t="n">
         <f aca="false">(SUM(O32:X32)-(SMALL(O32:X32,2)+SMALL(O32:X32,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Z32" s="4" t="n">
         <f aca="false">Y32*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AC32" s="5" t="n">
         <v>5</v>
@@ -2949,11 +3037,11 @@
       </c>
       <c r="AJ32" s="8" t="n">
         <f aca="false">AI32+AH32+AB32+AA32+Z32+M32+(N32/2)</f>
-        <v>14</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -3001,13 +3089,16 @@
       <c r="T33" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="U33" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y33" s="7" t="n">
         <f aca="false">(SUM(O33:X33)-(SMALL(O33:X33,2)+SMALL(O33:X33,1)))/40</f>
-        <v>0.4875</v>
+        <v>0.6125</v>
       </c>
       <c r="Z33" s="4" t="n">
         <f aca="false">Y33*10</f>
-        <v>4.875</v>
+        <v>6.125</v>
       </c>
       <c r="AC33" s="5" t="n">
         <v>5</v>
@@ -3018,11 +3109,11 @@
       </c>
       <c r="AJ33" s="8" t="n">
         <f aca="false">AI33+AH33+AB33+AA33+Z33+M33+(N33/2)</f>
-        <v>13.875</v>
+        <v>15.125</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -3068,13 +3159,16 @@
       <c r="T34" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U34" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y34" s="7" t="n">
         <f aca="false">(SUM(O34:X34)-(SMALL(O34:X34,2)+SMALL(O34:X34,1)))/40</f>
-        <v>0.49</v>
+        <v>0.6025</v>
       </c>
       <c r="Z34" s="4" t="n">
         <f aca="false">Y34*10</f>
-        <v>4.9</v>
+        <v>6.025</v>
       </c>
       <c r="AC34" s="5" t="n">
         <v>5</v>
@@ -3085,11 +3179,11 @@
       </c>
       <c r="AJ34" s="8" t="n">
         <f aca="false">AI34+AH34+AB34+AA34+Z34+M34+(N34/2)</f>
-        <v>13.9</v>
+        <v>15.025</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -3136,13 +3230,16 @@
       <c r="T35" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="U35" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y35" s="7" t="n">
         <f aca="false">(SUM(O35:X35)-(SMALL(O35:X35,2)+SMALL(O35:X35,1)))/40</f>
-        <v>0.4625</v>
+        <v>0.5625</v>
       </c>
       <c r="Z35" s="4" t="n">
         <f aca="false">Y35*10</f>
-        <v>4.625</v>
+        <v>5.625</v>
       </c>
       <c r="AC35" s="5" t="n">
         <v>5</v>
@@ -3153,11 +3250,11 @@
       </c>
       <c r="AJ35" s="8" t="n">
         <f aca="false">AI35+AH35+AB35+AA35+Z35+M35+(N35/2)</f>
-        <v>12.625</v>
+        <v>13.625</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -3203,6 +3300,7 @@
       <c r="T36" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U36" s="14"/>
       <c r="Y36" s="7" t="n">
         <f aca="false">(SUM(O36:X36)-(SMALL(O36:X36,2)+SMALL(O36:X36,1)))/40</f>
         <v>0.4025</v>
@@ -3224,8 +3322,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>71</v>
+      <c r="A37" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0</v>
@@ -3271,13 +3369,16 @@
       <c r="T37" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="U37" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y37" s="7" t="n">
         <f aca="false">(SUM(O37:X37)-(SMALL(O37:X37,2)+SMALL(O37:X37,1)))/40</f>
-        <v>0.4875</v>
+        <v>0.6125</v>
       </c>
       <c r="Z37" s="4" t="n">
         <f aca="false">Y37*10</f>
-        <v>4.875</v>
+        <v>6.125</v>
       </c>
       <c r="AC37" s="5" t="n">
         <v>5</v>
@@ -3288,12 +3389,12 @@
       </c>
       <c r="AJ37" s="8" t="n">
         <f aca="false">AI37+AH37+AB37+AA37+Z37+M37+(N37/2)</f>
-        <v>14.125</v>
+        <v>15.375</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="s">
-        <v>72</v>
+      <c r="A38" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>0</v>
@@ -3307,7 +3408,7 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="13"/>
       <c r="L38" s="3" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
@@ -3340,13 +3441,16 @@
       <c r="T38" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U38" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y38" s="7" t="n">
         <f aca="false">(SUM(O38:X38)-(SMALL(O38:X38,2)+SMALL(O38:X38,1)))/40</f>
-        <v>0.4875</v>
+        <v>0.5875</v>
       </c>
       <c r="Z38" s="4" t="n">
         <f aca="false">Y38*10</f>
-        <v>4.875</v>
+        <v>5.875</v>
       </c>
       <c r="AC38" s="5" t="n">
         <v>5</v>
@@ -3357,12 +3461,12 @@
       </c>
       <c r="AJ38" s="8" t="n">
         <f aca="false">AI38+AH38+AB38+AA38+Z38+M38+(N38/2)</f>
-        <v>13.875</v>
+        <v>14.875</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="s">
-        <v>73</v>
+      <c r="A39" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0</v>
@@ -3408,13 +3512,16 @@
       <c r="T39" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U39" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y39" s="7" t="n">
         <f aca="false">(SUM(O39:X39)-(SMALL(O39:X39,2)+SMALL(O39:X39,1)))/40</f>
-        <v>0.32375</v>
+        <v>0.42375</v>
       </c>
       <c r="Z39" s="4" t="n">
         <f aca="false">Y39*10</f>
-        <v>3.2375</v>
+        <v>4.2375</v>
       </c>
       <c r="AC39" s="5" t="n">
         <v>5</v>
@@ -3425,12 +3532,12 @@
       </c>
       <c r="AJ39" s="8" t="n">
         <f aca="false">AI39+AH39+AB39+AA39+Z39+M39+(N39/2)</f>
-        <v>10.7375</v>
+        <v>11.7375</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
-        <v>74</v>
+      <c r="A40" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0</v>
@@ -3476,13 +3583,16 @@
       <c r="T40" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="U40" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y40" s="7" t="n">
         <f aca="false">(SUM(O40:X40)-(SMALL(O40:X40,2)+SMALL(O40:X40,1)))/40</f>
-        <v>0.44875</v>
+        <v>0.54875</v>
       </c>
       <c r="Z40" s="4" t="n">
         <f aca="false">Y40*10</f>
-        <v>4.4875</v>
+        <v>5.4875</v>
       </c>
       <c r="AC40" s="5" t="n">
         <v>5</v>
@@ -3493,12 +3603,12 @@
       </c>
       <c r="AJ40" s="8" t="n">
         <f aca="false">AI40+AH40+AB40+AA40+Z40+M40+(N40/2)</f>
-        <v>11.9875</v>
+        <v>12.9875</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
-        <v>75</v>
+      <c r="A41" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>0</v>
@@ -3544,13 +3654,16 @@
       <c r="T41" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="U41" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y41" s="7" t="n">
         <f aca="false">(SUM(O41:X41)-(SMALL(O41:X41,2)+SMALL(O41:X41,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Z41" s="4" t="n">
         <f aca="false">Y41*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AC41" s="5" t="n">
         <v>5</v>
@@ -3561,12 +3674,12 @@
       </c>
       <c r="AJ41" s="8" t="n">
         <f aca="false">AI41+AH41+AB41+AA41+Z41+M41+(N41/2)</f>
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
-        <v>76</v>
+      <c r="A42" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>0</v>
@@ -3612,6 +3725,7 @@
       <c r="T42" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U42" s="14"/>
       <c r="Y42" s="7" t="n">
         <f aca="false">(SUM(O42:X42)-(SMALL(O42:X42,2)+SMALL(O42:X42,1)))/40</f>
         <v>0.48</v>
@@ -3633,8 +3747,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
-        <v>77</v>
+      <c r="A43" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>0</v>
@@ -3680,13 +3794,16 @@
       <c r="T43" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U43" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y43" s="7" t="n">
         <f aca="false">(SUM(O43:X43)-(SMALL(O43:X43,2)+SMALL(O43:X43,1)))/40</f>
-        <v>0.3525</v>
+        <v>0.465</v>
       </c>
       <c r="Z43" s="4" t="n">
         <f aca="false">Y43*10</f>
-        <v>3.525</v>
+        <v>4.65</v>
       </c>
       <c r="AC43" s="5" t="n">
         <v>0</v>
@@ -3697,12 +3814,12 @@
       </c>
       <c r="AJ43" s="8" t="n">
         <f aca="false">AI43+AH43+AB43+AA43+Z43+M43+(N43/2)</f>
-        <v>6.775</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="s">
-        <v>78</v>
+      <c r="A44" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>0</v>
@@ -3748,13 +3865,16 @@
       <c r="T44" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U44" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y44" s="7" t="n">
         <f aca="false">(SUM(O44:X44)-(SMALL(O44:X44,2)+SMALL(O44:X44,1)))/40</f>
-        <v>0.175</v>
+        <v>0.2875</v>
       </c>
       <c r="Z44" s="4" t="n">
         <f aca="false">Y44*10</f>
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="AC44" s="5" t="n">
         <v>5</v>
@@ -3765,12 +3885,12 @@
       </c>
       <c r="AJ44" s="8" t="n">
         <f aca="false">AI44+AH44+AB44+AA44+Z44+M44+(N44/2)</f>
-        <v>11</v>
+        <v>12.125</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="s">
-        <v>79</v>
+      <c r="A45" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>0</v>
@@ -3779,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>0</v>
@@ -3788,11 +3908,11 @@
       <c r="G45" s="13"/>
       <c r="L45" s="3" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="M45" s="4" t="n">
         <f aca="false">L45*10</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N45" s="5" t="n">
         <v>3</v>
@@ -3815,13 +3935,16 @@
       <c r="T45" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U45" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y45" s="7" t="n">
         <f aca="false">(SUM(O45:X45)-(SMALL(O45:X45,2)+SMALL(O45:X45,1)))/40</f>
-        <v>0.035</v>
+        <v>0.1475</v>
       </c>
       <c r="Z45" s="4" t="n">
         <f aca="false">Y45*10</f>
-        <v>0.35</v>
+        <v>1.475</v>
       </c>
       <c r="AC45" s="5" t="n">
         <v>5</v>
@@ -3832,12 +3955,12 @@
       </c>
       <c r="AJ45" s="8" t="n">
         <f aca="false">AI45+AH45+AB45+AA45+Z45+M45+(N45/2)</f>
-        <v>6.85</v>
+        <v>9.225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="s">
-        <v>80</v>
+      <c r="A46" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>0</v>
@@ -3851,7 +3974,7 @@
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="13"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
@@ -3882,29 +4005,32 @@
       <c r="T46" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="U46" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y46" s="7" t="n">
         <f aca="false">(SUM(O46:X46)-(SMALL(O46:X46,2)+SMALL(O46:X46,1)))/40</f>
-        <v>0.45</v>
+        <v>0.575</v>
       </c>
       <c r="Z46" s="4" t="n">
         <f aca="false">Y46*10</f>
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="AC46" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="4" t="n">
         <f aca="false">AC46+AD46+AE46+AF46+AG46</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="8" t="n">
         <f aca="false">AI46+AH46+AB46+AA46+Z46+M46+(N46/2)</f>
-        <v>10.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="s">
-        <v>81</v>
+      <c r="A47" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>0</v>
@@ -3916,17 +4042,17 @@
         <v>0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="L47" s="3" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="M47" s="4" t="n">
         <f aca="false">L47*10</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N47" s="5" t="n">
         <v>4</v>
@@ -3949,6 +4075,7 @@
       <c r="T47" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U47" s="14"/>
       <c r="Y47" s="7" t="n">
         <f aca="false">(SUM(O47:X47)-(SMALL(O47:X47,2)+SMALL(O47:X47,1)))/40</f>
         <v>0.3</v>
@@ -3966,12 +4093,12 @@
       </c>
       <c r="AJ47" s="8" t="n">
         <f aca="false">AI47+AH47+AB47+AA47+Z47+M47+(N47/2)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="s">
-        <v>82</v>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>0</v>
@@ -3985,7 +4112,7 @@
       <c r="E48" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="13"/>
       <c r="L48" s="3" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
@@ -4016,13 +4143,16 @@
       <c r="T48" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U48" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y48" s="7" t="n">
         <f aca="false">(SUM(O48:X48)-(SMALL(O48:X48,2)+SMALL(O48:X48,1)))/40</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z48" s="4" t="n">
         <f aca="false">Y48*10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC48" s="5" t="n">
         <v>0</v>
@@ -4033,12 +4163,12 @@
       </c>
       <c r="AJ48" s="8" t="n">
         <f aca="false">AI48+AH48+AB48+AA48+Z48+M48+(N48/2)</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="s">
-        <v>83</v>
+      <c r="A49" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>0</v>
@@ -4084,13 +4214,16 @@
       <c r="T49" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U49" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Y49" s="7" t="n">
         <f aca="false">(SUM(O49:X49)-(SMALL(O49:X49,2)+SMALL(O49:X49,1)))/40</f>
-        <v>0.4325</v>
+        <v>0.545</v>
       </c>
       <c r="Z49" s="4" t="n">
         <f aca="false">Y49*10</f>
-        <v>4.325</v>
+        <v>5.45</v>
       </c>
       <c r="AC49" s="5" t="n">
         <v>5</v>
@@ -4101,12 +4234,12 @@
       </c>
       <c r="AJ49" s="8" t="n">
         <f aca="false">AI49+AH49+AB49+AA49+Z49+M49+(N49/2)</f>
-        <v>12.575</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
-        <v>84</v>
+      <c r="A50" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>0</v>
@@ -4120,7 +4253,7 @@
       <c r="E50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="13"/>
       <c r="L50" s="3" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
@@ -4151,13 +4284,16 @@
       <c r="T50" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="U50" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y50" s="7" t="n">
         <f aca="false">(SUM(O50:X50)-(SMALL(O50:X50,2)+SMALL(O50:X50,1)))/40</f>
-        <v>0.36</v>
+        <v>0.485</v>
       </c>
       <c r="Z50" s="4" t="n">
         <f aca="false">Y50*10</f>
-        <v>3.6</v>
+        <v>4.85</v>
       </c>
       <c r="AC50" s="5" t="n">
         <v>0</v>
@@ -4168,12 +4304,12 @@
       </c>
       <c r="AJ50" s="8" t="n">
         <f aca="false">AI50+AH50+AB50+AA50+Z50+M50+(N50/2)</f>
-        <v>6.6</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="s">
-        <v>85</v>
+      <c r="A51" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>0</v>
@@ -4187,7 +4323,7 @@
       <c r="E51" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="13"/>
       <c r="L51" s="3" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
@@ -4218,13 +4354,16 @@
       <c r="T51" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="U51" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y51" s="7" t="n">
         <f aca="false">(SUM(O51:X51)-(SMALL(O51:X51,2)+SMALL(O51:X51,1)))/40</f>
-        <v>0.45</v>
+        <v>0.575</v>
       </c>
       <c r="Z51" s="4" t="n">
         <f aca="false">Y51*10</f>
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="AC51" s="5" t="n">
         <v>0</v>
@@ -4235,12 +4374,12 @@
       </c>
       <c r="AJ51" s="8" t="n">
         <f aca="false">AI51+AH51+AB51+AA51+Z51+M51+(N51/2)</f>
-        <v>5.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
-        <v>86</v>
+      <c r="A52" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>0</v>
@@ -4331,129 +4470,129 @@
     </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="22"/>
+      <c r="E58" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20"/>
-      <c r="E58" s="21" t="s">
+      <c r="F58" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="G58" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G58" s="21" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="22"/>
+      <c r="E59" s="24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20"/>
-      <c r="E59" s="22" t="s">
+      <c r="F59" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="G59" s="24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22"/>
+      <c r="E60" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G59" s="22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20"/>
-      <c r="E60" s="22" t="s">
+      <c r="F60" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="G60" s="24" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="22"/>
+      <c r="E61" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="22" t="n">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20"/>
-      <c r="E61" s="22" t="s">
+      <c r="F61" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="G61" s="24" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="22"/>
+      <c r="E62" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G61" s="22" t="n">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20"/>
-      <c r="E62" s="22" t="s">
+      <c r="F62" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="G62" s="24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="22"/>
+      <c r="E63" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G62" s="22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20"/>
-      <c r="E63" s="22" t="s">
+      <c r="F63" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="G63" s="24" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="22"/>
+      <c r="E64" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="22" t="n">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20"/>
-      <c r="E64" s="22" t="s">
+      <c r="F64" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="G64" s="24" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="22"/>
+      <c r="E65" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="22" t="n">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20"/>
-      <c r="E65" s="22" t="s">
+      <c r="F65" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="G65" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="22"/>
+      <c r="E66" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G65" s="22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20"/>
-      <c r="E66" s="22" t="s">
+      <c r="F66" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="G66" s="24" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="22"/>
+      <c r="E67" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="22" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20"/>
-      <c r="E67" s="22" t="s">
+      <c r="F67" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G67" s="22" t="n">
+      <c r="G67" s="24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -710,46 +710,47 @@
   </sheetPr>
   <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.1122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.1989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.2295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.1275510204082"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="21.1581632653061"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="9.76530612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="13.515306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="20.5612244897959"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="28.0612244897959"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="6.75"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>5</v>
@@ -3969,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>5</v>
@@ -3978,11 +3979,11 @@
       <c r="G46" s="13"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M46" s="4" t="n">
         <f aca="false">L46*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N46" s="5" t="n">
         <v>0</v>
@@ -4025,7 +4026,7 @@
       </c>
       <c r="AJ46" s="8" t="n">
         <f aca="false">AI46+AH46+AB46+AA46+Z46+M46+(N46/2)</f>
-        <v>7</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>5</v>
@@ -4327,11 +4328,11 @@
       <c r="G51" s="13"/>
       <c r="L51" s="3" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="M51" s="4" t="n">
         <f aca="false">L51*10</f>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="N51" s="5" t="n">
         <v>0</v>
@@ -4374,7 +4375,7 @@
       </c>
       <c r="AJ51" s="8" t="n">
         <f aca="false">AI51+AH51+AB51+AA51+Z51+M51+(N51/2)</f>
-        <v>7</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t xml:space="preserve">Registered Trainee Name</t>
   </si>
@@ -115,7 +115,10 @@
     <t xml:space="preserve">Viva (5)</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional Requirements (20)</t>
+    <t xml:space="preserve">Prototype (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional Requirements (15)</t>
   </si>
   <si>
     <t xml:space="preserve">Presentations (5)</t>
@@ -530,7 +533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -587,8 +590,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -708,49 +715,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="6.75"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="8" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="22.0867346938776"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="15.5612244897959"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="5" width="32.6479591836735"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="5" width="25.8367346938776"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="8" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="24.1632653061224"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,11 +868,14 @@
       <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10"/>
+      <c r="AK1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>3</v>
@@ -912,7 +921,9 @@
       <c r="T2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="14"/>
+      <c r="U2" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y2" s="7" t="n">
         <f aca="false">(SUM(O2:X2)-(SMALL(O2:X2,2)+SMALL(O2:X2,1)))/40</f>
         <v>0.295</v>
@@ -924,18 +935,18 @@
       <c r="AC2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH2" s="4" t="n">
-        <f aca="false">AC2+AD2+AE2+AF2+AG2</f>
-        <v>5</v>
-      </c>
-      <c r="AJ2" s="8" t="n">
-        <f aca="false">AI2+AH2+AB2+AA2+Z2+M2+(N2/2)</f>
+      <c r="AI2" s="4" t="n">
+        <f aca="false">AC2+AD2+AE2+AG2+AH2+AF2</f>
+        <v>5</v>
+      </c>
+      <c r="AK2" s="8" t="n">
+        <f aca="false">AJ2+AI2+AB2+AA2+Z2+M2+(N2/2)</f>
         <v>12.45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3</v>
@@ -980,7 +991,7 @@
       <c r="T3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y3" s="7" t="n">
@@ -994,18 +1005,18 @@
       <c r="AC3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH3" s="4" t="n">
-        <f aca="false">AC3+AD3+AE3+AF3+AG3</f>
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="8" t="n">
-        <f aca="false">AI3+AH3+AB3+AA3+Z3+M3+(N3/2)</f>
+      <c r="AI3" s="4" t="n">
+        <f aca="false">AC3+AD3+AE3+AG3+AH3+AF3</f>
+        <v>5</v>
+      </c>
+      <c r="AK3" s="8" t="n">
+        <f aca="false">AJ3+AI3+AB3+AA3+Z3+M3+(N3/2)</f>
         <v>13.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>3</v>
@@ -1050,30 +1061,32 @@
       <c r="T4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="14"/>
+      <c r="U4" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y4" s="7" t="n">
         <f aca="false">(SUM(O4:X4)-(SMALL(O4:X4,2)+SMALL(O4:X4,1)))/40</f>
-        <v>0.5</v>
+        <v>0.595</v>
       </c>
       <c r="Z4" s="4" t="n">
         <f aca="false">Y4*10</f>
-        <v>5</v>
+        <v>5.95</v>
       </c>
       <c r="AC4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH4" s="4" t="n">
-        <f aca="false">AC4+AD4+AE4+AF4+AG4</f>
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="8" t="n">
-        <f aca="false">AI4+AH4+AB4+AA4+Z4+M4+(N4/2)</f>
-        <v>14.5</v>
+      <c r="AI4" s="4" t="n">
+        <f aca="false">AC4+AD4+AE4+AG4+AH4+AF4</f>
+        <v>5</v>
+      </c>
+      <c r="AK4" s="8" t="n">
+        <f aca="false">AJ4+AI4+AB4+AA4+Z4+M4+(N4/2)</f>
+        <v>15.45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>4</v>
@@ -1118,7 +1131,7 @@
       <c r="T5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y5" s="7" t="n">
@@ -1132,18 +1145,18 @@
       <c r="AC5" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH5" s="4" t="n">
-        <f aca="false">AC5+AD5+AE5+AF5+AG5</f>
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="8" t="n">
-        <f aca="false">AI5+AH5+AB5+AA5+Z5+M5+(N5/2)</f>
+      <c r="AI5" s="4" t="n">
+        <f aca="false">AC5+AD5+AE5+AG5+AH5+AF5</f>
+        <v>5</v>
+      </c>
+      <c r="AK5" s="8" t="n">
+        <f aca="false">AJ5+AI5+AB5+AA5+Z5+M5+(N5/2)</f>
         <v>12.75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>3</v>
@@ -1157,7 +1170,7 @@
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="13"/>
       <c r="L6" s="3" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
@@ -1189,7 +1202,7 @@
       <c r="T6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y6" s="7" t="n">
@@ -1203,18 +1216,18 @@
       <c r="AC6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH6" s="4" t="n">
-        <f aca="false">AC6+AD6+AE6+AF6+AG6</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="8" t="n">
-        <f aca="false">AI6+AH6+AB6+AA6+Z6+M6+(N6/2)</f>
+      <c r="AI6" s="4" t="n">
+        <f aca="false">AC6+AD6+AE6+AG6+AH6+AF6</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="8" t="n">
+        <f aca="false">AJ6+AI6+AB6+AA6+Z6+M6+(N6/2)</f>
         <v>8.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>3</v>
@@ -1259,7 +1272,7 @@
       <c r="T7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y7" s="7" t="n">
@@ -1273,18 +1286,18 @@
       <c r="AC7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH7" s="4" t="n">
-        <f aca="false">AC7+AD7+AE7+AF7+AG7</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="8" t="n">
-        <f aca="false">AI7+AH7+AB7+AA7+Z7+M7+(N7/2)</f>
+      <c r="AI7" s="4" t="n">
+        <f aca="false">AC7+AD7+AE7+AG7+AH7+AF7</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="8" t="n">
+        <f aca="false">AJ7+AI7+AB7+AA7+Z7+M7+(N7/2)</f>
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>5</v>
@@ -1331,7 +1344,7 @@
       <c r="T8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y8" s="7" t="n">
@@ -1345,18 +1358,18 @@
       <c r="AC8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH8" s="4" t="n">
-        <f aca="false">AC8+AD8+AE8+AF8+AG8</f>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="8" t="n">
-        <f aca="false">AI8+AH8+AB8+AA8+Z8+M8+(N8/2)</f>
+      <c r="AI8" s="4" t="n">
+        <f aca="false">AC8+AD8+AE8+AG8+AH8+AF8</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8" t="n">
+        <f aca="false">AJ8+AI8+AB8+AA8+Z8+M8+(N8/2)</f>
         <v>10.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -1401,7 +1414,7 @@
       <c r="T9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y9" s="7" t="n">
@@ -1415,18 +1428,18 @@
       <c r="AC9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH9" s="4" t="n">
-        <f aca="false">AC9+AD9+AE9+AF9+AG9</f>
-        <v>5</v>
-      </c>
-      <c r="AJ9" s="8" t="n">
-        <f aca="false">AI9+AH9+AB9+AA9+Z9+M9+(N9/2)</f>
+      <c r="AI9" s="4" t="n">
+        <f aca="false">AC9+AD9+AE9+AG9+AH9+AF9</f>
+        <v>5</v>
+      </c>
+      <c r="AK9" s="8" t="n">
+        <f aca="false">AJ9+AI9+AB9+AA9+Z9+M9+(N9/2)</f>
         <v>11.475</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>5</v>
@@ -1472,30 +1485,32 @@
       <c r="T10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U10" s="14"/>
+      <c r="U10" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y10" s="7" t="n">
         <f aca="false">(SUM(O10:X10)-(SMALL(O10:X10,2)+SMALL(O10:X10,1)))/40</f>
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="Z10" s="4" t="n">
         <f aca="false">Y10*10</f>
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AC10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" s="4" t="n">
-        <f aca="false">AC10+AD10+AE10+AF10+AG10</f>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="8" t="n">
-        <f aca="false">AI10+AH10+AB10+AA10+Z10+M10+(N10/2)</f>
-        <v>9.4</v>
+      <c r="AI10" s="4" t="n">
+        <f aca="false">AC10+AD10+AE10+AG10+AH10+AF10</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="8" t="n">
+        <f aca="false">AJ10+AI10+AB10+AA10+Z10+M10+(N10/2)</f>
+        <v>9.9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>3</v>
@@ -1540,7 +1555,7 @@
       <c r="T11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="U11" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y11" s="7" t="n">
@@ -1554,18 +1569,18 @@
       <c r="AC11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH11" s="4" t="n">
-        <f aca="false">AC11+AD11+AE11+AF11+AG11</f>
-        <v>5</v>
-      </c>
-      <c r="AJ11" s="8" t="n">
-        <f aca="false">AI11+AH11+AB11+AA11+Z11+M11+(N11/2)</f>
+      <c r="AI11" s="4" t="n">
+        <f aca="false">AC11+AD11+AE11+AG11+AH11+AF11</f>
+        <v>5</v>
+      </c>
+      <c r="AK11" s="8" t="n">
+        <f aca="false">AJ11+AI11+AB11+AA11+Z11+M11+(N11/2)</f>
         <v>14.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>4</v>
@@ -1610,7 +1625,7 @@
       <c r="T12" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="U12" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y12" s="7" t="n">
@@ -1624,18 +1639,18 @@
       <c r="AC12" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH12" s="4" t="n">
-        <f aca="false">AC12+AD12+AE12+AF12+AG12</f>
-        <v>5</v>
-      </c>
-      <c r="AJ12" s="8" t="n">
-        <f aca="false">AI12+AH12+AB12+AA12+Z12+M12+(N12/2)</f>
+      <c r="AI12" s="4" t="n">
+        <f aca="false">AC12+AD12+AE12+AG12+AH12+AF12</f>
+        <v>5</v>
+      </c>
+      <c r="AK12" s="8" t="n">
+        <f aca="false">AJ12+AI12+AB12+AA12+Z12+M12+(N12/2)</f>
         <v>14.75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>4.5</v>
@@ -1680,7 +1695,9 @@
       <c r="T13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U13" s="14"/>
+      <c r="U13" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y13" s="7" t="n">
         <f aca="false">(SUM(O13:X13)-(SMALL(O13:X13,2)+SMALL(O13:X13,1)))/40</f>
         <v>0.4</v>
@@ -1692,18 +1709,18 @@
       <c r="AC13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH13" s="4" t="n">
-        <f aca="false">AC13+AD13+AE13+AF13+AG13</f>
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="8" t="n">
-        <f aca="false">AI13+AH13+AB13+AA13+Z13+M13+(N13/2)</f>
+      <c r="AI13" s="4" t="n">
+        <f aca="false">AC13+AD13+AE13+AG13+AH13+AF13</f>
+        <v>5</v>
+      </c>
+      <c r="AK13" s="8" t="n">
+        <f aca="false">AJ13+AI13+AB13+AA13+Z13+M13+(N13/2)</f>
         <v>11.375</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>3</v>
@@ -1750,7 +1767,7 @@
       <c r="T14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="U14" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y14" s="7" t="n">
@@ -1764,18 +1781,18 @@
       <c r="AC14" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH14" s="4" t="n">
-        <f aca="false">AC14+AD14+AE14+AF14+AG14</f>
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="8" t="n">
-        <f aca="false">AI14+AH14+AB14+AA14+Z14+M14+(N14/2)</f>
+      <c r="AI14" s="4" t="n">
+        <f aca="false">AC14+AD14+AE14+AG14+AH14+AF14</f>
+        <v>5</v>
+      </c>
+      <c r="AK14" s="8" t="n">
+        <f aca="false">AJ14+AI14+AB14+AA14+Z14+M14+(N14/2)</f>
         <v>14.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>5</v>
@@ -1820,30 +1837,32 @@
       <c r="T15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="14"/>
+      <c r="U15" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y15" s="7" t="n">
         <f aca="false">(SUM(O15:X15)-(SMALL(O15:X15,2)+SMALL(O15:X15,1)))/40</f>
-        <v>0.5</v>
+        <v>0.5925</v>
       </c>
       <c r="Z15" s="4" t="n">
         <f aca="false">Y15*10</f>
-        <v>5</v>
+        <v>5.925</v>
       </c>
       <c r="AC15" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH15" s="4" t="n">
-        <f aca="false">AC15+AD15+AE15+AF15+AG15</f>
-        <v>5</v>
-      </c>
-      <c r="AJ15" s="8" t="n">
-        <f aca="false">AI15+AH15+AB15+AA15+Z15+M15+(N15/2)</f>
-        <v>14.5</v>
+      <c r="AI15" s="4" t="n">
+        <f aca="false">AC15+AD15+AE15+AG15+AH15+AF15</f>
+        <v>5</v>
+      </c>
+      <c r="AK15" s="8" t="n">
+        <f aca="false">AJ15+AI15+AB15+AA15+Z15+M15+(N15/2)</f>
+        <v>15.425</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>3</v>
@@ -1889,7 +1908,7 @@
       <c r="T16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y16" s="7" t="n">
@@ -1903,18 +1922,18 @@
       <c r="AC16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH16" s="4" t="n">
-        <f aca="false">AC16+AD16+AE16+AF16+AG16</f>
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="8" t="n">
-        <f aca="false">AI16+AH16+AB16+AA16+Z16+M16+(N16/2)</f>
+      <c r="AI16" s="4" t="n">
+        <f aca="false">AC16+AD16+AE16+AG16+AH16+AF16</f>
+        <v>5</v>
+      </c>
+      <c r="AK16" s="8" t="n">
+        <f aca="false">AJ16+AI16+AB16+AA16+Z16+M16+(N16/2)</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>3</v>
@@ -1928,7 +1947,7 @@
       <c r="E17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="13"/>
       <c r="L17" s="3" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
@@ -1961,7 +1980,7 @@
       <c r="T17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="U17" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y17" s="7" t="n">
@@ -1975,18 +1994,18 @@
       <c r="AC17" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH17" s="4" t="n">
-        <f aca="false">AC17+AD17+AE17+AF17+AG17</f>
-        <v>5</v>
-      </c>
-      <c r="AJ17" s="8" t="n">
-        <f aca="false">AI17+AH17+AB17+AA17+Z17+M17+(N17/2)</f>
+      <c r="AI17" s="4" t="n">
+        <f aca="false">AC17+AD17+AE17+AG17+AH17+AF17</f>
+        <v>5</v>
+      </c>
+      <c r="AK17" s="8" t="n">
+        <f aca="false">AJ17+AI17+AB17+AA17+Z17+M17+(N17/2)</f>
         <v>14.425</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>3</v>
@@ -2032,7 +2051,7 @@
       <c r="T18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="U18" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y18" s="7" t="n">
@@ -2046,18 +2065,18 @@
       <c r="AC18" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH18" s="4" t="n">
-        <f aca="false">AC18+AD18+AE18+AF18+AG18</f>
-        <v>5</v>
-      </c>
-      <c r="AJ18" s="8" t="n">
-        <f aca="false">AI18+AH18+AB18+AA18+Z18+M18+(N18/2)</f>
+      <c r="AI18" s="4" t="n">
+        <f aca="false">AC18+AD18+AE18+AG18+AH18+AF18</f>
+        <v>5</v>
+      </c>
+      <c r="AK18" s="8" t="n">
+        <f aca="false">AJ18+AI18+AB18+AA18+Z18+M18+(N18/2)</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>4</v>
@@ -2071,7 +2090,7 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="13"/>
       <c r="L19" s="3" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
@@ -2103,7 +2122,7 @@
       <c r="T19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="U19" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y19" s="7" t="n">
@@ -2117,18 +2136,18 @@
       <c r="AC19" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH19" s="4" t="n">
-        <f aca="false">AC19+AD19+AE19+AF19+AG19</f>
-        <v>5</v>
-      </c>
-      <c r="AJ19" s="8" t="n">
-        <f aca="false">AI19+AH19+AB19+AA19+Z19+M19+(N19/2)</f>
+      <c r="AI19" s="4" t="n">
+        <f aca="false">AC19+AD19+AE19+AG19+AH19+AF19</f>
+        <v>5</v>
+      </c>
+      <c r="AK19" s="8" t="n">
+        <f aca="false">AJ19+AI19+AB19+AA19+Z19+M19+(N19/2)</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0</v>
@@ -2174,7 +2193,7 @@
       <c r="T20" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="U20" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y20" s="7" t="n">
@@ -2188,18 +2207,18 @@
       <c r="AC20" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH20" s="4" t="n">
-        <f aca="false">AC20+AD20+AE20+AF20+AG20</f>
-        <v>5</v>
-      </c>
-      <c r="AJ20" s="8" t="n">
-        <f aca="false">AI20+AH20+AB20+AA20+Z20+M20+(N20/2)</f>
+      <c r="AI20" s="4" t="n">
+        <f aca="false">AC20+AD20+AE20+AG20+AH20+AF20</f>
+        <v>5</v>
+      </c>
+      <c r="AK20" s="8" t="n">
+        <f aca="false">AJ20+AI20+AB20+AA20+Z20+M20+(N20/2)</f>
         <v>14.75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0</v>
@@ -2213,7 +2232,7 @@
       <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="13"/>
       <c r="L21" s="3" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
@@ -2245,7 +2264,7 @@
       <c r="T21" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="U21" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y21" s="7" t="n">
@@ -2259,18 +2278,18 @@
       <c r="AC21" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH21" s="4" t="n">
-        <f aca="false">AC21+AD21+AE21+AF21+AG21</f>
-        <v>5</v>
-      </c>
-      <c r="AJ21" s="8" t="n">
-        <f aca="false">AI21+AH21+AB21+AA21+Z21+M21+(N21/2)</f>
+      <c r="AI21" s="4" t="n">
+        <f aca="false">AC21+AD21+AE21+AG21+AH21+AF21</f>
+        <v>5</v>
+      </c>
+      <c r="AK21" s="8" t="n">
+        <f aca="false">AJ21+AI21+AB21+AA21+Z21+M21+(N21/2)</f>
         <v>15.15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>56</v>
+      <c r="A22" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0</v>
@@ -2316,30 +2335,32 @@
       <c r="T22" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U22" s="14"/>
+      <c r="U22" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y22" s="7" t="n">
         <f aca="false">(SUM(O22:X22)-(SMALL(O22:X22,2)+SMALL(O22:X22,1)))/40</f>
-        <v>0.47</v>
+        <v>0.495</v>
       </c>
       <c r="Z22" s="4" t="n">
         <f aca="false">Y22*10</f>
-        <v>4.7</v>
+        <v>4.95</v>
       </c>
       <c r="AC22" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH22" s="4" t="n">
-        <f aca="false">AC22+AD22+AE22+AF22+AG22</f>
-        <v>5</v>
-      </c>
-      <c r="AJ22" s="8" t="n">
-        <f aca="false">AI22+AH22+AB22+AA22+Z22+M22+(N22/2)</f>
-        <v>13.7</v>
+      <c r="AI22" s="4" t="n">
+        <f aca="false">AC22+AD22+AE22+AG22+AH22+AF22</f>
+        <v>5</v>
+      </c>
+      <c r="AK22" s="8" t="n">
+        <f aca="false">AJ22+AI22+AB22+AA22+Z22+M22+(N22/2)</f>
+        <v>13.95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>57</v>
+      <c r="A23" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0</v>
@@ -2353,7 +2374,7 @@
       <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="13"/>
       <c r="L23" s="3" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
@@ -2386,7 +2407,7 @@
       <c r="T23" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="U23" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y23" s="7" t="n">
@@ -2400,18 +2421,18 @@
       <c r="AC23" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH23" s="4" t="n">
-        <f aca="false">AC23+AD23+AE23+AF23+AG23</f>
-        <v>5</v>
-      </c>
-      <c r="AJ23" s="8" t="n">
-        <f aca="false">AI23+AH23+AB23+AA23+Z23+M23+(N23/2)</f>
+      <c r="AI23" s="4" t="n">
+        <f aca="false">AC23+AD23+AE23+AG23+AH23+AF23</f>
+        <v>5</v>
+      </c>
+      <c r="AK23" s="8" t="n">
+        <f aca="false">AJ23+AI23+AB23+AA23+Z23+M23+(N23/2)</f>
         <v>15.375</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>58</v>
+      <c r="A24" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0</v>
@@ -2458,7 +2479,7 @@
       <c r="T24" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="U24" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y24" s="7" t="n">
@@ -2472,18 +2493,18 @@
       <c r="AC24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH24" s="4" t="n">
-        <f aca="false">AC24+AD24+AE24+AF24+AG24</f>
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="8" t="n">
-        <f aca="false">AI24+AH24+AB24+AA24+Z24+M24+(N24/2)</f>
+      <c r="AI24" s="4" t="n">
+        <f aca="false">AC24+AD24+AE24+AG24+AH24+AF24</f>
+        <v>5</v>
+      </c>
+      <c r="AK24" s="8" t="n">
+        <f aca="false">AJ24+AI24+AB24+AA24+Z24+M24+(N24/2)</f>
         <v>14.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>59</v>
+      <c r="A25" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0</v>
@@ -2529,7 +2550,7 @@
       <c r="T25" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="6" t="n">
+      <c r="U25" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y25" s="7" t="n">
@@ -2543,18 +2564,18 @@
       <c r="AC25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH25" s="4" t="n">
-        <f aca="false">AC25+AD25+AE25+AF25+AG25</f>
-        <v>5</v>
-      </c>
-      <c r="AJ25" s="8" t="n">
-        <f aca="false">AI25+AH25+AB25+AA25+Z25+M25+(N25/2)</f>
+      <c r="AI25" s="4" t="n">
+        <f aca="false">AC25+AD25+AE25+AG25+AH25+AF25</f>
+        <v>5</v>
+      </c>
+      <c r="AK25" s="8" t="n">
+        <f aca="false">AJ25+AI25+AB25+AA25+Z25+M25+(N25/2)</f>
         <v>13.95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
-        <v>60</v>
+      <c r="A26" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
@@ -2600,30 +2621,32 @@
       <c r="T26" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U26" s="14"/>
+      <c r="U26" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y26" s="7" t="n">
         <f aca="false">(SUM(O26:X26)-(SMALL(O26:X26,2)+SMALL(O26:X26,1)))/40</f>
-        <v>0.4875</v>
+        <v>0.5625</v>
       </c>
       <c r="Z26" s="4" t="n">
         <f aca="false">Y26*10</f>
-        <v>4.875</v>
+        <v>5.625</v>
       </c>
       <c r="AC26" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH26" s="4" t="n">
-        <f aca="false">AC26+AD26+AE26+AF26+AG26</f>
-        <v>5</v>
-      </c>
-      <c r="AJ26" s="8" t="n">
-        <f aca="false">AI26+AH26+AB26+AA26+Z26+M26+(N26/2)</f>
-        <v>14.125</v>
+      <c r="AI26" s="4" t="n">
+        <f aca="false">AC26+AD26+AE26+AG26+AH26+AF26</f>
+        <v>5</v>
+      </c>
+      <c r="AK26" s="8" t="n">
+        <f aca="false">AJ26+AI26+AB26+AA26+Z26+M26+(N26/2)</f>
+        <v>14.875</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>61</v>
+      <c r="A27" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -2668,7 +2691,7 @@
       <c r="T27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="U27" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y27" s="7" t="n">
@@ -2682,18 +2705,18 @@
       <c r="AC27" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH27" s="4" t="n">
-        <f aca="false">AC27+AD27+AE27+AF27+AG27</f>
-        <v>5</v>
-      </c>
-      <c r="AJ27" s="8" t="n">
-        <f aca="false">AI27+AH27+AB27+AA27+Z27+M27+(N27/2)</f>
+      <c r="AI27" s="4" t="n">
+        <f aca="false">AC27+AD27+AE27+AG27+AH27+AF27</f>
+        <v>5</v>
+      </c>
+      <c r="AK27" s="8" t="n">
+        <f aca="false">AJ27+AI27+AB27+AA27+Z27+M27+(N27/2)</f>
         <v>15.075</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
-        <v>62</v>
+      <c r="A28" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -2739,7 +2762,7 @@
       <c r="T28" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="U28" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y28" s="7" t="n">
@@ -2753,18 +2776,18 @@
       <c r="AC28" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH28" s="4" t="n">
-        <f aca="false">AC28+AD28+AE28+AF28+AG28</f>
-        <v>5</v>
-      </c>
-      <c r="AJ28" s="8" t="n">
-        <f aca="false">AI28+AH28+AB28+AA28+Z28+M28+(N28/2)</f>
+      <c r="AI28" s="4" t="n">
+        <f aca="false">AC28+AD28+AE28+AG28+AH28+AF28</f>
+        <v>5</v>
+      </c>
+      <c r="AK28" s="8" t="n">
+        <f aca="false">AJ28+AI28+AB28+AA28+Z28+M28+(N28/2)</f>
         <v>15.25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
-        <v>63</v>
+      <c r="A29" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -2810,7 +2833,7 @@
       <c r="T29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U29" s="6" t="n">
+      <c r="U29" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y29" s="7" t="n">
@@ -2824,18 +2847,18 @@
       <c r="AC29" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH29" s="4" t="n">
-        <f aca="false">AC29+AD29+AE29+AF29+AG29</f>
-        <v>5</v>
-      </c>
-      <c r="AJ29" s="8" t="n">
-        <f aca="false">AI29+AH29+AB29+AA29+Z29+M29+(N29/2)</f>
+      <c r="AI29" s="4" t="n">
+        <f aca="false">AC29+AD29+AE29+AG29+AH29+AF29</f>
+        <v>5</v>
+      </c>
+      <c r="AK29" s="8" t="n">
+        <f aca="false">AJ29+AI29+AB29+AA29+Z29+M29+(N29/2)</f>
         <v>15.375</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>64</v>
+      <c r="A30" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -2880,30 +2903,32 @@
       <c r="T30" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U30" s="14"/>
+      <c r="U30" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y30" s="7" t="n">
         <f aca="false">(SUM(O30:X30)-(SMALL(O30:X30,2)+SMALL(O30:X30,1)))/40</f>
-        <v>0.463125</v>
+        <v>0.538125</v>
       </c>
       <c r="Z30" s="4" t="n">
         <f aca="false">Y30*10</f>
-        <v>4.63125</v>
+        <v>5.38125</v>
       </c>
       <c r="AC30" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH30" s="4" t="n">
-        <f aca="false">AC30+AD30+AE30+AF30+AG30</f>
-        <v>5</v>
-      </c>
-      <c r="AJ30" s="8" t="n">
-        <f aca="false">AI30+AH30+AB30+AA30+Z30+M30+(N30/2)</f>
-        <v>13.13125</v>
+      <c r="AI30" s="4" t="n">
+        <f aca="false">AC30+AD30+AE30+AG30+AH30+AF30</f>
+        <v>5</v>
+      </c>
+      <c r="AK30" s="8" t="n">
+        <f aca="false">AJ30+AI30+AB30+AA30+Z30+M30+(N30/2)</f>
+        <v>13.88125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>65</v>
+      <c r="A31" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>0</v>
@@ -2949,7 +2974,9 @@
       <c r="T31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U31" s="14"/>
+      <c r="U31" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y31" s="7" t="n">
         <f aca="false">(SUM(O31:X31)-(SMALL(O31:X31,2)+SMALL(O31:X31,1)))/40</f>
         <v>0.355</v>
@@ -2961,18 +2988,18 @@
       <c r="AC31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH31" s="4" t="n">
-        <f aca="false">AC31+AD31+AE31+AF31+AG31</f>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="8" t="n">
-        <f aca="false">AI31+AH31+AB31+AA31+Z31+M31+(N31/2)</f>
+      <c r="AI31" s="4" t="n">
+        <f aca="false">AC31+AD31+AE31+AG31+AH31+AF31</f>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="8" t="n">
+        <f aca="false">AJ31+AI31+AB31+AA31+Z31+M31+(N31/2)</f>
         <v>6.3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
-        <v>66</v>
+      <c r="A32" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>0</v>
@@ -3018,7 +3045,7 @@
       <c r="T32" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="U32" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y32" s="7" t="n">
@@ -3032,18 +3059,18 @@
       <c r="AC32" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH32" s="4" t="n">
-        <f aca="false">AC32+AD32+AE32+AF32+AG32</f>
-        <v>5</v>
-      </c>
-      <c r="AJ32" s="8" t="n">
-        <f aca="false">AI32+AH32+AB32+AA32+Z32+M32+(N32/2)</f>
+      <c r="AI32" s="4" t="n">
+        <f aca="false">AC32+AD32+AE32+AG32+AH32+AF32</f>
+        <v>5</v>
+      </c>
+      <c r="AK32" s="8" t="n">
+        <f aca="false">AJ32+AI32+AB32+AA32+Z32+M32+(N32/2)</f>
         <v>15.25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>67</v>
+      <c r="A33" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>0</v>
@@ -3090,7 +3117,7 @@
       <c r="T33" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U33" s="6" t="n">
+      <c r="U33" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y33" s="7" t="n">
@@ -3104,18 +3131,18 @@
       <c r="AC33" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH33" s="4" t="n">
-        <f aca="false">AC33+AD33+AE33+AF33+AG33</f>
-        <v>5</v>
-      </c>
-      <c r="AJ33" s="8" t="n">
-        <f aca="false">AI33+AH33+AB33+AA33+Z33+M33+(N33/2)</f>
+      <c r="AI33" s="4" t="n">
+        <f aca="false">AC33+AD33+AE33+AG33+AH33+AF33</f>
+        <v>5</v>
+      </c>
+      <c r="AK33" s="8" t="n">
+        <f aca="false">AJ33+AI33+AB33+AA33+Z33+M33+(N33/2)</f>
         <v>15.125</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
-        <v>68</v>
+      <c r="A34" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>0</v>
@@ -3160,7 +3187,7 @@
       <c r="T34" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U34" s="6" t="n">
+      <c r="U34" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y34" s="7" t="n">
@@ -3174,18 +3201,18 @@
       <c r="AC34" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH34" s="4" t="n">
-        <f aca="false">AC34+AD34+AE34+AF34+AG34</f>
-        <v>5</v>
-      </c>
-      <c r="AJ34" s="8" t="n">
-        <f aca="false">AI34+AH34+AB34+AA34+Z34+M34+(N34/2)</f>
+      <c r="AI34" s="4" t="n">
+        <f aca="false">AC34+AD34+AE34+AG34+AH34+AF34</f>
+        <v>5</v>
+      </c>
+      <c r="AK34" s="8" t="n">
+        <f aca="false">AJ34+AI34+AB34+AA34+Z34+M34+(N34/2)</f>
         <v>15.025</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
-        <v>69</v>
+      <c r="A35" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>0</v>
@@ -3231,7 +3258,7 @@
       <c r="T35" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U35" s="6" t="n">
+      <c r="U35" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y35" s="7" t="n">
@@ -3245,18 +3272,18 @@
       <c r="AC35" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH35" s="4" t="n">
-        <f aca="false">AC35+AD35+AE35+AF35+AG35</f>
-        <v>5</v>
-      </c>
-      <c r="AJ35" s="8" t="n">
-        <f aca="false">AI35+AH35+AB35+AA35+Z35+M35+(N35/2)</f>
+      <c r="AI35" s="4" t="n">
+        <f aca="false">AC35+AD35+AE35+AG35+AH35+AF35</f>
+        <v>5</v>
+      </c>
+      <c r="AK35" s="8" t="n">
+        <f aca="false">AJ35+AI35+AB35+AA35+Z35+M35+(N35/2)</f>
         <v>13.625</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>70</v>
+      <c r="A36" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>0</v>
@@ -3301,30 +3328,32 @@
       <c r="T36" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U36" s="14"/>
+      <c r="U36" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y36" s="7" t="n">
         <f aca="false">(SUM(O36:X36)-(SMALL(O36:X36,2)+SMALL(O36:X36,1)))/40</f>
-        <v>0.4025</v>
+        <v>0.4275</v>
       </c>
       <c r="Z36" s="4" t="n">
         <f aca="false">Y36*10</f>
-        <v>4.025</v>
+        <v>4.275</v>
       </c>
       <c r="AC36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH36" s="4" t="n">
-        <f aca="false">AC36+AD36+AE36+AF36+AG36</f>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="8" t="n">
-        <f aca="false">AI36+AH36+AB36+AA36+Z36+M36+(N36/2)</f>
-        <v>6.775</v>
+      <c r="AI36" s="4" t="n">
+        <f aca="false">AC36+AD36+AE36+AG36+AH36+AF36</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="8" t="n">
+        <f aca="false">AJ36+AI36+AB36+AA36+Z36+M36+(N36/2)</f>
+        <v>7.025</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
-        <v>43</v>
+      <c r="A37" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0</v>
@@ -3370,7 +3399,7 @@
       <c r="T37" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="U37" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y37" s="7" t="n">
@@ -3384,18 +3413,18 @@
       <c r="AC37" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH37" s="4" t="n">
-        <f aca="false">AC37+AD37+AE37+AF37+AG37</f>
-        <v>5</v>
-      </c>
-      <c r="AJ37" s="8" t="n">
-        <f aca="false">AI37+AH37+AB37+AA37+Z37+M37+(N37/2)</f>
+      <c r="AI37" s="4" t="n">
+        <f aca="false">AC37+AD37+AE37+AG37+AH37+AF37</f>
+        <v>5</v>
+      </c>
+      <c r="AK37" s="8" t="n">
+        <f aca="false">AJ37+AI37+AB37+AA37+Z37+M37+(N37/2)</f>
         <v>15.375</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>71</v>
+      <c r="A38" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>0</v>
@@ -3409,7 +3438,7 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="13"/>
       <c r="L38" s="3" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
@@ -3442,7 +3471,7 @@
       <c r="T38" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="U38" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y38" s="7" t="n">
@@ -3456,18 +3485,18 @@
       <c r="AC38" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH38" s="4" t="n">
-        <f aca="false">AC38+AD38+AE38+AF38+AG38</f>
-        <v>5</v>
-      </c>
-      <c r="AJ38" s="8" t="n">
-        <f aca="false">AI38+AH38+AB38+AA38+Z38+M38+(N38/2)</f>
+      <c r="AI38" s="4" t="n">
+        <f aca="false">AC38+AD38+AE38+AG38+AH38+AF38</f>
+        <v>5</v>
+      </c>
+      <c r="AK38" s="8" t="n">
+        <f aca="false">AJ38+AI38+AB38+AA38+Z38+M38+(N38/2)</f>
         <v>14.875</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
-        <v>72</v>
+      <c r="A39" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0</v>
@@ -3513,7 +3542,7 @@
       <c r="T39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="6" t="n">
+      <c r="U39" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y39" s="7" t="n">
@@ -3527,18 +3556,18 @@
       <c r="AC39" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH39" s="4" t="n">
-        <f aca="false">AC39+AD39+AE39+AF39+AG39</f>
-        <v>5</v>
-      </c>
-      <c r="AJ39" s="8" t="n">
-        <f aca="false">AI39+AH39+AB39+AA39+Z39+M39+(N39/2)</f>
+      <c r="AI39" s="4" t="n">
+        <f aca="false">AC39+AD39+AE39+AG39+AH39+AF39</f>
+        <v>5</v>
+      </c>
+      <c r="AK39" s="8" t="n">
+        <f aca="false">AJ39+AI39+AB39+AA39+Z39+M39+(N39/2)</f>
         <v>11.7375</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="s">
-        <v>73</v>
+      <c r="A40" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0</v>
@@ -3584,7 +3613,7 @@
       <c r="T40" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U40" s="6" t="n">
+      <c r="U40" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y40" s="7" t="n">
@@ -3598,18 +3627,18 @@
       <c r="AC40" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH40" s="4" t="n">
-        <f aca="false">AC40+AD40+AE40+AF40+AG40</f>
-        <v>5</v>
-      </c>
-      <c r="AJ40" s="8" t="n">
-        <f aca="false">AI40+AH40+AB40+AA40+Z40+M40+(N40/2)</f>
+      <c r="AI40" s="4" t="n">
+        <f aca="false">AC40+AD40+AE40+AG40+AH40+AF40</f>
+        <v>5</v>
+      </c>
+      <c r="AK40" s="8" t="n">
+        <f aca="false">AJ40+AI40+AB40+AA40+Z40+M40+(N40/2)</f>
         <v>12.9875</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
-        <v>74</v>
+      <c r="A41" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>0</v>
@@ -3655,7 +3684,7 @@
       <c r="T41" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="U41" s="6" t="n">
+      <c r="U41" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y41" s="7" t="n">
@@ -3669,18 +3698,18 @@
       <c r="AC41" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH41" s="4" t="n">
-        <f aca="false">AC41+AD41+AE41+AF41+AG41</f>
-        <v>5</v>
-      </c>
-      <c r="AJ41" s="8" t="n">
-        <f aca="false">AI41+AH41+AB41+AA41+Z41+M41+(N41/2)</f>
+      <c r="AI41" s="4" t="n">
+        <f aca="false">AC41+AD41+AE41+AG41+AH41+AF41</f>
+        <v>5</v>
+      </c>
+      <c r="AK41" s="8" t="n">
+        <f aca="false">AJ41+AI41+AB41+AA41+Z41+M41+(N41/2)</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="s">
-        <v>75</v>
+      <c r="A42" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>0</v>
@@ -3726,30 +3755,32 @@
       <c r="T42" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="14"/>
+      <c r="U42" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y42" s="7" t="n">
         <f aca="false">(SUM(O42:X42)-(SMALL(O42:X42,2)+SMALL(O42:X42,1)))/40</f>
-        <v>0.48</v>
+        <v>0.505</v>
       </c>
       <c r="Z42" s="4" t="n">
         <f aca="false">Y42*10</f>
-        <v>4.8</v>
+        <v>5.05</v>
       </c>
       <c r="AC42" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH42" s="4" t="n">
-        <f aca="false">AC42+AD42+AE42+AF42+AG42</f>
-        <v>5</v>
-      </c>
-      <c r="AJ42" s="8" t="n">
-        <f aca="false">AI42+AH42+AB42+AA42+Z42+M42+(N42/2)</f>
-        <v>11.05</v>
+      <c r="AI42" s="4" t="n">
+        <f aca="false">AC42+AD42+AE42+AG42+AH42+AF42</f>
+        <v>5</v>
+      </c>
+      <c r="AK42" s="8" t="n">
+        <f aca="false">AJ42+AI42+AB42+AA42+Z42+M42+(N42/2)</f>
+        <v>11.3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
-        <v>76</v>
+      <c r="A43" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>0</v>
@@ -3795,7 +3826,7 @@
       <c r="T43" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U43" s="6" t="n">
+      <c r="U43" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y43" s="7" t="n">
@@ -3809,18 +3840,18 @@
       <c r="AC43" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH43" s="4" t="n">
-        <f aca="false">AC43+AD43+AE43+AF43+AG43</f>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="8" t="n">
-        <f aca="false">AI43+AH43+AB43+AA43+Z43+M43+(N43/2)</f>
+      <c r="AI43" s="4" t="n">
+        <f aca="false">AC43+AD43+AE43+AG43+AH43+AF43</f>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="8" t="n">
+        <f aca="false">AJ43+AI43+AB43+AA43+Z43+M43+(N43/2)</f>
         <v>7.9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
-        <v>77</v>
+      <c r="A44" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>0</v>
@@ -3866,7 +3897,7 @@
       <c r="T44" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U44" s="6" t="n">
+      <c r="U44" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y44" s="7" t="n">
@@ -3880,18 +3911,18 @@
       <c r="AC44" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH44" s="4" t="n">
-        <f aca="false">AC44+AD44+AE44+AF44+AG44</f>
-        <v>5</v>
-      </c>
-      <c r="AJ44" s="8" t="n">
-        <f aca="false">AI44+AH44+AB44+AA44+Z44+M44+(N44/2)</f>
+      <c r="AI44" s="4" t="n">
+        <f aca="false">AC44+AD44+AE44+AG44+AH44+AF44</f>
+        <v>5</v>
+      </c>
+      <c r="AK44" s="8" t="n">
+        <f aca="false">AJ44+AI44+AB44+AA44+Z44+M44+(N44/2)</f>
         <v>12.125</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
-        <v>78</v>
+      <c r="A45" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>0</v>
@@ -3936,7 +3967,7 @@
       <c r="T45" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U45" s="6" t="n">
+      <c r="U45" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y45" s="7" t="n">
@@ -3950,18 +3981,18 @@
       <c r="AC45" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH45" s="4" t="n">
-        <f aca="false">AC45+AD45+AE45+AF45+AG45</f>
-        <v>5</v>
-      </c>
-      <c r="AJ45" s="8" t="n">
-        <f aca="false">AI45+AH45+AB45+AA45+Z45+M45+(N45/2)</f>
+      <c r="AI45" s="4" t="n">
+        <f aca="false">AC45+AD45+AE45+AG45+AH45+AF45</f>
+        <v>5</v>
+      </c>
+      <c r="AK45" s="8" t="n">
+        <f aca="false">AJ45+AI45+AB45+AA45+Z45+M45+(N45/2)</f>
         <v>9.225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="s">
-        <v>79</v>
+      <c r="A46" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>0</v>
@@ -3975,7 +4006,7 @@
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="13"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
@@ -4006,7 +4037,7 @@
       <c r="T46" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U46" s="6" t="n">
+      <c r="U46" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y46" s="7" t="n">
@@ -4018,20 +4049,20 @@
         <v>5.75</v>
       </c>
       <c r="AC46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="4" t="n">
-        <f aca="false">AC46+AD46+AE46+AF46+AG46</f>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="8" t="n">
-        <f aca="false">AI46+AH46+AB46+AA46+Z46+M46+(N46/2)</f>
-        <v>8.25</v>
+        <v>5</v>
+      </c>
+      <c r="AI46" s="4" t="n">
+        <f aca="false">AC46+AD46+AE46+AG46+AH46+AF46</f>
+        <v>5</v>
+      </c>
+      <c r="AK46" s="8" t="n">
+        <f aca="false">AJ46+AI46+AB46+AA46+Z46+M46+(N46/2)</f>
+        <v>13.25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="s">
-        <v>80</v>
+      <c r="A47" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>0</v>
@@ -4076,7 +4107,9 @@
       <c r="T47" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U47" s="14"/>
+      <c r="U47" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y47" s="7" t="n">
         <f aca="false">(SUM(O47:X47)-(SMALL(O47:X47,2)+SMALL(O47:X47,1)))/40</f>
         <v>0.3</v>
@@ -4088,18 +4121,18 @@
       <c r="AC47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH47" s="4" t="n">
-        <f aca="false">AC47+AD47+AE47+AF47+AG47</f>
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="8" t="n">
-        <f aca="false">AI47+AH47+AB47+AA47+Z47+M47+(N47/2)</f>
+      <c r="AI47" s="4" t="n">
+        <f aca="false">AC47+AD47+AE47+AG47+AH47+AF47</f>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="8" t="n">
+        <f aca="false">AJ47+AI47+AB47+AA47+Z47+M47+(N47/2)</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
-        <v>81</v>
+      <c r="A48" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>0</v>
@@ -4113,7 +4146,7 @@
       <c r="E48" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="13"/>
       <c r="L48" s="3" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
@@ -4144,7 +4177,7 @@
       <c r="T48" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U48" s="6" t="n">
+      <c r="U48" s="15" t="n">
         <v>4</v>
       </c>
       <c r="Y48" s="7" t="n">
@@ -4158,18 +4191,18 @@
       <c r="AC48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH48" s="4" t="n">
-        <f aca="false">AC48+AD48+AE48+AF48+AG48</f>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="8" t="n">
-        <f aca="false">AI48+AH48+AB48+AA48+Z48+M48+(N48/2)</f>
+      <c r="AI48" s="4" t="n">
+        <f aca="false">AC48+AD48+AE48+AG48+AH48+AF48</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="8" t="n">
+        <f aca="false">AJ48+AI48+AB48+AA48+Z48+M48+(N48/2)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
-        <v>82</v>
+      <c r="A49" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>0</v>
@@ -4215,7 +4248,7 @@
       <c r="T49" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="6" t="n">
+      <c r="U49" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y49" s="7" t="n">
@@ -4229,18 +4262,18 @@
       <c r="AC49" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AH49" s="4" t="n">
-        <f aca="false">AC49+AD49+AE49+AF49+AG49</f>
-        <v>5</v>
-      </c>
-      <c r="AJ49" s="8" t="n">
-        <f aca="false">AI49+AH49+AB49+AA49+Z49+M49+(N49/2)</f>
+      <c r="AI49" s="4" t="n">
+        <f aca="false">AC49+AD49+AE49+AG49+AH49+AF49</f>
+        <v>5</v>
+      </c>
+      <c r="AK49" s="8" t="n">
+        <f aca="false">AJ49+AI49+AB49+AA49+Z49+M49+(N49/2)</f>
         <v>13.7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
-        <v>83</v>
+      <c r="A50" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>0</v>
@@ -4254,7 +4287,7 @@
       <c r="E50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="15"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="13"/>
       <c r="L50" s="3" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
@@ -4285,7 +4318,7 @@
       <c r="T50" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U50" s="6" t="n">
+      <c r="U50" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y50" s="7" t="n">
@@ -4299,18 +4332,18 @@
       <c r="AC50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH50" s="4" t="n">
-        <f aca="false">AC50+AD50+AE50+AF50+AG50</f>
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="8" t="n">
-        <f aca="false">AI50+AH50+AB50+AA50+Z50+M50+(N50/2)</f>
+      <c r="AI50" s="4" t="n">
+        <f aca="false">AC50+AD50+AE50+AG50+AH50+AF50</f>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="8" t="n">
+        <f aca="false">AJ50+AI50+AB50+AA50+Z50+M50+(N50/2)</f>
         <v>7.85</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
-        <v>84</v>
+      <c r="A51" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>0</v>
@@ -4324,7 +4357,7 @@
       <c r="E51" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="15"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="13"/>
       <c r="L51" s="3" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
@@ -4355,7 +4388,7 @@
       <c r="T51" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U51" s="6" t="n">
+      <c r="U51" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Y51" s="7" t="n">
@@ -4367,20 +4400,20 @@
         <v>5.75</v>
       </c>
       <c r="AC51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="4" t="n">
-        <f aca="false">AC51+AD51+AE51+AF51+AG51</f>
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="8" t="n">
-        <f aca="false">AI51+AH51+AB51+AA51+Z51+M51+(N51/2)</f>
-        <v>7.75</v>
+        <v>5</v>
+      </c>
+      <c r="AI51" s="4" t="n">
+        <f aca="false">AC51+AD51+AE51+AG51+AH51+AF51</f>
+        <v>5</v>
+      </c>
+      <c r="AK51" s="8" t="n">
+        <f aca="false">AJ51+AI51+AB51+AA51+Z51+M51+(N51/2)</f>
+        <v>12.75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
-        <v>85</v>
+      <c r="A52" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>0</v>
@@ -4425,6 +4458,9 @@
       <c r="T52" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="U52" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="Y52" s="7" t="n">
         <f aca="false">(SUM(O52:X52)-(SMALL(O52:X52,2)+SMALL(O52:X52,1)))/40</f>
         <v>0.3</v>
@@ -4436,12 +4472,12 @@
       <c r="AC52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH52" s="4" t="n">
-        <f aca="false">AC52+AD52+AE52+AF52+AG52</f>
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="8" t="n">
-        <f aca="false">AI52+AH52+AB52+AA52+Z52+M52+(N52/2)</f>
+      <c r="AI52" s="4" t="n">
+        <f aca="false">AC52+AD52+AE52+AG52+AH52+AF52</f>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="8" t="n">
+        <f aca="false">AJ52+AI52+AB52+AA52+Z52+M52+(N52/2)</f>
         <v>5.5</v>
       </c>
     </row>
@@ -4471,129 +4507,129 @@
     </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="E57" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="E57" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22"/>
-      <c r="E58" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58" s="23" t="s">
+      <c r="A58" s="23"/>
+      <c r="E58" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="F58" s="24" t="s">
         <v>89</v>
       </c>
+      <c r="G58" s="24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22"/>
-      <c r="E59" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="24" t="s">
+      <c r="A59" s="23"/>
+      <c r="E59" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="24" t="n">
+      <c r="F59" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="25" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22"/>
-      <c r="E60" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="24" t="s">
+      <c r="A60" s="23"/>
+      <c r="E60" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="24" t="n">
+      <c r="F60" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="25" t="n">
         <v>3.67</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22"/>
-      <c r="E61" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" s="24" t="s">
+      <c r="A61" s="23"/>
+      <c r="E61" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G61" s="24" t="n">
+      <c r="F61" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="25" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
-      <c r="E62" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" s="24" t="s">
+      <c r="A62" s="23"/>
+      <c r="E62" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G62" s="24" t="n">
+      <c r="F62" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="25" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="E63" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="24" t="s">
+      <c r="A63" s="23"/>
+      <c r="E63" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G63" s="24" t="n">
+      <c r="F63" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="25" t="n">
         <v>2.67</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22"/>
-      <c r="E64" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="24" t="s">
+      <c r="A64" s="23"/>
+      <c r="E64" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="24" t="n">
+      <c r="F64" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="25" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22"/>
-      <c r="E65" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" s="24" t="s">
+      <c r="A65" s="23"/>
+      <c r="E65" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G65" s="24" t="n">
+      <c r="F65" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="25" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22"/>
-      <c r="E66" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" s="24" t="s">
+      <c r="A66" s="23"/>
+      <c r="E66" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G66" s="24" t="n">
+      <c r="F66" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" s="25" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22"/>
-      <c r="E67" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F67" s="24" t="s">
+      <c r="A67" s="23"/>
+      <c r="E67" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="24" t="n">
+      <c r="F67" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -717,46 +717,47 @@
   </sheetPr>
   <dimension ref="A1:AL67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="15.5612244897959"/>
-    <col collapsed="false" hidden="false" max="33" min="32" style="5" width="32.6479591836735"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="5" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="8" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="5" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="5" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="13.5"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="8" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>5</v>
@@ -1245,11 +1246,11 @@
       <c r="G7" s="13"/>
       <c r="L7" s="3" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="M7" s="4" t="n">
         <f aca="false">L7*10</f>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>3.5</v>
@@ -1292,7 +1293,7 @@
       </c>
       <c r="AK7" s="8" t="n">
         <f aca="false">AJ7+AI7+AB7+AA7+Z7+M7+(N7/2)</f>
-        <v>10</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>5</v>
@@ -3301,11 +3302,11 @@
       <c r="G36" s="13"/>
       <c r="L36" s="3" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M36" s="4" t="n">
         <f aca="false">L36*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N36" s="5" t="n">
         <v>3</v>
@@ -3348,7 +3349,7 @@
       </c>
       <c r="AK36" s="8" t="n">
         <f aca="false">AJ36+AI36+AB36+AA36+Z36+M36+(N36/2)</f>
-        <v>7.025</v>
+        <v>8.275</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>5</v>
@@ -4291,11 +4292,11 @@
       <c r="G50" s="13"/>
       <c r="L50" s="3" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M50" s="4" t="n">
         <f aca="false">L50*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N50" s="5" t="n">
         <v>3.5</v>
@@ -4338,7 +4339,7 @@
       </c>
       <c r="AK50" s="8" t="n">
         <f aca="false">AJ50+AI50+AB50+AA50+Z50+M50+(N50/2)</f>
-        <v>7.85</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -717,47 +717,47 @@
   </sheetPr>
   <dimension ref="A1:AL67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="33" min="32" style="5" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="5" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="13.5"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="8" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.25"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="5" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="5" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="8" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>5</v>
@@ -1739,11 +1739,11 @@
       <c r="G14" s="13"/>
       <c r="L14" s="3" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M14" s="4" t="n">
         <f aca="false">L14*10</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N14" s="5" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="AK14" s="8" t="n">
         <f aca="false">AJ14+AI14+AB14+AA14+Z14+M14+(N14/2)</f>
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -717,47 +717,28 @@
   </sheetPr>
   <dimension ref="A1:AL67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="2" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.25"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="6" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="6" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="6" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="6" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="6" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="33" min="32" style="5" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="5" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="4" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="8" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.9234693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="24" min="15" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="31" min="29" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="34" min="32" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="8" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,6 +917,7 @@
       <c r="AC2" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF2" s="0"/>
       <c r="AI2" s="4" t="n">
         <f aca="false">AC2+AD2+AE2+AG2+AH2+AF2</f>
         <v>5</v>
@@ -1006,13 +988,16 @@
       <c r="AC3" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF3" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI3" s="4" t="n">
         <f aca="false">AC3+AD3+AE3+AG3+AH3+AF3</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK3" s="8" t="n">
         <f aca="false">AJ3+AI3+AB3+AA3+Z3+M3+(N3/2)</f>
-        <v>13.25</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,6 +1061,7 @@
       <c r="AC4" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF4" s="0"/>
       <c r="AI4" s="4" t="n">
         <f aca="false">AC4+AD4+AE4+AG4+AH4+AF4</f>
         <v>5</v>
@@ -1146,13 +1132,16 @@
       <c r="AC5" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF5" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI5" s="4" t="n">
         <f aca="false">AC5+AD5+AE5+AG5+AH5+AF5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK5" s="8" t="n">
         <f aca="false">AJ5+AI5+AB5+AA5+Z5+M5+(N5/2)</f>
-        <v>12.75</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,6 +1206,7 @@
       <c r="AC6" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AF6" s="0"/>
       <c r="AI6" s="4" t="n">
         <f aca="false">AC6+AD6+AE6+AG6+AH6+AF6</f>
         <v>0</v>
@@ -1287,6 +1277,7 @@
       <c r="AC7" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AF7" s="0"/>
       <c r="AI7" s="4" t="n">
         <f aca="false">AC7+AD7+AE7+AG7+AH7+AF7</f>
         <v>0</v>
@@ -1357,15 +1348,18 @@
         <v>6.25</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="AI8" s="4" t="n">
         <f aca="false">AC8+AD8+AE8+AG8+AH8+AF8</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK8" s="8" t="n">
         <f aca="false">AJ8+AI8+AB8+AA8+Z8+M8+(N8/2)</f>
-        <v>10.25</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,6 +1423,7 @@
       <c r="AC9" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF9" s="0"/>
       <c r="AI9" s="4" t="n">
         <f aca="false">AC9+AD9+AE9+AG9+AH9+AF9</f>
         <v>5</v>
@@ -1500,6 +1495,7 @@
       <c r="AC10" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AF10" s="0"/>
       <c r="AI10" s="4" t="n">
         <f aca="false">AC10+AD10+AE10+AG10+AH10+AF10</f>
         <v>0</v>
@@ -1570,13 +1566,16 @@
       <c r="AC11" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF11" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI11" s="4" t="n">
         <f aca="false">AC11+AD11+AE11+AG11+AH11+AF11</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK11" s="8" t="n">
         <f aca="false">AJ11+AI11+AB11+AA11+Z11+M11+(N11/2)</f>
-        <v>14.75</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,13 +1639,16 @@
       <c r="AC12" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF12" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI12" s="4" t="n">
         <f aca="false">AC12+AD12+AE12+AG12+AH12+AF12</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK12" s="8" t="n">
         <f aca="false">AJ12+AI12+AB12+AA12+Z12+M12+(N12/2)</f>
-        <v>14.75</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>5</v>
@@ -1669,14 +1671,14 @@
       <c r="G13" s="13"/>
       <c r="L13" s="3" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
-        <v>0.2375</v>
+        <v>0.25</v>
       </c>
       <c r="M13" s="4" t="n">
         <f aca="false">L13*10</f>
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>5</v>
@@ -1710,13 +1712,16 @@
       <c r="AC13" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF13" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI13" s="4" t="n">
         <f aca="false">AC13+AD13+AE13+AG13+AH13+AF13</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK13" s="8" t="n">
         <f aca="false">AJ13+AI13+AB13+AA13+Z13+M13+(N13/2)</f>
-        <v>11.375</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,13 +1787,16 @@
       <c r="AC14" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF14" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI14" s="4" t="n">
         <f aca="false">AC14+AD14+AE14+AG14+AH14+AF14</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK14" s="8" t="n">
         <f aca="false">AJ14+AI14+AB14+AA14+Z14+M14+(N14/2)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,13 +1860,16 @@
       <c r="AC15" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF15" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="AI15" s="4" t="n">
         <f aca="false">AC15+AD15+AE15+AG15+AH15+AF15</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK15" s="8" t="n">
         <f aca="false">AJ15+AI15+AB15+AA15+Z15+M15+(N15/2)</f>
-        <v>15.425</v>
+        <v>20.425</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,7 +1899,7 @@
         <v>2.5</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>4.5</v>
@@ -1923,13 +1934,16 @@
       <c r="AC16" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF16" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI16" s="4" t="n">
         <f aca="false">AC16+AD16+AE16+AG16+AH16+AF16</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK16" s="8" t="n">
         <f aca="false">AJ16+AI16+AB16+AA16+Z16+M16+(N16/2)</f>
-        <v>13.5</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,13 +2009,16 @@
       <c r="AC17" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF17" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI17" s="4" t="n">
         <f aca="false">AC17+AD17+AE17+AG17+AH17+AF17</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK17" s="8" t="n">
         <f aca="false">AJ17+AI17+AB17+AA17+Z17+M17+(N17/2)</f>
-        <v>14.425</v>
+        <v>19.425</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,7 +2048,7 @@
         <v>2.5</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>4.5</v>
@@ -2066,13 +2083,16 @@
       <c r="AC18" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF18" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI18" s="4" t="n">
         <f aca="false">AC18+AD18+AE18+AG18+AH18+AF18</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK18" s="8" t="n">
         <f aca="false">AJ18+AI18+AB18+AA18+Z18+M18+(N18/2)</f>
-        <v>13.5</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,13 +2157,16 @@
       <c r="AC19" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF19" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI19" s="4" t="n">
         <f aca="false">AC19+AD19+AE19+AG19+AH19+AF19</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK19" s="8" t="n">
         <f aca="false">AJ19+AI19+AB19+AA19+Z19+M19+(N19/2)</f>
-        <v>15.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,13 +2231,16 @@
       <c r="AC20" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF20" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI20" s="4" t="n">
         <f aca="false">AC20+AD20+AE20+AG20+AH20+AF20</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK20" s="8" t="n">
         <f aca="false">AJ20+AI20+AB20+AA20+Z20+M20+(N20/2)</f>
-        <v>14.75</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,13 +2305,16 @@
       <c r="AC21" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF21" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI21" s="4" t="n">
         <f aca="false">AC21+AD21+AE21+AG21+AH21+AF21</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK21" s="8" t="n">
         <f aca="false">AJ21+AI21+AB21+AA21+Z21+M21+(N21/2)</f>
-        <v>15.15</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,6 +2379,7 @@
       <c r="AC22" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF22" s="0"/>
       <c r="AI22" s="4" t="n">
         <f aca="false">AC22+AD22+AE22+AG22+AH22+AF22</f>
         <v>5</v>
@@ -2422,13 +2452,16 @@
       <c r="AC23" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF23" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI23" s="4" t="n">
         <f aca="false">AC23+AD23+AE23+AG23+AH23+AF23</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK23" s="8" t="n">
         <f aca="false">AJ23+AI23+AB23+AA23+Z23+M23+(N23/2)</f>
-        <v>15.375</v>
+        <v>20.375</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,13 +2527,16 @@
       <c r="AC24" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF24" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI24" s="4" t="n">
         <f aca="false">AC24+AD24+AE24+AG24+AH24+AF24</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK24" s="8" t="n">
         <f aca="false">AJ24+AI24+AB24+AA24+Z24+M24+(N24/2)</f>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,13 +2601,16 @@
       <c r="AC25" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF25" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI25" s="4" t="n">
         <f aca="false">AC25+AD25+AE25+AG25+AH25+AF25</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK25" s="8" t="n">
         <f aca="false">AJ25+AI25+AB25+AA25+Z25+M25+(N25/2)</f>
-        <v>13.95</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,13 +2675,16 @@
       <c r="AC26" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF26" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI26" s="4" t="n">
         <f aca="false">AC26+AD26+AE26+AG26+AH26+AF26</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK26" s="8" t="n">
         <f aca="false">AJ26+AI26+AB26+AA26+Z26+M26+(N26/2)</f>
-        <v>14.875</v>
+        <v>19.875</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,13 +2748,16 @@
       <c r="AC27" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF27" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI27" s="4" t="n">
         <f aca="false">AC27+AD27+AE27+AG27+AH27+AF27</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK27" s="8" t="n">
         <f aca="false">AJ27+AI27+AB27+AA27+Z27+M27+(N27/2)</f>
-        <v>15.075</v>
+        <v>20.075</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,13 +2822,16 @@
       <c r="AC28" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF28" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI28" s="4" t="n">
         <f aca="false">AC28+AD28+AE28+AG28+AH28+AF28</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK28" s="8" t="n">
         <f aca="false">AJ28+AI28+AB28+AA28+Z28+M28+(N28/2)</f>
-        <v>15.25</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,13 +2896,16 @@
       <c r="AC29" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF29" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI29" s="4" t="n">
         <f aca="false">AC29+AD29+AE29+AG29+AH29+AF29</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK29" s="8" t="n">
         <f aca="false">AJ29+AI29+AB29+AA29+Z29+M29+(N29/2)</f>
-        <v>15.375</v>
+        <v>20.375</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,13 +2969,16 @@
       <c r="AC30" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF30" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI30" s="4" t="n">
         <f aca="false">AC30+AD30+AE30+AG30+AH30+AF30</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK30" s="8" t="n">
         <f aca="false">AJ30+AI30+AB30+AA30+Z30+M30+(N30/2)</f>
-        <v>13.88125</v>
+        <v>18.88125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,6 +3043,7 @@
       <c r="AC31" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AF31" s="0"/>
       <c r="AI31" s="4" t="n">
         <f aca="false">AC31+AD31+AE31+AG31+AH31+AF31</f>
         <v>0</v>
@@ -3060,13 +3115,16 @@
       <c r="AC32" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF32" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI32" s="4" t="n">
         <f aca="false">AC32+AD32+AE32+AG32+AH32+AF32</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK32" s="8" t="n">
         <f aca="false">AJ32+AI32+AB32+AA32+Z32+M32+(N32/2)</f>
-        <v>15.25</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,13 +3190,16 @@
       <c r="AC33" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF33" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI33" s="4" t="n">
         <f aca="false">AC33+AD33+AE33+AG33+AH33+AF33</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK33" s="8" t="n">
         <f aca="false">AJ33+AI33+AB33+AA33+Z33+M33+(N33/2)</f>
-        <v>15.125</v>
+        <v>20.125</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,13 +3263,16 @@
       <c r="AC34" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF34" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI34" s="4" t="n">
         <f aca="false">AC34+AD34+AE34+AG34+AH34+AF34</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK34" s="8" t="n">
         <f aca="false">AJ34+AI34+AB34+AA34+Z34+M34+(N34/2)</f>
-        <v>15.025</v>
+        <v>20.025</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,13 +3337,16 @@
       <c r="AC35" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF35" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI35" s="4" t="n">
         <f aca="false">AC35+AD35+AE35+AG35+AH35+AF35</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK35" s="8" t="n">
         <f aca="false">AJ35+AI35+AB35+AA35+Z35+M35+(N35/2)</f>
-        <v>13.625</v>
+        <v>18.625</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,6 +3410,7 @@
       <c r="AC36" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AF36" s="0"/>
       <c r="AI36" s="4" t="n">
         <f aca="false">AC36+AD36+AE36+AG36+AH36+AF36</f>
         <v>0</v>
@@ -3414,13 +3482,16 @@
       <c r="AC37" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF37" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI37" s="4" t="n">
         <f aca="false">AC37+AD37+AE37+AG37+AH37+AF37</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK37" s="8" t="n">
         <f aca="false">AJ37+AI37+AB37+AA37+Z37+M37+(N37/2)</f>
-        <v>15.375</v>
+        <v>20.375</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,13 +3557,16 @@
       <c r="AC38" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF38" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI38" s="4" t="n">
         <f aca="false">AC38+AD38+AE38+AG38+AH38+AF38</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK38" s="8" t="n">
         <f aca="false">AJ38+AI38+AB38+AA38+Z38+M38+(N38/2)</f>
-        <v>14.875</v>
+        <v>19.875</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,6 +3631,7 @@
       <c r="AC39" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF39" s="0"/>
       <c r="AI39" s="4" t="n">
         <f aca="false">AC39+AD39+AE39+AG39+AH39+AF39</f>
         <v>5</v>
@@ -3628,6 +3703,7 @@
       <c r="AC40" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF40" s="0"/>
       <c r="AI40" s="4" t="n">
         <f aca="false">AC40+AD40+AE40+AG40+AH40+AF40</f>
         <v>5</v>
@@ -3699,13 +3775,16 @@
       <c r="AC41" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF41" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI41" s="4" t="n">
         <f aca="false">AC41+AD41+AE41+AG41+AH41+AF41</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK41" s="8" t="n">
         <f aca="false">AJ41+AI41+AB41+AA41+Z41+M41+(N41/2)</f>
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,13 +3849,16 @@
       <c r="AC42" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF42" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI42" s="4" t="n">
         <f aca="false">AC42+AD42+AE42+AG42+AH42+AF42</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK42" s="8" t="n">
         <f aca="false">AJ42+AI42+AB42+AA42+Z42+M42+(N42/2)</f>
-        <v>11.3</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,6 +3923,7 @@
       <c r="AC43" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AF43" s="0"/>
       <c r="AI43" s="4" t="n">
         <f aca="false">AC43+AD43+AE43+AG43+AH43+AF43</f>
         <v>0</v>
@@ -3912,13 +3995,16 @@
       <c r="AC44" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF44" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI44" s="4" t="n">
         <f aca="false">AC44+AD44+AE44+AG44+AH44+AF44</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK44" s="8" t="n">
         <f aca="false">AJ44+AI44+AB44+AA44+Z44+M44+(N44/2)</f>
-        <v>12.125</v>
+        <v>17.125</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,17 +4021,17 @@
         <v>5</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="L45" s="3" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M45" s="4" t="n">
         <f aca="false">L45*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N45" s="5" t="n">
         <v>3</v>
@@ -3982,13 +4068,16 @@
       <c r="AC45" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF45" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI45" s="4" t="n">
         <f aca="false">AC45+AD45+AE45+AG45+AH45+AF45</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK45" s="8" t="n">
         <f aca="false">AJ45+AI45+AB45+AA45+Z45+M45+(N45/2)</f>
-        <v>9.225</v>
+        <v>15.475</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,13 +4141,16 @@
       <c r="AC46" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF46" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI46" s="4" t="n">
         <f aca="false">AC46+AD46+AE46+AG46+AH46+AF46</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK46" s="8" t="n">
         <f aca="false">AJ46+AI46+AB46+AA46+Z46+M46+(N46/2)</f>
-        <v>13.25</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,6 +4214,7 @@
       <c r="AC47" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AF47" s="0"/>
       <c r="AI47" s="4" t="n">
         <f aca="false">AC47+AD47+AE47+AG47+AH47+AF47</f>
         <v>0</v>
@@ -4190,15 +4283,16 @@
         <v>5</v>
       </c>
       <c r="AC48" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AF48" s="0"/>
       <c r="AI48" s="4" t="n">
         <f aca="false">AC48+AD48+AE48+AG48+AH48+AF48</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK48" s="8" t="n">
         <f aca="false">AJ48+AI48+AB48+AA48+Z48+M48+(N48/2)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,13 +4357,16 @@
       <c r="AC49" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF49" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="AI49" s="4" t="n">
         <f aca="false">AC49+AD49+AE49+AG49+AH49+AF49</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK49" s="8" t="n">
         <f aca="false">AJ49+AI49+AB49+AA49+Z49+M49+(N49/2)</f>
-        <v>13.7</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4333,6 +4430,7 @@
       <c r="AC50" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AF50" s="0"/>
       <c r="AI50" s="4" t="n">
         <f aca="false">AC50+AD50+AE50+AG50+AH50+AF50</f>
         <v>0</v>
@@ -4403,13 +4501,16 @@
       <c r="AC51" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="AF51" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AI51" s="4" t="n">
         <f aca="false">AC51+AD51+AE51+AG51+AH51+AF51</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK51" s="8" t="n">
         <f aca="false">AJ51+AI51+AB51+AA51+Z51+M51+(N51/2)</f>
-        <v>12.75</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t xml:space="preserve">Registered Trainee Name</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Quiz 10 (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Quiz 4 (5)</t>
   </si>
   <si>
     <t xml:space="preserve">Quiz (N-2)</t>
@@ -715,30 +718,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG20" activeCellId="0" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="24" min="15" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="31" min="29" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="34" min="32" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="8" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.6428571428571"/>
+    <col collapsed="false" hidden="true" max="11" min="2" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="13" min="13" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="14" min="14" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="25" min="15" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="26" min="26" style="7" width="0"/>
+    <col collapsed="false" hidden="true" max="29" min="27" style="4" width="0"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="37" min="36" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,11 +855,14 @@
       <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="10"/>
+      <c r="AL1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>3</v>
@@ -906,30 +911,35 @@
       <c r="U2" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" s="7" t="n">
-        <f aca="false">(SUM(O2:X2)-(SMALL(O2:X2,2)+SMALL(O2:X2,1)))/40</f>
-        <v>0.295</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <f aca="false">Y2*10</f>
-        <v>2.95</v>
-      </c>
-      <c r="AC2" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="0"/>
-      <c r="AI2" s="4" t="n">
-        <f aca="false">AC2+AD2+AE2+AG2+AH2+AF2</f>
-        <v>5</v>
-      </c>
-      <c r="AK2" s="8" t="n">
-        <f aca="false">AJ2+AI2+AB2+AA2+Z2+M2+(N2/2)</f>
-        <v>12.45</v>
+      <c r="Y2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="7" t="n">
+        <f aca="false">(SUM(O2:Y2)-(SMALL(O2:Y2,2)+SMALL(O2:Y2,1)))/45</f>
+        <v>0.373333333333333</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <f aca="false">Z2*10</f>
+        <v>3.73333333333333</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <f aca="false">AD2+AE2+AF2+AH2+AI2+AG2</f>
+        <v>10</v>
+      </c>
+      <c r="AL2" s="8" t="n">
+        <f aca="false">AK2+AJ2+AC2+AB2+AA2+M2+(N2/2)</f>
+        <v>18.2333333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3</v>
@@ -943,15 +953,17 @@
       <c r="E3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="L3" s="3" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M3" s="4" t="n">
         <f aca="false">L3*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N3" s="5" t="n">
         <v>1.5</v>
@@ -977,32 +989,35 @@
       <c r="U3" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y3" s="7" t="n">
-        <f aca="false">(SUM(O3:X3)-(SMALL(O3:X3,2)+SMALL(O3:X3,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <f aca="false">Y3*10</f>
-        <v>5</v>
-      </c>
-      <c r="AC3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <f aca="false">AC3+AD3+AE3+AG3+AH3+AF3</f>
+      <c r="Y3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="7" t="n">
+        <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)))/45</f>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <f aca="false">Z3*10</f>
+        <v>5.55555555555556</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <f aca="false">AD3+AE3+AF3+AH3+AI3+AG3</f>
         <v>10</v>
       </c>
-      <c r="AK3" s="8" t="n">
-        <f aca="false">AJ3+AI3+AB3+AA3+Z3+M3+(N3/2)</f>
-        <v>18.25</v>
+      <c r="AL3" s="8" t="n">
+        <f aca="false">AK3+AJ3+AC3+AB3+AA3+M3+(N3/2)</f>
+        <v>20.0555555555556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>3</v>
@@ -1050,30 +1065,35 @@
       <c r="U4" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" s="7" t="n">
-        <f aca="false">(SUM(O4:X4)-(SMALL(O4:X4,2)+SMALL(O4:X4,1)))/40</f>
-        <v>0.595</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <f aca="false">Y4*10</f>
-        <v>5.95</v>
-      </c>
-      <c r="AC4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="0"/>
-      <c r="AI4" s="4" t="n">
-        <f aca="false">AC4+AD4+AE4+AG4+AH4+AF4</f>
-        <v>5</v>
-      </c>
-      <c r="AK4" s="8" t="n">
-        <f aca="false">AJ4+AI4+AB4+AA4+Z4+M4+(N4/2)</f>
-        <v>15.45</v>
+      <c r="Y4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7" t="n">
+        <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)))/45</f>
+        <v>0.551111111111111</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <f aca="false">Z4*10</f>
+        <v>5.51111111111111</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <f aca="false">AD4+AE4+AF4+AH4+AI4+AG4</f>
+        <v>10</v>
+      </c>
+      <c r="AL4" s="8" t="n">
+        <f aca="false">AK4+AJ4+AC4+AB4+AA4+M4+(N4/2)</f>
+        <v>20.0111111111111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>4</v>
@@ -1087,15 +1107,17 @@
       <c r="E5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="L5" s="3" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M5" s="4" t="n">
         <f aca="false">L5*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>1.5</v>
@@ -1121,32 +1143,35 @@
       <c r="U5" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y5" s="7" t="n">
-        <f aca="false">(SUM(O5:X5)-(SMALL(O5:X5,2)+SMALL(O5:X5,1)))/40</f>
-        <v>0.45</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <f aca="false">Y5*10</f>
-        <v>4.5</v>
-      </c>
-      <c r="AC5" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="4" t="n">
-        <f aca="false">AC5+AD5+AE5+AG5+AH5+AF5</f>
+      <c r="Y5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="7" t="n">
+        <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)))/45</f>
+        <v>0.511111111111111</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <f aca="false">Z5*10</f>
+        <v>5.11111111111111</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <f aca="false">AD5+AE5+AF5+AH5+AI5+AG5</f>
         <v>10</v>
       </c>
-      <c r="AK5" s="8" t="n">
-        <f aca="false">AJ5+AI5+AB5+AA5+Z5+M5+(N5/2)</f>
-        <v>17.75</v>
+      <c r="AL5" s="8" t="n">
+        <f aca="false">AK5+AJ5+AC5+AB5+AA5+M5+(N5/2)</f>
+        <v>19.6111111111111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>3</v>
@@ -1195,30 +1220,33 @@
       <c r="U6" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y6" s="7" t="n">
-        <f aca="false">(SUM(O6:X6)-(SMALL(O6:X6,2)+SMALL(O6:X6,1)))/40</f>
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <f aca="false">Y6*10</f>
-        <v>6</v>
-      </c>
-      <c r="AC6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="0"/>
-      <c r="AI6" s="4" t="n">
-        <f aca="false">AC6+AD6+AE6+AG6+AH6+AF6</f>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="8" t="n">
-        <f aca="false">AJ6+AI6+AB6+AA6+Z6+M6+(N6/2)</f>
-        <v>8.25</v>
+      <c r="Y6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="7" t="n">
+        <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)))/45</f>
+        <v>0.644444444444444</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <f aca="false">Z6*10</f>
+        <v>6.44444444444444</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="0"/>
+      <c r="AJ6" s="4" t="n">
+        <f aca="false">AD6+AE6+AF6+AH6+AI6+AG6</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="8" t="n">
+        <f aca="false">AK6+AJ6+AC6+AB6+AA6+M6+(N6/2)</f>
+        <v>8.69444444444444</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>3</v>
@@ -1266,30 +1294,33 @@
       <c r="U7" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y7" s="7" t="n">
-        <f aca="false">(SUM(O7:X7)-(SMALL(O7:X7,2)+SMALL(O7:X7,1)))/40</f>
-        <v>0.6</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <f aca="false">Y7*10</f>
-        <v>6</v>
-      </c>
-      <c r="AC7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="0"/>
-      <c r="AI7" s="4" t="n">
-        <f aca="false">AC7+AD7+AE7+AG7+AH7+AF7</f>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="8" t="n">
-        <f aca="false">AJ7+AI7+AB7+AA7+Z7+M7+(N7/2)</f>
-        <v>10.25</v>
+      <c r="Y7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="7" t="n">
+        <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)))/45</f>
+        <v>0.644444444444444</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <f aca="false">Z7*10</f>
+        <v>6.44444444444444</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="0"/>
+      <c r="AJ7" s="4" t="n">
+        <f aca="false">AD7+AE7+AF7+AH7+AI7+AG7</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8" t="n">
+        <f aca="false">AK7+AJ7+AC7+AB7+AA7+M7+(N7/2)</f>
+        <v>10.6944444444444</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>5</v>
@@ -1339,32 +1370,35 @@
       <c r="U8" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y8" s="7" t="n">
-        <f aca="false">(SUM(O8:X8)-(SMALL(O8:X8,2)+SMALL(O8:X8,1)))/40</f>
-        <v>0.625</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <f aca="false">Y8*10</f>
-        <v>6.25</v>
-      </c>
-      <c r="AC8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI8" s="4" t="n">
-        <f aca="false">AC8+AD8+AE8+AG8+AH8+AF8</f>
+      <c r="Y8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="7" t="n">
+        <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)))/45</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <f aca="false">Z8*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <f aca="false">AD8+AE8+AF8+AH8+AI8+AG8</f>
         <v>10</v>
       </c>
-      <c r="AK8" s="8" t="n">
-        <f aca="false">AJ8+AI8+AB8+AA8+Z8+M8+(N8/2)</f>
-        <v>20.25</v>
+      <c r="AL8" s="8" t="n">
+        <f aca="false">AK8+AJ8+AC8+AB8+AA8+M8+(N8/2)</f>
+        <v>20.6666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -1412,30 +1446,33 @@
       <c r="U9" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y9" s="7" t="n">
-        <f aca="false">(SUM(O9:X9)-(SMALL(O9:X9,2)+SMALL(O9:X9,1)))/40</f>
-        <v>0.1975</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <f aca="false">Y9*10</f>
-        <v>1.975</v>
-      </c>
-      <c r="AC9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="0"/>
-      <c r="AI9" s="4" t="n">
-        <f aca="false">AC9+AD9+AE9+AG9+AH9+AF9</f>
-        <v>5</v>
-      </c>
-      <c r="AK9" s="8" t="n">
-        <f aca="false">AJ9+AI9+AB9+AA9+Z9+M9+(N9/2)</f>
-        <v>11.475</v>
+      <c r="Y9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="7" t="n">
+        <f aca="false">(SUM(O9:Y9)-(SMALL(O9:Y9,2)+SMALL(O9:Y9,1)))/45</f>
+        <v>0.286666666666667</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <f aca="false">Z9*10</f>
+        <v>2.86666666666667</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="0"/>
+      <c r="AJ9" s="4" t="n">
+        <f aca="false">AD9+AE9+AF9+AH9+AI9+AG9</f>
+        <v>5</v>
+      </c>
+      <c r="AL9" s="8" t="n">
+        <f aca="false">AK9+AJ9+AC9+AB9+AA9+M9+(N9/2)</f>
+        <v>12.3666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>5</v>
@@ -1484,30 +1521,33 @@
       <c r="U10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" s="7" t="n">
-        <f aca="false">(SUM(O10:X10)-(SMALL(O10:X10,2)+SMALL(O10:X10,1)))/40</f>
-        <v>0.54</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <f aca="false">Y10*10</f>
-        <v>5.4</v>
-      </c>
-      <c r="AC10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="0"/>
-      <c r="AI10" s="4" t="n">
-        <f aca="false">AC10+AD10+AE10+AG10+AH10+AF10</f>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="8" t="n">
-        <f aca="false">AJ10+AI10+AB10+AA10+Z10+M10+(N10/2)</f>
-        <v>9.9</v>
+      <c r="Y10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7" t="n">
+        <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)))/45</f>
+        <v>0.48</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <f aca="false">Z10*10</f>
+        <v>4.8</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0"/>
+      <c r="AJ10" s="4" t="n">
+        <f aca="false">AD10+AE10+AF10+AH10+AI10+AG10</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="8" t="n">
+        <f aca="false">AK10+AJ10+AC10+AB10+AA10+M10+(N10/2)</f>
+        <v>9.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>3</v>
@@ -1555,32 +1595,35 @@
       <c r="U11" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y11" s="7" t="n">
-        <f aca="false">(SUM(O11:X11)-(SMALL(O11:X11,2)+SMALL(O11:X11,1)))/40</f>
-        <v>0.625</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <f aca="false">Y11*10</f>
-        <v>6.25</v>
-      </c>
-      <c r="AC11" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI11" s="4" t="n">
-        <f aca="false">AC11+AD11+AE11+AG11+AH11+AF11</f>
+      <c r="Y11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7" t="n">
+        <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)))/45</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <f aca="false">Z11*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="4" t="n">
+        <f aca="false">AD11+AE11+AF11+AH11+AI11+AG11</f>
         <v>10</v>
       </c>
-      <c r="AK11" s="8" t="n">
-        <f aca="false">AJ11+AI11+AB11+AA11+Z11+M11+(N11/2)</f>
-        <v>19.75</v>
+      <c r="AL11" s="8" t="n">
+        <f aca="false">AK11+AJ11+AC11+AB11+AA11+M11+(N11/2)</f>
+        <v>20.1666666666667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>4</v>
@@ -1628,32 +1671,35 @@
       <c r="U12" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y12" s="7" t="n">
-        <f aca="false">(SUM(O12:X12)-(SMALL(O12:X12,2)+SMALL(O12:X12,1)))/40</f>
-        <v>0.625</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <f aca="false">Y12*10</f>
-        <v>6.25</v>
-      </c>
-      <c r="AC12" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI12" s="4" t="n">
-        <f aca="false">AC12+AD12+AE12+AG12+AH12+AF12</f>
+      <c r="Y12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="7" t="n">
+        <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)))/45</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <f aca="false">Z12*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ12" s="4" t="n">
+        <f aca="false">AD12+AE12+AF12+AH12+AI12+AG12</f>
         <v>10</v>
       </c>
-      <c r="AK12" s="8" t="n">
-        <f aca="false">AJ12+AI12+AB12+AA12+Z12+M12+(N12/2)</f>
-        <v>19.75</v>
+      <c r="AL12" s="8" t="n">
+        <f aca="false">AK12+AJ12+AC12+AB12+AA12+M12+(N12/2)</f>
+        <v>20.1666666666667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>4.5</v>
@@ -1701,32 +1747,35 @@
       <c r="U13" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y13" s="7" t="n">
-        <f aca="false">(SUM(O13:X13)-(SMALL(O13:X13,2)+SMALL(O13:X13,1)))/40</f>
-        <v>0.4</v>
-      </c>
-      <c r="Z13" s="4" t="n">
-        <f aca="false">Y13*10</f>
-        <v>4</v>
-      </c>
-      <c r="AC13" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="4" t="n">
-        <f aca="false">AC13+AD13+AE13+AG13+AH13+AF13</f>
+      <c r="Y13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="7" t="n">
+        <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)))/45</f>
+        <v>0.466666666666667</v>
+      </c>
+      <c r="AA13" s="4" t="n">
+        <f aca="false">Z13*10</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="4" t="n">
+        <f aca="false">AD13+AE13+AF13+AH13+AI13+AG13</f>
         <v>10</v>
       </c>
-      <c r="AK13" s="8" t="n">
-        <f aca="false">AJ13+AI13+AB13+AA13+Z13+M13+(N13/2)</f>
-        <v>17.25</v>
+      <c r="AL13" s="8" t="n">
+        <f aca="false">AK13+AJ13+AC13+AB13+AA13+M13+(N13/2)</f>
+        <v>17.9166666666667</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>3</v>
@@ -1776,32 +1825,35 @@
       <c r="U14" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y14" s="7" t="n">
-        <f aca="false">(SUM(O14:X14)-(SMALL(O14:X14,2)+SMALL(O14:X14,1)))/40</f>
-        <v>0.6</v>
-      </c>
-      <c r="Z14" s="4" t="n">
-        <f aca="false">Y14*10</f>
-        <v>6</v>
-      </c>
-      <c r="AC14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <f aca="false">AC14+AD14+AE14+AG14+AH14+AF14</f>
+      <c r="Y14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="7" t="n">
+        <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)))/45</f>
+        <v>0.644444444444444</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <f aca="false">Z14*10</f>
+        <v>6.44444444444444</v>
+      </c>
+      <c r="AD14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <f aca="false">AD14+AE14+AF14+AH14+AI14+AG14</f>
         <v>10</v>
       </c>
-      <c r="AK14" s="8" t="n">
-        <f aca="false">AJ14+AI14+AB14+AA14+Z14+M14+(N14/2)</f>
-        <v>20</v>
+      <c r="AL14" s="8" t="n">
+        <f aca="false">AK14+AJ14+AC14+AB14+AA14+M14+(N14/2)</f>
+        <v>20.4444444444444</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>5</v>
@@ -1849,32 +1901,35 @@
       <c r="U15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y15" s="7" t="n">
-        <f aca="false">(SUM(O15:X15)-(SMALL(O15:X15,2)+SMALL(O15:X15,1)))/40</f>
-        <v>0.5925</v>
-      </c>
-      <c r="Z15" s="4" t="n">
-        <f aca="false">Y15*10</f>
-        <v>5.925</v>
-      </c>
-      <c r="AC15" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <f aca="false">AC15+AD15+AE15+AG15+AH15+AF15</f>
+      <c r="Y15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="7" t="n">
+        <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)))/45</f>
+        <v>0.637777777777778</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <f aca="false">Z15*10</f>
+        <v>6.37777777777778</v>
+      </c>
+      <c r="AD15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <f aca="false">AD15+AE15+AF15+AH15+AI15+AG15</f>
         <v>10</v>
       </c>
-      <c r="AK15" s="8" t="n">
-        <f aca="false">AJ15+AI15+AB15+AA15+Z15+M15+(N15/2)</f>
-        <v>20.425</v>
+      <c r="AL15" s="8" t="n">
+        <f aca="false">AK15+AJ15+AC15+AB15+AA15+M15+(N15/2)</f>
+        <v>20.8777777777778</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>3</v>
@@ -1923,32 +1978,35 @@
       <c r="U16" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y16" s="7" t="n">
-        <f aca="false">(SUM(O16:X16)-(SMALL(O16:X16,2)+SMALL(O16:X16,1)))/40</f>
-        <v>0.6</v>
-      </c>
-      <c r="Z16" s="4" t="n">
-        <f aca="false">Y16*10</f>
-        <v>6</v>
-      </c>
-      <c r="AC16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="4" t="n">
-        <f aca="false">AC16+AD16+AE16+AG16+AH16+AF16</f>
+      <c r="Y16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="7" t="n">
+        <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)))/45</f>
+        <v>0.644444444444444</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <f aca="false">Z16*10</f>
+        <v>6.44444444444444</v>
+      </c>
+      <c r="AD16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <f aca="false">AD16+AE16+AF16+AH16+AI16+AG16</f>
         <v>10</v>
       </c>
-      <c r="AK16" s="8" t="n">
-        <f aca="false">AJ16+AI16+AB16+AA16+Z16+M16+(N16/2)</f>
-        <v>19.25</v>
+      <c r="AL16" s="8" t="n">
+        <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
+        <v>19.6944444444444</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>3</v>
@@ -1998,32 +2056,35 @@
       <c r="U17" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y17" s="7" t="n">
-        <f aca="false">(SUM(O17:X17)-(SMALL(O17:X17,2)+SMALL(O17:X17,1)))/40</f>
-        <v>0.5925</v>
-      </c>
-      <c r="Z17" s="4" t="n">
-        <f aca="false">Y17*10</f>
-        <v>5.925</v>
-      </c>
-      <c r="AC17" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF17" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <f aca="false">AC17+AD17+AE17+AG17+AH17+AF17</f>
+      <c r="Y17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7" t="n">
+        <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)))/45</f>
+        <v>0.582222222222222</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <f aca="false">Z17*10</f>
+        <v>5.82222222222222</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <f aca="false">AD17+AE17+AF17+AH17+AI17+AG17</f>
         <v>10</v>
       </c>
-      <c r="AK17" s="8" t="n">
-        <f aca="false">AJ17+AI17+AB17+AA17+Z17+M17+(N17/2)</f>
-        <v>19.425</v>
+      <c r="AL17" s="8" t="n">
+        <f aca="false">AK17+AJ17+AC17+AB17+AA17+M17+(N17/2)</f>
+        <v>19.3222222222222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>3</v>
@@ -2072,32 +2133,35 @@
       <c r="U18" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y18" s="7" t="n">
-        <f aca="false">(SUM(O18:X18)-(SMALL(O18:X18,2)+SMALL(O18:X18,1)))/40</f>
-        <v>0.6</v>
-      </c>
-      <c r="Z18" s="4" t="n">
-        <f aca="false">Y18*10</f>
-        <v>6</v>
-      </c>
-      <c r="AC18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <f aca="false">AC18+AD18+AE18+AG18+AH18+AF18</f>
+      <c r="Y18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="7" t="n">
+        <f aca="false">(SUM(O18:Y18)-(SMALL(O18:Y18,2)+SMALL(O18:Y18,1)))/45</f>
+        <v>0.644444444444444</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <f aca="false">Z18*10</f>
+        <v>6.44444444444444</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <f aca="false">AD18+AE18+AF18+AH18+AI18+AG18</f>
         <v>10</v>
       </c>
-      <c r="AK18" s="8" t="n">
-        <f aca="false">AJ18+AI18+AB18+AA18+Z18+M18+(N18/2)</f>
-        <v>19.25</v>
+      <c r="AL18" s="8" t="n">
+        <f aca="false">AK18+AJ18+AC18+AB18+AA18+M18+(N18/2)</f>
+        <v>19.6944444444444</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>4</v>
@@ -2146,32 +2210,35 @@
       <c r="U19" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y19" s="7" t="n">
-        <f aca="false">(SUM(O19:X19)-(SMALL(O19:X19,2)+SMALL(O19:X19,1)))/40</f>
-        <v>0.625</v>
-      </c>
-      <c r="Z19" s="4" t="n">
-        <f aca="false">Y19*10</f>
-        <v>6.25</v>
-      </c>
-      <c r="AC19" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF19" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <f aca="false">AC19+AD19+AE19+AG19+AH19+AF19</f>
+      <c r="Y19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7" t="n">
+        <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)))/45</f>
+        <v>0.635555555555556</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <f aca="false">Z19*10</f>
+        <v>6.35555555555556</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <f aca="false">AD19+AE19+AF19+AH19+AI19+AG19</f>
         <v>10</v>
       </c>
-      <c r="AK19" s="8" t="n">
-        <f aca="false">AJ19+AI19+AB19+AA19+Z19+M19+(N19/2)</f>
-        <v>20.5</v>
+      <c r="AL19" s="8" t="n">
+        <f aca="false">AK19+AJ19+AC19+AB19+AA19+M19+(N19/2)</f>
+        <v>20.6055555555556</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0</v>
@@ -2220,32 +2287,35 @@
       <c r="U20" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y20" s="7" t="n">
-        <f aca="false">(SUM(O20:X20)-(SMALL(O20:X20,2)+SMALL(O20:X20,1)))/40</f>
-        <v>0.6</v>
-      </c>
-      <c r="Z20" s="4" t="n">
-        <f aca="false">Y20*10</f>
-        <v>6</v>
-      </c>
-      <c r="AC20" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI20" s="4" t="n">
-        <f aca="false">AC20+AD20+AE20+AG20+AH20+AF20</f>
+      <c r="Y20" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="7" t="n">
+        <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)))/45</f>
+        <v>0.644444444444444</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <f aca="false">Z20*10</f>
+        <v>6.44444444444444</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <f aca="false">AD20+AE20+AF20+AH20+AI20+AG20</f>
         <v>10</v>
       </c>
-      <c r="AK20" s="8" t="n">
-        <f aca="false">AJ20+AI20+AB20+AA20+Z20+M20+(N20/2)</f>
-        <v>19.75</v>
+      <c r="AL20" s="8" t="n">
+        <f aca="false">AK20+AJ20+AC20+AB20+AA20+M20+(N20/2)</f>
+        <v>20.1944444444444</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0</v>
@@ -2294,32 +2364,35 @@
       <c r="U21" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y21" s="7" t="n">
-        <f aca="false">(SUM(O21:X21)-(SMALL(O21:X21,2)+SMALL(O21:X21,1)))/40</f>
-        <v>0.59</v>
-      </c>
-      <c r="Z21" s="4" t="n">
-        <f aca="false">Y21*10</f>
-        <v>5.9</v>
-      </c>
-      <c r="AC21" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI21" s="4" t="n">
-        <f aca="false">AC21+AD21+AE21+AG21+AH21+AF21</f>
+      <c r="Y21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="7" t="n">
+        <f aca="false">(SUM(O21:Y21)-(SMALL(O21:Y21,2)+SMALL(O21:Y21,1)))/45</f>
+        <v>0.635555555555556</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <f aca="false">Z21*10</f>
+        <v>6.35555555555556</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <f aca="false">AD21+AE21+AF21+AH21+AI21+AG21</f>
         <v>10</v>
       </c>
-      <c r="AK21" s="8" t="n">
-        <f aca="false">AJ21+AI21+AB21+AA21+Z21+M21+(N21/2)</f>
-        <v>20.15</v>
+      <c r="AL21" s="8" t="n">
+        <f aca="false">AK21+AJ21+AC21+AB21+AA21+M21+(N21/2)</f>
+        <v>20.6055555555556</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0</v>
@@ -2368,30 +2441,33 @@
       <c r="U22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y22" s="7" t="n">
-        <f aca="false">(SUM(O22:X22)-(SMALL(O22:X22,2)+SMALL(O22:X22,1)))/40</f>
-        <v>0.495</v>
-      </c>
-      <c r="Z22" s="4" t="n">
-        <f aca="false">Y22*10</f>
-        <v>4.95</v>
-      </c>
-      <c r="AC22" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF22" s="0"/>
-      <c r="AI22" s="4" t="n">
-        <f aca="false">AC22+AD22+AE22+AG22+AH22+AF22</f>
-        <v>5</v>
-      </c>
-      <c r="AK22" s="8" t="n">
-        <f aca="false">AJ22+AI22+AB22+AA22+Z22+M22+(N22/2)</f>
-        <v>13.95</v>
+      <c r="Y22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7" t="n">
+        <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)))/45</f>
+        <v>0.44</v>
+      </c>
+      <c r="AA22" s="4" t="n">
+        <f aca="false">Z22*10</f>
+        <v>4.4</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="0"/>
+      <c r="AJ22" s="4" t="n">
+        <f aca="false">AD22+AE22+AF22+AH22+AI22+AG22</f>
+        <v>5</v>
+      </c>
+      <c r="AL22" s="8" t="n">
+        <f aca="false">AK22+AJ22+AC22+AB22+AA22+M22+(N22/2)</f>
+        <v>13.4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0</v>
@@ -2441,32 +2517,35 @@
       <c r="U23" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y23" s="7" t="n">
-        <f aca="false">(SUM(O23:X23)-(SMALL(O23:X23,2)+SMALL(O23:X23,1)))/40</f>
-        <v>0.6125</v>
-      </c>
-      <c r="Z23" s="4" t="n">
-        <f aca="false">Y23*10</f>
-        <v>6.125</v>
-      </c>
-      <c r="AC23" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF23" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI23" s="4" t="n">
-        <f aca="false">AC23+AD23+AE23+AG23+AH23+AF23</f>
+      <c r="Y23" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="7" t="n">
+        <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)))/45</f>
+        <v>0.655555555555556</v>
+      </c>
+      <c r="AA23" s="4" t="n">
+        <f aca="false">Z23*10</f>
+        <v>6.55555555555556</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="4" t="n">
+        <f aca="false">AD23+AE23+AF23+AH23+AI23+AG23</f>
         <v>10</v>
       </c>
-      <c r="AK23" s="8" t="n">
-        <f aca="false">AJ23+AI23+AB23+AA23+Z23+M23+(N23/2)</f>
-        <v>20.375</v>
+      <c r="AL23" s="8" t="n">
+        <f aca="false">AK23+AJ23+AC23+AB23+AA23+M23+(N23/2)</f>
+        <v>20.8055555555556</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0</v>
@@ -2516,32 +2595,35 @@
       <c r="U24" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y24" s="7" t="n">
-        <f aca="false">(SUM(O24:X24)-(SMALL(O24:X24,2)+SMALL(O24:X24,1)))/40</f>
-        <v>0.575</v>
-      </c>
-      <c r="Z24" s="4" t="n">
-        <f aca="false">Y24*10</f>
-        <v>5.75</v>
-      </c>
-      <c r="AC24" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI24" s="4" t="n">
-        <f aca="false">AC24+AD24+AE24+AG24+AH24+AF24</f>
+      <c r="Y24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="7" t="n">
+        <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)))/45</f>
+        <v>0.622222222222222</v>
+      </c>
+      <c r="AA24" s="4" t="n">
+        <f aca="false">Z24*10</f>
+        <v>6.22222222222222</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="4" t="n">
+        <f aca="false">AD24+AE24+AF24+AH24+AI24+AG24</f>
         <v>10</v>
       </c>
-      <c r="AK24" s="8" t="n">
-        <f aca="false">AJ24+AI24+AB24+AA24+Z24+M24+(N24/2)</f>
-        <v>19.5</v>
+      <c r="AL24" s="8" t="n">
+        <f aca="false">AK24+AJ24+AC24+AB24+AA24+M24+(N24/2)</f>
+        <v>19.9722222222222</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0</v>
@@ -2590,32 +2672,35 @@
       <c r="U25" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y25" s="7" t="n">
-        <f aca="false">(SUM(O25:X25)-(SMALL(O25:X25,2)+SMALL(O25:X25,1)))/40</f>
-        <v>0.52</v>
-      </c>
-      <c r="Z25" s="4" t="n">
-        <f aca="false">Y25*10</f>
-        <v>5.2</v>
-      </c>
-      <c r="AC25" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF25" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI25" s="4" t="n">
-        <f aca="false">AC25+AD25+AE25+AG25+AH25+AF25</f>
+      <c r="Y25" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="7" t="n">
+        <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)))/45</f>
+        <v>0.573333333333333</v>
+      </c>
+      <c r="AA25" s="4" t="n">
+        <f aca="false">Z25*10</f>
+        <v>5.73333333333333</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ25" s="4" t="n">
+        <f aca="false">AD25+AE25+AF25+AH25+AI25+AG25</f>
         <v>10</v>
       </c>
-      <c r="AK25" s="8" t="n">
-        <f aca="false">AJ25+AI25+AB25+AA25+Z25+M25+(N25/2)</f>
-        <v>18.95</v>
+      <c r="AL25" s="8" t="n">
+        <f aca="false">AK25+AJ25+AC25+AB25+AA25+M25+(N25/2)</f>
+        <v>19.4833333333333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
@@ -2664,32 +2749,35 @@
       <c r="U26" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y26" s="7" t="n">
-        <f aca="false">(SUM(O26:X26)-(SMALL(O26:X26,2)+SMALL(O26:X26,1)))/40</f>
-        <v>0.5625</v>
-      </c>
-      <c r="Z26" s="4" t="n">
-        <f aca="false">Y26*10</f>
-        <v>5.625</v>
-      </c>
-      <c r="AC26" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF26" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI26" s="4" t="n">
-        <f aca="false">AC26+AD26+AE26+AG26+AH26+AF26</f>
+      <c r="Y26" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="7" t="n">
+        <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)))/45</f>
+        <v>0.611111111111111</v>
+      </c>
+      <c r="AA26" s="4" t="n">
+        <f aca="false">Z26*10</f>
+        <v>6.11111111111111</v>
+      </c>
+      <c r="AD26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ26" s="4" t="n">
+        <f aca="false">AD26+AE26+AF26+AH26+AI26+AG26</f>
         <v>10</v>
       </c>
-      <c r="AK26" s="8" t="n">
-        <f aca="false">AJ26+AI26+AB26+AA26+Z26+M26+(N26/2)</f>
-        <v>19.875</v>
+      <c r="AL26" s="8" t="n">
+        <f aca="false">AK26+AJ26+AC26+AB26+AA26+M26+(N26/2)</f>
+        <v>20.3611111111111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -2737,32 +2825,35 @@
       <c r="U27" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y27" s="7" t="n">
-        <f aca="false">(SUM(O27:X27)-(SMALL(O27:X27,2)+SMALL(O27:X27,1)))/40</f>
-        <v>0.6075</v>
-      </c>
-      <c r="Z27" s="4" t="n">
-        <f aca="false">Y27*10</f>
-        <v>6.075</v>
-      </c>
-      <c r="AC27" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF27" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI27" s="4" t="n">
-        <f aca="false">AC27+AD27+AE27+AG27+AH27+AF27</f>
+      <c r="Y27" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="7" t="n">
+        <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)))/45</f>
+        <v>0.651111111111111</v>
+      </c>
+      <c r="AA27" s="4" t="n">
+        <f aca="false">Z27*10</f>
+        <v>6.51111111111111</v>
+      </c>
+      <c r="AD27" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ27" s="4" t="n">
+        <f aca="false">AD27+AE27+AF27+AH27+AI27+AG27</f>
         <v>10</v>
       </c>
-      <c r="AK27" s="8" t="n">
-        <f aca="false">AJ27+AI27+AB27+AA27+Z27+M27+(N27/2)</f>
-        <v>20.075</v>
+      <c r="AL27" s="8" t="n">
+        <f aca="false">AK27+AJ27+AC27+AB27+AA27+M27+(N27/2)</f>
+        <v>20.5111111111111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -2811,32 +2902,35 @@
       <c r="U28" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y28" s="7" t="n">
-        <f aca="false">(SUM(O28:X28)-(SMALL(O28:X28,2)+SMALL(O28:X28,1)))/40</f>
-        <v>0.6</v>
-      </c>
-      <c r="Z28" s="4" t="n">
-        <f aca="false">Y28*10</f>
-        <v>6</v>
-      </c>
-      <c r="AC28" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF28" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI28" s="4" t="n">
-        <f aca="false">AC28+AD28+AE28+AG28+AH28+AF28</f>
+      <c r="Y28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="7" t="n">
+        <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)))/45</f>
+        <v>0.644444444444444</v>
+      </c>
+      <c r="AA28" s="4" t="n">
+        <f aca="false">Z28*10</f>
+        <v>6.44444444444444</v>
+      </c>
+      <c r="AD28" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="4" t="n">
+        <f aca="false">AD28+AE28+AF28+AH28+AI28+AG28</f>
         <v>10</v>
       </c>
-      <c r="AK28" s="8" t="n">
-        <f aca="false">AJ28+AI28+AB28+AA28+Z28+M28+(N28/2)</f>
-        <v>20.25</v>
+      <c r="AL28" s="8" t="n">
+        <f aca="false">AK28+AJ28+AC28+AB28+AA28+M28+(N28/2)</f>
+        <v>20.6944444444444</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -2885,32 +2979,35 @@
       <c r="U29" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y29" s="7" t="n">
-        <f aca="false">(SUM(O29:X29)-(SMALL(O29:X29,2)+SMALL(O29:X29,1)))/40</f>
-        <v>0.6125</v>
-      </c>
-      <c r="Z29" s="4" t="n">
-        <f aca="false">Y29*10</f>
-        <v>6.125</v>
-      </c>
-      <c r="AC29" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF29" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI29" s="4" t="n">
-        <f aca="false">AC29+AD29+AE29+AG29+AH29+AF29</f>
+      <c r="Y29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="7" t="n">
+        <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)))/45</f>
+        <v>0.655555555555556</v>
+      </c>
+      <c r="AA29" s="4" t="n">
+        <f aca="false">Z29*10</f>
+        <v>6.55555555555556</v>
+      </c>
+      <c r="AD29" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ29" s="4" t="n">
+        <f aca="false">AD29+AE29+AF29+AH29+AI29+AG29</f>
         <v>10</v>
       </c>
-      <c r="AK29" s="8" t="n">
-        <f aca="false">AJ29+AI29+AB29+AA29+Z29+M29+(N29/2)</f>
-        <v>20.375</v>
+      <c r="AL29" s="8" t="n">
+        <f aca="false">AK29+AJ29+AC29+AB29+AA29+M29+(N29/2)</f>
+        <v>20.8055555555556</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -2958,32 +3055,35 @@
       <c r="U30" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y30" s="7" t="n">
-        <f aca="false">(SUM(O30:X30)-(SMALL(O30:X30,2)+SMALL(O30:X30,1)))/40</f>
-        <v>0.538125</v>
-      </c>
-      <c r="Z30" s="4" t="n">
-        <f aca="false">Y30*10</f>
-        <v>5.38125</v>
-      </c>
-      <c r="AC30" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF30" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI30" s="4" t="n">
-        <f aca="false">AC30+AD30+AE30+AG30+AH30+AF30</f>
+      <c r="Y30" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="7" t="n">
+        <f aca="false">(SUM(O30:Y30)-(SMALL(O30:Y30,2)+SMALL(O30:Y30,1)))/45</f>
+        <v>0.589444444444444</v>
+      </c>
+      <c r="AA30" s="4" t="n">
+        <f aca="false">Z30*10</f>
+        <v>5.89444444444444</v>
+      </c>
+      <c r="AD30" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ30" s="4" t="n">
+        <f aca="false">AD30+AE30+AF30+AH30+AI30+AG30</f>
         <v>10</v>
       </c>
-      <c r="AK30" s="8" t="n">
-        <f aca="false">AJ30+AI30+AB30+AA30+Z30+M30+(N30/2)</f>
-        <v>18.88125</v>
+      <c r="AL30" s="8" t="n">
+        <f aca="false">AK30+AJ30+AC30+AB30+AA30+M30+(N30/2)</f>
+        <v>19.3944444444444</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>0</v>
@@ -3032,30 +3132,33 @@
       <c r="U31" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y31" s="7" t="n">
-        <f aca="false">(SUM(O31:X31)-(SMALL(O31:X31,2)+SMALL(O31:X31,1)))/40</f>
-        <v>0.355</v>
-      </c>
-      <c r="Z31" s="4" t="n">
-        <f aca="false">Y31*10</f>
-        <v>3.55</v>
-      </c>
-      <c r="AC31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="0"/>
-      <c r="AI31" s="4" t="n">
-        <f aca="false">AC31+AD31+AE31+AG31+AH31+AF31</f>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="8" t="n">
-        <f aca="false">AJ31+AI31+AB31+AA31+Z31+M31+(N31/2)</f>
-        <v>6.3</v>
+      <c r="Y31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7" t="n">
+        <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)))/45</f>
+        <v>0.315555555555555</v>
+      </c>
+      <c r="AA31" s="4" t="n">
+        <f aca="false">Z31*10</f>
+        <v>3.15555555555556</v>
+      </c>
+      <c r="AD31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="0"/>
+      <c r="AJ31" s="4" t="n">
+        <f aca="false">AD31+AE31+AF31+AH31+AI31+AG31</f>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="8" t="n">
+        <f aca="false">AK31+AJ31+AC31+AB31+AA31+M31+(N31/2)</f>
+        <v>5.90555555555556</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>0</v>
@@ -3104,32 +3207,35 @@
       <c r="U32" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y32" s="7" t="n">
-        <f aca="false">(SUM(O32:X32)-(SMALL(O32:X32,2)+SMALL(O32:X32,1)))/40</f>
-        <v>0.625</v>
-      </c>
-      <c r="Z32" s="4" t="n">
-        <f aca="false">Y32*10</f>
-        <v>6.25</v>
-      </c>
-      <c r="AC32" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF32" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI32" s="4" t="n">
-        <f aca="false">AC32+AD32+AE32+AG32+AH32+AF32</f>
+      <c r="Y32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="7" t="n">
+        <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)))/45</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="AA32" s="4" t="n">
+        <f aca="false">Z32*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="AD32" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ32" s="4" t="n">
+        <f aca="false">AD32+AE32+AF32+AH32+AI32+AG32</f>
         <v>10</v>
       </c>
-      <c r="AK32" s="8" t="n">
-        <f aca="false">AJ32+AI32+AB32+AA32+Z32+M32+(N32/2)</f>
-        <v>20.25</v>
+      <c r="AL32" s="8" t="n">
+        <f aca="false">AK32+AJ32+AC32+AB32+AA32+M32+(N32/2)</f>
+        <v>20.6666666666667</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>0</v>
@@ -3179,32 +3285,35 @@
       <c r="U33" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y33" s="7" t="n">
-        <f aca="false">(SUM(O33:X33)-(SMALL(O33:X33,2)+SMALL(O33:X33,1)))/40</f>
-        <v>0.6125</v>
-      </c>
-      <c r="Z33" s="4" t="n">
-        <f aca="false">Y33*10</f>
-        <v>6.125</v>
-      </c>
-      <c r="AC33" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF33" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI33" s="4" t="n">
-        <f aca="false">AC33+AD33+AE33+AG33+AH33+AF33</f>
+      <c r="Y33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="7" t="n">
+        <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)))/45</f>
+        <v>0.655555555555555</v>
+      </c>
+      <c r="AA33" s="4" t="n">
+        <f aca="false">Z33*10</f>
+        <v>6.55555555555555</v>
+      </c>
+      <c r="AD33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ33" s="4" t="n">
+        <f aca="false">AD33+AE33+AF33+AH33+AI33+AG33</f>
         <v>10</v>
       </c>
-      <c r="AK33" s="8" t="n">
-        <f aca="false">AJ33+AI33+AB33+AA33+Z33+M33+(N33/2)</f>
-        <v>20.125</v>
+      <c r="AL33" s="8" t="n">
+        <f aca="false">AK33+AJ33+AC33+AB33+AA33+M33+(N33/2)</f>
+        <v>20.5555555555556</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>0</v>
@@ -3252,32 +3361,35 @@
       <c r="U34" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y34" s="7" t="n">
-        <f aca="false">(SUM(O34:X34)-(SMALL(O34:X34,2)+SMALL(O34:X34,1)))/40</f>
-        <v>0.6025</v>
-      </c>
-      <c r="Z34" s="4" t="n">
-        <f aca="false">Y34*10</f>
-        <v>6.025</v>
-      </c>
-      <c r="AC34" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF34" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI34" s="4" t="n">
-        <f aca="false">AC34+AD34+AE34+AG34+AH34+AF34</f>
+      <c r="Y34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7" t="n">
+        <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)))/45</f>
+        <v>0.635555555555556</v>
+      </c>
+      <c r="AA34" s="4" t="n">
+        <f aca="false">Z34*10</f>
+        <v>6.35555555555556</v>
+      </c>
+      <c r="AD34" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG34" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ34" s="4" t="n">
+        <f aca="false">AD34+AE34+AF34+AH34+AI34+AG34</f>
         <v>10</v>
       </c>
-      <c r="AK34" s="8" t="n">
-        <f aca="false">AJ34+AI34+AB34+AA34+Z34+M34+(N34/2)</f>
-        <v>20.025</v>
+      <c r="AL34" s="8" t="n">
+        <f aca="false">AK34+AJ34+AC34+AB34+AA34+M34+(N34/2)</f>
+        <v>20.3555555555556</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>0</v>
@@ -3326,32 +3438,35 @@
       <c r="U35" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y35" s="7" t="n">
-        <f aca="false">(SUM(O35:X35)-(SMALL(O35:X35,2)+SMALL(O35:X35,1)))/40</f>
-        <v>0.5625</v>
-      </c>
-      <c r="Z35" s="4" t="n">
-        <f aca="false">Y35*10</f>
-        <v>5.625</v>
-      </c>
-      <c r="AC35" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF35" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI35" s="4" t="n">
-        <f aca="false">AC35+AD35+AE35+AG35+AH35+AF35</f>
+      <c r="Y35" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="7" t="n">
+        <f aca="false">(SUM(O35:Y35)-(SMALL(O35:Y35,2)+SMALL(O35:Y35,1)))/45</f>
+        <v>0.611111111111111</v>
+      </c>
+      <c r="AA35" s="4" t="n">
+        <f aca="false">Z35*10</f>
+        <v>6.11111111111111</v>
+      </c>
+      <c r="AD35" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ35" s="4" t="n">
+        <f aca="false">AD35+AE35+AF35+AH35+AI35+AG35</f>
         <v>10</v>
       </c>
-      <c r="AK35" s="8" t="n">
-        <f aca="false">AJ35+AI35+AB35+AA35+Z35+M35+(N35/2)</f>
-        <v>18.625</v>
+      <c r="AL35" s="8" t="n">
+        <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
+        <v>19.1111111111111</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>0</v>
@@ -3399,30 +3514,33 @@
       <c r="U36" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y36" s="7" t="n">
-        <f aca="false">(SUM(O36:X36)-(SMALL(O36:X36,2)+SMALL(O36:X36,1)))/40</f>
-        <v>0.4275</v>
-      </c>
-      <c r="Z36" s="4" t="n">
-        <f aca="false">Y36*10</f>
-        <v>4.275</v>
-      </c>
-      <c r="AC36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="0"/>
-      <c r="AI36" s="4" t="n">
-        <f aca="false">AC36+AD36+AE36+AG36+AH36+AF36</f>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="8" t="n">
-        <f aca="false">AJ36+AI36+AB36+AA36+Z36+M36+(N36/2)</f>
-        <v>8.275</v>
+      <c r="Y36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7" t="n">
+        <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)))/45</f>
+        <v>0.38</v>
+      </c>
+      <c r="AA36" s="4" t="n">
+        <f aca="false">Z36*10</f>
+        <v>3.8</v>
+      </c>
+      <c r="AD36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="0"/>
+      <c r="AJ36" s="4" t="n">
+        <f aca="false">AD36+AE36+AF36+AH36+AI36+AG36</f>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="8" t="n">
+        <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
+        <v>7.8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0</v>
@@ -3471,32 +3589,35 @@
       <c r="U37" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y37" s="7" t="n">
-        <f aca="false">(SUM(O37:X37)-(SMALL(O37:X37,2)+SMALL(O37:X37,1)))/40</f>
-        <v>0.6125</v>
-      </c>
-      <c r="Z37" s="4" t="n">
-        <f aca="false">Y37*10</f>
-        <v>6.125</v>
-      </c>
-      <c r="AC37" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF37" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI37" s="4" t="n">
-        <f aca="false">AC37+AD37+AE37+AG37+AH37+AF37</f>
+      <c r="Y37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="7" t="n">
+        <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)))/45</f>
+        <v>0.655555555555556</v>
+      </c>
+      <c r="AA37" s="4" t="n">
+        <f aca="false">Z37*10</f>
+        <v>6.55555555555556</v>
+      </c>
+      <c r="AD37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ37" s="4" t="n">
+        <f aca="false">AD37+AE37+AF37+AH37+AI37+AG37</f>
         <v>10</v>
       </c>
-      <c r="AK37" s="8" t="n">
-        <f aca="false">AJ37+AI37+AB37+AA37+Z37+M37+(N37/2)</f>
-        <v>20.375</v>
+      <c r="AL37" s="8" t="n">
+        <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
+        <v>20.8055555555556</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>0</v>
@@ -3546,32 +3667,35 @@
       <c r="U38" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y38" s="7" t="n">
-        <f aca="false">(SUM(O38:X38)-(SMALL(O38:X38,2)+SMALL(O38:X38,1)))/40</f>
-        <v>0.5875</v>
-      </c>
-      <c r="Z38" s="4" t="n">
-        <f aca="false">Y38*10</f>
-        <v>5.875</v>
-      </c>
-      <c r="AC38" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF38" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI38" s="4" t="n">
-        <f aca="false">AC38+AD38+AE38+AG38+AH38+AF38</f>
+      <c r="Y38" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="7" t="n">
+        <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)))/45</f>
+        <v>0.633333333333333</v>
+      </c>
+      <c r="AA38" s="4" t="n">
+        <f aca="false">Z38*10</f>
+        <v>6.33333333333333</v>
+      </c>
+      <c r="AD38" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG38" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ38" s="4" t="n">
+        <f aca="false">AD38+AE38+AF38+AH38+AI38+AG38</f>
         <v>10</v>
       </c>
-      <c r="AK38" s="8" t="n">
-        <f aca="false">AJ38+AI38+AB38+AA38+Z38+M38+(N38/2)</f>
-        <v>19.875</v>
+      <c r="AL38" s="8" t="n">
+        <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
+        <v>20.3333333333333</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0</v>
@@ -3620,30 +3744,35 @@
       <c r="U39" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y39" s="7" t="n">
-        <f aca="false">(SUM(O39:X39)-(SMALL(O39:X39,2)+SMALL(O39:X39,1)))/40</f>
-        <v>0.42375</v>
-      </c>
-      <c r="Z39" s="4" t="n">
-        <f aca="false">Y39*10</f>
-        <v>4.2375</v>
-      </c>
-      <c r="AC39" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF39" s="0"/>
-      <c r="AI39" s="4" t="n">
-        <f aca="false">AC39+AD39+AE39+AG39+AH39+AF39</f>
-        <v>5</v>
-      </c>
-      <c r="AK39" s="8" t="n">
-        <f aca="false">AJ39+AI39+AB39+AA39+Z39+M39+(N39/2)</f>
-        <v>11.7375</v>
+      <c r="Y39" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="7" t="n">
+        <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)))/45</f>
+        <v>0.487777777777778</v>
+      </c>
+      <c r="AA39" s="4" t="n">
+        <f aca="false">Z39*10</f>
+        <v>4.87777777777778</v>
+      </c>
+      <c r="AD39" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ39" s="4" t="n">
+        <f aca="false">AD39+AE39+AF39+AH39+AI39+AG39</f>
+        <v>10</v>
+      </c>
+      <c r="AL39" s="8" t="n">
+        <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
+        <v>17.3777777777778</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0</v>
@@ -3692,30 +3821,35 @@
       <c r="U40" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y40" s="7" t="n">
-        <f aca="false">(SUM(O40:X40)-(SMALL(O40:X40,2)+SMALL(O40:X40,1)))/40</f>
-        <v>0.54875</v>
-      </c>
-      <c r="Z40" s="4" t="n">
-        <f aca="false">Y40*10</f>
-        <v>5.4875</v>
-      </c>
-      <c r="AC40" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF40" s="0"/>
-      <c r="AI40" s="4" t="n">
-        <f aca="false">AC40+AD40+AE40+AG40+AH40+AF40</f>
-        <v>5</v>
-      </c>
-      <c r="AK40" s="8" t="n">
-        <f aca="false">AJ40+AI40+AB40+AA40+Z40+M40+(N40/2)</f>
-        <v>12.9875</v>
+      <c r="Y40" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="7" t="n">
+        <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)))/45</f>
+        <v>0.598888888888889</v>
+      </c>
+      <c r="AA40" s="4" t="n">
+        <f aca="false">Z40*10</f>
+        <v>5.98888888888889</v>
+      </c>
+      <c r="AD40" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ40" s="4" t="n">
+        <f aca="false">AD40+AE40+AF40+AH40+AI40+AG40</f>
+        <v>10</v>
+      </c>
+      <c r="AL40" s="8" t="n">
+        <f aca="false">AK40+AJ40+AC40+AB40+AA40+M40+(N40/2)</f>
+        <v>18.4888888888889</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>0</v>
@@ -3764,32 +3898,35 @@
       <c r="U41" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y41" s="7" t="n">
-        <f aca="false">(SUM(O41:X41)-(SMALL(O41:X41,2)+SMALL(O41:X41,1)))/40</f>
-        <v>0.625</v>
-      </c>
-      <c r="Z41" s="4" t="n">
-        <f aca="false">Y41*10</f>
-        <v>6.25</v>
-      </c>
-      <c r="AC41" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF41" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI41" s="4" t="n">
-        <f aca="false">AC41+AD41+AE41+AG41+AH41+AF41</f>
+      <c r="Y41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="7" t="n">
+        <f aca="false">(SUM(O41:Y41)-(SMALL(O41:Y41,2)+SMALL(O41:Y41,1)))/45</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="AA41" s="4" t="n">
+        <f aca="false">Z41*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="AD41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="4" t="n">
+        <f aca="false">AD41+AE41+AF41+AH41+AI41+AG41</f>
         <v>10</v>
       </c>
-      <c r="AK41" s="8" t="n">
-        <f aca="false">AJ41+AI41+AB41+AA41+Z41+M41+(N41/2)</f>
-        <v>17.5</v>
+      <c r="AL41" s="8" t="n">
+        <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
+        <v>17.9166666666667</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>0</v>
@@ -3838,32 +3975,35 @@
       <c r="U42" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y42" s="7" t="n">
-        <f aca="false">(SUM(O42:X42)-(SMALL(O42:X42,2)+SMALL(O42:X42,1)))/40</f>
-        <v>0.505</v>
-      </c>
-      <c r="Z42" s="4" t="n">
-        <f aca="false">Y42*10</f>
-        <v>5.05</v>
-      </c>
-      <c r="AC42" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF42" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI42" s="4" t="n">
-        <f aca="false">AC42+AD42+AE42+AG42+AH42+AF42</f>
+      <c r="Y42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7" t="n">
+        <f aca="false">(SUM(O42:Y42)-(SMALL(O42:Y42,2)+SMALL(O42:Y42,1)))/45</f>
+        <v>0.448888888888889</v>
+      </c>
+      <c r="AA42" s="4" t="n">
+        <f aca="false">Z42*10</f>
+        <v>4.48888888888889</v>
+      </c>
+      <c r="AD42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ42" s="4" t="n">
+        <f aca="false">AD42+AE42+AF42+AH42+AI42+AG42</f>
         <v>10</v>
       </c>
-      <c r="AK42" s="8" t="n">
-        <f aca="false">AJ42+AI42+AB42+AA42+Z42+M42+(N42/2)</f>
-        <v>16.3</v>
+      <c r="AL42" s="8" t="n">
+        <f aca="false">AK42+AJ42+AC42+AB42+AA42+M42+(N42/2)</f>
+        <v>15.7388888888889</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>0</v>
@@ -3912,30 +4052,33 @@
       <c r="U43" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y43" s="7" t="n">
-        <f aca="false">(SUM(O43:X43)-(SMALL(O43:X43,2)+SMALL(O43:X43,1)))/40</f>
-        <v>0.465</v>
-      </c>
-      <c r="Z43" s="4" t="n">
-        <f aca="false">Y43*10</f>
-        <v>4.65</v>
-      </c>
-      <c r="AC43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="0"/>
-      <c r="AI43" s="4" t="n">
-        <f aca="false">AC43+AD43+AE43+AG43+AH43+AF43</f>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="8" t="n">
-        <f aca="false">AJ43+AI43+AB43+AA43+Z43+M43+(N43/2)</f>
-        <v>7.9</v>
+      <c r="Y43" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="7" t="n">
+        <f aca="false">(SUM(O43:Y43)-(SMALL(O43:Y43,2)+SMALL(O43:Y43,1)))/45</f>
+        <v>0.524444444444444</v>
+      </c>
+      <c r="AA43" s="4" t="n">
+        <f aca="false">Z43*10</f>
+        <v>5.24444444444445</v>
+      </c>
+      <c r="AD43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="0"/>
+      <c r="AJ43" s="4" t="n">
+        <f aca="false">AD43+AE43+AF43+AH43+AI43+AG43</f>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="8" t="n">
+        <f aca="false">AK43+AJ43+AC43+AB43+AA43+M43+(N43/2)</f>
+        <v>8.49444444444445</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>0</v>
@@ -3984,32 +4127,35 @@
       <c r="U44" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y44" s="7" t="n">
-        <f aca="false">(SUM(O44:X44)-(SMALL(O44:X44,2)+SMALL(O44:X44,1)))/40</f>
-        <v>0.2875</v>
-      </c>
-      <c r="Z44" s="4" t="n">
-        <f aca="false">Y44*10</f>
-        <v>2.875</v>
-      </c>
-      <c r="AC44" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF44" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI44" s="4" t="n">
-        <f aca="false">AC44+AD44+AE44+AG44+AH44+AF44</f>
+      <c r="Y44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="7" t="n">
+        <f aca="false">(SUM(O44:Y44)-(SMALL(O44:Y44,2)+SMALL(O44:Y44,1)))/45</f>
+        <v>0.366666666666667</v>
+      </c>
+      <c r="AA44" s="4" t="n">
+        <f aca="false">Z44*10</f>
+        <v>3.66666666666667</v>
+      </c>
+      <c r="AD44" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG44" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ44" s="4" t="n">
+        <f aca="false">AD44+AE44+AF44+AH44+AI44+AG44</f>
         <v>10</v>
       </c>
-      <c r="AK44" s="8" t="n">
-        <f aca="false">AJ44+AI44+AB44+AA44+Z44+M44+(N44/2)</f>
-        <v>17.125</v>
+      <c r="AL44" s="8" t="n">
+        <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
+        <v>17.9166666666667</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>0</v>
@@ -4057,32 +4203,35 @@
       <c r="U45" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y45" s="7" t="n">
-        <f aca="false">(SUM(O45:X45)-(SMALL(O45:X45,2)+SMALL(O45:X45,1)))/40</f>
-        <v>0.1475</v>
-      </c>
-      <c r="Z45" s="4" t="n">
-        <f aca="false">Y45*10</f>
-        <v>1.475</v>
-      </c>
-      <c r="AC45" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF45" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI45" s="4" t="n">
-        <f aca="false">AC45+AD45+AE45+AG45+AH45+AF45</f>
+      <c r="Y45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="7" t="n">
+        <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)))/45</f>
+        <v>0.242222222222222</v>
+      </c>
+      <c r="AA45" s="4" t="n">
+        <f aca="false">Z45*10</f>
+        <v>2.42222222222222</v>
+      </c>
+      <c r="AD45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ45" s="4" t="n">
+        <f aca="false">AD45+AE45+AF45+AH45+AI45+AG45</f>
         <v>10</v>
       </c>
-      <c r="AK45" s="8" t="n">
-        <f aca="false">AJ45+AI45+AB45+AA45+Z45+M45+(N45/2)</f>
-        <v>15.475</v>
+      <c r="AL45" s="8" t="n">
+        <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
+        <v>16.4222222222222</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>0</v>
@@ -4130,32 +4279,35 @@
       <c r="U46" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y46" s="7" t="n">
-        <f aca="false">(SUM(O46:X46)-(SMALL(O46:X46,2)+SMALL(O46:X46,1)))/40</f>
-        <v>0.575</v>
-      </c>
-      <c r="Z46" s="4" t="n">
-        <f aca="false">Y46*10</f>
-        <v>5.75</v>
-      </c>
-      <c r="AC46" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF46" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI46" s="4" t="n">
-        <f aca="false">AC46+AD46+AE46+AG46+AH46+AF46</f>
+      <c r="Y46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="7" t="n">
+        <f aca="false">(SUM(O46:Y46)-(SMALL(O46:Y46,2)+SMALL(O46:Y46,1)))/45</f>
+        <v>0.622222222222222</v>
+      </c>
+      <c r="AA46" s="4" t="n">
+        <f aca="false">Z46*10</f>
+        <v>6.22222222222222</v>
+      </c>
+      <c r="AD46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ46" s="4" t="n">
+        <f aca="false">AD46+AE46+AF46+AH46+AI46+AG46</f>
         <v>10</v>
       </c>
-      <c r="AK46" s="8" t="n">
-        <f aca="false">AJ46+AI46+AB46+AA46+Z46+M46+(N46/2)</f>
-        <v>18.25</v>
+      <c r="AL46" s="8" t="n">
+        <f aca="false">AK46+AJ46+AC46+AB46+AA46+M46+(N46/2)</f>
+        <v>18.7222222222222</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>0</v>
@@ -4203,30 +4355,35 @@
       <c r="U47" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y47" s="7" t="n">
-        <f aca="false">(SUM(O47:X47)-(SMALL(O47:X47,2)+SMALL(O47:X47,1)))/40</f>
-        <v>0.3</v>
-      </c>
-      <c r="Z47" s="4" t="n">
-        <f aca="false">Y47*10</f>
-        <v>3</v>
-      </c>
-      <c r="AC47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="0"/>
-      <c r="AI47" s="4" t="n">
-        <f aca="false">AC47+AD47+AE47+AG47+AH47+AF47</f>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="8" t="n">
-        <f aca="false">AJ47+AI47+AB47+AA47+Z47+M47+(N47/2)</f>
-        <v>6.25</v>
+      <c r="Y47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="7" t="n">
+        <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)))/45</f>
+        <v>0.377777777777778</v>
+      </c>
+      <c r="AA47" s="4" t="n">
+        <f aca="false">Z47*10</f>
+        <v>3.77777777777778</v>
+      </c>
+      <c r="AD47" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ47" s="4" t="n">
+        <f aca="false">AD47+AE47+AF47+AH47+AI47+AG47</f>
+        <v>10</v>
+      </c>
+      <c r="AL47" s="8" t="n">
+        <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
+        <v>17.0277777777778</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>0</v>
@@ -4274,30 +4431,35 @@
       <c r="U48" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="Y48" s="7" t="n">
-        <f aca="false">(SUM(O48:X48)-(SMALL(O48:X48,2)+SMALL(O48:X48,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="Z48" s="4" t="n">
-        <f aca="false">Y48*10</f>
-        <v>5</v>
-      </c>
-      <c r="AC48" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF48" s="0"/>
-      <c r="AI48" s="4" t="n">
-        <f aca="false">AC48+AD48+AE48+AG48+AH48+AF48</f>
-        <v>5</v>
-      </c>
-      <c r="AK48" s="8" t="n">
-        <f aca="false">AJ48+AI48+AB48+AA48+Z48+M48+(N48/2)</f>
-        <v>12.5</v>
+      <c r="Y48" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="7" t="n">
+        <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)))/45</f>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="AA48" s="4" t="n">
+        <f aca="false">Z48*10</f>
+        <v>5.55555555555556</v>
+      </c>
+      <c r="AD48" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ48" s="4" t="n">
+        <f aca="false">AD48+AE48+AF48+AH48+AI48+AG48</f>
+        <v>10</v>
+      </c>
+      <c r="AL48" s="8" t="n">
+        <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
+        <v>18.0555555555556</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>0</v>
@@ -4346,32 +4508,35 @@
       <c r="U49" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y49" s="7" t="n">
-        <f aca="false">(SUM(O49:X49)-(SMALL(O49:X49,2)+SMALL(O49:X49,1)))/40</f>
-        <v>0.545</v>
-      </c>
-      <c r="Z49" s="4" t="n">
-        <f aca="false">Y49*10</f>
-        <v>5.45</v>
-      </c>
-      <c r="AC49" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI49" s="4" t="n">
-        <f aca="false">AC49+AD49+AE49+AG49+AH49+AF49</f>
+      <c r="Y49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="7" t="n">
+        <f aca="false">(SUM(O49:Y49)-(SMALL(O49:Y49,2)+SMALL(O49:Y49,1)))/45</f>
+        <v>0.595555555555556</v>
+      </c>
+      <c r="AA49" s="4" t="n">
+        <f aca="false">Z49*10</f>
+        <v>5.95555555555556</v>
+      </c>
+      <c r="AD49" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ49" s="4" t="n">
+        <f aca="false">AD49+AE49+AF49+AH49+AI49+AG49</f>
         <v>10</v>
       </c>
-      <c r="AK49" s="8" t="n">
-        <f aca="false">AJ49+AI49+AB49+AA49+Z49+M49+(N49/2)</f>
-        <v>18.7</v>
+      <c r="AL49" s="8" t="n">
+        <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
+        <v>19.2055555555556</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>0</v>
@@ -4419,30 +4584,33 @@
       <c r="U50" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y50" s="7" t="n">
-        <f aca="false">(SUM(O50:X50)-(SMALL(O50:X50,2)+SMALL(O50:X50,1)))/40</f>
-        <v>0.485</v>
-      </c>
-      <c r="Z50" s="4" t="n">
-        <f aca="false">Y50*10</f>
-        <v>4.85</v>
-      </c>
-      <c r="AC50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="0"/>
-      <c r="AI50" s="4" t="n">
-        <f aca="false">AC50+AD50+AE50+AG50+AH50+AF50</f>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="8" t="n">
-        <f aca="false">AJ50+AI50+AB50+AA50+Z50+M50+(N50/2)</f>
-        <v>9.1</v>
+      <c r="Y50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="7" t="n">
+        <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)))/45</f>
+        <v>0.453333333333333</v>
+      </c>
+      <c r="AA50" s="4" t="n">
+        <f aca="false">Z50*10</f>
+        <v>4.53333333333333</v>
+      </c>
+      <c r="AD50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="0"/>
+      <c r="AJ50" s="4" t="n">
+        <f aca="false">AD50+AE50+AF50+AH50+AI50+AG50</f>
+        <v>0</v>
+      </c>
+      <c r="AL50" s="8" t="n">
+        <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
+        <v>8.78333333333333</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>0</v>
@@ -4490,32 +4658,35 @@
       <c r="U51" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="Y51" s="7" t="n">
-        <f aca="false">(SUM(O51:X51)-(SMALL(O51:X51,2)+SMALL(O51:X51,1)))/40</f>
-        <v>0.575</v>
-      </c>
-      <c r="Z51" s="4" t="n">
-        <f aca="false">Y51*10</f>
-        <v>5.75</v>
-      </c>
-      <c r="AC51" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF51" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI51" s="4" t="n">
-        <f aca="false">AC51+AD51+AE51+AG51+AH51+AF51</f>
+      <c r="Y51" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="7" t="n">
+        <f aca="false">(SUM(O51:Y51)-(SMALL(O51:Y51,2)+SMALL(O51:Y51,1)))/45</f>
+        <v>0.622222222222222</v>
+      </c>
+      <c r="AA51" s="4" t="n">
+        <f aca="false">Z51*10</f>
+        <v>6.22222222222222</v>
+      </c>
+      <c r="AD51" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG51" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ51" s="4" t="n">
+        <f aca="false">AD51+AE51+AF51+AH51+AI51+AG51</f>
         <v>10</v>
       </c>
-      <c r="AK51" s="8" t="n">
-        <f aca="false">AJ51+AI51+AB51+AA51+Z51+M51+(N51/2)</f>
-        <v>17.75</v>
+      <c r="AL51" s="8" t="n">
+        <f aca="false">AK51+AJ51+AC51+AB51+AA51+M51+(N51/2)</f>
+        <v>18.2222222222222</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>0</v>
@@ -4563,24 +4734,30 @@
       <c r="U52" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="Y52" s="7" t="n">
-        <f aca="false">(SUM(O52:X52)-(SMALL(O52:X52,2)+SMALL(O52:X52,1)))/40</f>
-        <v>0.3</v>
-      </c>
-      <c r="Z52" s="4" t="n">
-        <f aca="false">Y52*10</f>
-        <v>3</v>
-      </c>
-      <c r="AC52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="4" t="n">
-        <f aca="false">AC52+AD52+AE52+AG52+AH52+AF52</f>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="8" t="n">
-        <f aca="false">AJ52+AI52+AB52+AA52+Z52+M52+(N52/2)</f>
-        <v>5.5</v>
+      <c r="Y52" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="7" t="n">
+        <f aca="false">(SUM(O52:Y52)-(SMALL(O52:Y52,2)+SMALL(O52:Y52,1)))/45</f>
+        <v>0.377777777777778</v>
+      </c>
+      <c r="AA52" s="4" t="n">
+        <f aca="false">Z52*10</f>
+        <v>3.77777777777778</v>
+      </c>
+      <c r="AD52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="4" t="n">
+        <f aca="false">AD52+AE52+AF52+AH52+AI52+AG52</f>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="8" t="n">
+        <f aca="false">AK52+AJ52+AC52+AB52+AA52+M52+(N52/2)</f>
+        <v>6.27777777777778</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,7 +4787,7 @@
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
       <c r="E57" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
@@ -4618,22 +4795,22 @@
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="23"/>
       <c r="E58" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="23"/>
       <c r="E59" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G59" s="25" t="n">
         <v>4</v>
@@ -4642,10 +4819,10 @@
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23"/>
       <c r="E60" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G60" s="25" t="n">
         <v>3.67</v>
@@ -4654,10 +4831,10 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23"/>
       <c r="E61" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G61" s="25" t="n">
         <v>3.33</v>
@@ -4666,10 +4843,10 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23"/>
       <c r="E62" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G62" s="25" t="n">
         <v>3</v>
@@ -4678,10 +4855,10 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="23"/>
       <c r="E63" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G63" s="25" t="n">
         <v>2.67</v>
@@ -4690,10 +4867,10 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="23"/>
       <c r="E64" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G64" s="25" t="n">
         <v>2.33</v>
@@ -4702,10 +4879,10 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="23"/>
       <c r="E65" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G65" s="25" t="n">
         <v>2</v>
@@ -4714,10 +4891,10 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="23"/>
       <c r="E66" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G66" s="25" t="n">
         <v>1.67</v>
@@ -4726,10 +4903,10 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="23"/>
       <c r="E67" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G67" s="25" t="n">
         <v>0</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t xml:space="preserve">Registered Trainee Name</t>
   </si>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Lab Quiz 4 (5)</t>
   </si>
   <si>
-    <t xml:space="preserve">Quiz (N-2)</t>
+    <t xml:space="preserve">Quiz (N-3)</t>
   </si>
   <si>
     <t xml:space="preserve">Quiz (10%)</t>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve">Muhammad Raza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarang IShaque</t>
   </si>
   <si>
     <t xml:space="preserve">GRADING PLAN</t>
@@ -536,7 +539,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -597,12 +600,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -718,29 +733,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="1:67"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG20" activeCellId="0" sqref="AG20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.6428571428571"/>
-    <col collapsed="false" hidden="true" max="11" min="2" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="12" min="12" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="13" min="13" style="4" width="0"/>
-    <col collapsed="false" hidden="true" max="14" min="14" style="5" width="0"/>
-    <col collapsed="false" hidden="true" max="25" min="15" style="6" width="0"/>
-    <col collapsed="false" hidden="true" max="26" min="26" style="7" width="0"/>
-    <col collapsed="false" hidden="true" max="29" min="27" style="4" width="0"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="37" min="36" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="24" min="15" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="6" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="17.780612244898"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,6 +876,7 @@
         <v>37</v>
       </c>
       <c r="AM1" s="10"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
@@ -915,17 +933,17 @@
         <v>5</v>
       </c>
       <c r="Z2" s="7" t="n">
-        <f aca="false">(SUM(O2:Y2)-(SMALL(O2:Y2,2)+SMALL(O2:Y2,1)))/45</f>
-        <v>0.373333333333333</v>
+        <f aca="false">(SUM(O2:Y2)-(SMALL(O2:Y2,2)+SMALL(O2:Y2,1)+SMALL(O2:Y2,3)))/40</f>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
         <f aca="false">Z2*10</f>
-        <v>3.73333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ2" s="4" t="n">
@@ -934,7 +952,7 @@
       </c>
       <c r="AL2" s="8" t="n">
         <f aca="false">AK2+AJ2+AC2+AB2+AA2+M2+(N2/2)</f>
-        <v>18.2333333333333</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,7 +971,7 @@
       <c r="E3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="16" t="n">
         <v>5</v>
       </c>
       <c r="G3" s="13"/>
@@ -986,19 +1004,19 @@
       <c r="T3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="15" t="n">
+      <c r="U3" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y3" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z3" s="7" t="n">
-        <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)))/45</f>
-        <v>0.555555555555556</v>
+        <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)+SMALL(O3:Y3,3)))/40</f>
+        <v>0.6</v>
       </c>
       <c r="AA3" s="4" t="n">
         <f aca="false">Z3*10</f>
-        <v>5.55555555555556</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>5</v>
@@ -1012,7 +1030,7 @@
       </c>
       <c r="AL3" s="8" t="n">
         <f aca="false">AK3+AJ3+AC3+AB3+AA3+M3+(N3/2)</f>
-        <v>20.0555555555556</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,17 +1087,17 @@
         <v>0</v>
       </c>
       <c r="Z4" s="7" t="n">
-        <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)))/45</f>
-        <v>0.551111111111111</v>
+        <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)+SMALL(O4:Y4,3)))/40</f>
+        <v>0.595</v>
       </c>
       <c r="AA4" s="4" t="n">
         <f aca="false">Z4*10</f>
-        <v>5.51111111111111</v>
+        <v>5.95</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AG4" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ4" s="4" t="n">
@@ -1088,7 +1106,7 @@
       </c>
       <c r="AL4" s="8" t="n">
         <f aca="false">AK4+AJ4+AC4+AB4+AA4+M4+(N4/2)</f>
-        <v>20.0111111111111</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,7 +1125,7 @@
       <c r="E5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="16" t="n">
         <v>5</v>
       </c>
       <c r="G5" s="13"/>
@@ -1140,19 +1158,19 @@
       <c r="T5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="15" t="n">
+      <c r="U5" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y5" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z5" s="7" t="n">
-        <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)))/45</f>
-        <v>0.511111111111111</v>
+        <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
+        <v>0.55</v>
       </c>
       <c r="AA5" s="4" t="n">
         <f aca="false">Z5*10</f>
-        <v>5.11111111111111</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>5</v>
@@ -1166,7 +1184,7 @@
       </c>
       <c r="AL5" s="8" t="n">
         <f aca="false">AK5+AJ5+AC5+AB5+AA5+M5+(N5/2)</f>
-        <v>19.6111111111111</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,31 +1235,31 @@
       <c r="T6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="15" t="n">
+      <c r="U6" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z6" s="7" t="n">
-        <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)))/45</f>
-        <v>0.644444444444444</v>
+        <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)+SMALL(O6:Y6,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA6" s="4" t="n">
         <f aca="false">Z6*10</f>
-        <v>6.44444444444444</v>
+        <v>6.25</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG6" s="0"/>
+      <c r="AG6" s="18"/>
       <c r="AJ6" s="4" t="n">
         <f aca="false">AD6+AE6+AF6+AH6+AI6+AG6</f>
         <v>0</v>
       </c>
       <c r="AL6" s="8" t="n">
         <f aca="false">AK6+AJ6+AC6+AB6+AA6+M6+(N6/2)</f>
-        <v>8.69444444444444</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,31 +1309,31 @@
       <c r="T7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U7" s="15" t="n">
+      <c r="U7" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z7" s="7" t="n">
-        <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)))/45</f>
-        <v>0.644444444444444</v>
+        <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)+SMALL(O7:Y7,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA7" s="4" t="n">
         <f aca="false">Z7*10</f>
-        <v>6.44444444444444</v>
+        <v>6.25</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG7" s="0"/>
+      <c r="AG7" s="18"/>
       <c r="AJ7" s="4" t="n">
         <f aca="false">AD7+AE7+AF7+AH7+AI7+AG7</f>
         <v>0</v>
       </c>
       <c r="AL7" s="8" t="n">
         <f aca="false">AK7+AJ7+AC7+AB7+AA7+M7+(N7/2)</f>
-        <v>10.6944444444444</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,19 +1385,19 @@
       <c r="T8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U8" s="15" t="n">
+      <c r="U8" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z8" s="7" t="n">
-        <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)))/45</f>
-        <v>0.666666666666667</v>
+        <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)+SMALL(O8:Y8,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA8" s="4" t="n">
         <f aca="false">Z8*10</f>
-        <v>6.66666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>5</v>
@@ -1393,7 +1411,7 @@
       </c>
       <c r="AL8" s="8" t="n">
         <f aca="false">AK8+AJ8+AC8+AB8+AA8+M8+(N8/2)</f>
-        <v>20.6666666666667</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,31 +1461,31 @@
       <c r="T9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U9" s="15" t="n">
+      <c r="U9" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z9" s="7" t="n">
-        <f aca="false">(SUM(O9:Y9)-(SMALL(O9:Y9,2)+SMALL(O9:Y9,1)))/45</f>
-        <v>0.286666666666667</v>
+        <f aca="false">(SUM(O9:Y9)-(SMALL(O9:Y9,2)+SMALL(O9:Y9,1)+SMALL(O9:Y9,3)))/40</f>
+        <v>0.3225</v>
       </c>
       <c r="AA9" s="4" t="n">
         <f aca="false">Z9*10</f>
-        <v>2.86666666666667</v>
+        <v>3.225</v>
       </c>
       <c r="AD9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG9" s="0"/>
+      <c r="AG9" s="18"/>
       <c r="AJ9" s="4" t="n">
         <f aca="false">AD9+AE9+AF9+AH9+AI9+AG9</f>
         <v>5</v>
       </c>
       <c r="AL9" s="8" t="n">
         <f aca="false">AK9+AJ9+AC9+AB9+AA9+M9+(N9/2)</f>
-        <v>12.3666666666667</v>
+        <v>12.725</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,24 +1543,24 @@
         <v>0</v>
       </c>
       <c r="Z10" s="7" t="n">
-        <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)))/45</f>
-        <v>0.48</v>
+        <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)+SMALL(O10:Y10,3)))/40</f>
+        <v>0.54</v>
       </c>
       <c r="AA10" s="4" t="n">
         <f aca="false">Z10*10</f>
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG10" s="0"/>
+      <c r="AG10" s="18"/>
       <c r="AJ10" s="4" t="n">
         <f aca="false">AD10+AE10+AF10+AH10+AI10+AG10</f>
         <v>0</v>
       </c>
       <c r="AL10" s="8" t="n">
         <f aca="false">AK10+AJ10+AC10+AB10+AA10+M10+(N10/2)</f>
-        <v>9.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,19 +1610,19 @@
       <c r="T11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="U11" s="15" t="n">
+      <c r="U11" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z11" s="7" t="n">
-        <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)))/45</f>
-        <v>0.666666666666667</v>
+        <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)+SMALL(O11:Y11,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA11" s="4" t="n">
         <f aca="false">Z11*10</f>
-        <v>6.66666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>5</v>
@@ -1618,7 +1636,7 @@
       </c>
       <c r="AL11" s="8" t="n">
         <f aca="false">AK11+AJ11+AC11+AB11+AA11+M11+(N11/2)</f>
-        <v>20.1666666666667</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,19 +1686,19 @@
       <c r="T12" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="U12" s="15" t="n">
+      <c r="U12" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z12" s="7" t="n">
-        <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)))/45</f>
-        <v>0.666666666666667</v>
+        <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)+SMALL(O12:Y12,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA12" s="4" t="n">
         <f aca="false">Z12*10</f>
-        <v>6.66666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>5</v>
@@ -1694,7 +1712,7 @@
       </c>
       <c r="AL12" s="8" t="n">
         <f aca="false">AK12+AJ12+AC12+AB12+AA12+M12+(N12/2)</f>
-        <v>20.1666666666667</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,12 +1769,12 @@
         <v>5</v>
       </c>
       <c r="Z13" s="7" t="n">
-        <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)))/45</f>
-        <v>0.466666666666667</v>
+        <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)+SMALL(O13:Y13,3)))/40</f>
+        <v>0.525</v>
       </c>
       <c r="AA13" s="4" t="n">
         <f aca="false">Z13*10</f>
-        <v>4.66666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="AD13" s="5" t="n">
         <v>5</v>
@@ -1770,7 +1788,7 @@
       </c>
       <c r="AL13" s="8" t="n">
         <f aca="false">AK13+AJ13+AC13+AB13+AA13+M13+(N13/2)</f>
-        <v>17.9166666666667</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,19 +1840,19 @@
       <c r="T14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U14" s="15" t="n">
+      <c r="U14" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z14" s="7" t="n">
-        <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)))/45</f>
-        <v>0.644444444444444</v>
+        <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)+SMALL(O14:Y14,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA14" s="4" t="n">
         <f aca="false">Z14*10</f>
-        <v>6.44444444444444</v>
+        <v>6.25</v>
       </c>
       <c r="AD14" s="5" t="n">
         <v>5</v>
@@ -1848,7 +1866,7 @@
       </c>
       <c r="AL14" s="8" t="n">
         <f aca="false">AK14+AJ14+AC14+AB14+AA14+M14+(N14/2)</f>
-        <v>20.4444444444444</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,17 +1923,17 @@
         <v>5</v>
       </c>
       <c r="Z15" s="7" t="n">
-        <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)))/45</f>
-        <v>0.637777777777778</v>
+        <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)+SMALL(O15:Y15,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA15" s="4" t="n">
         <f aca="false">Z15*10</f>
-        <v>6.37777777777778</v>
+        <v>6.25</v>
       </c>
       <c r="AD15" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ15" s="4" t="n">
@@ -1924,7 +1942,7 @@
       </c>
       <c r="AL15" s="8" t="n">
         <f aca="false">AK15+AJ15+AC15+AB15+AA15+M15+(N15/2)</f>
-        <v>20.8777777777778</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,19 +1993,19 @@
       <c r="T16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U16" s="15" t="n">
+      <c r="U16" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z16" s="7" t="n">
-        <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)))/45</f>
-        <v>0.644444444444444</v>
+        <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)+SMALL(O16:Y16,3)))/40</f>
+        <v>0.6125</v>
       </c>
       <c r="AA16" s="4" t="n">
         <f aca="false">Z16*10</f>
-        <v>6.44444444444444</v>
+        <v>6.125</v>
       </c>
       <c r="AD16" s="5" t="n">
         <v>5</v>
@@ -2001,7 +2019,7 @@
       </c>
       <c r="AL16" s="8" t="n">
         <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
-        <v>19.6944444444444</v>
+        <v>19.375</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,19 +2071,19 @@
       <c r="T17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="15" t="n">
+      <c r="U17" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z17" s="7" t="n">
-        <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)))/45</f>
-        <v>0.582222222222222</v>
+        <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)+SMALL(O17:Y17,3)))/40</f>
+        <v>0.5925</v>
       </c>
       <c r="AA17" s="4" t="n">
         <f aca="false">Z17*10</f>
-        <v>5.82222222222222</v>
+        <v>5.925</v>
       </c>
       <c r="AD17" s="5" t="n">
         <v>5</v>
@@ -2079,7 +2097,7 @@
       </c>
       <c r="AL17" s="8" t="n">
         <f aca="false">AK17+AJ17+AC17+AB17+AA17+M17+(N17/2)</f>
-        <v>19.3222222222222</v>
+        <v>19.425</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,19 +2148,19 @@
       <c r="T18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="15" t="n">
+      <c r="U18" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y18" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z18" s="7" t="n">
-        <f aca="false">(SUM(O18:Y18)-(SMALL(O18:Y18,2)+SMALL(O18:Y18,1)))/45</f>
-        <v>0.644444444444444</v>
+        <f aca="false">(SUM(O18:Y18)-(SMALL(O18:Y18,2)+SMALL(O18:Y18,1)+SMALL(O18:Y18,3)))/40</f>
+        <v>0.6125</v>
       </c>
       <c r="AA18" s="4" t="n">
         <f aca="false">Z18*10</f>
-        <v>6.44444444444444</v>
+        <v>6.125</v>
       </c>
       <c r="AD18" s="5" t="n">
         <v>5</v>
@@ -2156,7 +2174,7 @@
       </c>
       <c r="AL18" s="8" t="n">
         <f aca="false">AK18+AJ18+AC18+AB18+AA18+M18+(N18/2)</f>
-        <v>19.6944444444444</v>
+        <v>19.375</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,19 +2225,19 @@
       <c r="T19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="15" t="n">
+      <c r="U19" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z19" s="7" t="n">
-        <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)))/45</f>
-        <v>0.635555555555556</v>
+        <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)+SMALL(O19:Y19,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA19" s="4" t="n">
         <f aca="false">Z19*10</f>
-        <v>6.35555555555556</v>
+        <v>6.25</v>
       </c>
       <c r="AD19" s="5" t="n">
         <v>5</v>
@@ -2233,7 +2251,7 @@
       </c>
       <c r="AL19" s="8" t="n">
         <f aca="false">AK19+AJ19+AC19+AB19+AA19+M19+(N19/2)</f>
-        <v>20.6055555555556</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,24 +2302,24 @@
       <c r="T20" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U20" s="15" t="n">
+      <c r="U20" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y20" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z20" s="7" t="n">
-        <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)))/45</f>
-        <v>0.644444444444444</v>
+        <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)+SMALL(O20:Y20,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA20" s="4" t="n">
         <f aca="false">Z20*10</f>
-        <v>6.44444444444444</v>
+        <v>6.25</v>
       </c>
       <c r="AD20" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG20" s="5" t="n">
+      <c r="AG20" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ20" s="4" t="n">
@@ -2310,7 +2328,7 @@
       </c>
       <c r="AL20" s="8" t="n">
         <f aca="false">AK20+AJ20+AC20+AB20+AA20+M20+(N20/2)</f>
-        <v>20.1944444444444</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,24 +2379,24 @@
       <c r="T21" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U21" s="15" t="n">
+      <c r="U21" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y21" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z21" s="7" t="n">
-        <f aca="false">(SUM(O21:Y21)-(SMALL(O21:Y21,2)+SMALL(O21:Y21,1)))/45</f>
-        <v>0.635555555555556</v>
+        <f aca="false">(SUM(O21:Y21)-(SMALL(O21:Y21,2)+SMALL(O21:Y21,1)+SMALL(O21:Y21,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA21" s="4" t="n">
         <f aca="false">Z21*10</f>
-        <v>6.35555555555556</v>
+        <v>6.25</v>
       </c>
       <c r="AD21" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG21" s="5" t="n">
+      <c r="AG21" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ21" s="4" t="n">
@@ -2387,11 +2405,11 @@
       </c>
       <c r="AL21" s="8" t="n">
         <f aca="false">AK21+AJ21+AC21+AB21+AA21+M21+(N21/2)</f>
-        <v>20.6055555555556</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -2445,28 +2463,28 @@
         <v>0</v>
       </c>
       <c r="Z22" s="7" t="n">
-        <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)))/45</f>
-        <v>0.44</v>
+        <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)+SMALL(O22:Y22,3)))/40</f>
+        <v>0.495</v>
       </c>
       <c r="AA22" s="4" t="n">
         <f aca="false">Z22*10</f>
-        <v>4.4</v>
+        <v>4.95</v>
       </c>
       <c r="AD22" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG22" s="0"/>
+      <c r="AG22" s="15"/>
       <c r="AJ22" s="4" t="n">
         <f aca="false">AD22+AE22+AF22+AH22+AI22+AG22</f>
         <v>5</v>
       </c>
       <c r="AL22" s="8" t="n">
         <f aca="false">AK22+AJ22+AC22+AB22+AA22+M22+(N22/2)</f>
-        <v>13.4</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -2514,24 +2532,24 @@
       <c r="T23" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="U23" s="15" t="n">
+      <c r="U23" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y23" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z23" s="7" t="n">
-        <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)))/45</f>
-        <v>0.655555555555556</v>
+        <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)+SMALL(O23:Y23,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA23" s="4" t="n">
         <f aca="false">Z23*10</f>
-        <v>6.55555555555556</v>
+        <v>6.25</v>
       </c>
       <c r="AD23" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG23" s="5" t="n">
+      <c r="AG23" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ23" s="4" t="n">
@@ -2540,11 +2558,11 @@
       </c>
       <c r="AL23" s="8" t="n">
         <f aca="false">AK23+AJ23+AC23+AB23+AA23+M23+(N23/2)</f>
-        <v>20.8055555555556</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -2592,24 +2610,24 @@
       <c r="T24" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U24" s="15" t="n">
+      <c r="U24" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y24" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z24" s="7" t="n">
-        <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)))/45</f>
-        <v>0.622222222222222</v>
+        <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)+SMALL(O24:Y24,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA24" s="4" t="n">
         <f aca="false">Z24*10</f>
-        <v>6.22222222222222</v>
+        <v>6.25</v>
       </c>
       <c r="AD24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG24" s="5" t="n">
+      <c r="AG24" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ24" s="4" t="n">
@@ -2618,11 +2636,11 @@
       </c>
       <c r="AL24" s="8" t="n">
         <f aca="false">AK24+AJ24+AC24+AB24+AA24+M24+(N24/2)</f>
-        <v>19.9722222222222</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -2669,24 +2687,24 @@
       <c r="T25" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="15" t="n">
+      <c r="U25" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z25" s="7" t="n">
-        <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)))/45</f>
-        <v>0.573333333333333</v>
+        <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)+SMALL(O25:Y25,3)))/40</f>
+        <v>0.575</v>
       </c>
       <c r="AA25" s="4" t="n">
         <f aca="false">Z25*10</f>
-        <v>5.73333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="AD25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG25" s="5" t="n">
+      <c r="AG25" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ25" s="4" t="n">
@@ -2695,11 +2713,11 @@
       </c>
       <c r="AL25" s="8" t="n">
         <f aca="false">AK25+AJ25+AC25+AB25+AA25+M25+(N25/2)</f>
-        <v>19.4833333333333</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -2753,17 +2771,17 @@
         <v>5</v>
       </c>
       <c r="Z26" s="7" t="n">
-        <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)))/45</f>
-        <v>0.611111111111111</v>
+        <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)+SMALL(O26:Y26,3)))/40</f>
+        <v>0.6125</v>
       </c>
       <c r="AA26" s="4" t="n">
         <f aca="false">Z26*10</f>
-        <v>6.11111111111111</v>
+        <v>6.125</v>
       </c>
       <c r="AD26" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG26" s="5" t="n">
+      <c r="AG26" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ26" s="4" t="n">
@@ -2772,11 +2790,11 @@
       </c>
       <c r="AL26" s="8" t="n">
         <f aca="false">AK26+AJ26+AC26+AB26+AA26+M26+(N26/2)</f>
-        <v>20.3611111111111</v>
+        <v>20.375</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -2822,24 +2840,24 @@
       <c r="T27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U27" s="15" t="n">
+      <c r="U27" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y27" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z27" s="7" t="n">
-        <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)))/45</f>
-        <v>0.651111111111111</v>
+        <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)+SMALL(O27:Y27,3)))/40</f>
+        <v>0.62</v>
       </c>
       <c r="AA27" s="4" t="n">
         <f aca="false">Z27*10</f>
-        <v>6.51111111111111</v>
+        <v>6.2</v>
       </c>
       <c r="AD27" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG27" s="5" t="n">
+      <c r="AG27" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ27" s="4" t="n">
@@ -2848,11 +2866,11 @@
       </c>
       <c r="AL27" s="8" t="n">
         <f aca="false">AK27+AJ27+AC27+AB27+AA27+M27+(N27/2)</f>
-        <v>20.5111111111111</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -2899,24 +2917,24 @@
       <c r="T28" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U28" s="15" t="n">
+      <c r="U28" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y28" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z28" s="7" t="n">
-        <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)))/45</f>
-        <v>0.644444444444444</v>
+        <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)+SMALL(O28:Y28,3)))/40</f>
+        <v>0.6125</v>
       </c>
       <c r="AA28" s="4" t="n">
         <f aca="false">Z28*10</f>
-        <v>6.44444444444444</v>
+        <v>6.125</v>
       </c>
       <c r="AD28" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG28" s="5" t="n">
+      <c r="AG28" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ28" s="4" t="n">
@@ -2925,11 +2943,11 @@
       </c>
       <c r="AL28" s="8" t="n">
         <f aca="false">AK28+AJ28+AC28+AB28+AA28+M28+(N28/2)</f>
-        <v>20.6944444444444</v>
+        <v>20.375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -2976,24 +2994,24 @@
       <c r="T29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U29" s="15" t="n">
+      <c r="U29" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y29" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z29" s="7" t="n">
-        <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)))/45</f>
-        <v>0.655555555555556</v>
+        <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)+SMALL(O29:Y29,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA29" s="4" t="n">
         <f aca="false">Z29*10</f>
-        <v>6.55555555555556</v>
+        <v>6.25</v>
       </c>
       <c r="AD29" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG29" s="5" t="n">
+      <c r="AG29" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ29" s="4" t="n">
@@ -3002,11 +3020,11 @@
       </c>
       <c r="AL29" s="8" t="n">
         <f aca="false">AK29+AJ29+AC29+AB29+AA29+M29+(N29/2)</f>
-        <v>20.8055555555556</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -3059,17 +3077,17 @@
         <v>5</v>
       </c>
       <c r="Z30" s="7" t="n">
-        <f aca="false">(SUM(O30:Y30)-(SMALL(O30:Y30,2)+SMALL(O30:Y30,1)))/45</f>
-        <v>0.589444444444444</v>
+        <f aca="false">(SUM(O30:Y30)-(SMALL(O30:Y30,2)+SMALL(O30:Y30,1)+SMALL(O30:Y30,3)))/40</f>
+        <v>0.588125</v>
       </c>
       <c r="AA30" s="4" t="n">
         <f aca="false">Z30*10</f>
-        <v>5.89444444444444</v>
+        <v>5.88125</v>
       </c>
       <c r="AD30" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG30" s="5" t="n">
+      <c r="AG30" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ30" s="4" t="n">
@@ -3078,11 +3096,11 @@
       </c>
       <c r="AL30" s="8" t="n">
         <f aca="false">AK30+AJ30+AC30+AB30+AA30+M30+(N30/2)</f>
-        <v>19.3944444444444</v>
+        <v>19.38125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -3136,28 +3154,28 @@
         <v>0</v>
       </c>
       <c r="Z31" s="7" t="n">
-        <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)))/45</f>
-        <v>0.315555555555555</v>
+        <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)+SMALL(O31:Y31,3)))/40</f>
+        <v>0.355</v>
       </c>
       <c r="AA31" s="4" t="n">
         <f aca="false">Z31*10</f>
-        <v>3.15555555555556</v>
+        <v>3.55</v>
       </c>
       <c r="AD31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG31" s="0"/>
+      <c r="AG31" s="15"/>
       <c r="AJ31" s="4" t="n">
         <f aca="false">AD31+AE31+AF31+AH31+AI31+AG31</f>
         <v>0</v>
       </c>
       <c r="AL31" s="8" t="n">
         <f aca="false">AK31+AJ31+AC31+AB31+AA31+M31+(N31/2)</f>
-        <v>5.90555555555556</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -3204,24 +3222,24 @@
       <c r="T32" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U32" s="15" t="n">
+      <c r="U32" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y32" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z32" s="7" t="n">
-        <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)))/45</f>
-        <v>0.666666666666667</v>
+        <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)+SMALL(O32:Y32,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA32" s="4" t="n">
         <f aca="false">Z32*10</f>
-        <v>6.66666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="AD32" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG32" s="5" t="n">
+      <c r="AG32" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ32" s="4" t="n">
@@ -3230,11 +3248,11 @@
       </c>
       <c r="AL32" s="8" t="n">
         <f aca="false">AK32+AJ32+AC32+AB32+AA32+M32+(N32/2)</f>
-        <v>20.6666666666667</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -3282,24 +3300,24 @@
       <c r="T33" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U33" s="15" t="n">
+      <c r="U33" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y33" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z33" s="7" t="n">
-        <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)))/45</f>
-        <v>0.655555555555555</v>
+        <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)+SMALL(O33:Y33,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA33" s="4" t="n">
         <f aca="false">Z33*10</f>
-        <v>6.55555555555555</v>
+        <v>6.25</v>
       </c>
       <c r="AD33" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG33" s="5" t="n">
+      <c r="AG33" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ33" s="4" t="n">
@@ -3308,11 +3326,11 @@
       </c>
       <c r="AL33" s="8" t="n">
         <f aca="false">AK33+AJ33+AC33+AB33+AA33+M33+(N33/2)</f>
-        <v>20.5555555555556</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -3358,24 +3376,24 @@
       <c r="T34" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U34" s="15" t="n">
+      <c r="U34" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z34" s="7" t="n">
-        <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)))/45</f>
-        <v>0.635555555555556</v>
+        <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)+SMALL(O34:Y34,3)))/40</f>
+        <v>0.6025</v>
       </c>
       <c r="AA34" s="4" t="n">
         <f aca="false">Z34*10</f>
-        <v>6.35555555555556</v>
+        <v>6.025</v>
       </c>
       <c r="AD34" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG34" s="5" t="n">
+      <c r="AG34" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ34" s="4" t="n">
@@ -3384,11 +3402,11 @@
       </c>
       <c r="AL34" s="8" t="n">
         <f aca="false">AK34+AJ34+AC34+AB34+AA34+M34+(N34/2)</f>
-        <v>20.3555555555556</v>
+        <v>20.025</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -3435,24 +3453,24 @@
       <c r="T35" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U35" s="15" t="n">
+      <c r="U35" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y35" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z35" s="7" t="n">
-        <f aca="false">(SUM(O35:Y35)-(SMALL(O35:Y35,2)+SMALL(O35:Y35,1)))/45</f>
-        <v>0.611111111111111</v>
+        <f aca="false">(SUM(O35:Y35)-(SMALL(O35:Y35,2)+SMALL(O35:Y35,1)+SMALL(O35:Y35,3)))/40</f>
+        <v>0.5875</v>
       </c>
       <c r="AA35" s="4" t="n">
         <f aca="false">Z35*10</f>
-        <v>6.11111111111111</v>
+        <v>5.875</v>
       </c>
       <c r="AD35" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG35" s="5" t="n">
+      <c r="AG35" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ35" s="4" t="n">
@@ -3461,11 +3479,11 @@
       </c>
       <c r="AL35" s="8" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>19.1111111111111</v>
+        <v>18.875</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -3518,28 +3536,28 @@
         <v>0</v>
       </c>
       <c r="Z36" s="7" t="n">
-        <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)))/45</f>
-        <v>0.38</v>
+        <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)+SMALL(O36:Y36,3)))/40</f>
+        <v>0.4275</v>
       </c>
       <c r="AA36" s="4" t="n">
         <f aca="false">Z36*10</f>
-        <v>3.8</v>
+        <v>4.275</v>
       </c>
       <c r="AD36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG36" s="0"/>
+      <c r="AG36" s="15"/>
       <c r="AJ36" s="4" t="n">
         <f aca="false">AD36+AE36+AF36+AH36+AI36+AG36</f>
         <v>0</v>
       </c>
       <c r="AL36" s="8" t="n">
         <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
-        <v>7.8</v>
+        <v>8.275</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -3586,24 +3604,24 @@
       <c r="T37" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U37" s="15" t="n">
+      <c r="U37" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y37" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z37" s="7" t="n">
-        <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)))/45</f>
-        <v>0.655555555555556</v>
+        <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)+SMALL(O37:Y37,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA37" s="4" t="n">
         <f aca="false">Z37*10</f>
-        <v>6.55555555555556</v>
+        <v>6.25</v>
       </c>
       <c r="AD37" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG37" s="5" t="n">
+      <c r="AG37" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ37" s="4" t="n">
@@ -3612,11 +3630,11 @@
       </c>
       <c r="AL37" s="8" t="n">
         <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
-        <v>20.8055555555556</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="23" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -3664,24 +3682,24 @@
       <c r="T38" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U38" s="15" t="n">
+      <c r="U38" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y38" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z38" s="7" t="n">
-        <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)))/45</f>
-        <v>0.633333333333333</v>
+        <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)+SMALL(O38:Y38,3)))/40</f>
+        <v>0.6125</v>
       </c>
       <c r="AA38" s="4" t="n">
         <f aca="false">Z38*10</f>
-        <v>6.33333333333333</v>
+        <v>6.125</v>
       </c>
       <c r="AD38" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG38" s="5" t="n">
+      <c r="AG38" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ38" s="4" t="n">
@@ -3690,11 +3708,11 @@
       </c>
       <c r="AL38" s="8" t="n">
         <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
-        <v>20.3333333333333</v>
+        <v>20.125</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="23" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -3741,24 +3759,24 @@
       <c r="T39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="15" t="n">
+      <c r="U39" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y39" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z39" s="7" t="n">
-        <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)))/45</f>
-        <v>0.487777777777778</v>
+        <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)+SMALL(O39:Y39,3)))/40</f>
+        <v>0.52375</v>
       </c>
       <c r="AA39" s="4" t="n">
         <f aca="false">Z39*10</f>
-        <v>4.87777777777778</v>
+        <v>5.2375</v>
       </c>
       <c r="AD39" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG39" s="0" t="n">
+      <c r="AG39" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ39" s="4" t="n">
@@ -3767,11 +3785,11 @@
       </c>
       <c r="AL39" s="8" t="n">
         <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
-        <v>17.3777777777778</v>
+        <v>17.7375</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -3818,24 +3836,24 @@
       <c r="T40" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="U40" s="15" t="n">
+      <c r="U40" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y40" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z40" s="7" t="n">
-        <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)))/45</f>
-        <v>0.598888888888889</v>
+        <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)+SMALL(O40:Y40,3)))/40</f>
+        <v>0.57375</v>
       </c>
       <c r="AA40" s="4" t="n">
         <f aca="false">Z40*10</f>
-        <v>5.98888888888889</v>
+        <v>5.7375</v>
       </c>
       <c r="AD40" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG40" s="0" t="n">
+      <c r="AG40" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ40" s="4" t="n">
@@ -3844,11 +3862,11 @@
       </c>
       <c r="AL40" s="8" t="n">
         <f aca="false">AK40+AJ40+AC40+AB40+AA40+M40+(N40/2)</f>
-        <v>18.4888888888889</v>
+        <v>18.2375</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -3895,24 +3913,24 @@
       <c r="T41" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="U41" s="15" t="n">
+      <c r="U41" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y41" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z41" s="7" t="n">
-        <f aca="false">(SUM(O41:Y41)-(SMALL(O41:Y41,2)+SMALL(O41:Y41,1)))/45</f>
-        <v>0.666666666666667</v>
+        <f aca="false">(SUM(O41:Y41)-(SMALL(O41:Y41,2)+SMALL(O41:Y41,1)+SMALL(O41:Y41,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA41" s="4" t="n">
         <f aca="false">Z41*10</f>
-        <v>6.66666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="AD41" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG41" s="5" t="n">
+      <c r="AG41" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ41" s="4" t="n">
@@ -3921,11 +3939,11 @@
       </c>
       <c r="AL41" s="8" t="n">
         <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
-        <v>17.9166666666667</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -3979,17 +3997,17 @@
         <v>0</v>
       </c>
       <c r="Z42" s="7" t="n">
-        <f aca="false">(SUM(O42:Y42)-(SMALL(O42:Y42,2)+SMALL(O42:Y42,1)))/45</f>
-        <v>0.448888888888889</v>
+        <f aca="false">(SUM(O42:Y42)-(SMALL(O42:Y42,2)+SMALL(O42:Y42,1)+SMALL(O42:Y42,3)))/40</f>
+        <v>0.505</v>
       </c>
       <c r="AA42" s="4" t="n">
         <f aca="false">Z42*10</f>
-        <v>4.48888888888889</v>
+        <v>5.05</v>
       </c>
       <c r="AD42" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG42" s="5" t="n">
+      <c r="AG42" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ42" s="4" t="n">
@@ -3998,11 +4016,11 @@
       </c>
       <c r="AL42" s="8" t="n">
         <f aca="false">AK42+AJ42+AC42+AB42+AA42+M42+(N42/2)</f>
-        <v>15.7388888888889</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -4049,35 +4067,35 @@
       <c r="T43" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U43" s="15" t="n">
+      <c r="U43" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z43" s="7" t="n">
-        <f aca="false">(SUM(O43:Y43)-(SMALL(O43:Y43,2)+SMALL(O43:Y43,1)))/45</f>
-        <v>0.524444444444444</v>
+        <f aca="false">(SUM(O43:Y43)-(SMALL(O43:Y43,2)+SMALL(O43:Y43,1)+SMALL(O43:Y43,3)))/40</f>
+        <v>0.565</v>
       </c>
       <c r="AA43" s="4" t="n">
         <f aca="false">Z43*10</f>
-        <v>5.24444444444445</v>
+        <v>5.65</v>
       </c>
       <c r="AD43" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" s="0"/>
+      <c r="AG43" s="15"/>
       <c r="AJ43" s="4" t="n">
         <f aca="false">AD43+AE43+AF43+AH43+AI43+AG43</f>
         <v>0</v>
       </c>
       <c r="AL43" s="8" t="n">
         <f aca="false">AK43+AJ43+AC43+AB43+AA43+M43+(N43/2)</f>
-        <v>8.49444444444445</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -4124,24 +4142,24 @@
       <c r="T44" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U44" s="15" t="n">
+      <c r="U44" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y44" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z44" s="7" t="n">
-        <f aca="false">(SUM(O44:Y44)-(SMALL(O44:Y44,2)+SMALL(O44:Y44,1)))/45</f>
-        <v>0.366666666666667</v>
+        <f aca="false">(SUM(O44:Y44)-(SMALL(O44:Y44,2)+SMALL(O44:Y44,1)+SMALL(O44:Y44,3)))/40</f>
+        <v>0.4125</v>
       </c>
       <c r="AA44" s="4" t="n">
         <f aca="false">Z44*10</f>
-        <v>3.66666666666667</v>
+        <v>4.125</v>
       </c>
       <c r="AD44" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG44" s="5" t="n">
+      <c r="AG44" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ44" s="4" t="n">
@@ -4150,11 +4168,11 @@
       </c>
       <c r="AL44" s="8" t="n">
         <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
-        <v>17.9166666666667</v>
+        <v>18.375</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -4200,24 +4218,24 @@
       <c r="T45" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U45" s="15" t="n">
+      <c r="U45" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y45" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z45" s="7" t="n">
-        <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)))/45</f>
-        <v>0.242222222222222</v>
+        <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)+SMALL(O45:Y45,3)))/40</f>
+        <v>0.2725</v>
       </c>
       <c r="AA45" s="4" t="n">
         <f aca="false">Z45*10</f>
-        <v>2.42222222222222</v>
+        <v>2.725</v>
       </c>
       <c r="AD45" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG45" s="5" t="n">
+      <c r="AG45" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ45" s="4" t="n">
@@ -4226,11 +4244,11 @@
       </c>
       <c r="AL45" s="8" t="n">
         <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
-        <v>16.4222222222222</v>
+        <v>16.725</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -4276,24 +4294,24 @@
       <c r="T46" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U46" s="15" t="n">
+      <c r="U46" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y46" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z46" s="7" t="n">
-        <f aca="false">(SUM(O46:Y46)-(SMALL(O46:Y46,2)+SMALL(O46:Y46,1)))/45</f>
-        <v>0.622222222222222</v>
+        <f aca="false">(SUM(O46:Y46)-(SMALL(O46:Y46,2)+SMALL(O46:Y46,1)+SMALL(O46:Y46,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA46" s="4" t="n">
         <f aca="false">Z46*10</f>
-        <v>6.22222222222222</v>
+        <v>6.25</v>
       </c>
       <c r="AD46" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG46" s="5" t="n">
+      <c r="AG46" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ46" s="4" t="n">
@@ -4302,11 +4320,11 @@
       </c>
       <c r="AL46" s="8" t="n">
         <f aca="false">AK46+AJ46+AC46+AB46+AA46+M46+(N46/2)</f>
-        <v>18.7222222222222</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -4359,17 +4377,17 @@
         <v>5</v>
       </c>
       <c r="Z47" s="7" t="n">
-        <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)))/45</f>
-        <v>0.377777777777778</v>
+        <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)+SMALL(O47:Y47,3)))/40</f>
+        <v>0.425</v>
       </c>
       <c r="AA47" s="4" t="n">
         <f aca="false">Z47*10</f>
-        <v>3.77777777777778</v>
+        <v>4.25</v>
       </c>
       <c r="AD47" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG47" s="0" t="n">
+      <c r="AG47" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ47" s="4" t="n">
@@ -4378,11 +4396,11 @@
       </c>
       <c r="AL47" s="8" t="n">
         <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
-        <v>17.0277777777778</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -4428,24 +4446,24 @@
       <c r="T48" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U48" s="15" t="n">
+      <c r="U48" s="17" t="n">
         <v>4</v>
       </c>
       <c r="Y48" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z48" s="7" t="n">
-        <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)))/45</f>
-        <v>0.555555555555556</v>
+        <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)+SMALL(O48:Y48,3)))/40</f>
+        <v>0.6</v>
       </c>
       <c r="AA48" s="4" t="n">
         <f aca="false">Z48*10</f>
-        <v>5.55555555555556</v>
+        <v>6</v>
       </c>
       <c r="AD48" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG48" s="0" t="n">
+      <c r="AG48" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ48" s="4" t="n">
@@ -4454,11 +4472,11 @@
       </c>
       <c r="AL48" s="8" t="n">
         <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
-        <v>18.0555555555556</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -4505,24 +4523,24 @@
       <c r="T49" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="15" t="n">
+      <c r="U49" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y49" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z49" s="7" t="n">
-        <f aca="false">(SUM(O49:Y49)-(SMALL(O49:Y49,2)+SMALL(O49:Y49,1)))/45</f>
-        <v>0.595555555555556</v>
+        <f aca="false">(SUM(O49:Y49)-(SMALL(O49:Y49,2)+SMALL(O49:Y49,1)+SMALL(O49:Y49,3)))/40</f>
+        <v>0.6125</v>
       </c>
       <c r="AA49" s="4" t="n">
         <f aca="false">Z49*10</f>
-        <v>5.95555555555556</v>
+        <v>6.125</v>
       </c>
       <c r="AD49" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG49" s="0" t="n">
+      <c r="AG49" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ49" s="4" t="n">
@@ -4531,11 +4549,11 @@
       </c>
       <c r="AL49" s="8" t="n">
         <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
-        <v>19.2055555555556</v>
+        <v>19.375</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -4581,35 +4599,35 @@
       <c r="T50" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U50" s="15" t="n">
+      <c r="U50" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y50" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z50" s="7" t="n">
-        <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)))/45</f>
-        <v>0.453333333333333</v>
+        <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)+SMALL(O50:Y50,3)))/40</f>
+        <v>0.485</v>
       </c>
       <c r="AA50" s="4" t="n">
         <f aca="false">Z50*10</f>
-        <v>4.53333333333333</v>
+        <v>4.85</v>
       </c>
       <c r="AD50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG50" s="0"/>
+      <c r="AG50" s="15"/>
       <c r="AJ50" s="4" t="n">
         <f aca="false">AD50+AE50+AF50+AH50+AI50+AG50</f>
         <v>0</v>
       </c>
       <c r="AL50" s="8" t="n">
         <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
-        <v>8.78333333333333</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -4655,24 +4673,24 @@
       <c r="T51" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U51" s="15" t="n">
+      <c r="U51" s="17" t="n">
         <v>5</v>
       </c>
       <c r="Y51" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z51" s="7" t="n">
-        <f aca="false">(SUM(O51:Y51)-(SMALL(O51:Y51,2)+SMALL(O51:Y51,1)))/45</f>
-        <v>0.622222222222222</v>
+        <f aca="false">(SUM(O51:Y51)-(SMALL(O51:Y51,2)+SMALL(O51:Y51,1)+SMALL(O51:Y51,3)))/40</f>
+        <v>0.625</v>
       </c>
       <c r="AA51" s="4" t="n">
         <f aca="false">Z51*10</f>
-        <v>6.22222222222222</v>
+        <v>6.25</v>
       </c>
       <c r="AD51" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG51" s="5" t="n">
+      <c r="AG51" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ51" s="4" t="n">
@@ -4681,11 +4699,11 @@
       </c>
       <c r="AL51" s="8" t="n">
         <f aca="false">AK51+AJ51+AC51+AB51+AA51+M51+(N51/2)</f>
-        <v>18.2222222222222</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -4731,24 +4749,24 @@
       <c r="T52" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U52" s="15" t="n">
+      <c r="U52" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Y52" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z52" s="7" t="n">
-        <f aca="false">(SUM(O52:Y52)-(SMALL(O52:Y52,2)+SMALL(O52:Y52,1)))/45</f>
-        <v>0.377777777777778</v>
+        <f aca="false">(SUM(O52:Y52)-(SMALL(O52:Y52,2)+SMALL(O52:Y52,1)+SMALL(O52:Y52,3)))/40</f>
+        <v>0.425</v>
       </c>
       <c r="AA52" s="4" t="n">
         <f aca="false">Z52*10</f>
-        <v>3.77777777777778</v>
+        <v>4.25</v>
       </c>
       <c r="AD52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG52" s="5" t="n">
+      <c r="AG52" s="19" t="n">
         <v>0</v>
       </c>
       <c r="AJ52" s="4" t="n">
@@ -4757,20 +4775,82 @@
       </c>
       <c r="AL52" s="8" t="n">
         <f aca="false">AK52+AJ52+AC52+AB52+AA52+M52+(N52/2)</f>
-        <v>6.27777777777778</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="E53" s="13"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
+      <c r="L53" s="3" t="n">
+        <f aca="false">(SUM(B53:K53)-(SMALL(B53:K53,2)+SMALL(B53:K53,1)))/40</f>
+        <v>0.25</v>
+      </c>
+      <c r="M53" s="4" t="n">
+        <f aca="false">L53*10</f>
+        <v>2.5</v>
+      </c>
+      <c r="N53" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="7" t="n">
+        <f aca="false">(SUM(O53:Y53)-(SMALL(O53:Y53,2)+SMALL(O53:Y53,1)+SMALL(O53:Y53,3)))/40</f>
+        <v>0.0725</v>
+      </c>
+      <c r="AA53" s="4" t="n">
+        <f aca="false">Z53*10</f>
+        <v>0.725</v>
+      </c>
+      <c r="AD53" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG53" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ53" s="4" t="n">
+        <f aca="false">AD53+AE53+AF53+AH53+AI53+AG53</f>
+        <v>10</v>
+      </c>
+      <c r="AL53" s="8" t="n">
+        <f aca="false">AK53+AJ53+AC53+AB53+AA53+M53+(N53/2)</f>
+        <v>15.225</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
+      <c r="AG54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
@@ -4786,129 +4866,129 @@
     </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="E57" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23"/>
-      <c r="E58" s="24" t="s">
+      <c r="E57" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="26"/>
+      <c r="E58" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="F58" s="27" t="s">
         <v>91</v>
       </c>
+      <c r="G58" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23"/>
-      <c r="E59" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="25" t="s">
+      <c r="A59" s="26"/>
+      <c r="E59" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G59" s="25" t="n">
+      <c r="F59" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23"/>
-      <c r="E60" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="25" t="s">
+      <c r="A60" s="26"/>
+      <c r="E60" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="G60" s="25" t="n">
+      <c r="F60" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="28" t="n">
         <v>3.67</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23"/>
-      <c r="E61" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="25" t="s">
+      <c r="A61" s="26"/>
+      <c r="E61" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="25" t="n">
+      <c r="F61" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="28" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23"/>
-      <c r="E62" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" s="25" t="s">
+      <c r="A62" s="26"/>
+      <c r="E62" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="25" t="n">
+      <c r="F62" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="28" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23"/>
-      <c r="E63" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F63" s="25" t="s">
+      <c r="A63" s="26"/>
+      <c r="E63" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="25" t="n">
+      <c r="F63" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" s="28" t="n">
         <v>2.67</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23"/>
-      <c r="E64" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="25" t="s">
+      <c r="A64" s="26"/>
+      <c r="E64" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G64" s="25" t="n">
+      <c r="F64" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="28" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23"/>
-      <c r="E65" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" s="25" t="s">
+      <c r="A65" s="26"/>
+      <c r="E65" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="G65" s="25" t="n">
+      <c r="F65" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G65" s="28" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="23"/>
-      <c r="E66" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" s="25" t="s">
+      <c r="A66" s="26"/>
+      <c r="E66" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G66" s="25" t="n">
+      <c r="F66" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" s="28" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="23"/>
-      <c r="E67" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="25" t="s">
+      <c r="A67" s="26"/>
+      <c r="E67" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G67" s="25" t="n">
+      <c r="F67" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" s="28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">Registered Trainee Name</t>
   </si>
@@ -157,88 +157,88 @@
     <t xml:space="preserve">Shahrukh Karim</t>
   </si>
   <si>
+    <t xml:space="preserve">Raza Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Yasir Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Usama Saleem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Umair Siddiqui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Talha Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammad Asad Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Saeed Salim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javeria Qayyum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarrar Farman Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husn-e-Zahra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faisal Jamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atoofa Akber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahad Waseem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saeeda Ramzan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahar Sindhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syed Anwar Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talha faraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muhammad ata jilani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muhammad hamza gaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahzaib Waqar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Owais Alam Ansari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad wahab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaikh Riaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamza Mairaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hafiz Umer Bin Nasir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rida Hassan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saad Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raza Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Yasir Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Usama Saleem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Umair Siddiqui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Talha Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammad Asad Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.Saeed Salim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javeria Qayyum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jarrar Farman Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husn-e-Zahra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faisal Jamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atoofa Akber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahad Waseem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saeeda Ramzan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahar Sindhu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">syed Anwar Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talha faraz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muhammad ata jilani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muhammad hamza gaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahzaib Waqar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Owais Alam Ansari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad wahab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaikh Riaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamza Mairaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hafiz Umer Bin Nasir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rida Hassan</t>
   </si>
   <si>
     <t xml:space="preserve">M. Farhan Qamar</t>
@@ -733,31 +733,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:67"/>
+  <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="24" min="15" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="6" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="24" min="15" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="6" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,16 +929,19 @@
       <c r="U2" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="V2" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z2" s="7" t="n">
         <f aca="false">(SUM(O2:Y2)-(SMALL(O2:Y2,2)+SMALL(O2:Y2,1)+SMALL(O2:Y2,3)))/40</f>
-        <v>0.42</v>
+        <v>0.545</v>
       </c>
       <c r="AA2" s="4" t="n">
         <f aca="false">Z2*10</f>
-        <v>4.2</v>
+        <v>5.45</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>5</v>
@@ -952,7 +955,7 @@
       </c>
       <c r="AL2" s="8" t="n">
         <f aca="false">AK2+AJ2+AC2+AB2+AA2+M2+(N2/2)</f>
-        <v>18.7</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,16 +1010,19 @@
       <c r="U3" s="17" t="n">
         <v>4.5</v>
       </c>
+      <c r="V3" s="6" t="n">
+        <v>4.333333333</v>
+      </c>
       <c r="Y3" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z3" s="7" t="n">
         <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)+SMALL(O3:Y3,3)))/40</f>
-        <v>0.6</v>
+        <v>0.708333333325</v>
       </c>
       <c r="AA3" s="4" t="n">
         <f aca="false">Z3*10</f>
-        <v>6</v>
+        <v>7.08333333325</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>5</v>
@@ -1030,7 +1036,7 @@
       </c>
       <c r="AL3" s="8" t="n">
         <f aca="false">AK3+AJ3+AC3+AB3+AA3+M3+(N3/2)</f>
-        <v>20.5</v>
+        <v>21.58333333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,16 +1089,19 @@
       <c r="U4" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="V4" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="Y4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z4" s="7" t="n">
         <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)+SMALL(O4:Y4,3)))/40</f>
-        <v>0.595</v>
+        <v>0.62</v>
       </c>
       <c r="AA4" s="4" t="n">
         <f aca="false">Z4*10</f>
-        <v>5.95</v>
+        <v>6.2</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>5</v>
@@ -1106,7 +1115,7 @@
       </c>
       <c r="AL4" s="8" t="n">
         <f aca="false">AK4+AJ4+AC4+AB4+AA4+M4+(N4/2)</f>
-        <v>20.45</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,16 +1170,19 @@
       <c r="U5" s="17" t="n">
         <v>4.5</v>
       </c>
+      <c r="V5" s="6" t="n">
+        <v>4.333333333</v>
+      </c>
       <c r="Y5" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z5" s="7" t="n">
         <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
-        <v>0.55</v>
+        <v>0.658333333325</v>
       </c>
       <c r="AA5" s="4" t="n">
         <f aca="false">Z5*10</f>
-        <v>5.5</v>
+        <v>6.58333333325</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>5</v>
@@ -1184,7 +1196,7 @@
       </c>
       <c r="AL5" s="8" t="n">
         <f aca="false">AK5+AJ5+AC5+AB5+AA5+M5+(N5/2)</f>
-        <v>20</v>
+        <v>21.08333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,16 +1250,19 @@
       <c r="U6" s="17" t="n">
         <v>5</v>
       </c>
+      <c r="V6" s="6" t="n">
+        <v>4.166666667</v>
+      </c>
       <c r="Y6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z6" s="7" t="n">
         <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)+SMALL(O6:Y6,3)))/40</f>
-        <v>0.625</v>
+        <v>0.729166666675</v>
       </c>
       <c r="AA6" s="4" t="n">
         <f aca="false">Z6*10</f>
-        <v>6.25</v>
+        <v>7.29166666675</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1259,7 +1274,7 @@
       </c>
       <c r="AL6" s="8" t="n">
         <f aca="false">AK6+AJ6+AC6+AB6+AA6+M6+(N6/2)</f>
-        <v>8.5</v>
+        <v>9.54166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,16 +1327,19 @@
       <c r="U7" s="17" t="n">
         <v>4</v>
       </c>
+      <c r="V7" s="6" t="n">
+        <v>4.166666667</v>
+      </c>
       <c r="Y7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z7" s="7" t="n">
         <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)+SMALL(O7:Y7,3)))/40</f>
-        <v>0.625</v>
+        <v>0.729166666675</v>
       </c>
       <c r="AA7" s="4" t="n">
         <f aca="false">Z7*10</f>
-        <v>6.25</v>
+        <v>7.29166666675</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1333,7 +1351,7 @@
       </c>
       <c r="AL7" s="8" t="n">
         <f aca="false">AK7+AJ7+AC7+AB7+AA7+M7+(N7/2)</f>
-        <v>10.5</v>
+        <v>11.54166666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,16 +1406,19 @@
       <c r="U8" s="17" t="n">
         <v>5</v>
       </c>
+      <c r="V8" s="6" t="n">
+        <v>4.333333333</v>
+      </c>
       <c r="Y8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z8" s="7" t="n">
         <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)+SMALL(O8:Y8,3)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="AA8" s="4" t="n">
         <f aca="false">Z8*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>5</v>
@@ -1411,7 +1432,7 @@
       </c>
       <c r="AL8" s="8" t="n">
         <f aca="false">AK8+AJ8+AC8+AB8+AA8+M8+(N8/2)</f>
-        <v>20.25</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,10 +1440,10 @@
         <v>45</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>5</v>
@@ -1447,45 +1468,49 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>2.9</v>
+        <f aca="false">0.8+1+1+1+0.8</f>
+        <v>4.6</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S9" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="17" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="U9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y9" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="7" t="n">
         <f aca="false">(SUM(O9:Y9)-(SMALL(O9:Y9,2)+SMALL(O9:Y9,1)+SMALL(O9:Y9,3)))/40</f>
-        <v>0.3225</v>
+        <v>0.54</v>
       </c>
       <c r="AA9" s="4" t="n">
         <f aca="false">Z9*10</f>
-        <v>3.225</v>
+        <v>5.4</v>
       </c>
       <c r="AD9" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="18"/>
       <c r="AJ9" s="4" t="n">
         <f aca="false">AD9+AE9+AF9+AH9+AI9+AG9</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="8" t="n">
         <f aca="false">AK9+AJ9+AC9+AB9+AA9+M9+(N9/2)</f>
-        <v>12.725</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,10 +1518,10 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>5</v>
@@ -1515,14 +1540,13 @@
         <v>2.5</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P10" s="6" t="n">
-        <f aca="false">0.8+1+1+1+0.8</f>
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q10" s="6" t="n">
         <v>5</v>
@@ -1534,9 +1558,12 @@
         <v>5</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Y10" s="6" t="n">
@@ -1544,23 +1571,25 @@
       </c>
       <c r="Z10" s="7" t="n">
         <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)+SMALL(O10:Y10,3)))/40</f>
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="AA10" s="4" t="n">
         <f aca="false">Z10*10</f>
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ10" s="4" t="n">
         <f aca="false">AD10+AE10+AF10+AH10+AI10+AG10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL10" s="8" t="n">
         <f aca="false">AK10+AJ10+AC10+AB10+AA10+M10+(N10/2)</f>
-        <v>9.9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,7 +1597,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0</v>
@@ -1596,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" s="6" t="n">
         <v>5</v>
@@ -1613,16 +1642,19 @@
       <c r="U11" s="17" t="n">
         <v>5</v>
       </c>
+      <c r="V11" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y11" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="7" t="n">
         <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)+SMALL(O11:Y11,3)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="AA11" s="4" t="n">
         <f aca="false">Z11*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>5</v>
@@ -1636,7 +1668,7 @@
       </c>
       <c r="AL11" s="8" t="n">
         <f aca="false">AK11+AJ11+AC11+AB11+AA11+M11+(N11/2)</f>
-        <v>19.75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,10 +1676,10 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>5</v>
@@ -1666,16 +1698,16 @@
         <v>2.5</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="6" t="n">
         <v>5</v>
@@ -1684,21 +1716,24 @@
         <v>5</v>
       </c>
       <c r="T12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="U12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>3.666666667</v>
       </c>
       <c r="Y12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z12" s="7" t="n">
         <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)+SMALL(O12:Y12,3)))/40</f>
-        <v>0.625</v>
+        <v>0.616666666675</v>
       </c>
       <c r="AA12" s="4" t="n">
         <f aca="false">Z12*10</f>
-        <v>6.25</v>
+        <v>6.16666666675</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>5</v>
@@ -1712,7 +1747,7 @@
       </c>
       <c r="AL12" s="8" t="n">
         <f aca="false">AK12+AJ12+AC12+AB12+AA12+M12+(N12/2)</f>
-        <v>19.75</v>
+        <v>19.41666666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,10 +1755,10 @@
         <v>49</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>5</v>
@@ -1742,16 +1777,18 @@
         <v>2.5</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>1.5</v>
+        <f aca="false">1+1.5+0.5</f>
+        <v>3</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0</v>
+        <f aca="false">0.7+1+1.5</f>
+        <v>3.2</v>
       </c>
       <c r="Q13" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R13" s="6" t="n">
         <v>5</v>
@@ -1760,21 +1797,24 @@
         <v>5</v>
       </c>
       <c r="T13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="U13" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <v>4.666666667</v>
       </c>
       <c r="Y13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z13" s="7" t="n">
         <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)+SMALL(O13:Y13,3)))/40</f>
-        <v>0.525</v>
+        <v>0.741666666675</v>
       </c>
       <c r="AA13" s="4" t="n">
         <f aca="false">Z13*10</f>
-        <v>5.25</v>
+        <v>7.41666666675</v>
       </c>
       <c r="AD13" s="5" t="n">
         <v>5</v>
@@ -1788,7 +1828,7 @@
       </c>
       <c r="AL13" s="8" t="n">
         <f aca="false">AK13+AJ13+AC13+AB13+AA13+M13+(N13/2)</f>
-        <v>18.5</v>
+        <v>21.41666666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,10 +1836,10 @@
         <v>50</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>5</v>
@@ -1818,15 +1858,13 @@
         <v>2.5</v>
       </c>
       <c r="N14" s="5" t="n">
-        <f aca="false">1+1.5+0.5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P14" s="6" t="n">
-        <f aca="false">0.7+1+1.5</f>
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q14" s="6" t="n">
         <v>5</v>
@@ -1838,26 +1876,29 @@
         <v>5</v>
       </c>
       <c r="T14" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" s="17" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>4.666666667</v>
       </c>
       <c r="Y14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z14" s="7" t="n">
         <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)+SMALL(O14:Y14,3)))/40</f>
-        <v>0.625</v>
+        <v>0.741666666675</v>
       </c>
       <c r="AA14" s="4" t="n">
         <f aca="false">Z14*10</f>
-        <v>6.25</v>
+        <v>7.41666666675</v>
       </c>
       <c r="AD14" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG14" s="5" t="n">
+      <c r="AG14" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ14" s="4" t="n">
@@ -1866,7 +1907,7 @@
       </c>
       <c r="AL14" s="8" t="n">
         <f aca="false">AK14+AJ14+AC14+AB14+AA14+M14+(N14/2)</f>
-        <v>20.25</v>
+        <v>21.91666666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,7 +1915,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5</v>
@@ -1896,13 +1937,14 @@
         <v>2.5</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>3.7</v>
+        <f aca="false">0.5+0.6+0.8+2</f>
+        <v>3.9</v>
       </c>
       <c r="Q15" s="6" t="n">
         <v>5</v>
@@ -1916,24 +1958,27 @@
       <c r="T15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="14" t="n">
-        <v>0</v>
+      <c r="U15" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="Y15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z15" s="7" t="n">
         <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)+SMALL(O15:Y15,3)))/40</f>
-        <v>0.625</v>
+        <v>0.725</v>
       </c>
       <c r="AA15" s="4" t="n">
         <f aca="false">Z15*10</f>
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="AD15" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG15" s="15" t="n">
+      <c r="AG15" s="5" t="n">
         <v>5</v>
       </c>
       <c r="AJ15" s="4" t="n">
@@ -1942,7 +1987,7 @@
       </c>
       <c r="AL15" s="8" t="n">
         <f aca="false">AK15+AJ15+AC15+AB15+AA15+M15+(N15/2)</f>
-        <v>20.75</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,33 +1998,34 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="13"/>
       <c r="L16" s="3" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M16" s="4" t="n">
         <f aca="false">L16*10</f>
+        <v>2</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <f aca="false">1+1.5+0.5</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>4.5</v>
-      </c>
       <c r="P16" s="6" t="n">
-        <f aca="false">0.5+0.6+0.8+2</f>
-        <v>3.9</v>
+        <f aca="false">0.7+0.5+1+1+0.5</f>
+        <v>3.7</v>
       </c>
       <c r="Q16" s="6" t="n">
         <v>5</v>
@@ -1994,18 +2040,21 @@
         <v>1</v>
       </c>
       <c r="U16" s="17" t="n">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y16" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="7" t="n">
         <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)+SMALL(O16:Y16,3)))/40</f>
-        <v>0.6125</v>
+        <v>0.655</v>
       </c>
       <c r="AA16" s="4" t="n">
         <f aca="false">Z16*10</f>
-        <v>6.125</v>
+        <v>6.55</v>
       </c>
       <c r="AD16" s="5" t="n">
         <v>5</v>
@@ -2019,7 +2068,7 @@
       </c>
       <c r="AL16" s="8" t="n">
         <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
-        <v>19.375</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,34 +2079,33 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="L17" s="3" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M17" s="4" t="n">
         <f aca="false">L17*10</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N17" s="5" t="n">
-        <f aca="false">1+1.5+0.5</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="P17" s="6" t="n">
-        <f aca="false">0.7+0.5+1+1+0.5</f>
-        <v>3.7</v>
+        <f aca="false">0.6+0.5+2</f>
+        <v>3.1</v>
       </c>
       <c r="Q17" s="6" t="n">
         <v>5</v>
@@ -2072,18 +2120,21 @@
         <v>1</v>
       </c>
       <c r="U17" s="17" t="n">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>3.666666667</v>
       </c>
       <c r="Y17" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="7" t="n">
         <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)+SMALL(O17:Y17,3)))/40</f>
-        <v>0.5925</v>
+        <v>0.725</v>
       </c>
       <c r="AA17" s="4" t="n">
         <f aca="false">Z17*10</f>
-        <v>5.925</v>
+        <v>7.25</v>
       </c>
       <c r="AD17" s="5" t="n">
         <v>5</v>
@@ -2097,7 +2148,7 @@
       </c>
       <c r="AL17" s="8" t="n">
         <f aca="false">AK17+AJ17+AC17+AB17+AA17+M17+(N17/2)</f>
-        <v>19.425</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,7 +2156,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5</v>
@@ -2116,7 +2167,7 @@
       <c r="E18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="13"/>
       <c r="L18" s="3" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
@@ -2127,14 +2178,14 @@
         <v>2.5</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.5</v>
+        <f aca="false">1+1.5+1</f>
+        <v>3.5</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P18" s="6" t="n">
-        <f aca="false">0.6+0.5+2</f>
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q18" s="6" t="n">
         <v>5</v>
@@ -2149,18 +2200,21 @@
         <v>1</v>
       </c>
       <c r="U18" s="17" t="n">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y18" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="7" t="n">
         <f aca="false">(SUM(O18:Y18)-(SMALL(O18:Y18,2)+SMALL(O18:Y18,1)+SMALL(O18:Y18,3)))/40</f>
-        <v>0.6125</v>
+        <v>0.715</v>
       </c>
       <c r="AA18" s="4" t="n">
         <f aca="false">Z18*10</f>
-        <v>6.125</v>
+        <v>7.15</v>
       </c>
       <c r="AD18" s="5" t="n">
         <v>5</v>
@@ -2174,7 +2228,7 @@
       </c>
       <c r="AL18" s="8" t="n">
         <f aca="false">AK18+AJ18+AC18+AB18+AA18+M18+(N18/2)</f>
-        <v>19.375</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,7 +2236,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5</v>
@@ -2193,7 +2247,7 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="L19" s="3" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
@@ -2204,14 +2258,14 @@
         <v>2.5</v>
       </c>
       <c r="N19" s="5" t="n">
-        <f aca="false">1+1.5+1</f>
-        <v>3.5</v>
+        <f aca="false">0.5+1.5+0.5</f>
+        <v>2.5</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q19" s="6" t="n">
         <v>5</v>
@@ -2226,23 +2280,26 @@
         <v>1</v>
       </c>
       <c r="U19" s="17" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>4.666666667</v>
       </c>
       <c r="Y19" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="7" t="n">
         <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)+SMALL(O19:Y19,3)))/40</f>
-        <v>0.625</v>
+        <v>0.741666666675</v>
       </c>
       <c r="AA19" s="4" t="n">
         <f aca="false">Z19*10</f>
-        <v>6.25</v>
+        <v>7.41666666675</v>
       </c>
       <c r="AD19" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG19" s="5" t="n">
+      <c r="AG19" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ19" s="4" t="n">
@@ -2251,7 +2308,7 @@
       </c>
       <c r="AL19" s="8" t="n">
         <f aca="false">AK19+AJ19+AC19+AB19+AA19+M19+(N19/2)</f>
-        <v>20.5</v>
+        <v>21.16666666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,7 +2327,7 @@
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="13"/>
       <c r="L20" s="3" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
@@ -2281,14 +2338,14 @@
         <v>2.5</v>
       </c>
       <c r="N20" s="5" t="n">
-        <f aca="false">0.5+1.5+0.5</f>
-        <v>2.5</v>
+        <f aca="false">1+1.5+1</f>
+        <v>3.5</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q20" s="6" t="n">
         <v>5</v>
@@ -2300,21 +2357,24 @@
         <v>5</v>
       </c>
       <c r="T20" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" s="17" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>4.5</v>
       </c>
       <c r="Y20" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z20" s="7" t="n">
         <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)+SMALL(O20:Y20,3)))/40</f>
-        <v>0.625</v>
+        <v>0.7375</v>
       </c>
       <c r="AA20" s="4" t="n">
         <f aca="false">Z20*10</f>
-        <v>6.25</v>
+        <v>7.375</v>
       </c>
       <c r="AD20" s="5" t="n">
         <v>5</v>
@@ -2328,18 +2388,18 @@
       </c>
       <c r="AL20" s="8" t="n">
         <f aca="false">AK20+AJ20+AC20+AB20+AA20+M20+(N20/2)</f>
-        <v>20</v>
+        <v>21.625</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>5</v>
@@ -2347,7 +2407,7 @@
       <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="L21" s="3" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
@@ -2358,17 +2418,17 @@
         <v>2.5</v>
       </c>
       <c r="N21" s="5" t="n">
-        <f aca="false">1+1.5+1</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>3.6</v>
+        <f aca="false">0.8+0.5+1+1+0.5</f>
+        <v>3.8</v>
       </c>
       <c r="Q21" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R21" s="6" t="n">
         <v>5</v>
@@ -2377,39 +2437,40 @@
         <v>5</v>
       </c>
       <c r="T21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="U21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y21" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="7" t="n">
         <f aca="false">(SUM(O21:Y21)-(SMALL(O21:Y21,2)+SMALL(O21:Y21,1)+SMALL(O21:Y21,3)))/40</f>
-        <v>0.625</v>
+        <v>0.495</v>
       </c>
       <c r="AA21" s="4" t="n">
         <f aca="false">Z21*10</f>
-        <v>6.25</v>
+        <v>4.95</v>
       </c>
       <c r="AD21" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG21" s="19" t="n">
-        <v>5</v>
-      </c>
+      <c r="AG21" s="15"/>
       <c r="AJ21" s="4" t="n">
         <f aca="false">AD21+AE21+AF21+AH21+AI21+AG21</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="8" t="n">
         <f aca="false">AK21+AJ21+AC21+AB21+AA21+M21+(N21/2)</f>
-        <v>20.5</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -2424,7 +2485,7 @@
       <c r="E22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="13"/>
       <c r="L22" s="3" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
@@ -2435,17 +2496,18 @@
         <v>2.5</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>3</v>
+        <f aca="false">1+1.5+1</f>
+        <v>3.5</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P22" s="6" t="n">
-        <f aca="false">0.8+0.5+1+1+0.5</f>
-        <v>3.8</v>
+        <f aca="false">4.5</f>
+        <v>4.5</v>
       </c>
       <c r="Q22" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R22" s="6" t="n">
         <v>5</v>
@@ -2454,33 +2516,38 @@
         <v>5</v>
       </c>
       <c r="T22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Y22" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z22" s="7" t="n">
         <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)+SMALL(O22:Y22,3)))/40</f>
-        <v>0.495</v>
+        <v>0.7375</v>
       </c>
       <c r="AA22" s="4" t="n">
         <f aca="false">Z22*10</f>
-        <v>4.95</v>
+        <v>7.375</v>
       </c>
       <c r="AD22" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG22" s="15"/>
+      <c r="AG22" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ22" s="4" t="n">
         <f aca="false">AD22+AE22+AF22+AH22+AI22+AG22</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL22" s="8" t="n">
         <f aca="false">AK22+AJ22+AC22+AB22+AA22+M22+(N22/2)</f>
-        <v>13.95</v>
+        <v>21.625</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,7 +2566,7 @@
       <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="L23" s="3" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
@@ -2510,15 +2577,15 @@
         <v>2.5</v>
       </c>
       <c r="N23" s="5" t="n">
-        <f aca="false">1+1.5+1</f>
-        <v>3.5</v>
+        <f aca="false">0.5+1.5+0.5</f>
+        <v>2.5</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="P23" s="6" t="n">
-        <f aca="false">4.5</f>
-        <v>4.5</v>
+        <f aca="false">0.7+1+0.5+0.5+0.2</f>
+        <v>2.9</v>
       </c>
       <c r="Q23" s="6" t="n">
         <v>5</v>
@@ -2530,21 +2597,24 @@
         <v>5</v>
       </c>
       <c r="T23" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U23" s="17" t="n">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="Y23" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z23" s="7" t="n">
         <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)+SMALL(O23:Y23,3)))/40</f>
-        <v>0.625</v>
+        <v>0.725</v>
       </c>
       <c r="AA23" s="4" t="n">
         <f aca="false">Z23*10</f>
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="AD23" s="5" t="n">
         <v>5</v>
@@ -2558,7 +2628,7 @@
       </c>
       <c r="AL23" s="8" t="n">
         <f aca="false">AK23+AJ23+AC23+AB23+AA23+M23+(N23/2)</f>
-        <v>20.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,14 +2662,13 @@
         <v>2.5</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <f aca="false">0.7+1+0.5+0.5+0.2</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R24" s="6" t="n">
         <v>5</v>
@@ -2613,16 +2682,19 @@
       <c r="U24" s="17" t="n">
         <v>5</v>
       </c>
+      <c r="V24" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y24" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z24" s="7" t="n">
         <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)+SMALL(O24:Y24,3)))/40</f>
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="AA24" s="4" t="n">
         <f aca="false">Z24*10</f>
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="AD24" s="5" t="n">
         <v>5</v>
@@ -2636,7 +2708,7 @@
       </c>
       <c r="AL24" s="8" t="n">
         <f aca="false">AK24+AJ24+AC24+AB24+AA24+M24+(N24/2)</f>
-        <v>20</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,17 +2738,17 @@
         <v>2.5</v>
       </c>
       <c r="N25" s="5" t="n">
-        <f aca="false">0.5+1.5+0.5</f>
-        <v>2.5</v>
+        <f aca="false">1+2+0.5</f>
+        <v>3.5</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R25" s="6" t="n">
         <v>5</v>
@@ -2687,19 +2759,22 @@
       <c r="T25" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="17" t="n">
-        <v>5</v>
+      <c r="U25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z25" s="7" t="n">
         <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)+SMALL(O25:Y25,3)))/40</f>
-        <v>0.575</v>
+        <v>0.6875</v>
       </c>
       <c r="AA25" s="4" t="n">
         <f aca="false">Z25*10</f>
-        <v>5.75</v>
+        <v>6.875</v>
       </c>
       <c r="AD25" s="5" t="n">
         <v>5</v>
@@ -2713,7 +2788,7 @@
       </c>
       <c r="AL25" s="8" t="n">
         <f aca="false">AK25+AJ25+AC25+AB25+AA25+M25+(N25/2)</f>
-        <v>19.5</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,14 +2818,13 @@
         <v>2.5</v>
       </c>
       <c r="N26" s="5" t="n">
-        <f aca="false">1+2+0.5</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="Q26" s="6" t="n">
         <v>5</v>
@@ -2764,19 +2838,22 @@
       <c r="T26" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U26" s="14" t="n">
-        <v>0</v>
+      <c r="U26" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V26" s="6" t="n">
+        <v>4.166666667</v>
       </c>
       <c r="Y26" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z26" s="7" t="n">
         <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)+SMALL(O26:Y26,3)))/40</f>
-        <v>0.6125</v>
+        <v>0.7325</v>
       </c>
       <c r="AA26" s="4" t="n">
         <f aca="false">Z26*10</f>
-        <v>6.125</v>
+        <v>7.325</v>
       </c>
       <c r="AD26" s="5" t="n">
         <v>5</v>
@@ -2790,7 +2867,7 @@
       </c>
       <c r="AL26" s="8" t="n">
         <f aca="false">AK26+AJ26+AC26+AB26+AA26+M26+(N26/2)</f>
-        <v>20.375</v>
+        <v>21.325</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,14 +2897,15 @@
         <v>2.5</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>3</v>
+        <f aca="false">1+1.5+1</f>
+        <v>3.5</v>
       </c>
       <c r="O27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="6" t="n">
         <v>4.5</v>
       </c>
-      <c r="P27" s="6" t="n">
-        <v>4.8</v>
-      </c>
       <c r="Q27" s="6" t="n">
         <v>5</v>
       </c>
@@ -2838,21 +2916,24 @@
         <v>5</v>
       </c>
       <c r="T27" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27" s="17" t="n">
         <v>4.5</v>
       </c>
+      <c r="V27" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="Y27" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z27" s="7" t="n">
         <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)+SMALL(O27:Y27,3)))/40</f>
-        <v>0.62</v>
+        <v>0.725</v>
       </c>
       <c r="AA27" s="4" t="n">
         <f aca="false">Z27*10</f>
-        <v>6.2</v>
+        <v>7.25</v>
       </c>
       <c r="AD27" s="5" t="n">
         <v>5</v>
@@ -2866,7 +2947,7 @@
       </c>
       <c r="AL27" s="8" t="n">
         <f aca="false">AK27+AJ27+AC27+AB27+AA27+M27+(N27/2)</f>
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,11 +2977,11 @@
         <v>2.5</v>
       </c>
       <c r="N28" s="5" t="n">
-        <f aca="false">1+1.5+1</f>
+        <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>4.5</v>
@@ -2918,18 +2999,21 @@
         <v>2</v>
       </c>
       <c r="U28" s="17" t="n">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="V28" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y28" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z28" s="7" t="n">
         <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)+SMALL(O28:Y28,3)))/40</f>
-        <v>0.6125</v>
+        <v>0.7375</v>
       </c>
       <c r="AA28" s="4" t="n">
         <f aca="false">Z28*10</f>
-        <v>6.125</v>
+        <v>7.375</v>
       </c>
       <c r="AD28" s="5" t="n">
         <v>5</v>
@@ -2943,7 +3027,7 @@
       </c>
       <c r="AL28" s="8" t="n">
         <f aca="false">AK28+AJ28+AC28+AB28+AA28+M28+(N28/2)</f>
-        <v>20.375</v>
+        <v>21.625</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,14 +3057,13 @@
         <v>2.5</v>
       </c>
       <c r="N29" s="5" t="n">
-        <f aca="false">1+2+0.5</f>
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>4.5</v>
+        <v>3.525</v>
       </c>
       <c r="Q29" s="6" t="n">
         <v>5</v>
@@ -2992,21 +3075,24 @@
         <v>5</v>
       </c>
       <c r="T29" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="U29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="Y29" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z29" s="7" t="n">
         <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)+SMALL(O29:Y29,3)))/40</f>
-        <v>0.625</v>
+        <v>0.688125</v>
       </c>
       <c r="AA29" s="4" t="n">
         <f aca="false">Z29*10</f>
-        <v>6.25</v>
+        <v>6.88125</v>
       </c>
       <c r="AD29" s="5" t="n">
         <v>5</v>
@@ -3020,7 +3106,7 @@
       </c>
       <c r="AL29" s="8" t="n">
         <f aca="false">AK29+AJ29+AC29+AB29+AA29+M29+(N29/2)</f>
-        <v>20.5</v>
+        <v>20.38125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,66 +3123,68 @@
         <v>5</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="L30" s="3" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M30" s="4" t="n">
         <f aca="false">L30*10</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>3.525</v>
+        <f aca="false">0.7+1+1+1+0.5</f>
+        <v>4.2</v>
       </c>
       <c r="Q30" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R30" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S30" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T30" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U30" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="V30" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="Y30" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="7" t="n">
         <f aca="false">(SUM(O30:Y30)-(SMALL(O30:Y30,2)+SMALL(O30:Y30,1)+SMALL(O30:Y30,3)))/40</f>
-        <v>0.588125</v>
+        <v>0.355</v>
       </c>
       <c r="AA30" s="4" t="n">
         <f aca="false">Z30*10</f>
-        <v>5.88125</v>
+        <v>3.55</v>
       </c>
       <c r="AD30" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG30" s="19" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="15"/>
       <c r="AJ30" s="4" t="n">
         <f aca="false">AD30+AE30+AF30+AH30+AI30+AG30</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="8" t="n">
         <f aca="false">AK30+AJ30+AC30+AB30+AA30+M30+(N30/2)</f>
-        <v>19.38125</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,65 +3201,70 @@
         <v>5</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="L31" s="3" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M31" s="4" t="n">
         <f aca="false">L31*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N31" s="5" t="n">
+        <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P31" s="6" t="n">
-        <f aca="false">0.7+1+1+1+0.5</f>
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="Q31" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R31" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S31" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="U31" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" s="6" t="n">
+        <v>4.5</v>
       </c>
       <c r="Y31" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z31" s="7" t="n">
         <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)+SMALL(O31:Y31,3)))/40</f>
-        <v>0.355</v>
+        <v>0.75</v>
       </c>
       <c r="AA31" s="4" t="n">
         <f aca="false">Z31*10</f>
-        <v>3.55</v>
+        <v>7.5</v>
       </c>
       <c r="AD31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="AG31" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ31" s="4" t="n">
         <f aca="false">AD31+AE31+AF31+AH31+AI31+AG31</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL31" s="8" t="n">
         <f aca="false">AK31+AJ31+AC31+AB31+AA31+M31+(N31/2)</f>
-        <v>6.3</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,10 +3298,11 @@
         <v>3</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>4.8</v>
+        <f aca="false">0.8+1+1+1+0.5</f>
+        <v>4.3</v>
       </c>
       <c r="Q32" s="6" t="n">
         <v>5</v>
@@ -3220,21 +3314,24 @@
         <v>5</v>
       </c>
       <c r="T32" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U32" s="17" t="n">
         <v>5</v>
+      </c>
+      <c r="V32" s="6" t="n">
+        <v>4.333333333</v>
       </c>
       <c r="Y32" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z32" s="7" t="n">
         <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)+SMALL(O32:Y32,3)))/40</f>
-        <v>0.625</v>
+        <v>0.7375</v>
       </c>
       <c r="AA32" s="4" t="n">
         <f aca="false">Z32*10</f>
-        <v>6.25</v>
+        <v>7.375</v>
       </c>
       <c r="AD32" s="5" t="n">
         <v>5</v>
@@ -3248,11 +3345,11 @@
       </c>
       <c r="AL32" s="8" t="n">
         <f aca="false">AK32+AJ32+AC32+AB32+AA32+M32+(N32/2)</f>
-        <v>20.25</v>
+        <v>21.375</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -3278,15 +3375,13 @@
         <v>2.5</v>
       </c>
       <c r="N33" s="5" t="n">
-        <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
       <c r="O33" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="P33" s="6" t="n">
-        <f aca="false">0.8+1+1+1+0.5</f>
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="Q33" s="6" t="n">
         <v>5</v>
@@ -3298,21 +3393,24 @@
         <v>5</v>
       </c>
       <c r="T33" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U33" s="17" t="n">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="V33" s="6" t="n">
+        <v>3.666666667</v>
       </c>
       <c r="Y33" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="7" t="n">
         <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)+SMALL(O33:Y33,3)))/40</f>
-        <v>0.625</v>
+        <v>0.715</v>
       </c>
       <c r="AA33" s="4" t="n">
         <f aca="false">Z33*10</f>
-        <v>6.25</v>
+        <v>7.15</v>
       </c>
       <c r="AD33" s="5" t="n">
         <v>5</v>
@@ -3326,11 +3424,11 @@
       </c>
       <c r="AL33" s="8" t="n">
         <f aca="false">AK33+AJ33+AC33+AB33+AA33+M33+(N33/2)</f>
-        <v>20.25</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -3340,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>5</v>
@@ -3349,23 +3447,24 @@
       <c r="G34" s="13"/>
       <c r="L34" s="3" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M34" s="4" t="n">
         <f aca="false">L34*10</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>3</v>
+        <f aca="false">1+1.5+1</f>
+        <v>3.5</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q34" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R34" s="6" t="n">
         <v>5</v>
@@ -3374,21 +3473,24 @@
         <v>5</v>
       </c>
       <c r="T34" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U34" s="17" t="n">
-        <v>4.5</v>
+        <v>4</v>
+      </c>
+      <c r="V34" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="Y34" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z34" s="7" t="n">
         <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)+SMALL(O34:Y34,3)))/40</f>
-        <v>0.6025</v>
+        <v>0.6875</v>
       </c>
       <c r="AA34" s="4" t="n">
         <f aca="false">Z34*10</f>
-        <v>6.025</v>
+        <v>6.875</v>
       </c>
       <c r="AD34" s="5" t="n">
         <v>5</v>
@@ -3402,7 +3504,7 @@
       </c>
       <c r="AL34" s="8" t="n">
         <f aca="false">AK34+AJ34+AC34+AB34+AA34+M34+(N34/2)</f>
-        <v>20.025</v>
+        <v>19.875</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>5</v>
@@ -3425,24 +3527,23 @@
       <c r="G35" s="13"/>
       <c r="L35" s="3" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M35" s="4" t="n">
         <f aca="false">L35*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N35" s="5" t="n">
-        <f aca="false">1+1.5+1</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="Q35" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R35" s="6" t="n">
         <v>5</v>
@@ -3451,35 +3552,36 @@
         <v>5</v>
       </c>
       <c r="T35" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U35" s="17" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="U35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y35" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="7" t="n">
         <f aca="false">(SUM(O35:Y35)-(SMALL(O35:Y35,2)+SMALL(O35:Y35,1)+SMALL(O35:Y35,3)))/40</f>
-        <v>0.5875</v>
+        <v>0.4275</v>
       </c>
       <c r="AA35" s="4" t="n">
         <f aca="false">Z35*10</f>
-        <v>5.875</v>
+        <v>4.275</v>
       </c>
       <c r="AD35" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG35" s="19" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="15"/>
       <c r="AJ35" s="4" t="n">
         <f aca="false">AD35+AE35+AF35+AH35+AI35+AG35</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="8" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>18.875</v>
+        <v>8.275</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,13 +3611,14 @@
         <v>2.5</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>3</v>
+        <f aca="false">1+1.5+1</f>
+        <v>3.5</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" s="6" t="n">
         <v>5</v>
@@ -3527,38 +3630,43 @@
         <v>5</v>
       </c>
       <c r="T36" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U36" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="U36" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Y36" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z36" s="7" t="n">
         <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)+SMALL(O36:Y36,3)))/40</f>
-        <v>0.4275</v>
+        <v>0.7375</v>
       </c>
       <c r="AA36" s="4" t="n">
         <f aca="false">Z36*10</f>
-        <v>4.275</v>
+        <v>7.375</v>
       </c>
       <c r="AD36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="AG36" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ36" s="4" t="n">
         <f aca="false">AD36+AE36+AF36+AH36+AI36+AG36</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL36" s="8" t="n">
         <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
-        <v>8.275</v>
+        <v>21.625</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>45</v>
+      <c r="A37" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0</v>
@@ -3572,7 +3680,7 @@
       <c r="E37" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="13"/>
       <c r="L37" s="3" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
@@ -3583,14 +3691,15 @@
         <v>2.5</v>
       </c>
       <c r="N37" s="5" t="n">
-        <f aca="false">1+1.5+1</f>
-        <v>3.5</v>
+        <f aca="false">0.5+2+0.5</f>
+        <v>3</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>4.5</v>
+        <f aca="false">1+0.5+0.8+0.5+1</f>
+        <v>3.8</v>
       </c>
       <c r="Q37" s="6" t="n">
         <v>5</v>
@@ -3602,21 +3711,24 @@
         <v>5</v>
       </c>
       <c r="T37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="U37" s="17" t="n">
-        <v>5</v>
+      <c r="V37" s="6" t="n">
+        <v>4.166666667</v>
       </c>
       <c r="Y37" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z37" s="7" t="n">
         <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)+SMALL(O37:Y37,3)))/40</f>
-        <v>0.625</v>
+        <v>0.716666666675</v>
       </c>
       <c r="AA37" s="4" t="n">
         <f aca="false">Z37*10</f>
-        <v>6.25</v>
+        <v>7.16666666675</v>
       </c>
       <c r="AD37" s="5" t="n">
         <v>5</v>
@@ -3630,12 +3742,12 @@
       </c>
       <c r="AL37" s="8" t="n">
         <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
-        <v>20.5</v>
+        <v>21.16666666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>0</v>
@@ -3649,7 +3761,7 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="L38" s="3" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
@@ -3660,21 +3772,20 @@
         <v>2.5</v>
       </c>
       <c r="N38" s="5" t="n">
-        <f aca="false">0.5+2+0.5</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="P38" s="6" t="n">
-        <f aca="false">1+0.5+0.8+0.5+1</f>
-        <v>3.8</v>
+        <f aca="false">0.7+2+1+0.75</f>
+        <v>4.45</v>
       </c>
       <c r="Q38" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R38" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S38" s="6" t="n">
         <v>5</v>
@@ -3685,21 +3796,24 @@
       <c r="U38" s="17" t="n">
         <v>4</v>
       </c>
+      <c r="V38" s="6" t="n">
+        <v>4.166666667</v>
+      </c>
       <c r="Y38" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z38" s="7" t="n">
         <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)+SMALL(O38:Y38,3)))/40</f>
-        <v>0.6125</v>
+        <v>0.627916666675</v>
       </c>
       <c r="AA38" s="4" t="n">
         <f aca="false">Z38*10</f>
-        <v>6.125</v>
+        <v>6.27916666675</v>
       </c>
       <c r="AD38" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG38" s="19" t="n">
+      <c r="AG38" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ38" s="4" t="n">
@@ -3708,12 +3822,12 @@
       </c>
       <c r="AL38" s="8" t="n">
         <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
-        <v>20.125</v>
+        <v>18.77916666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
-        <v>74</v>
+      <c r="A39" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0</v>
@@ -3741,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="P39" s="6" t="n">
         <f aca="false">0.7+2+1+0.75</f>
@@ -3757,21 +3871,24 @@
         <v>5</v>
       </c>
       <c r="T39" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U39" s="17" t="n">
         <v>4</v>
       </c>
+      <c r="V39" s="6" t="n">
+        <v>4.166666667</v>
+      </c>
       <c r="Y39" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z39" s="7" t="n">
         <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)+SMALL(O39:Y39,3)))/40</f>
-        <v>0.52375</v>
+        <v>0.677916666675</v>
       </c>
       <c r="AA39" s="4" t="n">
         <f aca="false">Z39*10</f>
-        <v>5.2375</v>
+        <v>6.77916666675</v>
       </c>
       <c r="AD39" s="5" t="n">
         <v>5</v>
@@ -3785,12 +3902,12 @@
       </c>
       <c r="AL39" s="8" t="n">
         <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
-        <v>17.7375</v>
+        <v>19.27916666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0</v>
@@ -3799,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>5</v>
@@ -3808,52 +3925,55 @@
       <c r="G40" s="13"/>
       <c r="L40" s="3" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M40" s="4" t="n">
         <f aca="false">L40*10</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N40" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P40" s="6" t="n">
-        <f aca="false">0.7+2+1+0.75</f>
-        <v>4.45</v>
+        <f aca="false">0.7+0.5+1+1+0.5</f>
+        <v>3.7</v>
       </c>
       <c r="Q40" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R40" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S40" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T40" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U40" s="17" t="n">
         <v>4</v>
       </c>
+      <c r="V40" s="6" t="n">
+        <v>4.166666667</v>
+      </c>
       <c r="Y40" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z40" s="7" t="n">
         <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)+SMALL(O40:Y40,3)))/40</f>
-        <v>0.57375</v>
+        <v>0.75</v>
       </c>
       <c r="AA40" s="4" t="n">
         <f aca="false">Z40*10</f>
-        <v>5.7375</v>
+        <v>7.5</v>
       </c>
       <c r="AD40" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG40" s="15" t="n">
+      <c r="AG40" s="19" t="n">
         <v>5</v>
       </c>
       <c r="AJ40" s="4" t="n">
@@ -3862,12 +3982,12 @@
       </c>
       <c r="AL40" s="8" t="n">
         <f aca="false">AK40+AJ40+AC40+AB40+AA40+M40+(N40/2)</f>
-        <v>18.2375</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>0</v>
@@ -3895,11 +4015,11 @@
         <v>0</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <f aca="false">0.7+0.5+1+1+0.5</f>
-        <v>3.7</v>
+        <f aca="false">1+1+0.7+0.5+1</f>
+        <v>4.2</v>
       </c>
       <c r="Q41" s="6" t="n">
         <v>5</v>
@@ -3911,21 +4031,24 @@
         <v>5</v>
       </c>
       <c r="T41" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U41" s="17" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="U41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y41" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="7" t="n">
         <f aca="false">(SUM(O41:Y41)-(SMALL(O41:Y41,2)+SMALL(O41:Y41,1)+SMALL(O41:Y41,3)))/40</f>
-        <v>0.625</v>
+        <v>0.505</v>
       </c>
       <c r="AA41" s="4" t="n">
         <f aca="false">Z41*10</f>
-        <v>6.25</v>
+        <v>5.05</v>
       </c>
       <c r="AD41" s="5" t="n">
         <v>5</v>
@@ -3939,12 +4062,12 @@
       </c>
       <c r="AL41" s="8" t="n">
         <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
-        <v>17.5</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>0</v>
@@ -3953,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>5</v>
@@ -3962,66 +4085,67 @@
       <c r="G42" s="13"/>
       <c r="L42" s="3" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M42" s="4" t="n">
         <f aca="false">L42*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P42" s="6" t="n">
-        <f aca="false">1+1+0.7+0.5+1</f>
-        <v>4.2</v>
+        <f aca="false">1+1+1+0.5+0.6</f>
+        <v>4.1</v>
       </c>
       <c r="Q42" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R42" s="6" t="n">
         <v>5</v>
       </c>
       <c r="S42" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T42" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="14" t="n">
-        <v>0</v>
+      <c r="U42" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V42" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="Y42" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z42" s="7" t="n">
         <f aca="false">(SUM(O42:Y42)-(SMALL(O42:Y42,2)+SMALL(O42:Y42,1)+SMALL(O42:Y42,3)))/40</f>
-        <v>0.505</v>
+        <v>0.665</v>
       </c>
       <c r="AA42" s="4" t="n">
         <f aca="false">Z42*10</f>
-        <v>5.05</v>
+        <v>6.65</v>
       </c>
       <c r="AD42" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG42" s="19" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="15"/>
       <c r="AJ42" s="4" t="n">
         <f aca="false">AD42+AE42+AF42+AH42+AI42+AG42</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="8" t="n">
         <f aca="false">AK42+AJ42+AC42+AB42+AA42+M42+(N42/2)</f>
-        <v>16.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="s">
-        <v>78</v>
+      <c r="A43" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>0</v>
@@ -4046,57 +4170,62 @@
         <v>2.5</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>1.5</v>
+        <f aca="false">1+2+0.5</f>
+        <v>3.5</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <f aca="false">1+1+1+0.5+0.6</f>
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="R43" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S43" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T43" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U43" s="17" t="n">
         <v>4.5</v>
       </c>
+      <c r="V43" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="Y43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z43" s="7" t="n">
         <f aca="false">(SUM(O43:Y43)-(SMALL(O43:Y43,2)+SMALL(O43:Y43,1)+SMALL(O43:Y43,3)))/40</f>
-        <v>0.565</v>
+        <v>0.4125</v>
       </c>
       <c r="AA43" s="4" t="n">
         <f aca="false">Z43*10</f>
-        <v>5.65</v>
+        <v>4.125</v>
       </c>
       <c r="AD43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="AG43" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ43" s="4" t="n">
         <f aca="false">AD43+AE43+AF43+AH43+AI43+AG43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL43" s="8" t="n">
         <f aca="false">AK43+AJ43+AC43+AB43+AA43+M43+(N43/2)</f>
-        <v>8.9</v>
+        <v>18.375</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>0</v>
@@ -4121,14 +4250,13 @@
         <v>2.5</v>
       </c>
       <c r="N44" s="5" t="n">
-        <f aca="false">1+2+0.5</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O44" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q44" s="6" t="n">
         <v>0</v>
@@ -4137,24 +4265,27 @@
         <v>0</v>
       </c>
       <c r="S44" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T44" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44" s="17" t="n">
         <v>4.5</v>
       </c>
+      <c r="V44" s="6" t="n">
+        <v>4.166666667</v>
+      </c>
       <c r="Y44" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z44" s="7" t="n">
         <f aca="false">(SUM(O44:Y44)-(SMALL(O44:Y44,2)+SMALL(O44:Y44,1)+SMALL(O44:Y44,3)))/40</f>
-        <v>0.4125</v>
+        <v>0.376666666675</v>
       </c>
       <c r="AA44" s="4" t="n">
         <f aca="false">Z44*10</f>
-        <v>4.125</v>
+        <v>3.76666666675</v>
       </c>
       <c r="AD44" s="5" t="n">
         <v>5</v>
@@ -4168,12 +4299,12 @@
       </c>
       <c r="AL44" s="8" t="n">
         <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
-        <v>18.375</v>
+        <v>17.76666666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>0</v>
@@ -4187,7 +4318,7 @@
       <c r="E45" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="13"/>
       <c r="L45" s="3" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
@@ -4198,39 +4329,42 @@
         <v>2.5</v>
       </c>
       <c r="N45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="U45" s="17" t="n">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="V45" s="6" t="n">
+        <v>3.666666667</v>
       </c>
       <c r="Y45" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z45" s="7" t="n">
         <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)+SMALL(O45:Y45,3)))/40</f>
-        <v>0.2725</v>
+        <v>0.716666666675</v>
       </c>
       <c r="AA45" s="4" t="n">
         <f aca="false">Z45*10</f>
-        <v>2.725</v>
+        <v>7.16666666675</v>
       </c>
       <c r="AD45" s="5" t="n">
         <v>5</v>
@@ -4244,12 +4378,12 @@
       </c>
       <c r="AL45" s="8" t="n">
         <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
-        <v>16.725</v>
+        <v>19.66666666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>0</v>
@@ -4258,32 +4392,32 @@
         <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="16"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M46" s="4" t="n">
         <f aca="false">L46*10</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R46" s="6" t="n">
         <v>5</v>
@@ -4292,9 +4426,12 @@
         <v>5</v>
       </c>
       <c r="T46" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Y46" s="6" t="n">
@@ -4302,16 +4439,16 @@
       </c>
       <c r="Z46" s="7" t="n">
         <f aca="false">(SUM(O46:Y46)-(SMALL(O46:Y46,2)+SMALL(O46:Y46,1)+SMALL(O46:Y46,3)))/40</f>
-        <v>0.625</v>
+        <v>0.55</v>
       </c>
       <c r="AA46" s="4" t="n">
         <f aca="false">Z46*10</f>
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="AD46" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG46" s="19" t="n">
+      <c r="AG46" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AJ46" s="4" t="n">
@@ -4323,9 +4460,9 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>0</v>
@@ -4334,55 +4471,58 @@
         <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="13"/>
       <c r="L47" s="3" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M47" s="4" t="n">
         <f aca="false">L47*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="O47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T47" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U47" s="14" t="n">
-        <v>0</v>
+      <c r="V47" s="6" t="n">
+        <v>4.666666667</v>
       </c>
       <c r="Y47" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z47" s="7" t="n">
         <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)+SMALL(O47:Y47,3)))/40</f>
-        <v>0.425</v>
+        <v>0.716666666675</v>
       </c>
       <c r="AA47" s="4" t="n">
         <f aca="false">Z47*10</f>
-        <v>4.25</v>
+        <v>7.16666666675</v>
       </c>
       <c r="AD47" s="5" t="n">
         <v>5</v>
@@ -4396,43 +4536,44 @@
       </c>
       <c r="AL47" s="8" t="n">
         <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>19.66666666675</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F48" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="L48" s="3" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M48" s="4" t="n">
         <f aca="false">L48*10</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O48" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0</v>
+        <f aca="false">1.5+0.8</f>
+        <v>2.3</v>
       </c>
       <c r="Q48" s="6" t="n">
         <v>5</v>
@@ -4447,18 +4588,21 @@
         <v>1</v>
       </c>
       <c r="U48" s="17" t="n">
-        <v>4</v>
+        <v>4.5</v>
+      </c>
+      <c r="V48" s="6" t="n">
+        <v>4.333333333</v>
       </c>
       <c r="Y48" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z48" s="7" t="n">
         <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)+SMALL(O48:Y48,3)))/40</f>
-        <v>0.6</v>
+        <v>0.720833333325</v>
       </c>
       <c r="AA48" s="4" t="n">
         <f aca="false">Z48*10</f>
-        <v>6</v>
+        <v>7.20833333325</v>
       </c>
       <c r="AD48" s="5" t="n">
         <v>5</v>
@@ -4472,50 +4616,49 @@
       </c>
       <c r="AL48" s="8" t="n">
         <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
-        <v>18.5</v>
+        <v>20.45833333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="F49" s="16"/>
       <c r="G49" s="13"/>
       <c r="L49" s="3" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M49" s="4" t="n">
         <f aca="false">L49*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="P49" s="6" t="n">
-        <f aca="false">1.5+0.8</f>
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q49" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R49" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S49" s="6" t="n">
         <v>5</v>
@@ -4524,37 +4667,38 @@
         <v>1</v>
       </c>
       <c r="U49" s="17" t="n">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="V49" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="Y49" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="7" t="n">
         <f aca="false">(SUM(O49:Y49)-(SMALL(O49:Y49,2)+SMALL(O49:Y49,1)+SMALL(O49:Y49,3)))/40</f>
-        <v>0.6125</v>
+        <v>0.51</v>
       </c>
       <c r="AA49" s="4" t="n">
         <f aca="false">Z49*10</f>
-        <v>6.125</v>
+        <v>5.1</v>
       </c>
       <c r="AD49" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG49" s="15" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="15"/>
       <c r="AJ49" s="4" t="n">
         <f aca="false">AD49+AE49+AF49+AH49+AI49+AG49</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="8" t="n">
         <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
-        <v>19.375</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>0</v>
@@ -4563,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>5</v>
@@ -4572,63 +4716,68 @@
       <c r="G50" s="13"/>
       <c r="L50" s="3" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M50" s="4" t="n">
         <f aca="false">L50*10</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N50" s="5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Q50" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R50" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S50" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T50" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U50" s="17" t="n">
         <v>5</v>
       </c>
+      <c r="V50" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y50" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z50" s="7" t="n">
         <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)+SMALL(O50:Y50,3)))/40</f>
-        <v>0.485</v>
+        <v>0.725</v>
       </c>
       <c r="AA50" s="4" t="n">
         <f aca="false">Z50*10</f>
-        <v>4.85</v>
+        <v>7.25</v>
       </c>
       <c r="AD50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="AG50" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ50" s="4" t="n">
         <f aca="false">AD50+AE50+AF50+AH50+AI50+AG50</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL50" s="8" t="n">
         <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
-        <v>9.1</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>0</v>
@@ -4637,55 +4786,58 @@
         <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="16"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="L51" s="3" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M51" s="4" t="n">
         <f aca="false">L51*10</f>
+        <v>2.5</v>
+      </c>
+      <c r="N51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T51" s="6" t="n">
-        <v>3</v>
-      </c>
       <c r="U51" s="17" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="V51" s="6" t="n">
+        <v>2.5</v>
       </c>
       <c r="Y51" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z51" s="7" t="n">
         <f aca="false">(SUM(O51:Y51)-(SMALL(O51:Y51,2)+SMALL(O51:Y51,1)+SMALL(O51:Y51,3)))/40</f>
-        <v>0.625</v>
+        <v>0.4875</v>
       </c>
       <c r="AA51" s="4" t="n">
         <f aca="false">Z51*10</f>
-        <v>6.25</v>
+        <v>4.875</v>
       </c>
       <c r="AD51" s="5" t="n">
         <v>5</v>
@@ -4699,12 +4851,12 @@
       </c>
       <c r="AL51" s="8" t="n">
         <f aca="false">AK51+AJ51+AC51+AB51+AA51+M51+(N51/2)</f>
-        <v>18.25</v>
+        <v>17.375</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="s">
-        <v>87</v>
+      <c r="A52" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>0</v>
@@ -4729,128 +4881,70 @@
         <v>2.5</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O52" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q52" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R52" s="6" t="n">
         <v>0</v>
       </c>
       <c r="S52" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T52" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U52" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U52" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" s="6" t="n">
+        <v>4.666666667</v>
       </c>
       <c r="Y52" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z52" s="7" t="n">
         <f aca="false">(SUM(O52:Y52)-(SMALL(O52:Y52,2)+SMALL(O52:Y52,1)+SMALL(O52:Y52,3)))/40</f>
-        <v>0.425</v>
+        <v>0.439166666675</v>
       </c>
       <c r="AA52" s="4" t="n">
         <f aca="false">Z52*10</f>
-        <v>4.25</v>
+        <v>4.39166666675</v>
       </c>
       <c r="AD52" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG52" s="19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ52" s="4" t="n">
         <f aca="false">AD52+AE52+AF52+AH52+AI52+AG52</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL52" s="8" t="n">
         <f aca="false">AK52+AJ52+AC52+AB52+AA52+M52+(N52/2)</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>5</v>
-      </c>
+        <v>18.89166666675</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-      <c r="L53" s="3" t="n">
-        <f aca="false">(SUM(B53:K53)-(SMALL(B53:K53,2)+SMALL(B53:K53,1)))/40</f>
-        <v>0.25</v>
-      </c>
-      <c r="M53" s="4" t="n">
-        <f aca="false">L53*10</f>
-        <v>2.5</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="7" t="n">
-        <f aca="false">(SUM(O53:Y53)-(SMALL(O53:Y53,2)+SMALL(O53:Y53,1)+SMALL(O53:Y53,3)))/40</f>
-        <v>0.0725</v>
-      </c>
-      <c r="AA53" s="4" t="n">
-        <f aca="false">Z53*10</f>
-        <v>0.725</v>
-      </c>
-      <c r="AD53" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG53" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ53" s="4" t="n">
-        <f aca="false">AD53+AE53+AF53+AH53+AI53+AG53</f>
-        <v>10</v>
-      </c>
-      <c r="AL53" s="8" t="n">
-        <f aca="false">AK53+AJ53+AC53+AB53+AA53+M53+(N53/2)</f>
-        <v>15.225</v>
-      </c>
+      <c r="AG53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="AG54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
@@ -4858,143 +4952,137 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="E57" s="25" t="s">
+      <c r="E56" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-    </row>
-    <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26"/>
+      <c r="E57" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26"/>
-      <c r="E58" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>92</v>
+      <c r="E58" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="26"/>
       <c r="E59" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G59" s="28" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26"/>
       <c r="E60" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G60" s="28" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="26"/>
       <c r="E61" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G61" s="28" t="n">
-        <v>3.33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26"/>
       <c r="E62" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G62" s="28" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="26"/>
       <c r="E63" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G63" s="28" t="n">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26"/>
       <c r="E64" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G64" s="28" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="26"/>
       <c r="E65" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G65" s="28" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26"/>
       <c r="E66" s="28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G66" s="28" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26"/>
-      <c r="E67" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="28" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E56:G56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -736,28 +736,26 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="24" min="15" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="6" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="true" max="11" min="2" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="13" min="13" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="14" min="14" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="25" min="15" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="26" min="26" style="7" width="0"/>
+    <col collapsed="false" hidden="true" max="29" min="27" style="4" width="0"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="20.3826530612245"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,15 +1053,17 @@
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="L4" s="3" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M4" s="4" t="n">
         <f aca="false">L4*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>4</v>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="AL4" s="8" t="n">
         <f aca="false">AK4+AJ4+AC4+AB4+AA4+M4+(N4/2)</f>
-        <v>20.7</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,15 +1293,17 @@
       <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="L7" s="3" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M7" s="4" t="n">
         <f aca="false">L7*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>3.5</v>
@@ -1342,16 +1344,18 @@
         <v>7.29166666675</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="AG7" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ7" s="4" t="n">
         <f aca="false">AD7+AE7+AF7+AH7+AI7+AG7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL7" s="8" t="n">
         <f aca="false">AK7+AJ7+AC7+AB7+AA7+M7+(N7/2)</f>
-        <v>11.54166666675</v>
+        <v>22.79166666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,15 +1851,17 @@
       <c r="E14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="L14" s="3" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M14" s="4" t="n">
         <f aca="false">L14*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N14" s="5" t="n">
         <v>4</v>
@@ -1907,7 +1913,7 @@
       </c>
       <c r="AL14" s="8" t="n">
         <f aca="false">AK14+AJ14+AC14+AB14+AA14+M14+(N14/2)</f>
-        <v>21.91666666675</v>
+        <v>23.16666666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,15 +2253,17 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="L19" s="3" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M19" s="4" t="n">
         <f aca="false">L19*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N19" s="5" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -2308,7 +2316,7 @@
       </c>
       <c r="AL19" s="8" t="n">
         <f aca="false">AK19+AJ19+AC19+AB19+AA19+M19+(N19/2)</f>
-        <v>21.16666666675</v>
+        <v>22.41666666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,15 +3531,17 @@
       <c r="E35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="G35" s="13"/>
       <c r="L35" s="3" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M35" s="4" t="n">
         <f aca="false">L35*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N35" s="5" t="n">
         <v>3</v>
@@ -3581,7 +3591,7 @@
       </c>
       <c r="AL35" s="8" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>8.275</v>
+        <v>9.525</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,15 +4249,17 @@
       <c r="E44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="G44" s="13"/>
       <c r="L44" s="3" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M44" s="4" t="n">
         <f aca="false">L44*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44" s="5" t="n">
         <v>3</v>
@@ -4299,7 +4311,7 @@
       </c>
       <c r="AL44" s="8" t="n">
         <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
-        <v>17.76666666675</v>
+        <v>19.01666666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,16 +4696,18 @@
         <v>5.1</v>
       </c>
       <c r="AD49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="AG49" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ49" s="4" t="n">
         <f aca="false">AD49+AE49+AF49+AH49+AI49+AG49</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL49" s="8" t="n">
         <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
-        <v>9.35</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -735,27 +735,28 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="true" max="11" min="2" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="12" min="12" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="13" min="13" style="4" width="0"/>
-    <col collapsed="false" hidden="true" max="14" min="14" style="5" width="0"/>
-    <col collapsed="false" hidden="true" max="25" min="15" style="6" width="0"/>
-    <col collapsed="false" hidden="true" max="26" min="26" style="7" width="0"/>
-    <col collapsed="false" hidden="true" max="29" min="27" style="4" width="0"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,15 +893,17 @@
       <c r="E2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G2" s="13"/>
       <c r="L2" s="3" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M2" s="4" t="n">
         <f aca="false">L2*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N2" s="5" t="n">
         <v>4</v>
@@ -953,7 +956,7 @@
       </c>
       <c r="AL2" s="8" t="n">
         <f aca="false">AK2+AJ2+AC2+AB2+AA2+M2+(N2/2)</f>
-        <v>19.95</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,15 +4412,17 @@
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="G46" s="13"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M46" s="4" t="n">
         <f aca="false">L46*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N46" s="5" t="n">
         <v>4</v>
@@ -4469,7 +4474,7 @@
       </c>
       <c r="AL46" s="8" t="n">
         <f aca="false">AK46+AJ46+AC46+AB46+AA46+M46+(N46/2)</f>
-        <v>18.75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4488,15 +4493,17 @@
       <c r="E47" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="16"/>
+      <c r="F47" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="G47" s="13"/>
       <c r="L47" s="3" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M47" s="4" t="n">
         <f aca="false">L47*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N47" s="5" t="n">
         <v>0</v>
@@ -4548,7 +4555,7 @@
       </c>
       <c r="AL47" s="8" t="n">
         <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
-        <v>19.66666666675</v>
+        <v>20.91666666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -592,6 +592,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -601,10 +605,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,28 +735,28 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="13.5"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,7 +896,7 @@
       <c r="F2" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="L2" s="3" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.375</v>
@@ -927,7 +927,7 @@
       <c r="T2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="14" t="n">
+      <c r="U2" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="6" t="n">
@@ -947,7 +947,7 @@
       <c r="AD2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG2" s="15" t="n">
+      <c r="AG2" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ2" s="4" t="n">
@@ -975,10 +975,10 @@
       <c r="E3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13"/>
+      <c r="F3" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="L3" s="3" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
         <v>0.375</v>
@@ -1056,10 +1056,10 @@
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="13"/>
+      <c r="F4" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="L4" s="3" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
         <v>0.375</v>
@@ -1089,7 +1089,7 @@
       <c r="T4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="14" t="n">
+      <c r="U4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
@@ -1109,7 +1109,7 @@
       <c r="AD4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG4" s="15" t="n">
+      <c r="AG4" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ4" s="4" t="n">
@@ -1137,10 +1137,10 @@
       <c r="E5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="F5" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="L5" s="3" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
         <v>0.375</v>
@@ -1218,8 +1218,8 @@
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
       <c r="L6" s="3" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
         <v>0.225</v>
@@ -1296,10 +1296,10 @@
       <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="F7" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14"/>
       <c r="L7" s="3" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
         <v>0.375</v>
@@ -1349,7 +1349,7 @@
       <c r="AD7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG7" s="15" t="n">
+      <c r="AG7" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ7" s="4" t="n">
@@ -1377,15 +1377,17 @@
       <c r="E8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="L8" s="3" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M8" s="4" t="n">
         <f aca="false">L8*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N8" s="5" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -1439,7 +1441,7 @@
       </c>
       <c r="AL8" s="8" t="n">
         <f aca="false">AK8+AJ8+AC8+AB8+AA8+M8+(N8/2)</f>
-        <v>21.5</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="L9" s="3" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.25</v>
@@ -1490,7 +1492,7 @@
       <c r="T9" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U9" s="14" t="n">
+      <c r="U9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V9" s="6" t="n">
@@ -1536,15 +1538,17 @@
       <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="L10" s="3" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M10" s="4" t="n">
         <f aca="false">L10*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N10" s="5" t="n">
         <v>2</v>
@@ -1596,7 +1600,7 @@
       </c>
       <c r="AL10" s="8" t="n">
         <f aca="false">AK10+AJ10+AC10+AB10+AA10+M10+(N10/2)</f>
-        <v>21</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,15 +1619,17 @@
       <c r="E11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14"/>
       <c r="L11" s="3" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M11" s="4" t="n">
         <f aca="false">L11*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>2</v>
@@ -1675,7 +1681,7 @@
       </c>
       <c r="AL11" s="8" t="n">
         <f aca="false">AK11+AJ11+AC11+AB11+AA11+M11+(N11/2)</f>
-        <v>21</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="14"/>
       <c r="L12" s="3" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
         <v>0.25</v>
@@ -1725,7 +1731,7 @@
       <c r="T12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="14" t="n">
+      <c r="U12" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V12" s="6" t="n">
@@ -1774,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="14"/>
       <c r="L13" s="3" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
         <v>0.25</v>
@@ -1854,10 +1860,10 @@
       <c r="E14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13"/>
+      <c r="F14" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14"/>
       <c r="L14" s="3" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
         <v>0.375</v>
@@ -1887,7 +1893,7 @@
       <c r="T14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U14" s="14" t="n">
+      <c r="U14" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V14" s="6" t="n">
@@ -1907,7 +1913,7 @@
       <c r="AD14" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG14" s="15" t="n">
+      <c r="AG14" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ14" s="4" t="n">
@@ -1935,15 +1941,17 @@
       <c r="E15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14"/>
       <c r="L15" s="3" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M15" s="4" t="n">
         <f aca="false">L15*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N15" s="5" t="n">
         <v>1.5</v>
@@ -1996,7 +2004,7 @@
       </c>
       <c r="AL15" s="8" t="n">
         <f aca="false">AK15+AJ15+AC15+AB15+AA15+M15+(N15/2)</f>
-        <v>20.5</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,15 +2023,17 @@
       <c r="E16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14"/>
       <c r="L16" s="3" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
-        <v>0.2</v>
+        <v>0.325</v>
       </c>
       <c r="M16" s="4" t="n">
         <f aca="false">L16*10</f>
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N16" s="5" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -2077,7 +2087,7 @@
       </c>
       <c r="AL16" s="8" t="n">
         <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
-        <v>20.05</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,15 +2106,17 @@
       <c r="E17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14"/>
       <c r="L17" s="3" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M17" s="4" t="n">
         <f aca="false">L17*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>1.5</v>
@@ -2157,7 +2169,7 @@
       </c>
       <c r="AL17" s="8" t="n">
         <f aca="false">AK17+AJ17+AC17+AB17+AA17+M17+(N17/2)</f>
-        <v>20.5</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,8 +2188,8 @@
       <c r="E18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
       <c r="L18" s="3" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.25</v>
@@ -2256,10 +2268,10 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="13"/>
+      <c r="F19" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14"/>
       <c r="L19" s="3" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
         <v>0.375</v>
@@ -2338,8 +2350,8 @@
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
       <c r="L20" s="3" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
         <v>0.25</v>
@@ -2419,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="14"/>
       <c r="L21" s="3" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.25</v>
@@ -2450,7 +2462,7 @@
       <c r="T21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U21" s="14" t="n">
+      <c r="U21" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V21" s="6" t="n">
@@ -2470,7 +2482,7 @@
       <c r="AD21" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG21" s="15"/>
+      <c r="AG21" s="16"/>
       <c r="AJ21" s="4" t="n">
         <f aca="false">AD21+AE21+AF21+AH21+AI21+AG21</f>
         <v>5</v>
@@ -2496,15 +2508,17 @@
       <c r="E22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14"/>
       <c r="L22" s="3" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M22" s="4" t="n">
         <f aca="false">L22*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N22" s="5" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2558,7 +2572,7 @@
       </c>
       <c r="AL22" s="8" t="n">
         <f aca="false">AK22+AJ22+AC22+AB22+AA22+M22+(N22/2)</f>
-        <v>21.625</v>
+        <v>22.875</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,15 +2591,17 @@
       <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14"/>
       <c r="L23" s="3" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M23" s="4" t="n">
         <f aca="false">L23*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N23" s="5" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -2639,7 +2655,7 @@
       </c>
       <c r="AL23" s="8" t="n">
         <f aca="false">AK23+AJ23+AC23+AB23+AA23+M23+(N23/2)</f>
-        <v>21</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,15 +2674,17 @@
       <c r="E24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="14"/>
       <c r="L24" s="3" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M24" s="4" t="n">
         <f aca="false">L24*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N24" s="5" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -2719,7 +2737,7 @@
       </c>
       <c r="AL24" s="8" t="n">
         <f aca="false">AK24+AJ24+AC24+AB24+AA24+M24+(N24/2)</f>
-        <v>20.5</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,15 +2756,17 @@
       <c r="E25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="14"/>
       <c r="L25" s="3" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M25" s="4" t="n">
         <f aca="false">L25*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N25" s="5" t="n">
         <f aca="false">1+2+0.5</f>
@@ -2770,7 +2790,7 @@
       <c r="T25" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="14" t="n">
+      <c r="U25" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V25" s="6" t="n">
@@ -2799,7 +2819,7 @@
       </c>
       <c r="AL25" s="8" t="n">
         <f aca="false">AK25+AJ25+AC25+AB25+AA25+M25+(N25/2)</f>
-        <v>21.125</v>
+        <v>22.375</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="14"/>
       <c r="L26" s="3" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
         <v>0.25</v>
@@ -2897,15 +2917,17 @@
       <c r="E27" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="14"/>
       <c r="L27" s="3" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M27" s="4" t="n">
         <f aca="false">L27*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N27" s="5" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2958,7 +2980,7 @@
       </c>
       <c r="AL27" s="8" t="n">
         <f aca="false">AK27+AJ27+AC27+AB27+AA27+M27+(N27/2)</f>
-        <v>21.5</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,15 +2999,17 @@
       <c r="E28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="F28" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="14"/>
       <c r="L28" s="3" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M28" s="4" t="n">
         <f aca="false">L28*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N28" s="5" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3038,7 +3062,7 @@
       </c>
       <c r="AL28" s="8" t="n">
         <f aca="false">AK28+AJ28+AC28+AB28+AA28+M28+(N28/2)</f>
-        <v>21.625</v>
+        <v>22.875</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,15 +3081,17 @@
       <c r="E29" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="14"/>
       <c r="L29" s="3" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M29" s="4" t="n">
         <f aca="false">L29*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N29" s="5" t="n">
         <v>2</v>
@@ -3088,7 +3114,7 @@
       <c r="T29" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="U29" s="14" t="n">
+      <c r="U29" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V29" s="6" t="n">
@@ -3117,7 +3143,7 @@
       </c>
       <c r="AL29" s="8" t="n">
         <f aca="false">AK29+AJ29+AC29+AB29+AA29+M29+(N29/2)</f>
-        <v>20.38125</v>
+        <v>21.63125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="14"/>
       <c r="L30" s="3" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
@@ -3168,7 +3194,7 @@
       <c r="T30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U30" s="14" t="n">
+      <c r="U30" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V30" s="6" t="n">
@@ -3188,7 +3214,7 @@
       <c r="AD30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG30" s="15"/>
+      <c r="AG30" s="16"/>
       <c r="AJ30" s="4" t="n">
         <f aca="false">AD30+AE30+AF30+AH30+AI30+AG30</f>
         <v>0</v>
@@ -3215,7 +3241,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="14"/>
       <c r="L31" s="3" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
         <v>0.25</v>
@@ -3295,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="14"/>
       <c r="L32" s="3" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.25</v>
@@ -3376,7 +3402,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="14"/>
       <c r="L33" s="3" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.25</v>
@@ -3455,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="14"/>
       <c r="L34" s="3" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.125</v>
@@ -3534,10 +3560,10 @@
       <c r="E35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" s="13"/>
+      <c r="F35" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="14"/>
       <c r="L35" s="3" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
         <v>0.375</v>
@@ -3567,7 +3593,7 @@
       <c r="T35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U35" s="14" t="n">
+      <c r="U35" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V35" s="6" t="n">
@@ -3585,16 +3611,18 @@
         <v>4.275</v>
       </c>
       <c r="AD35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="AG35" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ35" s="4" t="n">
         <f aca="false">AD35+AE35+AF35+AH35+AI35+AG35</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL35" s="8" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>9.525</v>
+        <v>19.525</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3613,15 +3641,17 @@
       <c r="E36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="14"/>
       <c r="L36" s="3" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M36" s="4" t="n">
         <f aca="false">L36*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N36" s="5" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3674,7 +3704,7 @@
       </c>
       <c r="AL36" s="8" t="n">
         <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
-        <v>21.625</v>
+        <v>22.875</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,15 +3723,17 @@
       <c r="E37" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="14"/>
       <c r="L37" s="3" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M37" s="4" t="n">
         <f aca="false">L37*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N37" s="5" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3755,7 +3787,7 @@
       </c>
       <c r="AL37" s="8" t="n">
         <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
-        <v>21.16666666675</v>
+        <v>22.41666666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,15 +3806,17 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="F38" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="14"/>
       <c r="L38" s="3" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M38" s="4" t="n">
         <f aca="false">L38*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N38" s="5" t="n">
         <v>0</v>
@@ -3826,7 +3860,7 @@
       <c r="AD38" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG38" s="15" t="n">
+      <c r="AG38" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ38" s="4" t="n">
@@ -3835,7 +3869,7 @@
       </c>
       <c r="AL38" s="8" t="n">
         <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
-        <v>18.77916666675</v>
+        <v>20.02916666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,15 +3888,17 @@
       <c r="E39" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="F39" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="14"/>
       <c r="L39" s="3" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M39" s="4" t="n">
         <f aca="false">L39*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N39" s="5" t="n">
         <v>0</v>
@@ -3906,7 +3942,7 @@
       <c r="AD39" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG39" s="15" t="n">
+      <c r="AG39" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ39" s="4" t="n">
@@ -3915,7 +3951,7 @@
       </c>
       <c r="AL39" s="8" t="n">
         <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
-        <v>19.27916666675</v>
+        <v>20.52916666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="G40" s="14"/>
       <c r="L40" s="3" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.125</v>
@@ -4014,15 +4050,17 @@
       <c r="E41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="F41" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="14"/>
       <c r="L41" s="3" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M41" s="4" t="n">
         <f aca="false">L41*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N41" s="5" t="n">
         <v>0</v>
@@ -4046,7 +4084,7 @@
       <c r="T41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="U41" s="14" t="n">
+      <c r="U41" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V41" s="6" t="n">
@@ -4075,7 +4113,7 @@
       </c>
       <c r="AL41" s="8" t="n">
         <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
-        <v>16.3</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,7 +4133,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="G42" s="14"/>
       <c r="L42" s="3" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.25</v>
@@ -4146,7 +4184,7 @@
       <c r="AD42" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG42" s="15"/>
+      <c r="AG42" s="16"/>
       <c r="AJ42" s="4" t="n">
         <f aca="false">AD42+AE42+AF42+AH42+AI42+AG42</f>
         <v>0</v>
@@ -4172,15 +4210,17 @@
       <c r="E43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="F43" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="14"/>
       <c r="L43" s="3" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M43" s="4" t="n">
         <f aca="false">L43*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N43" s="5" t="n">
         <f aca="false">1+2+0.5</f>
@@ -4233,7 +4273,7 @@
       </c>
       <c r="AL43" s="8" t="n">
         <f aca="false">AK43+AJ43+AC43+AB43+AA43+M43+(N43/2)</f>
-        <v>18.375</v>
+        <v>19.625</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,10 +4292,10 @@
       <c r="E44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F44" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" s="13"/>
+      <c r="F44" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" s="14"/>
       <c r="L44" s="3" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.375</v>
@@ -4333,15 +4373,17 @@
       <c r="E45" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="13"/>
+      <c r="F45" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="14"/>
       <c r="L45" s="3" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M45" s="4" t="n">
         <f aca="false">L45*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N45" s="5" t="n">
         <v>0</v>
@@ -4393,7 +4435,7 @@
       </c>
       <c r="AL45" s="8" t="n">
         <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
-        <v>19.66666666675</v>
+        <v>20.91666666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,10 +4454,10 @@
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" s="13"/>
+      <c r="F46" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="14"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
         <v>0.25</v>
@@ -4445,7 +4487,7 @@
       <c r="T46" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="U46" s="14" t="n">
+      <c r="U46" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V46" s="6" t="n">
@@ -4465,7 +4507,7 @@
       <c r="AD46" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG46" s="15" t="n">
+      <c r="AG46" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ46" s="4" t="n">
@@ -4493,10 +4535,10 @@
       <c r="E47" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" s="13"/>
+      <c r="F47" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="14"/>
       <c r="L47" s="3" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
         <v>0.375</v>
@@ -4546,7 +4588,7 @@
       <c r="AD47" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG47" s="15" t="n">
+      <c r="AG47" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ47" s="4" t="n">
@@ -4575,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="14"/>
       <c r="L48" s="3" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
         <v>0.125</v>
@@ -4626,7 +4668,7 @@
       <c r="AD48" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG48" s="15" t="n">
+      <c r="AG48" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ48" s="4" t="n">
@@ -4654,8 +4696,8 @@
       <c r="E49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
       <c r="L49" s="3" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.25</v>
@@ -4705,7 +4747,7 @@
       <c r="AD49" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AG49" s="15" t="n">
+      <c r="AG49" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AJ49" s="4" t="n">
@@ -4733,15 +4775,17 @@
       <c r="E50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="13"/>
+      <c r="F50" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="14"/>
       <c r="L50" s="3" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.2</v>
+        <v>0.325</v>
       </c>
       <c r="M50" s="4" t="n">
         <f aca="false">L50*10</f>
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N50" s="5" t="n">
         <v>0</v>
@@ -4793,7 +4837,7 @@
       </c>
       <c r="AL50" s="8" t="n">
         <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
-        <v>19.25</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,7 +4857,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="G51" s="14"/>
       <c r="L51" s="3" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>
@@ -4892,7 +4936,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="G52" s="14"/>
       <c r="L52" s="3" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
         <v>0.25</v>
@@ -4956,22 +5000,22 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
       <c r="AG53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -735,28 +735,27 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="13.5"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="19.3061224489796"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,15 +1699,17 @@
       <c r="E12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="L12" s="3" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M12" s="4" t="n">
         <f aca="false">L12*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N12" s="5" t="n">
         <v>1.5</v>
@@ -1760,7 +1761,7 @@
       </c>
       <c r="AL12" s="8" t="n">
         <f aca="false">AK12+AJ12+AC12+AB12+AA12+M12+(N12/2)</f>
-        <v>19.41666666675</v>
+        <v>20.66666666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,15 +1780,17 @@
       <c r="E13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="L13" s="3" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M13" s="4" t="n">
         <f aca="false">L13*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N13" s="5" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -1841,7 +1844,7 @@
       </c>
       <c r="AL13" s="8" t="n">
         <f aca="false">AK13+AJ13+AC13+AB13+AA13+M13+(N13/2)</f>
-        <v>21.41666666675</v>
+        <v>22.66666666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,15 +4619,17 @@
       <c r="E48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G48" s="14"/>
       <c r="L48" s="3" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M48" s="4" t="n">
         <f aca="false">L48*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N48" s="5" t="n">
         <v>4</v>
@@ -4677,7 +4682,7 @@
       </c>
       <c r="AL48" s="8" t="n">
         <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
-        <v>20.45833333325</v>
+        <v>21.70833333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -735,27 +735,30 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,15 +2844,17 @@
       <c r="E26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="L26" s="3" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M26" s="4" t="n">
         <f aca="false">L26*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>3</v>
@@ -2901,7 +2906,7 @@
       </c>
       <c r="AL26" s="8" t="n">
         <f aca="false">AK26+AJ26+AC26+AB26+AA26+M26+(N26/2)</f>
-        <v>21.325</v>
+        <v>22.575</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,7 +4129,7 @@
         <v>78</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>0</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -735,30 +735,30 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,7 +1532,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>5</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>5</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>5</v>
@@ -3174,11 +3174,11 @@
       <c r="G30" s="14"/>
       <c r="L30" s="3" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="M30" s="4" t="n">
         <f aca="false">L30*10</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="N30" s="5" t="n">
         <v>3</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="AL30" s="8" t="n">
         <f aca="false">AK30+AJ30+AC30+AB30+AA30+M30+(N30/2)</f>
-        <v>6.3</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>5</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>5</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>5</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0</v>
@@ -3492,11 +3492,11 @@
       <c r="G34" s="14"/>
       <c r="L34" s="3" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M34" s="4" t="n">
         <f aca="false">L34*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N34" s="5" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="AL34" s="8" t="n">
         <f aca="false">AK34+AJ34+AC34+AB34+AA34+M34+(N34/2)</f>
-        <v>19.875</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>5</v>
@@ -3574,11 +3574,11 @@
       <c r="G35" s="14"/>
       <c r="L35" s="3" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="M35" s="4" t="n">
         <f aca="false">L35*10</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N35" s="5" t="n">
         <v>3</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="AL35" s="8" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>19.525</v>
+        <v>19.775</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>5</v>
@@ -3655,11 +3655,11 @@
       <c r="G36" s="14"/>
       <c r="L36" s="3" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.375</v>
+        <v>0.425</v>
       </c>
       <c r="M36" s="4" t="n">
         <f aca="false">L36*10</f>
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="N36" s="5" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="AL36" s="8" t="n">
         <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
-        <v>22.875</v>
+        <v>23.375</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>5</v>
@@ -3737,11 +3737,11 @@
       <c r="G37" s="14"/>
       <c r="L37" s="3" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="M37" s="4" t="n">
         <f aca="false">L37*10</f>
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N37" s="5" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AL37" s="8" t="n">
         <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
-        <v>22.41666666675</v>
+        <v>23.16666666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>5</v>
@@ -3820,11 +3820,11 @@
       <c r="G38" s="14"/>
       <c r="L38" s="3" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="M38" s="4" t="n">
         <f aca="false">L38*10</f>
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N38" s="5" t="n">
         <v>0</v>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="AL38" s="8" t="n">
         <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
-        <v>20.02916666675</v>
+        <v>21.02916666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>5</v>
@@ -3902,11 +3902,11 @@
       <c r="G39" s="14"/>
       <c r="L39" s="3" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M39" s="4" t="n">
         <f aca="false">L39*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N39" s="5" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="AL39" s="8" t="n">
         <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
-        <v>20.52916666675</v>
+        <v>21.77916666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>0</v>
@@ -3982,11 +3982,11 @@
       <c r="G40" s="14"/>
       <c r="L40" s="3" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
       <c r="M40" s="4" t="n">
         <f aca="false">L40*10</f>
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="N40" s="5" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="AL40" s="8" t="n">
         <f aca="false">AK40+AJ40+AC40+AB40+AA40+M40+(N40/2)</f>
-        <v>18.75</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
       <c r="G41" s="14"/>
       <c r="L41" s="3" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
-        <v>0.25</v>
+        <v>0.55</v>
       </c>
       <c r="M41" s="4" t="n">
         <f aca="false">L41*10</f>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N41" s="5" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="AL41" s="8" t="n">
         <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
-        <v>17.55</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>5</v>
@@ -4144,11 +4144,11 @@
       <c r="G42" s="14"/>
       <c r="L42" s="3" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="M42" s="4" t="n">
         <f aca="false">L42*10</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N42" s="5" t="n">
         <v>1.5</v>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="AL42" s="8" t="n">
         <f aca="false">AK42+AJ42+AC42+AB42+AA42+M42+(N42/2)</f>
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>5</v>
@@ -4224,11 +4224,11 @@
       <c r="G43" s="14"/>
       <c r="L43" s="3" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
-        <v>0.375</v>
+        <v>0.6</v>
       </c>
       <c r="M43" s="4" t="n">
         <f aca="false">L43*10</f>
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N43" s="5" t="n">
         <f aca="false">1+2+0.5</f>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="AL43" s="8" t="n">
         <f aca="false">AK43+AJ43+AC43+AB43+AA43+M43+(N43/2)</f>
-        <v>19.625</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>5</v>
@@ -4306,11 +4306,11 @@
       <c r="G44" s="14"/>
       <c r="L44" s="3" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="M44" s="4" t="n">
         <f aca="false">L44*10</f>
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="N44" s="5" t="n">
         <v>3</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="AL44" s="8" t="n">
         <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
-        <v>19.01666666675</v>
+        <v>21.51666666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>5</v>
@@ -4387,11 +4387,11 @@
       <c r="G45" s="14"/>
       <c r="L45" s="3" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.375</v>
+        <v>0.65</v>
       </c>
       <c r="M45" s="4" t="n">
         <f aca="false">L45*10</f>
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N45" s="5" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="AL45" s="8" t="n">
         <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
-        <v>20.91666666675</v>
+        <v>23.66666666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0</v>
@@ -4468,11 +4468,11 @@
       <c r="G46" s="14"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
-        <v>0.25</v>
+        <v>0.675</v>
       </c>
       <c r="M46" s="4" t="n">
         <f aca="false">L46*10</f>
-        <v>2.5</v>
+        <v>6.75</v>
       </c>
       <c r="N46" s="5" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="AL46" s="8" t="n">
         <f aca="false">AK46+AJ46+AC46+AB46+AA46+M46+(N46/2)</f>
-        <v>20</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>5</v>
@@ -4549,11 +4549,11 @@
       <c r="G47" s="14"/>
       <c r="L47" s="3" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.375</v>
+        <v>0.7</v>
       </c>
       <c r="M47" s="4" t="n">
         <f aca="false">L47*10</f>
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N47" s="5" t="n">
         <v>0</v>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="AL47" s="8" t="n">
         <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
-        <v>20.91666666675</v>
+        <v>24.16666666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>0</v>
@@ -4630,11 +4630,11 @@
       <c r="G48" s="14"/>
       <c r="L48" s="3" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="M48" s="4" t="n">
         <f aca="false">L48*10</f>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N48" s="5" t="n">
         <v>4</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="AL48" s="8" t="n">
         <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
-        <v>21.70833333325</v>
+        <v>25.20833333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>5</v>
@@ -4710,11 +4710,11 @@
       <c r="G49" s="14"/>
       <c r="L49" s="3" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="M49" s="4" t="n">
         <f aca="false">L49*10</f>
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="N49" s="5" t="n">
         <v>3.5</v>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="AL49" s="8" t="n">
         <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
-        <v>19.35</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>3</v>
@@ -4791,11 +4791,11 @@
       <c r="G50" s="14"/>
       <c r="L50" s="3" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.325</v>
+        <v>0.775</v>
       </c>
       <c r="M50" s="4" t="n">
         <f aca="false">L50*10</f>
-        <v>3.25</v>
+        <v>7.75</v>
       </c>
       <c r="N50" s="5" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="AL50" s="8" t="n">
         <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
-        <v>20.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>5</v>
@@ -4870,11 +4870,11 @@
       <c r="G51" s="14"/>
       <c r="L51" s="3" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
-        <v>0.25</v>
+        <v>0.675</v>
       </c>
       <c r="M51" s="4" t="n">
         <f aca="false">L51*10</f>
-        <v>2.5</v>
+        <v>6.75</v>
       </c>
       <c r="N51" s="5" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="AL51" s="8" t="n">
         <f aca="false">AK51+AJ51+AC51+AB51+AA51+M51+(N51/2)</f>
-        <v>17.375</v>
+        <v>21.625</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>5</v>
@@ -4949,11 +4949,11 @@
       <c r="G52" s="14"/>
       <c r="L52" s="3" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="M52" s="4" t="n">
         <f aca="false">L52*10</f>
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N52" s="5" t="n">
         <v>4</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="AL52" s="8" t="n">
         <f aca="false">AK52+AJ52+AC52+AB52+AA52+M52+(N52/2)</f>
-        <v>18.89166666675</v>
+        <v>23.39166666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -735,30 +735,29 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W44" activeCellId="0" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="true" max="11" min="2" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="13" min="13" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="14" min="14" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="22" min="15" style="6" width="0"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="6" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,16 +1015,19 @@
       <c r="V3" s="6" t="n">
         <v>4.333333333</v>
       </c>
+      <c r="W3" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y3" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z3" s="7" t="n">
         <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)+SMALL(O3:Y3,3)))/40</f>
-        <v>0.708333333325</v>
+        <v>0.808333333325</v>
       </c>
       <c r="AA3" s="4" t="n">
         <f aca="false">Z3*10</f>
-        <v>7.08333333325</v>
+        <v>8.08333333325</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>5</v>
@@ -1039,7 +1041,7 @@
       </c>
       <c r="AL3" s="8" t="n">
         <f aca="false">AK3+AJ3+AC3+AB3+AA3+M3+(N3/2)</f>
-        <v>21.58333333325</v>
+        <v>22.58333333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,16 +1099,19 @@
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W4" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z4" s="7" t="n">
         <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)+SMALL(O4:Y4,3)))/40</f>
-        <v>0.62</v>
+        <v>0.745</v>
       </c>
       <c r="AA4" s="4" t="n">
         <f aca="false">Z4*10</f>
-        <v>6.2</v>
+        <v>7.45</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>5</v>
@@ -1120,7 +1125,7 @@
       </c>
       <c r="AL4" s="8" t="n">
         <f aca="false">AK4+AJ4+AC4+AB4+AA4+M4+(N4/2)</f>
-        <v>21.95</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,16 +1183,19 @@
       <c r="V5" s="6" t="n">
         <v>4.333333333</v>
       </c>
+      <c r="W5" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y5" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z5" s="7" t="n">
         <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
-        <v>0.658333333325</v>
+        <v>0.758333333325</v>
       </c>
       <c r="AA5" s="4" t="n">
         <f aca="false">Z5*10</f>
-        <v>6.58333333325</v>
+        <v>7.58333333325</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>5</v>
@@ -1201,7 +1209,7 @@
       </c>
       <c r="AL5" s="8" t="n">
         <f aca="false">AK5+AJ5+AC5+AB5+AA5+M5+(N5/2)</f>
-        <v>21.08333333325</v>
+        <v>22.08333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,16 +1266,19 @@
       <c r="V6" s="6" t="n">
         <v>4.166666667</v>
       </c>
+      <c r="W6" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z6" s="7" t="n">
         <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)+SMALL(O6:Y6,3)))/40</f>
-        <v>0.729166666675</v>
+        <v>0.829166666675</v>
       </c>
       <c r="AA6" s="4" t="n">
         <f aca="false">Z6*10</f>
-        <v>7.29166666675</v>
+        <v>8.29166666675</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1279,7 +1290,7 @@
       </c>
       <c r="AL6" s="8" t="n">
         <f aca="false">AK6+AJ6+AC6+AB6+AA6+M6+(N6/2)</f>
-        <v>9.54166666675</v>
+        <v>10.54166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,16 +1348,19 @@
       <c r="V7" s="6" t="n">
         <v>4.166666667</v>
       </c>
+      <c r="W7" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z7" s="7" t="n">
         <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)+SMALL(O7:Y7,3)))/40</f>
-        <v>0.729166666675</v>
+        <v>0.829166666675</v>
       </c>
       <c r="AA7" s="4" t="n">
         <f aca="false">Z7*10</f>
-        <v>7.29166666675</v>
+        <v>8.29166666675</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>5</v>
@@ -1360,7 +1374,7 @@
       </c>
       <c r="AL7" s="8" t="n">
         <f aca="false">AK7+AJ7+AC7+AB7+AA7+M7+(N7/2)</f>
-        <v>22.79166666675</v>
+        <v>23.79166666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,8 +1406,7 @@
         <v>3.75</v>
       </c>
       <c r="N8" s="5" t="n">
-        <f aca="false">1+1.5+0.5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>5</v>
@@ -1420,16 +1433,19 @@
       <c r="V8" s="6" t="n">
         <v>4.333333333</v>
       </c>
+      <c r="W8" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z8" s="7" t="n">
         <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)+SMALL(O8:Y8,3)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA8" s="4" t="n">
         <f aca="false">Z8*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>5</v>
@@ -1443,7 +1459,7 @@
       </c>
       <c r="AL8" s="8" t="n">
         <f aca="false">AK8+AJ8+AC8+AB8+AA8+M8+(N8/2)</f>
-        <v>22.75</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,16 +1595,19 @@
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W10" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z10" s="7" t="n">
         <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)+SMALL(O10:Y10,3)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA10" s="4" t="n">
         <f aca="false">Z10*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>5</v>
@@ -1602,7 +1621,7 @@
       </c>
       <c r="AL10" s="8" t="n">
         <f aca="false">AK10+AJ10+AC10+AB10+AA10+M10+(N10/2)</f>
-        <v>22.25</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,16 +1679,19 @@
       <c r="V11" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="W11" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z11" s="7" t="n">
         <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)+SMALL(O11:Y11,3)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA11" s="4" t="n">
         <f aca="false">Z11*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>5</v>
@@ -1683,7 +1705,7 @@
       </c>
       <c r="AL11" s="8" t="n">
         <f aca="false">AK11+AJ11+AC11+AB11+AA11+M11+(N11/2)</f>
-        <v>22.25</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,16 +1763,19 @@
       <c r="V12" s="6" t="n">
         <v>3.666666667</v>
       </c>
+      <c r="W12" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z12" s="7" t="n">
         <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)+SMALL(O12:Y12,3)))/40</f>
-        <v>0.616666666675</v>
+        <v>0.716666666675</v>
       </c>
       <c r="AA12" s="4" t="n">
         <f aca="false">Z12*10</f>
-        <v>6.16666666675</v>
+        <v>7.16666666675</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>5</v>
@@ -1764,7 +1789,7 @@
       </c>
       <c r="AL12" s="8" t="n">
         <f aca="false">AK12+AJ12+AC12+AB12+AA12+M12+(N12/2)</f>
-        <v>20.66666666675</v>
+        <v>21.66666666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,16 +1849,19 @@
       <c r="V13" s="6" t="n">
         <v>4.666666667</v>
       </c>
+      <c r="W13" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z13" s="7" t="n">
         <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)+SMALL(O13:Y13,3)))/40</f>
-        <v>0.741666666675</v>
+        <v>0.841666666675</v>
       </c>
       <c r="AA13" s="4" t="n">
         <f aca="false">Z13*10</f>
-        <v>7.41666666675</v>
+        <v>8.41666666675</v>
       </c>
       <c r="AD13" s="5" t="n">
         <v>5</v>
@@ -1847,7 +1875,7 @@
       </c>
       <c r="AL13" s="8" t="n">
         <f aca="false">AK13+AJ13+AC13+AB13+AA13+M13+(N13/2)</f>
-        <v>22.66666666675</v>
+        <v>23.66666666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,16 +1933,19 @@
       <c r="V14" s="6" t="n">
         <v>4.666666667</v>
       </c>
+      <c r="W14" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z14" s="7" t="n">
         <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)+SMALL(O14:Y14,3)))/40</f>
-        <v>0.741666666675</v>
+        <v>0.841666666675</v>
       </c>
       <c r="AA14" s="4" t="n">
         <f aca="false">Z14*10</f>
-        <v>7.41666666675</v>
+        <v>8.41666666675</v>
       </c>
       <c r="AD14" s="5" t="n">
         <v>5</v>
@@ -1928,7 +1959,7 @@
       </c>
       <c r="AL14" s="8" t="n">
         <f aca="false">AK14+AJ14+AC14+AB14+AA14+M14+(N14/2)</f>
-        <v>23.16666666675</v>
+        <v>24.16666666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,16 +2018,19 @@
       <c r="V15" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="W15" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z15" s="7" t="n">
         <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)+SMALL(O15:Y15,3)))/40</f>
-        <v>0.725</v>
+        <v>0.825</v>
       </c>
       <c r="AA15" s="4" t="n">
         <f aca="false">Z15*10</f>
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="AD15" s="5" t="n">
         <v>5</v>
@@ -2010,7 +2044,7 @@
       </c>
       <c r="AL15" s="8" t="n">
         <f aca="false">AK15+AJ15+AC15+AB15+AA15+M15+(N15/2)</f>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,16 +2104,19 @@
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W16" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z16" s="7" t="n">
         <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)+SMALL(O16:Y16,3)))/40</f>
-        <v>0.655</v>
+        <v>0.755</v>
       </c>
       <c r="AA16" s="4" t="n">
         <f aca="false">Z16*10</f>
-        <v>6.55</v>
+        <v>7.55</v>
       </c>
       <c r="AD16" s="5" t="n">
         <v>5</v>
@@ -2093,7 +2130,7 @@
       </c>
       <c r="AL16" s="8" t="n">
         <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
-        <v>21.3</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,16 +2189,19 @@
       <c r="V17" s="6" t="n">
         <v>3.666666667</v>
       </c>
+      <c r="W17" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y17" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z17" s="7" t="n">
         <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)+SMALL(O17:Y17,3)))/40</f>
-        <v>0.725</v>
+        <v>0.825</v>
       </c>
       <c r="AA17" s="4" t="n">
         <f aca="false">Z17*10</f>
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="AD17" s="5" t="n">
         <v>5</v>
@@ -2175,7 +2215,7 @@
       </c>
       <c r="AL17" s="8" t="n">
         <f aca="false">AK17+AJ17+AC17+AB17+AA17+M17+(N17/2)</f>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,16 +2354,19 @@
       <c r="V19" s="6" t="n">
         <v>4.666666667</v>
       </c>
+      <c r="W19" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y19" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z19" s="7" t="n">
         <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)+SMALL(O19:Y19,3)))/40</f>
-        <v>0.741666666675</v>
+        <v>0.841666666675</v>
       </c>
       <c r="AA19" s="4" t="n">
         <f aca="false">Z19*10</f>
-        <v>7.41666666675</v>
+        <v>8.41666666675</v>
       </c>
       <c r="AD19" s="5" t="n">
         <v>5</v>
@@ -2337,7 +2380,7 @@
       </c>
       <c r="AL19" s="8" t="n">
         <f aca="false">AK19+AJ19+AC19+AB19+AA19+M19+(N19/2)</f>
-        <v>22.41666666675</v>
+        <v>23.41666666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,16 +2437,19 @@
       <c r="V20" s="6" t="n">
         <v>4.5</v>
       </c>
+      <c r="W20" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y20" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z20" s="7" t="n">
         <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)+SMALL(O20:Y20,3)))/40</f>
-        <v>0.7375</v>
+        <v>0.8375</v>
       </c>
       <c r="AA20" s="4" t="n">
         <f aca="false">Z20*10</f>
-        <v>7.375</v>
+        <v>8.375</v>
       </c>
       <c r="AD20" s="5" t="n">
         <v>5</v>
@@ -2417,7 +2463,7 @@
       </c>
       <c r="AL20" s="8" t="n">
         <f aca="false">AK20+AJ20+AC20+AB20+AA20+M20+(N20/2)</f>
-        <v>21.625</v>
+        <v>22.625</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,16 +2601,19 @@
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W22" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y22" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z22" s="7" t="n">
         <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)+SMALL(O22:Y22,3)))/40</f>
-        <v>0.7375</v>
+        <v>0.8625</v>
       </c>
       <c r="AA22" s="4" t="n">
         <f aca="false">Z22*10</f>
-        <v>7.375</v>
+        <v>8.625</v>
       </c>
       <c r="AD22" s="5" t="n">
         <v>5</v>
@@ -2578,7 +2627,7 @@
       </c>
       <c r="AL22" s="8" t="n">
         <f aca="false">AK22+AJ22+AC22+AB22+AA22+M22+(N22/2)</f>
-        <v>22.875</v>
+        <v>24.125</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,16 +2687,19 @@
       <c r="V23" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="W23" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y23" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z23" s="7" t="n">
         <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)+SMALL(O23:Y23,3)))/40</f>
-        <v>0.725</v>
+        <v>0.8</v>
       </c>
       <c r="AA23" s="4" t="n">
         <f aca="false">Z23*10</f>
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AD23" s="5" t="n">
         <v>5</v>
@@ -2661,7 +2713,7 @@
       </c>
       <c r="AL23" s="8" t="n">
         <f aca="false">AK23+AJ23+AC23+AB23+AA23+M23+(N23/2)</f>
-        <v>22.25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,16 +2772,19 @@
       <c r="V24" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="W24" s="6" t="n">
+        <v>3.5</v>
+      </c>
       <c r="Y24" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z24" s="7" t="n">
         <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)+SMALL(O24:Y24,3)))/40</f>
-        <v>0.675</v>
+        <v>0.7625</v>
       </c>
       <c r="AA24" s="4" t="n">
         <f aca="false">Z24*10</f>
-        <v>6.75</v>
+        <v>7.625</v>
       </c>
       <c r="AD24" s="5" t="n">
         <v>5</v>
@@ -2743,7 +2798,7 @@
       </c>
       <c r="AL24" s="8" t="n">
         <f aca="false">AK24+AJ24+AC24+AB24+AA24+M24+(N24/2)</f>
-        <v>21.75</v>
+        <v>22.625</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,16 +2857,19 @@
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W25" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z25" s="7" t="n">
         <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)+SMALL(O25:Y25,3)))/40</f>
-        <v>0.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="AA25" s="4" t="n">
         <f aca="false">Z25*10</f>
-        <v>6.875</v>
+        <v>8.125</v>
       </c>
       <c r="AD25" s="5" t="n">
         <v>5</v>
@@ -2825,7 +2883,7 @@
       </c>
       <c r="AL25" s="8" t="n">
         <f aca="false">AK25+AJ25+AC25+AB25+AA25+M25+(N25/2)</f>
-        <v>22.375</v>
+        <v>23.625</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,16 +2941,19 @@
       <c r="V26" s="6" t="n">
         <v>4.166666667</v>
       </c>
+      <c r="W26" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y26" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z26" s="7" t="n">
         <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)+SMALL(O26:Y26,3)))/40</f>
-        <v>0.7325</v>
+        <v>0.845</v>
       </c>
       <c r="AA26" s="4" t="n">
         <f aca="false">Z26*10</f>
-        <v>7.325</v>
+        <v>8.45</v>
       </c>
       <c r="AD26" s="5" t="n">
         <v>5</v>
@@ -2906,7 +2967,7 @@
       </c>
       <c r="AL26" s="8" t="n">
         <f aca="false">AK26+AJ26+AC26+AB26+AA26+M26+(N26/2)</f>
-        <v>22.575</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,16 +3026,19 @@
       <c r="V27" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W27" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y27" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z27" s="7" t="n">
         <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)+SMALL(O27:Y27,3)))/40</f>
-        <v>0.725</v>
+        <v>0.85</v>
       </c>
       <c r="AA27" s="4" t="n">
         <f aca="false">Z27*10</f>
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD27" s="5" t="n">
         <v>5</v>
@@ -2988,7 +3052,7 @@
       </c>
       <c r="AL27" s="8" t="n">
         <f aca="false">AK27+AJ27+AC27+AB27+AA27+M27+(N27/2)</f>
-        <v>22.75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,16 +3111,19 @@
       <c r="V28" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W28" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y28" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z28" s="7" t="n">
         <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)+SMALL(O28:Y28,3)))/40</f>
-        <v>0.7375</v>
+        <v>0.8625</v>
       </c>
       <c r="AA28" s="4" t="n">
         <f aca="false">Z28*10</f>
-        <v>7.375</v>
+        <v>8.625</v>
       </c>
       <c r="AD28" s="5" t="n">
         <v>5</v>
@@ -3070,7 +3137,7 @@
       </c>
       <c r="AL28" s="8" t="n">
         <f aca="false">AK28+AJ28+AC28+AB28+AA28+M28+(N28/2)</f>
-        <v>22.875</v>
+        <v>24.125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,16 +3195,19 @@
       <c r="V29" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="W29" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y29" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z29" s="7" t="n">
         <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)+SMALL(O29:Y29,3)))/40</f>
-        <v>0.688125</v>
+        <v>0.788125</v>
       </c>
       <c r="AA29" s="4" t="n">
         <f aca="false">Z29*10</f>
-        <v>6.88125</v>
+        <v>7.88125</v>
       </c>
       <c r="AD29" s="5" t="n">
         <v>5</v>
@@ -3151,7 +3221,7 @@
       </c>
       <c r="AL29" s="8" t="n">
         <f aca="false">AK29+AJ29+AC29+AB29+AA29+M29+(N29/2)</f>
-        <v>21.63125</v>
+        <v>22.63125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,15 +3318,17 @@
       <c r="E31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="L31" s="3" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M31" s="4" t="n">
         <f aca="false">L31*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N31" s="5" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3286,16 +3358,19 @@
       <c r="V31" s="6" t="n">
         <v>4.5</v>
       </c>
+      <c r="W31" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y31" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z31" s="7" t="n">
         <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)+SMALL(O31:Y31,3)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA31" s="4" t="n">
         <f aca="false">Z31*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD31" s="5" t="n">
         <v>5</v>
@@ -3309,7 +3384,7 @@
       </c>
       <c r="AL31" s="8" t="n">
         <f aca="false">AK31+AJ31+AC31+AB31+AA31+M31+(N31/2)</f>
-        <v>21.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,16 +3442,19 @@
       <c r="V32" s="6" t="n">
         <v>4.333333333</v>
       </c>
+      <c r="W32" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y32" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z32" s="7" t="n">
         <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)+SMALL(O32:Y32,3)))/40</f>
-        <v>0.7375</v>
+        <v>0.8625</v>
       </c>
       <c r="AA32" s="4" t="n">
         <f aca="false">Z32*10</f>
-        <v>7.375</v>
+        <v>8.625</v>
       </c>
       <c r="AD32" s="5" t="n">
         <v>5</v>
@@ -3390,7 +3468,7 @@
       </c>
       <c r="AL32" s="8" t="n">
         <f aca="false">AK32+AJ32+AC32+AB32+AA32+M32+(N32/2)</f>
-        <v>21.375</v>
+        <v>22.625</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,15 +3487,17 @@
       <c r="E33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="L33" s="3" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M33" s="4" t="n">
         <f aca="false">L33*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N33" s="5" t="n">
         <v>3</v>
@@ -3446,16 +3526,19 @@
       <c r="V33" s="6" t="n">
         <v>3.666666667</v>
       </c>
+      <c r="W33" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z33" s="7" t="n">
         <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)+SMALL(O33:Y33,3)))/40</f>
-        <v>0.715</v>
+        <v>0.84</v>
       </c>
       <c r="AA33" s="4" t="n">
         <f aca="false">Z33*10</f>
-        <v>7.15</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" s="5" t="n">
         <v>5</v>
@@ -3469,7 +3552,7 @@
       </c>
       <c r="AL33" s="8" t="n">
         <f aca="false">AK33+AJ33+AC33+AB33+AA33+M33+(N33/2)</f>
-        <v>21.15</v>
+        <v>23.65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,16 +3609,19 @@
       <c r="V34" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="W34" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y34" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z34" s="7" t="n">
         <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)+SMALL(O34:Y34,3)))/40</f>
-        <v>0.6875</v>
+        <v>0.7875</v>
       </c>
       <c r="AA34" s="4" t="n">
         <f aca="false">Z34*10</f>
-        <v>6.875</v>
+        <v>7.875</v>
       </c>
       <c r="AD34" s="5" t="n">
         <v>5</v>
@@ -3549,7 +3635,7 @@
       </c>
       <c r="AL34" s="8" t="n">
         <f aca="false">AK34+AJ34+AC34+AB34+AA34+M34+(N34/2)</f>
-        <v>21.125</v>
+        <v>22.125</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,16 +3693,19 @@
       <c r="V35" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W35" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z35" s="7" t="n">
         <f aca="false">(SUM(O35:Y35)-(SMALL(O35:Y35,2)+SMALL(O35:Y35,1)+SMALL(O35:Y35,3)))/40</f>
-        <v>0.4275</v>
+        <v>0.5025</v>
       </c>
       <c r="AA35" s="4" t="n">
         <f aca="false">Z35*10</f>
-        <v>4.275</v>
+        <v>5.025</v>
       </c>
       <c r="AD35" s="5" t="n">
         <v>5</v>
@@ -3630,7 +3719,7 @@
       </c>
       <c r="AL35" s="8" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>19.775</v>
+        <v>20.525</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,16 +3778,19 @@
       <c r="V36" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W36" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="Y36" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z36" s="7" t="n">
         <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)+SMALL(O36:Y36,3)))/40</f>
-        <v>0.7375</v>
+        <v>0.8625</v>
       </c>
       <c r="AA36" s="4" t="n">
         <f aca="false">Z36*10</f>
-        <v>7.375</v>
+        <v>8.625</v>
       </c>
       <c r="AD36" s="5" t="n">
         <v>5</v>
@@ -3712,7 +3804,7 @@
       </c>
       <c r="AL36" s="8" t="n">
         <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
-        <v>23.375</v>
+        <v>24.625</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,16 +3864,19 @@
       <c r="V37" s="6" t="n">
         <v>4.166666667</v>
       </c>
+      <c r="W37" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y37" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z37" s="7" t="n">
         <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)+SMALL(O37:Y37,3)))/40</f>
-        <v>0.716666666675</v>
+        <v>0.816666666675</v>
       </c>
       <c r="AA37" s="4" t="n">
         <f aca="false">Z37*10</f>
-        <v>7.16666666675</v>
+        <v>8.16666666675</v>
       </c>
       <c r="AD37" s="5" t="n">
         <v>5</v>
@@ -3795,7 +3890,7 @@
       </c>
       <c r="AL37" s="8" t="n">
         <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
-        <v>23.16666666675</v>
+        <v>24.16666666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,16 +3949,19 @@
       <c r="V38" s="6" t="n">
         <v>4.166666667</v>
       </c>
+      <c r="W38" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y38" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z38" s="7" t="n">
         <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)+SMALL(O38:Y38,3)))/40</f>
-        <v>0.627916666675</v>
+        <v>0.727916666675</v>
       </c>
       <c r="AA38" s="4" t="n">
         <f aca="false">Z38*10</f>
-        <v>6.27916666675</v>
+        <v>7.27916666675</v>
       </c>
       <c r="AD38" s="5" t="n">
         <v>5</v>
@@ -3877,7 +3975,7 @@
       </c>
       <c r="AL38" s="8" t="n">
         <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
-        <v>21.02916666675</v>
+        <v>22.02916666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,16 +4034,19 @@
       <c r="V39" s="6" t="n">
         <v>4.166666667</v>
       </c>
+      <c r="W39" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y39" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z39" s="7" t="n">
         <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)+SMALL(O39:Y39,3)))/40</f>
-        <v>0.677916666675</v>
+        <v>0.777916666675</v>
       </c>
       <c r="AA39" s="4" t="n">
         <f aca="false">Z39*10</f>
-        <v>6.77916666675</v>
+        <v>7.77916666675</v>
       </c>
       <c r="AD39" s="5" t="n">
         <v>5</v>
@@ -3959,7 +4060,7 @@
       </c>
       <c r="AL39" s="8" t="n">
         <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
-        <v>21.77916666675</v>
+        <v>22.77916666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,16 +4117,19 @@
       <c r="V40" s="6" t="n">
         <v>4.166666667</v>
       </c>
+      <c r="W40" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y40" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z40" s="7" t="n">
         <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)+SMALL(O40:Y40,3)))/40</f>
-        <v>0.75</v>
+        <v>0.854166666675</v>
       </c>
       <c r="AA40" s="4" t="n">
         <f aca="false">Z40*10</f>
-        <v>7.5</v>
+        <v>8.54166666675</v>
       </c>
       <c r="AD40" s="5" t="n">
         <v>5</v>
@@ -4039,7 +4143,7 @@
       </c>
       <c r="AL40" s="8" t="n">
         <f aca="false">AK40+AJ40+AC40+AB40+AA40+M40+(N40/2)</f>
-        <v>21.5</v>
+        <v>22.54166666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,16 +4202,19 @@
       <c r="V41" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W41" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Z41" s="7" t="n">
         <f aca="false">(SUM(O41:Y41)-(SMALL(O41:Y41,2)+SMALL(O41:Y41,1)+SMALL(O41:Y41,3)))/40</f>
-        <v>0.505</v>
+        <v>0.58</v>
       </c>
       <c r="AA41" s="4" t="n">
         <f aca="false">Z41*10</f>
-        <v>5.05</v>
+        <v>5.8</v>
       </c>
       <c r="AD41" s="5" t="n">
         <v>5</v>
@@ -4121,7 +4228,7 @@
       </c>
       <c r="AL41" s="8" t="n">
         <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
-        <v>20.55</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,16 +4446,19 @@
       <c r="V44" s="6" t="n">
         <v>4.166666667</v>
       </c>
+      <c r="W44" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y44" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z44" s="7" t="n">
         <f aca="false">(SUM(O44:Y44)-(SMALL(O44:Y44,2)+SMALL(O44:Y44,1)+SMALL(O44:Y44,3)))/40</f>
-        <v>0.376666666675</v>
+        <v>0.451666666675</v>
       </c>
       <c r="AA44" s="4" t="n">
         <f aca="false">Z44*10</f>
-        <v>3.76666666675</v>
+        <v>4.51666666675</v>
       </c>
       <c r="AD44" s="5" t="n">
         <v>5</v>
@@ -4362,7 +4472,7 @@
       </c>
       <c r="AL44" s="8" t="n">
         <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
-        <v>21.51666666675</v>
+        <v>22.26666666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,16 +4530,19 @@
       <c r="V45" s="6" t="n">
         <v>3.666666667</v>
       </c>
+      <c r="W45" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y45" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z45" s="7" t="n">
         <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)+SMALL(O45:Y45,3)))/40</f>
-        <v>0.716666666675</v>
+        <v>0.791666666675</v>
       </c>
       <c r="AA45" s="4" t="n">
         <f aca="false">Z45*10</f>
-        <v>7.16666666675</v>
+        <v>7.91666666675</v>
       </c>
       <c r="AD45" s="5" t="n">
         <v>5</v>
@@ -4443,7 +4556,7 @@
       </c>
       <c r="AL45" s="8" t="n">
         <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
-        <v>23.66666666675</v>
+        <v>24.41666666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4582,16 +4695,19 @@
       <c r="V47" s="6" t="n">
         <v>4.666666667</v>
       </c>
+      <c r="W47" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y47" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z47" s="7" t="n">
         <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)+SMALL(O47:Y47,3)))/40</f>
-        <v>0.716666666675</v>
+        <v>0.791666666675</v>
       </c>
       <c r="AA47" s="4" t="n">
         <f aca="false">Z47*10</f>
-        <v>7.16666666675</v>
+        <v>7.91666666675</v>
       </c>
       <c r="AD47" s="5" t="n">
         <v>5</v>
@@ -4605,7 +4721,7 @@
       </c>
       <c r="AL47" s="8" t="n">
         <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
-        <v>24.16666666675</v>
+        <v>24.91666666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4664,16 +4780,19 @@
       <c r="V48" s="6" t="n">
         <v>4.333333333</v>
       </c>
+      <c r="W48" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="Y48" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z48" s="7" t="n">
         <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)+SMALL(O48:Y48,3)))/40</f>
-        <v>0.720833333325</v>
+        <v>0.820833333325</v>
       </c>
       <c r="AA48" s="4" t="n">
         <f aca="false">Z48*10</f>
-        <v>7.20833333325</v>
+        <v>8.20833333325</v>
       </c>
       <c r="AD48" s="5" t="n">
         <v>5</v>
@@ -4687,7 +4806,7 @@
       </c>
       <c r="AL48" s="8" t="n">
         <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
-        <v>25.20833333325</v>
+        <v>26.20833333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,16 +4943,19 @@
       <c r="V50" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="W50" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="Y50" s="6" t="n">
         <v>5</v>
       </c>
       <c r="Z50" s="7" t="n">
         <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)+SMALL(O50:Y50,3)))/40</f>
-        <v>0.725</v>
+        <v>0.8</v>
       </c>
       <c r="AA50" s="4" t="n">
         <f aca="false">Z50*10</f>
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AD50" s="5" t="n">
         <v>5</v>
@@ -4847,7 +4969,7 @@
       </c>
       <c r="AL50" s="8" t="n">
         <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
-        <v>25</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -735,29 +735,30 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W44" activeCellId="0" sqref="W44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="true" max="11" min="2" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="12" min="12" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="13" min="13" style="4" width="0"/>
-    <col collapsed="false" hidden="true" max="14" min="14" style="5" width="0"/>
-    <col collapsed="false" hidden="true" max="22" min="15" style="6" width="0"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="6" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="22" min="15" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +884,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -934,6 +935,7 @@
       <c r="V2" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="W2" s="0"/>
       <c r="Y2" s="6" t="n">
         <v>5</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5</v>
@@ -1470,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>5</v>
@@ -1516,6 +1518,7 @@
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W9" s="0"/>
       <c r="Y9" s="6" t="n">
         <v>0</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>4.5</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>5</v>
@@ -1800,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>5</v>
@@ -1886,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>5</v>
@@ -2055,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -2069,11 +2072,11 @@
       <c r="G16" s="14"/>
       <c r="L16" s="3" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
-        <v>0.325</v>
+        <v>0.375</v>
       </c>
       <c r="M16" s="4" t="n">
         <f aca="false">L16*10</f>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N16" s="5" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -2130,7 +2133,7 @@
       </c>
       <c r="AL16" s="8" t="n">
         <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>5</v>
@@ -2272,6 +2275,7 @@
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W18" s="0"/>
       <c r="Y18" s="6" t="n">
         <v>0</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>5</v>
@@ -2520,6 +2524,7 @@
       <c r="V21" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W21" s="0"/>
       <c r="Y21" s="6" t="n">
         <v>0</v>
       </c>
@@ -3232,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>5</v>
@@ -3244,11 +3249,11 @@
       <c r="G30" s="14"/>
       <c r="L30" s="3" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="M30" s="4" t="n">
         <f aca="false">L30*10</f>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N30" s="5" t="n">
         <v>3</v>
@@ -3278,6 +3283,7 @@
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W30" s="0"/>
       <c r="Y30" s="6" t="n">
         <v>0</v>
       </c>
@@ -3299,7 +3305,7 @@
       </c>
       <c r="AL30" s="8" t="n">
         <f aca="false">AK30+AJ30+AC30+AB30+AA30+M30+(N30/2)</f>
-        <v>6.55</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>5</v>
@@ -3395,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>5</v>
@@ -3479,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>5</v>
@@ -3563,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0</v>
@@ -3575,11 +3581,11 @@
       <c r="G34" s="14"/>
       <c r="L34" s="3" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M34" s="4" t="n">
         <f aca="false">L34*10</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N34" s="5" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3635,7 +3641,7 @@
       </c>
       <c r="AL34" s="8" t="n">
         <f aca="false">AK34+AJ34+AC34+AB34+AA34+M34+(N34/2)</f>
-        <v>22.125</v>
+        <v>20.875</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>5</v>
@@ -3660,11 +3666,11 @@
       <c r="G35" s="14"/>
       <c r="L35" s="3" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="M35" s="4" t="n">
         <f aca="false">L35*10</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N35" s="5" t="n">
         <v>3</v>
@@ -3719,7 +3725,7 @@
       </c>
       <c r="AL35" s="8" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>20.525</v>
+        <v>20.275</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>5</v>
@@ -3744,11 +3750,11 @@
       <c r="G36" s="14"/>
       <c r="L36" s="3" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.425</v>
+        <v>0.375</v>
       </c>
       <c r="M36" s="4" t="n">
         <f aca="false">L36*10</f>
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="N36" s="5" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3804,7 +3810,7 @@
       </c>
       <c r="AL36" s="8" t="n">
         <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
-        <v>24.625</v>
+        <v>24.125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>5</v>
@@ -3829,11 +3835,11 @@
       <c r="G37" s="14"/>
       <c r="L37" s="3" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
-        <v>0.45</v>
+        <v>0.375</v>
       </c>
       <c r="M37" s="4" t="n">
         <f aca="false">L37*10</f>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N37" s="5" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3890,7 +3896,7 @@
       </c>
       <c r="AL37" s="8" t="n">
         <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
-        <v>24.16666666675</v>
+        <v>23.41666666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>5</v>
@@ -3915,11 +3921,11 @@
       <c r="G38" s="14"/>
       <c r="L38" s="3" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="M38" s="4" t="n">
         <f aca="false">L38*10</f>
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N38" s="5" t="n">
         <v>0</v>
@@ -3975,7 +3981,7 @@
       </c>
       <c r="AL38" s="8" t="n">
         <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
-        <v>22.02916666675</v>
+        <v>21.02916666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>5</v>
@@ -4000,11 +4006,11 @@
       <c r="G39" s="14"/>
       <c r="L39" s="3" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="M39" s="4" t="n">
         <f aca="false">L39*10</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N39" s="5" t="n">
         <v>0</v>
@@ -4060,7 +4066,7 @@
       </c>
       <c r="AL39" s="8" t="n">
         <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
-        <v>22.77916666675</v>
+        <v>21.52916666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>0</v>
@@ -4083,11 +4089,11 @@
       <c r="G40" s="14"/>
       <c r="L40" s="3" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="M40" s="4" t="n">
         <f aca="false">L40*10</f>
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="N40" s="5" t="n">
         <v>0</v>
@@ -4143,7 +4149,7 @@
       </c>
       <c r="AL40" s="8" t="n">
         <f aca="false">AK40+AJ40+AC40+AB40+AA40+M40+(N40/2)</f>
-        <v>22.54166666675</v>
+        <v>19.79166666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0</v>
@@ -4168,11 +4174,11 @@
       <c r="G41" s="14"/>
       <c r="L41" s="3" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="M41" s="4" t="n">
         <f aca="false">L41*10</f>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N41" s="5" t="n">
         <v>0</v>
@@ -4228,7 +4234,7 @@
       </c>
       <c r="AL41" s="8" t="n">
         <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
-        <v>21.3</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>5</v>
@@ -4251,11 +4257,11 @@
       <c r="G42" s="14"/>
       <c r="L42" s="3" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="M42" s="4" t="n">
         <f aca="false">L42*10</f>
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N42" s="5" t="n">
         <v>1.5</v>
@@ -4285,6 +4291,7 @@
       <c r="V42" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="W42" s="0"/>
       <c r="Y42" s="6" t="n">
         <v>5</v>
       </c>
@@ -4306,7 +4313,7 @@
       </c>
       <c r="AL42" s="8" t="n">
         <f aca="false">AK42+AJ42+AC42+AB42+AA42+M42+(N42/2)</f>
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>5</v>
@@ -4331,11 +4338,11 @@
       <c r="G43" s="14"/>
       <c r="L43" s="3" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="M43" s="4" t="n">
         <f aca="false">L43*10</f>
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N43" s="5" t="n">
         <f aca="false">1+2+0.5</f>
@@ -4365,6 +4372,7 @@
       <c r="V43" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W43" s="0"/>
       <c r="Y43" s="6" t="n">
         <v>5</v>
       </c>
@@ -4388,7 +4396,7 @@
       </c>
       <c r="AL43" s="8" t="n">
         <f aca="false">AK43+AJ43+AC43+AB43+AA43+M43+(N43/2)</f>
-        <v>21.875</v>
+        <v>19.625</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4396,10 +4404,10 @@
         <v>80</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>5</v>
@@ -4413,11 +4421,11 @@
       <c r="G44" s="14"/>
       <c r="L44" s="3" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="M44" s="4" t="n">
         <f aca="false">L44*10</f>
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N44" s="5" t="n">
         <v>3</v>
@@ -4472,7 +4480,7 @@
       </c>
       <c r="AL44" s="8" t="n">
         <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
-        <v>22.26666666675</v>
+        <v>19.76666666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>5</v>
@@ -4497,11 +4505,11 @@
       <c r="G45" s="14"/>
       <c r="L45" s="3" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.65</v>
+        <v>0.375</v>
       </c>
       <c r="M45" s="4" t="n">
         <f aca="false">L45*10</f>
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N45" s="5" t="n">
         <v>0</v>
@@ -4556,7 +4564,7 @@
       </c>
       <c r="AL45" s="8" t="n">
         <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
-        <v>24.41666666675</v>
+        <v>21.66666666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0</v>
@@ -4581,11 +4589,11 @@
       <c r="G46" s="14"/>
       <c r="L46" s="3" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
-        <v>0.675</v>
+        <v>0.25</v>
       </c>
       <c r="M46" s="4" t="n">
         <f aca="false">L46*10</f>
-        <v>6.75</v>
+        <v>2.5</v>
       </c>
       <c r="N46" s="5" t="n">
         <v>4</v>
@@ -4614,6 +4622,7 @@
       <c r="V46" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="W46" s="0"/>
       <c r="Y46" s="6" t="n">
         <v>5</v>
       </c>
@@ -4637,7 +4646,7 @@
       </c>
       <c r="AL46" s="8" t="n">
         <f aca="false">AK46+AJ46+AC46+AB46+AA46+M46+(N46/2)</f>
-        <v>24.25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4645,10 +4654,10 @@
         <v>83</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>5</v>
@@ -4662,11 +4671,11 @@
       <c r="G47" s="14"/>
       <c r="L47" s="3" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.7</v>
+        <v>0.375</v>
       </c>
       <c r="M47" s="4" t="n">
         <f aca="false">L47*10</f>
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N47" s="5" t="n">
         <v>0</v>
@@ -4721,7 +4730,7 @@
       </c>
       <c r="AL47" s="8" t="n">
         <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
-        <v>24.91666666675</v>
+        <v>21.66666666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4732,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>0</v>
@@ -4746,11 +4755,11 @@
       <c r="G48" s="14"/>
       <c r="L48" s="3" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
-        <v>0.6</v>
+        <v>0.125</v>
       </c>
       <c r="M48" s="4" t="n">
         <f aca="false">L48*10</f>
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="N48" s="5" t="n">
         <v>4</v>
@@ -4806,7 +4815,7 @@
       </c>
       <c r="AL48" s="8" t="n">
         <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
-        <v>26.20833333325</v>
+        <v>21.45833333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>5</v>
@@ -4829,11 +4838,11 @@
       <c r="G49" s="14"/>
       <c r="L49" s="3" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="M49" s="4" t="n">
         <f aca="false">L49*10</f>
-        <v>6.25</v>
+        <v>2.5</v>
       </c>
       <c r="N49" s="5" t="n">
         <v>3.5</v>
@@ -4862,6 +4871,7 @@
       <c r="V49" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="W49" s="0"/>
       <c r="Y49" s="6" t="n">
         <v>0</v>
       </c>
@@ -4885,7 +4895,7 @@
       </c>
       <c r="AL49" s="8" t="n">
         <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
-        <v>23.1</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>3</v>
@@ -4910,11 +4920,11 @@
       <c r="G50" s="14"/>
       <c r="L50" s="3" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.775</v>
+        <v>0.325</v>
       </c>
       <c r="M50" s="4" t="n">
         <f aca="false">L50*10</f>
-        <v>7.75</v>
+        <v>3.25</v>
       </c>
       <c r="N50" s="5" t="n">
         <v>0</v>
@@ -4969,7 +4979,7 @@
       </c>
       <c r="AL50" s="8" t="n">
         <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
-        <v>25.75</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>5</v>
@@ -4992,11 +5002,11 @@
       <c r="G51" s="14"/>
       <c r="L51" s="3" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
-        <v>0.675</v>
+        <v>0.25</v>
       </c>
       <c r="M51" s="4" t="n">
         <f aca="false">L51*10</f>
-        <v>6.75</v>
+        <v>2.5</v>
       </c>
       <c r="N51" s="5" t="n">
         <v>0</v>
@@ -5048,7 +5058,7 @@
       </c>
       <c r="AL51" s="8" t="n">
         <f aca="false">AK51+AJ51+AC51+AB51+AA51+M51+(N51/2)</f>
-        <v>21.625</v>
+        <v>17.375</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>5</v>
@@ -5071,11 +5081,11 @@
       <c r="G52" s="14"/>
       <c r="L52" s="3" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="M52" s="4" t="n">
         <f aca="false">L52*10</f>
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N52" s="5" t="n">
         <v>4</v>
@@ -5127,7 +5137,7 @@
       </c>
       <c r="AL52" s="8" t="n">
         <f aca="false">AK52+AJ52+AC52+AB52+AA52+M52+(N52/2)</f>
-        <v>23.39166666675</v>
+        <v>18.89166666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,7 +5167,7 @@
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
     </row>
-    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26"/>
       <c r="E57" s="27" t="s">
         <v>90</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -362,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -398,6 +398,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -412,6 +419,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -421,6 +429,21 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -539,7 +562,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -549,6 +572,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,15 +599,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,23 +623,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,7 +643,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,7 +667,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,12 +679,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -736,151 +775,154 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="15" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="6" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="4" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="5" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="5" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="5" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="4" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="8" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="15" style="7" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="7" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="6" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="6" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="6" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="5" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="9" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="10"/>
+      <c r="AM1" s="12"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -895,75 +937,74 @@
       <c r="E2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="L2" s="3" t="n">
+      <c r="F2" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <f aca="false">L2*10</f>
         <v>3.75</v>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="6" t="n">
+      <c r="N2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="7" t="n">
         <f aca="false">2+0.8+0.5</f>
         <v>3.3</v>
       </c>
-      <c r="Q2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="n">
+      <c r="Q2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6" t="n">
+      <c r="U2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7" t="n">
         <v>5</v>
       </c>
       <c r="W2" s="0"/>
-      <c r="Y2" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="7" t="n">
+      <c r="Y2" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="8" t="n">
         <f aca="false">(SUM(O2:Y2)-(SMALL(O2:Y2,2)+SMALL(O2:Y2,1)+SMALL(O2:Y2,3)))/40</f>
         <v>0.545</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <f aca="false">Z2*10</f>
         <v>5.45</v>
       </c>
-      <c r="AD2" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AD2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
         <f aca="false">AD2+AE2+AF2+AH2+AI2+AG2</f>
         <v>10</v>
       </c>
-      <c r="AL2" s="8" t="n">
+      <c r="AL2" s="9" t="n">
         <f aca="false">AK2+AJ2+AC2+AB2+AA2+M2+(N2/2)</f>
         <v>21.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -978,76 +1019,75 @@
       <c r="E3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="L3" s="3" t="n">
+      <c r="F3" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <f aca="false">L3*10</f>
         <v>3.75</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" s="6" t="n">
+      <c r="P3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="17" t="n">
+      <c r="U3" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="V3" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W3" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="7" t="n">
+      <c r="W3" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="8" t="n">
         <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)+SMALL(O3:Y3,3)))/40</f>
         <v>0.808333333325</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <f aca="false">Z3*10</f>
         <v>8.08333333325</v>
       </c>
-      <c r="AD3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AD3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
         <f aca="false">AD3+AE3+AF3+AH3+AI3+AG3</f>
         <v>10</v>
       </c>
-      <c r="AL3" s="8" t="n">
+      <c r="AL3" s="9" t="n">
         <f aca="false">AK3+AJ3+AC3+AB3+AA3+M3+(N3/2)</f>
         <v>22.58333333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -1062,76 +1102,75 @@
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="L4" s="3" t="n">
+      <c r="F4" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="5" t="n">
         <f aca="false">L4*10</f>
         <v>3.75</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" s="6" t="n">
+      <c r="N4" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="7" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" s="6" t="n">
+      <c r="Q4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7" t="n">
+      <c r="U4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8" t="n">
         <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)+SMALL(O4:Y4,3)))/40</f>
         <v>0.745</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="5" t="n">
         <f aca="false">Z4*10</f>
         <v>7.45</v>
       </c>
-      <c r="AD4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="AD4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
         <f aca="false">AD4+AE4+AF4+AH4+AI4+AG4</f>
         <v>10</v>
       </c>
-      <c r="AL4" s="8" t="n">
+      <c r="AL4" s="9" t="n">
         <f aca="false">AK4+AJ4+AC4+AB4+AA4+M4+(N4/2)</f>
         <v>23.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -1146,76 +1185,75 @@
       <c r="E5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="L5" s="3" t="n">
+      <c r="F5" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="5" t="n">
         <f aca="false">L5*10</f>
         <v>3.75</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N5" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" s="6" t="n">
+      <c r="P5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="17" t="n">
+      <c r="U5" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="V5" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W5" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="7" t="n">
+      <c r="W5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="8" t="n">
         <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
         <v>0.758333333325</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="5" t="n">
         <f aca="false">Z5*10</f>
         <v>7.58333333325</v>
       </c>
-      <c r="AD5" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG5" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="4" t="n">
+      <c r="AD5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
         <f aca="false">AD5+AE5+AF5+AH5+AI5+AG5</f>
         <v>10</v>
       </c>
-      <c r="AL5" s="8" t="n">
+      <c r="AL5" s="9" t="n">
         <f aca="false">AK5+AJ5+AC5+AB5+AA5+M5+(N5/2)</f>
         <v>22.08333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -1230,73 +1268,72 @@
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="L6" s="3" t="n">
+      <c r="F6" s="15"/>
+      <c r="L6" s="4" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
         <v>0.225</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="5" t="n">
         <f aca="false">L6*10</f>
         <v>2.25</v>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" s="6" t="n">
+      <c r="N6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" s="7" t="n">
         <f aca="false">0.7+0.2+1</f>
         <v>1.9</v>
       </c>
-      <c r="Q6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" s="6" t="n">
+      <c r="Q6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" s="6" t="n">
+      <c r="U6" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="W6" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="7" t="n">
+      <c r="Y6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="8" t="n">
         <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)+SMALL(O6:Y6,3)))/40</f>
         <v>0.829166666675</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="5" t="n">
         <f aca="false">Z6*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AD6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="18"/>
-      <c r="AJ6" s="4" t="n">
+      <c r="AD6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="19"/>
+      <c r="AJ6" s="5" t="n">
         <f aca="false">AD6+AE6+AF6+AH6+AI6+AG6</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="8" t="n">
+      <c r="AL6" s="9" t="n">
         <f aca="false">AK6+AJ6+AC6+AB6+AA6+M6+(N6/2)</f>
         <v>10.54166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -1311,76 +1348,75 @@
       <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="L7" s="3" t="n">
+      <c r="F7" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="5" t="n">
         <f aca="false">L7*10</f>
         <v>3.75</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="O7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P7" s="6" t="n">
+      <c r="O7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="7" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U7" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V7" s="6" t="n">
+      <c r="Q7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="W7" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="7" t="n">
+      <c r="Y7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="8" t="n">
         <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)+SMALL(O7:Y7,3)))/40</f>
         <v>0.829166666675</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="5" t="n">
         <f aca="false">Z7*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AD7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AD7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
         <f aca="false">AD7+AE7+AF7+AH7+AI7+AG7</f>
         <v>10</v>
       </c>
-      <c r="AL7" s="8" t="n">
+      <c r="AL7" s="9" t="n">
         <f aca="false">AK7+AJ7+AC7+AB7+AA7+M7+(N7/2)</f>
         <v>23.79166666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -1395,77 +1431,76 @@
       <c r="E8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="L8" s="3" t="n">
+      <c r="F8" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="5" t="n">
         <f aca="false">L8*10</f>
         <v>3.75</v>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" s="6" t="n">
+      <c r="N8" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" s="7" t="n">
         <f aca="false">1+1+0.8+0.8+1</f>
         <v>4.6</v>
       </c>
-      <c r="Q8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T8" s="6" t="n">
+      <c r="Q8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U8" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V8" s="6" t="n">
+      <c r="U8" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="7" t="n">
+      <c r="W8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="8" t="n">
         <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)+SMALL(O8:Y8,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA8" s="4" t="n">
+      <c r="AA8" s="5" t="n">
         <f aca="false">Z8*10</f>
         <v>8.75</v>
       </c>
-      <c r="AD8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ8" s="4" t="n">
+      <c r="AD8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
         <f aca="false">AD8+AE8+AF8+AH8+AI8+AG8</f>
         <v>10</v>
       </c>
-      <c r="AL8" s="8" t="n">
+      <c r="AL8" s="9" t="n">
         <f aca="false">AK8+AJ8+AC8+AB8+AA8+M8+(N8/2)</f>
         <v>24.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -1480,71 +1515,70 @@
       <c r="E9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="L9" s="3" t="n">
+      <c r="F9" s="15"/>
+      <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="5" t="n">
         <f aca="false">L9*10</f>
         <v>2.5</v>
       </c>
-      <c r="N9" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6" t="n">
+      <c r="N9" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="n">
         <f aca="false">0.8+1+1+1+0.8</f>
         <v>4.6</v>
       </c>
-      <c r="Q9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6" t="n">
+      <c r="U9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="0"/>
-      <c r="Y9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7" t="n">
+      <c r="Y9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8" t="n">
         <f aca="false">(SUM(O9:Y9)-(SMALL(O9:Y9,2)+SMALL(O9:Y9,1)+SMALL(O9:Y9,3)))/40</f>
         <v>0.54</v>
       </c>
-      <c r="AA9" s="4" t="n">
+      <c r="AA9" s="5" t="n">
         <f aca="false">Z9*10</f>
         <v>5.4</v>
       </c>
-      <c r="AD9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="18"/>
-      <c r="AJ9" s="4" t="n">
+      <c r="AD9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="19"/>
+      <c r="AJ9" s="5" t="n">
         <f aca="false">AD9+AE9+AF9+AH9+AI9+AG9</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="8" t="n">
+      <c r="AL9" s="9" t="n">
         <f aca="false">AK9+AJ9+AC9+AB9+AA9+M9+(N9/2)</f>
         <v>9.9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -1559,76 +1593,75 @@
       <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="L10" s="3" t="n">
+      <c r="F10" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="5" t="n">
         <f aca="false">L10*10</f>
         <v>3.75</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" s="6" t="n">
+      <c r="O10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U10" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7" t="n">
+      <c r="Q10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8" t="n">
         <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)+SMALL(O10:Y10,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA10" s="4" t="n">
+      <c r="AA10" s="5" t="n">
         <f aca="false">Z10*10</f>
         <v>8.75</v>
       </c>
-      <c r="AD10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ10" s="4" t="n">
+      <c r="AD10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
         <f aca="false">AD10+AE10+AF10+AH10+AI10+AG10</f>
         <v>10</v>
       </c>
-      <c r="AL10" s="8" t="n">
+      <c r="AL10" s="9" t="n">
         <f aca="false">AK10+AJ10+AC10+AB10+AA10+M10+(N10/2)</f>
         <v>23.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -1643,76 +1676,75 @@
       <c r="E11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="L11" s="3" t="n">
+      <c r="F11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="5" t="n">
         <f aca="false">L11*10</f>
         <v>3.75</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P11" s="6" t="n">
+      <c r="O11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="7" t="n">
+      <c r="Q11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="8" t="n">
         <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)+SMALL(O11:Y11,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <f aca="false">Z11*10</f>
         <v>8.75</v>
       </c>
-      <c r="AD11" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG11" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ11" s="4" t="n">
+      <c r="AD11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
         <f aca="false">AD11+AE11+AF11+AH11+AI11+AG11</f>
         <v>10</v>
       </c>
-      <c r="AL11" s="8" t="n">
+      <c r="AL11" s="9" t="n">
         <f aca="false">AK11+AJ11+AC11+AB11+AA11+M11+(N11/2)</f>
         <v>23.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -1727,76 +1759,75 @@
       <c r="E12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="L12" s="3" t="n">
+      <c r="F12" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="5" t="n">
         <f aca="false">L12*10</f>
         <v>3.75</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T12" s="6" t="n">
+      <c r="O12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6" t="n">
+      <c r="U12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="7" t="n">
+      <c r="W12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="8" t="n">
         <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)+SMALL(O12:Y12,3)))/40</f>
         <v>0.716666666675</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="5" t="n">
         <f aca="false">Z12*10</f>
         <v>7.16666666675</v>
       </c>
-      <c r="AD12" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG12" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ12" s="4" t="n">
+      <c r="AD12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
         <f aca="false">AD12+AE12+AF12+AH12+AI12+AG12</f>
         <v>10</v>
       </c>
-      <c r="AL12" s="8" t="n">
+      <c r="AL12" s="9" t="n">
         <f aca="false">AK12+AJ12+AC12+AB12+AA12+M12+(N12/2)</f>
         <v>21.66666666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -1811,78 +1842,77 @@
       <c r="E13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="L13" s="3" t="n">
+      <c r="F13" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="5" t="n">
         <f aca="false">L13*10</f>
         <v>3.75</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
         <v>3</v>
       </c>
-      <c r="O13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" s="6" t="n">
+      <c r="O13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <f aca="false">0.7+1+1.5</f>
         <v>3.2</v>
       </c>
-      <c r="Q13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" s="6" t="n">
+      <c r="Q13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U13" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V13" s="6" t="n">
+      <c r="U13" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="W13" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="7" t="n">
+      <c r="Y13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="8" t="n">
         <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)+SMALL(O13:Y13,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA13" s="4" t="n">
+      <c r="AA13" s="5" t="n">
         <f aca="false">Z13*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AD13" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="4" t="n">
+      <c r="AD13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="5" t="n">
         <f aca="false">AD13+AE13+AF13+AH13+AI13+AG13</f>
         <v>10</v>
       </c>
-      <c r="AL13" s="8" t="n">
+      <c r="AL13" s="9" t="n">
         <f aca="false">AK13+AJ13+AC13+AB13+AA13+M13+(N13/2)</f>
         <v>23.66666666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -1897,80 +1927,79 @@
       <c r="E14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="L14" s="3" t="n">
+      <c r="F14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="5" t="n">
         <f aca="false">L14*10</f>
         <v>3.75</v>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P14" s="6" t="n">
+      <c r="N14" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q14" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" s="6" t="n">
+      <c r="Q14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6" t="n">
+      <c r="U14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W14" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="7" t="n">
+      <c r="W14" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="8" t="n">
         <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)+SMALL(O14:Y14,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="5" t="n">
         <f aca="false">Z14*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AD14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
+      <c r="AD14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="5" t="n">
         <f aca="false">AD14+AE14+AF14+AH14+AI14+AG14</f>
         <v>10</v>
       </c>
-      <c r="AL14" s="8" t="n">
+      <c r="AL14" s="9" t="n">
         <f aca="false">AK14+AJ14+AC14+AB14+AA14+M14+(N14/2)</f>
         <v>24.16666666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5</v>
@@ -1981,77 +2010,76 @@
       <c r="E15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="L15" s="3" t="n">
+      <c r="F15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="5" t="n">
         <f aca="false">L15*10</f>
         <v>3.75</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="7" t="n">
         <f aca="false">0.5+0.6+0.8+2</f>
         <v>3.9</v>
       </c>
-      <c r="Q15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" s="6" t="n">
+      <c r="Q15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="17" t="n">
+      <c r="U15" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V15" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="7" t="n">
+      <c r="V15" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W15" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="8" t="n">
         <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)+SMALL(O15:Y15,3)))/40</f>
         <v>0.825</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="5" t="n">
         <f aca="false">Z15*10</f>
         <v>8.25</v>
       </c>
-      <c r="AD15" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG15" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
+      <c r="AD15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="5" t="n">
         <f aca="false">AD15+AE15+AF15+AH15+AI15+AG15</f>
         <v>10</v>
       </c>
-      <c r="AL15" s="8" t="n">
+      <c r="AL15" s="9" t="n">
         <f aca="false">AK15+AJ15+AC15+AB15+AA15+M15+(N15/2)</f>
         <v>22.75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -2066,82 +2094,81 @@
       <c r="E16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="L16" s="3" t="n">
+      <c r="F16" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="5" t="n">
         <f aca="false">L16*10</f>
         <v>3.75</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
         <v>3</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="7" t="n">
         <f aca="false">0.7+0.5+1+1+0.5</f>
         <v>3.7</v>
       </c>
-      <c r="Q16" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T16" s="6" t="n">
+      <c r="Q16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U16" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="7" t="n">
+      <c r="U16" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8" t="n">
         <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)+SMALL(O16:Y16,3)))/40</f>
         <v>0.755</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="5" t="n">
         <f aca="false">Z16*10</f>
         <v>7.55</v>
       </c>
-      <c r="AD16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="4" t="n">
+      <c r="AD16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="5" t="n">
         <f aca="false">AD16+AE16+AF16+AH16+AI16+AG16</f>
         <v>10</v>
       </c>
-      <c r="AL16" s="8" t="n">
+      <c r="AL16" s="9" t="n">
         <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
         <v>22.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
@@ -2152,77 +2179,76 @@
       <c r="E17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="L17" s="3" t="n">
+      <c r="F17" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="5" t="n">
         <f aca="false">L17*10</f>
         <v>3.75</v>
       </c>
-      <c r="N17" s="5" t="n">
+      <c r="N17" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="7" t="n">
         <f aca="false">0.6+0.5+2</f>
         <v>3.1</v>
       </c>
-      <c r="Q17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T17" s="6" t="n">
+      <c r="Q17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="17" t="n">
+      <c r="U17" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V17" s="6" t="n">
+      <c r="V17" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W17" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="7" t="n">
+      <c r="W17" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="8" t="n">
         <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)+SMALL(O17:Y17,3)))/40</f>
         <v>0.825</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AA17" s="5" t="n">
         <f aca="false">Z17*10</f>
         <v>8.25</v>
       </c>
-      <c r="AD17" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
+      <c r="AD17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="5" t="n">
         <f aca="false">AD17+AE17+AF17+AH17+AI17+AG17</f>
         <v>10</v>
       </c>
-      <c r="AL17" s="8" t="n">
+      <c r="AL17" s="9" t="n">
         <f aca="false">AK17+AJ17+AC17+AB17+AA17+M17+(N17/2)</f>
         <v>22.75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -2237,77 +2263,76 @@
       <c r="E18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="L18" s="3" t="n">
+      <c r="F18" s="15"/>
+      <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="5" t="n">
         <f aca="false">L18*10</f>
         <v>2.5</v>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" s="6" t="n">
+      <c r="O18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" s="7" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T18" s="6" t="n">
+      <c r="Q18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V18" s="6" t="n">
+      <c r="U18" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="0"/>
-      <c r="Y18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7" t="n">
+      <c r="Y18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8" t="n">
         <f aca="false">(SUM(O18:Y18)-(SMALL(O18:Y18,2)+SMALL(O18:Y18,1)+SMALL(O18:Y18,3)))/40</f>
         <v>0.715</v>
       </c>
-      <c r="AA18" s="4" t="n">
+      <c r="AA18" s="5" t="n">
         <f aca="false">Z18*10</f>
         <v>7.15</v>
       </c>
-      <c r="AD18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
+      <c r="AD18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
         <f aca="false">AD18+AE18+AF18+AH18+AI18+AG18</f>
         <v>10</v>
       </c>
-      <c r="AL18" s="8" t="n">
+      <c r="AL18" s="9" t="n">
         <f aca="false">AK18+AJ18+AC18+AB18+AA18+M18+(N18/2)</f>
         <v>21.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5</v>
@@ -2318,77 +2343,76 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="L19" s="3" t="n">
+      <c r="F19" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="5" t="n">
         <f aca="false">L19*10</f>
         <v>3.75</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O19" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" s="6" t="n">
+      <c r="O19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" s="7" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q19" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T19" s="6" t="n">
+      <c r="Q19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V19" s="6" t="n">
+      <c r="U19" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W19" s="6" t="n">
+      <c r="W19" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y19" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="7" t="n">
+      <c r="Y19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="8" t="n">
         <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)+SMALL(O19:Y19,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="5" t="n">
         <f aca="false">Z19*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AD19" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG19" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
+      <c r="AD19" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="5" t="n">
         <f aca="false">AD19+AE19+AF19+AH19+AI19+AG19</f>
         <v>10</v>
       </c>
-      <c r="AL19" s="8" t="n">
+      <c r="AL19" s="9" t="n">
         <f aca="false">AK19+AJ19+AC19+AB19+AA19+M19+(N19/2)</f>
         <v>23.41666666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -2403,75 +2427,74 @@
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="L20" s="3" t="n">
+      <c r="F20" s="15"/>
+      <c r="L20" s="4" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="5" t="n">
         <f aca="false">L20*10</f>
         <v>2.5</v>
       </c>
-      <c r="N20" s="5" t="n">
+      <c r="N20" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="7" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q20" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" s="6" t="n">
+      <c r="Q20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U20" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" s="6" t="n">
+      <c r="U20" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="W20" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="7" t="n">
+      <c r="W20" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="8" t="n">
         <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)+SMALL(O20:Y20,3)))/40</f>
         <v>0.8375</v>
       </c>
-      <c r="AA20" s="4" t="n">
+      <c r="AA20" s="5" t="n">
         <f aca="false">Z20*10</f>
         <v>8.375</v>
       </c>
-      <c r="AD20" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ20" s="4" t="n">
+      <c r="AD20" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="5" t="n">
         <f aca="false">AD20+AE20+AF20+AH20+AI20+AG20</f>
         <v>10</v>
       </c>
-      <c r="AL20" s="8" t="n">
+      <c r="AL20" s="9" t="n">
         <f aca="false">AK20+AJ20+AC20+AB20+AA20+M20+(N20/2)</f>
         <v>22.625</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -2486,75 +2509,74 @@
       <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="L21" s="3" t="n">
+      <c r="F21" s="15"/>
+      <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="M21" s="5" t="n">
         <f aca="false">L21*10</f>
         <v>2.5</v>
       </c>
-      <c r="N21" s="5" t="n">
+      <c r="N21" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P21" s="6" t="n">
+      <c r="O21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" s="7" t="n">
         <f aca="false">0.8+0.5+1+1+0.5</f>
         <v>3.8</v>
       </c>
-      <c r="Q21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T21" s="6" t="n">
+      <c r="Q21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="6" t="n">
+      <c r="U21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="0"/>
-      <c r="Y21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7" t="n">
+      <c r="Y21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="8" t="n">
         <f aca="false">(SUM(O21:Y21)-(SMALL(O21:Y21,2)+SMALL(O21:Y21,1)+SMALL(O21:Y21,3)))/40</f>
         <v>0.495</v>
       </c>
-      <c r="AA21" s="4" t="n">
+      <c r="AA21" s="5" t="n">
         <f aca="false">Z21*10</f>
         <v>4.95</v>
       </c>
-      <c r="AD21" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG21" s="16"/>
-      <c r="AJ21" s="4" t="n">
+      <c r="AD21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="17"/>
+      <c r="AJ21" s="5" t="n">
         <f aca="false">AD21+AE21+AF21+AH21+AI21+AG21</f>
         <v>5</v>
       </c>
-      <c r="AL21" s="8" t="n">
+      <c r="AL21" s="9" t="n">
         <f aca="false">AK21+AJ21+AC21+AB21+AA21+M21+(N21/2)</f>
         <v>13.95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0</v>
@@ -2565,78 +2587,80 @@
       <c r="E22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="L22" s="3" t="n">
+      <c r="F22" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="M22" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="5" t="n">
         <f aca="false">L22*10</f>
-        <v>3.75</v>
-      </c>
-      <c r="N22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="P22" s="7" t="n">
         <f aca="false">4.5</f>
         <v>4.5</v>
       </c>
-      <c r="Q22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U22" s="17" t="n">
+      <c r="Q22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="7" t="n">
+      <c r="V22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="8" t="n">
         <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)+SMALL(O22:Y22,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA22" s="4" t="n">
+      <c r="AA22" s="5" t="n">
         <f aca="false">Z22*10</f>
         <v>8.625</v>
       </c>
-      <c r="AD22" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG22" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ22" s="4" t="n">
+      <c r="AD22" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
         <f aca="false">AD22+AE22+AF22+AH22+AI22+AG22</f>
         <v>10</v>
       </c>
-      <c r="AL22" s="8" t="n">
+      <c r="AL22" s="9" t="n">
         <f aca="false">AK22+AJ22+AC22+AB22+AA22+M22+(N22/2)</f>
-        <v>24.125</v>
+        <v>25.375</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -2651,78 +2675,77 @@
       <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="L23" s="3" t="n">
+      <c r="F23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M23" s="4" t="n">
+      <c r="M23" s="5" t="n">
         <f aca="false">L23*10</f>
         <v>3.75</v>
       </c>
-      <c r="N23" s="5" t="n">
+      <c r="N23" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P23" s="6" t="n">
+      <c r="P23" s="7" t="n">
         <f aca="false">0.7+1+0.5+0.5+0.2</f>
         <v>2.9</v>
       </c>
-      <c r="Q23" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" s="6" t="n">
+      <c r="Q23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U23" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W23" s="6" t="n">
+      <c r="U23" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y23" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="7" t="n">
+      <c r="Y23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="8" t="n">
         <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)+SMALL(O23:Y23,3)))/40</f>
         <v>0.8</v>
       </c>
-      <c r="AA23" s="4" t="n">
+      <c r="AA23" s="5" t="n">
         <f aca="false">Z23*10</f>
         <v>8</v>
       </c>
-      <c r="AD23" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG23" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ23" s="4" t="n">
+      <c r="AD23" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
         <f aca="false">AD23+AE23+AF23+AH23+AI23+AG23</f>
         <v>10</v>
       </c>
-      <c r="AL23" s="8" t="n">
+      <c r="AL23" s="9" t="n">
         <f aca="false">AK23+AJ23+AC23+AB23+AA23+M23+(N23/2)</f>
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -2737,81 +2760,80 @@
       <c r="E24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="L24" s="3" t="n">
+      <c r="F24" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="5" t="n">
         <f aca="false">L24*10</f>
         <v>3.75</v>
       </c>
-      <c r="N24" s="5" t="n">
+      <c r="N24" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6" t="n">
+      <c r="O24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T24" s="6" t="n">
+      <c r="Q24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U24" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V24" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W24" s="6" t="n">
+      <c r="U24" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W24" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="Y24" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="7" t="n">
+      <c r="Y24" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="8" t="n">
         <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)+SMALL(O24:Y24,3)))/40</f>
         <v>0.7625</v>
       </c>
-      <c r="AA24" s="4" t="n">
+      <c r="AA24" s="5" t="n">
         <f aca="false">Z24*10</f>
         <v>7.625</v>
       </c>
-      <c r="AD24" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="4" t="n">
+      <c r="AD24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
         <f aca="false">AD24+AE24+AF24+AH24+AI24+AG24</f>
         <v>10</v>
       </c>
-      <c r="AL24" s="8" t="n">
+      <c r="AL24" s="9" t="n">
         <f aca="false">AK24+AJ24+AC24+AB24+AA24+M24+(N24/2)</f>
         <v>22.625</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0</v>
@@ -2822,77 +2844,79 @@
       <c r="E25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="L25" s="3" t="n">
+      <c r="F25" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="M25" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="5" t="n">
         <f aca="false">L25*10</f>
-        <v>3.75</v>
-      </c>
-      <c r="N25" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" s="6" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="6" t="n">
+      <c r="P25" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T25" s="6" t="n">
+      <c r="Q25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="7" t="n">
+      <c r="U25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="8" t="n">
         <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)+SMALL(O25:Y25,3)))/40</f>
         <v>0.8125</v>
       </c>
-      <c r="AA25" s="4" t="n">
+      <c r="AA25" s="5" t="n">
         <f aca="false">Z25*10</f>
         <v>8.125</v>
       </c>
-      <c r="AD25" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG25" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ25" s="4" t="n">
+      <c r="AD25" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
         <f aca="false">AD25+AE25+AF25+AH25+AI25+AG25</f>
         <v>10</v>
       </c>
-      <c r="AL25" s="8" t="n">
+      <c r="AL25" s="9" t="n">
         <f aca="false">AK25+AJ25+AC25+AB25+AA25+M25+(N25/2)</f>
-        <v>23.625</v>
+        <v>24.875</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -2907,80 +2931,79 @@
       <c r="E26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="L26" s="3" t="n">
+      <c r="F26" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="M26" s="5" t="n">
         <f aca="false">L26*10</f>
         <v>3.75</v>
       </c>
-      <c r="N26" s="5" t="n">
+      <c r="N26" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P26" s="6" t="n">
+      <c r="P26" s="7" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q26" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" s="6" t="n">
+      <c r="Q26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U26" s="17" t="n">
+      <c r="U26" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V26" s="6" t="n">
+      <c r="V26" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W26" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="7" t="n">
+      <c r="W26" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="8" t="n">
         <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)+SMALL(O26:Y26,3)))/40</f>
         <v>0.845</v>
       </c>
-      <c r="AA26" s="4" t="n">
+      <c r="AA26" s="5" t="n">
         <f aca="false">Z26*10</f>
         <v>8.45</v>
       </c>
-      <c r="AD26" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG26" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ26" s="4" t="n">
+      <c r="AD26" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ26" s="5" t="n">
         <f aca="false">AD26+AE26+AF26+AH26+AI26+AG26</f>
         <v>10</v>
       </c>
-      <c r="AL26" s="8" t="n">
+      <c r="AL26" s="9" t="n">
         <f aca="false">AK26+AJ26+AC26+AB26+AA26+M26+(N26/2)</f>
         <v>23.7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0</v>
@@ -2991,81 +3014,83 @@
       <c r="E27" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="L27" s="3" t="n">
+      <c r="F27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="M27" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M27" s="5" t="n">
         <f aca="false">L27*10</f>
-        <v>3.75</v>
-      </c>
-      <c r="N27" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="6" t="n">
+      <c r="P27" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q27" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T27" s="6" t="n">
+      <c r="Q27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U27" s="17" t="n">
+      <c r="U27" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="7" t="n">
+      <c r="V27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="8" t="n">
         <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)+SMALL(O27:Y27,3)))/40</f>
         <v>0.85</v>
       </c>
-      <c r="AA27" s="4" t="n">
+      <c r="AA27" s="5" t="n">
         <f aca="false">Z27*10</f>
         <v>8.5</v>
       </c>
-      <c r="AD27" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG27" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ27" s="4" t="n">
+      <c r="AD27" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ27" s="5" t="n">
         <f aca="false">AD27+AE27+AF27+AH27+AI27+AG27</f>
         <v>10</v>
       </c>
-      <c r="AL27" s="8" t="n">
+      <c r="AL27" s="9" t="n">
         <f aca="false">AK27+AJ27+AC27+AB27+AA27+M27+(N27/2)</f>
-        <v>24</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0</v>
@@ -3076,81 +3101,83 @@
       <c r="E28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F28" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="L28" s="3" t="n">
+      <c r="F28" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="M28" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="5" t="n">
         <f aca="false">L28*10</f>
-        <v>3.75</v>
-      </c>
-      <c r="N28" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" s="6" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="P28" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q28" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" s="6" t="n">
+      <c r="Q28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U28" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="7" t="n">
+      <c r="U28" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="8" t="n">
         <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)+SMALL(O28:Y28,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA28" s="4" t="n">
+      <c r="AA28" s="5" t="n">
         <f aca="false">Z28*10</f>
         <v>8.625</v>
       </c>
-      <c r="AD28" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG28" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ28" s="4" t="n">
+      <c r="AD28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="5" t="n">
         <f aca="false">AD28+AE28+AF28+AH28+AI28+AG28</f>
         <v>10</v>
       </c>
-      <c r="AL28" s="8" t="n">
+      <c r="AL28" s="9" t="n">
         <f aca="false">AK28+AJ28+AC28+AB28+AA28+M28+(N28/2)</f>
-        <v>24.125</v>
+        <v>25.375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0</v>
@@ -3161,76 +3188,75 @@
       <c r="E29" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="L29" s="3" t="n">
+      <c r="F29" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M29" s="4" t="n">
+      <c r="M29" s="5" t="n">
         <f aca="false">L29*10</f>
         <v>3.75</v>
       </c>
-      <c r="N29" s="5" t="n">
+      <c r="N29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="P29" s="6" t="n">
+      <c r="P29" s="7" t="n">
         <v>3.525</v>
       </c>
-      <c r="Q29" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T29" s="6" t="n">
+      <c r="Q29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U29" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W29" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="7" t="n">
+      <c r="U29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="8" t="n">
         <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)+SMALL(O29:Y29,3)))/40</f>
         <v>0.788125</v>
       </c>
-      <c r="AA29" s="4" t="n">
+      <c r="AA29" s="5" t="n">
         <f aca="false">Z29*10</f>
         <v>7.88125</v>
       </c>
-      <c r="AD29" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG29" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ29" s="4" t="n">
+      <c r="AD29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ29" s="5" t="n">
         <f aca="false">AD29+AE29+AF29+AH29+AI29+AG29</f>
         <v>10</v>
       </c>
-      <c r="AL29" s="8" t="n">
+      <c r="AL29" s="9" t="n">
         <f aca="false">AK29+AJ29+AC29+AB29+AA29+M29+(N29/2)</f>
         <v>22.63125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -3245,71 +3271,70 @@
       <c r="E30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="L30" s="3" t="n">
+      <c r="F30" s="15"/>
+      <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
       </c>
-      <c r="M30" s="4" t="n">
+      <c r="M30" s="5" t="n">
         <f aca="false">L30*10</f>
         <v>1.25</v>
       </c>
-      <c r="N30" s="5" t="n">
+      <c r="N30" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O30" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P30" s="6" t="n">
+      <c r="O30" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" s="7" t="n">
         <f aca="false">0.7+1+1+1+0.5</f>
         <v>4.2</v>
       </c>
-      <c r="Q30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T30" s="6" t="n">
+      <c r="Q30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="6" t="n">
+      <c r="U30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="0"/>
-      <c r="Y30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="7" t="n">
+      <c r="Y30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8" t="n">
         <f aca="false">(SUM(O30:Y30)-(SMALL(O30:Y30,2)+SMALL(O30:Y30,1)+SMALL(O30:Y30,3)))/40</f>
         <v>0.355</v>
       </c>
-      <c r="AA30" s="4" t="n">
+      <c r="AA30" s="5" t="n">
         <f aca="false">Z30*10</f>
         <v>3.55</v>
       </c>
-      <c r="AD30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="16"/>
-      <c r="AJ30" s="4" t="n">
+      <c r="AD30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="17"/>
+      <c r="AJ30" s="5" t="n">
         <f aca="false">AD30+AE30+AF30+AH30+AI30+AG30</f>
         <v>0</v>
       </c>
-      <c r="AL30" s="8" t="n">
+      <c r="AL30" s="9" t="n">
         <f aca="false">AK30+AJ30+AC30+AB30+AA30+M30+(N30/2)</f>
         <v>6.3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -3324,77 +3349,76 @@
       <c r="E31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="L31" s="3" t="n">
+      <c r="F31" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M31" s="4" t="n">
+      <c r="M31" s="5" t="n">
         <f aca="false">L31*10</f>
         <v>3.75</v>
       </c>
-      <c r="N31" s="5" t="n">
+      <c r="N31" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P31" s="6" t="n">
+      <c r="O31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P31" s="7" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T31" s="6" t="n">
+      <c r="Q31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U31" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V31" s="6" t="n">
+      <c r="U31" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="W31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="7" t="n">
+      <c r="W31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="8" t="n">
         <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)+SMALL(O31:Y31,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA31" s="4" t="n">
+      <c r="AA31" s="5" t="n">
         <f aca="false">Z31*10</f>
         <v>8.75</v>
       </c>
-      <c r="AD31" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG31" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ31" s="4" t="n">
+      <c r="AD31" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ31" s="5" t="n">
         <f aca="false">AD31+AE31+AF31+AH31+AI31+AG31</f>
         <v>10</v>
       </c>
-      <c r="AL31" s="8" t="n">
+      <c r="AL31" s="9" t="n">
         <f aca="false">AK31+AJ31+AC31+AB31+AA31+M31+(N31/2)</f>
         <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -3409,76 +3433,75 @@
       <c r="E32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="L32" s="3" t="n">
+      <c r="F32" s="15"/>
+      <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M32" s="4" t="n">
+      <c r="M32" s="5" t="n">
         <f aca="false">L32*10</f>
         <v>2.5</v>
       </c>
-      <c r="N32" s="5" t="n">
+      <c r="N32" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P32" s="6" t="n">
+      <c r="P32" s="7" t="n">
         <f aca="false">0.8+1+1+1+0.5</f>
         <v>4.3</v>
       </c>
-      <c r="Q32" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T32" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U32" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" s="6" t="n">
+      <c r="Q32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U32" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W32" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="7" t="n">
+      <c r="W32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="8" t="n">
         <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)+SMALL(O32:Y32,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA32" s="4" t="n">
+      <c r="AA32" s="5" t="n">
         <f aca="false">Z32*10</f>
         <v>8.625</v>
       </c>
-      <c r="AD32" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG32" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ32" s="4" t="n">
+      <c r="AD32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ32" s="5" t="n">
         <f aca="false">AD32+AE32+AF32+AH32+AI32+AG32</f>
         <v>10</v>
       </c>
-      <c r="AL32" s="8" t="n">
+      <c r="AL32" s="9" t="n">
         <f aca="false">AK32+AJ32+AC32+AB32+AA32+M32+(N32/2)</f>
         <v>22.625</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -3493,76 +3516,75 @@
       <c r="E33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F33" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="L33" s="3" t="n">
+      <c r="F33" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" s="4" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M33" s="4" t="n">
+      <c r="M33" s="5" t="n">
         <f aca="false">L33*10</f>
         <v>3.75</v>
       </c>
-      <c r="N33" s="5" t="n">
+      <c r="N33" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P33" s="6" t="n">
+      <c r="P33" s="7" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q33" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T33" s="6" t="n">
+      <c r="Q33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U33" s="17" t="n">
+      <c r="U33" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V33" s="6" t="n">
+      <c r="V33" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W33" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="7" t="n">
+      <c r="W33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8" t="n">
         <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)+SMALL(O33:Y33,3)))/40</f>
         <v>0.84</v>
       </c>
-      <c r="AA33" s="4" t="n">
+      <c r="AA33" s="5" t="n">
         <f aca="false">Z33*10</f>
         <v>8.4</v>
       </c>
-      <c r="AD33" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG33" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ33" s="4" t="n">
+      <c r="AD33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ33" s="5" t="n">
         <f aca="false">AD33+AE33+AF33+AH33+AI33+AG33</f>
         <v>10</v>
       </c>
-      <c r="AL33" s="8" t="n">
+      <c r="AL33" s="9" t="n">
         <f aca="false">AK33+AJ33+AC33+AB33+AA33+M33+(N33/2)</f>
         <v>23.65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -3577,75 +3599,74 @@
       <c r="E34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="L34" s="3" t="n">
+      <c r="F34" s="15"/>
+      <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.125</v>
       </c>
-      <c r="M34" s="4" t="n">
+      <c r="M34" s="5" t="n">
         <f aca="false">L34*10</f>
         <v>1.25</v>
       </c>
-      <c r="N34" s="5" t="n">
+      <c r="N34" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="P34" s="7" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T34" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U34" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V34" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W34" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y34" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="7" t="n">
+      <c r="Q34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="8" t="n">
         <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)+SMALL(O34:Y34,3)))/40</f>
         <v>0.7875</v>
       </c>
-      <c r="AA34" s="4" t="n">
+      <c r="AA34" s="5" t="n">
         <f aca="false">Z34*10</f>
         <v>7.875</v>
       </c>
-      <c r="AD34" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG34" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ34" s="4" t="n">
+      <c r="AD34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG34" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ34" s="5" t="n">
         <f aca="false">AD34+AE34+AF34+AH34+AI34+AG34</f>
         <v>10</v>
       </c>
-      <c r="AL34" s="8" t="n">
+      <c r="AL34" s="9" t="n">
         <f aca="false">AK34+AJ34+AC34+AB34+AA34+M34+(N34/2)</f>
         <v>20.875</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -3660,80 +3681,79 @@
       <c r="E35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="L35" s="3" t="n">
+      <c r="F35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M35" s="4" t="n">
+      <c r="M35" s="5" t="n">
         <f aca="false">L35*10</f>
         <v>3.75</v>
       </c>
-      <c r="N35" s="5" t="n">
+      <c r="N35" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6" t="n">
+      <c r="O35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7" t="n">
         <v>1.1</v>
       </c>
-      <c r="Q35" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T35" s="6" t="n">
+      <c r="Q35" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U35" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="6" t="n">
+      <c r="U35" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="7" t="n">
+      <c r="Y35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="8" t="n">
         <f aca="false">(SUM(O35:Y35)-(SMALL(O35:Y35,2)+SMALL(O35:Y35,1)+SMALL(O35:Y35,3)))/40</f>
         <v>0.5025</v>
       </c>
-      <c r="AA35" s="4" t="n">
+      <c r="AA35" s="5" t="n">
         <f aca="false">Z35*10</f>
         <v>5.025</v>
       </c>
-      <c r="AD35" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG35" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ35" s="4" t="n">
+      <c r="AD35" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ35" s="5" t="n">
         <f aca="false">AD35+AE35+AF35+AH35+AI35+AG35</f>
         <v>10</v>
       </c>
-      <c r="AL35" s="8" t="n">
+      <c r="AL35" s="9" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
         <v>20.275</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0</v>
@@ -3744,77 +3764,79 @@
       <c r="E36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F36" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="L36" s="3" t="n">
+      <c r="F36" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="M36" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="5" t="n">
         <f aca="false">L36*10</f>
-        <v>3.75</v>
-      </c>
-      <c r="N36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6" t="n">
+      <c r="O36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T36" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U36" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="7" t="n">
+      <c r="Q36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U36" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="8" t="n">
         <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)+SMALL(O36:Y36,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA36" s="4" t="n">
+      <c r="AA36" s="5" t="n">
         <f aca="false">Z36*10</f>
         <v>8.625</v>
       </c>
-      <c r="AD36" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG36" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ36" s="4" t="n">
+      <c r="AD36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ36" s="5" t="n">
         <f aca="false">AD36+AE36+AF36+AH36+AI36+AG36</f>
         <v>10</v>
       </c>
-      <c r="AL36" s="8" t="n">
+      <c r="AL36" s="9" t="n">
         <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
-        <v>24.125</v>
+        <v>25.375</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -3829,78 +3851,77 @@
       <c r="E37" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="L37" s="3" t="n">
+      <c r="F37" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M37" s="4" t="n">
+      <c r="M37" s="5" t="n">
         <f aca="false">L37*10</f>
         <v>3.75</v>
       </c>
-      <c r="N37" s="5" t="n">
+      <c r="N37" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P37" s="6" t="n">
+      <c r="P37" s="7" t="n">
         <f aca="false">1+0.5+0.8+0.5+1</f>
         <v>3.8</v>
       </c>
-      <c r="Q37" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T37" s="6" t="n">
+      <c r="Q37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U37" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V37" s="6" t="n">
+      <c r="U37" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W37" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y37" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="7" t="n">
+      <c r="W37" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="8" t="n">
         <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)+SMALL(O37:Y37,3)))/40</f>
         <v>0.816666666675</v>
       </c>
-      <c r="AA37" s="4" t="n">
+      <c r="AA37" s="5" t="n">
         <f aca="false">Z37*10</f>
         <v>8.16666666675</v>
       </c>
-      <c r="AD37" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG37" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ37" s="4" t="n">
+      <c r="AD37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG37" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ37" s="5" t="n">
         <f aca="false">AD37+AE37+AF37+AH37+AI37+AG37</f>
         <v>10</v>
       </c>
-      <c r="AL37" s="8" t="n">
+      <c r="AL37" s="9" t="n">
         <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
         <v>23.41666666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -3915,77 +3936,76 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="L38" s="3" t="n">
+      <c r="F38" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" s="4" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M38" s="4" t="n">
+      <c r="M38" s="5" t="n">
         <f aca="false">L38*10</f>
         <v>3.75</v>
       </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6" t="n">
+      <c r="N38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P38" s="6" t="n">
+      <c r="P38" s="7" t="n">
         <f aca="false">0.7+2+1+0.75</f>
         <v>4.45</v>
       </c>
-      <c r="Q38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T38" s="6" t="n">
+      <c r="Q38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U38" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V38" s="6" t="n">
+      <c r="U38" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W38" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y38" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="7" t="n">
+      <c r="W38" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="8" t="n">
         <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)+SMALL(O38:Y38,3)))/40</f>
         <v>0.727916666675</v>
       </c>
-      <c r="AA38" s="4" t="n">
+      <c r="AA38" s="5" t="n">
         <f aca="false">Z38*10</f>
         <v>7.27916666675</v>
       </c>
-      <c r="AD38" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG38" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ38" s="4" t="n">
+      <c r="AD38" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG38" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ38" s="5" t="n">
         <f aca="false">AD38+AE38+AF38+AH38+AI38+AG38</f>
         <v>10</v>
       </c>
-      <c r="AL38" s="8" t="n">
+      <c r="AL38" s="9" t="n">
         <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
         <v>21.02916666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -4000,77 +4020,76 @@
       <c r="E39" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="L39" s="3" t="n">
+      <c r="F39" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" s="4" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M39" s="4" t="n">
+      <c r="M39" s="5" t="n">
         <f aca="false">L39*10</f>
         <v>3.75</v>
       </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="6" t="n">
+      <c r="N39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P39" s="6" t="n">
+      <c r="P39" s="7" t="n">
         <f aca="false">0.7+2+1+0.75</f>
         <v>4.45</v>
       </c>
-      <c r="Q39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T39" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U39" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V39" s="6" t="n">
+      <c r="Q39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U39" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W39" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y39" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="7" t="n">
+      <c r="W39" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="8" t="n">
         <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)+SMALL(O39:Y39,3)))/40</f>
         <v>0.777916666675</v>
       </c>
-      <c r="AA39" s="4" t="n">
+      <c r="AA39" s="5" t="n">
         <f aca="false">Z39*10</f>
         <v>7.77916666675</v>
       </c>
-      <c r="AD39" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG39" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ39" s="4" t="n">
+      <c r="AD39" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ39" s="5" t="n">
         <f aca="false">AD39+AE39+AF39+AH39+AI39+AG39</f>
         <v>10</v>
       </c>
-      <c r="AL39" s="8" t="n">
+      <c r="AL39" s="9" t="n">
         <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
         <v>21.52916666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -4085,75 +4104,74 @@
       <c r="E40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="L40" s="3" t="n">
+      <c r="F40" s="15"/>
+      <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.125</v>
       </c>
-      <c r="M40" s="4" t="n">
+      <c r="M40" s="5" t="n">
         <f aca="false">L40*10</f>
         <v>1.25</v>
       </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" s="6" t="n">
+      <c r="N40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P40" s="7" t="n">
         <f aca="false">0.7+0.5+1+1+0.5</f>
         <v>3.7</v>
       </c>
-      <c r="Q40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U40" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V40" s="6" t="n">
+      <c r="Q40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W40" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="7" t="n">
+      <c r="W40" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="8" t="n">
         <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)+SMALL(O40:Y40,3)))/40</f>
         <v>0.854166666675</v>
       </c>
-      <c r="AA40" s="4" t="n">
+      <c r="AA40" s="5" t="n">
         <f aca="false">Z40*10</f>
         <v>8.54166666675</v>
       </c>
-      <c r="AD40" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG40" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ40" s="4" t="n">
+      <c r="AD40" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG40" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ40" s="5" t="n">
         <f aca="false">AD40+AE40+AF40+AH40+AI40+AG40</f>
         <v>10</v>
       </c>
-      <c r="AL40" s="8" t="n">
+      <c r="AL40" s="9" t="n">
         <f aca="false">AK40+AJ40+AC40+AB40+AA40+M40+(N40/2)</f>
         <v>19.79166666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -4168,77 +4186,76 @@
       <c r="E41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F41" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="L41" s="3" t="n">
+      <c r="F41" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M41" s="4" t="n">
+      <c r="M41" s="5" t="n">
         <f aca="false">L41*10</f>
         <v>2.5</v>
       </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="6" t="n">
+      <c r="N41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7" t="n">
         <f aca="false">1+1+0.7+0.5+1</f>
         <v>4.2</v>
       </c>
-      <c r="Q41" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" s="6" t="n">
+      <c r="Q41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U41" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="6" t="n">
+      <c r="U41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="7" t="n">
+      <c r="Y41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="8" t="n">
         <f aca="false">(SUM(O41:Y41)-(SMALL(O41:Y41,2)+SMALL(O41:Y41,1)+SMALL(O41:Y41,3)))/40</f>
         <v>0.58</v>
       </c>
-      <c r="AA41" s="4" t="n">
+      <c r="AA41" s="5" t="n">
         <f aca="false">Z41*10</f>
         <v>5.8</v>
       </c>
-      <c r="AD41" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG41" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ41" s="4" t="n">
+      <c r="AD41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG41" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="5" t="n">
         <f aca="false">AD41+AE41+AF41+AH41+AI41+AG41</f>
         <v>10</v>
       </c>
-      <c r="AL41" s="8" t="n">
+      <c r="AL41" s="9" t="n">
         <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
         <v>18.3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -4253,75 +4270,74 @@
       <c r="E42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="L42" s="3" t="n">
+      <c r="F42" s="15"/>
+      <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M42" s="4" t="n">
+      <c r="M42" s="5" t="n">
         <f aca="false">L42*10</f>
         <v>2.5</v>
       </c>
-      <c r="N42" s="5" t="n">
+      <c r="N42" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O42" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P42" s="6" t="n">
+      <c r="O42" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P42" s="7" t="n">
         <f aca="false">1+1+1+0.5+0.6</f>
         <v>4.1</v>
       </c>
-      <c r="Q42" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6" t="n">
+      <c r="Q42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="17" t="n">
+      <c r="U42" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V42" s="6" t="n">
+      <c r="V42" s="7" t="n">
         <v>4</v>
       </c>
       <c r="W42" s="0"/>
-      <c r="Y42" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="7" t="n">
+      <c r="Y42" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="8" t="n">
         <f aca="false">(SUM(O42:Y42)-(SMALL(O42:Y42,2)+SMALL(O42:Y42,1)+SMALL(O42:Y42,3)))/40</f>
         <v>0.665</v>
       </c>
-      <c r="AA42" s="4" t="n">
+      <c r="AA42" s="5" t="n">
         <f aca="false">Z42*10</f>
         <v>6.65</v>
       </c>
-      <c r="AD42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="16"/>
-      <c r="AJ42" s="4" t="n">
+      <c r="AD42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="17"/>
+      <c r="AJ42" s="5" t="n">
         <f aca="false">AD42+AE42+AF42+AH42+AI42+AG42</f>
         <v>0</v>
       </c>
-      <c r="AL42" s="8" t="n">
+      <c r="AL42" s="9" t="n">
         <f aca="false">AK42+AJ42+AC42+AB42+AA42+M42+(N42/2)</f>
         <v>9.9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>0</v>
@@ -4332,75 +4348,77 @@
       <c r="E43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="L43" s="3" t="n">
+      <c r="F43" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" s="4" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="M43" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="5" t="n">
         <f aca="false">L43*10</f>
-        <v>3.75</v>
-      </c>
-      <c r="N43" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" s="6" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O43" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T43" s="6" t="n">
+      <c r="O43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U43" s="17" t="n">
+      <c r="U43" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V43" s="6" t="n">
+      <c r="V43" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W43" s="0"/>
-      <c r="Y43" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="7" t="n">
+      <c r="Y43" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="8" t="n">
         <f aca="false">(SUM(O43:Y43)-(SMALL(O43:Y43,2)+SMALL(O43:Y43,1)+SMALL(O43:Y43,3)))/40</f>
         <v>0.4125</v>
       </c>
-      <c r="AA43" s="4" t="n">
+      <c r="AA43" s="5" t="n">
         <f aca="false">Z43*10</f>
         <v>4.125</v>
       </c>
-      <c r="AD43" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG43" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ43" s="4" t="n">
+      <c r="AD43" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG43" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ43" s="5" t="n">
         <f aca="false">AD43+AE43+AF43+AH43+AI43+AG43</f>
         <v>10</v>
       </c>
-      <c r="AL43" s="8" t="n">
+      <c r="AL43" s="9" t="n">
         <f aca="false">AK43+AJ43+AC43+AB43+AA43+M43+(N43/2)</f>
-        <v>19.625</v>
+        <v>20.875</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -4415,76 +4433,75 @@
       <c r="E44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F44" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" s="14"/>
-      <c r="L44" s="3" t="n">
+      <c r="F44" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M44" s="4" t="n">
+      <c r="M44" s="5" t="n">
         <f aca="false">L44*10</f>
         <v>3.75</v>
       </c>
-      <c r="N44" s="5" t="n">
+      <c r="N44" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="6" t="n">
+      <c r="O44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="6" t="n">
+      <c r="Q44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U44" s="17" t="n">
+      <c r="U44" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V44" s="6" t="n">
+      <c r="V44" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W44" s="6" t="n">
+      <c r="W44" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y44" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="7" t="n">
+      <c r="Y44" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="8" t="n">
         <f aca="false">(SUM(O44:Y44)-(SMALL(O44:Y44,2)+SMALL(O44:Y44,1)+SMALL(O44:Y44,3)))/40</f>
         <v>0.451666666675</v>
       </c>
-      <c r="AA44" s="4" t="n">
+      <c r="AA44" s="5" t="n">
         <f aca="false">Z44*10</f>
         <v>4.51666666675</v>
       </c>
-      <c r="AD44" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG44" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ44" s="4" t="n">
+      <c r="AD44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG44" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ44" s="5" t="n">
         <f aca="false">AD44+AE44+AF44+AH44+AI44+AG44</f>
         <v>10</v>
       </c>
-      <c r="AL44" s="8" t="n">
+      <c r="AL44" s="9" t="n">
         <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
         <v>19.76666666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -4499,76 +4516,75 @@
       <c r="E45" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F45" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" s="14"/>
-      <c r="L45" s="3" t="n">
+      <c r="F45" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M45" s="4" t="n">
+      <c r="M45" s="5" t="n">
         <f aca="false">L45*10</f>
         <v>3.75</v>
       </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="6" t="n">
+      <c r="N45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q45" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T45" s="6" t="n">
+      <c r="Q45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U45" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V45" s="6" t="n">
+      <c r="U45" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W45" s="6" t="n">
+      <c r="W45" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y45" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="7" t="n">
+      <c r="Y45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="8" t="n">
         <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)+SMALL(O45:Y45,3)))/40</f>
         <v>0.791666666675</v>
       </c>
-      <c r="AA45" s="4" t="n">
+      <c r="AA45" s="5" t="n">
         <f aca="false">Z45*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AD45" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG45" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ45" s="4" t="n">
+      <c r="AD45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG45" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ45" s="5" t="n">
         <f aca="false">AD45+AE45+AF45+AH45+AI45+AG45</f>
         <v>10</v>
       </c>
-      <c r="AL45" s="8" t="n">
+      <c r="AL45" s="9" t="n">
         <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
         <v>21.66666666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -4583,74 +4599,73 @@
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" s="14"/>
-      <c r="L46" s="3" t="n">
+      <c r="F46" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" s="4" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M46" s="4" t="n">
+      <c r="M46" s="5" t="n">
         <f aca="false">L46*10</f>
         <v>2.5</v>
       </c>
-      <c r="N46" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O46" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T46" s="6" t="n">
+      <c r="N46" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U46" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="6" t="n">
+      <c r="U46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7" t="n">
         <v>5</v>
       </c>
       <c r="W46" s="0"/>
-      <c r="Y46" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="7" t="n">
+      <c r="Y46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="8" t="n">
         <f aca="false">(SUM(O46:Y46)-(SMALL(O46:Y46,2)+SMALL(O46:Y46,1)+SMALL(O46:Y46,3)))/40</f>
         <v>0.55</v>
       </c>
-      <c r="AA46" s="4" t="n">
+      <c r="AA46" s="5" t="n">
         <f aca="false">Z46*10</f>
         <v>5.5</v>
       </c>
-      <c r="AD46" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG46" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ46" s="4" t="n">
+      <c r="AD46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG46" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ46" s="5" t="n">
         <f aca="false">AD46+AE46+AF46+AH46+AI46+AG46</f>
         <v>10</v>
       </c>
-      <c r="AL46" s="8" t="n">
+      <c r="AL46" s="9" t="n">
         <f aca="false">AK46+AJ46+AC46+AB46+AA46+M46+(N46/2)</f>
         <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -4665,76 +4680,75 @@
       <c r="E47" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" s="14"/>
-      <c r="L47" s="3" t="n">
+      <c r="F47" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" s="4" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M47" s="4" t="n">
+      <c r="M47" s="5" t="n">
         <f aca="false">L47*10</f>
         <v>3.75</v>
       </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T47" s="6" t="n">
+      <c r="N47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U47" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V47" s="6" t="n">
+      <c r="U47" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W47" s="6" t="n">
+      <c r="W47" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="7" t="n">
+      <c r="Y47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="8" t="n">
         <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)+SMALL(O47:Y47,3)))/40</f>
         <v>0.791666666675</v>
       </c>
-      <c r="AA47" s="4" t="n">
+      <c r="AA47" s="5" t="n">
         <f aca="false">Z47*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AD47" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG47" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ47" s="4" t="n">
+      <c r="AD47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ47" s="5" t="n">
         <f aca="false">AD47+AE47+AF47+AH47+AI47+AG47</f>
         <v>10</v>
       </c>
-      <c r="AL47" s="8" t="n">
+      <c r="AL47" s="9" t="n">
         <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
         <v>21.66666666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -4749,77 +4763,76 @@
       <c r="E48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="L48" s="3" t="n">
+      <c r="F48" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" s="4" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
         <v>0.125</v>
       </c>
-      <c r="M48" s="4" t="n">
+      <c r="M48" s="5" t="n">
         <f aca="false">L48*10</f>
         <v>1.25</v>
       </c>
-      <c r="N48" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O48" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="6" t="n">
+      <c r="N48" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7" t="n">
         <f aca="false">1.5+0.8</f>
         <v>2.3</v>
       </c>
-      <c r="Q48" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T48" s="6" t="n">
+      <c r="Q48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U48" s="17" t="n">
+      <c r="U48" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="V48" s="6" t="n">
+      <c r="V48" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W48" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="7" t="n">
+      <c r="W48" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="8" t="n">
         <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)+SMALL(O48:Y48,3)))/40</f>
         <v>0.820833333325</v>
       </c>
-      <c r="AA48" s="4" t="n">
+      <c r="AA48" s="5" t="n">
         <f aca="false">Z48*10</f>
         <v>8.20833333325</v>
       </c>
-      <c r="AD48" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG48" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ48" s="4" t="n">
+      <c r="AD48" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG48" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ48" s="5" t="n">
         <f aca="false">AD48+AE48+AF48+AH48+AI48+AG48</f>
         <v>10</v>
       </c>
-      <c r="AL48" s="8" t="n">
+      <c r="AL48" s="9" t="n">
         <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
         <v>21.45833333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -4834,72 +4847,71 @@
       <c r="E49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14"/>
-      <c r="L49" s="3" t="n">
+      <c r="F49" s="15"/>
+      <c r="L49" s="4" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M49" s="4" t="n">
+      <c r="M49" s="5" t="n">
         <f aca="false">L49*10</f>
         <v>2.5</v>
       </c>
-      <c r="N49" s="5" t="n">
+      <c r="N49" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="O49" s="6" t="n">
+      <c r="O49" s="7" t="n">
         <v>2.7</v>
       </c>
-      <c r="P49" s="6" t="n">
+      <c r="P49" s="7" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q49" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T49" s="6" t="n">
+      <c r="Q49" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V49" s="6" t="n">
+      <c r="U49" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W49" s="0"/>
-      <c r="Y49" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="7" t="n">
+      <c r="Y49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="8" t="n">
         <f aca="false">(SUM(O49:Y49)-(SMALL(O49:Y49,2)+SMALL(O49:Y49,1)+SMALL(O49:Y49,3)))/40</f>
         <v>0.51</v>
       </c>
-      <c r="AA49" s="4" t="n">
+      <c r="AA49" s="5" t="n">
         <f aca="false">Z49*10</f>
         <v>5.1</v>
       </c>
-      <c r="AD49" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG49" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ49" s="4" t="n">
+      <c r="AD49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG49" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ49" s="5" t="n">
         <f aca="false">AD49+AE49+AF49+AH49+AI49+AG49</f>
         <v>10</v>
       </c>
-      <c r="AL49" s="8" t="n">
+      <c r="AL49" s="9" t="n">
         <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
         <v>19.35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -4914,76 +4926,75 @@
       <c r="E50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" s="14"/>
-      <c r="L50" s="3" t="n">
+      <c r="F50" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" s="4" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
         <v>0.325</v>
       </c>
-      <c r="M50" s="4" t="n">
+      <c r="M50" s="5" t="n">
         <f aca="false">L50*10</f>
         <v>3.25</v>
       </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="6" t="n">
+      <c r="N50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q50" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T50" s="6" t="n">
+      <c r="Q50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U50" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V50" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W50" s="6" t="n">
+      <c r="U50" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W50" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Y50" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z50" s="7" t="n">
+      <c r="Y50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="8" t="n">
         <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)+SMALL(O50:Y50,3)))/40</f>
         <v>0.8</v>
       </c>
-      <c r="AA50" s="4" t="n">
+      <c r="AA50" s="5" t="n">
         <f aca="false">Z50*10</f>
         <v>8</v>
       </c>
-      <c r="AD50" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ50" s="4" t="n">
+      <c r="AD50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG50" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ50" s="5" t="n">
         <f aca="false">AD50+AE50+AF50+AH50+AI50+AG50</f>
         <v>10</v>
       </c>
-      <c r="AL50" s="8" t="n">
+      <c r="AL50" s="9" t="n">
         <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
         <v>21.25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -4998,71 +5009,70 @@
       <c r="E51" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
-      <c r="L51" s="3" t="n">
+      <c r="F51" s="15"/>
+      <c r="L51" s="4" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M51" s="4" t="n">
+      <c r="M51" s="5" t="n">
         <f aca="false">L51*10</f>
         <v>2.5</v>
       </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T51" s="6" t="n">
+      <c r="N51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U51" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="6" t="n">
+      <c r="U51" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z51" s="7" t="n">
+      <c r="Y51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="8" t="n">
         <f aca="false">(SUM(O51:Y51)-(SMALL(O51:Y51,2)+SMALL(O51:Y51,1)+SMALL(O51:Y51,3)))/40</f>
         <v>0.4875</v>
       </c>
-      <c r="AA51" s="4" t="n">
+      <c r="AA51" s="5" t="n">
         <f aca="false">Z51*10</f>
         <v>4.875</v>
       </c>
-      <c r="AD51" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ51" s="4" t="n">
+      <c r="AD51" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG51" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ51" s="5" t="n">
         <f aca="false">AD51+AE51+AF51+AH51+AI51+AG51</f>
         <v>10</v>
       </c>
-      <c r="AL51" s="8" t="n">
+      <c r="AL51" s="9" t="n">
         <f aca="false">AK51+AJ51+AC51+AB51+AA51+M51+(N51/2)</f>
         <v>17.375</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -5077,213 +5087,209 @@
       <c r="E52" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
-      <c r="L52" s="3" t="n">
+      <c r="F52" s="15"/>
+      <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M52" s="4" t="n">
+      <c r="M52" s="5" t="n">
         <f aca="false">L52*10</f>
         <v>2.5</v>
       </c>
-      <c r="N52" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6" t="n">
+      <c r="N52" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7" t="n">
         <v>2.9</v>
       </c>
-      <c r="Q52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="6" t="n">
+      <c r="Q52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U52" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="V52" s="6" t="n">
+      <c r="U52" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="Y52" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="7" t="n">
+      <c r="Y52" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="8" t="n">
         <f aca="false">(SUM(O52:Y52)-(SMALL(O52:Y52,2)+SMALL(O52:Y52,1)+SMALL(O52:Y52,3)))/40</f>
         <v>0.439166666675</v>
       </c>
-      <c r="AA52" s="4" t="n">
+      <c r="AA52" s="5" t="n">
         <f aca="false">Z52*10</f>
         <v>4.39166666675</v>
       </c>
-      <c r="AD52" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG52" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ52" s="4" t="n">
+      <c r="AD52" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG52" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ52" s="5" t="n">
         <f aca="false">AD52+AE52+AF52+AH52+AI52+AG52</f>
         <v>10</v>
       </c>
-      <c r="AL52" s="8" t="n">
+      <c r="AL52" s="9" t="n">
         <f aca="false">AK52+AJ52+AC52+AB52+AA52+M52+(N52/2)</f>
         <v>18.89166666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="AG53" s="19"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="AG53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26"/>
-      <c r="E57" s="27" t="s">
+      <c r="A57" s="28"/>
+      <c r="E57" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="G57" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26"/>
-      <c r="E58" s="28" t="s">
+      <c r="A58" s="28"/>
+      <c r="E58" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="28" t="n">
+      <c r="G58" s="32" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26"/>
-      <c r="E59" s="28" t="s">
+      <c r="A59" s="28"/>
+      <c r="E59" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="28" t="n">
+      <c r="G59" s="32" t="n">
         <v>3.67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26"/>
-      <c r="E60" s="28" t="s">
+      <c r="A60" s="28"/>
+      <c r="E60" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G60" s="28" t="n">
+      <c r="G60" s="32" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26"/>
-      <c r="E61" s="28" t="s">
+      <c r="A61" s="28"/>
+      <c r="E61" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G61" s="28" t="n">
+      <c r="G61" s="32" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26"/>
-      <c r="E62" s="28" t="s">
+      <c r="A62" s="28"/>
+      <c r="E62" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G62" s="28" t="n">
+      <c r="G62" s="32" t="n">
         <v>2.67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="26"/>
-      <c r="E63" s="28" t="s">
+      <c r="A63" s="28"/>
+      <c r="E63" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G63" s="28" t="n">
+      <c r="G63" s="32" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="26"/>
-      <c r="E64" s="28" t="s">
+      <c r="A64" s="28"/>
+      <c r="E64" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G64" s="28" t="n">
+      <c r="G64" s="32" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="26"/>
-      <c r="E65" s="28" t="s">
+      <c r="A65" s="28"/>
+      <c r="E65" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="28" t="n">
+      <c r="G65" s="32" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26"/>
-      <c r="E66" s="28" t="s">
+      <c r="A66" s="28"/>
+      <c r="E66" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G66" s="28" t="n">
+      <c r="G66" s="32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -421,7 +421,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -683,7 +683,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,7 +691,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,32 +775,31 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="15" style="7" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="7" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="6" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="6" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="6" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="5" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="9" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="22" min="15" style="7" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="7" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="6" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="5" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="9" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,13 +939,16 @@
       <c r="F2" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G2" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="5" t="n">
         <f aca="false">L2*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N2" s="6" t="n">
         <v>4</v>
@@ -1000,7 +1002,7 @@
       </c>
       <c r="AL2" s="9" t="n">
         <f aca="false">AK2+AJ2+AC2+AB2+AA2+M2+(N2/2)</f>
-        <v>21.2</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,6 +1024,7 @@
       <c r="F3" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G3" s="15"/>
       <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
         <v>0.375</v>
@@ -1105,13 +1108,16 @@
       <c r="F4" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G4" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="5" t="n">
         <f aca="false">L4*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>4</v>
@@ -1166,7 +1172,7 @@
       </c>
       <c r="AL4" s="9" t="n">
         <f aca="false">AK4+AJ4+AC4+AB4+AA4+M4+(N4/2)</f>
-        <v>23.2</v>
+        <v>24.45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,6 +1194,7 @@
       <c r="F5" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G5" s="15"/>
       <c r="L5" s="4" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
         <v>0.375</v>
@@ -1257,7 +1264,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
@@ -1268,14 +1275,19 @@
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L6" s="4" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
-        <v>0.225</v>
+        <v>0.475</v>
       </c>
       <c r="M6" s="5" t="n">
         <f aca="false">L6*10</f>
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -1329,7 +1341,7 @@
       </c>
       <c r="AL6" s="9" t="n">
         <f aca="false">AK6+AJ6+AC6+AB6+AA6+M6+(N6/2)</f>
-        <v>10.54166666675</v>
+        <v>13.04166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,13 +1363,16 @@
       <c r="F7" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G7" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L7" s="4" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="5" t="n">
         <f aca="false">L7*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>3.5</v>
@@ -1412,7 +1427,7 @@
       </c>
       <c r="AL7" s="9" t="n">
         <f aca="false">AK7+AJ7+AC7+AB7+AA7+M7+(N7/2)</f>
-        <v>23.79166666675</v>
+        <v>25.04166666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,13 +1449,16 @@
       <c r="F8" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G8" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L8" s="4" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M8" s="5" t="n">
         <f aca="false">L8*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>4</v>
@@ -1496,7 +1514,7 @@
       </c>
       <c r="AL8" s="9" t="n">
         <f aca="false">AK8+AJ8+AC8+AB8+AA8+M8+(N8/2)</f>
-        <v>24.5</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,14 +1533,17 @@
       <c r="E9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M9" s="5" t="n">
         <f aca="false">L9*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4</v>
@@ -1574,7 +1595,7 @@
       </c>
       <c r="AL9" s="9" t="n">
         <f aca="false">AK9+AJ9+AC9+AB9+AA9+M9+(N9/2)</f>
-        <v>9.9</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,13 +1617,16 @@
       <c r="F10" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G10" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L10" s="4" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M10" s="5" t="n">
         <f aca="false">L10*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>2</v>
@@ -1657,7 +1681,7 @@
       </c>
       <c r="AL10" s="9" t="n">
         <f aca="false">AK10+AJ10+AC10+AB10+AA10+M10+(N10/2)</f>
-        <v>23.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,13 +1703,16 @@
       <c r="F11" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G11" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L11" s="4" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M11" s="5" t="n">
         <f aca="false">L11*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>2</v>
@@ -1740,7 +1767,7 @@
       </c>
       <c r="AL11" s="9" t="n">
         <f aca="false">AK11+AJ11+AC11+AB11+AA11+M11+(N11/2)</f>
-        <v>23.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,13 +1789,16 @@
       <c r="F12" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G12" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L12" s="4" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M12" s="5" t="n">
         <f aca="false">L12*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>1.5</v>
@@ -1823,7 +1853,7 @@
       </c>
       <c r="AL12" s="9" t="n">
         <f aca="false">AK12+AJ12+AC12+AB12+AA12+M12+(N12/2)</f>
-        <v>21.66666666675</v>
+        <v>22.91666666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,13 +1875,16 @@
       <c r="F13" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G13" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L13" s="4" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="5" t="n">
         <f aca="false">L13*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N13" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -1908,7 +1941,7 @@
       </c>
       <c r="AL13" s="9" t="n">
         <f aca="false">AK13+AJ13+AC13+AB13+AA13+M13+(N13/2)</f>
-        <v>23.66666666675</v>
+        <v>24.91666666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,13 +1963,16 @@
       <c r="F14" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G14" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L14" s="4" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M14" s="5" t="n">
         <f aca="false">L14*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>4</v>
@@ -1991,7 +2027,7 @@
       </c>
       <c r="AL14" s="9" t="n">
         <f aca="false">AK14+AJ14+AC14+AB14+AA14+M14+(N14/2)</f>
-        <v>24.16666666675</v>
+        <v>25.41666666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,13 +2049,16 @@
       <c r="F15" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G15" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L15" s="4" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M15" s="5" t="n">
         <f aca="false">L15*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1.5</v>
@@ -2075,7 +2114,7 @@
       </c>
       <c r="AL15" s="9" t="n">
         <f aca="false">AK15+AJ15+AC15+AB15+AA15+M15+(N15/2)</f>
-        <v>22.75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,13 +2136,16 @@
       <c r="F16" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G16" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L16" s="4" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">L16*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N16" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -2160,7 +2202,7 @@
       </c>
       <c r="AL16" s="9" t="n">
         <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
-        <v>22.8</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,13 +2224,16 @@
       <c r="F17" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G17" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L17" s="4" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">L17*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>1.5</v>
@@ -2244,7 +2289,7 @@
       </c>
       <c r="AL17" s="9" t="n">
         <f aca="false">AK17+AJ17+AC17+AB17+AA17+M17+(N17/2)</f>
-        <v>22.75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,14 +2308,17 @@
       <c r="E18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M18" s="5" t="n">
         <f aca="false">L18*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N18" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2324,7 +2372,7 @@
       </c>
       <c r="AL18" s="9" t="n">
         <f aca="false">AK18+AJ18+AC18+AB18+AA18+M18+(N18/2)</f>
-        <v>21.4</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,6 +2394,7 @@
       <c r="F19" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G19" s="15"/>
       <c r="L19" s="4" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
         <v>0.375</v>
@@ -2416,7 +2465,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5</v>
@@ -2427,14 +2476,19 @@
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L20" s="4" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M20" s="5" t="n">
         <f aca="false">L20*10</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N20" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2490,7 +2544,7 @@
       </c>
       <c r="AL20" s="9" t="n">
         <f aca="false">AK20+AJ20+AC20+AB20+AA20+M20+(N20/2)</f>
-        <v>22.625</v>
+        <v>25.125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,14 +2563,17 @@
       <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15"/>
       <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M21" s="5" t="n">
         <f aca="false">L21*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>3</v>
@@ -2568,7 +2625,7 @@
       </c>
       <c r="AL21" s="9" t="n">
         <f aca="false">AK21+AJ21+AC21+AB21+AA21+M21+(N21/2)</f>
-        <v>13.95</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2721,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0</v>
@@ -2676,15 +2733,18 @@
         <v>5</v>
       </c>
       <c r="F23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15" t="n">
         <v>5</v>
       </c>
       <c r="L23" s="4" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M23" s="5" t="n">
         <f aca="false">L23*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N23" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -2741,7 +2801,7 @@
       </c>
       <c r="AL23" s="9" t="n">
         <f aca="false">AK23+AJ23+AC23+AB23+AA23+M23+(N23/2)</f>
-        <v>23</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,7 +2809,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0</v>
@@ -2761,15 +2821,18 @@
         <v>5</v>
       </c>
       <c r="F24" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="15" t="n">
         <v>5</v>
       </c>
       <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M24" s="5" t="n">
         <f aca="false">L24*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N24" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -2825,7 +2888,7 @@
       </c>
       <c r="AL24" s="9" t="n">
         <f aca="false">AK24+AJ24+AC24+AB24+AA24+M24+(N24/2)</f>
-        <v>22.625</v>
+        <v>23.875</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,6 +2997,7 @@
       <c r="F26" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G26" s="15"/>
       <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
         <v>0.375</v>
@@ -3191,6 +3255,7 @@
       <c r="F29" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G29" s="15"/>
       <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.375</v>
@@ -3271,7 +3336,10 @@
       <c r="E30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15"/>
       <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
@@ -3352,6 +3420,7 @@
       <c r="F31" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G31" s="15"/>
       <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
         <v>0.375</v>
@@ -3433,7 +3502,10 @@
       <c r="E32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15"/>
       <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.25</v>
@@ -3519,6 +3591,7 @@
       <c r="F33" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G33" s="15"/>
       <c r="L33" s="4" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.375</v>
@@ -3599,7 +3672,10 @@
       <c r="E34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15"/>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.125</v>
@@ -3670,7 +3746,7 @@
         <v>71</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0</v>
@@ -3682,15 +3758,18 @@
         <v>5</v>
       </c>
       <c r="F35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="15" t="n">
         <v>5</v>
       </c>
       <c r="L35" s="4" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M35" s="5" t="n">
         <f aca="false">L35*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>3</v>
@@ -3745,7 +3824,7 @@
       </c>
       <c r="AL35" s="9" t="n">
         <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>20.275</v>
+        <v>21.525</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,6 +3933,7 @@
       <c r="F37" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G37" s="15"/>
       <c r="L37" s="4" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
         <v>0.375</v>
@@ -3939,6 +4019,7 @@
       <c r="F38" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G38" s="15"/>
       <c r="L38" s="4" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
         <v>0.375</v>
@@ -4023,6 +4104,7 @@
       <c r="F39" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G39" s="15"/>
       <c r="L39" s="4" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
         <v>0.375</v>
@@ -4104,7 +4186,10 @@
       <c r="E40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15"/>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.125</v>
@@ -4175,7 +4260,7 @@
         <v>77</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0</v>
@@ -4187,15 +4272,18 @@
         <v>5</v>
       </c>
       <c r="F41" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="15" t="n">
         <v>5</v>
       </c>
       <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M41" s="5" t="n">
         <f aca="false">L41*10</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0</v>
@@ -4251,7 +4339,7 @@
       </c>
       <c r="AL41" s="9" t="n">
         <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
-        <v>18.3</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,14 +4358,17 @@
       <c r="E42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15"/>
       <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M42" s="5" t="n">
         <f aca="false">L42*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>1.5</v>
@@ -4329,7 +4420,7 @@
       </c>
       <c r="AL42" s="9" t="n">
         <f aca="false">AK42+AJ42+AC42+AB42+AA42+M42+(N42/2)</f>
-        <v>9.9</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,13 +4527,16 @@
       <c r="F44" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G44" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M44" s="5" t="n">
         <f aca="false">L44*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>3</v>
@@ -4497,7 +4591,7 @@
       </c>
       <c r="AL44" s="9" t="n">
         <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
-        <v>19.76666666675</v>
+        <v>21.01666666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,7 +4599,7 @@
         <v>81</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>0</v>
@@ -4519,6 +4613,7 @@
       <c r="F45" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G45" s="15"/>
       <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
         <v>0.375</v>
@@ -4602,13 +4697,16 @@
       <c r="F46" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G46" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L46" s="4" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M46" s="5" t="n">
         <f aca="false">L46*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>4</v>
@@ -4661,7 +4759,7 @@
       </c>
       <c r="AL46" s="9" t="n">
         <f aca="false">AK46+AJ46+AC46+AB46+AA46+M46+(N46/2)</f>
-        <v>20</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4683,13 +4781,16 @@
       <c r="F47" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G47" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L47" s="4" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M47" s="5" t="n">
         <f aca="false">L47*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0</v>
@@ -4744,7 +4845,7 @@
       </c>
       <c r="AL47" s="9" t="n">
         <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
-        <v>21.66666666675</v>
+        <v>22.91666666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,13 +4867,16 @@
       <c r="F48" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G48" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L48" s="4" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M48" s="5" t="n">
         <f aca="false">L48*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>4</v>
@@ -4828,7 +4932,7 @@
       </c>
       <c r="AL48" s="9" t="n">
         <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
-        <v>21.45833333325</v>
+        <v>22.70833333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,14 +4951,17 @@
       <c r="E49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15"/>
       <c r="L49" s="4" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M49" s="5" t="n">
         <f aca="false">L49*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>3.5</v>
@@ -4907,7 +5014,7 @@
       </c>
       <c r="AL49" s="9" t="n">
         <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
-        <v>19.35</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,13 +5022,13 @@
         <v>86</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>5</v>
@@ -4929,13 +5036,14 @@
       <c r="F50" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="G50" s="15"/>
       <c r="L50" s="4" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.325</v>
+        <v>0.375</v>
       </c>
       <c r="M50" s="5" t="n">
         <f aca="false">L50*10</f>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
@@ -4990,7 +5098,7 @@
       </c>
       <c r="AL50" s="9" t="n">
         <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
-        <v>21.25</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,7 +5117,10 @@
       <c r="E51" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="15"/>
+      <c r="F51" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15"/>
       <c r="L51" s="4" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>
@@ -5087,7 +5198,10 @@
       <c r="E52" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="15"/>
+      <c r="F52" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15"/>
       <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
         <v>0.25</v>
@@ -5153,17 +5267,20 @@
       <c r="A53" s="0"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
+      <c r="G53" s="15"/>
       <c r="AG53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">Registered Trainee Name</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">Quiz (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mids (50)</t>
   </si>
   <si>
     <t xml:space="preserve">Mids (15%)</t>
@@ -772,34 +775,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:66"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="22" min="15" style="7" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="7" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="6" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="5" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="9" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="38" min="37" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,12 +915,14 @@
       <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="12"/>
-      <c r="AMJ1" s="0"/>
+      <c r="AM1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>5</v>
@@ -990,24 +990,31 @@
         <f aca="false">Z2*10</f>
         <v>5.45</v>
       </c>
-      <c r="AD2" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ2" s="5" t="n">
-        <f aca="false">AD2+AE2+AF2+AH2+AI2+AG2</f>
+      <c r="AB2" s="5" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <f aca="false">(AB2/50)*15 + 1.302</f>
+        <v>12.252</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <f aca="false">AE2+AF2+AG2+AI2+AJ2+AH2</f>
         <v>10</v>
       </c>
-      <c r="AL2" s="9" t="n">
-        <f aca="false">AK2+AJ2+AC2+AB2+AA2+M2+(N2/2)</f>
-        <v>22.45</v>
+      <c r="AM2" s="9" t="n">
+        <f aca="false">AL2+AK2+AD2+AC2+AA2+M2+(N2/2)</f>
+        <v>34.702</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3</v>
@@ -1074,24 +1081,31 @@
         <f aca="false">Z3*10</f>
         <v>8.08333333325</v>
       </c>
-      <c r="AD3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="5" t="n">
-        <f aca="false">AD3+AE3+AF3+AH3+AI3+AG3</f>
+      <c r="AB3" s="5" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <f aca="false">(AB3/50)*15 + 1.302</f>
+        <v>10.401</v>
+      </c>
+      <c r="AE3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <f aca="false">AE3+AF3+AG3+AI3+AJ3+AH3</f>
         <v>10</v>
       </c>
-      <c r="AL3" s="9" t="n">
-        <f aca="false">AK3+AJ3+AC3+AB3+AA3+M3+(N3/2)</f>
-        <v>22.58333333325</v>
+      <c r="AM3" s="9" t="n">
+        <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
+        <v>32.98433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>5</v>
@@ -1160,24 +1174,31 @@
         <f aca="false">Z4*10</f>
         <v>7.45</v>
       </c>
-      <c r="AD4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="5" t="n">
-        <f aca="false">AD4+AE4+AF4+AH4+AI4+AG4</f>
+      <c r="AB4" s="5" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <f aca="false">(AB4/50)*15 + 1.302</f>
+        <v>11.652</v>
+      </c>
+      <c r="AE4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <f aca="false">AE4+AF4+AG4+AI4+AJ4+AH4</f>
         <v>10</v>
       </c>
-      <c r="AL4" s="9" t="n">
-        <f aca="false">AK4+AJ4+AC4+AB4+AA4+M4+(N4/2)</f>
-        <v>24.45</v>
+      <c r="AM4" s="9" t="n">
+        <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
+        <v>36.102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>4</v>
@@ -1244,24 +1265,31 @@
         <f aca="false">Z5*10</f>
         <v>7.58333333325</v>
       </c>
-      <c r="AD5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="5" t="n">
-        <f aca="false">AD5+AE5+AF5+AH5+AI5+AG5</f>
+      <c r="AB5" s="5" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <f aca="false">(AB5/50)*15 + 1.302</f>
+        <v>11.25</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <f aca="false">AE5+AF5+AG5+AI5+AJ5+AH5</f>
         <v>10</v>
       </c>
-      <c r="AL5" s="9" t="n">
-        <f aca="false">AK5+AJ5+AC5+AB5+AA5+M5+(N5/2)</f>
-        <v>22.08333333325</v>
+      <c r="AM5" s="9" t="n">
+        <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
+        <v>33.33333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>5</v>
@@ -1331,22 +1359,29 @@
         <f aca="false">Z6*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AD6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="19"/>
-      <c r="AJ6" s="5" t="n">
-        <f aca="false">AD6+AE6+AF6+AH6+AI6+AG6</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="9" t="n">
-        <f aca="false">AK6+AJ6+AC6+AB6+AA6+M6+(N6/2)</f>
-        <v>13.04166666675</v>
+      <c r="AB6" s="5" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <f aca="false">(AB6/50)*15 + 1.302</f>
+        <v>12.6</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="19"/>
+      <c r="AK6" s="5" t="n">
+        <f aca="false">AE6+AF6+AG6+AI6+AJ6+AH6</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9" t="n">
+        <f aca="false">AL6+AK6+AD6+AC6+AA6+M6+(N6/2)</f>
+        <v>25.64166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>3</v>
@@ -1415,24 +1450,28 @@
         <f aca="false">Z7*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AD7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ7" s="5" t="n">
-        <f aca="false">AD7+AE7+AF7+AH7+AI7+AG7</f>
+      <c r="AC7" s="5" t="n">
+        <f aca="false">(AB7/50)*15 + 1.302</f>
+        <v>1.302</v>
+      </c>
+      <c r="AE7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <f aca="false">AE7+AF7+AG7+AI7+AJ7+AH7</f>
         <v>10</v>
       </c>
-      <c r="AL7" s="9" t="n">
-        <f aca="false">AK7+AJ7+AC7+AB7+AA7+M7+(N7/2)</f>
-        <v>25.04166666675</v>
+      <c r="AM7" s="9" t="n">
+        <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
+        <v>26.34366666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>5</v>
@@ -1502,24 +1541,31 @@
         <f aca="false">Z8*10</f>
         <v>8.75</v>
       </c>
-      <c r="AD8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ8" s="5" t="n">
-        <f aca="false">AD8+AE8+AF8+AH8+AI8+AG8</f>
+      <c r="AB8" s="5" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <f aca="false">(AB8/50)*15 + 1.302</f>
+        <v>14.652</v>
+      </c>
+      <c r="AE8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <f aca="false">AE8+AF8+AG8+AI8+AJ8+AH8</f>
         <v>10</v>
       </c>
-      <c r="AL8" s="9" t="n">
-        <f aca="false">AK8+AJ8+AC8+AB8+AA8+M8+(N8/2)</f>
-        <v>25.75</v>
+      <c r="AM8" s="9" t="n">
+        <f aca="false">AL8+AK8+AD8+AC8+AA8+M8+(N8/2)</f>
+        <v>40.402</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>5</v>
@@ -1585,22 +1631,29 @@
         <f aca="false">Z9*10</f>
         <v>5.4</v>
       </c>
-      <c r="AD9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="19"/>
-      <c r="AJ9" s="5" t="n">
-        <f aca="false">AD9+AE9+AF9+AH9+AI9+AG9</f>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="9" t="n">
-        <f aca="false">AK9+AJ9+AC9+AB9+AA9+M9+(N9/2)</f>
-        <v>11.15</v>
+      <c r="AB9" s="5" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <f aca="false">(AB9/50)*15 + 1.302</f>
+        <v>12.051</v>
+      </c>
+      <c r="AE9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="19"/>
+      <c r="AK9" s="5" t="n">
+        <f aca="false">AE9+AF9+AG9+AI9+AJ9+AH9</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="9" t="n">
+        <f aca="false">AL9+AK9+AD9+AC9+AA9+M9+(N9/2)</f>
+        <v>23.201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>3</v>
@@ -1669,24 +1722,31 @@
         <f aca="false">Z10*10</f>
         <v>8.75</v>
       </c>
-      <c r="AD10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ10" s="5" t="n">
-        <f aca="false">AD10+AE10+AF10+AH10+AI10+AG10</f>
+      <c r="AB10" s="5" t="n">
+        <v>44.83</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <f aca="false">(AB10/50)*15 + 1.302</f>
+        <v>14.751</v>
+      </c>
+      <c r="AE10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <f aca="false">AE10+AF10+AG10+AI10+AJ10+AH10</f>
         <v>10</v>
       </c>
-      <c r="AL10" s="9" t="n">
-        <f aca="false">AK10+AJ10+AC10+AB10+AA10+M10+(N10/2)</f>
-        <v>24.75</v>
+      <c r="AM10" s="9" t="n">
+        <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
+        <v>39.501</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>4</v>
@@ -1755,24 +1815,31 @@
         <f aca="false">Z11*10</f>
         <v>8.75</v>
       </c>
-      <c r="AD11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ11" s="5" t="n">
-        <f aca="false">AD11+AE11+AF11+AH11+AI11+AG11</f>
+      <c r="AB11" s="5" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <f aca="false">(AB11/50)*15 + 1.302</f>
+        <v>14.652</v>
+      </c>
+      <c r="AE11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <f aca="false">AE11+AF11+AG11+AI11+AJ11+AH11</f>
         <v>10</v>
       </c>
-      <c r="AL11" s="9" t="n">
-        <f aca="false">AK11+AJ11+AC11+AB11+AA11+M11+(N11/2)</f>
-        <v>24.75</v>
+      <c r="AM11" s="9" t="n">
+        <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
+        <v>39.402</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>4.5</v>
@@ -1841,24 +1908,31 @@
         <f aca="false">Z12*10</f>
         <v>7.16666666675</v>
       </c>
-      <c r="AD12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ12" s="5" t="n">
-        <f aca="false">AD12+AE12+AF12+AH12+AI12+AG12</f>
+      <c r="AB12" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <f aca="false">(AB12/50)*15 + 1.302</f>
+        <v>10.302</v>
+      </c>
+      <c r="AE12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <f aca="false">AE12+AF12+AG12+AI12+AJ12+AH12</f>
         <v>10</v>
       </c>
-      <c r="AL12" s="9" t="n">
-        <f aca="false">AK12+AJ12+AC12+AB12+AA12+M12+(N12/2)</f>
-        <v>22.91666666675</v>
+      <c r="AM12" s="9" t="n">
+        <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
+        <v>33.21866666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>3</v>
@@ -1929,24 +2003,31 @@
         <f aca="false">Z13*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AD13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="5" t="n">
-        <f aca="false">AD13+AE13+AF13+AH13+AI13+AG13</f>
+      <c r="AB13" s="5" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <f aca="false">(AB13/50)*15 + 1.302</f>
+        <v>13.452</v>
+      </c>
+      <c r="AE13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="5" t="n">
+        <f aca="false">AE13+AF13+AG13+AI13+AJ13+AH13</f>
         <v>10</v>
       </c>
-      <c r="AL13" s="9" t="n">
-        <f aca="false">AK13+AJ13+AC13+AB13+AA13+M13+(N13/2)</f>
-        <v>24.91666666675</v>
+      <c r="AM13" s="9" t="n">
+        <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
+        <v>38.36866666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>5</v>
@@ -2015,24 +2096,31 @@
         <f aca="false">Z14*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AD14" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="5" t="n">
-        <f aca="false">AD14+AE14+AF14+AH14+AI14+AG14</f>
+      <c r="AB14" s="5" t="n">
+        <v>34.83</v>
+      </c>
+      <c r="AC14" s="5" t="n">
+        <f aca="false">(AB14/50)*15 + 1.302</f>
+        <v>11.751</v>
+      </c>
+      <c r="AE14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="5" t="n">
+        <f aca="false">AE14+AF14+AG14+AI14+AJ14+AH14</f>
         <v>10</v>
       </c>
-      <c r="AL14" s="9" t="n">
-        <f aca="false">AK14+AJ14+AC14+AB14+AA14+M14+(N14/2)</f>
-        <v>25.41666666675</v>
+      <c r="AM14" s="9" t="n">
+        <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
+        <v>37.16766666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>5</v>
@@ -2102,24 +2190,31 @@
         <f aca="false">Z15*10</f>
         <v>8.25</v>
       </c>
-      <c r="AD15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ15" s="5" t="n">
-        <f aca="false">AD15+AE15+AF15+AH15+AI15+AG15</f>
+      <c r="AB15" s="5" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="AC15" s="5" t="n">
+        <f aca="false">(AB15/50)*15 + 1.302</f>
+        <v>10.851</v>
+      </c>
+      <c r="AE15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="5" t="n">
+        <f aca="false">AE15+AF15+AG15+AI15+AJ15+AH15</f>
         <v>10</v>
       </c>
-      <c r="AL15" s="9" t="n">
-        <f aca="false">AK15+AJ15+AC15+AB15+AA15+M15+(N15/2)</f>
-        <v>24</v>
+      <c r="AM15" s="9" t="n">
+        <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
+        <v>34.851</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>3</v>
@@ -2190,24 +2285,31 @@
         <f aca="false">Z16*10</f>
         <v>7.55</v>
       </c>
-      <c r="AD16" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="5" t="n">
-        <f aca="false">AD16+AE16+AF16+AH16+AI16+AG16</f>
+      <c r="AB16" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC16" s="5" t="n">
+        <f aca="false">(AB16/50)*15 + 1.302</f>
+        <v>11.202</v>
+      </c>
+      <c r="AE16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="5" t="n">
+        <f aca="false">AE16+AF16+AG16+AI16+AJ16+AH16</f>
         <v>10</v>
       </c>
-      <c r="AL16" s="9" t="n">
-        <f aca="false">AK16+AJ16+AC16+AB16+AA16+M16+(N16/2)</f>
-        <v>24.05</v>
+      <c r="AM16" s="9" t="n">
+        <f aca="false">AL16+AK16+AD16+AC16+AA16+M16+(N16/2)</f>
+        <v>35.252</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>5</v>
@@ -2277,24 +2379,31 @@
         <f aca="false">Z17*10</f>
         <v>8.25</v>
       </c>
-      <c r="AD17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ17" s="5" t="n">
-        <f aca="false">AD17+AE17+AF17+AH17+AI17+AG17</f>
+      <c r="AB17" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <f aca="false">(AB17/50)*15 + 1.302</f>
+        <v>10.902</v>
+      </c>
+      <c r="AE17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="5" t="n">
+        <f aca="false">AE17+AF17+AG17+AI17+AJ17+AH17</f>
         <v>10</v>
       </c>
-      <c r="AL17" s="9" t="n">
-        <f aca="false">AK17+AJ17+AC17+AB17+AA17+M17+(N17/2)</f>
-        <v>24</v>
+      <c r="AM17" s="9" t="n">
+        <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
+        <v>34.902</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>4</v>
@@ -2360,24 +2469,28 @@
         <f aca="false">Z18*10</f>
         <v>7.15</v>
       </c>
-      <c r="AD18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ18" s="5" t="n">
-        <f aca="false">AD18+AE18+AF18+AH18+AI18+AG18</f>
+      <c r="AC18" s="5" t="n">
+        <f aca="false">(AB18/50)*15 + 1.302</f>
+        <v>1.302</v>
+      </c>
+      <c r="AE18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <f aca="false">AE18+AF18+AG18+AI18+AJ18+AH18</f>
         <v>10</v>
       </c>
-      <c r="AL18" s="9" t="n">
-        <f aca="false">AK18+AJ18+AC18+AB18+AA18+M18+(N18/2)</f>
-        <v>22.65</v>
+      <c r="AM18" s="9" t="n">
+        <f aca="false">AL18+AK18+AD18+AC18+AA18+M18+(N18/2)</f>
+        <v>23.952</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>5</v>
@@ -2445,24 +2558,31 @@
         <f aca="false">Z19*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AD19" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG19" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ19" s="5" t="n">
-        <f aca="false">AD19+AE19+AF19+AH19+AI19+AG19</f>
+      <c r="AB19" s="5" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <f aca="false">(AB19/50)*15 + 1.302</f>
+        <v>12.651</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="5" t="n">
+        <f aca="false">AE19+AF19+AG19+AI19+AJ19+AH19</f>
         <v>10</v>
       </c>
-      <c r="AL19" s="9" t="n">
-        <f aca="false">AK19+AJ19+AC19+AB19+AA19+M19+(N19/2)</f>
-        <v>23.41666666675</v>
+      <c r="AM19" s="9" t="n">
+        <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
+        <v>36.06766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>5</v>
@@ -2532,24 +2652,31 @@
         <f aca="false">Z20*10</f>
         <v>8.375</v>
       </c>
-      <c r="AD20" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ20" s="5" t="n">
-        <f aca="false">AD20+AE20+AF20+AH20+AI20+AG20</f>
+      <c r="AB20" s="5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <f aca="false">(AB20/50)*15 + 1.302</f>
+        <v>8.652</v>
+      </c>
+      <c r="AE20" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="5" t="n">
+        <f aca="false">AE20+AF20+AG20+AI20+AJ20+AH20</f>
         <v>10</v>
       </c>
-      <c r="AL20" s="9" t="n">
-        <f aca="false">AK20+AJ20+AC20+AB20+AA20+M20+(N20/2)</f>
-        <v>25.125</v>
+      <c r="AM20" s="9" t="n">
+        <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
+        <v>33.777</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0</v>
@@ -2615,22 +2742,26 @@
         <f aca="false">Z21*10</f>
         <v>4.95</v>
       </c>
-      <c r="AD21" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG21" s="17"/>
-      <c r="AJ21" s="5" t="n">
-        <f aca="false">AD21+AE21+AF21+AH21+AI21+AG21</f>
-        <v>5</v>
-      </c>
-      <c r="AL21" s="9" t="n">
-        <f aca="false">AK21+AJ21+AC21+AB21+AA21+M21+(N21/2)</f>
-        <v>15.2</v>
+      <c r="AC21" s="5" t="n">
+        <f aca="false">(AB21/50)*15 + 1.302</f>
+        <v>1.302</v>
+      </c>
+      <c r="AE21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="17"/>
+      <c r="AK21" s="5" t="n">
+        <f aca="false">AE21+AF21+AG21+AI21+AJ21+AH21</f>
+        <v>5</v>
+      </c>
+      <c r="AM21" s="9" t="n">
+        <f aca="false">AL21+AK21+AD21+AC21+AA21+M21+(N21/2)</f>
+        <v>16.502</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>5</v>
@@ -2701,24 +2832,31 @@
         <f aca="false">Z22*10</f>
         <v>8.625</v>
       </c>
-      <c r="AD22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG22" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ22" s="5" t="n">
-        <f aca="false">AD22+AE22+AF22+AH22+AI22+AG22</f>
+      <c r="AB22" s="5" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <f aca="false">(AB22/50)*15 + 1.302</f>
+        <v>11.601</v>
+      </c>
+      <c r="AE22" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="5" t="n">
+        <f aca="false">AE22+AF22+AG22+AI22+AJ22+AH22</f>
         <v>10</v>
       </c>
-      <c r="AL22" s="9" t="n">
-        <f aca="false">AK22+AJ22+AC22+AB22+AA22+M22+(N22/2)</f>
-        <v>25.375</v>
+      <c r="AM22" s="9" t="n">
+        <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
+        <v>36.976</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>5</v>
@@ -2789,24 +2927,31 @@
         <f aca="false">Z23*10</f>
         <v>8</v>
       </c>
-      <c r="AD23" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG23" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ23" s="5" t="n">
-        <f aca="false">AD23+AE23+AF23+AH23+AI23+AG23</f>
+      <c r="AB23" s="5" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <f aca="false">(AB23/50)*15 + 1.302</f>
+        <v>11.001</v>
+      </c>
+      <c r="AE23" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <f aca="false">AE23+AF23+AG23+AI23+AJ23+AH23</f>
         <v>10</v>
       </c>
-      <c r="AL23" s="9" t="n">
-        <f aca="false">AK23+AJ23+AC23+AB23+AA23+M23+(N23/2)</f>
-        <v>24.25</v>
+      <c r="AM23" s="9" t="n">
+        <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
+        <v>35.251</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>5</v>
@@ -2876,24 +3021,31 @@
         <f aca="false">Z24*10</f>
         <v>7.625</v>
       </c>
-      <c r="AD24" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="5" t="n">
-        <f aca="false">AD24+AE24+AF24+AH24+AI24+AG24</f>
+      <c r="AB24" s="5" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <f aca="false">(AB24/50)*15 + 1.302</f>
+        <v>12.801</v>
+      </c>
+      <c r="AE24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <f aca="false">AE24+AF24+AG24+AI24+AJ24+AH24</f>
         <v>10</v>
       </c>
-      <c r="AL24" s="9" t="n">
-        <f aca="false">AK24+AJ24+AC24+AB24+AA24+M24+(N24/2)</f>
-        <v>23.875</v>
+      <c r="AM24" s="9" t="n">
+        <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
+        <v>36.676</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>5</v>
@@ -2963,24 +3115,31 @@
         <f aca="false">Z25*10</f>
         <v>8.125</v>
       </c>
-      <c r="AD25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG25" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ25" s="5" t="n">
-        <f aca="false">AD25+AE25+AF25+AH25+AI25+AG25</f>
+      <c r="AB25" s="5" t="n">
+        <v>36.83</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <f aca="false">(AB25/50)*15 + 1.302</f>
+        <v>12.351</v>
+      </c>
+      <c r="AE25" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <f aca="false">AE25+AF25+AG25+AI25+AJ25+AH25</f>
         <v>10</v>
       </c>
-      <c r="AL25" s="9" t="n">
-        <f aca="false">AK25+AJ25+AC25+AB25+AA25+M25+(N25/2)</f>
-        <v>24.875</v>
+      <c r="AM25" s="9" t="n">
+        <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
+        <v>37.226</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
@@ -3047,24 +3206,31 @@
         <f aca="false">Z26*10</f>
         <v>8.45</v>
       </c>
-      <c r="AD26" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG26" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ26" s="5" t="n">
-        <f aca="false">AD26+AE26+AF26+AH26+AI26+AG26</f>
+      <c r="AB26" s="5" t="n">
+        <v>41.33</v>
+      </c>
+      <c r="AC26" s="5" t="n">
+        <f aca="false">(AB26/50)*15 + 1.302</f>
+        <v>13.701</v>
+      </c>
+      <c r="AE26" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="5" t="n">
+        <f aca="false">AE26+AF26+AG26+AI26+AJ26+AH26</f>
         <v>10</v>
       </c>
-      <c r="AL26" s="9" t="n">
-        <f aca="false">AK26+AJ26+AC26+AB26+AA26+M26+(N26/2)</f>
-        <v>23.7</v>
+      <c r="AM26" s="9" t="n">
+        <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
+        <v>37.401</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>5</v>
@@ -3134,24 +3300,31 @@
         <f aca="false">Z27*10</f>
         <v>8.5</v>
       </c>
-      <c r="AD27" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG27" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ27" s="5" t="n">
-        <f aca="false">AD27+AE27+AF27+AH27+AI27+AG27</f>
+      <c r="AB27" s="5" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="AC27" s="5" t="n">
+        <f aca="false">(AB27/50)*15 + 1.302</f>
+        <v>12.651</v>
+      </c>
+      <c r="AE27" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK27" s="5" t="n">
+        <f aca="false">AE27+AF27+AG27+AI27+AJ27+AH27</f>
         <v>10</v>
       </c>
-      <c r="AL27" s="9" t="n">
-        <f aca="false">AK27+AJ27+AC27+AB27+AA27+M27+(N27/2)</f>
-        <v>25.25</v>
+      <c r="AM27" s="9" t="n">
+        <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
+        <v>37.901</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>5</v>
@@ -3221,24 +3394,31 @@
         <f aca="false">Z28*10</f>
         <v>8.625</v>
       </c>
-      <c r="AD28" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG28" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ28" s="5" t="n">
-        <f aca="false">AD28+AE28+AF28+AH28+AI28+AG28</f>
+      <c r="AB28" s="5" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="AC28" s="5" t="n">
+        <f aca="false">(AB28/50)*15 + 1.302</f>
+        <v>13.851</v>
+      </c>
+      <c r="AE28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK28" s="5" t="n">
+        <f aca="false">AE28+AF28+AG28+AI28+AJ28+AH28</f>
         <v>10</v>
       </c>
-      <c r="AL28" s="9" t="n">
-        <f aca="false">AK28+AJ28+AC28+AB28+AA28+M28+(N28/2)</f>
-        <v>25.375</v>
+      <c r="AM28" s="9" t="n">
+        <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
+        <v>39.226</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>5</v>
@@ -3255,14 +3435,16 @@
       <c r="F29" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M29" s="5" t="n">
         <f aca="false">L29*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>2</v>
@@ -3305,24 +3487,31 @@
         <f aca="false">Z29*10</f>
         <v>7.88125</v>
       </c>
-      <c r="AD29" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG29" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ29" s="5" t="n">
-        <f aca="false">AD29+AE29+AF29+AH29+AI29+AG29</f>
+      <c r="AB29" s="5" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="AC29" s="5" t="n">
+        <f aca="false">(AB29/50)*15 + 1.302</f>
+        <v>12.951</v>
+      </c>
+      <c r="AE29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH29" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK29" s="5" t="n">
+        <f aca="false">AE29+AF29+AG29+AI29+AJ29+AH29</f>
         <v>10</v>
       </c>
-      <c r="AL29" s="9" t="n">
-        <f aca="false">AK29+AJ29+AC29+AB29+AA29+M29+(N29/2)</f>
-        <v>22.63125</v>
+      <c r="AM29" s="9" t="n">
+        <f aca="false">AL29+AK29+AD29+AC29+AA29+M29+(N29/2)</f>
+        <v>36.83225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -3388,22 +3577,26 @@
         <f aca="false">Z30*10</f>
         <v>3.55</v>
       </c>
-      <c r="AD30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="17"/>
-      <c r="AJ30" s="5" t="n">
-        <f aca="false">AD30+AE30+AF30+AH30+AI30+AG30</f>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="9" t="n">
-        <f aca="false">AK30+AJ30+AC30+AB30+AA30+M30+(N30/2)</f>
-        <v>6.3</v>
+      <c r="AC30" s="5" t="n">
+        <f aca="false">(AB30/50)*15 + 1.302</f>
+        <v>1.302</v>
+      </c>
+      <c r="AE30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="17"/>
+      <c r="AK30" s="5" t="n">
+        <f aca="false">AE30+AF30+AG30+AI30+AJ30+AH30</f>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="9" t="n">
+        <f aca="false">AL30+AK30+AD30+AC30+AA30+M30+(N30/2)</f>
+        <v>7.602</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>0</v>
@@ -3471,24 +3664,31 @@
         <f aca="false">Z31*10</f>
         <v>8.75</v>
       </c>
-      <c r="AD31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG31" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ31" s="5" t="n">
-        <f aca="false">AD31+AE31+AF31+AH31+AI31+AG31</f>
+      <c r="AB31" s="5" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="AC31" s="5" t="n">
+        <f aca="false">(AB31/50)*15 + 1.302</f>
+        <v>15</v>
+      </c>
+      <c r="AE31" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="5" t="n">
+        <f aca="false">AE31+AF31+AG31+AI31+AJ31+AH31</f>
         <v>10</v>
       </c>
-      <c r="AL31" s="9" t="n">
-        <f aca="false">AK31+AJ31+AC31+AB31+AA31+M31+(N31/2)</f>
-        <v>24</v>
+      <c r="AM31" s="9" t="n">
+        <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>0</v>
@@ -3557,24 +3757,31 @@
         <f aca="false">Z32*10</f>
         <v>8.625</v>
       </c>
-      <c r="AD32" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG32" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ32" s="5" t="n">
-        <f aca="false">AD32+AE32+AF32+AH32+AI32+AG32</f>
+      <c r="AB32" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" s="5" t="n">
+        <f aca="false">(AB32/50)*15 + 1.302</f>
+        <v>13.602</v>
+      </c>
+      <c r="AE32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH32" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK32" s="5" t="n">
+        <f aca="false">AE32+AF32+AG32+AI32+AJ32+AH32</f>
         <v>10</v>
       </c>
-      <c r="AL32" s="9" t="n">
-        <f aca="false">AK32+AJ32+AC32+AB32+AA32+M32+(N32/2)</f>
-        <v>22.625</v>
+      <c r="AM32" s="9" t="n">
+        <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
+        <v>36.227</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>0</v>
@@ -3641,24 +3848,31 @@
         <f aca="false">Z33*10</f>
         <v>8.4</v>
       </c>
-      <c r="AD33" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG33" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ33" s="5" t="n">
-        <f aca="false">AD33+AE33+AF33+AH33+AI33+AG33</f>
+      <c r="AB33" s="5" t="n">
+        <v>40.33</v>
+      </c>
+      <c r="AC33" s="5" t="n">
+        <f aca="false">(AB33/50)*15 + 1.302</f>
+        <v>13.401</v>
+      </c>
+      <c r="AE33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK33" s="5" t="n">
+        <f aca="false">AE33+AF33+AG33+AI33+AJ33+AH33</f>
         <v>10</v>
       </c>
-      <c r="AL33" s="9" t="n">
-        <f aca="false">AK33+AJ33+AC33+AB33+AA33+M33+(N33/2)</f>
-        <v>23.65</v>
+      <c r="AM33" s="9" t="n">
+        <f aca="false">AL33+AK33+AD33+AC33+AA33+M33+(N33/2)</f>
+        <v>37.051</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>0</v>
@@ -3667,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>5</v>
@@ -3678,11 +3892,11 @@
       <c r="G34" s="15"/>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M34" s="5" t="n">
         <f aca="false">L34*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N34" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3726,24 +3940,31 @@
         <f aca="false">Z34*10</f>
         <v>7.875</v>
       </c>
-      <c r="AD34" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG34" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ34" s="5" t="n">
-        <f aca="false">AD34+AE34+AF34+AH34+AI34+AG34</f>
+      <c r="AB34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC34" s="5" t="n">
+        <f aca="false">(AB34/50)*15 + 1.302</f>
+        <v>10.902</v>
+      </c>
+      <c r="AE34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH34" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="5" t="n">
+        <f aca="false">AE34+AF34+AG34+AI34+AJ34+AH34</f>
         <v>10</v>
       </c>
-      <c r="AL34" s="9" t="n">
-        <f aca="false">AK34+AJ34+AC34+AB34+AA34+M34+(N34/2)</f>
-        <v>20.875</v>
+      <c r="AM34" s="9" t="n">
+        <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
+        <v>33.027</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>5</v>
@@ -3812,24 +4033,31 @@
         <f aca="false">Z35*10</f>
         <v>5.025</v>
       </c>
-      <c r="AD35" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG35" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ35" s="5" t="n">
-        <f aca="false">AD35+AE35+AF35+AH35+AI35+AG35</f>
+      <c r="AB35" s="5" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AC35" s="5" t="n">
+        <f aca="false">(AB35/50)*15 + 1.302</f>
+        <v>11.301</v>
+      </c>
+      <c r="AE35" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="5" t="n">
+        <f aca="false">AE35+AF35+AG35+AI35+AJ35+AH35</f>
         <v>10</v>
       </c>
-      <c r="AL35" s="9" t="n">
-        <f aca="false">AK35+AJ35+AC35+AB35+AA35+M35+(N35/2)</f>
-        <v>21.525</v>
+      <c r="AM35" s="9" t="n">
+        <f aca="false">AL35+AK35+AD35+AC35+AA35+M35+(N35/2)</f>
+        <v>32.826</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>5</v>
@@ -3899,24 +4127,31 @@
         <f aca="false">Z36*10</f>
         <v>8.625</v>
       </c>
-      <c r="AD36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG36" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ36" s="5" t="n">
-        <f aca="false">AD36+AE36+AF36+AH36+AI36+AG36</f>
+      <c r="AB36" s="5" t="n">
+        <v>34.83</v>
+      </c>
+      <c r="AC36" s="5" t="n">
+        <f aca="false">(AB36/50)*15 + 1.302</f>
+        <v>11.751</v>
+      </c>
+      <c r="AE36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="5" t="n">
+        <f aca="false">AE36+AF36+AG36+AI36+AJ36+AH36</f>
         <v>10</v>
       </c>
-      <c r="AL36" s="9" t="n">
-        <f aca="false">AK36+AJ36+AC36+AB36+AA36+M36+(N36/2)</f>
-        <v>25.375</v>
+      <c r="AM36" s="9" t="n">
+        <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
+        <v>37.126</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0</v>
@@ -3933,14 +4168,16 @@
       <c r="F37" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L37" s="4" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M37" s="5" t="n">
         <f aca="false">L37*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N37" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3985,24 +4222,31 @@
         <f aca="false">Z37*10</f>
         <v>8.16666666675</v>
       </c>
-      <c r="AD37" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG37" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ37" s="5" t="n">
-        <f aca="false">AD37+AE37+AF37+AH37+AI37+AG37</f>
+      <c r="AB37" s="5" t="n">
+        <v>40.33</v>
+      </c>
+      <c r="AC37" s="5" t="n">
+        <f aca="false">(AB37/50)*15 + 1.302</f>
+        <v>13.401</v>
+      </c>
+      <c r="AE37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="5" t="n">
+        <f aca="false">AE37+AF37+AG37+AI37+AJ37+AH37</f>
         <v>10</v>
       </c>
-      <c r="AL37" s="9" t="n">
-        <f aca="false">AK37+AJ37+AC37+AB37+AA37+M37+(N37/2)</f>
-        <v>23.41666666675</v>
+      <c r="AM37" s="9" t="n">
+        <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
+        <v>38.06766666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>0</v>
@@ -4019,14 +4263,16 @@
       <c r="F38" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L38" s="4" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M38" s="5" t="n">
         <f aca="false">L38*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0</v>
@@ -4070,24 +4316,31 @@
         <f aca="false">Z38*10</f>
         <v>7.27916666675</v>
       </c>
-      <c r="AD38" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG38" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ38" s="5" t="n">
-        <f aca="false">AD38+AE38+AF38+AH38+AI38+AG38</f>
+      <c r="AB38" s="5" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="AC38" s="5" t="n">
+        <f aca="false">(AB38/50)*15 + 1.302</f>
+        <v>10.551</v>
+      </c>
+      <c r="AE38" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH38" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK38" s="5" t="n">
+        <f aca="false">AE38+AF38+AG38+AI38+AJ38+AH38</f>
         <v>10</v>
       </c>
-      <c r="AL38" s="9" t="n">
-        <f aca="false">AK38+AJ38+AC38+AB38+AA38+M38+(N38/2)</f>
-        <v>21.02916666675</v>
+      <c r="AM38" s="9" t="n">
+        <f aca="false">AL38+AK38+AD38+AC38+AA38+M38+(N38/2)</f>
+        <v>32.83016666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0</v>
@@ -4104,14 +4357,16 @@
       <c r="F39" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G39" s="15"/>
+      <c r="G39" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L39" s="4" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M39" s="5" t="n">
         <f aca="false">L39*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0</v>
@@ -4155,24 +4410,31 @@
         <f aca="false">Z39*10</f>
         <v>7.77916666675</v>
       </c>
-      <c r="AD39" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG39" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ39" s="5" t="n">
-        <f aca="false">AD39+AE39+AF39+AH39+AI39+AG39</f>
+      <c r="AB39" s="5" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="AC39" s="5" t="n">
+        <f aca="false">(AB39/50)*15 + 1.302</f>
+        <v>12.651</v>
+      </c>
+      <c r="AE39" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH39" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK39" s="5" t="n">
+        <f aca="false">AE39+AF39+AG39+AI39+AJ39+AH39</f>
         <v>10</v>
       </c>
-      <c r="AL39" s="9" t="n">
-        <f aca="false">AK39+AJ39+AC39+AB39+AA39+M39+(N39/2)</f>
-        <v>21.52916666675</v>
+      <c r="AM39" s="9" t="n">
+        <f aca="false">AL39+AK39+AD39+AC39+AA39+M39+(N39/2)</f>
+        <v>35.43016666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0</v>
@@ -4181,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>5</v>
@@ -4192,11 +4454,11 @@
       <c r="G40" s="15"/>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M40" s="5" t="n">
         <f aca="false">L40*10</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0</v>
@@ -4240,24 +4502,31 @@
         <f aca="false">Z40*10</f>
         <v>8.54166666675</v>
       </c>
-      <c r="AD40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG40" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ40" s="5" t="n">
-        <f aca="false">AD40+AE40+AF40+AH40+AI40+AG40</f>
+      <c r="AB40" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC40" s="5" t="n">
+        <f aca="false">(AB40/50)*15 + 1.302</f>
+        <v>11.502</v>
+      </c>
+      <c r="AE40" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH40" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK40" s="5" t="n">
+        <f aca="false">AE40+AF40+AG40+AI40+AJ40+AH40</f>
         <v>10</v>
       </c>
-      <c r="AL40" s="9" t="n">
-        <f aca="false">AK40+AJ40+AC40+AB40+AA40+M40+(N40/2)</f>
-        <v>19.79166666675</v>
+      <c r="AM40" s="9" t="n">
+        <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
+        <v>32.54366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>5</v>
@@ -4327,24 +4596,31 @@
         <f aca="false">Z41*10</f>
         <v>5.8</v>
       </c>
-      <c r="AD41" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG41" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ41" s="5" t="n">
-        <f aca="false">AD41+AE41+AF41+AH41+AI41+AG41</f>
+      <c r="AB41" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC41" s="5" t="n">
+        <f aca="false">(AB41/50)*15 + 1.302</f>
+        <v>14.202</v>
+      </c>
+      <c r="AE41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK41" s="5" t="n">
+        <f aca="false">AE41+AF41+AG41+AI41+AJ41+AH41</f>
         <v>10</v>
       </c>
-      <c r="AL41" s="9" t="n">
-        <f aca="false">AK41+AJ41+AC41+AB41+AA41+M41+(N41/2)</f>
-        <v>20.8</v>
+      <c r="AM41" s="9" t="n">
+        <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
+        <v>35.002</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>5</v>
@@ -4410,22 +4686,29 @@
         <f aca="false">Z42*10</f>
         <v>6.65</v>
       </c>
-      <c r="AD42" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="17"/>
-      <c r="AJ42" s="5" t="n">
-        <f aca="false">AD42+AE42+AF42+AH42+AI42+AG42</f>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="9" t="n">
-        <f aca="false">AK42+AJ42+AC42+AB42+AA42+M42+(N42/2)</f>
-        <v>11.15</v>
+      <c r="AB42" s="5" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="AC42" s="5" t="n">
+        <f aca="false">(AB42/50)*15 + 1.302</f>
+        <v>12.501</v>
+      </c>
+      <c r="AE42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="17"/>
+      <c r="AK42" s="5" t="n">
+        <f aca="false">AE42+AF42+AG42+AI42+AJ42+AH42</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="9" t="n">
+        <f aca="false">AL42+AK42+AD42+AC42+AA42+M42+(N42/2)</f>
+        <v>23.651</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>5</v>
@@ -4493,24 +4776,31 @@
         <f aca="false">Z43*10</f>
         <v>4.125</v>
       </c>
-      <c r="AD43" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG43" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ43" s="5" t="n">
-        <f aca="false">AD43+AE43+AF43+AH43+AI43+AG43</f>
+      <c r="AB43" s="5" t="n">
+        <v>36.83</v>
+      </c>
+      <c r="AC43" s="5" t="n">
+        <f aca="false">(AB43/50)*15 + 1.302</f>
+        <v>12.351</v>
+      </c>
+      <c r="AE43" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH43" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="5" t="n">
+        <f aca="false">AE43+AF43+AG43+AI43+AJ43+AH43</f>
         <v>10</v>
       </c>
-      <c r="AL43" s="9" t="n">
-        <f aca="false">AK43+AJ43+AC43+AB43+AA43+M43+(N43/2)</f>
-        <v>20.875</v>
+      <c r="AM43" s="9" t="n">
+        <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
+        <v>33.226</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>5</v>
@@ -4579,24 +4869,31 @@
         <f aca="false">Z44*10</f>
         <v>4.51666666675</v>
       </c>
-      <c r="AD44" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG44" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ44" s="5" t="n">
-        <f aca="false">AD44+AE44+AF44+AH44+AI44+AG44</f>
+      <c r="AB44" s="5" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="AC44" s="5" t="n">
+        <f aca="false">(AB44/50)*15 + 1.302</f>
+        <v>8.451</v>
+      </c>
+      <c r="AE44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH44" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK44" s="5" t="n">
+        <f aca="false">AE44+AF44+AG44+AI44+AJ44+AH44</f>
         <v>10</v>
       </c>
-      <c r="AL44" s="9" t="n">
-        <f aca="false">AK44+AJ44+AC44+AB44+AA44+M44+(N44/2)</f>
-        <v>21.01666666675</v>
+      <c r="AM44" s="9" t="n">
+        <f aca="false">AL44+AK44+AD44+AC44+AA44+M44+(N44/2)</f>
+        <v>29.46766666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>5</v>
@@ -4663,24 +4960,31 @@
         <f aca="false">Z45*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AD45" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG45" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ45" s="5" t="n">
-        <f aca="false">AD45+AE45+AF45+AH45+AI45+AG45</f>
+      <c r="AB45" s="5" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AC45" s="5" t="n">
+        <f aca="false">(AB45/50)*15 + 1.302</f>
+        <v>11.301</v>
+      </c>
+      <c r="AE45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH45" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK45" s="5" t="n">
+        <f aca="false">AE45+AF45+AG45+AI45+AJ45+AH45</f>
         <v>10</v>
       </c>
-      <c r="AL45" s="9" t="n">
-        <f aca="false">AK45+AJ45+AC45+AB45+AA45+M45+(N45/2)</f>
-        <v>21.66666666675</v>
+      <c r="AM45" s="9" t="n">
+        <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
+        <v>32.96766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>0</v>
@@ -4747,24 +5051,31 @@
         <f aca="false">Z46*10</f>
         <v>5.5</v>
       </c>
-      <c r="AD46" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG46" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ46" s="5" t="n">
-        <f aca="false">AD46+AE46+AF46+AH46+AI46+AG46</f>
+      <c r="AB46" s="5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AC46" s="5" t="n">
+        <f aca="false">(AB46/50)*15 + 1.302</f>
+        <v>12.552</v>
+      </c>
+      <c r="AE46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="5" t="n">
+        <f aca="false">AE46+AF46+AG46+AI46+AJ46+AH46</f>
         <v>10</v>
       </c>
-      <c r="AL46" s="9" t="n">
-        <f aca="false">AK46+AJ46+AC46+AB46+AA46+M46+(N46/2)</f>
-        <v>21.25</v>
+      <c r="AM46" s="9" t="n">
+        <f aca="false">AL46+AK46+AD46+AC46+AA46+M46+(N46/2)</f>
+        <v>33.802</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>5</v>
@@ -4833,24 +5144,31 @@
         <f aca="false">Z47*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AD47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG47" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ47" s="5" t="n">
-        <f aca="false">AD47+AE47+AF47+AH47+AI47+AG47</f>
+      <c r="AB47" s="5" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AC47" s="5" t="n">
+        <f aca="false">(AB47/50)*15 + 1.302</f>
+        <v>11.952</v>
+      </c>
+      <c r="AE47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH47" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK47" s="5" t="n">
+        <f aca="false">AE47+AF47+AG47+AI47+AJ47+AH47</f>
         <v>10</v>
       </c>
-      <c r="AL47" s="9" t="n">
-        <f aca="false">AK47+AJ47+AC47+AB47+AA47+M47+(N47/2)</f>
-        <v>22.91666666675</v>
+      <c r="AM47" s="9" t="n">
+        <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
+        <v>34.86866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>0</v>
@@ -4920,24 +5238,31 @@
         <f aca="false">Z48*10</f>
         <v>8.20833333325</v>
       </c>
-      <c r="AD48" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG48" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ48" s="5" t="n">
-        <f aca="false">AD48+AE48+AF48+AH48+AI48+AG48</f>
+      <c r="AB48" s="5" t="n">
+        <v>34.83</v>
+      </c>
+      <c r="AC48" s="5" t="n">
+        <f aca="false">(AB48/50)*15 + 1.302</f>
+        <v>11.751</v>
+      </c>
+      <c r="AE48" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK48" s="5" t="n">
+        <f aca="false">AE48+AF48+AG48+AI48+AJ48+AH48</f>
         <v>10</v>
       </c>
-      <c r="AL48" s="9" t="n">
-        <f aca="false">AK48+AJ48+AC48+AB48+AA48+M48+(N48/2)</f>
-        <v>22.70833333325</v>
+      <c r="AM48" s="9" t="n">
+        <f aca="false">AL48+AK48+AD48+AC48+AA48+M48+(N48/2)</f>
+        <v>34.45933333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>0</v>
@@ -5002,24 +5327,28 @@
         <f aca="false">Z49*10</f>
         <v>5.1</v>
       </c>
-      <c r="AD49" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG49" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ49" s="5" t="n">
-        <f aca="false">AD49+AE49+AF49+AH49+AI49+AG49</f>
+      <c r="AC49" s="5" t="n">
+        <f aca="false">(AB49/50)*15 + 1.302</f>
+        <v>1.302</v>
+      </c>
+      <c r="AE49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH49" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="5" t="n">
+        <f aca="false">AE49+AF49+AG49+AI49+AJ49+AH49</f>
         <v>10</v>
       </c>
-      <c r="AL49" s="9" t="n">
-        <f aca="false">AK49+AJ49+AC49+AB49+AA49+M49+(N49/2)</f>
-        <v>20.6</v>
+      <c r="AM49" s="9" t="n">
+        <f aca="false">AL49+AK49+AD49+AC49+AA49+M49+(N49/2)</f>
+        <v>21.902</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>5</v>
@@ -5086,24 +5415,31 @@
         <f aca="false">Z50*10</f>
         <v>8</v>
       </c>
-      <c r="AD50" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG50" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ50" s="5" t="n">
-        <f aca="false">AD50+AE50+AF50+AH50+AI50+AG50</f>
+      <c r="AB50" s="5" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="AC50" s="5" t="n">
+        <f aca="false">(AB50/50)*15 + 1.302</f>
+        <v>11.601</v>
+      </c>
+      <c r="AE50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH50" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK50" s="5" t="n">
+        <f aca="false">AE50+AF50+AG50+AI50+AJ50+AH50</f>
         <v>10</v>
       </c>
-      <c r="AL50" s="9" t="n">
-        <f aca="false">AK50+AJ50+AC50+AB50+AA50+M50+(N50/2)</f>
-        <v>21.75</v>
+      <c r="AM50" s="9" t="n">
+        <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
+        <v>33.351</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>0</v>
@@ -5167,24 +5503,31 @@
         <f aca="false">Z51*10</f>
         <v>4.875</v>
       </c>
-      <c r="AD51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG51" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ51" s="5" t="n">
-        <f aca="false">AD51+AE51+AF51+AH51+AI51+AG51</f>
+      <c r="AB51" s="5" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="AC51" s="5" t="n">
+        <f aca="false">(AB51/50)*15 + 1.302</f>
+        <v>13.152</v>
+      </c>
+      <c r="AE51" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH51" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="5" t="n">
+        <f aca="false">AE51+AF51+AG51+AI51+AJ51+AH51</f>
         <v>10</v>
       </c>
-      <c r="AL51" s="9" t="n">
-        <f aca="false">AK51+AJ51+AC51+AB51+AA51+M51+(N51/2)</f>
-        <v>17.375</v>
+      <c r="AM51" s="9" t="n">
+        <f aca="false">AL51+AK51+AD51+AC51+AA51+M51+(N51/2)</f>
+        <v>30.527</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>0</v>
@@ -5248,19 +5591,23 @@
         <f aca="false">Z52*10</f>
         <v>4.39166666675</v>
       </c>
-      <c r="AD52" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG52" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ52" s="5" t="n">
-        <f aca="false">AD52+AE52+AF52+AH52+AI52+AG52</f>
+      <c r="AC52" s="5" t="n">
+        <f aca="false">(AB52/50)*15 + 1.302</f>
+        <v>1.302</v>
+      </c>
+      <c r="AE52" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH52" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK52" s="5" t="n">
+        <f aca="false">AE52+AF52+AG52+AI52+AJ52+AH52</f>
         <v>10</v>
       </c>
-      <c r="AL52" s="9" t="n">
-        <f aca="false">AK52+AJ52+AC52+AB52+AA52+M52+(N52/2)</f>
-        <v>18.89166666675</v>
+      <c r="AM52" s="9" t="n">
+        <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
+        <v>20.19366666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5615,7 @@
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
       <c r="G53" s="15"/>
-      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
@@ -5285,30 +5632,30 @@
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
       <c r="E56" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
     </row>
-    <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28"/>
       <c r="E57" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28"/>
       <c r="E58" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G58" s="32" t="n">
         <v>4</v>
@@ -5317,10 +5664,10 @@
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28"/>
       <c r="E59" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G59" s="32" t="n">
         <v>3.67</v>
@@ -5329,10 +5676,10 @@
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28"/>
       <c r="E60" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G60" s="32" t="n">
         <v>3.33</v>
@@ -5341,10 +5688,10 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28"/>
       <c r="E61" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G61" s="32" t="n">
         <v>3</v>
@@ -5353,10 +5700,10 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28"/>
       <c r="E62" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G62" s="32" t="n">
         <v>2.67</v>
@@ -5365,10 +5712,10 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28"/>
       <c r="E63" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G63" s="32" t="n">
         <v>2.33</v>
@@ -5377,10 +5724,10 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28"/>
       <c r="E64" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G64" s="32" t="n">
         <v>2</v>
@@ -5389,10 +5736,10 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28"/>
       <c r="E65" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G65" s="32" t="n">
         <v>1.67</v>
@@ -5401,10 +5748,10 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28"/>
       <c r="E66" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G66" s="32" t="n">
         <v>0</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -565,7 +565,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,6 +634,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -643,6 +647,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,27 +785,27 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM1" activeCellId="0" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="38" min="37" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="25.8367346938776"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="23.6122448979592"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="16.1989795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +986,9 @@
       <c r="V2" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="W2" s="0"/>
+      <c r="W2" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y2" s="7" t="n">
         <v>5</v>
       </c>
@@ -990,7 +1000,7 @@
         <f aca="false">Z2*10</f>
         <v>5.45</v>
       </c>
-      <c r="AB2" s="5" t="n">
+      <c r="AB2" s="17" t="n">
         <v>36.5</v>
       </c>
       <c r="AC2" s="5" t="n">
@@ -1000,7 +1010,7 @@
       <c r="AE2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH2" s="17" t="n">
+      <c r="AH2" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK2" s="5" t="n">
@@ -1031,14 +1041,16 @@
       <c r="F3" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="M3" s="5" t="n">
         <f aca="false">L3*10</f>
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N3" s="6" t="n">
         <v>1.5</v>
@@ -1061,13 +1073,13 @@
       <c r="T3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="18" t="n">
+      <c r="U3" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V3" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W3" s="7" t="n">
+      <c r="W3" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y3" s="7" t="n">
@@ -1081,7 +1093,7 @@
         <f aca="false">Z3*10</f>
         <v>8.08333333325</v>
       </c>
-      <c r="AB3" s="5" t="n">
+      <c r="AB3" s="17" t="n">
         <v>30.33</v>
       </c>
       <c r="AC3" s="5" t="n">
@@ -1100,7 +1112,7 @@
       </c>
       <c r="AM3" s="9" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
-        <v>32.98433333325</v>
+        <v>33.73433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1172,7 @@
       <c r="V4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W4" s="7" t="n">
+      <c r="W4" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y4" s="7" t="n">
@@ -1174,7 +1186,7 @@
         <f aca="false">Z4*10</f>
         <v>7.45</v>
       </c>
-      <c r="AB4" s="5" t="n">
+      <c r="AB4" s="17" t="n">
         <v>34.5</v>
       </c>
       <c r="AC4" s="5" t="n">
@@ -1184,7 +1196,7 @@
       <c r="AE4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH4" s="17" t="n">
+      <c r="AH4" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK4" s="5" t="n">
@@ -1215,14 +1227,16 @@
       <c r="F5" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="4" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="5" t="n">
         <f aca="false">L5*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>1.5</v>
@@ -1245,13 +1259,13 @@
       <c r="T5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="18" t="n">
+      <c r="U5" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V5" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="W5" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y5" s="7" t="n">
@@ -1265,7 +1279,7 @@
         <f aca="false">Z5*10</f>
         <v>7.58333333325</v>
       </c>
-      <c r="AB5" s="5" t="n">
+      <c r="AB5" s="17" t="n">
         <v>33.16</v>
       </c>
       <c r="AC5" s="5" t="n">
@@ -1284,7 +1298,7 @@
       </c>
       <c r="AM5" s="9" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
-        <v>33.33333333325</v>
+        <v>34.58333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,13 +1353,13 @@
       <c r="T6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="18" t="n">
+      <c r="U6" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V6" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W6" s="7" t="n">
+      <c r="W6" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y6" s="7" t="n">
@@ -1359,7 +1373,7 @@
         <f aca="false">Z6*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AB6" s="5" t="n">
+      <c r="AB6" s="17" t="n">
         <v>37.66</v>
       </c>
       <c r="AC6" s="5" t="n">
@@ -1369,7 +1383,7 @@
       <c r="AE6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="20"/>
       <c r="AK6" s="5" t="n">
         <f aca="false">AE6+AF6+AG6+AI6+AJ6+AH6</f>
         <v>0</v>
@@ -1430,13 +1444,13 @@
       <c r="T7" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U7" s="18" t="n">
+      <c r="U7" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V7" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="W7" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y7" s="7" t="n">
@@ -1450,6 +1464,9 @@
         <f aca="false">Z7*10</f>
         <v>8.29166666675</v>
       </c>
+      <c r="AB7" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="AC7" s="5" t="n">
         <f aca="false">(AB7/50)*15 + 1.302</f>
         <v>1.302</v>
@@ -1457,7 +1474,7 @@
       <c r="AE7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH7" s="17" t="n">
+      <c r="AH7" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK7" s="5" t="n">
@@ -1521,13 +1538,13 @@
       <c r="T8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U8" s="18" t="n">
+      <c r="U8" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V8" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W8" s="7" t="n">
+      <c r="W8" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y8" s="7" t="n">
@@ -1541,7 +1558,7 @@
         <f aca="false">Z8*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB8" s="5" t="n">
+      <c r="AB8" s="17" t="n">
         <v>44.5</v>
       </c>
       <c r="AC8" s="5" t="n">
@@ -1582,7 +1599,9 @@
       <c r="F9" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.375</v>
@@ -1619,7 +1638,9 @@
       <c r="V9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="0"/>
+      <c r="W9" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y9" s="7" t="n">
         <v>0</v>
       </c>
@@ -1631,7 +1652,7 @@
         <f aca="false">Z9*10</f>
         <v>5.4</v>
       </c>
-      <c r="AB9" s="5" t="n">
+      <c r="AB9" s="17" t="n">
         <v>35.83</v>
       </c>
       <c r="AC9" s="5" t="n">
@@ -1641,7 +1662,7 @@
       <c r="AE9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="19"/>
+      <c r="AH9" s="20"/>
       <c r="AK9" s="5" t="n">
         <f aca="false">AE9+AF9+AG9+AI9+AJ9+AH9</f>
         <v>0</v>
@@ -1702,13 +1723,13 @@
       <c r="T10" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U10" s="18" t="n">
+      <c r="U10" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W10" s="7" t="n">
+      <c r="W10" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y10" s="7" t="n">
@@ -1722,7 +1743,7 @@
         <f aca="false">Z10*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB10" s="5" t="n">
+      <c r="AB10" s="17" t="n">
         <v>44.83</v>
       </c>
       <c r="AC10" s="5" t="n">
@@ -1795,13 +1816,13 @@
       <c r="T11" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U11" s="18" t="n">
+      <c r="U11" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V11" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W11" s="7" t="n">
+      <c r="W11" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y11" s="7" t="n">
@@ -1815,7 +1836,7 @@
         <f aca="false">Z11*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB11" s="5" t="n">
+      <c r="AB11" s="17" t="n">
         <v>44.5</v>
       </c>
       <c r="AC11" s="5" t="n">
@@ -1894,7 +1915,7 @@
       <c r="V12" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W12" s="7" t="n">
+      <c r="W12" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y12" s="7" t="n">
@@ -1908,7 +1929,7 @@
         <f aca="false">Z12*10</f>
         <v>7.16666666675</v>
       </c>
-      <c r="AB12" s="5" t="n">
+      <c r="AB12" s="17" t="n">
         <v>30</v>
       </c>
       <c r="AC12" s="5" t="n">
@@ -1983,13 +2004,13 @@
       <c r="T13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U13" s="18" t="n">
+      <c r="U13" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V13" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W13" s="7" t="n">
+      <c r="W13" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y13" s="7" t="n">
@@ -2003,7 +2024,7 @@
         <f aca="false">Z13*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB13" s="5" t="n">
+      <c r="AB13" s="17" t="n">
         <v>40.5</v>
       </c>
       <c r="AC13" s="5" t="n">
@@ -2082,7 +2103,7 @@
       <c r="V14" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="W14" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y14" s="7" t="n">
@@ -2096,7 +2117,7 @@
         <f aca="false">Z14*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB14" s="5" t="n">
+      <c r="AB14" s="17" t="n">
         <v>34.83</v>
       </c>
       <c r="AC14" s="5" t="n">
@@ -2106,7 +2127,7 @@
       <c r="AE14" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH14" s="17" t="n">
+      <c r="AH14" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK14" s="5" t="n">
@@ -2170,13 +2191,13 @@
       <c r="T15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="18" t="n">
+      <c r="U15" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W15" s="7" t="n">
+      <c r="W15" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y15" s="7" t="n">
@@ -2190,7 +2211,7 @@
         <f aca="false">Z15*10</f>
         <v>8.25</v>
       </c>
-      <c r="AB15" s="5" t="n">
+      <c r="AB15" s="17" t="n">
         <v>31.83</v>
       </c>
       <c r="AC15" s="5" t="n">
@@ -2265,13 +2286,13 @@
       <c r="T16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U16" s="18" t="n">
+      <c r="U16" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="7" t="n">
+      <c r="W16" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y16" s="7" t="n">
@@ -2285,7 +2306,7 @@
         <f aca="false">Z16*10</f>
         <v>7.55</v>
       </c>
-      <c r="AB16" s="5" t="n">
+      <c r="AB16" s="17" t="n">
         <v>33</v>
       </c>
       <c r="AC16" s="5" t="n">
@@ -2359,13 +2380,13 @@
       <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="18" t="n">
+      <c r="U17" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V17" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W17" s="7" t="n">
+      <c r="W17" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y17" s="7" t="n">
@@ -2379,7 +2400,7 @@
         <f aca="false">Z17*10</f>
         <v>8.25</v>
       </c>
-      <c r="AB17" s="5" t="n">
+      <c r="AB17" s="17" t="n">
         <v>32</v>
       </c>
       <c r="AC17" s="5" t="n">
@@ -2420,14 +2441,16 @@
       <c r="F18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="M18" s="5" t="n">
         <f aca="false">L18*10</f>
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N18" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2451,23 +2474,28 @@
       <c r="T18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="18" t="n">
+      <c r="U18" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="0"/>
+      <c r="W18" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Z18" s="8" t="n">
         <f aca="false">(SUM(O18:Y18)-(SMALL(O18:Y18,2)+SMALL(O18:Y18,1)+SMALL(O18:Y18,3)))/40</f>
-        <v>0.715</v>
+        <v>0.74</v>
       </c>
       <c r="AA18" s="5" t="n">
         <f aca="false">Z18*10</f>
-        <v>7.15</v>
+        <v>7.4</v>
+      </c>
+      <c r="AB18" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="AC18" s="5" t="n">
         <f aca="false">(AB18/50)*15 + 1.302</f>
@@ -2485,7 +2513,7 @@
       </c>
       <c r="AM18" s="9" t="n">
         <f aca="false">AL18+AK18+AD18+AC18+AA18+M18+(N18/2)</f>
-        <v>23.952</v>
+        <v>25.202</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,14 +2535,16 @@
       <c r="F19" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L19" s="4" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M19" s="5" t="n">
         <f aca="false">L19*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N19" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -2538,13 +2568,13 @@
       <c r="T19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="18" t="n">
+      <c r="U19" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V19" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W19" s="7" t="n">
+      <c r="W19" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y19" s="7" t="n">
@@ -2558,7 +2588,7 @@
         <f aca="false">Z19*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB19" s="5" t="n">
+      <c r="AB19" s="17" t="n">
         <v>37.83</v>
       </c>
       <c r="AC19" s="5" t="n">
@@ -2568,7 +2598,7 @@
       <c r="AE19" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH19" s="20" t="n">
+      <c r="AH19" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK19" s="5" t="n">
@@ -2577,7 +2607,7 @@
       </c>
       <c r="AM19" s="9" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
-        <v>36.06766666675</v>
+        <v>37.31766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,13 +2662,13 @@
       <c r="T20" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U20" s="18" t="n">
+      <c r="U20" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V20" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="W20" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y20" s="7" t="n">
@@ -2652,7 +2682,7 @@
         <f aca="false">Z20*10</f>
         <v>8.375</v>
       </c>
-      <c r="AB20" s="5" t="n">
+      <c r="AB20" s="17" t="n">
         <v>24.5</v>
       </c>
       <c r="AC20" s="5" t="n">
@@ -2662,7 +2692,7 @@
       <c r="AE20" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH20" s="20" t="n">
+      <c r="AH20" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK20" s="5" t="n">
@@ -2675,7 +2705,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -2693,7 +2723,9 @@
       <c r="F21" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.375</v>
@@ -2730,7 +2762,9 @@
       <c r="V21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W21" s="0"/>
+      <c r="W21" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y21" s="7" t="n">
         <v>0</v>
       </c>
@@ -2742,6 +2776,9 @@
         <f aca="false">Z21*10</f>
         <v>4.95</v>
       </c>
+      <c r="AB21" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="AC21" s="5" t="n">
         <f aca="false">(AB21/50)*15 + 1.302</f>
         <v>1.302</v>
@@ -2749,7 +2786,7 @@
       <c r="AE21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH21" s="17"/>
+      <c r="AH21" s="18"/>
       <c r="AK21" s="5" t="n">
         <f aca="false">AE21+AF21+AG21+AI21+AJ21+AH21</f>
         <v>5</v>
@@ -2760,7 +2797,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -2812,13 +2849,13 @@
       <c r="T22" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U22" s="18" t="n">
+      <c r="U22" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="7" t="n">
+      <c r="W22" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y22" s="7" t="n">
@@ -2832,7 +2869,7 @@
         <f aca="false">Z22*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB22" s="5" t="n">
+      <c r="AB22" s="17" t="n">
         <v>34.33</v>
       </c>
       <c r="AC22" s="5" t="n">
@@ -2842,7 +2879,7 @@
       <c r="AE22" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH22" s="20" t="n">
+      <c r="AH22" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK22" s="5" t="n">
@@ -2855,7 +2892,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -2907,13 +2944,13 @@
       <c r="T23" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U23" s="18" t="n">
+      <c r="U23" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V23" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W23" s="7" t="n">
+      <c r="W23" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y23" s="7" t="n">
@@ -2927,7 +2964,7 @@
         <f aca="false">Z23*10</f>
         <v>8</v>
       </c>
-      <c r="AB23" s="5" t="n">
+      <c r="AB23" s="17" t="n">
         <v>32.33</v>
       </c>
       <c r="AC23" s="5" t="n">
@@ -2937,7 +2974,7 @@
       <c r="AE23" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH23" s="20" t="n">
+      <c r="AH23" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK23" s="5" t="n">
@@ -2950,7 +2987,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -3001,13 +3038,13 @@
       <c r="T24" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U24" s="18" t="n">
+      <c r="U24" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V24" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W24" s="7" t="n">
+      <c r="W24" s="19" t="n">
         <v>3.5</v>
       </c>
       <c r="Y24" s="7" t="n">
@@ -3021,7 +3058,7 @@
         <f aca="false">Z24*10</f>
         <v>7.625</v>
       </c>
-      <c r="AB24" s="5" t="n">
+      <c r="AB24" s="17" t="n">
         <v>38.33</v>
       </c>
       <c r="AC24" s="5" t="n">
@@ -3031,7 +3068,7 @@
       <c r="AE24" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH24" s="20" t="n">
+      <c r="AH24" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK24" s="5" t="n">
@@ -3044,7 +3081,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -3101,7 +3138,7 @@
       <c r="V25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W25" s="7" t="n">
+      <c r="W25" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y25" s="7" t="n">
@@ -3115,7 +3152,7 @@
         <f aca="false">Z25*10</f>
         <v>8.125</v>
       </c>
-      <c r="AB25" s="5" t="n">
+      <c r="AB25" s="17" t="n">
         <v>36.83</v>
       </c>
       <c r="AC25" s="5" t="n">
@@ -3125,7 +3162,7 @@
       <c r="AE25" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH25" s="20" t="n">
+      <c r="AH25" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK25" s="5" t="n">
@@ -3138,7 +3175,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -3156,7 +3193,9 @@
       <c r="F26" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
         <v>0.375</v>
@@ -3186,13 +3225,13 @@
       <c r="T26" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U26" s="18" t="n">
+      <c r="U26" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V26" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W26" s="7" t="n">
+      <c r="W26" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y26" s="7" t="n">
@@ -3206,7 +3245,7 @@
         <f aca="false">Z26*10</f>
         <v>8.45</v>
       </c>
-      <c r="AB26" s="5" t="n">
+      <c r="AB26" s="17" t="n">
         <v>41.33</v>
       </c>
       <c r="AC26" s="5" t="n">
@@ -3216,7 +3255,7 @@
       <c r="AE26" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH26" s="20" t="n">
+      <c r="AH26" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK26" s="5" t="n">
@@ -3229,7 +3268,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -3280,13 +3319,13 @@
       <c r="T27" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U27" s="18" t="n">
+      <c r="U27" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W27" s="7" t="n">
+      <c r="W27" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y27" s="7" t="n">
@@ -3300,7 +3339,7 @@
         <f aca="false">Z27*10</f>
         <v>8.5</v>
       </c>
-      <c r="AB27" s="5" t="n">
+      <c r="AB27" s="17" t="n">
         <v>37.83</v>
       </c>
       <c r="AC27" s="5" t="n">
@@ -3310,7 +3349,7 @@
       <c r="AE27" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH27" s="20" t="n">
+      <c r="AH27" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK27" s="5" t="n">
@@ -3323,7 +3362,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -3374,13 +3413,13 @@
       <c r="T28" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U28" s="18" t="n">
+      <c r="U28" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W28" s="7" t="n">
+      <c r="W28" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y28" s="7" t="n">
@@ -3394,7 +3433,7 @@
         <f aca="false">Z28*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB28" s="5" t="n">
+      <c r="AB28" s="17" t="n">
         <v>41.83</v>
       </c>
       <c r="AC28" s="5" t="n">
@@ -3404,7 +3443,7 @@
       <c r="AE28" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH28" s="20" t="n">
+      <c r="AH28" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK28" s="5" t="n">
@@ -3417,7 +3456,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -3473,7 +3512,7 @@
       <c r="V29" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W29" s="7" t="n">
+      <c r="W29" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y29" s="7" t="n">
@@ -3487,7 +3526,7 @@
         <f aca="false">Z29*10</f>
         <v>7.88125</v>
       </c>
-      <c r="AB29" s="5" t="n">
+      <c r="AB29" s="17" t="n">
         <v>38.83</v>
       </c>
       <c r="AC29" s="5" t="n">
@@ -3497,7 +3536,7 @@
       <c r="AE29" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH29" s="20" t="n">
+      <c r="AH29" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK29" s="5" t="n">
@@ -3510,7 +3549,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -3528,7 +3567,9 @@
       <c r="F30" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
@@ -3565,7 +3606,9 @@
       <c r="V30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W30" s="0"/>
+      <c r="W30" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y30" s="7" t="n">
         <v>0</v>
       </c>
@@ -3577,6 +3620,9 @@
         <f aca="false">Z30*10</f>
         <v>3.55</v>
       </c>
+      <c r="AB30" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="AC30" s="5" t="n">
         <f aca="false">(AB30/50)*15 + 1.302</f>
         <v>1.302</v>
@@ -3584,7 +3630,7 @@
       <c r="AE30" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH30" s="17"/>
+      <c r="AH30" s="18"/>
       <c r="AK30" s="5" t="n">
         <f aca="false">AE30+AF30+AG30+AI30+AJ30+AH30</f>
         <v>0</v>
@@ -3595,7 +3641,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -3613,7 +3659,9 @@
       <c r="F31" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
         <v>0.375</v>
@@ -3644,13 +3692,13 @@
       <c r="T31" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U31" s="18" t="n">
+      <c r="U31" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V31" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="W31" s="7" t="n">
+      <c r="W31" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y31" s="7" t="n">
@@ -3664,7 +3712,7 @@
         <f aca="false">Z31*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB31" s="5" t="n">
+      <c r="AB31" s="17" t="n">
         <v>45.66</v>
       </c>
       <c r="AC31" s="5" t="n">
@@ -3674,7 +3722,7 @@
       <c r="AE31" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH31" s="20" t="n">
+      <c r="AH31" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK31" s="5" t="n">
@@ -3687,7 +3735,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -3705,7 +3753,9 @@
       <c r="F32" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.25</v>
@@ -3737,13 +3787,13 @@
       <c r="T32" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U32" s="18" t="n">
+      <c r="U32" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V32" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W32" s="7" t="n">
+      <c r="W32" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y32" s="7" t="n">
@@ -3757,7 +3807,7 @@
         <f aca="false">Z32*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB32" s="5" t="n">
+      <c r="AB32" s="17" t="n">
         <v>41</v>
       </c>
       <c r="AC32" s="5" t="n">
@@ -3767,7 +3817,7 @@
       <c r="AE32" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH32" s="20" t="n">
+      <c r="AH32" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK32" s="5" t="n">
@@ -3780,7 +3830,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -3798,7 +3848,9 @@
       <c r="F33" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L33" s="4" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.375</v>
@@ -3828,13 +3880,13 @@
       <c r="T33" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U33" s="18" t="n">
+      <c r="U33" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V33" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W33" s="7" t="n">
+      <c r="W33" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y33" s="7" t="n">
@@ -3848,7 +3900,7 @@
         <f aca="false">Z33*10</f>
         <v>8.4</v>
       </c>
-      <c r="AB33" s="5" t="n">
+      <c r="AB33" s="17" t="n">
         <v>40.33</v>
       </c>
       <c r="AC33" s="5" t="n">
@@ -3858,7 +3910,7 @@
       <c r="AE33" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH33" s="20" t="n">
+      <c r="AH33" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK33" s="5" t="n">
@@ -3871,7 +3923,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -3889,14 +3941,16 @@
       <c r="F34" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M34" s="5" t="n">
         <f aca="false">L34*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N34" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3920,13 +3974,13 @@
       <c r="T34" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U34" s="18" t="n">
+      <c r="U34" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V34" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W34" s="7" t="n">
+      <c r="W34" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y34" s="7" t="n">
@@ -3940,7 +3994,7 @@
         <f aca="false">Z34*10</f>
         <v>7.875</v>
       </c>
-      <c r="AB34" s="5" t="n">
+      <c r="AB34" s="17" t="n">
         <v>32</v>
       </c>
       <c r="AC34" s="5" t="n">
@@ -3950,7 +4004,7 @@
       <c r="AE34" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH34" s="20" t="n">
+      <c r="AH34" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK34" s="5" t="n">
@@ -3959,11 +4013,11 @@
       </c>
       <c r="AM34" s="9" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
-        <v>33.027</v>
+        <v>34.277</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -4019,7 +4073,7 @@
       <c r="V35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W35" s="7" t="n">
+      <c r="W35" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y35" s="7" t="n">
@@ -4033,7 +4087,7 @@
         <f aca="false">Z35*10</f>
         <v>5.025</v>
       </c>
-      <c r="AB35" s="5" t="n">
+      <c r="AB35" s="17" t="n">
         <v>33.33</v>
       </c>
       <c r="AC35" s="5" t="n">
@@ -4043,7 +4097,7 @@
       <c r="AE35" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH35" s="17" t="n">
+      <c r="AH35" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK35" s="5" t="n">
@@ -4056,7 +4110,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -4107,13 +4161,13 @@
       <c r="T36" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U36" s="18" t="n">
+      <c r="U36" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="7" t="n">
+      <c r="W36" s="19" t="n">
         <v>5</v>
       </c>
       <c r="Y36" s="7" t="n">
@@ -4127,7 +4181,7 @@
         <f aca="false">Z36*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB36" s="5" t="n">
+      <c r="AB36" s="17" t="n">
         <v>34.83</v>
       </c>
       <c r="AC36" s="5" t="n">
@@ -4137,7 +4191,7 @@
       <c r="AE36" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH36" s="20" t="n">
+      <c r="AH36" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK36" s="5" t="n">
@@ -4150,7 +4204,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -4202,13 +4256,13 @@
       <c r="T37" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U37" s="18" t="n">
+      <c r="U37" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V37" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W37" s="7" t="n">
+      <c r="W37" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y37" s="7" t="n">
@@ -4222,7 +4276,7 @@
         <f aca="false">Z37*10</f>
         <v>8.16666666675</v>
       </c>
-      <c r="AB37" s="5" t="n">
+      <c r="AB37" s="17" t="n">
         <v>40.33</v>
       </c>
       <c r="AC37" s="5" t="n">
@@ -4232,7 +4286,7 @@
       <c r="AE37" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH37" s="20" t="n">
+      <c r="AH37" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK37" s="5" t="n">
@@ -4245,7 +4299,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -4296,13 +4350,13 @@
       <c r="T38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U38" s="18" t="n">
+      <c r="U38" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V38" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W38" s="7" t="n">
+      <c r="W38" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y38" s="7" t="n">
@@ -4316,7 +4370,7 @@
         <f aca="false">Z38*10</f>
         <v>7.27916666675</v>
       </c>
-      <c r="AB38" s="5" t="n">
+      <c r="AB38" s="17" t="n">
         <v>30.83</v>
       </c>
       <c r="AC38" s="5" t="n">
@@ -4326,7 +4380,7 @@
       <c r="AE38" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH38" s="17" t="n">
+      <c r="AH38" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK38" s="5" t="n">
@@ -4339,7 +4393,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -4390,13 +4444,13 @@
       <c r="T39" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U39" s="18" t="n">
+      <c r="U39" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V39" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W39" s="7" t="n">
+      <c r="W39" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y39" s="7" t="n">
@@ -4410,7 +4464,7 @@
         <f aca="false">Z39*10</f>
         <v>7.77916666675</v>
       </c>
-      <c r="AB39" s="5" t="n">
+      <c r="AB39" s="17" t="n">
         <v>37.83</v>
       </c>
       <c r="AC39" s="5" t="n">
@@ -4420,7 +4474,7 @@
       <c r="AE39" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH39" s="17" t="n">
+      <c r="AH39" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK39" s="5" t="n">
@@ -4433,7 +4487,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -4451,14 +4505,16 @@
       <c r="F40" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="15"/>
+      <c r="G40" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M40" s="5" t="n">
         <f aca="false">L40*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0</v>
@@ -4482,13 +4538,13 @@
       <c r="T40" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U40" s="18" t="n">
+      <c r="U40" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V40" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W40" s="7" t="n">
+      <c r="W40" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y40" s="7" t="n">
@@ -4502,7 +4558,7 @@
         <f aca="false">Z40*10</f>
         <v>8.54166666675</v>
       </c>
-      <c r="AB40" s="5" t="n">
+      <c r="AB40" s="17" t="n">
         <v>34</v>
       </c>
       <c r="AC40" s="5" t="n">
@@ -4512,7 +4568,7 @@
       <c r="AE40" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH40" s="20" t="n">
+      <c r="AH40" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK40" s="5" t="n">
@@ -4521,11 +4577,11 @@
       </c>
       <c r="AM40" s="9" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
-        <v>32.54366666675</v>
+        <v>33.79366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -4582,7 +4638,7 @@
       <c r="V41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W41" s="7" t="n">
+      <c r="W41" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y41" s="7" t="n">
@@ -4596,7 +4652,7 @@
         <f aca="false">Z41*10</f>
         <v>5.8</v>
       </c>
-      <c r="AB41" s="5" t="n">
+      <c r="AB41" s="17" t="n">
         <v>43</v>
       </c>
       <c r="AC41" s="5" t="n">
@@ -4606,7 +4662,7 @@
       <c r="AE41" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH41" s="20" t="n">
+      <c r="AH41" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK41" s="5" t="n">
@@ -4619,7 +4675,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -4637,7 +4693,9 @@
       <c r="F42" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.375</v>
@@ -4668,25 +4726,27 @@
       <c r="T42" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="18" t="n">
+      <c r="U42" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V42" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W42" s="0"/>
+      <c r="W42" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y42" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z42" s="8" t="n">
         <f aca="false">(SUM(O42:Y42)-(SMALL(O42:Y42,2)+SMALL(O42:Y42,1)+SMALL(O42:Y42,3)))/40</f>
-        <v>0.665</v>
+        <v>0.69</v>
       </c>
       <c r="AA42" s="5" t="n">
         <f aca="false">Z42*10</f>
-        <v>6.65</v>
-      </c>
-      <c r="AB42" s="5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB42" s="17" t="n">
         <v>37.33</v>
       </c>
       <c r="AC42" s="5" t="n">
@@ -4696,18 +4756,18 @@
       <c r="AE42" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH42" s="17"/>
+      <c r="AH42" s="18"/>
       <c r="AK42" s="5" t="n">
         <f aca="false">AE42+AF42+AG42+AI42+AJ42+AH42</f>
         <v>0</v>
       </c>
       <c r="AM42" s="9" t="n">
         <f aca="false">AL42+AK42+AD42+AC42+AA42+M42+(N42/2)</f>
-        <v>23.651</v>
+        <v>23.901</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -4758,13 +4818,15 @@
       <c r="T43" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U43" s="18" t="n">
+      <c r="U43" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W43" s="0"/>
+      <c r="W43" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y43" s="7" t="n">
         <v>5</v>
       </c>
@@ -4776,7 +4838,7 @@
         <f aca="false">Z43*10</f>
         <v>4.125</v>
       </c>
-      <c r="AB43" s="5" t="n">
+      <c r="AB43" s="17" t="n">
         <v>36.83</v>
       </c>
       <c r="AC43" s="5" t="n">
@@ -4786,7 +4848,7 @@
       <c r="AE43" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH43" s="20" t="n">
+      <c r="AH43" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK43" s="5" t="n">
@@ -4799,7 +4861,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -4849,13 +4911,13 @@
       <c r="T44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U44" s="18" t="n">
+      <c r="U44" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V44" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W44" s="7" t="n">
+      <c r="W44" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y44" s="7" t="n">
@@ -4869,7 +4931,7 @@
         <f aca="false">Z44*10</f>
         <v>4.51666666675</v>
       </c>
-      <c r="AB44" s="5" t="n">
+      <c r="AB44" s="17" t="n">
         <v>23.83</v>
       </c>
       <c r="AC44" s="5" t="n">
@@ -4879,7 +4941,7 @@
       <c r="AE44" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH44" s="20" t="n">
+      <c r="AH44" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK44" s="5" t="n">
@@ -4892,7 +4954,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -4910,14 +4972,16 @@
       <c r="F45" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G45" s="15"/>
+      <c r="G45" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M45" s="5" t="n">
         <f aca="false">L45*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0</v>
@@ -4940,13 +5004,13 @@
       <c r="T45" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U45" s="18" t="n">
+      <c r="U45" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V45" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W45" s="7" t="n">
+      <c r="W45" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y45" s="7" t="n">
@@ -4960,7 +5024,7 @@
         <f aca="false">Z45*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AB45" s="5" t="n">
+      <c r="AB45" s="17" t="n">
         <v>33.33</v>
       </c>
       <c r="AC45" s="5" t="n">
@@ -4970,7 +5034,7 @@
       <c r="AE45" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH45" s="20" t="n">
+      <c r="AH45" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK45" s="5" t="n">
@@ -4979,11 +5043,11 @@
       </c>
       <c r="AM45" s="9" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>32.96766666675</v>
+        <v>34.21766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -5039,7 +5103,9 @@
       <c r="V46" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="W46" s="0"/>
+      <c r="W46" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y46" s="7" t="n">
         <v>5</v>
       </c>
@@ -5051,7 +5117,7 @@
         <f aca="false">Z46*10</f>
         <v>5.5</v>
       </c>
-      <c r="AB46" s="5" t="n">
+      <c r="AB46" s="17" t="n">
         <v>37.5</v>
       </c>
       <c r="AC46" s="5" t="n">
@@ -5061,7 +5127,7 @@
       <c r="AE46" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH46" s="17" t="n">
+      <c r="AH46" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK46" s="5" t="n">
@@ -5074,7 +5140,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -5124,13 +5190,13 @@
       <c r="T47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U47" s="18" t="n">
+      <c r="U47" s="19" t="n">
         <v>4</v>
       </c>
       <c r="V47" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W47" s="7" t="n">
+      <c r="W47" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y47" s="7" t="n">
@@ -5144,7 +5210,7 @@
         <f aca="false">Z47*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AB47" s="5" t="n">
+      <c r="AB47" s="17" t="n">
         <v>35.5</v>
       </c>
       <c r="AC47" s="5" t="n">
@@ -5154,7 +5220,7 @@
       <c r="AE47" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH47" s="17" t="n">
+      <c r="AH47" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK47" s="5" t="n">
@@ -5167,7 +5233,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -5218,13 +5284,13 @@
       <c r="T48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U48" s="18" t="n">
+      <c r="U48" s="19" t="n">
         <v>4.5</v>
       </c>
       <c r="V48" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W48" s="7" t="n">
+      <c r="W48" s="19" t="n">
         <v>4</v>
       </c>
       <c r="Y48" s="7" t="n">
@@ -5238,7 +5304,7 @@
         <f aca="false">Z48*10</f>
         <v>8.20833333325</v>
       </c>
-      <c r="AB48" s="5" t="n">
+      <c r="AB48" s="17" t="n">
         <v>34.83</v>
       </c>
       <c r="AC48" s="5" t="n">
@@ -5248,7 +5314,7 @@
       <c r="AE48" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH48" s="17" t="n">
+      <c r="AH48" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK48" s="5" t="n">
@@ -5261,7 +5327,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -5279,7 +5345,9 @@
       <c r="F49" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="15"/>
+      <c r="G49" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" s="4" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.375</v>
@@ -5309,13 +5377,15 @@
       <c r="T49" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="18" t="n">
+      <c r="U49" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W49" s="0"/>
+      <c r="W49" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y49" s="7" t="n">
         <v>0</v>
       </c>
@@ -5327,6 +5397,9 @@
         <f aca="false">Z49*10</f>
         <v>5.1</v>
       </c>
+      <c r="AB49" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="AC49" s="5" t="n">
         <f aca="false">(AB49/50)*15 + 1.302</f>
         <v>1.302</v>
@@ -5334,7 +5407,7 @@
       <c r="AE49" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH49" s="17" t="n">
+      <c r="AH49" s="18" t="n">
         <v>5</v>
       </c>
       <c r="AK49" s="5" t="n">
@@ -5347,7 +5420,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -5365,14 +5438,16 @@
       <c r="F50" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G50" s="15"/>
+      <c r="G50" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L50" s="4" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M50" s="5" t="n">
         <f aca="false">L50*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
@@ -5395,13 +5470,13 @@
       <c r="T50" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U50" s="18" t="n">
+      <c r="U50" s="19" t="n">
         <v>5</v>
       </c>
       <c r="V50" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W50" s="7" t="n">
+      <c r="W50" s="19" t="n">
         <v>3</v>
       </c>
       <c r="Y50" s="7" t="n">
@@ -5415,7 +5490,7 @@
         <f aca="false">Z50*10</f>
         <v>8</v>
       </c>
-      <c r="AB50" s="5" t="n">
+      <c r="AB50" s="17" t="n">
         <v>34.33</v>
       </c>
       <c r="AC50" s="5" t="n">
@@ -5425,7 +5500,7 @@
       <c r="AE50" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH50" s="20" t="n">
+      <c r="AH50" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK50" s="5" t="n">
@@ -5434,11 +5509,11 @@
       </c>
       <c r="AM50" s="9" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>33.351</v>
+        <v>34.601</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="27" t="s">
         <v>88</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -5456,7 +5531,9 @@
       <c r="F51" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G51" s="15"/>
+      <c r="G51" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" s="4" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>
@@ -5486,11 +5563,14 @@
       <c r="T51" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U51" s="18" t="n">
+      <c r="U51" s="19" t="n">
         <v>0</v>
       </c>
       <c r="V51" s="7" t="n">
         <v>2.5</v>
+      </c>
+      <c r="W51" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="Y51" s="7" t="n">
         <v>5</v>
@@ -5503,7 +5583,7 @@
         <f aca="false">Z51*10</f>
         <v>4.875</v>
       </c>
-      <c r="AB51" s="5" t="n">
+      <c r="AB51" s="17" t="n">
         <v>39.5</v>
       </c>
       <c r="AC51" s="5" t="n">
@@ -5513,7 +5593,7 @@
       <c r="AE51" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH51" s="20" t="n">
+      <c r="AH51" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK51" s="5" t="n">
@@ -5544,7 +5624,9 @@
       <c r="F52" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G52" s="15"/>
+      <c r="G52" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
         <v>0.25</v>
@@ -5580,6 +5662,9 @@
       <c r="V52" s="7" t="n">
         <v>4.666666667</v>
       </c>
+      <c r="W52" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="Y52" s="7" t="n">
         <v>5</v>
       </c>
@@ -5591,6 +5676,9 @@
         <f aca="false">Z52*10</f>
         <v>4.39166666675</v>
       </c>
+      <c r="AB52" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="AC52" s="5" t="n">
         <f aca="false">(AB52/50)*15 + 1.302</f>
         <v>1.302</v>
@@ -5598,7 +5686,7 @@
       <c r="AE52" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH52" s="20" t="n">
+      <c r="AH52" s="22" t="n">
         <v>5</v>
       </c>
       <c r="AK52" s="5" t="n">
@@ -5612,148 +5700,148 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="15"/>
-      <c r="AH53" s="20"/>
+      <c r="AH53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28"/>
-      <c r="E57" s="29" t="s">
+      <c r="A57" s="30"/>
+      <c r="E57" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="32" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28"/>
-      <c r="E58" s="31" t="s">
+      <c r="A58" s="30"/>
+      <c r="E58" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G58" s="32" t="n">
+      <c r="G58" s="34" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28"/>
-      <c r="E59" s="31" t="s">
+      <c r="A59" s="30"/>
+      <c r="E59" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="32" t="n">
+      <c r="G59" s="34" t="n">
         <v>3.67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28"/>
-      <c r="E60" s="31" t="s">
+      <c r="A60" s="30"/>
+      <c r="E60" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="32" t="n">
+      <c r="G60" s="34" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="28"/>
-      <c r="E61" s="31" t="s">
+      <c r="A61" s="30"/>
+      <c r="E61" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="32" t="n">
+      <c r="G61" s="34" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28"/>
-      <c r="E62" s="31" t="s">
+      <c r="A62" s="30"/>
+      <c r="E62" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G62" s="32" t="n">
+      <c r="G62" s="34" t="n">
         <v>2.67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28"/>
-      <c r="E63" s="31" t="s">
+      <c r="A63" s="30"/>
+      <c r="E63" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="31" t="s">
+      <c r="F63" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="32" t="n">
+      <c r="G63" s="34" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28"/>
-      <c r="E64" s="31" t="s">
+      <c r="A64" s="30"/>
+      <c r="E64" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G64" s="32" t="n">
+      <c r="G64" s="34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28"/>
-      <c r="E65" s="31" t="s">
+      <c r="A65" s="30"/>
+      <c r="E65" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G65" s="32" t="n">
+      <c r="G65" s="34" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28"/>
-      <c r="E66" s="31" t="s">
+      <c r="A66" s="30"/>
+      <c r="E66" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="31" t="s">
+      <c r="F66" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="32" t="n">
+      <c r="G66" s="34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -785,27 +785,28 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM1" activeCellId="0" sqref="AM1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB7" activeCellId="0" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="23.6122448979592"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,11 +1466,11 @@
         <v>8.29166666675</v>
       </c>
       <c r="AB7" s="21" t="n">
-        <v>0</v>
+        <v>37.33</v>
       </c>
       <c r="AC7" s="5" t="n">
         <f aca="false">(AB7/50)*15 + 1.302</f>
-        <v>1.302</v>
+        <v>12.501</v>
       </c>
       <c r="AE7" s="6" t="n">
         <v>5</v>
@@ -1483,7 +1484,7 @@
       </c>
       <c r="AM7" s="9" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
-        <v>26.34366666675</v>
+        <v>37.54266666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -785,28 +785,28 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB7" activeCellId="0" sqref="AB7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3180,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0</v>
@@ -3199,11 +3199,11 @@
       </c>
       <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M26" s="5" t="n">
         <f aca="false">L26*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>3</v>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="AM26" s="9" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
-        <v>37.401</v>
+        <v>38.651</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -785,28 +785,28 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3928,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0</v>
@@ -3947,11 +3947,11 @@
       </c>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M34" s="5" t="n">
         <f aca="false">L34*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N34" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="AM34" s="9" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
-        <v>34.277</v>
+        <v>35.527</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4492,7 @@
         <v>77</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0</v>
@@ -4511,11 +4511,11 @@
       </c>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M40" s="5" t="n">
         <f aca="false">L40*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="AM40" s="9" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
-        <v>33.79366666675</v>
+        <v>35.04366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -785,28 +785,28 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB52" activeCellId="0" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.5102040816327"/>
+    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="7" min="7" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="11" min="8" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="13" min="13" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="14" min="14" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="25" min="15" style="7" width="0"/>
+    <col collapsed="false" hidden="true" max="26" min="26" style="8" width="0"/>
+    <col collapsed="false" hidden="true" max="27" min="27" style="5" width="0"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.3877551020408"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,11 +5678,11 @@
         <v>4.39166666675</v>
       </c>
       <c r="AB52" s="17" t="n">
-        <v>0</v>
+        <v>34.33</v>
       </c>
       <c r="AC52" s="5" t="n">
         <f aca="false">(AB52/50)*15 + 1.302</f>
-        <v>1.302</v>
+        <v>11.601</v>
       </c>
       <c r="AE52" s="6" t="n">
         <v>5</v>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="AM52" s="9" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
-        <v>20.19366666675</v>
+        <v>30.49266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -785,28 +785,30 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB52" activeCellId="0" sqref="AB52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.5102040816327"/>
-    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="7" min="7" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="11" min="8" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="12" min="12" style="4" width="0"/>
-    <col collapsed="false" hidden="true" max="13" min="13" style="5" width="0"/>
-    <col collapsed="false" hidden="true" max="14" min="14" style="6" width="0"/>
-    <col collapsed="false" hidden="true" max="25" min="15" style="7" width="0"/>
-    <col collapsed="false" hidden="true" max="26" min="26" style="8" width="0"/>
-    <col collapsed="false" hidden="true" max="27" min="27" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="25.8367346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,13 +1140,16 @@
       <c r="G4" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="H4" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M4" s="5" t="n">
         <f aca="false">L4*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>4</v>
@@ -1206,7 +1211,7 @@
       </c>
       <c r="AM4" s="9" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
-        <v>36.102</v>
+        <v>37.352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,13 +1514,16 @@
       <c r="G8" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="H8" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L8" s="4" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M8" s="5" t="n">
         <f aca="false">L8*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>4</v>
@@ -1578,7 +1586,7 @@
       </c>
       <c r="AM8" s="9" t="n">
         <f aca="false">AL8+AK8+AD8+AC8+AA8+M8+(N8/2)</f>
-        <v>40.402</v>
+        <v>41.652</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,13 +1703,16 @@
       <c r="G10" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="H10" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L10" s="4" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M10" s="5" t="n">
         <f aca="false">L10*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>2</v>
@@ -1763,7 +1774,7 @@
       </c>
       <c r="AM10" s="9" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
-        <v>39.501</v>
+        <v>40.751</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,13 +1799,16 @@
       <c r="G11" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="H11" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L11" s="4" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M11" s="5" t="n">
         <f aca="false">L11*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>2</v>
@@ -1856,7 +1870,7 @@
       </c>
       <c r="AM11" s="9" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
-        <v>39.402</v>
+        <v>40.652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,13 +2083,16 @@
       <c r="G14" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="H14" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L14" s="4" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M14" s="5" t="n">
         <f aca="false">L14*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>4</v>
@@ -2137,7 +2154,7 @@
       </c>
       <c r="AM14" s="9" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
-        <v>37.16766666675</v>
+        <v>38.41766666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,13 +2836,16 @@
       <c r="G22" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="H22" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L22" s="4" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M22" s="5" t="n">
         <f aca="false">L22*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N22" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2889,7 +2909,7 @@
       </c>
       <c r="AM22" s="9" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
-        <v>36.976</v>
+        <v>38.226</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,13 +3123,16 @@
       <c r="G25" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="H25" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L25" s="4" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M25" s="5" t="n">
         <f aca="false">L25*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N25" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3172,7 +3195,7 @@
       </c>
       <c r="AM25" s="9" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
-        <v>37.226</v>
+        <v>38.476</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,13 +3313,16 @@
       <c r="G27" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="H27" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L27" s="4" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M27" s="5" t="n">
         <f aca="false">L27*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N27" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3359,7 +3385,7 @@
       </c>
       <c r="AM27" s="9" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
-        <v>37.901</v>
+        <v>39.151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,13 +3410,16 @@
       <c r="G28" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="H28" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L28" s="4" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M28" s="5" t="n">
         <f aca="false">L28*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N28" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3453,7 +3482,7 @@
       </c>
       <c r="AM28" s="9" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
-        <v>39.226</v>
+        <v>40.476</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,10 +3675,10 @@
         <v>68</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>5</v>
@@ -3661,15 +3690,18 @@
         <v>5</v>
       </c>
       <c r="G31" s="15" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="M31" s="5" t="n">
         <f aca="false">L31*10</f>
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="N31" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3732,7 +3764,7 @@
       </c>
       <c r="AM31" s="9" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
-        <v>39</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,13 +3977,16 @@
       <c r="G34" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="H34" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M34" s="5" t="n">
         <f aca="false">L34*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N34" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -4014,7 +4049,7 @@
       </c>
       <c r="AM34" s="9" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
-        <v>35.527</v>
+        <v>36.777</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,13 +4167,16 @@
       <c r="G36" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="H36" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L36" s="4" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M36" s="5" t="n">
         <f aca="false">L36*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N36" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -4201,7 +4239,7 @@
       </c>
       <c r="AM36" s="9" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
-        <v>37.126</v>
+        <v>38.376</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,13 +4547,16 @@
       <c r="G40" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="H40" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M40" s="5" t="n">
         <f aca="false">L40*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0</v>
@@ -4578,7 +4619,7 @@
       </c>
       <c r="AM40" s="9" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
-        <v>35.04366666675</v>
+        <v>36.29366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,13 +4830,16 @@
       <c r="G43" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="H43" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L43" s="4" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M43" s="5" t="n">
         <f aca="false">L43*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N43" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -4858,7 +4902,7 @@
       </c>
       <c r="AM43" s="9" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
-        <v>33.226</v>
+        <v>34.476</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,13 +5672,16 @@
       <c r="G52" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="H52" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M52" s="5" t="n">
         <f aca="false">L52*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>4</v>
@@ -5696,7 +5743,7 @@
       </c>
       <c r="AM52" s="9" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
-        <v>30.49266666675</v>
+        <v>31.74266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -365,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -403,6 +403,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -565,7 +572,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -579,6 +586,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -602,19 +613,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,6 +639,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -682,7 +697,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,11 +705,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,7 +717,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -757,14 +772,14 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF4682B4"/>
       <rgbColor rgb="FF20B2AA"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF4682B4"/>
       <rgbColor rgb="FF778899"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF5F9EA0"/>
       <rgbColor rgb="FF003300"/>
@@ -785,154 +800,154 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="36" min="31" style="6" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="9" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.5867346938776"/>
+    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="7" min="7" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="7" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="8" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="9" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="6" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="36" min="31" style="7" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="6" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="6" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="12"/>
+      <c r="AN1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -947,86 +962,87 @@
       <c r="E2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L2" s="4" t="n">
+      <c r="F2" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="L2" s="5" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="6" t="n">
         <f aca="false">L2*10</f>
         <v>5</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="P2" s="8" t="n">
         <f aca="false">2+0.8+0.5</f>
         <v>3.3</v>
       </c>
-      <c r="Q2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7" t="n">
+      <c r="Q2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="8" t="n">
+      <c r="U2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="9" t="n">
         <f aca="false">(SUM(O2:Y2)-(SMALL(O2:Y2,2)+SMALL(O2:Y2,1)+SMALL(O2:Y2,3)))/40</f>
         <v>0.545</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="6" t="n">
         <f aca="false">Z2*10</f>
         <v>5.45</v>
       </c>
-      <c r="AB2" s="17" t="n">
+      <c r="AB2" s="19" t="n">
         <v>36.5</v>
       </c>
-      <c r="AC2" s="5" t="n">
+      <c r="AC2" s="6" t="n">
         <f aca="false">(AB2/50)*15 + 1.302</f>
         <v>12.252</v>
       </c>
-      <c r="AE2" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH2" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK2" s="5" t="n">
+      <c r="AE2" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="6" t="n">
         <f aca="false">AE2+AF2+AG2+AI2+AJ2+AH2</f>
         <v>10</v>
       </c>
-      <c r="AM2" s="9" t="n">
+      <c r="AM2" s="10" t="n">
         <f aca="false">AL2+AK2+AD2+AC2+AA2+M2+(N2/2)</f>
         <v>34.702</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -1041,85 +1057,88 @@
       <c r="E3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="F3" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
-        <v>0.45</v>
-      </c>
-      <c r="M3" s="5" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="M3" s="6" t="n">
         <f aca="false">L3*10</f>
+        <v>5.75</v>
+      </c>
+      <c r="N3" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="N3" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O3" s="7" t="n">
+      <c r="P3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="P3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V3" s="7" t="n">
+      <c r="V3" s="8" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W3" s="19" t="n">
+      <c r="W3" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y3" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="8" t="n">
+      <c r="Y3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="9" t="n">
         <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)+SMALL(O3:Y3,3)))/40</f>
         <v>0.808333333325</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="AA3" s="6" t="n">
         <f aca="false">Z3*10</f>
         <v>8.08333333325</v>
       </c>
-      <c r="AB3" s="17" t="n">
+      <c r="AB3" s="19" t="n">
         <v>30.33</v>
       </c>
-      <c r="AC3" s="5" t="n">
+      <c r="AC3" s="6" t="n">
         <f aca="false">(AB3/50)*15 + 1.302</f>
         <v>10.401</v>
       </c>
-      <c r="AE3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK3" s="5" t="n">
+      <c r="AE3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="6" t="n">
         <f aca="false">AE3+AF3+AG3+AI3+AJ3+AH3</f>
         <v>10</v>
       </c>
-      <c r="AM3" s="9" t="n">
+      <c r="AM3" s="10" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
-        <v>33.73433333325</v>
+        <v>34.98433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -1134,88 +1153,88 @@
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="F4" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="6" t="n">
         <f aca="false">L4*10</f>
         <v>6.25</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" s="7" t="n">
+      <c r="O4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="8" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" s="7" t="n">
+      <c r="Q4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8" t="n">
+      <c r="U4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9" t="n">
         <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)+SMALL(O4:Y4,3)))/40</f>
         <v>0.745</v>
       </c>
-      <c r="AA4" s="5" t="n">
+      <c r="AA4" s="6" t="n">
         <f aca="false">Z4*10</f>
         <v>7.45</v>
       </c>
-      <c r="AB4" s="17" t="n">
+      <c r="AB4" s="19" t="n">
         <v>34.5</v>
       </c>
-      <c r="AC4" s="5" t="n">
+      <c r="AC4" s="6" t="n">
         <f aca="false">(AB4/50)*15 + 1.302</f>
         <v>11.652</v>
       </c>
-      <c r="AE4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="5" t="n">
+      <c r="AE4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="6" t="n">
         <f aca="false">AE4+AF4+AG4+AI4+AJ4+AH4</f>
         <v>10</v>
       </c>
-      <c r="AM4" s="9" t="n">
+      <c r="AM4" s="10" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
         <v>37.352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -1230,85 +1249,88 @@
       <c r="E5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="F5" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M5" s="6" t="n">
         <f aca="false">L5*10</f>
-        <v>5</v>
-      </c>
-      <c r="N5" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N5" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="P5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" s="7" t="n">
+      <c r="P5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="19" t="n">
+      <c r="U5" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V5" s="7" t="n">
+      <c r="V5" s="8" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W5" s="19" t="n">
+      <c r="W5" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="8" t="n">
+      <c r="Y5" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="9" t="n">
         <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
         <v>0.758333333325</v>
       </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AA5" s="6" t="n">
         <f aca="false">Z5*10</f>
         <v>7.58333333325</v>
       </c>
-      <c r="AB5" s="17" t="n">
+      <c r="AB5" s="19" t="n">
         <v>33.16</v>
       </c>
-      <c r="AC5" s="5" t="n">
+      <c r="AC5" s="6" t="n">
         <f aca="false">(AB5/50)*15 + 1.302</f>
         <v>11.25</v>
       </c>
-      <c r="AE5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK5" s="5" t="n">
+      <c r="AE5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="6" t="n">
         <f aca="false">AE5+AF5+AG5+AI5+AJ5+AH5</f>
         <v>10</v>
       </c>
-      <c r="AM5" s="9" t="n">
+      <c r="AM5" s="10" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
-        <v>34.58333333325</v>
+        <v>35.83333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -1323,84 +1345,87 @@
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4" t="n">
+      <c r="F6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
-        <v>0.475</v>
-      </c>
-      <c r="M6" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="6" t="n">
         <f aca="false">L6*10</f>
-        <v>4.75</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="7" t="n">
+      <c r="P6" s="8" t="n">
         <f aca="false">0.7+0.2+1</f>
         <v>1.9</v>
       </c>
-      <c r="Q6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" s="7" t="n">
+      <c r="Q6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" s="7" t="n">
+      <c r="U6" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" s="8" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W6" s="19" t="n">
+      <c r="W6" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="8" t="n">
+      <c r="Y6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="9" t="n">
         <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)+SMALL(O6:Y6,3)))/40</f>
         <v>0.829166666675</v>
       </c>
-      <c r="AA6" s="5" t="n">
+      <c r="AA6" s="6" t="n">
         <f aca="false">Z6*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AB6" s="17" t="n">
+      <c r="AB6" s="19" t="n">
         <v>37.66</v>
       </c>
-      <c r="AC6" s="5" t="n">
+      <c r="AC6" s="6" t="n">
         <f aca="false">(AB6/50)*15 + 1.302</f>
         <v>12.6</v>
       </c>
-      <c r="AE6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="20"/>
-      <c r="AK6" s="5" t="n">
+      <c r="AE6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="22"/>
+      <c r="AK6" s="6" t="n">
         <f aca="false">AE6+AF6+AG6+AI6+AJ6+AH6</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="9" t="n">
+      <c r="AM6" s="10" t="n">
         <f aca="false">AL6+AK6+AD6+AC6+AA6+M6+(N6/2)</f>
-        <v>25.64166666675</v>
+        <v>26.89166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -1415,85 +1440,88 @@
       <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4" t="n">
+      <c r="F7" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" s="5" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M7" s="6" t="n">
         <f aca="false">L7*10</f>
-        <v>5</v>
-      </c>
-      <c r="N7" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N7" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="O7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P7" s="7" t="n">
+      <c r="O7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="8" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" s="7" t="n">
+      <c r="Q7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="U7" s="19" t="n">
+      <c r="U7" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V7" s="7" t="n">
+      <c r="V7" s="8" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W7" s="19" t="n">
+      <c r="W7" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="8" t="n">
+      <c r="Y7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="9" t="n">
         <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)+SMALL(O7:Y7,3)))/40</f>
         <v>0.829166666675</v>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="6" t="n">
         <f aca="false">Z7*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AB7" s="21" t="n">
+      <c r="AB7" s="23" t="n">
         <v>37.33</v>
       </c>
-      <c r="AC7" s="5" t="n">
+      <c r="AC7" s="6" t="n">
         <f aca="false">(AB7/50)*15 + 1.302</f>
         <v>12.501</v>
       </c>
-      <c r="AE7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH7" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="5" t="n">
+      <c r="AE7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="6" t="n">
         <f aca="false">AE7+AF7+AG7+AI7+AJ7+AH7</f>
         <v>10</v>
       </c>
-      <c r="AM7" s="9" t="n">
+      <c r="AM7" s="10" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
-        <v>37.54266666675</v>
+        <v>38.79266666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -1508,89 +1536,89 @@
       <c r="E8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4" t="n">
+      <c r="F8" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="5" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="6" t="n">
         <f aca="false">L8*10</f>
         <v>6.25</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" s="7" t="n">
+      <c r="O8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" s="8" t="n">
         <f aca="false">1+1+0.8+0.8+1</f>
         <v>4.6</v>
       </c>
-      <c r="Q8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T8" s="7" t="n">
+      <c r="Q8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="U8" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V8" s="7" t="n">
+      <c r="U8" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" s="8" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W8" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="8" t="n">
+      <c r="W8" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="9" t="n">
         <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)+SMALL(O8:Y8,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA8" s="5" t="n">
+      <c r="AA8" s="6" t="n">
         <f aca="false">Z8*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB8" s="17" t="n">
+      <c r="AB8" s="19" t="n">
         <v>44.5</v>
       </c>
-      <c r="AC8" s="5" t="n">
+      <c r="AC8" s="6" t="n">
         <f aca="false">(AB8/50)*15 + 1.302</f>
         <v>14.652</v>
       </c>
-      <c r="AE8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK8" s="5" t="n">
+      <c r="AE8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="6" t="n">
         <f aca="false">AE8+AF8+AG8+AI8+AJ8+AH8</f>
         <v>10</v>
       </c>
-      <c r="AM8" s="9" t="n">
+      <c r="AM8" s="10" t="n">
         <f aca="false">AL8+AK8+AD8+AC8+AA8+M8+(N8/2)</f>
         <v>41.652</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -1605,84 +1633,85 @@
       <c r="E9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n">
+      <c r="F9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="L9" s="5" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="6" t="n">
         <f aca="false">L9*10</f>
         <v>3.75</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8" t="n">
         <f aca="false">0.8+1+1+1+0.8</f>
         <v>4.6</v>
       </c>
-      <c r="Q9" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" s="7" t="n">
+      <c r="Q9" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="8" t="n">
+      <c r="U9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9" t="n">
         <f aca="false">(SUM(O9:Y9)-(SMALL(O9:Y9,2)+SMALL(O9:Y9,1)+SMALL(O9:Y9,3)))/40</f>
         <v>0.54</v>
       </c>
-      <c r="AA9" s="5" t="n">
+      <c r="AA9" s="6" t="n">
         <f aca="false">Z9*10</f>
         <v>5.4</v>
       </c>
-      <c r="AB9" s="17" t="n">
+      <c r="AB9" s="19" t="n">
         <v>35.83</v>
       </c>
-      <c r="AC9" s="5" t="n">
+      <c r="AC9" s="6" t="n">
         <f aca="false">(AB9/50)*15 + 1.302</f>
         <v>12.051</v>
       </c>
-      <c r="AE9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="20"/>
-      <c r="AK9" s="5" t="n">
+      <c r="AE9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="22"/>
+      <c r="AK9" s="6" t="n">
         <f aca="false">AE9+AF9+AG9+AI9+AJ9+AH9</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="9" t="n">
+      <c r="AM9" s="10" t="n">
         <f aca="false">AL9+AK9+AD9+AC9+AA9+M9+(N9/2)</f>
         <v>23.201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -1697,88 +1726,88 @@
       <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" s="4" t="n">
+      <c r="F10" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="6" t="n">
         <f aca="false">L10*10</f>
         <v>6.25</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" s="7" t="n">
+      <c r="O10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" s="8" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U10" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8" t="n">
+      <c r="Q10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9" t="n">
         <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)+SMALL(O10:Y10,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA10" s="5" t="n">
+      <c r="AA10" s="6" t="n">
         <f aca="false">Z10*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB10" s="17" t="n">
+      <c r="AB10" s="19" t="n">
         <v>44.83</v>
       </c>
-      <c r="AC10" s="5" t="n">
+      <c r="AC10" s="6" t="n">
         <f aca="false">(AB10/50)*15 + 1.302</f>
         <v>14.751</v>
       </c>
-      <c r="AE10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK10" s="5" t="n">
+      <c r="AE10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="6" t="n">
         <f aca="false">AE10+AF10+AG10+AI10+AJ10+AH10</f>
         <v>10</v>
       </c>
-      <c r="AM10" s="9" t="n">
+      <c r="AM10" s="10" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
         <v>40.751</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -1793,88 +1822,88 @@
       <c r="E11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4" t="n">
+      <c r="F11" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="6" t="n">
         <f aca="false">L11*10</f>
         <v>6.25</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="O11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P11" s="7" t="n">
+      <c r="O11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" s="7" t="n">
+      <c r="Q11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="W11" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="8" t="n">
+      <c r="W11" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="9" t="n">
         <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)+SMALL(O11:Y11,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA11" s="5" t="n">
+      <c r="AA11" s="6" t="n">
         <f aca="false">Z11*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB11" s="17" t="n">
+      <c r="AB11" s="19" t="n">
         <v>44.5</v>
       </c>
-      <c r="AC11" s="5" t="n">
+      <c r="AC11" s="6" t="n">
         <f aca="false">(AB11/50)*15 + 1.302</f>
         <v>14.652</v>
       </c>
-      <c r="AE11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK11" s="5" t="n">
+      <c r="AE11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="6" t="n">
         <f aca="false">AE11+AF11+AG11+AI11+AJ11+AH11</f>
         <v>10</v>
       </c>
-      <c r="AM11" s="9" t="n">
+      <c r="AM11" s="10" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
         <v>40.652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -1889,85 +1918,86 @@
       <c r="E12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4" t="n">
+      <c r="F12" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="L12" s="5" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="6" t="n">
         <f aca="false">L12*10</f>
         <v>5</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T12" s="7" t="n">
+      <c r="O12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7" t="n">
+      <c r="U12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W12" s="19" t="n">
+      <c r="W12" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="8" t="n">
+      <c r="Y12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="9" t="n">
         <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)+SMALL(O12:Y12,3)))/40</f>
         <v>0.716666666675</v>
       </c>
-      <c r="AA12" s="5" t="n">
+      <c r="AA12" s="6" t="n">
         <f aca="false">Z12*10</f>
         <v>7.16666666675</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="AC12" s="5" t="n">
+      <c r="AC12" s="6" t="n">
         <f aca="false">(AB12/50)*15 + 1.302</f>
         <v>10.302</v>
       </c>
-      <c r="AE12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK12" s="5" t="n">
+      <c r="AE12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="6" t="n">
         <f aca="false">AE12+AF12+AG12+AI12+AJ12+AH12</f>
         <v>10</v>
       </c>
-      <c r="AM12" s="9" t="n">
+      <c r="AM12" s="10" t="n">
         <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
         <v>33.21866666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -1982,87 +2012,90 @@
       <c r="E13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4" t="n">
+      <c r="F13" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="5" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M13" s="6" t="n">
         <f aca="false">L13*10</f>
-        <v>5</v>
-      </c>
-      <c r="N13" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N13" s="7" t="n">
         <f aca="false">1+1.5+0.5</f>
         <v>3</v>
       </c>
-      <c r="O13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" s="7" t="n">
+      <c r="O13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" s="8" t="n">
         <f aca="false">0.7+1+1.5</f>
         <v>3.2</v>
       </c>
-      <c r="Q13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" s="7" t="n">
+      <c r="Q13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U13" s="19" t="n">
+      <c r="U13" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V13" s="7" t="n">
+      <c r="V13" s="8" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W13" s="19" t="n">
+      <c r="W13" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="8" t="n">
+      <c r="Y13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="9" t="n">
         <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)+SMALL(O13:Y13,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA13" s="5" t="n">
+      <c r="AA13" s="6" t="n">
         <f aca="false">Z13*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="19" t="n">
         <v>40.5</v>
       </c>
-      <c r="AC13" s="5" t="n">
+      <c r="AC13" s="6" t="n">
         <f aca="false">(AB13/50)*15 + 1.302</f>
         <v>13.452</v>
       </c>
-      <c r="AE13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK13" s="5" t="n">
+      <c r="AE13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="6" t="n">
         <f aca="false">AE13+AF13+AG13+AI13+AJ13+AH13</f>
         <v>10</v>
       </c>
-      <c r="AM13" s="9" t="n">
+      <c r="AM13" s="10" t="n">
         <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
-        <v>38.36866666675</v>
+        <v>39.61866666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -2077,88 +2110,88 @@
       <c r="E14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4" t="n">
+      <c r="F14" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" s="5" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="6" t="n">
         <f aca="false">L14*10</f>
         <v>6.25</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O14" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P14" s="7" t="n">
+      <c r="O14" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" s="8" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q14" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" s="7" t="n">
+      <c r="Q14" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7" t="n">
+      <c r="U14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W14" s="19" t="n">
+      <c r="W14" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y14" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="8" t="n">
+      <c r="Y14" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="9" t="n">
         <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)+SMALL(O14:Y14,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA14" s="5" t="n">
+      <c r="AA14" s="6" t="n">
         <f aca="false">Z14*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB14" s="17" t="n">
+      <c r="AB14" s="19" t="n">
         <v>34.83</v>
       </c>
-      <c r="AC14" s="5" t="n">
+      <c r="AC14" s="6" t="n">
         <f aca="false">(AB14/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AE14" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK14" s="5" t="n">
+      <c r="AE14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="6" t="n">
         <f aca="false">AE14+AF14+AG14+AI14+AJ14+AH14</f>
         <v>10</v>
       </c>
-      <c r="AM14" s="9" t="n">
+      <c r="AM14" s="10" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
         <v>38.41766666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -2173,86 +2206,89 @@
       <c r="E15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4" t="n">
+      <c r="F15" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M15" s="6" t="n">
         <f aca="false">L15*10</f>
-        <v>5</v>
-      </c>
-      <c r="N15" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N15" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="8" t="n">
         <f aca="false">0.5+0.6+0.8+2</f>
         <v>3.9</v>
       </c>
-      <c r="Q15" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" s="7" t="n">
+      <c r="Q15" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="19" t="n">
+      <c r="U15" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V15" s="7" t="n">
+      <c r="V15" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="W15" s="19" t="n">
+      <c r="W15" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y15" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="8" t="n">
+      <c r="Y15" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="9" t="n">
         <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)+SMALL(O15:Y15,3)))/40</f>
         <v>0.825</v>
       </c>
-      <c r="AA15" s="5" t="n">
+      <c r="AA15" s="6" t="n">
         <f aca="false">Z15*10</f>
         <v>8.25</v>
       </c>
-      <c r="AB15" s="17" t="n">
+      <c r="AB15" s="19" t="n">
         <v>31.83</v>
       </c>
-      <c r="AC15" s="5" t="n">
+      <c r="AC15" s="6" t="n">
         <f aca="false">(AB15/50)*15 + 1.302</f>
         <v>10.851</v>
       </c>
-      <c r="AE15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK15" s="5" t="n">
+      <c r="AE15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="6" t="n">
         <f aca="false">AE15+AF15+AG15+AI15+AJ15+AH15</f>
         <v>10</v>
       </c>
-      <c r="AM15" s="9" t="n">
+      <c r="AM15" s="10" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
-        <v>34.851</v>
+        <v>36.101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -2267,87 +2303,88 @@
       <c r="E16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4" t="n">
+      <c r="F16" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="L16" s="5" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="M16" s="6" t="n">
         <f aca="false">L16*10</f>
         <v>5</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="7" t="n">
         <f aca="false">1+1.5+0.5</f>
         <v>3</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="8" t="n">
         <f aca="false">0.7+0.5+1+1+0.5</f>
         <v>3.7</v>
       </c>
-      <c r="Q16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T16" s="7" t="n">
+      <c r="Q16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U16" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="19" t="n">
+      <c r="U16" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8" t="n">
+      <c r="Y16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9" t="n">
         <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)+SMALL(O16:Y16,3)))/40</f>
         <v>0.755</v>
       </c>
-      <c r="AA16" s="5" t="n">
+      <c r="AA16" s="6" t="n">
         <f aca="false">Z16*10</f>
         <v>7.55</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="AC16" s="5" t="n">
+      <c r="AC16" s="6" t="n">
         <f aca="false">(AB16/50)*15 + 1.302</f>
         <v>11.202</v>
       </c>
-      <c r="AE16" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK16" s="5" t="n">
+      <c r="AE16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="6" t="n">
         <f aca="false">AE16+AF16+AG16+AI16+AJ16+AH16</f>
         <v>10</v>
       </c>
-      <c r="AM16" s="9" t="n">
+      <c r="AM16" s="10" t="n">
         <f aca="false">AL16+AK16+AD16+AC16+AA16+M16+(N16/2)</f>
         <v>35.252</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -2362,86 +2399,89 @@
       <c r="E17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" s="4" t="n">
+      <c r="F17" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" s="5" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M17" s="6" t="n">
         <f aca="false">L17*10</f>
-        <v>5</v>
-      </c>
-      <c r="N17" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N17" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="P17" s="8" t="n">
         <f aca="false">0.6+0.5+2</f>
         <v>3.1</v>
       </c>
-      <c r="Q17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T17" s="7" t="n">
+      <c r="Q17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="19" t="n">
+      <c r="U17" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V17" s="7" t="n">
+      <c r="V17" s="8" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W17" s="19" t="n">
+      <c r="W17" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="8" t="n">
+      <c r="Y17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="9" t="n">
         <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)+SMALL(O17:Y17,3)))/40</f>
         <v>0.825</v>
       </c>
-      <c r="AA17" s="5" t="n">
+      <c r="AA17" s="6" t="n">
         <f aca="false">Z17*10</f>
         <v>8.25</v>
       </c>
-      <c r="AB17" s="17" t="n">
+      <c r="AB17" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="AC17" s="5" t="n">
+      <c r="AC17" s="6" t="n">
         <f aca="false">(AB17/50)*15 + 1.302</f>
         <v>10.902</v>
       </c>
-      <c r="AE17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK17" s="5" t="n">
+      <c r="AE17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="6" t="n">
         <f aca="false">AE17+AF17+AG17+AI17+AJ17+AH17</f>
         <v>10</v>
       </c>
-      <c r="AM17" s="9" t="n">
+      <c r="AM17" s="10" t="n">
         <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
-        <v>34.902</v>
+        <v>36.152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -2456,86 +2496,87 @@
       <c r="E18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4" t="n">
+      <c r="F18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="L18" s="5" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.475</v>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="M18" s="6" t="n">
         <f aca="false">L18*10</f>
         <v>4.75</v>
       </c>
-      <c r="N18" s="6" t="n">
+      <c r="N18" s="7" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" s="7" t="n">
+      <c r="O18" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" s="8" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T18" s="7" t="n">
+      <c r="Q18" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="8" t="n">
+      <c r="U18" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9" t="n">
         <f aca="false">(SUM(O18:Y18)-(SMALL(O18:Y18,2)+SMALL(O18:Y18,1)+SMALL(O18:Y18,3)))/40</f>
         <v>0.74</v>
       </c>
-      <c r="AA18" s="5" t="n">
+      <c r="AA18" s="6" t="n">
         <f aca="false">Z18*10</f>
         <v>7.4</v>
       </c>
-      <c r="AB18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="5" t="n">
+      <c r="AB18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="6" t="n">
         <f aca="false">(AB18/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AE18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK18" s="5" t="n">
+      <c r="AE18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="6" t="n">
         <f aca="false">AE18+AF18+AG18+AI18+AJ18+AH18</f>
         <v>10</v>
       </c>
-      <c r="AM18" s="9" t="n">
+      <c r="AM18" s="10" t="n">
         <f aca="false">AL18+AK18+AD18+AC18+AA18+M18+(N18/2)</f>
         <v>25.202</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -2550,86 +2591,87 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4" t="n">
+      <c r="F19" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="L19" s="5" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="M19" s="6" t="n">
         <f aca="false">L19*10</f>
         <v>5</v>
       </c>
-      <c r="N19" s="6" t="n">
+      <c r="N19" s="7" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O19" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" s="7" t="n">
+      <c r="O19" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" s="8" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q19" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T19" s="7" t="n">
+      <c r="Q19" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="19" t="n">
+      <c r="U19" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V19" s="7" t="n">
+      <c r="V19" s="8" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W19" s="19" t="n">
+      <c r="W19" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y19" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="8" t="n">
+      <c r="Y19" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="9" t="n">
         <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)+SMALL(O19:Y19,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA19" s="5" t="n">
+      <c r="AA19" s="6" t="n">
         <f aca="false">Z19*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB19" s="17" t="n">
+      <c r="AB19" s="19" t="n">
         <v>37.83</v>
       </c>
-      <c r="AC19" s="5" t="n">
+      <c r="AC19" s="6" t="n">
         <f aca="false">(AB19/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AE19" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK19" s="5" t="n">
+      <c r="AE19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="6" t="n">
         <f aca="false">AE19+AF19+AG19+AI19+AJ19+AH19</f>
         <v>10</v>
       </c>
-      <c r="AM19" s="9" t="n">
+      <c r="AM19" s="10" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
         <v>37.31766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -2644,86 +2686,89 @@
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4" t="n">
+      <c r="F20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="5" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M20" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M20" s="6" t="n">
         <f aca="false">L20*10</f>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N20" s="7" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="P20" s="8" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" s="7" t="n">
+      <c r="Q20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U20" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" s="7" t="n">
+      <c r="U20" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="W20" s="19" t="n">
+      <c r="W20" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="8" t="n">
+      <c r="Y20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="9" t="n">
         <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)+SMALL(O20:Y20,3)))/40</f>
         <v>0.8375</v>
       </c>
-      <c r="AA20" s="5" t="n">
+      <c r="AA20" s="6" t="n">
         <f aca="false">Z20*10</f>
         <v>8.375</v>
       </c>
-      <c r="AB20" s="17" t="n">
+      <c r="AB20" s="19" t="n">
         <v>24.5</v>
       </c>
-      <c r="AC20" s="5" t="n">
+      <c r="AC20" s="6" t="n">
         <f aca="false">(AB20/50)*15 + 1.302</f>
         <v>8.652</v>
       </c>
-      <c r="AE20" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH20" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK20" s="5" t="n">
+      <c r="AE20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="6" t="n">
         <f aca="false">AE20+AF20+AG20+AI20+AJ20+AH20</f>
         <v>10</v>
       </c>
-      <c r="AM20" s="9" t="n">
+      <c r="AM20" s="10" t="n">
         <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
-        <v>33.777</v>
+        <v>35.027</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -2738,84 +2783,85 @@
       <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4" t="n">
+      <c r="F21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="L21" s="5" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M21" s="5" t="n">
+      <c r="M21" s="6" t="n">
         <f aca="false">L21*10</f>
         <v>3.75</v>
       </c>
-      <c r="N21" s="6" t="n">
+      <c r="N21" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P21" s="7" t="n">
+      <c r="O21" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" s="8" t="n">
         <f aca="false">0.8+0.5+1+1+0.5</f>
         <v>3.8</v>
       </c>
-      <c r="Q21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T21" s="7" t="n">
+      <c r="Q21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="8" t="n">
+      <c r="U21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9" t="n">
         <f aca="false">(SUM(O21:Y21)-(SMALL(O21:Y21,2)+SMALL(O21:Y21,1)+SMALL(O21:Y21,3)))/40</f>
         <v>0.495</v>
       </c>
-      <c r="AA21" s="5" t="n">
+      <c r="AA21" s="6" t="n">
         <f aca="false">Z21*10</f>
         <v>4.95</v>
       </c>
-      <c r="AB21" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="5" t="n">
+      <c r="AB21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6" t="n">
         <f aca="false">(AB21/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AE21" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH21" s="18"/>
-      <c r="AK21" s="5" t="n">
+      <c r="AE21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="20"/>
+      <c r="AK21" s="6" t="n">
         <f aca="false">AE21+AF21+AG21+AI21+AJ21+AH21</f>
         <v>5</v>
       </c>
-      <c r="AM21" s="9" t="n">
+      <c r="AM21" s="10" t="n">
         <f aca="false">AL21+AK21+AD21+AC21+AA21+M21+(N21/2)</f>
         <v>16.502</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -2830,90 +2876,90 @@
       <c r="E22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="16" t="n">
         <v>5</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" s="4" t="n">
+      <c r="H22" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="5" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="M22" s="6" t="n">
         <f aca="false">L22*10</f>
         <v>6.25</v>
       </c>
-      <c r="N22" s="6" t="n">
+      <c r="N22" s="7" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="P22" s="8" t="n">
         <f aca="false">4.5</f>
         <v>4.5</v>
       </c>
-      <c r="Q22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U22" s="19" t="n">
+      <c r="Q22" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="8" t="n">
+      <c r="V22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="9" t="n">
         <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)+SMALL(O22:Y22,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA22" s="5" t="n">
+      <c r="AA22" s="6" t="n">
         <f aca="false">Z22*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB22" s="17" t="n">
+      <c r="AB22" s="19" t="n">
         <v>34.33</v>
       </c>
-      <c r="AC22" s="5" t="n">
+      <c r="AC22" s="6" t="n">
         <f aca="false">(AB22/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AE22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH22" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK22" s="5" t="n">
+      <c r="AE22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="6" t="n">
         <f aca="false">AE22+AF22+AG22+AI22+AJ22+AH22</f>
         <v>10</v>
       </c>
-      <c r="AM22" s="9" t="n">
+      <c r="AM22" s="10" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
         <v>38.226</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -2928,87 +2974,90 @@
       <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="4" t="n">
+      <c r="F23" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="5" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M23" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M23" s="6" t="n">
         <f aca="false">L23*10</f>
-        <v>5</v>
-      </c>
-      <c r="N23" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N23" s="7" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="P23" s="8" t="n">
         <f aca="false">0.7+1+0.5+0.5+0.2</f>
         <v>2.9</v>
       </c>
-      <c r="Q23" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" s="7" t="n">
+      <c r="Q23" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="U23" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V23" s="7" t="n">
+      <c r="U23" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="W23" s="19" t="n">
+      <c r="W23" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y23" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="8" t="n">
+      <c r="Y23" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="9" t="n">
         <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)+SMALL(O23:Y23,3)))/40</f>
         <v>0.8</v>
       </c>
-      <c r="AA23" s="5" t="n">
+      <c r="AA23" s="6" t="n">
         <f aca="false">Z23*10</f>
         <v>8</v>
       </c>
-      <c r="AB23" s="17" t="n">
+      <c r="AB23" s="19" t="n">
         <v>32.33</v>
       </c>
-      <c r="AC23" s="5" t="n">
+      <c r="AC23" s="6" t="n">
         <f aca="false">(AB23/50)*15 + 1.302</f>
         <v>11.001</v>
       </c>
-      <c r="AE23" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH23" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK23" s="5" t="n">
+      <c r="AE23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="6" t="n">
         <f aca="false">AE23+AF23+AG23+AI23+AJ23+AH23</f>
         <v>10</v>
       </c>
-      <c r="AM23" s="9" t="n">
+      <c r="AM23" s="10" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
-        <v>35.251</v>
+        <v>36.501</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -3023,86 +3072,89 @@
       <c r="E24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4" t="n">
+      <c r="F24" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="5" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M24" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M24" s="6" t="n">
         <f aca="false">L24*10</f>
-        <v>5</v>
-      </c>
-      <c r="N24" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N24" s="7" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7" t="n">
+      <c r="O24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T24" s="7" t="n">
+      <c r="Q24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="U24" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V24" s="7" t="n">
+      <c r="U24" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="W24" s="19" t="n">
+      <c r="W24" s="21" t="n">
         <v>3.5</v>
       </c>
-      <c r="Y24" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="8" t="n">
+      <c r="Y24" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="9" t="n">
         <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)+SMALL(O24:Y24,3)))/40</f>
         <v>0.7625</v>
       </c>
-      <c r="AA24" s="5" t="n">
+      <c r="AA24" s="6" t="n">
         <f aca="false">Z24*10</f>
         <v>7.625</v>
       </c>
-      <c r="AB24" s="17" t="n">
+      <c r="AB24" s="19" t="n">
         <v>38.33</v>
       </c>
-      <c r="AC24" s="5" t="n">
+      <c r="AC24" s="6" t="n">
         <f aca="false">(AB24/50)*15 + 1.302</f>
         <v>12.801</v>
       </c>
-      <c r="AE24" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH24" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK24" s="5" t="n">
+      <c r="AE24" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="6" t="n">
         <f aca="false">AE24+AF24+AG24+AI24+AJ24+AH24</f>
         <v>10</v>
       </c>
-      <c r="AM24" s="9" t="n">
+      <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>36.676</v>
+        <v>37.926</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -3117,89 +3169,89 @@
       <c r="E25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="15" t="n">
+      <c r="F25" s="16" t="n">
         <v>5</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" s="4" t="n">
+      <c r="H25" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="5" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M25" s="5" t="n">
+      <c r="M25" s="6" t="n">
         <f aca="false">L25*10</f>
         <v>6.25</v>
       </c>
-      <c r="N25" s="6" t="n">
+      <c r="N25" s="7" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="P25" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q25" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T25" s="7" t="n">
+      <c r="Q25" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="8" t="n">
+      <c r="U25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="9" t="n">
         <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)+SMALL(O25:Y25,3)))/40</f>
         <v>0.8125</v>
       </c>
-      <c r="AA25" s="5" t="n">
+      <c r="AA25" s="6" t="n">
         <f aca="false">Z25*10</f>
         <v>8.125</v>
       </c>
-      <c r="AB25" s="17" t="n">
+      <c r="AB25" s="19" t="n">
         <v>36.83</v>
       </c>
-      <c r="AC25" s="5" t="n">
+      <c r="AC25" s="6" t="n">
         <f aca="false">(AB25/50)*15 + 1.302</f>
         <v>12.351</v>
       </c>
-      <c r="AE25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH25" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK25" s="5" t="n">
+      <c r="AE25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="6" t="n">
         <f aca="false">AE25+AF25+AG25+AI25+AJ25+AH25</f>
         <v>10</v>
       </c>
-      <c r="AM25" s="9" t="n">
+      <c r="AM25" s="10" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
         <v>38.476</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="26" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -3214,85 +3266,88 @@
       <c r="E26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4" t="n">
+      <c r="F26" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" s="5" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M26" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M26" s="6" t="n">
         <f aca="false">L26*10</f>
-        <v>5</v>
-      </c>
-      <c r="N26" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N26" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="P26" s="7" t="n">
+      <c r="P26" s="8" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" s="7" t="n">
+      <c r="Q26" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="U26" s="19" t="n">
+      <c r="U26" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V26" s="7" t="n">
+      <c r="V26" s="8" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W26" s="19" t="n">
+      <c r="W26" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="8" t="n">
+      <c r="Y26" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="9" t="n">
         <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)+SMALL(O26:Y26,3)))/40</f>
         <v>0.845</v>
       </c>
-      <c r="AA26" s="5" t="n">
+      <c r="AA26" s="6" t="n">
         <f aca="false">Z26*10</f>
         <v>8.45</v>
       </c>
-      <c r="AB26" s="17" t="n">
+      <c r="AB26" s="19" t="n">
         <v>41.33</v>
       </c>
-      <c r="AC26" s="5" t="n">
+      <c r="AC26" s="6" t="n">
         <f aca="false">(AB26/50)*15 + 1.302</f>
         <v>13.701</v>
       </c>
-      <c r="AE26" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH26" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK26" s="5" t="n">
+      <c r="AE26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="6" t="n">
         <f aca="false">AE26+AF26+AG26+AI26+AJ26+AH26</f>
         <v>10</v>
       </c>
-      <c r="AM26" s="9" t="n">
+      <c r="AM26" s="10" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
-        <v>38.651</v>
+        <v>39.901</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -3307,89 +3362,89 @@
       <c r="E27" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="15" t="n">
+      <c r="F27" s="16" t="n">
         <v>5</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L27" s="4" t="n">
+      <c r="H27" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" s="5" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M27" s="5" t="n">
+      <c r="M27" s="6" t="n">
         <f aca="false">L27*10</f>
         <v>6.25</v>
       </c>
-      <c r="N27" s="6" t="n">
+      <c r="N27" s="7" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="P27" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q27" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T27" s="7" t="n">
+      <c r="Q27" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U27" s="19" t="n">
+      <c r="U27" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="8" t="n">
+      <c r="V27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="9" t="n">
         <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)+SMALL(O27:Y27,3)))/40</f>
         <v>0.85</v>
       </c>
-      <c r="AA27" s="5" t="n">
+      <c r="AA27" s="6" t="n">
         <f aca="false">Z27*10</f>
         <v>8.5</v>
       </c>
-      <c r="AB27" s="17" t="n">
+      <c r="AB27" s="19" t="n">
         <v>37.83</v>
       </c>
-      <c r="AC27" s="5" t="n">
+      <c r="AC27" s="6" t="n">
         <f aca="false">(AB27/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AE27" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH27" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK27" s="5" t="n">
+      <c r="AE27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK27" s="6" t="n">
         <f aca="false">AE27+AF27+AG27+AI27+AJ27+AH27</f>
         <v>10</v>
       </c>
-      <c r="AM27" s="9" t="n">
+      <c r="AM27" s="10" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
         <v>39.151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -3404,89 +3459,89 @@
       <c r="E28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F28" s="15" t="n">
+      <c r="F28" s="16" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L28" s="4" t="n">
+      <c r="H28" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" s="5" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M28" s="5" t="n">
+      <c r="M28" s="6" t="n">
         <f aca="false">L28*10</f>
         <v>6.25</v>
       </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="7" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O28" s="7" t="n">
+      <c r="O28" s="8" t="n">
         <v>1.5</v>
       </c>
-      <c r="P28" s="7" t="n">
+      <c r="P28" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q28" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" s="7" t="n">
+      <c r="Q28" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U28" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="8" t="n">
+      <c r="U28" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="9" t="n">
         <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)+SMALL(O28:Y28,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA28" s="5" t="n">
+      <c r="AA28" s="6" t="n">
         <f aca="false">Z28*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB28" s="17" t="n">
+      <c r="AB28" s="19" t="n">
         <v>41.83</v>
       </c>
-      <c r="AC28" s="5" t="n">
+      <c r="AC28" s="6" t="n">
         <f aca="false">(AB28/50)*15 + 1.302</f>
         <v>13.851</v>
       </c>
-      <c r="AE28" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH28" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK28" s="5" t="n">
+      <c r="AE28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK28" s="6" t="n">
         <f aca="false">AE28+AF28+AG28+AI28+AJ28+AH28</f>
         <v>10</v>
       </c>
-      <c r="AM28" s="9" t="n">
+      <c r="AM28" s="10" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
         <v>40.476</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -3501,85 +3556,86 @@
       <c r="E29" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L29" s="4" t="n">
+      <c r="F29" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="L29" s="5" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M29" s="5" t="n">
+      <c r="M29" s="6" t="n">
         <f aca="false">L29*10</f>
         <v>5</v>
       </c>
-      <c r="N29" s="6" t="n">
+      <c r="N29" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="O29" s="7" t="n">
+      <c r="O29" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="P29" s="7" t="n">
+      <c r="P29" s="8" t="n">
         <v>3.525</v>
       </c>
-      <c r="Q29" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T29" s="7" t="n">
+      <c r="Q29" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="U29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="7" t="n">
+      <c r="U29" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="W29" s="19" t="n">
+      <c r="W29" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y29" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="8" t="n">
+      <c r="Y29" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="9" t="n">
         <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)+SMALL(O29:Y29,3)))/40</f>
         <v>0.788125</v>
       </c>
-      <c r="AA29" s="5" t="n">
+      <c r="AA29" s="6" t="n">
         <f aca="false">Z29*10</f>
         <v>7.88125</v>
       </c>
-      <c r="AB29" s="17" t="n">
+      <c r="AB29" s="19" t="n">
         <v>38.83</v>
       </c>
-      <c r="AC29" s="5" t="n">
+      <c r="AC29" s="6" t="n">
         <f aca="false">(AB29/50)*15 + 1.302</f>
         <v>12.951</v>
       </c>
-      <c r="AE29" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH29" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK29" s="5" t="n">
+      <c r="AE29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH29" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK29" s="6" t="n">
         <f aca="false">AE29+AF29+AG29+AI29+AJ29+AH29</f>
         <v>10</v>
       </c>
-      <c r="AM29" s="9" t="n">
+      <c r="AM29" s="10" t="n">
         <f aca="false">AL29+AK29+AD29+AC29+AA29+M29+(N29/2)</f>
         <v>36.83225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -3594,84 +3650,85 @@
       <c r="E30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4" t="n">
+      <c r="F30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="L30" s="5" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
       </c>
-      <c r="M30" s="5" t="n">
+      <c r="M30" s="6" t="n">
         <f aca="false">L30*10</f>
         <v>1.25</v>
       </c>
-      <c r="N30" s="6" t="n">
+      <c r="N30" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="O30" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P30" s="7" t="n">
+      <c r="P30" s="8" t="n">
         <f aca="false">0.7+1+1+1+0.5</f>
         <v>4.2</v>
       </c>
-      <c r="Q30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T30" s="7" t="n">
+      <c r="Q30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="8" t="n">
+      <c r="U30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="9" t="n">
         <f aca="false">(SUM(O30:Y30)-(SMALL(O30:Y30,2)+SMALL(O30:Y30,1)+SMALL(O30:Y30,3)))/40</f>
         <v>0.355</v>
       </c>
-      <c r="AA30" s="5" t="n">
+      <c r="AA30" s="6" t="n">
         <f aca="false">Z30*10</f>
         <v>3.55</v>
       </c>
-      <c r="AB30" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="5" t="n">
+      <c r="AB30" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="6" t="n">
         <f aca="false">(AB30/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AE30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="18"/>
-      <c r="AK30" s="5" t="n">
+      <c r="AE30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="20"/>
+      <c r="AK30" s="6" t="n">
         <f aca="false">AE30+AF30+AG30+AI30+AJ30+AH30</f>
         <v>0</v>
       </c>
-      <c r="AM30" s="9" t="n">
+      <c r="AM30" s="10" t="n">
         <f aca="false">AL30+AK30+AD30+AC30+AA30+M30+(N30/2)</f>
         <v>7.602</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -3686,89 +3743,89 @@
       <c r="E31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" s="4" t="n">
+      <c r="F31" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" s="5" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M31" s="5" t="n">
+      <c r="M31" s="6" t="n">
         <f aca="false">L31*10</f>
         <v>6.25</v>
       </c>
-      <c r="N31" s="6" t="n">
+      <c r="N31" s="7" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O31" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P31" s="7" t="n">
+      <c r="O31" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P31" s="8" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q31" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T31" s="7" t="n">
+      <c r="Q31" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U31" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V31" s="7" t="n">
+      <c r="U31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="W31" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="8" t="n">
+      <c r="W31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="9" t="n">
         <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)+SMALL(O31:Y31,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA31" s="5" t="n">
+      <c r="AA31" s="6" t="n">
         <f aca="false">Z31*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB31" s="17" t="n">
+      <c r="AB31" s="19" t="n">
         <v>45.66</v>
       </c>
-      <c r="AC31" s="5" t="n">
+      <c r="AC31" s="6" t="n">
         <f aca="false">(AB31/50)*15 + 1.302</f>
         <v>15</v>
       </c>
-      <c r="AE31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH31" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK31" s="5" t="n">
+      <c r="AE31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="6" t="n">
         <f aca="false">AE31+AF31+AG31+AI31+AJ31+AH31</f>
         <v>10</v>
       </c>
-      <c r="AM31" s="9" t="n">
+      <c r="AM31" s="10" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
         <v>41.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -3783,87 +3840,88 @@
       <c r="E32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="4" t="n">
+      <c r="F32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="L32" s="5" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M32" s="5" t="n">
+      <c r="M32" s="6" t="n">
         <f aca="false">L32*10</f>
         <v>2.5</v>
       </c>
-      <c r="N32" s="6" t="n">
+      <c r="N32" s="7" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="O32" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="P32" s="7" t="n">
+      <c r="P32" s="8" t="n">
         <f aca="false">0.8+1+1+1+0.5</f>
         <v>4.3</v>
       </c>
-      <c r="Q32" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T32" s="7" t="n">
+      <c r="Q32" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="U32" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" s="7" t="n">
+      <c r="U32" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" s="8" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W32" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="8" t="n">
+      <c r="W32" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="9" t="n">
         <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)+SMALL(O32:Y32,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA32" s="5" t="n">
+      <c r="AA32" s="6" t="n">
         <f aca="false">Z32*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB32" s="17" t="n">
+      <c r="AB32" s="19" t="n">
         <v>41</v>
       </c>
-      <c r="AC32" s="5" t="n">
+      <c r="AC32" s="6" t="n">
         <f aca="false">(AB32/50)*15 + 1.302</f>
         <v>13.602</v>
       </c>
-      <c r="AE32" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH32" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK32" s="5" t="n">
+      <c r="AE32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH32" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK32" s="6" t="n">
         <f aca="false">AE32+AF32+AG32+AI32+AJ32+AH32</f>
         <v>10</v>
       </c>
-      <c r="AM32" s="9" t="n">
+      <c r="AM32" s="10" t="n">
         <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
         <v>36.227</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -3878,85 +3936,88 @@
       <c r="E33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F33" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4" t="n">
+      <c r="F33" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" s="5" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="M33" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M33" s="6" t="n">
         <f aca="false">L33*10</f>
-        <v>3.75</v>
-      </c>
-      <c r="N33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="O33" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="P33" s="7" t="n">
+      <c r="P33" s="8" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q33" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T33" s="7" t="n">
+      <c r="Q33" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U33" s="19" t="n">
+      <c r="U33" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V33" s="7" t="n">
+      <c r="V33" s="8" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W33" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="8" t="n">
+      <c r="W33" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9" t="n">
         <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)+SMALL(O33:Y33,3)))/40</f>
         <v>0.84</v>
       </c>
-      <c r="AA33" s="5" t="n">
+      <c r="AA33" s="6" t="n">
         <f aca="false">Z33*10</f>
         <v>8.4</v>
       </c>
-      <c r="AB33" s="17" t="n">
+      <c r="AB33" s="19" t="n">
         <v>40.33</v>
       </c>
-      <c r="AC33" s="5" t="n">
+      <c r="AC33" s="6" t="n">
         <f aca="false">(AB33/50)*15 + 1.302</f>
         <v>13.401</v>
       </c>
-      <c r="AE33" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH33" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK33" s="5" t="n">
+      <c r="AE33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK33" s="6" t="n">
         <f aca="false">AE33+AF33+AG33+AI33+AJ33+AH33</f>
         <v>10</v>
       </c>
-      <c r="AM33" s="9" t="n">
+      <c r="AM33" s="10" t="n">
         <f aca="false">AL33+AK33+AD33+AC33+AA33+M33+(N33/2)</f>
-        <v>37.051</v>
+        <v>38.301</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -3971,89 +4032,89 @@
       <c r="E34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L34" s="4" t="n">
+      <c r="F34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" s="5" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M34" s="5" t="n">
+      <c r="M34" s="6" t="n">
         <f aca="false">L34*10</f>
         <v>6.25</v>
       </c>
-      <c r="N34" s="6" t="n">
+      <c r="N34" s="7" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="O34" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="P34" s="7" t="n">
+      <c r="P34" s="8" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T34" s="7" t="n">
+      <c r="Q34" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="U34" s="19" t="n">
+      <c r="U34" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V34" s="7" t="n">
+      <c r="V34" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="W34" s="19" t="n">
+      <c r="W34" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="8" t="n">
+      <c r="Y34" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="9" t="n">
         <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)+SMALL(O34:Y34,3)))/40</f>
         <v>0.7875</v>
       </c>
-      <c r="AA34" s="5" t="n">
+      <c r="AA34" s="6" t="n">
         <f aca="false">Z34*10</f>
         <v>7.875</v>
       </c>
-      <c r="AB34" s="17" t="n">
+      <c r="AB34" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="AC34" s="5" t="n">
+      <c r="AC34" s="6" t="n">
         <f aca="false">(AB34/50)*15 + 1.302</f>
         <v>10.902</v>
       </c>
-      <c r="AE34" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH34" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK34" s="5" t="n">
+      <c r="AE34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH34" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="6" t="n">
         <f aca="false">AE34+AF34+AG34+AI34+AJ34+AH34</f>
         <v>10</v>
       </c>
-      <c r="AM34" s="9" t="n">
+      <c r="AM34" s="10" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
         <v>36.777</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -4068,85 +4129,86 @@
       <c r="E35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L35" s="4" t="n">
+      <c r="F35" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="L35" s="5" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M35" s="5" t="n">
+      <c r="M35" s="6" t="n">
         <f aca="false">L35*10</f>
         <v>5</v>
       </c>
-      <c r="N35" s="6" t="n">
+      <c r="N35" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="O35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7" t="n">
+      <c r="O35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="Q35" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T35" s="7" t="n">
+      <c r="Q35" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U35" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="19" t="n">
+      <c r="U35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="8" t="n">
+      <c r="Y35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="9" t="n">
         <f aca="false">(SUM(O35:Y35)-(SMALL(O35:Y35,2)+SMALL(O35:Y35,1)+SMALL(O35:Y35,3)))/40</f>
         <v>0.5025</v>
       </c>
-      <c r="AA35" s="5" t="n">
+      <c r="AA35" s="6" t="n">
         <f aca="false">Z35*10</f>
         <v>5.025</v>
       </c>
-      <c r="AB35" s="17" t="n">
+      <c r="AB35" s="19" t="n">
         <v>33.33</v>
       </c>
-      <c r="AC35" s="5" t="n">
+      <c r="AC35" s="6" t="n">
         <f aca="false">(AB35/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
-      <c r="AE35" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH35" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK35" s="5" t="n">
+      <c r="AE35" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="6" t="n">
         <f aca="false">AE35+AF35+AG35+AI35+AJ35+AH35</f>
         <v>10</v>
       </c>
-      <c r="AM35" s="9" t="n">
+      <c r="AM35" s="10" t="n">
         <f aca="false">AL35+AK35+AD35+AC35+AA35+M35+(N35/2)</f>
         <v>32.826</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="26" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -4161,89 +4223,89 @@
       <c r="E36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F36" s="15" t="n">
+      <c r="F36" s="16" t="n">
         <v>5</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L36" s="4" t="n">
+      <c r="H36" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" s="5" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M36" s="5" t="n">
+      <c r="M36" s="6" t="n">
         <f aca="false">L36*10</f>
         <v>6.25</v>
       </c>
-      <c r="N36" s="6" t="n">
+      <c r="N36" s="7" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7" t="n">
+      <c r="O36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q36" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T36" s="7" t="n">
+      <c r="Q36" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="U36" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y36" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="8" t="n">
+      <c r="U36" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="9" t="n">
         <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)+SMALL(O36:Y36,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA36" s="5" t="n">
+      <c r="AA36" s="6" t="n">
         <f aca="false">Z36*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB36" s="17" t="n">
+      <c r="AB36" s="19" t="n">
         <v>34.83</v>
       </c>
-      <c r="AC36" s="5" t="n">
+      <c r="AC36" s="6" t="n">
         <f aca="false">(AB36/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AE36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH36" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK36" s="5" t="n">
+      <c r="AE36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="6" t="n">
         <f aca="false">AE36+AF36+AG36+AI36+AJ36+AH36</f>
         <v>10</v>
       </c>
-      <c r="AM36" s="9" t="n">
+      <c r="AM36" s="10" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
         <v>38.376</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -4258,87 +4320,90 @@
       <c r="E37" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L37" s="4" t="n">
+      <c r="F37" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" s="5" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M37" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M37" s="6" t="n">
         <f aca="false">L37*10</f>
-        <v>5</v>
-      </c>
-      <c r="N37" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N37" s="7" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O37" s="7" t="n">
+      <c r="O37" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="P37" s="7" t="n">
+      <c r="P37" s="8" t="n">
         <f aca="false">1+0.5+0.8+0.5+1</f>
         <v>3.8</v>
       </c>
-      <c r="Q37" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T37" s="7" t="n">
+      <c r="Q37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U37" s="19" t="n">
+      <c r="U37" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V37" s="7" t="n">
+      <c r="V37" s="8" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W37" s="19" t="n">
+      <c r="W37" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y37" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="8" t="n">
+      <c r="Y37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="9" t="n">
         <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)+SMALL(O37:Y37,3)))/40</f>
         <v>0.816666666675</v>
       </c>
-      <c r="AA37" s="5" t="n">
+      <c r="AA37" s="6" t="n">
         <f aca="false">Z37*10</f>
         <v>8.16666666675</v>
       </c>
-      <c r="AB37" s="17" t="n">
+      <c r="AB37" s="19" t="n">
         <v>40.33</v>
       </c>
-      <c r="AC37" s="5" t="n">
+      <c r="AC37" s="6" t="n">
         <f aca="false">(AB37/50)*15 + 1.302</f>
         <v>13.401</v>
       </c>
-      <c r="AE37" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH37" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK37" s="5" t="n">
+      <c r="AE37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="6" t="n">
         <f aca="false">AE37+AF37+AG37+AI37+AJ37+AH37</f>
         <v>10</v>
       </c>
-      <c r="AM37" s="9" t="n">
+      <c r="AM37" s="10" t="n">
         <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
-        <v>38.06766666675</v>
+        <v>39.31766666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -4353,86 +4418,89 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L38" s="4" t="n">
+      <c r="F38" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" s="5" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M38" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M38" s="6" t="n">
         <f aca="false">L38*10</f>
-        <v>5</v>
-      </c>
-      <c r="N38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="P38" s="7" t="n">
+      <c r="P38" s="8" t="n">
         <f aca="false">0.7+2+1+0.75</f>
         <v>4.45</v>
       </c>
-      <c r="Q38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T38" s="7" t="n">
+      <c r="Q38" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U38" s="19" t="n">
+      <c r="U38" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V38" s="7" t="n">
+      <c r="V38" s="8" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W38" s="19" t="n">
+      <c r="W38" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y38" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="8" t="n">
+      <c r="Y38" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="9" t="n">
         <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)+SMALL(O38:Y38,3)))/40</f>
         <v>0.727916666675</v>
       </c>
-      <c r="AA38" s="5" t="n">
+      <c r="AA38" s="6" t="n">
         <f aca="false">Z38*10</f>
         <v>7.27916666675</v>
       </c>
-      <c r="AB38" s="17" t="n">
+      <c r="AB38" s="19" t="n">
         <v>30.83</v>
       </c>
-      <c r="AC38" s="5" t="n">
+      <c r="AC38" s="6" t="n">
         <f aca="false">(AB38/50)*15 + 1.302</f>
         <v>10.551</v>
       </c>
-      <c r="AE38" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH38" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK38" s="5" t="n">
+      <c r="AE38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH38" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK38" s="6" t="n">
         <f aca="false">AE38+AF38+AG38+AI38+AJ38+AH38</f>
         <v>10</v>
       </c>
-      <c r="AM38" s="9" t="n">
+      <c r="AM38" s="10" t="n">
         <f aca="false">AL38+AK38+AD38+AC38+AA38+M38+(N38/2)</f>
-        <v>32.83016666675</v>
+        <v>34.08016666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -4447,86 +4515,89 @@
       <c r="E39" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L39" s="4" t="n">
+      <c r="F39" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" s="5" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M39" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M39" s="6" t="n">
         <f aca="false">L39*10</f>
-        <v>5</v>
-      </c>
-      <c r="N39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8" t="n">
         <v>4.5</v>
       </c>
-      <c r="P39" s="7" t="n">
+      <c r="P39" s="8" t="n">
         <f aca="false">0.7+2+1+0.75</f>
         <v>4.45</v>
       </c>
-      <c r="Q39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T39" s="7" t="n">
+      <c r="Q39" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="U39" s="19" t="n">
+      <c r="U39" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V39" s="7" t="n">
+      <c r="V39" s="8" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W39" s="19" t="n">
+      <c r="W39" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y39" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="8" t="n">
+      <c r="Y39" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="9" t="n">
         <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)+SMALL(O39:Y39,3)))/40</f>
         <v>0.777916666675</v>
       </c>
-      <c r="AA39" s="5" t="n">
+      <c r="AA39" s="6" t="n">
         <f aca="false">Z39*10</f>
         <v>7.77916666675</v>
       </c>
-      <c r="AB39" s="17" t="n">
+      <c r="AB39" s="19" t="n">
         <v>37.83</v>
       </c>
-      <c r="AC39" s="5" t="n">
+      <c r="AC39" s="6" t="n">
         <f aca="false">(AB39/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AE39" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH39" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK39" s="5" t="n">
+      <c r="AE39" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH39" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK39" s="6" t="n">
         <f aca="false">AE39+AF39+AG39+AI39+AJ39+AH39</f>
         <v>10</v>
       </c>
-      <c r="AM39" s="9" t="n">
+      <c r="AM39" s="10" t="n">
         <f aca="false">AL39+AK39+AD39+AC39+AA39+M39+(N39/2)</f>
-        <v>35.43016666675</v>
+        <v>36.68016666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="26" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -4541,89 +4612,89 @@
       <c r="E40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F40" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" s="4" t="n">
+      <c r="F40" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L40" s="5" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M40" s="5" t="n">
+      <c r="M40" s="6" t="n">
         <f aca="false">L40*10</f>
         <v>6.25</v>
       </c>
-      <c r="N40" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" s="7" t="n">
+      <c r="N40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P40" s="8" t="n">
         <f aca="false">0.7+0.5+1+1+0.5</f>
         <v>3.7</v>
       </c>
-      <c r="Q40" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T40" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U40" s="19" t="n">
+      <c r="Q40" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V40" s="7" t="n">
+      <c r="V40" s="8" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W40" s="19" t="n">
+      <c r="W40" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y40" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="8" t="n">
+      <c r="Y40" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="9" t="n">
         <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)+SMALL(O40:Y40,3)))/40</f>
         <v>0.854166666675</v>
       </c>
-      <c r="AA40" s="5" t="n">
+      <c r="AA40" s="6" t="n">
         <f aca="false">Z40*10</f>
         <v>8.54166666675</v>
       </c>
-      <c r="AB40" s="17" t="n">
+      <c r="AB40" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="AC40" s="5" t="n">
+      <c r="AC40" s="6" t="n">
         <f aca="false">(AB40/50)*15 + 1.302</f>
         <v>11.502</v>
       </c>
-      <c r="AE40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH40" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK40" s="5" t="n">
+      <c r="AE40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH40" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK40" s="6" t="n">
         <f aca="false">AE40+AF40+AG40+AI40+AJ40+AH40</f>
         <v>10</v>
       </c>
-      <c r="AM40" s="9" t="n">
+      <c r="AM40" s="10" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
         <v>36.29366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -4638,86 +4709,89 @@
       <c r="E41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F41" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L41" s="4" t="n">
+      <c r="F41" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" s="5" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M41" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M41" s="6" t="n">
         <f aca="false">L41*10</f>
-        <v>5</v>
-      </c>
-      <c r="N41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="8" t="n">
         <f aca="false">1+1+0.7+0.5+1</f>
         <v>4.2</v>
       </c>
-      <c r="Q41" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" s="7" t="n">
+      <c r="Q41" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="19" t="n">
+      <c r="U41" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="8" t="n">
+      <c r="Y41" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="9" t="n">
         <f aca="false">(SUM(O41:Y41)-(SMALL(O41:Y41,2)+SMALL(O41:Y41,1)+SMALL(O41:Y41,3)))/40</f>
         <v>0.58</v>
       </c>
-      <c r="AA41" s="5" t="n">
+      <c r="AA41" s="6" t="n">
         <f aca="false">Z41*10</f>
         <v>5.8</v>
       </c>
-      <c r="AB41" s="17" t="n">
+      <c r="AB41" s="19" t="n">
         <v>43</v>
       </c>
-      <c r="AC41" s="5" t="n">
+      <c r="AC41" s="6" t="n">
         <f aca="false">(AB41/50)*15 + 1.302</f>
         <v>14.202</v>
       </c>
-      <c r="AE41" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH41" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK41" s="5" t="n">
+      <c r="AE41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK41" s="6" t="n">
         <f aca="false">AE41+AF41+AG41+AI41+AJ41+AH41</f>
         <v>10</v>
       </c>
-      <c r="AM41" s="9" t="n">
+      <c r="AM41" s="10" t="n">
         <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
-        <v>35.002</v>
+        <v>36.252</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -4732,84 +4806,85 @@
       <c r="E42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F42" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4" t="n">
+      <c r="F42" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="L42" s="5" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M42" s="5" t="n">
+      <c r="M42" s="6" t="n">
         <f aca="false">L42*10</f>
         <v>3.75</v>
       </c>
-      <c r="N42" s="6" t="n">
+      <c r="N42" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O42" s="7" t="n">
+      <c r="O42" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P42" s="7" t="n">
+      <c r="P42" s="8" t="n">
         <f aca="false">1+1+1+0.5+0.6</f>
         <v>4.1</v>
       </c>
-      <c r="Q42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7" t="n">
+      <c r="Q42" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="19" t="n">
+      <c r="U42" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V42" s="7" t="n">
+      <c r="V42" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="W42" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="8" t="n">
+      <c r="W42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="9" t="n">
         <f aca="false">(SUM(O42:Y42)-(SMALL(O42:Y42,2)+SMALL(O42:Y42,1)+SMALL(O42:Y42,3)))/40</f>
         <v>0.69</v>
       </c>
-      <c r="AA42" s="5" t="n">
+      <c r="AA42" s="6" t="n">
         <f aca="false">Z42*10</f>
         <v>6.9</v>
       </c>
-      <c r="AB42" s="17" t="n">
+      <c r="AB42" s="19" t="n">
         <v>37.33</v>
       </c>
-      <c r="AC42" s="5" t="n">
+      <c r="AC42" s="6" t="n">
         <f aca="false">(AB42/50)*15 + 1.302</f>
         <v>12.501</v>
       </c>
-      <c r="AE42" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="18"/>
-      <c r="AK42" s="5" t="n">
+      <c r="AE42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="20"/>
+      <c r="AK42" s="6" t="n">
         <f aca="false">AE42+AF42+AG42+AI42+AJ42+AH42</f>
         <v>0</v>
       </c>
-      <c r="AM42" s="9" t="n">
+      <c r="AM42" s="10" t="n">
         <f aca="false">AL42+AK42+AD42+AC42+AA42+M42+(N42/2)</f>
         <v>23.901</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -4824,89 +4899,89 @@
       <c r="E43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="15" t="n">
+      <c r="F43" s="16" t="n">
         <v>5</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L43" s="4" t="n">
+      <c r="H43" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" s="5" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M43" s="5" t="n">
+      <c r="M43" s="6" t="n">
         <f aca="false">L43*10</f>
         <v>6.25</v>
       </c>
-      <c r="N43" s="6" t="n">
+      <c r="N43" s="7" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T43" s="7" t="n">
+      <c r="O43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U43" s="19" t="n">
+      <c r="U43" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="8" t="n">
+      <c r="V43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="9" t="n">
         <f aca="false">(SUM(O43:Y43)-(SMALL(O43:Y43,2)+SMALL(O43:Y43,1)+SMALL(O43:Y43,3)))/40</f>
         <v>0.4125</v>
       </c>
-      <c r="AA43" s="5" t="n">
+      <c r="AA43" s="6" t="n">
         <f aca="false">Z43*10</f>
         <v>4.125</v>
       </c>
-      <c r="AB43" s="17" t="n">
+      <c r="AB43" s="19" t="n">
         <v>36.83</v>
       </c>
-      <c r="AC43" s="5" t="n">
+      <c r="AC43" s="6" t="n">
         <f aca="false">(AB43/50)*15 + 1.302</f>
         <v>12.351</v>
       </c>
-      <c r="AE43" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH43" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK43" s="5" t="n">
+      <c r="AE43" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH43" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="6" t="n">
         <f aca="false">AE43+AF43+AG43+AI43+AJ43+AH43</f>
         <v>10</v>
       </c>
-      <c r="AM43" s="9" t="n">
+      <c r="AM43" s="10" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
         <v>34.476</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -4921,85 +4996,86 @@
       <c r="E44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F44" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L44" s="4" t="n">
+      <c r="F44" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="L44" s="5" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M44" s="5" t="n">
+      <c r="M44" s="6" t="n">
         <f aca="false">L44*10</f>
         <v>5</v>
       </c>
-      <c r="N44" s="6" t="n">
+      <c r="N44" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="O44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="7" t="n">
+      <c r="O44" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="7" t="n">
+      <c r="Q44" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U44" s="19" t="n">
+      <c r="U44" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V44" s="7" t="n">
+      <c r="V44" s="8" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W44" s="19" t="n">
+      <c r="W44" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y44" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="8" t="n">
+      <c r="Y44" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="9" t="n">
         <f aca="false">(SUM(O44:Y44)-(SMALL(O44:Y44,2)+SMALL(O44:Y44,1)+SMALL(O44:Y44,3)))/40</f>
         <v>0.451666666675</v>
       </c>
-      <c r="AA44" s="5" t="n">
+      <c r="AA44" s="6" t="n">
         <f aca="false">Z44*10</f>
         <v>4.51666666675</v>
       </c>
-      <c r="AB44" s="17" t="n">
+      <c r="AB44" s="19" t="n">
         <v>23.83</v>
       </c>
-      <c r="AC44" s="5" t="n">
+      <c r="AC44" s="6" t="n">
         <f aca="false">(AB44/50)*15 + 1.302</f>
         <v>8.451</v>
       </c>
-      <c r="AE44" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH44" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK44" s="5" t="n">
+      <c r="AE44" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH44" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK44" s="6" t="n">
         <f aca="false">AE44+AF44+AG44+AI44+AJ44+AH44</f>
         <v>10</v>
       </c>
-      <c r="AM44" s="9" t="n">
+      <c r="AM44" s="10" t="n">
         <f aca="false">AL44+AK44+AD44+AC44+AA44+M44+(N44/2)</f>
         <v>29.46766666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -5014,85 +5090,88 @@
       <c r="E45" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F45" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4" t="n">
+      <c r="F45" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" s="5" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M45" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M45" s="6" t="n">
         <f aca="false">L45*10</f>
-        <v>5</v>
-      </c>
-      <c r="N45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q45" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T45" s="7" t="n">
+      <c r="Q45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="U45" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V45" s="7" t="n">
+      <c r="U45" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" s="8" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W45" s="19" t="n">
+      <c r="W45" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y45" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="8" t="n">
+      <c r="Y45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="9" t="n">
         <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)+SMALL(O45:Y45,3)))/40</f>
         <v>0.791666666675</v>
       </c>
-      <c r="AA45" s="5" t="n">
+      <c r="AA45" s="6" t="n">
         <f aca="false">Z45*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AB45" s="17" t="n">
+      <c r="AB45" s="19" t="n">
         <v>33.33</v>
       </c>
-      <c r="AC45" s="5" t="n">
+      <c r="AC45" s="6" t="n">
         <f aca="false">(AB45/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
-      <c r="AE45" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH45" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK45" s="5" t="n">
+      <c r="AE45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH45" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK45" s="6" t="n">
         <f aca="false">AE45+AF45+AG45+AI45+AJ45+AH45</f>
         <v>10</v>
       </c>
-      <c r="AM45" s="9" t="n">
+      <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>34.21766666675</v>
+        <v>35.46766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -5107,85 +5186,86 @@
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L46" s="4" t="n">
+      <c r="F46" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="L46" s="5" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M46" s="5" t="n">
+      <c r="M46" s="6" t="n">
         <f aca="false">L46*10</f>
         <v>3.75</v>
       </c>
-      <c r="N46" s="6" t="n">
+      <c r="N46" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T46" s="7" t="n">
+      <c r="O46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U46" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="W46" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="8" t="n">
+      <c r="U46" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W46" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="9" t="n">
         <f aca="false">(SUM(O46:Y46)-(SMALL(O46:Y46,2)+SMALL(O46:Y46,1)+SMALL(O46:Y46,3)))/40</f>
         <v>0.55</v>
       </c>
-      <c r="AA46" s="5" t="n">
+      <c r="AA46" s="6" t="n">
         <f aca="false">Z46*10</f>
         <v>5.5</v>
       </c>
-      <c r="AB46" s="17" t="n">
+      <c r="AB46" s="19" t="n">
         <v>37.5</v>
       </c>
-      <c r="AC46" s="5" t="n">
+      <c r="AC46" s="6" t="n">
         <f aca="false">(AB46/50)*15 + 1.302</f>
         <v>12.552</v>
       </c>
-      <c r="AE46" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH46" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK46" s="5" t="n">
+      <c r="AE46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="6" t="n">
         <f aca="false">AE46+AF46+AG46+AI46+AJ46+AH46</f>
         <v>10</v>
       </c>
-      <c r="AM46" s="9" t="n">
+      <c r="AM46" s="10" t="n">
         <f aca="false">AL46+AK46+AD46+AC46+AA46+M46+(N46/2)</f>
         <v>33.802</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -5200,85 +5280,86 @@
       <c r="E47" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L47" s="4" t="n">
+      <c r="F47" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="L47" s="5" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M47" s="5" t="n">
+      <c r="M47" s="6" t="n">
         <f aca="false">L47*10</f>
         <v>5</v>
       </c>
-      <c r="N47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T47" s="7" t="n">
+      <c r="N47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U47" s="19" t="n">
+      <c r="U47" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="V47" s="7" t="n">
+      <c r="V47" s="8" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W47" s="19" t="n">
+      <c r="W47" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y47" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="8" t="n">
+      <c r="Y47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="9" t="n">
         <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)+SMALL(O47:Y47,3)))/40</f>
         <v>0.791666666675</v>
       </c>
-      <c r="AA47" s="5" t="n">
+      <c r="AA47" s="6" t="n">
         <f aca="false">Z47*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AB47" s="17" t="n">
+      <c r="AB47" s="19" t="n">
         <v>35.5</v>
       </c>
-      <c r="AC47" s="5" t="n">
+      <c r="AC47" s="6" t="n">
         <f aca="false">(AB47/50)*15 + 1.302</f>
         <v>11.952</v>
       </c>
-      <c r="AE47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH47" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK47" s="5" t="n">
+      <c r="AE47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH47" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK47" s="6" t="n">
         <f aca="false">AE47+AF47+AG47+AI47+AJ47+AH47</f>
         <v>10</v>
       </c>
-      <c r="AM47" s="9" t="n">
+      <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
         <v>34.86866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -5293,86 +5374,87 @@
       <c r="E48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L48" s="4" t="n">
+      <c r="F48" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="L48" s="5" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M48" s="5" t="n">
+      <c r="M48" s="6" t="n">
         <f aca="false">L48*10</f>
         <v>2.5</v>
       </c>
-      <c r="N48" s="6" t="n">
+      <c r="N48" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="7" t="n">
+      <c r="O48" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8" t="n">
         <f aca="false">1.5+0.8</f>
         <v>2.3</v>
       </c>
-      <c r="Q48" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T48" s="7" t="n">
+      <c r="Q48" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U48" s="19" t="n">
+      <c r="U48" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="V48" s="7" t="n">
+      <c r="V48" s="8" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W48" s="19" t="n">
+      <c r="W48" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="Y48" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="8" t="n">
+      <c r="Y48" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="9" t="n">
         <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)+SMALL(O48:Y48,3)))/40</f>
         <v>0.820833333325</v>
       </c>
-      <c r="AA48" s="5" t="n">
+      <c r="AA48" s="6" t="n">
         <f aca="false">Z48*10</f>
         <v>8.20833333325</v>
       </c>
-      <c r="AB48" s="17" t="n">
+      <c r="AB48" s="19" t="n">
         <v>34.83</v>
       </c>
-      <c r="AC48" s="5" t="n">
+      <c r="AC48" s="6" t="n">
         <f aca="false">(AB48/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AE48" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH48" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK48" s="5" t="n">
+      <c r="AE48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK48" s="6" t="n">
         <f aca="false">AE48+AF48+AG48+AI48+AJ48+AH48</f>
         <v>10</v>
       </c>
-      <c r="AM48" s="9" t="n">
+      <c r="AM48" s="10" t="n">
         <f aca="false">AL48+AK48+AD48+AC48+AA48+M48+(N48/2)</f>
         <v>34.45933333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -5387,85 +5469,86 @@
       <c r="E49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="4" t="n">
+      <c r="F49" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="L49" s="5" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M49" s="5" t="n">
+      <c r="M49" s="6" t="n">
         <f aca="false">L49*10</f>
         <v>3.75</v>
       </c>
-      <c r="N49" s="6" t="n">
+      <c r="N49" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="O49" s="7" t="n">
+      <c r="O49" s="8" t="n">
         <v>2.7</v>
       </c>
-      <c r="P49" s="7" t="n">
+      <c r="P49" s="8" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q49" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T49" s="7" t="n">
+      <c r="Q49" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="8" t="n">
+      <c r="U49" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="9" t="n">
         <f aca="false">(SUM(O49:Y49)-(SMALL(O49:Y49,2)+SMALL(O49:Y49,1)+SMALL(O49:Y49,3)))/40</f>
         <v>0.51</v>
       </c>
-      <c r="AA49" s="5" t="n">
+      <c r="AA49" s="6" t="n">
         <f aca="false">Z49*10</f>
         <v>5.1</v>
       </c>
-      <c r="AB49" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="5" t="n">
+      <c r="AB49" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="6" t="n">
         <f aca="false">(AB49/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AE49" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH49" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK49" s="5" t="n">
+      <c r="AE49" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH49" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="6" t="n">
         <f aca="false">AE49+AF49+AG49+AI49+AJ49+AH49</f>
         <v>10</v>
       </c>
-      <c r="AM49" s="9" t="n">
+      <c r="AM49" s="10" t="n">
         <f aca="false">AL49+AK49+AD49+AC49+AA49+M49+(N49/2)</f>
         <v>21.902</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -5480,85 +5563,88 @@
       <c r="E50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4" t="n">
+      <c r="F50" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" s="5" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M50" s="5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M50" s="6" t="n">
         <f aca="false">L50*10</f>
-        <v>5</v>
-      </c>
-      <c r="N50" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q50" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T50" s="7" t="n">
+      <c r="Q50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="U50" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V50" s="7" t="n">
+      <c r="U50" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="W50" s="19" t="n">
+      <c r="W50" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="Y50" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z50" s="8" t="n">
+      <c r="Y50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="9" t="n">
         <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)+SMALL(O50:Y50,3)))/40</f>
         <v>0.8</v>
       </c>
-      <c r="AA50" s="5" t="n">
+      <c r="AA50" s="6" t="n">
         <f aca="false">Z50*10</f>
         <v>8</v>
       </c>
-      <c r="AB50" s="17" t="n">
+      <c r="AB50" s="19" t="n">
         <v>34.33</v>
       </c>
-      <c r="AC50" s="5" t="n">
+      <c r="AC50" s="6" t="n">
         <f aca="false">(AB50/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AE50" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH50" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK50" s="5" t="n">
+      <c r="AE50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH50" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK50" s="6" t="n">
         <f aca="false">AE50+AF50+AG50+AI50+AJ50+AH50</f>
         <v>10</v>
       </c>
-      <c r="AM50" s="9" t="n">
+      <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>34.601</v>
+        <v>35.851</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -5573,85 +5659,86 @@
       <c r="E51" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4" t="n">
+      <c r="F51" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="L51" s="5" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M51" s="5" t="n">
+      <c r="M51" s="6" t="n">
         <f aca="false">L51*10</f>
         <v>2.5</v>
       </c>
-      <c r="N51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T51" s="7" t="n">
+      <c r="N51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="U51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="7" t="n">
+      <c r="U51" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="W51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z51" s="8" t="n">
+      <c r="W51" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="9" t="n">
         <f aca="false">(SUM(O51:Y51)-(SMALL(O51:Y51,2)+SMALL(O51:Y51,1)+SMALL(O51:Y51,3)))/40</f>
         <v>0.4875</v>
       </c>
-      <c r="AA51" s="5" t="n">
+      <c r="AA51" s="6" t="n">
         <f aca="false">Z51*10</f>
         <v>4.875</v>
       </c>
-      <c r="AB51" s="17" t="n">
+      <c r="AB51" s="19" t="n">
         <v>39.5</v>
       </c>
-      <c r="AC51" s="5" t="n">
+      <c r="AC51" s="6" t="n">
         <f aca="false">(AB51/50)*15 + 1.302</f>
         <v>13.152</v>
       </c>
-      <c r="AE51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH51" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK51" s="5" t="n">
+      <c r="AE51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH51" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="6" t="n">
         <f aca="false">AE51+AF51+AG51+AI51+AJ51+AH51</f>
         <v>10</v>
       </c>
-      <c r="AM51" s="9" t="n">
+      <c r="AM51" s="10" t="n">
         <f aca="false">AL51+AK51+AD51+AC51+AA51+M51+(N51/2)</f>
         <v>30.527</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -5666,230 +5753,230 @@
       <c r="E52" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L52" s="4" t="n">
+      <c r="F52" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" s="5" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M52" s="5" t="n">
+      <c r="M52" s="6" t="n">
         <f aca="false">L52*10</f>
         <v>3.75</v>
       </c>
-      <c r="N52" s="6" t="n">
+      <c r="N52" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="7" t="n">
+      <c r="O52" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8" t="n">
         <v>2.9</v>
       </c>
-      <c r="Q52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="7" t="n">
+      <c r="Q52" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="U52" s="7" t="n">
+      <c r="U52" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="V52" s="7" t="n">
+      <c r="V52" s="8" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W52" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="8" t="n">
+      <c r="W52" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="9" t="n">
         <f aca="false">(SUM(O52:Y52)-(SMALL(O52:Y52,2)+SMALL(O52:Y52,1)+SMALL(O52:Y52,3)))/40</f>
         <v>0.439166666675</v>
       </c>
-      <c r="AA52" s="5" t="n">
+      <c r="AA52" s="6" t="n">
         <f aca="false">Z52*10</f>
         <v>4.39166666675</v>
       </c>
-      <c r="AB52" s="17" t="n">
+      <c r="AB52" s="19" t="n">
         <v>34.33</v>
       </c>
-      <c r="AC52" s="5" t="n">
+      <c r="AC52" s="6" t="n">
         <f aca="false">(AB52/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AE52" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH52" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK52" s="5" t="n">
+      <c r="AE52" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH52" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK52" s="6" t="n">
         <f aca="false">AE52+AF52+AG52+AI52+AJ52+AH52</f>
         <v>10</v>
       </c>
-      <c r="AM52" s="9" t="n">
+      <c r="AM52" s="10" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
         <v>31.74266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="15"/>
-      <c r="AH53" s="22"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="16"/>
+      <c r="AH53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30"/>
-      <c r="E57" s="31" t="s">
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32"/>
+      <c r="E57" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="32" t="s">
+      <c r="G57" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="30"/>
-      <c r="E58" s="33" t="s">
+      <c r="A58" s="32"/>
+      <c r="E58" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G58" s="34" t="n">
+      <c r="G58" s="36" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="30"/>
-      <c r="E59" s="33" t="s">
+      <c r="A59" s="32"/>
+      <c r="E59" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="34" t="n">
+      <c r="G59" s="36" t="n">
         <v>3.67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30"/>
-      <c r="E60" s="33" t="s">
+      <c r="A60" s="32"/>
+      <c r="E60" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="34" t="n">
+      <c r="G60" s="36" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30"/>
-      <c r="E61" s="33" t="s">
+      <c r="A61" s="32"/>
+      <c r="E61" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="34" t="n">
+      <c r="G61" s="36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="30"/>
-      <c r="E62" s="33" t="s">
+      <c r="A62" s="32"/>
+      <c r="E62" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G62" s="34" t="n">
+      <c r="G62" s="36" t="n">
         <v>2.67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="30"/>
-      <c r="E63" s="33" t="s">
+      <c r="A63" s="32"/>
+      <c r="E63" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="34" t="n">
+      <c r="G63" s="36" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="30"/>
-      <c r="E64" s="33" t="s">
+      <c r="A64" s="32"/>
+      <c r="E64" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G64" s="34" t="n">
+      <c r="G64" s="36" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30"/>
-      <c r="E65" s="33" t="s">
+      <c r="A65" s="32"/>
+      <c r="E65" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="G65" s="34" t="n">
+      <c r="G65" s="36" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="30"/>
-      <c r="E66" s="33" t="s">
+      <c r="A66" s="32"/>
+      <c r="E66" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="33" t="s">
+      <c r="F66" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="34" t="n">
+      <c r="G66" s="36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -365,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -403,13 +403,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -572,7 +565,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -586,10 +579,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,19 +602,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -639,10 +632,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -661,16 +650,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -697,7 +678,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -705,11 +686,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -717,7 +698,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -772,14 +753,14 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4682B4"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF20B2AA"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF4682B4"/>
       <rgbColor rgb="FF778899"/>
-      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF5F9EA0"/>
       <rgbColor rgb="FF003300"/>
@@ -801,29 +782,30 @@
   <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.5867346938776"/>
-    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="7" min="7" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="7" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="8" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="9" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="6" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="36" min="31" style="7" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="6" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="6" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,71 +950,70 @@
       <c r="G2" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <f aca="false">L2*10</f>
         <v>5</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="N2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="7" t="n">
         <f aca="false">2+0.8+0.5</f>
         <v>3.3</v>
       </c>
-      <c r="Q2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8" t="n">
+      <c r="Q2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="9" t="n">
+      <c r="U2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="8" t="n">
         <f aca="false">(SUM(O2:Y2)-(SMALL(O2:Y2,2)+SMALL(O2:Y2,1)+SMALL(O2:Y2,3)))/40</f>
         <v>0.545</v>
       </c>
-      <c r="AA2" s="6" t="n">
+      <c r="AA2" s="5" t="n">
         <f aca="false">Z2*10</f>
         <v>5.45</v>
       </c>
-      <c r="AB2" s="19" t="n">
+      <c r="AB2" s="18" t="n">
         <v>36.5</v>
       </c>
-      <c r="AC2" s="6" t="n">
+      <c r="AC2" s="5" t="n">
         <f aca="false">(AB2/50)*15 + 1.302</f>
         <v>12.252</v>
       </c>
-      <c r="AE2" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH2" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK2" s="6" t="n">
+      <c r="AE2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="5" t="n">
         <f aca="false">AE2+AF2+AG2+AI2+AJ2+AH2</f>
         <v>10</v>
       </c>
@@ -1063,72 +1044,72 @@
       <c r="G3" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" s="5" t="n">
+      <c r="H3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
         <v>0.575</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <f aca="false">L3*10</f>
         <v>5.75</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="N3" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" s="8" t="n">
+      <c r="P3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="21" t="n">
+      <c r="U3" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V3" s="8" t="n">
+      <c r="V3" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W3" s="21" t="n">
+      <c r="W3" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y3" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="9" t="n">
+      <c r="Y3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="8" t="n">
         <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)+SMALL(O3:Y3,3)))/40</f>
         <v>0.808333333325</v>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="5" t="n">
         <f aca="false">Z3*10</f>
         <v>8.08333333325</v>
       </c>
-      <c r="AB3" s="19" t="n">
+      <c r="AB3" s="18" t="n">
         <v>30.33</v>
       </c>
-      <c r="AC3" s="6" t="n">
+      <c r="AC3" s="5" t="n">
         <f aca="false">(AB3/50)*15 + 1.302</f>
         <v>10.401</v>
       </c>
-      <c r="AE3" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK3" s="6" t="n">
+      <c r="AE3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="5" t="n">
         <f aca="false">AE3+AF3+AG3+AI3+AJ3+AH3</f>
         <v>10</v>
       </c>
@@ -1159,72 +1140,72 @@
       <c r="G4" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" s="5" t="n">
+      <c r="H4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <f aca="false">L4*10</f>
         <v>6.25</v>
       </c>
-      <c r="N4" s="7" t="n">
+      <c r="N4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O4" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" s="8" t="n">
+      <c r="O4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="7" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q4" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" s="8" t="n">
+      <c r="Q4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="9" t="n">
+      <c r="U4" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8" t="n">
         <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)+SMALL(O4:Y4,3)))/40</f>
         <v>0.745</v>
       </c>
-      <c r="AA4" s="6" t="n">
+      <c r="AA4" s="5" t="n">
         <f aca="false">Z4*10</f>
         <v>7.45</v>
       </c>
-      <c r="AB4" s="19" t="n">
+      <c r="AB4" s="18" t="n">
         <v>34.5</v>
       </c>
-      <c r="AC4" s="6" t="n">
+      <c r="AC4" s="5" t="n">
         <f aca="false">(AB4/50)*15 + 1.302</f>
         <v>11.652</v>
       </c>
-      <c r="AE4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="6" t="n">
+      <c r="AE4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="5" t="n">
         <f aca="false">AE4+AF4+AG4+AI4+AJ4+AH4</f>
         <v>10</v>
       </c>
@@ -1255,72 +1236,72 @@
       <c r="G5" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" s="5" t="n">
+      <c r="H5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <f aca="false">L5*10</f>
         <v>6.25</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" s="8" t="n">
+      <c r="P5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="21" t="n">
+      <c r="U5" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V5" s="8" t="n">
+      <c r="V5" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W5" s="21" t="n">
+      <c r="W5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y5" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="9" t="n">
+      <c r="Y5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="8" t="n">
         <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
         <v>0.758333333325</v>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="5" t="n">
         <f aca="false">Z5*10</f>
         <v>7.58333333325</v>
       </c>
-      <c r="AB5" s="19" t="n">
+      <c r="AB5" s="18" t="n">
         <v>33.16</v>
       </c>
-      <c r="AC5" s="6" t="n">
+      <c r="AC5" s="5" t="n">
         <f aca="false">(AB5/50)*15 + 1.302</f>
         <v>11.25</v>
       </c>
-      <c r="AE5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK5" s="6" t="n">
+      <c r="AE5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="5" t="n">
         <f aca="false">AE5+AF5+AG5+AI5+AJ5+AH5</f>
         <v>10</v>
       </c>
@@ -1351,71 +1332,73 @@
       <c r="G6" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5" t="n">
+      <c r="H6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
         <v>0.6</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <f aca="false">L6*10</f>
         <v>6</v>
       </c>
-      <c r="N6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8" t="n">
+      <c r="N6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="7" t="n">
         <f aca="false">0.7+0.2+1</f>
         <v>1.9</v>
       </c>
-      <c r="Q6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" s="8" t="n">
+      <c r="Q6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" s="8" t="n">
+      <c r="U6" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W6" s="21" t="n">
+      <c r="W6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="9" t="n">
+      <c r="Y6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="8" t="n">
         <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)+SMALL(O6:Y6,3)))/40</f>
         <v>0.829166666675</v>
       </c>
-      <c r="AA6" s="6" t="n">
+      <c r="AA6" s="5" t="n">
         <f aca="false">Z6*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AB6" s="19" t="n">
+      <c r="AB6" s="18" t="n">
         <v>37.66</v>
       </c>
-      <c r="AC6" s="6" t="n">
+      <c r="AC6" s="5" t="n">
         <f aca="false">(AB6/50)*15 + 1.302</f>
         <v>12.6</v>
       </c>
-      <c r="AE6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="22"/>
-      <c r="AK6" s="6" t="n">
+      <c r="AE6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="5" t="n">
         <f aca="false">AE6+AF6+AG6+AI6+AJ6+AH6</f>
         <v>0</v>
       </c>
@@ -1446,72 +1429,72 @@
       <c r="G7" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" s="5" t="n">
+      <c r="H7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="5" t="n">
         <f aca="false">L7*10</f>
         <v>6.25</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="N7" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="O7" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8" t="n">
+      <c r="O7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="7" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q7" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" s="8" t="n">
+      <c r="Q7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U7" s="21" t="n">
+      <c r="U7" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V7" s="8" t="n">
+      <c r="V7" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W7" s="21" t="n">
+      <c r="W7" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y7" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="9" t="n">
+      <c r="Y7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="8" t="n">
         <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)+SMALL(O7:Y7,3)))/40</f>
         <v>0.829166666675</v>
       </c>
-      <c r="AA7" s="6" t="n">
+      <c r="AA7" s="5" t="n">
         <f aca="false">Z7*10</f>
         <v>8.29166666675</v>
       </c>
-      <c r="AB7" s="23" t="n">
+      <c r="AB7" s="21" t="n">
         <v>37.33</v>
       </c>
-      <c r="AC7" s="6" t="n">
+      <c r="AC7" s="5" t="n">
         <f aca="false">(AB7/50)*15 + 1.302</f>
         <v>12.501</v>
       </c>
-      <c r="AE7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH7" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="6" t="n">
+      <c r="AE7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="5" t="n">
         <f aca="false">AE7+AF7+AG7+AI7+AJ7+AH7</f>
         <v>10</v>
       </c>
@@ -1542,73 +1525,73 @@
       <c r="G8" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="5" t="n">
+      <c r="H8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="5" t="n">
         <f aca="false">L8*10</f>
         <v>6.25</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O8" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" s="8" t="n">
+      <c r="O8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" s="7" t="n">
         <f aca="false">1+1+0.8+0.8+1</f>
         <v>4.6</v>
       </c>
-      <c r="Q8" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T8" s="8" t="n">
+      <c r="Q8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U8" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V8" s="8" t="n">
+      <c r="U8" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W8" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="9" t="n">
+      <c r="W8" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="8" t="n">
         <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)+SMALL(O8:Y8,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA8" s="6" t="n">
+      <c r="AA8" s="5" t="n">
         <f aca="false">Z8*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB8" s="19" t="n">
+      <c r="AB8" s="18" t="n">
         <v>44.5</v>
       </c>
-      <c r="AC8" s="6" t="n">
+      <c r="AC8" s="5" t="n">
         <f aca="false">(AB8/50)*15 + 1.302</f>
         <v>14.652</v>
       </c>
-      <c r="AE8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK8" s="6" t="n">
+      <c r="AE8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="5" t="n">
         <f aca="false">AE8+AF8+AG8+AI8+AJ8+AH8</f>
         <v>10</v>
       </c>
@@ -1639,69 +1622,70 @@
       <c r="G9" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <f aca="false">L9*10</f>
         <v>3.75</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8" t="n">
+      <c r="O9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="n">
         <f aca="false">0.8+1+1+1+0.8</f>
         <v>4.6</v>
       </c>
-      <c r="Q9" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" s="8" t="n">
+      <c r="Q9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9" t="n">
+      <c r="U9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8" t="n">
         <f aca="false">(SUM(O9:Y9)-(SMALL(O9:Y9,2)+SMALL(O9:Y9,1)+SMALL(O9:Y9,3)))/40</f>
         <v>0.54</v>
       </c>
-      <c r="AA9" s="6" t="n">
+      <c r="AA9" s="5" t="n">
         <f aca="false">Z9*10</f>
         <v>5.4</v>
       </c>
-      <c r="AB9" s="19" t="n">
+      <c r="AB9" s="18" t="n">
         <v>35.83</v>
       </c>
-      <c r="AC9" s="6" t="n">
+      <c r="AC9" s="5" t="n">
         <f aca="false">(AB9/50)*15 + 1.302</f>
         <v>12.051</v>
       </c>
-      <c r="AE9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="22"/>
-      <c r="AK9" s="6" t="n">
+      <c r="AE9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="5" t="n">
         <f aca="false">AE9+AF9+AG9+AI9+AJ9+AH9</f>
         <v>0</v>
       </c>
@@ -1732,72 +1716,72 @@
       <c r="G10" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" s="5" t="n">
+      <c r="H10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="5" t="n">
         <f aca="false">L10*10</f>
         <v>6.25</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" s="8" t="n">
+      <c r="O10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q10" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U10" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9" t="n">
+      <c r="Q10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8" t="n">
         <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)+SMALL(O10:Y10,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA10" s="6" t="n">
+      <c r="AA10" s="5" t="n">
         <f aca="false">Z10*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB10" s="19" t="n">
+      <c r="AB10" s="18" t="n">
         <v>44.83</v>
       </c>
-      <c r="AC10" s="6" t="n">
+      <c r="AC10" s="5" t="n">
         <f aca="false">(AB10/50)*15 + 1.302</f>
         <v>14.751</v>
       </c>
-      <c r="AE10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK10" s="6" t="n">
+      <c r="AE10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="5" t="n">
         <f aca="false">AE10+AF10+AG10+AI10+AJ10+AH10</f>
         <v>10</v>
       </c>
@@ -1828,72 +1812,72 @@
       <c r="G11" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" s="5" t="n">
+      <c r="H11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="5" t="n">
         <f aca="false">L11*10</f>
         <v>6.25</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="N11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P11" s="8" t="n">
+      <c r="O11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" s="8" t="n">
+      <c r="Q11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W11" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="9" t="n">
+      <c r="W11" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="8" t="n">
         <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)+SMALL(O11:Y11,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA11" s="6" t="n">
+      <c r="AA11" s="5" t="n">
         <f aca="false">Z11*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB11" s="19" t="n">
+      <c r="AB11" s="18" t="n">
         <v>44.5</v>
       </c>
-      <c r="AC11" s="6" t="n">
+      <c r="AC11" s="5" t="n">
         <f aca="false">(AB11/50)*15 + 1.302</f>
         <v>14.652</v>
       </c>
-      <c r="AE11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK11" s="6" t="n">
+      <c r="AE11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="5" t="n">
         <f aca="false">AE11+AF11+AG11+AI11+AJ11+AH11</f>
         <v>10</v>
       </c>
@@ -1924,70 +1908,69 @@
       <c r="G12" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="4" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="5" t="n">
         <f aca="false">L12*10</f>
         <v>5</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="N12" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O12" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T12" s="8" t="n">
+      <c r="O12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8" t="n">
+      <c r="U12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W12" s="21" t="n">
+      <c r="W12" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y12" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="9" t="n">
+      <c r="Y12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="8" t="n">
         <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)+SMALL(O12:Y12,3)))/40</f>
         <v>0.716666666675</v>
       </c>
-      <c r="AA12" s="6" t="n">
+      <c r="AA12" s="5" t="n">
         <f aca="false">Z12*10</f>
         <v>7.16666666675</v>
       </c>
-      <c r="AB12" s="19" t="n">
+      <c r="AB12" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="AC12" s="6" t="n">
+      <c r="AC12" s="5" t="n">
         <f aca="false">(AB12/50)*15 + 1.302</f>
         <v>10.302</v>
       </c>
-      <c r="AE12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK12" s="6" t="n">
+      <c r="AE12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="5" t="n">
         <f aca="false">AE12+AF12+AG12+AI12+AJ12+AH12</f>
         <v>10</v>
       </c>
@@ -2018,74 +2001,74 @@
       <c r="G13" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" s="5" t="n">
+      <c r="H13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="5" t="n">
         <f aca="false">L13*10</f>
         <v>6.25</v>
       </c>
-      <c r="N13" s="7" t="n">
+      <c r="N13" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
         <v>3</v>
       </c>
-      <c r="O13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" s="8" t="n">
+      <c r="O13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <f aca="false">0.7+1+1.5</f>
         <v>3.2</v>
       </c>
-      <c r="Q13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" s="8" t="n">
+      <c r="Q13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U13" s="21" t="n">
+      <c r="U13" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V13" s="8" t="n">
+      <c r="V13" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W13" s="21" t="n">
+      <c r="W13" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="9" t="n">
+      <c r="Y13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="8" t="n">
         <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)+SMALL(O13:Y13,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA13" s="6" t="n">
+      <c r="AA13" s="5" t="n">
         <f aca="false">Z13*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB13" s="19" t="n">
+      <c r="AB13" s="18" t="n">
         <v>40.5</v>
       </c>
-      <c r="AC13" s="6" t="n">
+      <c r="AC13" s="5" t="n">
         <f aca="false">(AB13/50)*15 + 1.302</f>
         <v>13.452</v>
       </c>
-      <c r="AE13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK13" s="6" t="n">
+      <c r="AE13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="5" t="n">
         <f aca="false">AE13+AF13+AG13+AI13+AJ13+AH13</f>
         <v>10</v>
       </c>
@@ -2116,72 +2099,72 @@
       <c r="G14" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" s="5" t="n">
+      <c r="H14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="5" t="n">
         <f aca="false">L14*10</f>
         <v>6.25</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O14" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P14" s="8" t="n">
+      <c r="O14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q14" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" s="8" t="n">
+      <c r="Q14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="8" t="n">
+      <c r="U14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W14" s="21" t="n">
+      <c r="W14" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y14" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="9" t="n">
+      <c r="Y14" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="8" t="n">
         <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)+SMALL(O14:Y14,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA14" s="6" t="n">
+      <c r="AA14" s="5" t="n">
         <f aca="false">Z14*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB14" s="19" t="n">
+      <c r="AB14" s="18" t="n">
         <v>34.83</v>
       </c>
-      <c r="AC14" s="6" t="n">
+      <c r="AC14" s="5" t="n">
         <f aca="false">(AB14/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AE14" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK14" s="6" t="n">
+      <c r="AE14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="5" t="n">
         <f aca="false">AE14+AF14+AG14+AI14+AJ14+AH14</f>
         <v>10</v>
       </c>
@@ -2212,73 +2195,73 @@
       <c r="G15" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" s="5" t="n">
+      <c r="H15" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="5" t="n">
         <f aca="false">L15*10</f>
         <v>6.25</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="N15" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P15" s="8" t="n">
+      <c r="P15" s="7" t="n">
         <f aca="false">0.5+0.6+0.8+2</f>
         <v>3.9</v>
       </c>
-      <c r="Q15" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" s="8" t="n">
+      <c r="Q15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="21" t="n">
+      <c r="U15" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V15" s="8" t="n">
+      <c r="V15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W15" s="21" t="n">
+      <c r="W15" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y15" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="9" t="n">
+      <c r="Y15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="8" t="n">
         <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)+SMALL(O15:Y15,3)))/40</f>
         <v>0.825</v>
       </c>
-      <c r="AA15" s="6" t="n">
+      <c r="AA15" s="5" t="n">
         <f aca="false">Z15*10</f>
         <v>8.25</v>
       </c>
-      <c r="AB15" s="19" t="n">
+      <c r="AB15" s="18" t="n">
         <v>31.83</v>
       </c>
-      <c r="AC15" s="6" t="n">
+      <c r="AC15" s="5" t="n">
         <f aca="false">(AB15/50)*15 + 1.302</f>
         <v>10.851</v>
       </c>
-      <c r="AE15" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH15" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK15" s="6" t="n">
+      <c r="AE15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="5" t="n">
         <f aca="false">AE15+AF15+AG15+AI15+AJ15+AH15</f>
         <v>10</v>
       </c>
@@ -2309,72 +2292,71 @@
       <c r="G16" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="L16" s="5" t="n">
+      <c r="L16" s="4" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="5" t="n">
         <f aca="false">L16*10</f>
         <v>5</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="N16" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
         <v>3</v>
       </c>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P16" s="8" t="n">
+      <c r="P16" s="7" t="n">
         <f aca="false">0.7+0.5+1+1+0.5</f>
         <v>3.7</v>
       </c>
-      <c r="Q16" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T16" s="8" t="n">
+      <c r="Q16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U16" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="21" t="n">
+      <c r="U16" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9" t="n">
+      <c r="Y16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8" t="n">
         <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)+SMALL(O16:Y16,3)))/40</f>
         <v>0.755</v>
       </c>
-      <c r="AA16" s="6" t="n">
+      <c r="AA16" s="5" t="n">
         <f aca="false">Z16*10</f>
         <v>7.55</v>
       </c>
-      <c r="AB16" s="19" t="n">
+      <c r="AB16" s="18" t="n">
         <v>33</v>
       </c>
-      <c r="AC16" s="6" t="n">
+      <c r="AC16" s="5" t="n">
         <f aca="false">(AB16/50)*15 + 1.302</f>
         <v>11.202</v>
       </c>
-      <c r="AE16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK16" s="6" t="n">
+      <c r="AE16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="5" t="n">
         <f aca="false">AE16+AF16+AG16+AI16+AJ16+AH16</f>
         <v>10</v>
       </c>
@@ -2405,73 +2387,73 @@
       <c r="G17" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H17" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" s="5" t="n">
+      <c r="H17" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="5" t="n">
         <f aca="false">L17*10</f>
         <v>6.25</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P17" s="8" t="n">
+      <c r="P17" s="7" t="n">
         <f aca="false">0.6+0.5+2</f>
         <v>3.1</v>
       </c>
-      <c r="Q17" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T17" s="8" t="n">
+      <c r="Q17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="21" t="n">
+      <c r="U17" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V17" s="8" t="n">
+      <c r="V17" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W17" s="21" t="n">
+      <c r="W17" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y17" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="9" t="n">
+      <c r="Y17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="8" t="n">
         <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)+SMALL(O17:Y17,3)))/40</f>
         <v>0.825</v>
       </c>
-      <c r="AA17" s="6" t="n">
+      <c r="AA17" s="5" t="n">
         <f aca="false">Z17*10</f>
         <v>8.25</v>
       </c>
-      <c r="AB17" s="19" t="n">
+      <c r="AB17" s="18" t="n">
         <v>32</v>
       </c>
-      <c r="AC17" s="6" t="n">
+      <c r="AC17" s="5" t="n">
         <f aca="false">(AB17/50)*15 + 1.302</f>
         <v>10.902</v>
       </c>
-      <c r="AE17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK17" s="6" t="n">
+      <c r="AE17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="5" t="n">
         <f aca="false">AE17+AF17+AG17+AI17+AJ17+AH17</f>
         <v>10</v>
       </c>
@@ -2502,71 +2484,70 @@
       <c r="G18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="L18" s="5" t="n">
+      <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.475</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="5" t="n">
         <f aca="false">L18*10</f>
         <v>4.75</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O18" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" s="8" t="n">
+      <c r="O18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" s="7" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q18" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T18" s="8" t="n">
+      <c r="Q18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9" t="n">
+      <c r="U18" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8" t="n">
         <f aca="false">(SUM(O18:Y18)-(SMALL(O18:Y18,2)+SMALL(O18:Y18,1)+SMALL(O18:Y18,3)))/40</f>
         <v>0.74</v>
       </c>
-      <c r="AA18" s="6" t="n">
+      <c r="AA18" s="5" t="n">
         <f aca="false">Z18*10</f>
         <v>7.4</v>
       </c>
-      <c r="AB18" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="6" t="n">
+      <c r="AB18" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5" t="n">
         <f aca="false">(AB18/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AE18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK18" s="6" t="n">
+      <c r="AE18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="5" t="n">
         <f aca="false">AE18+AF18+AG18+AI18+AJ18+AH18</f>
         <v>10</v>
       </c>
@@ -2597,77 +2578,79 @@
       <c r="G19" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="L19" s="5" t="n">
+      <c r="H19" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
-        <v>0.5</v>
-      </c>
-      <c r="M19" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M19" s="5" t="n">
         <f aca="false">L19*10</f>
-        <v>5</v>
-      </c>
-      <c r="N19" s="7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N19" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O19" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" s="8" t="n">
+      <c r="O19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" s="7" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q19" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T19" s="8" t="n">
+      <c r="Q19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="21" t="n">
+      <c r="U19" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V19" s="8" t="n">
+      <c r="V19" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W19" s="21" t="n">
+      <c r="W19" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y19" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="9" t="n">
+      <c r="Y19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="8" t="n">
         <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)+SMALL(O19:Y19,3)))/40</f>
         <v>0.841666666675</v>
       </c>
-      <c r="AA19" s="6" t="n">
+      <c r="AA19" s="5" t="n">
         <f aca="false">Z19*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB19" s="19" t="n">
+      <c r="AB19" s="18" t="n">
         <v>37.83</v>
       </c>
-      <c r="AC19" s="6" t="n">
+      <c r="AC19" s="5" t="n">
         <f aca="false">(AB19/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AE19" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK19" s="6" t="n">
+      <c r="AE19" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="5" t="n">
         <f aca="false">AE19+AF19+AG19+AI19+AJ19+AH19</f>
         <v>10</v>
       </c>
       <c r="AM19" s="10" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
-        <v>37.31766666675</v>
+        <v>38.56766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,73 +2675,73 @@
       <c r="G20" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H20" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" s="5" t="n">
+      <c r="H20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="5" t="n">
         <f aca="false">L20*10</f>
         <v>6.25</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="N20" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O20" s="8" t="n">
+      <c r="O20" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="P20" s="8" t="n">
+      <c r="P20" s="7" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q20" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" s="8" t="n">
+      <c r="Q20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U20" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" s="8" t="n">
+      <c r="U20" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="W20" s="21" t="n">
+      <c r="W20" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y20" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="9" t="n">
+      <c r="Y20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="8" t="n">
         <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)+SMALL(O20:Y20,3)))/40</f>
         <v>0.8375</v>
       </c>
-      <c r="AA20" s="6" t="n">
+      <c r="AA20" s="5" t="n">
         <f aca="false">Z20*10</f>
         <v>8.375</v>
       </c>
-      <c r="AB20" s="19" t="n">
+      <c r="AB20" s="18" t="n">
         <v>24.5</v>
       </c>
-      <c r="AC20" s="6" t="n">
+      <c r="AC20" s="5" t="n">
         <f aca="false">(AB20/50)*15 + 1.302</f>
         <v>8.652</v>
       </c>
-      <c r="AE20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH20" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK20" s="6" t="n">
+      <c r="AE20" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="5" t="n">
         <f aca="false">AE20+AF20+AG20+AI20+AJ20+AH20</f>
         <v>10</v>
       </c>
@@ -2768,7 +2751,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -2789,69 +2772,70 @@
       <c r="G21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="L21" s="5" t="n">
+      <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M21" s="6" t="n">
+      <c r="M21" s="5" t="n">
         <f aca="false">L21*10</f>
         <v>3.75</v>
       </c>
-      <c r="N21" s="7" t="n">
+      <c r="N21" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P21" s="8" t="n">
+      <c r="O21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" s="7" t="n">
         <f aca="false">0.8+0.5+1+1+0.5</f>
         <v>3.8</v>
       </c>
-      <c r="Q21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T21" s="8" t="n">
+      <c r="Q21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="9" t="n">
+      <c r="U21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="8" t="n">
         <f aca="false">(SUM(O21:Y21)-(SMALL(O21:Y21,2)+SMALL(O21:Y21,1)+SMALL(O21:Y21,3)))/40</f>
         <v>0.495</v>
       </c>
-      <c r="AA21" s="6" t="n">
+      <c r="AA21" s="5" t="n">
         <f aca="false">Z21*10</f>
         <v>4.95</v>
       </c>
-      <c r="AB21" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6" t="n">
+      <c r="AB21" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5" t="n">
         <f aca="false">(AB21/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AE21" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH21" s="20"/>
-      <c r="AK21" s="6" t="n">
+      <c r="AE21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="5" t="n">
         <f aca="false">AE21+AF21+AG21+AI21+AJ21+AH21</f>
         <v>5</v>
       </c>
@@ -2861,7 +2845,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -2882,74 +2866,74 @@
       <c r="G22" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5" t="n">
+      <c r="H22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="M22" s="5" t="n">
         <f aca="false">L22*10</f>
         <v>6.25</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="N22" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O22" s="8" t="n">
+      <c r="O22" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="P22" s="8" t="n">
+      <c r="P22" s="7" t="n">
         <f aca="false">4.5</f>
         <v>4.5</v>
       </c>
-      <c r="Q22" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T22" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U22" s="21" t="n">
+      <c r="Q22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="9" t="n">
+      <c r="V22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="8" t="n">
         <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)+SMALL(O22:Y22,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA22" s="6" t="n">
+      <c r="AA22" s="5" t="n">
         <f aca="false">Z22*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB22" s="19" t="n">
+      <c r="AB22" s="18" t="n">
         <v>34.33</v>
       </c>
-      <c r="AC22" s="6" t="n">
+      <c r="AC22" s="5" t="n">
         <f aca="false">(AB22/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AE22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH22" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK22" s="6" t="n">
+      <c r="AE22" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="5" t="n">
         <f aca="false">AE22+AF22+AG22+AI22+AJ22+AH22</f>
         <v>10</v>
       </c>
@@ -2959,7 +2943,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -2980,74 +2964,74 @@
       <c r="G23" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H23" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="5" t="n">
+      <c r="H23" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="5" t="n">
         <f aca="false">L23*10</f>
         <v>6.25</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="N23" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O23" s="8" t="n">
+      <c r="O23" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P23" s="8" t="n">
+      <c r="P23" s="7" t="n">
         <f aca="false">0.7+1+0.5+0.5+0.2</f>
         <v>2.9</v>
       </c>
-      <c r="Q23" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" s="8" t="n">
+      <c r="Q23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U23" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V23" s="8" t="n">
+      <c r="U23" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W23" s="21" t="n">
+      <c r="W23" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y23" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="9" t="n">
+      <c r="Y23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="8" t="n">
         <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)+SMALL(O23:Y23,3)))/40</f>
         <v>0.8</v>
       </c>
-      <c r="AA23" s="6" t="n">
+      <c r="AA23" s="5" t="n">
         <f aca="false">Z23*10</f>
         <v>8</v>
       </c>
-      <c r="AB23" s="19" t="n">
+      <c r="AB23" s="18" t="n">
         <v>32.33</v>
       </c>
-      <c r="AC23" s="6" t="n">
+      <c r="AC23" s="5" t="n">
         <f aca="false">(AB23/50)*15 + 1.302</f>
         <v>11.001</v>
       </c>
-      <c r="AE23" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH23" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK23" s="6" t="n">
+      <c r="AE23" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="5" t="n">
         <f aca="false">AE23+AF23+AG23+AI23+AJ23+AH23</f>
         <v>10</v>
       </c>
@@ -3057,7 +3041,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -3078,73 +3062,73 @@
       <c r="G24" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H24" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" s="5" t="n">
+      <c r="H24" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M24" s="6" t="n">
+      <c r="M24" s="5" t="n">
         <f aca="false">L24*10</f>
         <v>6.25</v>
       </c>
-      <c r="N24" s="7" t="n">
+      <c r="N24" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="O24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8" t="n">
+      <c r="O24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T24" s="8" t="n">
+      <c r="Q24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U24" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V24" s="8" t="n">
+      <c r="U24" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W24" s="21" t="n">
+      <c r="W24" s="20" t="n">
         <v>3.5</v>
       </c>
-      <c r="Y24" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="9" t="n">
+      <c r="Y24" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="8" t="n">
         <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)+SMALL(O24:Y24,3)))/40</f>
         <v>0.7625</v>
       </c>
-      <c r="AA24" s="6" t="n">
+      <c r="AA24" s="5" t="n">
         <f aca="false">Z24*10</f>
         <v>7.625</v>
       </c>
-      <c r="AB24" s="19" t="n">
+      <c r="AB24" s="18" t="n">
         <v>38.33</v>
       </c>
-      <c r="AC24" s="6" t="n">
+      <c r="AC24" s="5" t="n">
         <f aca="false">(AB24/50)*15 + 1.302</f>
         <v>12.801</v>
       </c>
-      <c r="AE24" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH24" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK24" s="6" t="n">
+      <c r="AE24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="5" t="n">
         <f aca="false">AE24+AF24+AG24+AI24+AJ24+AH24</f>
         <v>10</v>
       </c>
@@ -3154,7 +3138,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -3175,73 +3159,73 @@
       <c r="G25" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" s="5" t="n">
+      <c r="H25" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M25" s="6" t="n">
+      <c r="M25" s="5" t="n">
         <f aca="false">L25*10</f>
         <v>6.25</v>
       </c>
-      <c r="N25" s="7" t="n">
+      <c r="N25" s="6" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O25" s="8" t="n">
+      <c r="O25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="8" t="n">
+      <c r="P25" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q25" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T25" s="8" t="n">
+      <c r="Q25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="9" t="n">
+      <c r="U25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="8" t="n">
         <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)+SMALL(O25:Y25,3)))/40</f>
         <v>0.8125</v>
       </c>
-      <c r="AA25" s="6" t="n">
+      <c r="AA25" s="5" t="n">
         <f aca="false">Z25*10</f>
         <v>8.125</v>
       </c>
-      <c r="AB25" s="19" t="n">
+      <c r="AB25" s="18" t="n">
         <v>36.83</v>
       </c>
-      <c r="AC25" s="6" t="n">
+      <c r="AC25" s="5" t="n">
         <f aca="false">(AB25/50)*15 + 1.302</f>
         <v>12.351</v>
       </c>
-      <c r="AE25" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH25" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK25" s="6" t="n">
+      <c r="AE25" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="5" t="n">
         <f aca="false">AE25+AF25+AG25+AI25+AJ25+AH25</f>
         <v>10</v>
       </c>
@@ -3251,7 +3235,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -3272,72 +3256,72 @@
       <c r="G26" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L26" s="5" t="n">
+      <c r="H26" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="M26" s="5" t="n">
         <f aca="false">L26*10</f>
         <v>6.25</v>
       </c>
-      <c r="N26" s="7" t="n">
+      <c r="N26" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O26" s="8" t="n">
+      <c r="O26" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P26" s="8" t="n">
+      <c r="P26" s="7" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q26" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" s="8" t="n">
+      <c r="Q26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U26" s="21" t="n">
+      <c r="U26" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V26" s="8" t="n">
+      <c r="V26" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W26" s="21" t="n">
+      <c r="W26" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y26" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="9" t="n">
+      <c r="Y26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="8" t="n">
         <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)+SMALL(O26:Y26,3)))/40</f>
         <v>0.845</v>
       </c>
-      <c r="AA26" s="6" t="n">
+      <c r="AA26" s="5" t="n">
         <f aca="false">Z26*10</f>
         <v>8.45</v>
       </c>
-      <c r="AB26" s="19" t="n">
+      <c r="AB26" s="18" t="n">
         <v>41.33</v>
       </c>
-      <c r="AC26" s="6" t="n">
+      <c r="AC26" s="5" t="n">
         <f aca="false">(AB26/50)*15 + 1.302</f>
         <v>13.701</v>
       </c>
-      <c r="AE26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH26" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK26" s="6" t="n">
+      <c r="AE26" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="5" t="n">
         <f aca="false">AE26+AF26+AG26+AI26+AJ26+AH26</f>
         <v>10</v>
       </c>
@@ -3347,7 +3331,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -3368,73 +3352,73 @@
       <c r="G27" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L27" s="5" t="n">
+      <c r="H27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M27" s="6" t="n">
+      <c r="M27" s="5" t="n">
         <f aca="false">L27*10</f>
         <v>6.25</v>
       </c>
-      <c r="N27" s="7" t="n">
+      <c r="N27" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O27" s="8" t="n">
+      <c r="O27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="8" t="n">
+      <c r="P27" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q27" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T27" s="8" t="n">
+      <c r="Q27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U27" s="21" t="n">
+      <c r="U27" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="9" t="n">
+      <c r="V27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="8" t="n">
         <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)+SMALL(O27:Y27,3)))/40</f>
         <v>0.85</v>
       </c>
-      <c r="AA27" s="6" t="n">
+      <c r="AA27" s="5" t="n">
         <f aca="false">Z27*10</f>
         <v>8.5</v>
       </c>
-      <c r="AB27" s="19" t="n">
+      <c r="AB27" s="18" t="n">
         <v>37.83</v>
       </c>
-      <c r="AC27" s="6" t="n">
+      <c r="AC27" s="5" t="n">
         <f aca="false">(AB27/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AE27" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH27" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK27" s="6" t="n">
+      <c r="AE27" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK27" s="5" t="n">
         <f aca="false">AE27+AF27+AG27+AI27+AJ27+AH27</f>
         <v>10</v>
       </c>
@@ -3444,7 +3428,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -3465,73 +3449,73 @@
       <c r="G28" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L28" s="5" t="n">
+      <c r="H28" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="5" t="n">
         <f aca="false">L28*10</f>
         <v>6.25</v>
       </c>
-      <c r="N28" s="7" t="n">
+      <c r="N28" s="6" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O28" s="8" t="n">
+      <c r="O28" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="P28" s="8" t="n">
+      <c r="P28" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q28" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" s="8" t="n">
+      <c r="Q28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U28" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="9" t="n">
+      <c r="U28" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="8" t="n">
         <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)+SMALL(O28:Y28,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA28" s="6" t="n">
+      <c r="AA28" s="5" t="n">
         <f aca="false">Z28*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB28" s="19" t="n">
+      <c r="AB28" s="18" t="n">
         <v>41.83</v>
       </c>
-      <c r="AC28" s="6" t="n">
+      <c r="AC28" s="5" t="n">
         <f aca="false">(AB28/50)*15 + 1.302</f>
         <v>13.851</v>
       </c>
-      <c r="AE28" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH28" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK28" s="6" t="n">
+      <c r="AE28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK28" s="5" t="n">
         <f aca="false">AE28+AF28+AG28+AI28+AJ28+AH28</f>
         <v>10</v>
       </c>
@@ -3541,7 +3525,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -3562,70 +3546,69 @@
       <c r="G29" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="L29" s="5" t="n">
+      <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M29" s="6" t="n">
+      <c r="M29" s="5" t="n">
         <f aca="false">L29*10</f>
         <v>5</v>
       </c>
-      <c r="N29" s="7" t="n">
+      <c r="N29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O29" s="8" t="n">
+      <c r="O29" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="P29" s="8" t="n">
+      <c r="P29" s="7" t="n">
         <v>3.525</v>
       </c>
-      <c r="Q29" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T29" s="8" t="n">
+      <c r="Q29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U29" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="8" t="n">
+      <c r="U29" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W29" s="21" t="n">
+      <c r="W29" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y29" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="9" t="n">
+      <c r="Y29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="8" t="n">
         <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)+SMALL(O29:Y29,3)))/40</f>
         <v>0.788125</v>
       </c>
-      <c r="AA29" s="6" t="n">
+      <c r="AA29" s="5" t="n">
         <f aca="false">Z29*10</f>
         <v>7.88125</v>
       </c>
-      <c r="AB29" s="19" t="n">
+      <c r="AB29" s="18" t="n">
         <v>38.83</v>
       </c>
-      <c r="AC29" s="6" t="n">
+      <c r="AC29" s="5" t="n">
         <f aca="false">(AB29/50)*15 + 1.302</f>
         <v>12.951</v>
       </c>
-      <c r="AE29" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH29" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK29" s="6" t="n">
+      <c r="AE29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH29" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK29" s="5" t="n">
         <f aca="false">AE29+AF29+AG29+AI29+AJ29+AH29</f>
         <v>10</v>
       </c>
@@ -3635,7 +3618,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -3656,69 +3639,70 @@
       <c r="G30" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="L30" s="5" t="n">
+      <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="5" t="n">
         <f aca="false">L30*10</f>
         <v>1.25</v>
       </c>
-      <c r="N30" s="7" t="n">
+      <c r="N30" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O30" s="8" t="n">
+      <c r="O30" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="P30" s="8" t="n">
+      <c r="P30" s="7" t="n">
         <f aca="false">0.7+1+1+1+0.5</f>
         <v>4.2</v>
       </c>
-      <c r="Q30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T30" s="8" t="n">
+      <c r="Q30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U30" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="9" t="n">
+      <c r="U30" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8" t="n">
         <f aca="false">(SUM(O30:Y30)-(SMALL(O30:Y30,2)+SMALL(O30:Y30,1)+SMALL(O30:Y30,3)))/40</f>
         <v>0.355</v>
       </c>
-      <c r="AA30" s="6" t="n">
+      <c r="AA30" s="5" t="n">
         <f aca="false">Z30*10</f>
         <v>3.55</v>
       </c>
-      <c r="AB30" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="6" t="n">
+      <c r="AB30" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5" t="n">
         <f aca="false">(AB30/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AE30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="20"/>
-      <c r="AK30" s="6" t="n">
+      <c r="AE30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="5" t="n">
         <f aca="false">AE30+AF30+AG30+AI30+AJ30+AH30</f>
         <v>0</v>
       </c>
@@ -3728,7 +3712,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -3749,73 +3733,73 @@
       <c r="G31" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" s="5" t="n">
+      <c r="H31" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M31" s="6" t="n">
+      <c r="M31" s="5" t="n">
         <f aca="false">L31*10</f>
         <v>6.25</v>
       </c>
-      <c r="N31" s="7" t="n">
+      <c r="N31" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O31" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P31" s="8" t="n">
+      <c r="O31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P31" s="7" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q31" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T31" s="8" t="n">
+      <c r="Q31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U31" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V31" s="8" t="n">
+      <c r="U31" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="W31" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="9" t="n">
+      <c r="W31" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="8" t="n">
         <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)+SMALL(O31:Y31,3)))/40</f>
         <v>0.875</v>
       </c>
-      <c r="AA31" s="6" t="n">
+      <c r="AA31" s="5" t="n">
         <f aca="false">Z31*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB31" s="19" t="n">
+      <c r="AB31" s="18" t="n">
         <v>45.66</v>
       </c>
-      <c r="AC31" s="6" t="n">
+      <c r="AC31" s="5" t="n">
         <f aca="false">(AB31/50)*15 + 1.302</f>
         <v>15</v>
       </c>
-      <c r="AE31" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH31" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK31" s="6" t="n">
+      <c r="AE31" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="5" t="n">
         <f aca="false">AE31+AF31+AG31+AI31+AJ31+AH31</f>
         <v>10</v>
       </c>
@@ -3825,7 +3809,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -3846,72 +3830,71 @@
       <c r="G32" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="L32" s="5" t="n">
+      <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M32" s="6" t="n">
+      <c r="M32" s="5" t="n">
         <f aca="false">L32*10</f>
         <v>2.5</v>
       </c>
-      <c r="N32" s="7" t="n">
+      <c r="N32" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O32" s="8" t="n">
+      <c r="O32" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P32" s="8" t="n">
+      <c r="P32" s="7" t="n">
         <f aca="false">0.8+1+1+1+0.5</f>
         <v>4.3</v>
       </c>
-      <c r="Q32" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T32" s="8" t="n">
+      <c r="Q32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U32" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" s="8" t="n">
+      <c r="U32" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W32" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="9" t="n">
+      <c r="W32" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="8" t="n">
         <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)+SMALL(O32:Y32,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA32" s="6" t="n">
+      <c r="AA32" s="5" t="n">
         <f aca="false">Z32*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB32" s="19" t="n">
+      <c r="AB32" s="18" t="n">
         <v>41</v>
       </c>
-      <c r="AC32" s="6" t="n">
+      <c r="AC32" s="5" t="n">
         <f aca="false">(AB32/50)*15 + 1.302</f>
         <v>13.602</v>
       </c>
-      <c r="AE32" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH32" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK32" s="6" t="n">
+      <c r="AE32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH32" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK32" s="5" t="n">
         <f aca="false">AE32+AF32+AG32+AI32+AJ32+AH32</f>
         <v>10</v>
       </c>
@@ -3921,7 +3904,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -3942,72 +3925,72 @@
       <c r="G33" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L33" s="5" t="n">
+      <c r="H33" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" s="4" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M33" s="6" t="n">
+      <c r="M33" s="5" t="n">
         <f aca="false">L33*10</f>
         <v>5</v>
       </c>
-      <c r="N33" s="7" t="n">
+      <c r="N33" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O33" s="8" t="n">
+      <c r="O33" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P33" s="8" t="n">
+      <c r="P33" s="7" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q33" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T33" s="8" t="n">
+      <c r="Q33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U33" s="21" t="n">
+      <c r="U33" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V33" s="8" t="n">
+      <c r="V33" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W33" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="9" t="n">
+      <c r="W33" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8" t="n">
         <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)+SMALL(O33:Y33,3)))/40</f>
         <v>0.84</v>
       </c>
-      <c r="AA33" s="6" t="n">
+      <c r="AA33" s="5" t="n">
         <f aca="false">Z33*10</f>
         <v>8.4</v>
       </c>
-      <c r="AB33" s="19" t="n">
+      <c r="AB33" s="18" t="n">
         <v>40.33</v>
       </c>
-      <c r="AC33" s="6" t="n">
+      <c r="AC33" s="5" t="n">
         <f aca="false">(AB33/50)*15 + 1.302</f>
         <v>13.401</v>
       </c>
-      <c r="AE33" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH33" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK33" s="6" t="n">
+      <c r="AE33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK33" s="5" t="n">
         <f aca="false">AE33+AF33+AG33+AI33+AJ33+AH33</f>
         <v>10</v>
       </c>
@@ -4017,7 +4000,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -4038,73 +4021,73 @@
       <c r="G34" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L34" s="5" t="n">
+      <c r="H34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M34" s="6" t="n">
+      <c r="M34" s="5" t="n">
         <f aca="false">L34*10</f>
         <v>6.25</v>
       </c>
-      <c r="N34" s="7" t="n">
+      <c r="N34" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O34" s="8" t="n">
+      <c r="O34" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P34" s="8" t="n">
+      <c r="P34" s="7" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q34" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T34" s="8" t="n">
+      <c r="Q34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U34" s="21" t="n">
+      <c r="U34" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V34" s="8" t="n">
+      <c r="V34" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W34" s="21" t="n">
+      <c r="W34" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y34" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="9" t="n">
+      <c r="Y34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="8" t="n">
         <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)+SMALL(O34:Y34,3)))/40</f>
         <v>0.7875</v>
       </c>
-      <c r="AA34" s="6" t="n">
+      <c r="AA34" s="5" t="n">
         <f aca="false">Z34*10</f>
         <v>7.875</v>
       </c>
-      <c r="AB34" s="19" t="n">
+      <c r="AB34" s="18" t="n">
         <v>32</v>
       </c>
-      <c r="AC34" s="6" t="n">
+      <c r="AC34" s="5" t="n">
         <f aca="false">(AB34/50)*15 + 1.302</f>
         <v>10.902</v>
       </c>
-      <c r="AE34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH34" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK34" s="6" t="n">
+      <c r="AE34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH34" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="5" t="n">
         <f aca="false">AE34+AF34+AG34+AI34+AJ34+AH34</f>
         <v>10</v>
       </c>
@@ -4114,7 +4097,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -4135,70 +4118,69 @@
       <c r="G35" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="L35" s="5" t="n">
+      <c r="L35" s="4" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M35" s="6" t="n">
+      <c r="M35" s="5" t="n">
         <f aca="false">L35*10</f>
         <v>5</v>
       </c>
-      <c r="N35" s="7" t="n">
+      <c r="N35" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8" t="n">
+      <c r="O35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7" t="n">
         <v>1.1</v>
       </c>
-      <c r="Q35" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T35" s="8" t="n">
+      <c r="Q35" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U35" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="21" t="n">
+      <c r="U35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="9" t="n">
+      <c r="Y35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="8" t="n">
         <f aca="false">(SUM(O35:Y35)-(SMALL(O35:Y35,2)+SMALL(O35:Y35,1)+SMALL(O35:Y35,3)))/40</f>
         <v>0.5025</v>
       </c>
-      <c r="AA35" s="6" t="n">
+      <c r="AA35" s="5" t="n">
         <f aca="false">Z35*10</f>
         <v>5.025</v>
       </c>
-      <c r="AB35" s="19" t="n">
+      <c r="AB35" s="18" t="n">
         <v>33.33</v>
       </c>
-      <c r="AC35" s="6" t="n">
+      <c r="AC35" s="5" t="n">
         <f aca="false">(AB35/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
-      <c r="AE35" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH35" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK35" s="6" t="n">
+      <c r="AE35" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="5" t="n">
         <f aca="false">AE35+AF35+AG35+AI35+AJ35+AH35</f>
         <v>10</v>
       </c>
@@ -4208,7 +4190,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="23" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -4229,73 +4211,73 @@
       <c r="G36" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L36" s="5" t="n">
+      <c r="H36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M36" s="6" t="n">
+      <c r="M36" s="5" t="n">
         <f aca="false">L36*10</f>
         <v>6.25</v>
       </c>
-      <c r="N36" s="7" t="n">
+      <c r="N36" s="6" t="n">
         <f aca="false">1+1.5+1</f>
         <v>3.5</v>
       </c>
-      <c r="O36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8" t="n">
+      <c r="O36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q36" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T36" s="8" t="n">
+      <c r="Q36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U36" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y36" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="9" t="n">
+      <c r="U36" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="8" t="n">
         <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)+SMALL(O36:Y36,3)))/40</f>
         <v>0.8625</v>
       </c>
-      <c r="AA36" s="6" t="n">
+      <c r="AA36" s="5" t="n">
         <f aca="false">Z36*10</f>
         <v>8.625</v>
       </c>
-      <c r="AB36" s="19" t="n">
+      <c r="AB36" s="18" t="n">
         <v>34.83</v>
       </c>
-      <c r="AC36" s="6" t="n">
+      <c r="AC36" s="5" t="n">
         <f aca="false">(AB36/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AE36" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH36" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK36" s="6" t="n">
+      <c r="AE36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="5" t="n">
         <f aca="false">AE36+AF36+AG36+AI36+AJ36+AH36</f>
         <v>10</v>
       </c>
@@ -4305,7 +4287,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -4326,74 +4308,74 @@
       <c r="G37" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H37" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L37" s="5" t="n">
+      <c r="H37" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="5" t="n">
         <f aca="false">L37*10</f>
         <v>6.25</v>
       </c>
-      <c r="N37" s="7" t="n">
+      <c r="N37" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
         <v>3</v>
       </c>
-      <c r="O37" s="8" t="n">
+      <c r="O37" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P37" s="8" t="n">
+      <c r="P37" s="7" t="n">
         <f aca="false">1+0.5+0.8+0.5+1</f>
         <v>3.8</v>
       </c>
-      <c r="Q37" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T37" s="8" t="n">
+      <c r="Q37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U37" s="21" t="n">
+      <c r="U37" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V37" s="8" t="n">
+      <c r="V37" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W37" s="21" t="n">
+      <c r="W37" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y37" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="9" t="n">
+      <c r="Y37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="8" t="n">
         <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)+SMALL(O37:Y37,3)))/40</f>
         <v>0.816666666675</v>
       </c>
-      <c r="AA37" s="6" t="n">
+      <c r="AA37" s="5" t="n">
         <f aca="false">Z37*10</f>
         <v>8.16666666675</v>
       </c>
-      <c r="AB37" s="19" t="n">
+      <c r="AB37" s="18" t="n">
         <v>40.33</v>
       </c>
-      <c r="AC37" s="6" t="n">
+      <c r="AC37" s="5" t="n">
         <f aca="false">(AB37/50)*15 + 1.302</f>
         <v>13.401</v>
       </c>
-      <c r="AE37" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH37" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK37" s="6" t="n">
+      <c r="AE37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="5" t="n">
         <f aca="false">AE37+AF37+AG37+AI37+AJ37+AH37</f>
         <v>10</v>
       </c>
@@ -4403,7 +4385,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -4424,73 +4406,73 @@
       <c r="G38" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H38" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L38" s="5" t="n">
+      <c r="H38" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" s="4" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="5" t="n">
         <f aca="false">L38*10</f>
         <v>6.25</v>
       </c>
-      <c r="N38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="8" t="n">
+      <c r="N38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="P38" s="8" t="n">
+      <c r="P38" s="7" t="n">
         <f aca="false">0.7+2+1+0.75</f>
         <v>4.45</v>
       </c>
-      <c r="Q38" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T38" s="8" t="n">
+      <c r="Q38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U38" s="21" t="n">
+      <c r="U38" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V38" s="8" t="n">
+      <c r="V38" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W38" s="21" t="n">
+      <c r="W38" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y38" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="9" t="n">
+      <c r="Y38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="8" t="n">
         <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)+SMALL(O38:Y38,3)))/40</f>
         <v>0.727916666675</v>
       </c>
-      <c r="AA38" s="6" t="n">
+      <c r="AA38" s="5" t="n">
         <f aca="false">Z38*10</f>
         <v>7.27916666675</v>
       </c>
-      <c r="AB38" s="19" t="n">
+      <c r="AB38" s="18" t="n">
         <v>30.83</v>
       </c>
-      <c r="AC38" s="6" t="n">
+      <c r="AC38" s="5" t="n">
         <f aca="false">(AB38/50)*15 + 1.302</f>
         <v>10.551</v>
       </c>
-      <c r="AE38" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH38" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK38" s="6" t="n">
+      <c r="AE38" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH38" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK38" s="5" t="n">
         <f aca="false">AE38+AF38+AG38+AI38+AJ38+AH38</f>
         <v>10</v>
       </c>
@@ -4500,7 +4482,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -4521,73 +4503,73 @@
       <c r="G39" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H39" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L39" s="5" t="n">
+      <c r="H39" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" s="4" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M39" s="6" t="n">
+      <c r="M39" s="5" t="n">
         <f aca="false">L39*10</f>
         <v>6.25</v>
       </c>
-      <c r="N39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8" t="n">
+      <c r="N39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="P39" s="8" t="n">
+      <c r="P39" s="7" t="n">
         <f aca="false">0.7+2+1+0.75</f>
         <v>4.45</v>
       </c>
-      <c r="Q39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T39" s="8" t="n">
+      <c r="Q39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U39" s="21" t="n">
+      <c r="U39" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V39" s="8" t="n">
+      <c r="V39" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W39" s="21" t="n">
+      <c r="W39" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y39" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="9" t="n">
+      <c r="Y39" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="8" t="n">
         <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)+SMALL(O39:Y39,3)))/40</f>
         <v>0.777916666675</v>
       </c>
-      <c r="AA39" s="6" t="n">
+      <c r="AA39" s="5" t="n">
         <f aca="false">Z39*10</f>
         <v>7.77916666675</v>
       </c>
-      <c r="AB39" s="19" t="n">
+      <c r="AB39" s="18" t="n">
         <v>37.83</v>
       </c>
-      <c r="AC39" s="6" t="n">
+      <c r="AC39" s="5" t="n">
         <f aca="false">(AB39/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AE39" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH39" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK39" s="6" t="n">
+      <c r="AE39" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH39" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK39" s="5" t="n">
         <f aca="false">AE39+AF39+AG39+AI39+AJ39+AH39</f>
         <v>10</v>
       </c>
@@ -4597,7 +4579,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="23" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -4618,73 +4600,73 @@
       <c r="G40" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H40" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" s="5" t="n">
+      <c r="H40" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M40" s="6" t="n">
+      <c r="M40" s="5" t="n">
         <f aca="false">L40*10</f>
         <v>6.25</v>
       </c>
-      <c r="N40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" s="8" t="n">
+      <c r="N40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P40" s="7" t="n">
         <f aca="false">0.7+0.5+1+1+0.5</f>
         <v>3.7</v>
       </c>
-      <c r="Q40" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T40" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U40" s="21" t="n">
+      <c r="Q40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V40" s="8" t="n">
+      <c r="V40" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W40" s="21" t="n">
+      <c r="W40" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y40" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="9" t="n">
+      <c r="Y40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="8" t="n">
         <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)+SMALL(O40:Y40,3)))/40</f>
         <v>0.854166666675</v>
       </c>
-      <c r="AA40" s="6" t="n">
+      <c r="AA40" s="5" t="n">
         <f aca="false">Z40*10</f>
         <v>8.54166666675</v>
       </c>
-      <c r="AB40" s="19" t="n">
+      <c r="AB40" s="18" t="n">
         <v>34</v>
       </c>
-      <c r="AC40" s="6" t="n">
+      <c r="AC40" s="5" t="n">
         <f aca="false">(AB40/50)*15 + 1.302</f>
         <v>11.502</v>
       </c>
-      <c r="AE40" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH40" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK40" s="6" t="n">
+      <c r="AE40" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH40" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK40" s="5" t="n">
         <f aca="false">AE40+AF40+AG40+AI40+AJ40+AH40</f>
         <v>10</v>
       </c>
@@ -4694,7 +4676,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="23" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -4715,73 +4697,73 @@
       <c r="G41" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H41" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L41" s="5" t="n">
+      <c r="H41" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M41" s="6" t="n">
+      <c r="M41" s="5" t="n">
         <f aca="false">L41*10</f>
         <v>6.25</v>
       </c>
-      <c r="N41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="8" t="n">
+      <c r="N41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7" t="n">
         <f aca="false">1+1+0.7+0.5+1</f>
         <v>4.2</v>
       </c>
-      <c r="Q41" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" s="8" t="n">
+      <c r="Q41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U41" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="21" t="n">
+      <c r="U41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y41" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="9" t="n">
+      <c r="Y41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="8" t="n">
         <f aca="false">(SUM(O41:Y41)-(SMALL(O41:Y41,2)+SMALL(O41:Y41,1)+SMALL(O41:Y41,3)))/40</f>
         <v>0.58</v>
       </c>
-      <c r="AA41" s="6" t="n">
+      <c r="AA41" s="5" t="n">
         <f aca="false">Z41*10</f>
         <v>5.8</v>
       </c>
-      <c r="AB41" s="19" t="n">
+      <c r="AB41" s="18" t="n">
         <v>43</v>
       </c>
-      <c r="AC41" s="6" t="n">
+      <c r="AC41" s="5" t="n">
         <f aca="false">(AB41/50)*15 + 1.302</f>
         <v>14.202</v>
       </c>
-      <c r="AE41" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH41" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK41" s="6" t="n">
+      <c r="AE41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK41" s="5" t="n">
         <f aca="false">AE41+AF41+AG41+AI41+AJ41+AH41</f>
         <v>10</v>
       </c>
@@ -4791,7 +4773,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -4812,69 +4794,70 @@
       <c r="G42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="L42" s="5" t="n">
+      <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M42" s="6" t="n">
+      <c r="M42" s="5" t="n">
         <f aca="false">L42*10</f>
         <v>3.75</v>
       </c>
-      <c r="N42" s="7" t="n">
+      <c r="N42" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O42" s="8" t="n">
+      <c r="O42" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="P42" s="8" t="n">
+      <c r="P42" s="7" t="n">
         <f aca="false">1+1+1+0.5+0.6</f>
         <v>4.1</v>
       </c>
-      <c r="Q42" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="8" t="n">
+      <c r="Q42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="21" t="n">
+      <c r="U42" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V42" s="8" t="n">
+      <c r="V42" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="9" t="n">
+      <c r="W42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="8" t="n">
         <f aca="false">(SUM(O42:Y42)-(SMALL(O42:Y42,2)+SMALL(O42:Y42,1)+SMALL(O42:Y42,3)))/40</f>
         <v>0.69</v>
       </c>
-      <c r="AA42" s="6" t="n">
+      <c r="AA42" s="5" t="n">
         <f aca="false">Z42*10</f>
         <v>6.9</v>
       </c>
-      <c r="AB42" s="19" t="n">
+      <c r="AB42" s="18" t="n">
         <v>37.33</v>
       </c>
-      <c r="AC42" s="6" t="n">
+      <c r="AC42" s="5" t="n">
         <f aca="false">(AB42/50)*15 + 1.302</f>
         <v>12.501</v>
       </c>
-      <c r="AE42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="20"/>
-      <c r="AK42" s="6" t="n">
+      <c r="AE42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="5" t="n">
         <f aca="false">AE42+AF42+AG42+AI42+AJ42+AH42</f>
         <v>0</v>
       </c>
@@ -4884,7 +4867,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -4905,73 +4888,73 @@
       <c r="G43" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H43" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L43" s="5" t="n">
+      <c r="H43" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" s="4" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="5" t="n">
         <f aca="false">L43*10</f>
         <v>6.25</v>
       </c>
-      <c r="N43" s="7" t="n">
+      <c r="N43" s="6" t="n">
         <f aca="false">1+2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="O43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T43" s="8" t="n">
+      <c r="O43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U43" s="21" t="n">
+      <c r="U43" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="9" t="n">
+      <c r="V43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="8" t="n">
         <f aca="false">(SUM(O43:Y43)-(SMALL(O43:Y43,2)+SMALL(O43:Y43,1)+SMALL(O43:Y43,3)))/40</f>
         <v>0.4125</v>
       </c>
-      <c r="AA43" s="6" t="n">
+      <c r="AA43" s="5" t="n">
         <f aca="false">Z43*10</f>
         <v>4.125</v>
       </c>
-      <c r="AB43" s="19" t="n">
+      <c r="AB43" s="18" t="n">
         <v>36.83</v>
       </c>
-      <c r="AC43" s="6" t="n">
+      <c r="AC43" s="5" t="n">
         <f aca="false">(AB43/50)*15 + 1.302</f>
         <v>12.351</v>
       </c>
-      <c r="AE43" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH43" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK43" s="6" t="n">
+      <c r="AE43" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH43" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="5" t="n">
         <f aca="false">AE43+AF43+AG43+AI43+AJ43+AH43</f>
         <v>10</v>
       </c>
@@ -4981,7 +4964,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -5002,70 +4985,69 @@
       <c r="G44" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H44" s="17"/>
-      <c r="L44" s="5" t="n">
+      <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="5" t="n">
         <f aca="false">L44*10</f>
         <v>5</v>
       </c>
-      <c r="N44" s="7" t="n">
+      <c r="N44" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="8" t="n">
+      <c r="O44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="8" t="n">
+      <c r="Q44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U44" s="21" t="n">
+      <c r="U44" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V44" s="8" t="n">
+      <c r="V44" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W44" s="21" t="n">
+      <c r="W44" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y44" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="9" t="n">
+      <c r="Y44" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="8" t="n">
         <f aca="false">(SUM(O44:Y44)-(SMALL(O44:Y44,2)+SMALL(O44:Y44,1)+SMALL(O44:Y44,3)))/40</f>
         <v>0.451666666675</v>
       </c>
-      <c r="AA44" s="6" t="n">
+      <c r="AA44" s="5" t="n">
         <f aca="false">Z44*10</f>
         <v>4.51666666675</v>
       </c>
-      <c r="AB44" s="19" t="n">
+      <c r="AB44" s="18" t="n">
         <v>23.83</v>
       </c>
-      <c r="AC44" s="6" t="n">
+      <c r="AC44" s="5" t="n">
         <f aca="false">(AB44/50)*15 + 1.302</f>
         <v>8.451</v>
       </c>
-      <c r="AE44" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH44" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK44" s="6" t="n">
+      <c r="AE44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH44" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK44" s="5" t="n">
         <f aca="false">AE44+AF44+AG44+AI44+AJ44+AH44</f>
         <v>10</v>
       </c>
@@ -5075,7 +5057,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -5096,72 +5078,72 @@
       <c r="G45" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H45" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L45" s="5" t="n">
+      <c r="H45" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M45" s="6" t="n">
+      <c r="M45" s="5" t="n">
         <f aca="false">L45*10</f>
         <v>6.25</v>
       </c>
-      <c r="N45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="8" t="n">
+      <c r="N45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q45" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T45" s="8" t="n">
+      <c r="Q45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U45" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V45" s="8" t="n">
+      <c r="U45" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W45" s="21" t="n">
+      <c r="W45" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y45" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="9" t="n">
+      <c r="Y45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="8" t="n">
         <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)+SMALL(O45:Y45,3)))/40</f>
         <v>0.791666666675</v>
       </c>
-      <c r="AA45" s="6" t="n">
+      <c r="AA45" s="5" t="n">
         <f aca="false">Z45*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AB45" s="19" t="n">
+      <c r="AB45" s="18" t="n">
         <v>33.33</v>
       </c>
-      <c r="AC45" s="6" t="n">
+      <c r="AC45" s="5" t="n">
         <f aca="false">(AB45/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
-      <c r="AE45" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH45" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK45" s="6" t="n">
+      <c r="AE45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH45" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK45" s="5" t="n">
         <f aca="false">AE45+AF45+AG45+AI45+AJ45+AH45</f>
         <v>10</v>
       </c>
@@ -5171,7 +5153,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -5192,70 +5174,69 @@
       <c r="G46" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="L46" s="5" t="n">
+      <c r="L46" s="4" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M46" s="6" t="n">
+      <c r="M46" s="5" t="n">
         <f aca="false">L46*10</f>
         <v>3.75</v>
       </c>
-      <c r="N46" s="7" t="n">
+      <c r="N46" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T46" s="8" t="n">
+      <c r="O46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U46" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="W46" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="9" t="n">
+      <c r="U46" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W46" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="8" t="n">
         <f aca="false">(SUM(O46:Y46)-(SMALL(O46:Y46,2)+SMALL(O46:Y46,1)+SMALL(O46:Y46,3)))/40</f>
         <v>0.55</v>
       </c>
-      <c r="AA46" s="6" t="n">
+      <c r="AA46" s="5" t="n">
         <f aca="false">Z46*10</f>
         <v>5.5</v>
       </c>
-      <c r="AB46" s="19" t="n">
+      <c r="AB46" s="18" t="n">
         <v>37.5</v>
       </c>
-      <c r="AC46" s="6" t="n">
+      <c r="AC46" s="5" t="n">
         <f aca="false">(AB46/50)*15 + 1.302</f>
         <v>12.552</v>
       </c>
-      <c r="AE46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH46" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK46" s="6" t="n">
+      <c r="AE46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="5" t="n">
         <f aca="false">AE46+AF46+AG46+AI46+AJ46+AH46</f>
         <v>10</v>
       </c>
@@ -5265,7 +5246,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="26" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -5286,70 +5267,69 @@
       <c r="G47" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="L47" s="5" t="n">
+      <c r="L47" s="4" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
         <v>0.5</v>
       </c>
-      <c r="M47" s="6" t="n">
+      <c r="M47" s="5" t="n">
         <f aca="false">L47*10</f>
         <v>5</v>
       </c>
-      <c r="N47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T47" s="8" t="n">
+      <c r="N47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U47" s="21" t="n">
+      <c r="U47" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="V47" s="8" t="n">
+      <c r="V47" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W47" s="21" t="n">
+      <c r="W47" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y47" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="9" t="n">
+      <c r="Y47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="8" t="n">
         <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)+SMALL(O47:Y47,3)))/40</f>
         <v>0.791666666675</v>
       </c>
-      <c r="AA47" s="6" t="n">
+      <c r="AA47" s="5" t="n">
         <f aca="false">Z47*10</f>
         <v>7.91666666675</v>
       </c>
-      <c r="AB47" s="19" t="n">
+      <c r="AB47" s="18" t="n">
         <v>35.5</v>
       </c>
-      <c r="AC47" s="6" t="n">
+      <c r="AC47" s="5" t="n">
         <f aca="false">(AB47/50)*15 + 1.302</f>
         <v>11.952</v>
       </c>
-      <c r="AE47" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH47" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK47" s="6" t="n">
+      <c r="AE47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH47" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK47" s="5" t="n">
         <f aca="false">AE47+AF47+AG47+AI47+AJ47+AH47</f>
         <v>10</v>
       </c>
@@ -5359,7 +5339,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -5380,71 +5360,70 @@
       <c r="G48" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="L48" s="5" t="n">
+      <c r="L48" s="4" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M48" s="6" t="n">
+      <c r="M48" s="5" t="n">
         <f aca="false">L48*10</f>
         <v>2.5</v>
       </c>
-      <c r="N48" s="7" t="n">
+      <c r="N48" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O48" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="8" t="n">
+      <c r="O48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7" t="n">
         <f aca="false">1.5+0.8</f>
         <v>2.3</v>
       </c>
-      <c r="Q48" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T48" s="8" t="n">
+      <c r="Q48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U48" s="21" t="n">
+      <c r="U48" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="V48" s="8" t="n">
+      <c r="V48" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W48" s="21" t="n">
+      <c r="W48" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y48" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="9" t="n">
+      <c r="Y48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="8" t="n">
         <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)+SMALL(O48:Y48,3)))/40</f>
         <v>0.820833333325</v>
       </c>
-      <c r="AA48" s="6" t="n">
+      <c r="AA48" s="5" t="n">
         <f aca="false">Z48*10</f>
         <v>8.20833333325</v>
       </c>
-      <c r="AB48" s="19" t="n">
+      <c r="AB48" s="18" t="n">
         <v>34.83</v>
       </c>
-      <c r="AC48" s="6" t="n">
+      <c r="AC48" s="5" t="n">
         <f aca="false">(AB48/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AE48" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH48" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK48" s="6" t="n">
+      <c r="AE48" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK48" s="5" t="n">
         <f aca="false">AE48+AF48+AG48+AI48+AJ48+AH48</f>
         <v>10</v>
       </c>
@@ -5454,7 +5433,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -5475,70 +5454,69 @@
       <c r="G49" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="L49" s="5" t="n">
+      <c r="L49" s="4" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M49" s="6" t="n">
+      <c r="M49" s="5" t="n">
         <f aca="false">L49*10</f>
         <v>3.75</v>
       </c>
-      <c r="N49" s="7" t="n">
+      <c r="N49" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="O49" s="8" t="n">
+      <c r="O49" s="7" t="n">
         <v>2.7</v>
       </c>
-      <c r="P49" s="8" t="n">
+      <c r="P49" s="7" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q49" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T49" s="8" t="n">
+      <c r="Q49" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="9" t="n">
+      <c r="U49" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="8" t="n">
         <f aca="false">(SUM(O49:Y49)-(SMALL(O49:Y49,2)+SMALL(O49:Y49,1)+SMALL(O49:Y49,3)))/40</f>
         <v>0.51</v>
       </c>
-      <c r="AA49" s="6" t="n">
+      <c r="AA49" s="5" t="n">
         <f aca="false">Z49*10</f>
         <v>5.1</v>
       </c>
-      <c r="AB49" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="6" t="n">
+      <c r="AB49" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="5" t="n">
         <f aca="false">(AB49/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AE49" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH49" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK49" s="6" t="n">
+      <c r="AE49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH49" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="5" t="n">
         <f aca="false">AE49+AF49+AG49+AI49+AJ49+AH49</f>
         <v>10</v>
       </c>
@@ -5548,7 +5526,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -5569,72 +5547,72 @@
       <c r="G50" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H50" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L50" s="5" t="n">
+      <c r="H50" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" s="4" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
         <v>0.625</v>
       </c>
-      <c r="M50" s="6" t="n">
+      <c r="M50" s="5" t="n">
         <f aca="false">L50*10</f>
         <v>6.25</v>
       </c>
-      <c r="N50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="8" t="n">
+      <c r="N50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q50" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T50" s="8" t="n">
+      <c r="Q50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U50" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V50" s="8" t="n">
+      <c r="U50" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W50" s="21" t="n">
+      <c r="W50" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="Y50" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z50" s="9" t="n">
+      <c r="Y50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="8" t="n">
         <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)+SMALL(O50:Y50,3)))/40</f>
         <v>0.8</v>
       </c>
-      <c r="AA50" s="6" t="n">
+      <c r="AA50" s="5" t="n">
         <f aca="false">Z50*10</f>
         <v>8</v>
       </c>
-      <c r="AB50" s="19" t="n">
+      <c r="AB50" s="18" t="n">
         <v>34.33</v>
       </c>
-      <c r="AC50" s="6" t="n">
+      <c r="AC50" s="5" t="n">
         <f aca="false">(AB50/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AE50" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH50" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK50" s="6" t="n">
+      <c r="AE50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH50" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK50" s="5" t="n">
         <f aca="false">AE50+AF50+AG50+AI50+AJ50+AH50</f>
         <v>10</v>
       </c>
@@ -5644,7 +5622,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -5665,70 +5643,69 @@
       <c r="G51" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="L51" s="5" t="n">
+      <c r="L51" s="4" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>
       </c>
-      <c r="M51" s="6" t="n">
+      <c r="M51" s="5" t="n">
         <f aca="false">L51*10</f>
         <v>2.5</v>
       </c>
-      <c r="N51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T51" s="8" t="n">
+      <c r="N51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U51" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="8" t="n">
+      <c r="U51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="W51" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z51" s="9" t="n">
+      <c r="W51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="8" t="n">
         <f aca="false">(SUM(O51:Y51)-(SMALL(O51:Y51,2)+SMALL(O51:Y51,1)+SMALL(O51:Y51,3)))/40</f>
         <v>0.4875</v>
       </c>
-      <c r="AA51" s="6" t="n">
+      <c r="AA51" s="5" t="n">
         <f aca="false">Z51*10</f>
         <v>4.875</v>
       </c>
-      <c r="AB51" s="19" t="n">
+      <c r="AB51" s="18" t="n">
         <v>39.5</v>
       </c>
-      <c r="AC51" s="6" t="n">
+      <c r="AC51" s="5" t="n">
         <f aca="false">(AB51/50)*15 + 1.302</f>
         <v>13.152</v>
       </c>
-      <c r="AE51" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH51" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK51" s="6" t="n">
+      <c r="AE51" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH51" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="5" t="n">
         <f aca="false">AE51+AF51+AG51+AI51+AJ51+AH51</f>
         <v>10</v>
       </c>
@@ -5759,72 +5736,72 @@
       <c r="G52" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L52" s="5" t="n">
+      <c r="H52" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
         <v>0.375</v>
       </c>
-      <c r="M52" s="6" t="n">
+      <c r="M52" s="5" t="n">
         <f aca="false">L52*10</f>
         <v>3.75</v>
       </c>
-      <c r="N52" s="7" t="n">
+      <c r="N52" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="8" t="n">
+      <c r="O52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7" t="n">
         <v>2.9</v>
       </c>
-      <c r="Q52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="8" t="n">
+      <c r="Q52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U52" s="8" t="n">
+      <c r="U52" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="V52" s="8" t="n">
+      <c r="V52" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W52" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="9" t="n">
+      <c r="W52" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="8" t="n">
         <f aca="false">(SUM(O52:Y52)-(SMALL(O52:Y52,2)+SMALL(O52:Y52,1)+SMALL(O52:Y52,3)))/40</f>
         <v>0.439166666675</v>
       </c>
-      <c r="AA52" s="6" t="n">
+      <c r="AA52" s="5" t="n">
         <f aca="false">Z52*10</f>
         <v>4.39166666675</v>
       </c>
-      <c r="AB52" s="19" t="n">
+      <c r="AB52" s="18" t="n">
         <v>34.33</v>
       </c>
-      <c r="AC52" s="6" t="n">
+      <c r="AC52" s="5" t="n">
         <f aca="false">(AB52/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AE52" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH52" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK52" s="6" t="n">
+      <c r="AE52" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH52" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK52" s="5" t="n">
         <f aca="false">AE52+AF52+AG52+AI52+AJ52+AH52</f>
         <v>10</v>
       </c>
@@ -5835,148 +5812,147 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="16"/>
-      <c r="AH53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32"/>
-      <c r="E57" s="33" t="s">
+      <c r="A57" s="29"/>
+      <c r="E57" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="32"/>
-      <c r="E58" s="35" t="s">
+      <c r="A58" s="29"/>
+      <c r="E58" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="35" t="s">
+      <c r="F58" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G58" s="36" t="n">
+      <c r="G58" s="33" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="32"/>
-      <c r="E59" s="35" t="s">
+      <c r="A59" s="29"/>
+      <c r="E59" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="36" t="n">
+      <c r="G59" s="33" t="n">
         <v>3.67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="32"/>
-      <c r="E60" s="35" t="s">
+      <c r="A60" s="29"/>
+      <c r="E60" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F60" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="36" t="n">
+      <c r="G60" s="33" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="32"/>
-      <c r="E61" s="35" t="s">
+      <c r="A61" s="29"/>
+      <c r="E61" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="36" t="n">
+      <c r="G61" s="33" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="32"/>
-      <c r="E62" s="35" t="s">
+      <c r="A62" s="29"/>
+      <c r="E62" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F62" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G62" s="36" t="n">
+      <c r="G62" s="33" t="n">
         <v>2.67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="32"/>
-      <c r="E63" s="35" t="s">
+      <c r="A63" s="29"/>
+      <c r="E63" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="F63" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="36" t="n">
+      <c r="G63" s="33" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="32"/>
-      <c r="E64" s="35" t="s">
+      <c r="A64" s="29"/>
+      <c r="E64" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G64" s="36" t="n">
+      <c r="G64" s="33" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="32"/>
-      <c r="E65" s="35" t="s">
+      <c r="A65" s="29"/>
+      <c r="E65" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G65" s="36" t="n">
+      <c r="G65" s="33" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="32"/>
-      <c r="E66" s="35" t="s">
+      <c r="A66" s="29"/>
+      <c r="E66" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="36" t="n">
+      <c r="G66" s="33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -782,30 +782,31 @@
   <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,6 +951,7 @@
       <c r="G2" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H2" s="0"/>
       <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.5</v>
@@ -1622,6 +1624,7 @@
       <c r="G9" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="0"/>
       <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.375</v>
@@ -1908,6 +1911,7 @@
       <c r="G12" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H12" s="0"/>
       <c r="L12" s="4" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
         <v>0.5</v>
@@ -2292,6 +2296,7 @@
       <c r="G16" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H16" s="0"/>
       <c r="L16" s="4" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
         <v>0.5</v>
@@ -2484,6 +2489,7 @@
       <c r="G18" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="H18" s="0"/>
       <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.475</v>
@@ -2772,6 +2778,7 @@
       <c r="G21" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="H21" s="0"/>
       <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.375</v>
@@ -3546,6 +3553,7 @@
       <c r="G29" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H29" s="0"/>
       <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.5</v>
@@ -3639,6 +3647,7 @@
       <c r="G30" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="H30" s="0"/>
       <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
@@ -3830,6 +3839,7 @@
       <c r="G32" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="H32" s="0"/>
       <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.25</v>
@@ -4118,6 +4128,7 @@
       <c r="G35" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H35" s="0"/>
       <c r="L35" s="4" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
         <v>0.5</v>
@@ -4294,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>5</v>
@@ -4794,6 +4805,7 @@
       <c r="G42" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="H42" s="0"/>
       <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.375</v>
@@ -4985,6 +4997,7 @@
       <c r="G44" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H44" s="0"/>
       <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.5</v>
@@ -5174,13 +5187,16 @@
       <c r="G46" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H46" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="L46" s="4" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M46" s="5" t="n">
         <f aca="false">L46*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>4</v>
@@ -5242,7 +5258,7 @@
       </c>
       <c r="AM46" s="10" t="n">
         <f aca="false">AL46+AK46+AD46+AC46+AA46+M46+(N46/2)</f>
-        <v>33.802</v>
+        <v>35.052</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5267,6 +5283,7 @@
       <c r="G47" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H47" s="0"/>
       <c r="L47" s="4" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
         <v>0.5</v>
@@ -5360,6 +5377,7 @@
       <c r="G48" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="H48" s="0"/>
       <c r="L48" s="4" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
         <v>0.25</v>
@@ -5454,6 +5472,7 @@
       <c r="G49" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="H49" s="0"/>
       <c r="L49" s="4" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.375</v>
@@ -5643,6 +5662,7 @@
       <c r="G51" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="H51" s="0"/>
       <c r="L51" s="4" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,32 +781,32 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,14 +5283,16 @@
       <c r="G47" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H47" s="0"/>
+      <c r="H47" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="L47" s="4" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M47" s="5" t="n">
         <f aca="false">L47*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0</v>
@@ -5352,7 +5354,7 @@
       </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>34.86866666675</v>
+        <v>36.11866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,32 +781,32 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="25.0102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,14 +951,19 @@
       <c r="G2" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="0"/>
+      <c r="H2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M2" s="5" t="n">
         <f aca="false">L2*10</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N2" s="6" t="n">
         <v>4</v>
@@ -1021,7 +1026,7 @@
       </c>
       <c r="AM2" s="10" t="n">
         <f aca="false">AL2+AK2+AD2+AC2+AA2+M2+(N2/2)</f>
-        <v>34.702</v>
+        <v>37.202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,13 +1054,16 @@
       <c r="H3" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I3" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="M3" s="5" t="n">
         <f aca="false">L3*10</f>
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="N3" s="6" t="n">
         <v>1.5</v>
@@ -1117,7 +1125,7 @@
       </c>
       <c r="AM3" s="10" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
-        <v>34.98433333325</v>
+        <v>36.23433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,13 +1153,16 @@
       <c r="H4" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I4" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M4" s="5" t="n">
         <f aca="false">L4*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>4</v>
@@ -1213,7 +1224,7 @@
       </c>
       <c r="AM4" s="10" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
-        <v>37.352</v>
+        <v>38.602</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,13 +1252,16 @@
       <c r="H5" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I5" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L5" s="4" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M5" s="5" t="n">
         <f aca="false">L5*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>1.5</v>
@@ -1309,7 +1323,7 @@
       </c>
       <c r="AM5" s="10" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
-        <v>35.83333333325</v>
+        <v>37.08333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,13 +1351,16 @@
       <c r="H6" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I6" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L6" s="4" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
-        <v>0.6</v>
+        <v>0.725</v>
       </c>
       <c r="M6" s="5" t="n">
         <f aca="false">L6*10</f>
-        <v>6</v>
+        <v>7.25</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -1406,7 +1423,7 @@
       </c>
       <c r="AM6" s="10" t="n">
         <f aca="false">AL6+AK6+AD6+AC6+AA6+M6+(N6/2)</f>
-        <v>26.89166666675</v>
+        <v>28.14166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,13 +1451,16 @@
       <c r="H7" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="4" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
-        <v>0.625</v>
+        <v>0.725</v>
       </c>
       <c r="M7" s="5" t="n">
         <f aca="false">L7*10</f>
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>3.5</v>
@@ -1502,7 +1522,7 @@
       </c>
       <c r="AM7" s="10" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
-        <v>38.79266666675</v>
+        <v>39.79266666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,13 +1550,16 @@
       <c r="H8" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L8" s="4" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M8" s="5" t="n">
         <f aca="false">L8*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>4</v>
@@ -1599,7 +1622,7 @@
       </c>
       <c r="AM8" s="10" t="n">
         <f aca="false">AL8+AK8+AD8+AC8+AA8+M8+(N8/2)</f>
-        <v>41.652</v>
+        <v>42.902</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,7 +1647,12 @@
       <c r="G9" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="0"/>
+      <c r="H9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.375</v>
@@ -1722,13 +1750,16 @@
       <c r="H10" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I10" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L10" s="4" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M10" s="5" t="n">
         <f aca="false">L10*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>2</v>
@@ -1790,7 +1821,7 @@
       </c>
       <c r="AM10" s="10" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
-        <v>40.751</v>
+        <v>42.001</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,13 +1849,16 @@
       <c r="H11" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I11" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L11" s="4" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M11" s="5" t="n">
         <f aca="false">L11*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>2</v>
@@ -1886,7 +1920,7 @@
       </c>
       <c r="AM11" s="10" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
-        <v>40.652</v>
+        <v>41.902</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,14 +1945,19 @@
       <c r="G12" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="0"/>
+      <c r="H12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L12" s="4" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="M12" s="5" t="n">
         <f aca="false">L12*10</f>
-        <v>5</v>
+        <v>6.875</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>1.5</v>
@@ -1980,7 +2019,7 @@
       </c>
       <c r="AM12" s="10" t="n">
         <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
-        <v>33.21866666675</v>
+        <v>35.09366666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,13 +2047,16 @@
       <c r="H13" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I13" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L13" s="4" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
-        <v>0.625</v>
+        <v>0.725</v>
       </c>
       <c r="M13" s="5" t="n">
         <f aca="false">L13*10</f>
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="N13" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -2078,7 +2120,7 @@
       </c>
       <c r="AM13" s="10" t="n">
         <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
-        <v>39.61866666675</v>
+        <v>40.61866666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,13 +2148,16 @@
       <c r="H14" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I14" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L14" s="4" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M14" s="5" t="n">
         <f aca="false">L14*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>4</v>
@@ -2174,7 +2219,7 @@
       </c>
       <c r="AM14" s="10" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
-        <v>38.41766666675</v>
+        <v>39.66766666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,13 +2247,16 @@
       <c r="H15" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I15" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L15" s="4" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M15" s="5" t="n">
         <f aca="false">L15*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1.5</v>
@@ -2271,7 +2319,7 @@
       </c>
       <c r="AM15" s="10" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
-        <v>36.101</v>
+        <v>37.351</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,14 +2344,19 @@
       <c r="G16" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="0"/>
+      <c r="H16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" s="4" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">L16*10</f>
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N16" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -2367,7 +2420,7 @@
       </c>
       <c r="AM16" s="10" t="n">
         <f aca="false">AL16+AK16+AD16+AC16+AA16+M16+(N16/2)</f>
-        <v>35.252</v>
+        <v>36.002</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,13 +2448,16 @@
       <c r="H17" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I17" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L17" s="4" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">L17*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>1.5</v>
@@ -2464,7 +2520,7 @@
       </c>
       <c r="AM17" s="10" t="n">
         <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
-        <v>36.152</v>
+        <v>37.402</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,7 +2545,12 @@
       <c r="G18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="0"/>
+      <c r="H18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.475</v>
@@ -2587,13 +2648,16 @@
       <c r="H19" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" s="4" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M19" s="5" t="n">
         <f aca="false">L19*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N19" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -2656,7 +2720,7 @@
       </c>
       <c r="AM19" s="10" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
-        <v>38.56766666675</v>
+        <v>39.81766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,13 +2748,16 @@
       <c r="H20" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I20" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L20" s="4" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M20" s="5" t="n">
         <f aca="false">L20*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N20" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2753,7 +2820,7 @@
       </c>
       <c r="AM20" s="10" t="n">
         <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
-        <v>35.027</v>
+        <v>36.277</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,7 +2845,12 @@
       <c r="G21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="0"/>
+      <c r="H21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.375</v>
@@ -2876,13 +2948,16 @@
       <c r="H22" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" s="4" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M22" s="5" t="n">
         <f aca="false">L22*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N22" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2946,7 +3021,7 @@
       </c>
       <c r="AM22" s="10" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
-        <v>38.226</v>
+        <v>39.476</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,13 +3049,16 @@
       <c r="H23" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" s="4" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M23" s="5" t="n">
         <f aca="false">L23*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N23" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -3044,7 +3122,7 @@
       </c>
       <c r="AM23" s="10" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
-        <v>36.501</v>
+        <v>37.751</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,13 +3150,16 @@
       <c r="H24" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I24" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M24" s="5" t="n">
         <f aca="false">L24*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N24" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -3141,7 +3222,7 @@
       </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>37.926</v>
+        <v>39.176</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,13 +3250,16 @@
       <c r="H25" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I25" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L25" s="4" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M25" s="5" t="n">
         <f aca="false">L25*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N25" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3238,7 +3322,7 @@
       </c>
       <c r="AM25" s="10" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
-        <v>38.476</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,13 +3350,16 @@
       <c r="H26" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I26" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M26" s="5" t="n">
         <f aca="false">L26*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>3</v>
@@ -3334,7 +3421,7 @@
       </c>
       <c r="AM26" s="10" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
-        <v>39.901</v>
+        <v>41.151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,13 +3449,16 @@
       <c r="H27" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I27" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L27" s="4" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M27" s="5" t="n">
         <f aca="false">L27*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N27" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3431,7 +3521,7 @@
       </c>
       <c r="AM27" s="10" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
-        <v>39.151</v>
+        <v>40.401</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,13 +3549,16 @@
       <c r="H28" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I28" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L28" s="4" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M28" s="5" t="n">
         <f aca="false">L28*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N28" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3528,7 +3621,7 @@
       </c>
       <c r="AM28" s="10" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
-        <v>40.476</v>
+        <v>41.726</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,14 +3646,19 @@
       <c r="G29" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H29" s="0"/>
+      <c r="H29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M29" s="5" t="n">
         <f aca="false">L29*10</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>2</v>
@@ -3622,7 +3720,7 @@
       </c>
       <c r="AM29" s="10" t="n">
         <f aca="false">AL29+AK29+AD29+AC29+AA29+M29+(N29/2)</f>
-        <v>36.83225</v>
+        <v>39.33225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,7 +3745,12 @@
       <c r="G30" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="0"/>
+      <c r="H30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
@@ -3745,13 +3848,16 @@
       <c r="H31" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I31" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M31" s="5" t="n">
         <f aca="false">L31*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N31" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3814,7 +3920,7 @@
       </c>
       <c r="AM31" s="10" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
-        <v>41.5</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,14 +3945,19 @@
       <c r="G32" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="0"/>
+      <c r="H32" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M32" s="5" t="n">
         <f aca="false">L32*10</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N32" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3910,7 +4021,7 @@
       </c>
       <c r="AM32" s="10" t="n">
         <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
-        <v>36.227</v>
+        <v>38.727</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,13 +4049,16 @@
       <c r="H33" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I33" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L33" s="4" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M33" s="5" t="n">
         <f aca="false">L33*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>3</v>
@@ -4006,7 +4120,7 @@
       </c>
       <c r="AM33" s="10" t="n">
         <f aca="false">AL33+AK33+AD33+AC33+AA33+M33+(N33/2)</f>
-        <v>38.301</v>
+        <v>39.551</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4034,13 +4148,16 @@
       <c r="H34" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I34" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="M34" s="5" t="n">
         <f aca="false">L34*10</f>
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="N34" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -4103,7 +4220,7 @@
       </c>
       <c r="AM34" s="10" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
-        <v>36.777</v>
+        <v>37.527</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,14 +4245,19 @@
       <c r="G35" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H35" s="0"/>
+      <c r="H35" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L35" s="4" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M35" s="5" t="n">
         <f aca="false">L35*10</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>3</v>
@@ -4197,7 +4319,7 @@
       </c>
       <c r="AM35" s="10" t="n">
         <f aca="false">AL35+AK35+AD35+AC35+AA35+M35+(N35/2)</f>
-        <v>32.826</v>
+        <v>35.326</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,13 +4347,16 @@
       <c r="H36" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I36" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L36" s="4" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M36" s="5" t="n">
         <f aca="false">L36*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N36" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -4294,7 +4419,7 @@
       </c>
       <c r="AM36" s="10" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
-        <v>38.376</v>
+        <v>39.626</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,13 +4447,16 @@
       <c r="H37" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I37" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L37" s="4" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M37" s="5" t="n">
         <f aca="false">L37*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N37" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -4392,7 +4520,7 @@
       </c>
       <c r="AM37" s="10" t="n">
         <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
-        <v>39.31766666675</v>
+        <v>40.56766666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,13 +4548,16 @@
       <c r="H38" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I38" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L38" s="4" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="M38" s="5" t="n">
         <f aca="false">L38*10</f>
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0</v>
@@ -4489,7 +4620,7 @@
       </c>
       <c r="AM38" s="10" t="n">
         <f aca="false">AL38+AK38+AD38+AC38+AA38+M38+(N38/2)</f>
-        <v>34.08016666675</v>
+        <v>34.83016666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,13 +4648,16 @@
       <c r="H39" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I39" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L39" s="4" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M39" s="5" t="n">
         <f aca="false">L39*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0</v>
@@ -4586,7 +4720,7 @@
       </c>
       <c r="AM39" s="10" t="n">
         <f aca="false">AL39+AK39+AD39+AC39+AA39+M39+(N39/2)</f>
-        <v>36.68016666675</v>
+        <v>37.93016666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,6 +4748,9 @@
       <c r="H40" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I40" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.625</v>
@@ -4711,13 +4848,16 @@
       <c r="H41" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I41" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M41" s="5" t="n">
         <f aca="false">L41*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0</v>
@@ -4780,7 +4920,7 @@
       </c>
       <c r="AM41" s="10" t="n">
         <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
-        <v>36.252</v>
+        <v>37.502</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,7 +4945,12 @@
       <c r="G42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H42" s="0"/>
+      <c r="H42" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.375</v>
@@ -4903,13 +5048,16 @@
       <c r="H43" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I43" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L43" s="4" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M43" s="5" t="n">
         <f aca="false">L43*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N43" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -4972,7 +5120,7 @@
       </c>
       <c r="AM43" s="10" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
-        <v>34.476</v>
+        <v>35.726</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,14 +5145,19 @@
       <c r="G44" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H44" s="0"/>
+      <c r="H44" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M44" s="5" t="n">
         <f aca="false">L44*10</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>3</v>
@@ -5066,7 +5219,7 @@
       </c>
       <c r="AM44" s="10" t="n">
         <f aca="false">AL44+AK44+AD44+AC44+AA44+M44+(N44/2)</f>
-        <v>29.46766666675</v>
+        <v>31.96766666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,13 +5247,16 @@
       <c r="H45" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I45" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="M45" s="5" t="n">
         <f aca="false">L45*10</f>
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0</v>
@@ -5162,7 +5318,7 @@
       </c>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>35.46766666675</v>
+        <v>36.21766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,8 +5343,11 @@
       <c r="G46" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H46" s="0" t="n">
-        <v>5</v>
+      <c r="H46" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
@@ -5283,16 +5442,19 @@
       <c r="G47" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H47" s="0" t="n">
-        <v>5</v>
+      <c r="H47" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="L47" s="4" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M47" s="5" t="n">
         <f aca="false">L47*10</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0</v>
@@ -5354,7 +5516,7 @@
       </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>36.11866666675</v>
+        <v>37.36866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5379,14 +5541,19 @@
       <c r="G48" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H48" s="0"/>
+      <c r="H48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L48" s="4" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M48" s="5" t="n">
         <f aca="false">L48*10</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>4</v>
@@ -5449,7 +5616,7 @@
       </c>
       <c r="AM48" s="10" t="n">
         <f aca="false">AL48+AK48+AD48+AC48+AA48+M48+(N48/2)</f>
-        <v>34.45933333325</v>
+        <v>35.70933333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,7 +5641,12 @@
       <c r="G49" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H49" s="0"/>
+      <c r="H49" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" s="4" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.375</v>
@@ -5571,13 +5743,16 @@
       <c r="H50" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I50" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L50" s="4" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="M50" s="5" t="n">
         <f aca="false">L50*10</f>
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
@@ -5639,7 +5814,7 @@
       </c>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>35.851</v>
+        <v>36.601</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +5839,12 @@
       <c r="G51" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="0"/>
+      <c r="H51" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" s="4" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -781,32 +781,32 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.6989795918367"/>
     <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
     <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="25.0102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="48.9030612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.4285714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5941,13 +5941,16 @@
       <c r="H52" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="I52" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M52" s="5" t="n">
         <f aca="false">L52*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>4</v>
@@ -6009,7 +6012,7 @@
       </c>
       <c r="AM52" s="10" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
-        <v>31.74266666675</v>
+        <v>32.99266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -781,32 +781,33 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.2908163265306"/>
     <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
     <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="48.9030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.4285714285714"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.5"/>
+    <col collapsed="false" hidden="true" max="9" min="9" style="2" width="0"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,6 +958,9 @@
       <c r="I2" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.75</v>
@@ -1057,13 +1061,16 @@
       <c r="I3" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
-        <v>0.7</v>
+        <v>0.775</v>
       </c>
       <c r="M3" s="5" t="n">
         <f aca="false">L3*10</f>
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="N3" s="6" t="n">
         <v>1.5</v>
@@ -1125,7 +1132,7 @@
       </c>
       <c r="AM3" s="10" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
-        <v>36.23433333325</v>
+        <v>36.98433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,13 +1163,16 @@
       <c r="I4" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M4" s="5" t="n">
         <f aca="false">L4*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>4</v>
@@ -1224,7 +1234,7 @@
       </c>
       <c r="AM4" s="10" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
-        <v>38.602</v>
+        <v>39.852</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,13 +1265,16 @@
       <c r="I5" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="4" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="M5" s="5" t="n">
         <f aca="false">L5*10</f>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>1.5</v>
@@ -1323,7 +1336,7 @@
       </c>
       <c r="AM5" s="10" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
-        <v>37.08333333325</v>
+        <v>38.08333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,6 +1367,9 @@
       <c r="I6" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L6" s="4" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
         <v>0.725</v>
@@ -1454,13 +1470,16 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="4" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
-        <v>0.725</v>
+        <v>0.8</v>
       </c>
       <c r="M7" s="5" t="n">
         <f aca="false">L7*10</f>
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>3.5</v>
@@ -1522,7 +1541,7 @@
       </c>
       <c r="AM7" s="10" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
-        <v>39.79266666675</v>
+        <v>40.54266666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,13 +1572,16 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L8" s="4" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M8" s="5" t="n">
         <f aca="false">L8*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>4</v>
@@ -1622,7 +1644,7 @@
       </c>
       <c r="AM8" s="10" t="n">
         <f aca="false">AL8+AK8+AD8+AC8+AA8+M8+(N8/2)</f>
-        <v>42.902</v>
+        <v>44.152</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,6 +1675,9 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.375</v>
@@ -1753,13 +1778,16 @@
       <c r="I10" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J10" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L10" s="4" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M10" s="5" t="n">
         <f aca="false">L10*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>2</v>
@@ -1821,7 +1849,7 @@
       </c>
       <c r="AM10" s="10" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
-        <v>42.001</v>
+        <v>43.251</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,13 +1880,16 @@
       <c r="I11" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J11" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L11" s="4" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M11" s="5" t="n">
         <f aca="false">L11*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>2</v>
@@ -1920,7 +1951,7 @@
       </c>
       <c r="AM11" s="10" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
-        <v>41.902</v>
+        <v>43.152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,13 +1982,16 @@
       <c r="I12" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J12" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L12" s="4" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
-        <v>0.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="M12" s="5" t="n">
         <f aca="false">L12*10</f>
-        <v>6.875</v>
+        <v>8.125</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>1.5</v>
@@ -2019,7 +2053,7 @@
       </c>
       <c r="AM12" s="10" t="n">
         <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
-        <v>35.09366666675</v>
+        <v>36.34366666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,13 +2084,16 @@
       <c r="I13" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" s="4" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
-        <v>0.725</v>
+        <v>0.8</v>
       </c>
       <c r="M13" s="5" t="n">
         <f aca="false">L13*10</f>
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="N13" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -2120,7 +2157,7 @@
       </c>
       <c r="AM13" s="10" t="n">
         <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
-        <v>40.61866666675</v>
+        <v>41.36866666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,13 +2188,16 @@
       <c r="I14" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J14" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L14" s="4" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M14" s="5" t="n">
         <f aca="false">L14*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>4</v>
@@ -2219,7 +2259,7 @@
       </c>
       <c r="AM14" s="10" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
-        <v>39.66766666675</v>
+        <v>40.91766666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,13 +2290,16 @@
       <c r="I15" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J15" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L15" s="4" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M15" s="5" t="n">
         <f aca="false">L15*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1.5</v>
@@ -2319,7 +2362,7 @@
       </c>
       <c r="AM15" s="10" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
-        <v>37.351</v>
+        <v>38.601</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,6 +2393,9 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" s="4" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
         <v>0.575</v>
@@ -2451,13 +2497,16 @@
       <c r="I17" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J17" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L17" s="4" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">L17*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>1.5</v>
@@ -2520,7 +2569,7 @@
       </c>
       <c r="AM17" s="10" t="n">
         <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
-        <v>37.402</v>
+        <v>38.652</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,6 +2600,9 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.475</v>
@@ -2651,13 +2703,16 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" s="4" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M19" s="5" t="n">
         <f aca="false">L19*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N19" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -2720,7 +2775,7 @@
       </c>
       <c r="AM19" s="10" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
-        <v>39.81766666675</v>
+        <v>41.06766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,13 +2806,16 @@
       <c r="I20" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" s="4" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="M20" s="5" t="n">
         <f aca="false">L20*10</f>
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="N20" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -2820,7 +2878,7 @@
       </c>
       <c r="AM20" s="10" t="n">
         <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
-        <v>36.277</v>
+        <v>37.027</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,6 +2909,9 @@
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.375</v>
@@ -2951,13 +3012,16 @@
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J22" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L22" s="4" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M22" s="5" t="n">
         <f aca="false">L22*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N22" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3021,7 +3085,7 @@
       </c>
       <c r="AM22" s="10" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
-        <v>39.476</v>
+        <v>40.726</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,6 +3116,9 @@
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" s="4" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
         <v>0.75</v>
@@ -3153,13 +3220,16 @@
       <c r="I24" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="M24" s="5" t="n">
         <f aca="false">L24*10</f>
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="N24" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -3222,7 +3292,7 @@
       </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>39.176</v>
+        <v>39.926</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,13 +3323,16 @@
       <c r="I25" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J25" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L25" s="4" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M25" s="5" t="n">
         <f aca="false">L25*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N25" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3322,7 +3395,7 @@
       </c>
       <c r="AM25" s="10" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
-        <v>39.726</v>
+        <v>40.976</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,13 +3426,16 @@
       <c r="I26" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J26" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M26" s="5" t="n">
         <f aca="false">L26*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>3</v>
@@ -3421,7 +3497,7 @@
       </c>
       <c r="AM26" s="10" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
-        <v>41.151</v>
+        <v>42.401</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,13 +3528,16 @@
       <c r="I27" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" s="4" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M27" s="5" t="n">
         <f aca="false">L27*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N27" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3521,7 +3600,7 @@
       </c>
       <c r="AM27" s="10" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
-        <v>40.401</v>
+        <v>41.651</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,13 +3631,16 @@
       <c r="I28" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J28" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L28" s="4" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M28" s="5" t="n">
         <f aca="false">L28*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N28" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3621,7 +3703,7 @@
       </c>
       <c r="AM28" s="10" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
-        <v>41.726</v>
+        <v>42.976</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,6 +3734,9 @@
       <c r="I29" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.75</v>
@@ -3751,6 +3836,9 @@
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
@@ -3851,13 +3939,16 @@
       <c r="I31" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J31" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M31" s="5" t="n">
         <f aca="false">L31*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N31" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -3920,7 +4011,7 @@
       </c>
       <c r="AM31" s="10" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
-        <v>42.75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,6 +4042,9 @@
       <c r="I32" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J32" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.5</v>
@@ -4052,6 +4146,9 @@
       <c r="I33" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J33" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L33" s="4" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.625</v>
@@ -4151,6 +4248,9 @@
       <c r="I34" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J34" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.7</v>
@@ -4251,13 +4351,16 @@
       <c r="I35" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J35" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L35" s="4" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M35" s="5" t="n">
         <f aca="false">L35*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>3</v>
@@ -4319,7 +4422,7 @@
       </c>
       <c r="AM35" s="10" t="n">
         <f aca="false">AL35+AK35+AD35+AC35+AA35+M35+(N35/2)</f>
-        <v>35.326</v>
+        <v>36.576</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,13 +4453,16 @@
       <c r="I36" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J36" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L36" s="4" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M36" s="5" t="n">
         <f aca="false">L36*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N36" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -4419,7 +4525,7 @@
       </c>
       <c r="AM36" s="10" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
-        <v>39.626</v>
+        <v>40.876</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,13 +4556,16 @@
       <c r="I37" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J37" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L37" s="4" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M37" s="5" t="n">
         <f aca="false">L37*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N37" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -4520,7 +4629,7 @@
       </c>
       <c r="AM37" s="10" t="n">
         <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
-        <v>40.56766666675</v>
+        <v>41.81766666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,6 +4660,9 @@
       <c r="I38" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J38" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" s="4" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
         <v>0.7</v>
@@ -4651,6 +4763,9 @@
       <c r="I39" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J39" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" s="4" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
         <v>0.75</v>
@@ -4751,6 +4866,9 @@
       <c r="I40" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J40" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.625</v>
@@ -4851,6 +4969,9 @@
       <c r="I41" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J41" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
         <v>0.75</v>
@@ -4951,13 +5072,16 @@
       <c r="I42" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J42" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M42" s="5" t="n">
         <f aca="false">L42*10</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>1.5</v>
@@ -5020,7 +5144,7 @@
       </c>
       <c r="AM42" s="10" t="n">
         <f aca="false">AL42+AK42+AD42+AC42+AA42+M42+(N42/2)</f>
-        <v>23.901</v>
+        <v>25.151</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,13 +5175,16 @@
       <c r="I43" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J43" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L43" s="4" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M43" s="5" t="n">
         <f aca="false">L43*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N43" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -5120,7 +5247,7 @@
       </c>
       <c r="AM43" s="10" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
-        <v>35.726</v>
+        <v>36.976</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,6 +5278,9 @@
       <c r="I44" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J44" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.75</v>
@@ -5250,13 +5380,16 @@
       <c r="I45" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J45" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.7</v>
+        <v>0.825</v>
       </c>
       <c r="M45" s="5" t="n">
         <f aca="false">L45*10</f>
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0</v>
@@ -5318,7 +5451,7 @@
       </c>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>36.21766666675</v>
+        <v>37.46766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,6 +5482,9 @@
       <c r="I46" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J46" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" s="4" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
         <v>0.5</v>
@@ -5448,13 +5584,16 @@
       <c r="I47" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J47" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L47" s="4" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M47" s="5" t="n">
         <f aca="false">L47*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0</v>
@@ -5516,7 +5655,7 @@
       </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>37.36866666675</v>
+        <v>38.61866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,6 +5686,9 @@
       <c r="I48" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="J48" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" s="4" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
         <v>0.375</v>
@@ -5647,6 +5789,9 @@
       <c r="I49" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J49" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" s="4" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
         <v>0.375</v>
@@ -5746,13 +5891,16 @@
       <c r="I50" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J50" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L50" s="4" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.7</v>
+        <v>0.825</v>
       </c>
       <c r="M50" s="5" t="n">
         <f aca="false">L50*10</f>
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
@@ -5814,7 +5962,7 @@
       </c>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>36.601</v>
+        <v>37.851</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,6 +5993,9 @@
       <c r="I51" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J51" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" s="4" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
         <v>0.25</v>
@@ -5943,6 +6094,9 @@
       </c>
       <c r="I52" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -781,33 +781,33 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J45" activeCellId="0" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.484693877551"/>
     <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
     <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="9" min="9" style="2" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
@@ -4454,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" s="4" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
@@ -5279,15 +5279,15 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M44" s="5" t="n">
         <f aca="false">L44*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>3</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="AM44" s="10" t="n">
         <f aca="false">AL44+AK44+AD44+AC44+AA44+M44+(N44/2)</f>
-        <v>31.96766666675</v>
+        <v>33.21766666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,15 +6096,15 @@
         <v>5</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="M52" s="5" t="n">
         <f aca="false">L52*10</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>4</v>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="AM52" s="10" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
-        <v>32.99266666675</v>
+        <v>34.24266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -781,33 +781,33 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J45" activeCellId="0" sqref="J45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8061224489796"/>
     <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
     <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="9" min="9" style="2" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,6 +961,7 @@
       <c r="J2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K2" s="0"/>
       <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.75</v>
@@ -1064,6 +1065,7 @@
       <c r="J3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K3" s="0"/>
       <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
         <v>0.775</v>
@@ -1166,6 +1168,7 @@
       <c r="J4" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K4" s="0"/>
       <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
         <v>0.875</v>
@@ -1268,6 +1271,7 @@
       <c r="J5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K5" s="0"/>
       <c r="L5" s="4" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
         <v>0.85</v>
@@ -1370,6 +1374,7 @@
       <c r="J6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K6" s="0"/>
       <c r="L6" s="4" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
         <v>0.725</v>
@@ -1473,6 +1478,7 @@
       <c r="J7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K7" s="0"/>
       <c r="L7" s="4" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
         <v>0.8</v>
@@ -1575,6 +1581,7 @@
       <c r="J8" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K8" s="0"/>
       <c r="L8" s="4" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
         <v>0.875</v>
@@ -1678,6 +1685,7 @@
       <c r="J9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K9" s="0"/>
       <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.375</v>
@@ -1781,6 +1789,7 @@
       <c r="J10" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K10" s="0"/>
       <c r="L10" s="4" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
         <v>0.875</v>
@@ -1883,6 +1892,7 @@
       <c r="J11" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K11" s="0"/>
       <c r="L11" s="4" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
         <v>0.875</v>
@@ -1985,6 +1995,7 @@
       <c r="J12" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K12" s="0"/>
       <c r="L12" s="4" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
         <v>0.8125</v>
@@ -2087,6 +2098,7 @@
       <c r="J13" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K13" s="0"/>
       <c r="L13" s="4" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
         <v>0.8</v>
@@ -2191,6 +2203,7 @@
       <c r="J14" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K14" s="0"/>
       <c r="L14" s="4" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
         <v>0.875</v>
@@ -2293,13 +2306,16 @@
       <c r="J15" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K15" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L15" s="4" t="n">
         <f aca="false">(SUM(B15:K15)-(SMALL(B15:K15,2)+SMALL(B15:K15,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5" t="n">
         <f aca="false">L15*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1.5</v>
@@ -2362,7 +2378,7 @@
       </c>
       <c r="AM15" s="10" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
-        <v>38.601</v>
+        <v>39.851</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,6 +2412,7 @@
       <c r="J16" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K16" s="0"/>
       <c r="L16" s="4" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
         <v>0.575</v>
@@ -2500,6 +2517,7 @@
       <c r="J17" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K17" s="0"/>
       <c r="L17" s="4" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
         <v>0.875</v>
@@ -2603,6 +2621,7 @@
       <c r="J18" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K18" s="0"/>
       <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.475</v>
@@ -2706,6 +2725,7 @@
       <c r="J19" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K19" s="0"/>
       <c r="L19" s="4" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
         <v>0.875</v>
@@ -2809,6 +2829,7 @@
       <c r="J20" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K20" s="0"/>
       <c r="L20" s="4" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
         <v>0.825</v>
@@ -2912,6 +2933,7 @@
       <c r="J21" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K21" s="0"/>
       <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.375</v>
@@ -3015,6 +3037,7 @@
       <c r="J22" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K22" s="0"/>
       <c r="L22" s="4" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
         <v>0.875</v>
@@ -3119,6 +3142,7 @@
       <c r="J23" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K23" s="0"/>
       <c r="L23" s="4" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
         <v>0.75</v>
@@ -3223,6 +3247,7 @@
       <c r="J24" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K24" s="0"/>
       <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
         <v>0.825</v>
@@ -3326,6 +3351,7 @@
       <c r="J25" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K25" s="0"/>
       <c r="L25" s="4" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
         <v>0.875</v>
@@ -3429,6 +3455,7 @@
       <c r="J26" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K26" s="0"/>
       <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
         <v>0.875</v>
@@ -3531,6 +3558,7 @@
       <c r="J27" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K27" s="0"/>
       <c r="L27" s="4" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
         <v>0.875</v>
@@ -3634,6 +3662,7 @@
       <c r="J28" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K28" s="0"/>
       <c r="L28" s="4" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
         <v>0.875</v>
@@ -3737,6 +3766,7 @@
       <c r="J29" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K29" s="0"/>
       <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.75</v>
@@ -3839,6 +3869,7 @@
       <c r="J30" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K30" s="0"/>
       <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
@@ -3940,8 +3971,9 @@
         <v>5</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K31" s="0"/>
       <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
         <v>0.875</v>
@@ -4045,6 +4077,7 @@
       <c r="J32" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K32" s="0"/>
       <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.5</v>
@@ -4149,6 +4182,7 @@
       <c r="J33" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K33" s="0"/>
       <c r="L33" s="4" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.625</v>
@@ -4251,6 +4285,7 @@
       <c r="J34" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K34" s="0"/>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.7</v>
@@ -4354,6 +4389,7 @@
       <c r="J35" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K35" s="0"/>
       <c r="L35" s="4" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
         <v>0.875</v>
@@ -4456,6 +4492,7 @@
       <c r="J36" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K36" s="0"/>
       <c r="L36" s="4" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
         <v>0.875</v>
@@ -4559,6 +4596,7 @@
       <c r="J37" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K37" s="0"/>
       <c r="L37" s="4" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
         <v>0.875</v>
@@ -4663,6 +4701,7 @@
       <c r="J38" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K38" s="0"/>
       <c r="L38" s="4" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
         <v>0.7</v>
@@ -4766,6 +4805,7 @@
       <c r="J39" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K39" s="0"/>
       <c r="L39" s="4" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
         <v>0.75</v>
@@ -4869,6 +4909,7 @@
       <c r="J40" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K40" s="0"/>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.625</v>
@@ -4972,6 +5013,7 @@
       <c r="J41" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K41" s="0"/>
       <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
         <v>0.75</v>
@@ -5075,6 +5117,7 @@
       <c r="J42" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K42" s="0"/>
       <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.5</v>
@@ -5178,6 +5221,7 @@
       <c r="J43" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K43" s="0"/>
       <c r="L43" s="4" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
         <v>0.875</v>
@@ -5281,6 +5325,7 @@
       <c r="J44" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K44" s="0"/>
       <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.875</v>
@@ -5383,6 +5428,7 @@
       <c r="J45" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K45" s="0"/>
       <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
         <v>0.825</v>
@@ -5485,6 +5531,7 @@
       <c r="J46" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K46" s="0"/>
       <c r="L46" s="4" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
         <v>0.5</v>
@@ -5587,13 +5634,16 @@
       <c r="J47" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K47" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L47" s="4" t="n">
         <f aca="false">(SUM(B47:K47)-(SMALL(B47:K47,2)+SMALL(B47:K47,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M47" s="5" t="n">
         <f aca="false">L47*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0</v>
@@ -5655,7 +5705,7 @@
       </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>38.61866666675</v>
+        <v>39.86866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -781,33 +781,34 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="9" min="9" style="2" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="19.7244897959184"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,7 +962,9 @@
       <c r="J2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0"/>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
         <v>0.75</v>
@@ -999,6 +1002,9 @@
         <v>5</v>
       </c>
       <c r="W2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y2" s="7" t="n">
@@ -1065,7 +1071,9 @@
       <c r="J3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="0"/>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
         <v>0.775</v>
@@ -1104,16 +1112,19 @@
       <c r="W3" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z3" s="8" t="n">
         <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)+SMALL(O3:Y3,3)))/40</f>
-        <v>0.808333333325</v>
+        <v>0.833333333325</v>
       </c>
       <c r="AA3" s="5" t="n">
         <f aca="false">Z3*10</f>
-        <v>8.08333333325</v>
+        <v>8.33333333325</v>
       </c>
       <c r="AB3" s="18" t="n">
         <v>30.33</v>
@@ -1134,7 +1145,7 @@
       </c>
       <c r="AM3" s="10" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
-        <v>36.98433333325</v>
+        <v>37.23433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,14 +1179,16 @@
       <c r="J4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="0"/>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" s="4" t="n">
         <f aca="false">(SUM(B4:K4)-(SMALL(B4:K4,2)+SMALL(B4:K4,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5" t="n">
         <f aca="false">L4*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>4</v>
@@ -1207,16 +1220,19 @@
       <c r="W4" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X4" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="Y4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Z4" s="8" t="n">
         <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)+SMALL(O4:Y4,3)))/40</f>
-        <v>0.745</v>
+        <v>0.87</v>
       </c>
       <c r="AA4" s="5" t="n">
         <f aca="false">Z4*10</f>
-        <v>7.45</v>
+        <v>8.7</v>
       </c>
       <c r="AB4" s="18" t="n">
         <v>34.5</v>
@@ -1237,7 +1253,7 @@
       </c>
       <c r="AM4" s="10" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
-        <v>39.852</v>
+        <v>42.352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,7 +1287,9 @@
       <c r="J5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="0"/>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="4" t="n">
         <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
         <v>0.85</v>
@@ -1310,16 +1328,19 @@
       <c r="W5" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X5" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y5" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z5" s="8" t="n">
         <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
-        <v>0.758333333325</v>
+        <v>0.783333333325</v>
       </c>
       <c r="AA5" s="5" t="n">
         <f aca="false">Z5*10</f>
-        <v>7.58333333325</v>
+        <v>7.83333333325</v>
       </c>
       <c r="AB5" s="18" t="n">
         <v>33.16</v>
@@ -1340,7 +1361,7 @@
       </c>
       <c r="AM5" s="10" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
-        <v>38.08333333325</v>
+        <v>38.33333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,7 +1395,9 @@
       <c r="J6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="0"/>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L6" s="4" t="n">
         <f aca="false">(SUM(B6:K6)-(SMALL(B6:K6,2)+SMALL(B6:K6,1)))/40</f>
         <v>0.725</v>
@@ -1414,16 +1437,19 @@
       <c r="W6" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="X6" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z6" s="8" t="n">
         <f aca="false">(SUM(O6:Y6)-(SMALL(O6:Y6,2)+SMALL(O6:Y6,1)+SMALL(O6:Y6,3)))/40</f>
-        <v>0.829166666675</v>
+        <v>0.904166666675</v>
       </c>
       <c r="AA6" s="5" t="n">
         <f aca="false">Z6*10</f>
-        <v>8.29166666675</v>
+        <v>9.04166666675</v>
       </c>
       <c r="AB6" s="18" t="n">
         <v>37.66</v>
@@ -1444,7 +1470,7 @@
       </c>
       <c r="AM6" s="10" t="n">
         <f aca="false">AL6+AK6+AD6+AC6+AA6+M6+(N6/2)</f>
-        <v>28.14166666675</v>
+        <v>28.89166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,7 +1504,9 @@
       <c r="J7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0"/>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="4" t="n">
         <f aca="false">(SUM(B7:K7)-(SMALL(B7:K7,2)+SMALL(B7:K7,1)))/40</f>
         <v>0.8</v>
@@ -1517,16 +1545,19 @@
       <c r="W7" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="X7" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z7" s="8" t="n">
         <f aca="false">(SUM(O7:Y7)-(SMALL(O7:Y7,2)+SMALL(O7:Y7,1)+SMALL(O7:Y7,3)))/40</f>
-        <v>0.829166666675</v>
+        <v>0.929166666675</v>
       </c>
       <c r="AA7" s="5" t="n">
         <f aca="false">Z7*10</f>
-        <v>8.29166666675</v>
+        <v>9.29166666675</v>
       </c>
       <c r="AB7" s="21" t="n">
         <v>37.33</v>
@@ -1547,7 +1578,7 @@
       </c>
       <c r="AM7" s="10" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
-        <v>40.54266666675</v>
+        <v>41.54266666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1612,9 @@
       <c r="J8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="0"/>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L8" s="4" t="n">
         <f aca="false">(SUM(B8:K8)-(SMALL(B8:K8,2)+SMALL(B8:K8,1)))/40</f>
         <v>0.875</v>
@@ -1621,16 +1654,19 @@
       <c r="W8" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X8" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y8" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z8" s="8" t="n">
         <f aca="false">(SUM(O8:Y8)-(SMALL(O8:Y8,2)+SMALL(O8:Y8,1)+SMALL(O8:Y8,3)))/40</f>
-        <v>0.875</v>
+        <v>0.99</v>
       </c>
       <c r="AA8" s="5" t="n">
         <f aca="false">Z8*10</f>
-        <v>8.75</v>
+        <v>9.9</v>
       </c>
       <c r="AB8" s="18" t="n">
         <v>44.5</v>
@@ -1651,7 +1687,7 @@
       </c>
       <c r="AM8" s="10" t="n">
         <f aca="false">AL8+AK8+AD8+AC8+AA8+M8+(N8/2)</f>
-        <v>44.152</v>
+        <v>45.302</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +1721,9 @@
       <c r="J9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="0"/>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" s="4" t="n">
         <f aca="false">(SUM(B9:K9)-(SMALL(B9:K9,2)+SMALL(B9:K9,1)))/40</f>
         <v>0.375</v>
@@ -1723,6 +1761,9 @@
         <v>0</v>
       </c>
       <c r="W9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y9" s="7" t="n">
@@ -1789,14 +1830,16 @@
       <c r="J10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K10" s="0"/>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L10" s="4" t="n">
         <f aca="false">(SUM(B10:K10)-(SMALL(B10:K10,2)+SMALL(B10:K10,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5" t="n">
         <f aca="false">L10*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>2</v>
@@ -1828,16 +1871,19 @@
       <c r="W10" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X10" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Z10" s="8" t="n">
         <f aca="false">(SUM(O10:Y10)-(SMALL(O10:Y10,2)+SMALL(O10:Y10,1)+SMALL(O10:Y10,3)))/40</f>
-        <v>0.875</v>
+        <v>0.9675</v>
       </c>
       <c r="AA10" s="5" t="n">
         <f aca="false">Z10*10</f>
-        <v>8.75</v>
+        <v>9.675</v>
       </c>
       <c r="AB10" s="18" t="n">
         <v>44.83</v>
@@ -1858,7 +1904,7 @@
       </c>
       <c r="AM10" s="10" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
-        <v>43.251</v>
+        <v>45.426</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,14 +1938,16 @@
       <c r="J11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K11" s="0"/>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" s="4" t="n">
         <f aca="false">(SUM(B11:K11)-(SMALL(B11:K11,2)+SMALL(B11:K11,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M11" s="5" t="n">
         <f aca="false">L11*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>2</v>
@@ -1931,16 +1979,19 @@
       <c r="W11" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X11" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y11" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z11" s="8" t="n">
         <f aca="false">(SUM(O11:Y11)-(SMALL(O11:Y11,2)+SMALL(O11:Y11,1)+SMALL(O11:Y11,3)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="5" t="n">
         <f aca="false">Z11*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AB11" s="18" t="n">
         <v>44.5</v>
@@ -1961,7 +2012,7 @@
       </c>
       <c r="AM11" s="10" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
-        <v>43.152</v>
+        <v>45.652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,7 +2046,9 @@
       <c r="J12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K12" s="0"/>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" s="4" t="n">
         <f aca="false">(SUM(B12:K12)-(SMALL(B12:K12,2)+SMALL(B12:K12,1)))/40</f>
         <v>0.8125</v>
@@ -2034,16 +2087,19 @@
       <c r="W12" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X12" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="Y12" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z12" s="8" t="n">
         <f aca="false">(SUM(O12:Y12)-(SMALL(O12:Y12,2)+SMALL(O12:Y12,1)+SMALL(O12:Y12,3)))/40</f>
-        <v>0.716666666675</v>
+        <v>0.841666666675</v>
       </c>
       <c r="AA12" s="5" t="n">
         <f aca="false">Z12*10</f>
-        <v>7.16666666675</v>
+        <v>8.41666666675</v>
       </c>
       <c r="AB12" s="18" t="n">
         <v>30</v>
@@ -2064,7 +2120,7 @@
       </c>
       <c r="AM12" s="10" t="n">
         <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
-        <v>36.34366666675</v>
+        <v>37.59366666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,14 +2154,16 @@
       <c r="J13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="0"/>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" s="4" t="n">
         <f aca="false">(SUM(B13:K13)-(SMALL(B13:K13,2)+SMALL(B13:K13,1)))/40</f>
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="M13" s="5" t="n">
         <f aca="false">L13*10</f>
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="N13" s="6" t="n">
         <f aca="false">1+1.5+0.5</f>
@@ -2139,16 +2197,19 @@
       <c r="W13" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="X13" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z13" s="8" t="n">
         <f aca="false">(SUM(O13:Y13)-(SMALL(O13:Y13,2)+SMALL(O13:Y13,1)+SMALL(O13:Y13,3)))/40</f>
-        <v>0.841666666675</v>
+        <v>0.921666666675</v>
       </c>
       <c r="AA13" s="5" t="n">
         <f aca="false">Z13*10</f>
-        <v>8.41666666675</v>
+        <v>9.21666666675</v>
       </c>
       <c r="AB13" s="18" t="n">
         <v>40.5</v>
@@ -2169,7 +2230,7 @@
       </c>
       <c r="AM13" s="10" t="n">
         <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
-        <v>41.36866666675</v>
+        <v>42.91866666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,14 +2264,16 @@
       <c r="J14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="0"/>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" s="4" t="n">
         <f aca="false">(SUM(B14:K14)-(SMALL(B14:K14,2)+SMALL(B14:K14,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M14" s="5" t="n">
         <f aca="false">L14*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>4</v>
@@ -2242,16 +2305,19 @@
       <c r="W14" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X14" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y14" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z14" s="8" t="n">
         <f aca="false">(SUM(O14:Y14)-(SMALL(O14:Y14,2)+SMALL(O14:Y14,1)+SMALL(O14:Y14,3)))/40</f>
-        <v>0.841666666675</v>
+        <v>0.934166666675</v>
       </c>
       <c r="AA14" s="5" t="n">
         <f aca="false">Z14*10</f>
-        <v>8.41666666675</v>
+        <v>9.34166666675</v>
       </c>
       <c r="AB14" s="18" t="n">
         <v>34.83</v>
@@ -2272,7 +2338,7 @@
       </c>
       <c r="AM14" s="10" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
-        <v>40.91766666675</v>
+        <v>43.09266666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,16 +2414,19 @@
       <c r="W15" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X15" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="Y15" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z15" s="8" t="n">
         <f aca="false">(SUM(O15:Y15)-(SMALL(O15:Y15,2)+SMALL(O15:Y15,1)+SMALL(O15:Y15,3)))/40</f>
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA15" s="5" t="n">
         <f aca="false">Z15*10</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" s="18" t="n">
         <v>31.83</v>
@@ -2378,7 +2447,7 @@
       </c>
       <c r="AM15" s="10" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
-        <v>39.851</v>
+        <v>41.101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2481,9 @@
       <c r="J16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="0"/>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" s="4" t="n">
         <f aca="false">(SUM(B16:K16)-(SMALL(B16:K16,2)+SMALL(B16:K16,1)))/40</f>
         <v>0.575</v>
@@ -2453,16 +2524,19 @@
       <c r="W16" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X16" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Z16" s="8" t="n">
         <f aca="false">(SUM(O16:Y16)-(SMALL(O16:Y16,2)+SMALL(O16:Y16,1)+SMALL(O16:Y16,3)))/40</f>
-        <v>0.755</v>
+        <v>0.78</v>
       </c>
       <c r="AA16" s="5" t="n">
         <f aca="false">Z16*10</f>
-        <v>7.55</v>
+        <v>7.8</v>
       </c>
       <c r="AB16" s="18" t="n">
         <v>33</v>
@@ -2483,7 +2557,7 @@
       </c>
       <c r="AM16" s="10" t="n">
         <f aca="false">AL16+AK16+AD16+AC16+AA16+M16+(N16/2)</f>
-        <v>36.002</v>
+        <v>36.252</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,14 +2591,16 @@
       <c r="J17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="0"/>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" s="4" t="n">
         <f aca="false">(SUM(B17:K17)-(SMALL(B17:K17,2)+SMALL(B17:K17,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">L17*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>1.5</v>
@@ -2557,16 +2633,19 @@
       <c r="W17" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X17" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="Y17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z17" s="8" t="n">
         <f aca="false">(SUM(O17:Y17)-(SMALL(O17:Y17,2)+SMALL(O17:Y17,1)+SMALL(O17:Y17,3)))/40</f>
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA17" s="5" t="n">
         <f aca="false">Z17*10</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB17" s="18" t="n">
         <v>32</v>
@@ -2587,7 +2666,7 @@
       </c>
       <c r="AM17" s="10" t="n">
         <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
-        <v>38.652</v>
+        <v>41.152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2700,9 @@
       <c r="J18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="0"/>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" s="4" t="n">
         <f aca="false">(SUM(B18:K18)-(SMALL(B18:K18,2)+SMALL(B18:K18,1)))/40</f>
         <v>0.475</v>
@@ -2659,6 +2740,9 @@
         <v>0</v>
       </c>
       <c r="W18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y18" s="7" t="n">
@@ -2725,7 +2809,9 @@
       <c r="J19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="0"/>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" s="4" t="n">
         <f aca="false">(SUM(B19:K19)-(SMALL(B19:K19,2)+SMALL(B19:K19,1)))/40</f>
         <v>0.875</v>
@@ -2765,16 +2851,19 @@
       <c r="W19" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="X19" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="Y19" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z19" s="8" t="n">
         <f aca="false">(SUM(O19:Y19)-(SMALL(O19:Y19,2)+SMALL(O19:Y19,1)+SMALL(O19:Y19,3)))/40</f>
-        <v>0.841666666675</v>
+        <v>0.966666666675</v>
       </c>
       <c r="AA19" s="5" t="n">
         <f aca="false">Z19*10</f>
-        <v>8.41666666675</v>
+        <v>9.66666666675</v>
       </c>
       <c r="AB19" s="18" t="n">
         <v>37.83</v>
@@ -2795,7 +2884,7 @@
       </c>
       <c r="AM19" s="10" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
-        <v>41.06766666675</v>
+        <v>42.31766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,7 +2918,9 @@
       <c r="J20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="0"/>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" s="4" t="n">
         <f aca="false">(SUM(B20:K20)-(SMALL(B20:K20,2)+SMALL(B20:K20,1)))/40</f>
         <v>0.825</v>
@@ -2869,16 +2960,19 @@
       <c r="W20" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X20" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y20" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z20" s="8" t="n">
         <f aca="false">(SUM(O20:Y20)-(SMALL(O20:Y20,2)+SMALL(O20:Y20,1)+SMALL(O20:Y20,3)))/40</f>
-        <v>0.8375</v>
+        <v>0.9275</v>
       </c>
       <c r="AA20" s="5" t="n">
         <f aca="false">Z20*10</f>
-        <v>8.375</v>
+        <v>9.275</v>
       </c>
       <c r="AB20" s="18" t="n">
         <v>24.5</v>
@@ -2899,7 +2993,7 @@
       </c>
       <c r="AM20" s="10" t="n">
         <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
-        <v>37.027</v>
+        <v>37.927</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,7 +3027,9 @@
       <c r="J21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="0"/>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" s="4" t="n">
         <f aca="false">(SUM(B21:K21)-(SMALL(B21:K21,2)+SMALL(B21:K21,1)))/40</f>
         <v>0.375</v>
@@ -2971,6 +3067,9 @@
         <v>0</v>
       </c>
       <c r="W21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y21" s="7" t="n">
@@ -3037,7 +3136,9 @@
       <c r="J22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K22" s="0"/>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" s="4" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
         <v>0.875</v>
@@ -3078,16 +3179,19 @@
       <c r="W22" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X22" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z22" s="8" t="n">
         <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)+SMALL(O22:Y22,3)))/40</f>
-        <v>0.8625</v>
+        <v>0.975</v>
       </c>
       <c r="AA22" s="5" t="n">
         <f aca="false">Z22*10</f>
-        <v>8.625</v>
+        <v>9.75</v>
       </c>
       <c r="AB22" s="18" t="n">
         <v>34.33</v>
@@ -3108,7 +3212,7 @@
       </c>
       <c r="AM22" s="10" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
-        <v>40.726</v>
+        <v>41.851</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,7 +3246,9 @@
       <c r="J23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="0"/>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" s="4" t="n">
         <f aca="false">(SUM(B23:K23)-(SMALL(B23:K23,2)+SMALL(B23:K23,1)))/40</f>
         <v>0.75</v>
@@ -3183,16 +3289,19 @@
       <c r="W23" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="X23" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z23" s="8" t="n">
         <f aca="false">(SUM(O23:Y23)-(SMALL(O23:Y23,2)+SMALL(O23:Y23,1)+SMALL(O23:Y23,3)))/40</f>
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA23" s="5" t="n">
         <f aca="false">Z23*10</f>
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AB23" s="18" t="n">
         <v>32.33</v>
@@ -3213,7 +3322,7 @@
       </c>
       <c r="AM23" s="10" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
-        <v>37.751</v>
+        <v>38.501</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,7 +3356,9 @@
       <c r="J24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K24" s="0"/>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
         <v>0.825</v>
@@ -3287,16 +3398,19 @@
       <c r="W24" s="20" t="n">
         <v>3.5</v>
       </c>
+      <c r="X24" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y24" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z24" s="8" t="n">
         <f aca="false">(SUM(O24:Y24)-(SMALL(O24:Y24,2)+SMALL(O24:Y24,1)+SMALL(O24:Y24,3)))/40</f>
-        <v>0.7625</v>
+        <v>0.8325</v>
       </c>
       <c r="AA24" s="5" t="n">
         <f aca="false">Z24*10</f>
-        <v>7.625</v>
+        <v>8.325</v>
       </c>
       <c r="AB24" s="18" t="n">
         <v>38.33</v>
@@ -3317,7 +3431,7 @@
       </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>39.926</v>
+        <v>40.626</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,14 +3465,16 @@
       <c r="J25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K25" s="0"/>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" s="4" t="n">
         <f aca="false">(SUM(B25:K25)-(SMALL(B25:K25,2)+SMALL(B25:K25,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M25" s="5" t="n">
         <f aca="false">L25*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N25" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3391,16 +3507,19 @@
       <c r="W25" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X25" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y25" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z25" s="8" t="n">
         <f aca="false">(SUM(O25:Y25)-(SMALL(O25:Y25,2)+SMALL(O25:Y25,1)+SMALL(O25:Y25,3)))/40</f>
-        <v>0.8125</v>
+        <v>0.8375</v>
       </c>
       <c r="AA25" s="5" t="n">
         <f aca="false">Z25*10</f>
-        <v>8.125</v>
+        <v>8.375</v>
       </c>
       <c r="AB25" s="18" t="n">
         <v>36.83</v>
@@ -3421,7 +3540,7 @@
       </c>
       <c r="AM25" s="10" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
-        <v>40.976</v>
+        <v>42.476</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,7 +3574,9 @@
       <c r="J26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K26" s="0"/>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
         <v>0.875</v>
@@ -3494,16 +3615,19 @@
       <c r="W26" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X26" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y26" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z26" s="8" t="n">
         <f aca="false">(SUM(O26:Y26)-(SMALL(O26:Y26,2)+SMALL(O26:Y26,1)+SMALL(O26:Y26,3)))/40</f>
-        <v>0.845</v>
+        <v>0.949166666675</v>
       </c>
       <c r="AA26" s="5" t="n">
         <f aca="false">Z26*10</f>
-        <v>8.45</v>
+        <v>9.49166666675</v>
       </c>
       <c r="AB26" s="18" t="n">
         <v>41.33</v>
@@ -3524,7 +3648,7 @@
       </c>
       <c r="AM26" s="10" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
-        <v>42.401</v>
+        <v>43.44266666675</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,7 +3682,9 @@
       <c r="J27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="0"/>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" s="4" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
         <v>0.875</v>
@@ -3598,16 +3724,19 @@
       <c r="W27" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X27" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y27" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z27" s="8" t="n">
         <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)+SMALL(O27:Y27,3)))/40</f>
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AA27" s="5" t="n">
         <f aca="false">Z27*10</f>
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB27" s="18" t="n">
         <v>37.83</v>
@@ -3628,7 +3757,7 @@
       </c>
       <c r="AM27" s="10" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
-        <v>41.651</v>
+        <v>42.151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,14 +3791,16 @@
       <c r="J28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K28" s="0"/>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L28" s="4" t="n">
         <f aca="false">(SUM(B28:K28)-(SMALL(B28:K28,2)+SMALL(B28:K28,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M28" s="5" t="n">
         <f aca="false">L28*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N28" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -3702,16 +3833,19 @@
       <c r="W28" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X28" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y28" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z28" s="8" t="n">
         <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)+SMALL(O28:Y28,3)))/40</f>
-        <v>0.8625</v>
+        <v>0.9125</v>
       </c>
       <c r="AA28" s="5" t="n">
         <f aca="false">Z28*10</f>
-        <v>8.625</v>
+        <v>9.125</v>
       </c>
       <c r="AB28" s="18" t="n">
         <v>41.83</v>
@@ -3732,7 +3866,7 @@
       </c>
       <c r="AM28" s="10" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
-        <v>42.976</v>
+        <v>44.726</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,7 +3900,9 @@
       <c r="J29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="0"/>
+      <c r="K29" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" s="4" t="n">
         <f aca="false">(SUM(B29:K29)-(SMALL(B29:K29,2)+SMALL(B29:K29,1)))/40</f>
         <v>0.75</v>
@@ -3805,16 +3941,19 @@
       <c r="W29" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X29" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y29" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z29" s="8" t="n">
         <f aca="false">(SUM(O29:Y29)-(SMALL(O29:Y29,2)+SMALL(O29:Y29,1)+SMALL(O29:Y29,3)))/40</f>
-        <v>0.788125</v>
+        <v>0.863125</v>
       </c>
       <c r="AA29" s="5" t="n">
         <f aca="false">Z29*10</f>
-        <v>7.88125</v>
+        <v>8.63125</v>
       </c>
       <c r="AB29" s="18" t="n">
         <v>38.83</v>
@@ -3835,7 +3974,7 @@
       </c>
       <c r="AM29" s="10" t="n">
         <f aca="false">AL29+AK29+AD29+AC29+AA29+M29+(N29/2)</f>
-        <v>39.33225</v>
+        <v>40.08225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,7 +4008,9 @@
       <c r="J30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="0"/>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L30" s="4" t="n">
         <f aca="false">(SUM(B30:K30)-(SMALL(B30:K30,2)+SMALL(B30:K30,1)))/40</f>
         <v>0.125</v>
@@ -3907,6 +4048,9 @@
         <v>0</v>
       </c>
       <c r="W30" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y30" s="7" t="n">
@@ -3973,14 +4117,16 @@
       <c r="J31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K31" s="0"/>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="4" t="n">
         <f aca="false">(SUM(B31:K31)-(SMALL(B31:K31,2)+SMALL(B31:K31,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M31" s="5" t="n">
         <f aca="false">L31*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N31" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -4013,16 +4159,19 @@
       <c r="W31" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X31" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y31" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z31" s="8" t="n">
         <f aca="false">(SUM(O31:Y31)-(SMALL(O31:Y31,2)+SMALL(O31:Y31,1)+SMALL(O31:Y31,3)))/40</f>
-        <v>0.875</v>
+        <v>0.995</v>
       </c>
       <c r="AA31" s="5" t="n">
         <f aca="false">Z31*10</f>
-        <v>8.75</v>
+        <v>9.95</v>
       </c>
       <c r="AB31" s="18" t="n">
         <v>45.66</v>
@@ -4043,7 +4192,7 @@
       </c>
       <c r="AM31" s="10" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
-        <v>44</v>
+        <v>46.45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,7 +4226,9 @@
       <c r="J32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="0"/>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
         <v>0.5</v>
@@ -4118,16 +4269,19 @@
       <c r="W32" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X32" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y32" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z32" s="8" t="n">
         <f aca="false">(SUM(O32:Y32)-(SMALL(O32:Y32,2)+SMALL(O32:Y32,1)+SMALL(O32:Y32,3)))/40</f>
-        <v>0.8625</v>
+        <v>0.970833333325</v>
       </c>
       <c r="AA32" s="5" t="n">
         <f aca="false">Z32*10</f>
-        <v>8.625</v>
+        <v>9.70833333325</v>
       </c>
       <c r="AB32" s="18" t="n">
         <v>41</v>
@@ -4148,7 +4302,7 @@
       </c>
       <c r="AM32" s="10" t="n">
         <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
-        <v>38.727</v>
+        <v>39.81033333325</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,7 +4336,9 @@
       <c r="J33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="0"/>
+      <c r="K33" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L33" s="4" t="n">
         <f aca="false">(SUM(B33:K33)-(SMALL(B33:K33,2)+SMALL(B33:K33,1)))/40</f>
         <v>0.625</v>
@@ -4221,16 +4377,19 @@
       <c r="W33" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X33" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y33" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Z33" s="8" t="n">
         <f aca="false">(SUM(O33:Y33)-(SMALL(O33:Y33,2)+SMALL(O33:Y33,1)+SMALL(O33:Y33,3)))/40</f>
-        <v>0.84</v>
+        <v>0.931666666675</v>
       </c>
       <c r="AA33" s="5" t="n">
         <f aca="false">Z33*10</f>
-        <v>8.4</v>
+        <v>9.31666666675</v>
       </c>
       <c r="AB33" s="18" t="n">
         <v>40.33</v>
@@ -4251,7 +4410,7 @@
       </c>
       <c r="AM33" s="10" t="n">
         <f aca="false">AL33+AK33+AD33+AC33+AA33+M33+(N33/2)</f>
-        <v>39.551</v>
+        <v>40.46766666675</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,7 +4444,9 @@
       <c r="J34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="0"/>
+      <c r="K34" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L34" s="4" t="n">
         <f aca="false">(SUM(B34:K34)-(SMALL(B34:K34,2)+SMALL(B34:K34,1)))/40</f>
         <v>0.7</v>
@@ -4325,16 +4486,19 @@
       <c r="W34" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X34" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y34" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z34" s="8" t="n">
         <f aca="false">(SUM(O34:Y34)-(SMALL(O34:Y34,2)+SMALL(O34:Y34,1)+SMALL(O34:Y34,3)))/40</f>
-        <v>0.7875</v>
+        <v>0.8875</v>
       </c>
       <c r="AA34" s="5" t="n">
         <f aca="false">Z34*10</f>
-        <v>7.875</v>
+        <v>8.875</v>
       </c>
       <c r="AB34" s="18" t="n">
         <v>32</v>
@@ -4355,7 +4519,7 @@
       </c>
       <c r="AM34" s="10" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
-        <v>37.527</v>
+        <v>38.527</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,7 +4553,9 @@
       <c r="J35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K35" s="0"/>
+      <c r="K35" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" s="4" t="n">
         <f aca="false">(SUM(B35:K35)-(SMALL(B35:K35,2)+SMALL(B35:K35,1)))/40</f>
         <v>0.875</v>
@@ -4427,6 +4593,9 @@
       </c>
       <c r="W35" s="20" t="n">
         <v>3</v>
+      </c>
+      <c r="X35" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="Y35" s="7" t="n">
         <v>0</v>
@@ -4492,14 +4661,16 @@
       <c r="J36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K36" s="0"/>
+      <c r="K36" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L36" s="4" t="n">
         <f aca="false">(SUM(B36:K36)-(SMALL(B36:K36,2)+SMALL(B36:K36,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M36" s="5" t="n">
         <f aca="false">L36*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N36" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -4532,16 +4703,19 @@
       <c r="W36" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="X36" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y36" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z36" s="8" t="n">
         <f aca="false">(SUM(O36:Y36)-(SMALL(O36:Y36,2)+SMALL(O36:Y36,1)+SMALL(O36:Y36,3)))/40</f>
-        <v>0.8625</v>
+        <v>0.9625</v>
       </c>
       <c r="AA36" s="5" t="n">
         <f aca="false">Z36*10</f>
-        <v>8.625</v>
+        <v>9.625</v>
       </c>
       <c r="AB36" s="18" t="n">
         <v>34.83</v>
@@ -4562,7 +4736,7 @@
       </c>
       <c r="AM36" s="10" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
-        <v>40.876</v>
+        <v>43.126</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4596,14 +4770,16 @@
       <c r="J37" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K37" s="0"/>
+      <c r="K37" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" s="4" t="n">
         <f aca="false">(SUM(B37:K37)-(SMALL(B37:K37,2)+SMALL(B37:K37,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M37" s="5" t="n">
         <f aca="false">L37*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N37" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -4637,16 +4813,19 @@
       <c r="W37" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X37" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="Y37" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z37" s="8" t="n">
         <f aca="false">(SUM(O37:Y37)-(SMALL(O37:Y37,2)+SMALL(O37:Y37,1)+SMALL(O37:Y37,3)))/40</f>
-        <v>0.816666666675</v>
+        <v>0.941666666675</v>
       </c>
       <c r="AA37" s="5" t="n">
         <f aca="false">Z37*10</f>
-        <v>8.16666666675</v>
+        <v>9.41666666675</v>
       </c>
       <c r="AB37" s="18" t="n">
         <v>40.33</v>
@@ -4667,7 +4846,7 @@
       </c>
       <c r="AM37" s="10" t="n">
         <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
-        <v>41.81766666675</v>
+        <v>44.31766666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,7 +4880,9 @@
       <c r="J38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="0"/>
+      <c r="K38" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" s="4" t="n">
         <f aca="false">(SUM(B38:K38)-(SMALL(B38:K38,2)+SMALL(B38:K38,1)))/40</f>
         <v>0.7</v>
@@ -4741,16 +4922,19 @@
       <c r="W38" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X38" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y38" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z38" s="8" t="n">
         <f aca="false">(SUM(O38:Y38)-(SMALL(O38:Y38,2)+SMALL(O38:Y38,1)+SMALL(O38:Y38,3)))/40</f>
-        <v>0.727916666675</v>
+        <v>0.752916666675</v>
       </c>
       <c r="AA38" s="5" t="n">
         <f aca="false">Z38*10</f>
-        <v>7.27916666675</v>
+        <v>7.52916666675</v>
       </c>
       <c r="AB38" s="18" t="n">
         <v>30.83</v>
@@ -4771,7 +4955,7 @@
       </c>
       <c r="AM38" s="10" t="n">
         <f aca="false">AL38+AK38+AD38+AC38+AA38+M38+(N38/2)</f>
-        <v>34.83016666675</v>
+        <v>35.08016666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,7 +4989,9 @@
       <c r="J39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="0"/>
+      <c r="K39" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" s="4" t="n">
         <f aca="false">(SUM(B39:K39)-(SMALL(B39:K39,2)+SMALL(B39:K39,1)))/40</f>
         <v>0.75</v>
@@ -4845,16 +5031,19 @@
       <c r="W39" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X39" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y39" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z39" s="8" t="n">
         <f aca="false">(SUM(O39:Y39)-(SMALL(O39:Y39,2)+SMALL(O39:Y39,1)+SMALL(O39:Y39,3)))/40</f>
-        <v>0.777916666675</v>
+        <v>0.877916666675</v>
       </c>
       <c r="AA39" s="5" t="n">
         <f aca="false">Z39*10</f>
-        <v>7.77916666675</v>
+        <v>8.77916666675</v>
       </c>
       <c r="AB39" s="18" t="n">
         <v>37.83</v>
@@ -4875,7 +5064,7 @@
       </c>
       <c r="AM39" s="10" t="n">
         <f aca="false">AL39+AK39+AD39+AC39+AA39+M39+(N39/2)</f>
-        <v>37.93016666675</v>
+        <v>38.93016666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,7 +5098,9 @@
       <c r="J40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="0"/>
+      <c r="K40" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" s="4" t="n">
         <f aca="false">(SUM(B40:K40)-(SMALL(B40:K40,2)+SMALL(B40:K40,1)))/40</f>
         <v>0.625</v>
@@ -4949,16 +5140,19 @@
       <c r="W40" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X40" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y40" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z40" s="8" t="n">
         <f aca="false">(SUM(O40:Y40)-(SMALL(O40:Y40,2)+SMALL(O40:Y40,1)+SMALL(O40:Y40,3)))/40</f>
-        <v>0.854166666675</v>
+        <v>0.954166666675</v>
       </c>
       <c r="AA40" s="5" t="n">
         <f aca="false">Z40*10</f>
-        <v>8.54166666675</v>
+        <v>9.54166666675</v>
       </c>
       <c r="AB40" s="18" t="n">
         <v>34</v>
@@ -4979,7 +5173,7 @@
       </c>
       <c r="AM40" s="10" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
-        <v>36.29366666675</v>
+        <v>37.29366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,7 +5207,9 @@
       <c r="J41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K41" s="0"/>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
         <v>0.75</v>
@@ -5052,6 +5248,9 @@
       </c>
       <c r="W41" s="20" t="n">
         <v>3</v>
+      </c>
+      <c r="X41" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="Y41" s="7" t="n">
         <v>0</v>
@@ -5117,7 +5316,9 @@
       <c r="J42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K42" s="0"/>
+      <c r="K42" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" s="4" t="n">
         <f aca="false">(SUM(B42:K42)-(SMALL(B42:K42,2)+SMALL(B42:K42,1)))/40</f>
         <v>0.5</v>
@@ -5155,6 +5356,9 @@
         <v>4</v>
       </c>
       <c r="W42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y42" s="7" t="n">
@@ -5221,14 +5425,16 @@
       <c r="J43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K43" s="0"/>
+      <c r="K43" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" s="4" t="n">
         <f aca="false">(SUM(B43:K43)-(SMALL(B43:K43,2)+SMALL(B43:K43,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M43" s="5" t="n">
         <f aca="false">L43*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N43" s="6" t="n">
         <f aca="false">1+2+0.5</f>
@@ -5261,6 +5467,9 @@
       <c r="W43" s="17" t="n">
         <v>0</v>
       </c>
+      <c r="X43" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y43" s="7" t="n">
         <v>5</v>
       </c>
@@ -5291,7 +5500,7 @@
       </c>
       <c r="AM43" s="10" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
-        <v>36.976</v>
+        <v>38.226</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,7 +5534,9 @@
       <c r="J44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K44" s="0"/>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L44" s="4" t="n">
         <f aca="false">(SUM(B44:K44)-(SMALL(B44:K44,2)+SMALL(B44:K44,1)))/40</f>
         <v>0.875</v>
@@ -5363,6 +5574,9 @@
       </c>
       <c r="W44" s="20" t="n">
         <v>3</v>
+      </c>
+      <c r="X44" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="Y44" s="7" t="n">
         <v>5</v>
@@ -5428,7 +5642,9 @@
       <c r="J45" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K45" s="0"/>
+      <c r="K45" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
         <v>0.825</v>
@@ -5467,16 +5683,19 @@
       <c r="W45" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="X45" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y45" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z45" s="8" t="n">
         <f aca="false">(SUM(O45:Y45)-(SMALL(O45:Y45,2)+SMALL(O45:Y45,1)+SMALL(O45:Y45,3)))/40</f>
-        <v>0.791666666675</v>
+        <v>0.866666666675</v>
       </c>
       <c r="AA45" s="5" t="n">
         <f aca="false">Z45*10</f>
-        <v>7.91666666675</v>
+        <v>8.66666666675</v>
       </c>
       <c r="AB45" s="18" t="n">
         <v>33.33</v>
@@ -5497,7 +5716,7 @@
       </c>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>37.46766666675</v>
+        <v>38.21766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5750,9 @@
       <c r="J46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="0"/>
+      <c r="K46" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" s="4" t="n">
         <f aca="false">(SUM(B46:K46)-(SMALL(B46:K46,2)+SMALL(B46:K46,1)))/40</f>
         <v>0.5</v>
@@ -5568,6 +5789,9 @@
         <v>5</v>
       </c>
       <c r="W46" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y46" s="7" t="n">
@@ -5675,16 +5899,19 @@
       <c r="W47" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="X47" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y47" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z47" s="8" t="n">
         <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)+SMALL(O47:Y47,3)))/40</f>
-        <v>0.791666666675</v>
+        <v>0.816666666675</v>
       </c>
       <c r="AA47" s="5" t="n">
         <f aca="false">Z47*10</f>
-        <v>7.91666666675</v>
+        <v>8.16666666675</v>
       </c>
       <c r="AB47" s="18" t="n">
         <v>35.5</v>
@@ -5705,7 +5932,7 @@
       </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>39.86866666675</v>
+        <v>40.11866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,6 +5966,9 @@
       <c r="J48" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K48" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" s="4" t="n">
         <f aca="false">(SUM(B48:K48)-(SMALL(B48:K48,2)+SMALL(B48:K48,1)))/40</f>
         <v>0.375</v>
@@ -5778,16 +6008,19 @@
       <c r="W48" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="X48" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y48" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z48" s="8" t="n">
         <f aca="false">(SUM(O48:Y48)-(SMALL(O48:Y48,2)+SMALL(O48:Y48,1)+SMALL(O48:Y48,3)))/40</f>
-        <v>0.820833333325</v>
+        <v>0.878333333325</v>
       </c>
       <c r="AA48" s="5" t="n">
         <f aca="false">Z48*10</f>
-        <v>8.20833333325</v>
+        <v>8.78333333325</v>
       </c>
       <c r="AB48" s="18" t="n">
         <v>34.83</v>
@@ -5808,7 +6041,7 @@
       </c>
       <c r="AM48" s="10" t="n">
         <f aca="false">AL48+AK48+AD48+AC48+AA48+M48+(N48/2)</f>
-        <v>35.70933333325</v>
+        <v>36.28433333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5842,13 +6075,16 @@
       <c r="J49" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K49" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L49" s="4" t="n">
         <f aca="false">(SUM(B49:K49)-(SMALL(B49:K49,2)+SMALL(B49:K49,1)))/40</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="M49" s="5" t="n">
         <f aca="false">L49*10</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>3.5</v>
@@ -5878,6 +6114,9 @@
         <v>0</v>
       </c>
       <c r="W49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y49" s="7" t="n">
@@ -5910,7 +6149,7 @@
       </c>
       <c r="AM49" s="10" t="n">
         <f aca="false">AL49+AK49+AD49+AC49+AA49+M49+(N49/2)</f>
-        <v>21.902</v>
+        <v>22.152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,13 +6183,16 @@
       <c r="J50" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K50" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="L50" s="4" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="M50" s="5" t="n">
         <f aca="false">L50*10</f>
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
@@ -5982,16 +6224,19 @@
       <c r="W50" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="X50" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y50" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z50" s="8" t="n">
         <f aca="false">(SUM(O50:Y50)-(SMALL(O50:Y50,2)+SMALL(O50:Y50,1)+SMALL(O50:Y50,3)))/40</f>
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA50" s="5" t="n">
         <f aca="false">Z50*10</f>
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AB50" s="18" t="n">
         <v>34.33</v>
@@ -6012,7 +6257,7 @@
       </c>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>37.851</v>
+        <v>39.101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6046,13 +6291,16 @@
       <c r="J51" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="K51" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="L51" s="4" t="n">
         <f aca="false">(SUM(B51:K51)-(SMALL(B51:K51,2)+SMALL(B51:K51,1)))/40</f>
-        <v>0.25</v>
+        <v>0.325</v>
       </c>
       <c r="M51" s="5" t="n">
         <f aca="false">L51*10</f>
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0</v>
@@ -6082,6 +6330,9 @@
         <v>2.5</v>
       </c>
       <c r="W51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y51" s="7" t="n">
@@ -6114,7 +6365,7 @@
       </c>
       <c r="AM51" s="10" t="n">
         <f aca="false">AL51+AK51+AD51+AC51+AA51+M51+(N51/2)</f>
-        <v>30.527</v>
+        <v>31.277</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,13 +6399,16 @@
       <c r="J52" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="K52" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="L52" s="4" t="n">
         <f aca="false">(SUM(B52:K52)-(SMALL(B52:K52,2)+SMALL(B52:K52,1)))/40</f>
-        <v>0.625</v>
+        <v>0.725</v>
       </c>
       <c r="M52" s="5" t="n">
         <f aca="false">L52*10</f>
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>4</v>
@@ -6184,6 +6438,9 @@
         <v>4.666666667</v>
       </c>
       <c r="W52" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y52" s="7" t="n">
@@ -6216,7 +6473,7 @@
       </c>
       <c r="AM52" s="10" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
-        <v>34.24266666675</v>
+        <v>35.24266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -781,34 +781,33 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>5</v>
@@ -3141,11 +3140,11 @@
       </c>
       <c r="L22" s="4" t="n">
         <f aca="false">(SUM(B22:K22)-(SMALL(B22:K22,2)+SMALL(B22:K22,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5" t="n">
         <f aca="false">L22*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N22" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3180,18 +3179,18 @@
         <v>5</v>
       </c>
       <c r="X22" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z22" s="8" t="n">
         <f aca="false">(SUM(O22:Y22)-(SMALL(O22:Y22,2)+SMALL(O22:Y22,1)+SMALL(O22:Y22,3)))/40</f>
-        <v>0.975</v>
+        <v>0.9875</v>
       </c>
       <c r="AA22" s="5" t="n">
         <f aca="false">Z22*10</f>
-        <v>9.75</v>
+        <v>9.875</v>
       </c>
       <c r="AB22" s="18" t="n">
         <v>34.33</v>
@@ -3212,7 +3211,7 @@
       </c>
       <c r="AM22" s="10" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
-        <v>41.851</v>
+        <v>43.226</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,18 +3679,18 @@
         <v>5</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
         <f aca="false">(SUM(B27:K27)-(SMALL(B27:K27,2)+SMALL(B27:K27,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M27" s="5" t="n">
         <f aca="false">L27*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N27" s="6" t="n">
         <f aca="false">1+1.5+1</f>
@@ -3725,18 +3724,18 @@
         <v>5</v>
       </c>
       <c r="X27" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y27" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z27" s="8" t="n">
         <f aca="false">(SUM(O27:Y27)-(SMALL(O27:Y27,2)+SMALL(O27:Y27,1)+SMALL(O27:Y27,3)))/40</f>
-        <v>0.9</v>
+        <v>0.975</v>
       </c>
       <c r="AA27" s="5" t="n">
         <f aca="false">Z27*10</f>
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AB27" s="18" t="n">
         <v>37.83</v>
@@ -3757,7 +3756,7 @@
       </c>
       <c r="AM27" s="10" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
-        <v>42.151</v>
+        <v>44.151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,18 +3833,18 @@
         <v>5</v>
       </c>
       <c r="X28" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y28" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z28" s="8" t="n">
         <f aca="false">(SUM(O28:Y28)-(SMALL(O28:Y28,2)+SMALL(O28:Y28,1)+SMALL(O28:Y28,3)))/40</f>
-        <v>0.9125</v>
+        <v>0.9875</v>
       </c>
       <c r="AA28" s="5" t="n">
         <f aca="false">Z28*10</f>
-        <v>9.125</v>
+        <v>9.875</v>
       </c>
       <c r="AB28" s="18" t="n">
         <v>41.83</v>
@@ -3866,7 +3865,7 @@
       </c>
       <c r="AM28" s="10" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
-        <v>44.726</v>
+        <v>45.476</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R43" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S43" s="7" t="n">
         <v>5</v>
@@ -5468,18 +5467,18 @@
         <v>0</v>
       </c>
       <c r="X43" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y43" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z43" s="8" t="n">
         <f aca="false">(SUM(O43:Y43)-(SMALL(O43:Y43,2)+SMALL(O43:Y43,1)+SMALL(O43:Y43,3)))/40</f>
-        <v>0.4125</v>
+        <v>0.7875</v>
       </c>
       <c r="AA43" s="5" t="n">
         <f aca="false">Z43*10</f>
-        <v>4.125</v>
+        <v>7.875</v>
       </c>
       <c r="AB43" s="18" t="n">
         <v>36.83</v>
@@ -5500,7 +5499,7 @@
       </c>
       <c r="AM43" s="10" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
-        <v>38.226</v>
+        <v>41.976</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,7 +5869,7 @@
         <v>10</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="7" t="n">
         <v>0</v>
@@ -5888,7 +5887,7 @@
         <v>5</v>
       </c>
       <c r="T47" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U47" s="20" t="n">
         <v>4</v>
@@ -5900,18 +5899,18 @@
         <v>3</v>
       </c>
       <c r="X47" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y47" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Z47" s="8" t="n">
         <f aca="false">(SUM(O47:Y47)-(SMALL(O47:Y47,2)+SMALL(O47:Y47,1)+SMALL(O47:Y47,3)))/40</f>
-        <v>0.816666666675</v>
+        <v>0.966666666675</v>
       </c>
       <c r="AA47" s="5" t="n">
         <f aca="false">Z47*10</f>
-        <v>8.16666666675</v>
+        <v>9.66666666675</v>
       </c>
       <c r="AB47" s="18" t="n">
         <v>35.5</v>
@@ -5932,7 +5931,7 @@
       </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>40.11866666675</v>
+        <v>42.11866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -787,27 +787,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,9 +1251,12 @@
         <f aca="false">AE4+AF4+AG4+AI4+AJ4+AH4</f>
         <v>10</v>
       </c>
+      <c r="AL4" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM4" s="10" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
-        <v>42.352</v>
+        <v>52.352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,9 +1905,12 @@
         <f aca="false">AE10+AF10+AG10+AI10+AJ10+AH10</f>
         <v>10</v>
       </c>
+      <c r="AL10" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM10" s="10" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
-        <v>45.426</v>
+        <v>55.426</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,9 +2016,12 @@
         <f aca="false">AE11+AF11+AG11+AI11+AJ11+AH11</f>
         <v>10</v>
       </c>
+      <c r="AL11" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM11" s="10" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
-        <v>45.652</v>
+        <v>55.652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,9 +2127,12 @@
         <f aca="false">AE12+AF12+AG12+AI12+AJ12+AH12</f>
         <v>10</v>
       </c>
+      <c r="AL12" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM12" s="10" t="n">
         <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
-        <v>37.59366666675</v>
+        <v>47.59366666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,9 +2348,12 @@
         <f aca="false">AE14+AF14+AG14+AI14+AJ14+AH14</f>
         <v>10</v>
       </c>
+      <c r="AL14" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM14" s="10" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
-        <v>43.09266666675</v>
+        <v>53.09266666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,9 +2460,12 @@
         <f aca="false">AE15+AF15+AG15+AI15+AJ15+AH15</f>
         <v>10</v>
       </c>
+      <c r="AL15" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM15" s="10" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
-        <v>41.101</v>
+        <v>51.101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,9 +2682,12 @@
         <f aca="false">AE17+AF17+AG17+AI17+AJ17+AH17</f>
         <v>10</v>
       </c>
+      <c r="AL17" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM17" s="10" t="n">
         <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
-        <v>41.152</v>
+        <v>51.152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,9 +2903,12 @@
         <f aca="false">AE19+AF19+AG19+AI19+AJ19+AH19</f>
         <v>10</v>
       </c>
+      <c r="AL19" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM19" s="10" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
-        <v>42.31766666675</v>
+        <v>52.31766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,9 +5954,12 @@
         <f aca="false">AE47+AF47+AG47+AI47+AJ47+AH47</f>
         <v>10</v>
       </c>
+      <c r="AL47" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>42.11866666675</v>
+        <v>52.11866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6470,9 +6498,12 @@
         <f aca="false">AE52+AF52+AG52+AI52+AJ52+AH52</f>
         <v>10</v>
       </c>
+      <c r="AL52" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="AM52" s="10" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
-        <v>35.24266666675</v>
+        <v>45.24266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,34 +781,34 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,6 +1035,7 @@
         <f aca="false">AE2+AF2+AG2+AI2+AJ2+AH2</f>
         <v>10</v>
       </c>
+      <c r="AL2" s="0"/>
       <c r="AM2" s="10" t="n">
         <f aca="false">AL2+AK2+AD2+AC2+AA2+M2+(N2/2)</f>
         <v>37.202</v>
@@ -1143,6 +1144,7 @@
         <f aca="false">AE3+AF3+AG3+AI3+AJ3+AH3</f>
         <v>10</v>
       </c>
+      <c r="AL3" s="0"/>
       <c r="AM3" s="10" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
         <v>37.23433333325</v>
@@ -1362,6 +1364,7 @@
         <f aca="false">AE5+AF5+AG5+AI5+AJ5+AH5</f>
         <v>10</v>
       </c>
+      <c r="AL5" s="0"/>
       <c r="AM5" s="10" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
         <v>38.33333333325</v>
@@ -1471,6 +1474,7 @@
         <f aca="false">AE6+AF6+AG6+AI6+AJ6+AH6</f>
         <v>0</v>
       </c>
+      <c r="AL6" s="0"/>
       <c r="AM6" s="10" t="n">
         <f aca="false">AL6+AK6+AD6+AC6+AA6+M6+(N6/2)</f>
         <v>28.89166666675</v>
@@ -1579,6 +1583,7 @@
         <f aca="false">AE7+AF7+AG7+AI7+AJ7+AH7</f>
         <v>10</v>
       </c>
+      <c r="AL7" s="0"/>
       <c r="AM7" s="10" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
         <v>41.54266666675</v>
@@ -1688,6 +1693,7 @@
         <f aca="false">AE8+AF8+AG8+AI8+AJ8+AH8</f>
         <v>10</v>
       </c>
+      <c r="AL8" s="0"/>
       <c r="AM8" s="10" t="n">
         <f aca="false">AL8+AK8+AD8+AC8+AA8+M8+(N8/2)</f>
         <v>45.302</v>
@@ -1797,6 +1803,7 @@
         <f aca="false">AE9+AF9+AG9+AI9+AJ9+AH9</f>
         <v>0</v>
       </c>
+      <c r="AL9" s="0"/>
       <c r="AM9" s="10" t="n">
         <f aca="false">AL9+AK9+AD9+AC9+AA9+M9+(N9/2)</f>
         <v>23.201</v>
@@ -2240,6 +2247,7 @@
         <f aca="false">AE13+AF13+AG13+AI13+AJ13+AH13</f>
         <v>10</v>
       </c>
+      <c r="AL13" s="0"/>
       <c r="AM13" s="10" t="n">
         <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
         <v>42.91866666675</v>
@@ -2573,6 +2581,7 @@
         <f aca="false">AE16+AF16+AG16+AI16+AJ16+AH16</f>
         <v>10</v>
       </c>
+      <c r="AL16" s="0"/>
       <c r="AM16" s="10" t="n">
         <f aca="false">AL16+AK16+AD16+AC16+AA16+M16+(N16/2)</f>
         <v>36.252</v>
@@ -2794,6 +2803,7 @@
         <f aca="false">AE18+AF18+AG18+AI18+AJ18+AH18</f>
         <v>10</v>
       </c>
+      <c r="AL18" s="0"/>
       <c r="AM18" s="10" t="n">
         <f aca="false">AL18+AK18+AD18+AC18+AA18+M18+(N18/2)</f>
         <v>25.202</v>
@@ -3015,6 +3025,7 @@
         <f aca="false">AE20+AF20+AG20+AI20+AJ20+AH20</f>
         <v>10</v>
       </c>
+      <c r="AL20" s="0"/>
       <c r="AM20" s="10" t="n">
         <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
         <v>37.927</v>
@@ -3124,6 +3135,7 @@
         <f aca="false">AE21+AF21+AG21+AI21+AJ21+AH21</f>
         <v>5</v>
       </c>
+      <c r="AL21" s="0"/>
       <c r="AM21" s="10" t="n">
         <f aca="false">AL21+AK21+AD21+AC21+AA21+M21+(N21/2)</f>
         <v>16.502</v>
@@ -3234,6 +3246,7 @@
         <f aca="false">AE22+AF22+AG22+AI22+AJ22+AH22</f>
         <v>10</v>
       </c>
+      <c r="AL22" s="0"/>
       <c r="AM22" s="10" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
         <v>43.226</v>
@@ -3344,6 +3357,7 @@
         <f aca="false">AE23+AF23+AG23+AI23+AJ23+AH23</f>
         <v>10</v>
       </c>
+      <c r="AL23" s="0"/>
       <c r="AM23" s="10" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
         <v>38.501</v>
@@ -3453,6 +3467,7 @@
         <f aca="false">AE24+AF24+AG24+AI24+AJ24+AH24</f>
         <v>10</v>
       </c>
+      <c r="AL24" s="0"/>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
         <v>40.626</v>
@@ -3562,6 +3577,7 @@
         <f aca="false">AE25+AF25+AG25+AI25+AJ25+AH25</f>
         <v>10</v>
       </c>
+      <c r="AL25" s="0"/>
       <c r="AM25" s="10" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
         <v>42.476</v>
@@ -3670,6 +3686,7 @@
         <f aca="false">AE26+AF26+AG26+AI26+AJ26+AH26</f>
         <v>10</v>
       </c>
+      <c r="AL26" s="0"/>
       <c r="AM26" s="10" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
         <v>43.44266666675</v>
@@ -3779,6 +3796,7 @@
         <f aca="false">AE27+AF27+AG27+AI27+AJ27+AH27</f>
         <v>10</v>
       </c>
+      <c r="AL27" s="0"/>
       <c r="AM27" s="10" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
         <v>44.151</v>
@@ -3888,6 +3906,7 @@
         <f aca="false">AE28+AF28+AG28+AI28+AJ28+AH28</f>
         <v>10</v>
       </c>
+      <c r="AL28" s="0"/>
       <c r="AM28" s="10" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
         <v>45.476</v>
@@ -3996,6 +4015,7 @@
         <f aca="false">AE29+AF29+AG29+AI29+AJ29+AH29</f>
         <v>10</v>
       </c>
+      <c r="AL29" s="0"/>
       <c r="AM29" s="10" t="n">
         <f aca="false">AL29+AK29+AD29+AC29+AA29+M29+(N29/2)</f>
         <v>40.08225</v>
@@ -4105,6 +4125,7 @@
         <f aca="false">AE30+AF30+AG30+AI30+AJ30+AH30</f>
         <v>0</v>
       </c>
+      <c r="AL30" s="0"/>
       <c r="AM30" s="10" t="n">
         <f aca="false">AL30+AK30+AD30+AC30+AA30+M30+(N30/2)</f>
         <v>7.602</v>
@@ -4214,6 +4235,7 @@
         <f aca="false">AE31+AF31+AG31+AI31+AJ31+AH31</f>
         <v>10</v>
       </c>
+      <c r="AL31" s="0"/>
       <c r="AM31" s="10" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
         <v>46.45</v>
@@ -4324,6 +4346,7 @@
         <f aca="false">AE32+AF32+AG32+AI32+AJ32+AH32</f>
         <v>10</v>
       </c>
+      <c r="AL32" s="0"/>
       <c r="AM32" s="10" t="n">
         <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
         <v>39.81033333325</v>
@@ -4432,6 +4455,7 @@
         <f aca="false">AE33+AF33+AG33+AI33+AJ33+AH33</f>
         <v>10</v>
       </c>
+      <c r="AL33" s="0"/>
       <c r="AM33" s="10" t="n">
         <f aca="false">AL33+AK33+AD33+AC33+AA33+M33+(N33/2)</f>
         <v>40.46766666675</v>
@@ -4541,6 +4565,7 @@
         <f aca="false">AE34+AF34+AG34+AI34+AJ34+AH34</f>
         <v>10</v>
       </c>
+      <c r="AL34" s="0"/>
       <c r="AM34" s="10" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
         <v>38.527</v>
@@ -4649,6 +4674,7 @@
         <f aca="false">AE35+AF35+AG35+AI35+AJ35+AH35</f>
         <v>10</v>
       </c>
+      <c r="AL35" s="0"/>
       <c r="AM35" s="10" t="n">
         <f aca="false">AL35+AK35+AD35+AC35+AA35+M35+(N35/2)</f>
         <v>36.576</v>
@@ -4758,6 +4784,7 @@
         <f aca="false">AE36+AF36+AG36+AI36+AJ36+AH36</f>
         <v>10</v>
       </c>
+      <c r="AL36" s="0"/>
       <c r="AM36" s="10" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
         <v>43.126</v>
@@ -4868,6 +4895,7 @@
         <f aca="false">AE37+AF37+AG37+AI37+AJ37+AH37</f>
         <v>10</v>
       </c>
+      <c r="AL37" s="0"/>
       <c r="AM37" s="10" t="n">
         <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
         <v>44.31766666675</v>
@@ -4977,6 +5005,7 @@
         <f aca="false">AE38+AF38+AG38+AI38+AJ38+AH38</f>
         <v>10</v>
       </c>
+      <c r="AL38" s="0"/>
       <c r="AM38" s="10" t="n">
         <f aca="false">AL38+AK38+AD38+AC38+AA38+M38+(N38/2)</f>
         <v>35.08016666675</v>
@@ -5086,6 +5115,7 @@
         <f aca="false">AE39+AF39+AG39+AI39+AJ39+AH39</f>
         <v>10</v>
       </c>
+      <c r="AL39" s="0"/>
       <c r="AM39" s="10" t="n">
         <f aca="false">AL39+AK39+AD39+AC39+AA39+M39+(N39/2)</f>
         <v>38.93016666675</v>
@@ -5195,6 +5225,7 @@
         <f aca="false">AE40+AF40+AG40+AI40+AJ40+AH40</f>
         <v>10</v>
       </c>
+      <c r="AL40" s="0"/>
       <c r="AM40" s="10" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
         <v>37.29366666675</v>
@@ -5304,6 +5335,7 @@
         <f aca="false">AE41+AF41+AG41+AI41+AJ41+AH41</f>
         <v>10</v>
       </c>
+      <c r="AL41" s="0"/>
       <c r="AM41" s="10" t="n">
         <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
         <v>37.502</v>
@@ -5413,6 +5445,7 @@
         <f aca="false">AE42+AF42+AG42+AI42+AJ42+AH42</f>
         <v>0</v>
       </c>
+      <c r="AL42" s="0"/>
       <c r="AM42" s="10" t="n">
         <f aca="false">AL42+AK42+AD42+AC42+AA42+M42+(N42/2)</f>
         <v>25.151</v>
@@ -5522,6 +5555,7 @@
         <f aca="false">AE43+AF43+AG43+AI43+AJ43+AH43</f>
         <v>10</v>
       </c>
+      <c r="AL43" s="0"/>
       <c r="AM43" s="10" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
         <v>41.976</v>
@@ -5630,6 +5664,7 @@
         <f aca="false">AE44+AF44+AG44+AI44+AJ44+AH44</f>
         <v>10</v>
       </c>
+      <c r="AL44" s="0"/>
       <c r="AM44" s="10" t="n">
         <f aca="false">AL44+AK44+AD44+AC44+AA44+M44+(N44/2)</f>
         <v>33.21766666675</v>
@@ -5738,6 +5773,7 @@
         <f aca="false">AE45+AF45+AG45+AI45+AJ45+AH45</f>
         <v>10</v>
       </c>
+      <c r="AL45" s="0"/>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
         <v>38.21766666675</v>
@@ -5846,6 +5882,7 @@
         <f aca="false">AE46+AF46+AG46+AI46+AJ46+AH46</f>
         <v>10</v>
       </c>
+      <c r="AL46" s="0"/>
       <c r="AM46" s="10" t="n">
         <f aca="false">AL46+AK46+AD46+AC46+AA46+M46+(N46/2)</f>
         <v>35.052</v>
@@ -6066,6 +6103,7 @@
         <f aca="false">AE48+AF48+AG48+AI48+AJ48+AH48</f>
         <v>10</v>
       </c>
+      <c r="AL48" s="0"/>
       <c r="AM48" s="10" t="n">
         <f aca="false">AL48+AK48+AD48+AC48+AA48+M48+(N48/2)</f>
         <v>36.28433333325</v>
@@ -6174,6 +6212,7 @@
         <f aca="false">AE49+AF49+AG49+AI49+AJ49+AH49</f>
         <v>10</v>
       </c>
+      <c r="AL49" s="0"/>
       <c r="AM49" s="10" t="n">
         <f aca="false">AL49+AK49+AD49+AC49+AA49+M49+(N49/2)</f>
         <v>22.152</v>
@@ -6282,6 +6321,7 @@
         <f aca="false">AE50+AF50+AG50+AI50+AJ50+AH50</f>
         <v>10</v>
       </c>
+      <c r="AL50" s="0"/>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
         <v>39.101</v>
@@ -6390,6 +6430,7 @@
         <f aca="false">AE51+AF51+AG51+AI51+AJ51+AH51</f>
         <v>10</v>
       </c>
+      <c r="AL51" s="0"/>
       <c r="AM51" s="10" t="n">
         <f aca="false">AL51+AK51+AD51+AC51+AA51+M51+(N51/2)</f>
         <v>31.277</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,34 +781,34 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,10 +3357,12 @@
         <f aca="false">AE23+AF23+AG23+AI23+AJ23+AH23</f>
         <v>10</v>
       </c>
-      <c r="AL23" s="0"/>
+      <c r="AL23" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="AM23" s="10" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
-        <v>38.501</v>
+        <v>48.501</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,10 +3469,12 @@
         <f aca="false">AE24+AF24+AG24+AI24+AJ24+AH24</f>
         <v>10</v>
       </c>
-      <c r="AL24" s="0"/>
+      <c r="AL24" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>40.626</v>
+        <v>50.626</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,10 +5777,12 @@
         <f aca="false">AE45+AF45+AG45+AI45+AJ45+AH45</f>
         <v>10</v>
       </c>
-      <c r="AL45" s="0"/>
+      <c r="AL45" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>38.21766666675</v>
+        <v>48.21766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,10 +6327,12 @@
         <f aca="false">AE50+AF50+AG50+AI50+AJ50+AH50</f>
         <v>10</v>
       </c>
-      <c r="AL50" s="0"/>
+      <c r="AL50" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>39.101</v>
+        <v>49.101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -781,34 +781,29 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL51" activeCellId="0" sqref="AL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="5" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="11" min="9" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="13" min="13" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="14" min="14" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="25" min="15" style="7" width="0"/>
+    <col collapsed="false" hidden="true" max="26" min="26" style="8" width="0"/>
+    <col collapsed="false" hidden="true" max="30" min="27" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="33" min="31" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="34" min="34" style="9" width="0"/>
+    <col collapsed="false" hidden="true" max="36" min="35" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="37" min="37" style="5" width="0"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,11 +3353,11 @@
         <v>10</v>
       </c>
       <c r="AL23" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM23" s="10" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
-        <v>48.501</v>
+        <v>46.501</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,11 +3465,11 @@
         <v>10</v>
       </c>
       <c r="AL24" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>50.626</v>
+        <v>48.626</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,11 +5773,11 @@
         <v>10</v>
       </c>
       <c r="AL45" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>48.21766666675</v>
+        <v>46.21766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,11 +6323,11 @@
         <v>10</v>
       </c>
       <c r="AL50" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>49.101</v>
+        <v>47.101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -781,29 +781,30 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL51" activeCellId="0" sqref="AL51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL19" activeCellId="0" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="11" min="9" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="12" min="12" style="4" width="0"/>
-    <col collapsed="false" hidden="true" max="13" min="13" style="5" width="0"/>
-    <col collapsed="false" hidden="true" max="14" min="14" style="6" width="0"/>
-    <col collapsed="false" hidden="true" max="25" min="15" style="7" width="0"/>
-    <col collapsed="false" hidden="true" max="26" min="26" style="8" width="0"/>
-    <col collapsed="false" hidden="true" max="30" min="27" style="5" width="0"/>
-    <col collapsed="false" hidden="true" max="33" min="31" style="6" width="0"/>
-    <col collapsed="false" hidden="true" max="34" min="34" style="9" width="0"/>
-    <col collapsed="false" hidden="true" max="36" min="35" style="6" width="0"/>
-    <col collapsed="false" hidden="true" max="37" min="37" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,15 +3393,15 @@
         <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="M24" s="5" t="n">
         <f aca="false">L24*10</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="N24" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -3469,7 +3470,7 @@
       </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>48.626</v>
+        <v>49.876</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,10 +4258,10 @@
         <v>5</v>
       </c>
       <c r="F32" s="16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32" s="16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" s="16" t="n">
         <v>5</v>
@@ -4276,11 +4277,11 @@
       </c>
       <c r="L32" s="4" t="n">
         <f aca="false">(SUM(B32:K32)-(SMALL(B32:K32,2)+SMALL(B32:K32,1)))/40</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M32" s="5" t="n">
         <f aca="false">L32*10</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N32" s="6" t="n">
         <f aca="false">0.5+2+0.5</f>
@@ -4348,7 +4349,7 @@
       <c r="AL32" s="0"/>
       <c r="AM32" s="10" t="n">
         <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
-        <v>39.81033333325</v>
+        <v>42.31033333325</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,15 +5263,15 @@
         <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="M41" s="5" t="n">
         <f aca="false">L41*10</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0</v>
@@ -5337,7 +5338,7 @@
       <c r="AL41" s="0"/>
       <c r="AM41" s="10" t="n">
         <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
-        <v>37.502</v>
+        <v>38.752</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,30 +781,31 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL19" activeCellId="0" sqref="AL19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="30" min="27" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="11" min="9" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="13" min="13" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="14" min="14" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="25" min="15" style="7" width="0"/>
+    <col collapsed="false" hidden="true" max="26" min="26" style="8" width="0"/>
+    <col collapsed="false" hidden="true" max="29" min="27" style="5" width="0"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,6 +1022,10 @@
         <f aca="false">(AB2/50)*15 + 1.302</f>
         <v>12.252</v>
       </c>
+      <c r="AD2" s="5" t="n">
+        <f aca="false">(28/30)*15</f>
+        <v>14</v>
+      </c>
       <c r="AE2" s="6" t="n">
         <v>5</v>
       </c>
@@ -1034,7 +1039,7 @@
       <c r="AL2" s="0"/>
       <c r="AM2" s="10" t="n">
         <f aca="false">AL2+AK2+AD2+AC2+AA2+M2+(N2/2)</f>
-        <v>37.202</v>
+        <v>51.202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,6 +1135,10 @@
         <f aca="false">(AB3/50)*15 + 1.302</f>
         <v>10.401</v>
       </c>
+      <c r="AD3" s="5" t="n">
+        <f aca="false">(23/30)*15</f>
+        <v>11.5</v>
+      </c>
       <c r="AE3" s="6" t="n">
         <v>5</v>
       </c>
@@ -1143,7 +1152,7 @@
       <c r="AL3" s="0"/>
       <c r="AM3" s="10" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
-        <v>37.23433333325</v>
+        <v>48.73433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,6 +1248,10 @@
         <f aca="false">(AB4/50)*15 + 1.302</f>
         <v>11.652</v>
       </c>
+      <c r="AD4" s="5" t="n">
+        <f aca="false">(29/30)*15</f>
+        <v>14.5</v>
+      </c>
       <c r="AE4" s="6" t="n">
         <v>5</v>
       </c>
@@ -1254,7 +1267,7 @@
       </c>
       <c r="AM4" s="10" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
-        <v>52.352</v>
+        <v>66.852</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,6 +1363,10 @@
         <f aca="false">(AB5/50)*15 + 1.302</f>
         <v>11.25</v>
       </c>
+      <c r="AD5" s="5" t="n">
+        <f aca="false">(23/30)*15</f>
+        <v>11.5</v>
+      </c>
       <c r="AE5" s="6" t="n">
         <v>5</v>
       </c>
@@ -1363,7 +1380,7 @@
       <c r="AL5" s="0"/>
       <c r="AM5" s="10" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
-        <v>38.33333333325</v>
+        <v>49.83333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,6 +1477,10 @@
         <f aca="false">(AB6/50)*15 + 1.302</f>
         <v>12.6</v>
       </c>
+      <c r="AD6" s="5" t="n">
+        <f aca="false">(28/30)*15</f>
+        <v>14</v>
+      </c>
       <c r="AE6" s="6" t="n">
         <v>0</v>
       </c>
@@ -1473,7 +1494,7 @@
       <c r="AL6" s="0"/>
       <c r="AM6" s="10" t="n">
         <f aca="false">AL6+AK6+AD6+AC6+AA6+M6+(N6/2)</f>
-        <v>28.89166666675</v>
+        <v>42.89166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,6 +1590,10 @@
         <f aca="false">(AB7/50)*15 + 1.302</f>
         <v>12.501</v>
       </c>
+      <c r="AD7" s="5" t="n">
+        <f aca="false">(27/30)*15</f>
+        <v>13.5</v>
+      </c>
       <c r="AE7" s="6" t="n">
         <v>5</v>
       </c>
@@ -1582,7 +1607,7 @@
       <c r="AL7" s="0"/>
       <c r="AM7" s="10" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
-        <v>41.54266666675</v>
+        <v>55.04266666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,6 +1923,10 @@
         <f aca="false">(AB10/50)*15 + 1.302</f>
         <v>14.751</v>
       </c>
+      <c r="AD10" s="5" t="n">
+        <f aca="false">(28/30)*15</f>
+        <v>14</v>
+      </c>
       <c r="AE10" s="6" t="n">
         <v>5</v>
       </c>
@@ -1913,7 +1942,7 @@
       </c>
       <c r="AM10" s="10" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
-        <v>55.426</v>
+        <v>69.426</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,6 +2038,10 @@
         <f aca="false">(AB11/50)*15 + 1.302</f>
         <v>14.652</v>
       </c>
+      <c r="AD11" s="5" t="n">
+        <f aca="false">(25/30)*15</f>
+        <v>12.5</v>
+      </c>
       <c r="AE11" s="6" t="n">
         <v>5</v>
       </c>
@@ -2024,7 +2057,7 @@
       </c>
       <c r="AM11" s="10" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
-        <v>55.652</v>
+        <v>68.152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,6 +2153,10 @@
         <f aca="false">(AB12/50)*15 + 1.302</f>
         <v>10.302</v>
       </c>
+      <c r="AD12" s="5" t="n">
+        <f aca="false">(25/30)*15</f>
+        <v>12.5</v>
+      </c>
       <c r="AE12" s="6" t="n">
         <v>5</v>
       </c>
@@ -2135,7 +2172,7 @@
       </c>
       <c r="AM12" s="10" t="n">
         <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
-        <v>47.59366666675</v>
+        <v>60.09366666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,6 +2270,10 @@
         <f aca="false">(AB13/50)*15 + 1.302</f>
         <v>13.452</v>
       </c>
+      <c r="AD13" s="5" t="n">
+        <f aca="false">(27/30)*15</f>
+        <v>13.5</v>
+      </c>
       <c r="AE13" s="6" t="n">
         <v>5</v>
       </c>
@@ -2246,7 +2287,7 @@
       <c r="AL13" s="0"/>
       <c r="AM13" s="10" t="n">
         <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
-        <v>42.91866666675</v>
+        <v>56.41866666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,6 +2383,10 @@
         <f aca="false">(AB14/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
+      <c r="AD14" s="5" t="n">
+        <f aca="false">(28/30)*15</f>
+        <v>14</v>
+      </c>
       <c r="AE14" s="6" t="n">
         <v>5</v>
       </c>
@@ -2357,7 +2402,7 @@
       </c>
       <c r="AM14" s="10" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
-        <v>53.09266666675</v>
+        <v>67.09266666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,6 +2499,10 @@
         <f aca="false">(AB15/50)*15 + 1.302</f>
         <v>10.851</v>
       </c>
+      <c r="AD15" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE15" s="6" t="n">
         <v>5</v>
       </c>
@@ -2469,7 +2518,7 @@
       </c>
       <c r="AM15" s="10" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
-        <v>51.101</v>
+        <v>64.101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,6 +2616,10 @@
         <f aca="false">(AB16/50)*15 + 1.302</f>
         <v>11.202</v>
       </c>
+      <c r="AD16" s="5" t="n">
+        <f aca="false">(14/30)*15</f>
+        <v>7</v>
+      </c>
       <c r="AE16" s="6" t="n">
         <v>5</v>
       </c>
@@ -2580,7 +2633,7 @@
       <c r="AL16" s="0"/>
       <c r="AM16" s="10" t="n">
         <f aca="false">AL16+AK16+AD16+AC16+AA16+M16+(N16/2)</f>
-        <v>36.252</v>
+        <v>43.252</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,6 +2730,10 @@
         <f aca="false">(AB17/50)*15 + 1.302</f>
         <v>10.902</v>
       </c>
+      <c r="AD17" s="5" t="n">
+        <f aca="false">(25/30)*15</f>
+        <v>12.5</v>
+      </c>
       <c r="AE17" s="6" t="n">
         <v>5</v>
       </c>
@@ -2692,7 +2749,7 @@
       </c>
       <c r="AM17" s="10" t="n">
         <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
-        <v>51.152</v>
+        <v>63.652</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,6 +2956,10 @@
         <f aca="false">(AB19/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
+      <c r="AD19" s="5" t="n">
+        <f aca="false">(27/30)*15</f>
+        <v>13.5</v>
+      </c>
       <c r="AE19" s="6" t="n">
         <v>5</v>
       </c>
@@ -2914,7 +2975,7 @@
       </c>
       <c r="AM19" s="10" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
-        <v>52.31766666675</v>
+        <v>65.81766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,6 +3072,10 @@
         <f aca="false">(AB20/50)*15 + 1.302</f>
         <v>8.652</v>
       </c>
+      <c r="AD20" s="5" t="n">
+        <f aca="false">(28/30)*15</f>
+        <v>14</v>
+      </c>
       <c r="AE20" s="6" t="n">
         <v>5</v>
       </c>
@@ -3024,7 +3089,7 @@
       <c r="AL20" s="0"/>
       <c r="AM20" s="10" t="n">
         <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
-        <v>37.927</v>
+        <v>51.927</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,6 +3297,10 @@
         <f aca="false">(AB22/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
+      <c r="AD22" s="5" t="n">
+        <f aca="false">(25/30)*15</f>
+        <v>12.5</v>
+      </c>
       <c r="AE22" s="6" t="n">
         <v>5</v>
       </c>
@@ -3245,7 +3314,7 @@
       <c r="AL22" s="0"/>
       <c r="AM22" s="10" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
-        <v>43.226</v>
+        <v>55.726</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,6 +3412,10 @@
         <f aca="false">(AB23/50)*15 + 1.302</f>
         <v>11.001</v>
       </c>
+      <c r="AD23" s="5" t="n">
+        <f aca="false">(28/30)*15</f>
+        <v>14</v>
+      </c>
       <c r="AE23" s="6" t="n">
         <v>5</v>
       </c>
@@ -3358,7 +3431,7 @@
       </c>
       <c r="AM23" s="10" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
-        <v>46.501</v>
+        <v>60.501</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,6 +3528,10 @@
         <f aca="false">(AB24/50)*15 + 1.302</f>
         <v>12.801</v>
       </c>
+      <c r="AD24" s="5" t="n">
+        <f aca="false">(28/30)*15</f>
+        <v>14</v>
+      </c>
       <c r="AE24" s="6" t="n">
         <v>5</v>
       </c>
@@ -3470,7 +3547,7 @@
       </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>49.876</v>
+        <v>63.876</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,6 +3644,10 @@
         <f aca="false">(AB25/50)*15 + 1.302</f>
         <v>12.351</v>
       </c>
+      <c r="AD25" s="5" t="n">
+        <f aca="false">(24/30)*15</f>
+        <v>12</v>
+      </c>
       <c r="AE25" s="6" t="n">
         <v>5</v>
       </c>
@@ -3580,7 +3661,7 @@
       <c r="AL25" s="0"/>
       <c r="AM25" s="10" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
-        <v>42.476</v>
+        <v>54.476</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,6 +3757,10 @@
         <f aca="false">(AB26/50)*15 + 1.302</f>
         <v>13.701</v>
       </c>
+      <c r="AD26" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE26" s="6" t="n">
         <v>5</v>
       </c>
@@ -3689,7 +3774,7 @@
       <c r="AL26" s="0"/>
       <c r="AM26" s="10" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
-        <v>43.44266666675</v>
+        <v>56.44266666675</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,6 +3871,10 @@
         <f aca="false">(AB27/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
+      <c r="AD27" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE27" s="6" t="n">
         <v>5</v>
       </c>
@@ -3799,7 +3888,7 @@
       <c r="AL27" s="0"/>
       <c r="AM27" s="10" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
-        <v>44.151</v>
+        <v>57.151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,6 +3985,10 @@
         <f aca="false">(AB28/50)*15 + 1.302</f>
         <v>13.851</v>
       </c>
+      <c r="AD28" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE28" s="6" t="n">
         <v>5</v>
       </c>
@@ -3909,7 +4002,7 @@
       <c r="AL28" s="0"/>
       <c r="AM28" s="10" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
-        <v>45.476</v>
+        <v>58.476</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,6 +4098,10 @@
         <f aca="false">(AB29/50)*15 + 1.302</f>
         <v>12.951</v>
       </c>
+      <c r="AD29" s="5" t="n">
+        <f aca="false">(23/30)*15</f>
+        <v>11.5</v>
+      </c>
       <c r="AE29" s="6" t="n">
         <v>5</v>
       </c>
@@ -4018,7 +4115,7 @@
       <c r="AL29" s="0"/>
       <c r="AM29" s="10" t="n">
         <f aca="false">AL29+AK29+AD29+AC29+AA29+M29+(N29/2)</f>
-        <v>40.08225</v>
+        <v>51.58225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,6 +4322,10 @@
         <f aca="false">(AB31/50)*15 + 1.302</f>
         <v>15</v>
       </c>
+      <c r="AD31" s="5" t="n">
+        <f aca="false">(23/30)*15</f>
+        <v>11.5</v>
+      </c>
       <c r="AE31" s="6" t="n">
         <v>5</v>
       </c>
@@ -4238,7 +4339,7 @@
       <c r="AL31" s="0"/>
       <c r="AM31" s="10" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
-        <v>46.45</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,6 +4437,10 @@
         <f aca="false">(AB32/50)*15 + 1.302</f>
         <v>13.602</v>
       </c>
+      <c r="AD32" s="5" t="n">
+        <f aca="false">(25/30)*15</f>
+        <v>12.5</v>
+      </c>
       <c r="AE32" s="6" t="n">
         <v>5</v>
       </c>
@@ -4349,7 +4454,7 @@
       <c r="AL32" s="0"/>
       <c r="AM32" s="10" t="n">
         <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
-        <v>42.31033333325</v>
+        <v>54.81033333325</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,6 +4550,10 @@
         <f aca="false">(AB33/50)*15 + 1.302</f>
         <v>13.401</v>
       </c>
+      <c r="AD33" s="5" t="n">
+        <f aca="false">(27/30)*15</f>
+        <v>13.5</v>
+      </c>
       <c r="AE33" s="6" t="n">
         <v>5</v>
       </c>
@@ -4458,7 +4567,7 @@
       <c r="AL33" s="0"/>
       <c r="AM33" s="10" t="n">
         <f aca="false">AL33+AK33+AD33+AC33+AA33+M33+(N33/2)</f>
-        <v>40.46766666675</v>
+        <v>53.96766666675</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,6 +4664,10 @@
         <f aca="false">(AB34/50)*15 + 1.302</f>
         <v>10.902</v>
       </c>
+      <c r="AD34" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE34" s="6" t="n">
         <v>5</v>
       </c>
@@ -4568,7 +4681,7 @@
       <c r="AL34" s="0"/>
       <c r="AM34" s="10" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
-        <v>38.527</v>
+        <v>51.527</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4774,6 +4887,10 @@
         <f aca="false">(AB36/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
+      <c r="AD36" s="5" t="n">
+        <f aca="false">(27/30)*15</f>
+        <v>13.5</v>
+      </c>
       <c r="AE36" s="6" t="n">
         <v>5</v>
       </c>
@@ -4787,7 +4904,7 @@
       <c r="AL36" s="0"/>
       <c r="AM36" s="10" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
-        <v>43.126</v>
+        <v>56.626</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,6 +5002,10 @@
         <f aca="false">(AB37/50)*15 + 1.302</f>
         <v>13.401</v>
       </c>
+      <c r="AD37" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE37" s="6" t="n">
         <v>5</v>
       </c>
@@ -4898,7 +5019,7 @@
       <c r="AL37" s="0"/>
       <c r="AM37" s="10" t="n">
         <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
-        <v>44.31766666675</v>
+        <v>57.31766666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,6 +5116,10 @@
         <f aca="false">(AB38/50)*15 + 1.302</f>
         <v>10.551</v>
       </c>
+      <c r="AD38" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE38" s="6" t="n">
         <v>5</v>
       </c>
@@ -5008,7 +5133,7 @@
       <c r="AL38" s="0"/>
       <c r="AM38" s="10" t="n">
         <f aca="false">AL38+AK38+AD38+AC38+AA38+M38+(N38/2)</f>
-        <v>35.08016666675</v>
+        <v>48.08016666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,6 +5230,10 @@
         <f aca="false">(AB39/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
+      <c r="AD39" s="5" t="n">
+        <f aca="false">(25/30)*15</f>
+        <v>12.5</v>
+      </c>
       <c r="AE39" s="6" t="n">
         <v>5</v>
       </c>
@@ -5118,7 +5247,7 @@
       <c r="AL39" s="0"/>
       <c r="AM39" s="10" t="n">
         <f aca="false">AL39+AK39+AD39+AC39+AA39+M39+(N39/2)</f>
-        <v>38.93016666675</v>
+        <v>51.43016666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,6 +5344,10 @@
         <f aca="false">(AB40/50)*15 + 1.302</f>
         <v>11.502</v>
       </c>
+      <c r="AD40" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE40" s="6" t="n">
         <v>5</v>
       </c>
@@ -5228,7 +5361,7 @@
       <c r="AL40" s="0"/>
       <c r="AM40" s="10" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
-        <v>37.29366666675</v>
+        <v>50.29366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,6 +5458,10 @@
         <f aca="false">(AB41/50)*15 + 1.302</f>
         <v>14.202</v>
       </c>
+      <c r="AD41" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE41" s="6" t="n">
         <v>5</v>
       </c>
@@ -5338,7 +5475,7 @@
       <c r="AL41" s="0"/>
       <c r="AM41" s="10" t="n">
         <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
-        <v>38.752</v>
+        <v>51.752</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,6 +5682,10 @@
         <f aca="false">(AB43/50)*15 + 1.302</f>
         <v>12.351</v>
       </c>
+      <c r="AD43" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE43" s="6" t="n">
         <v>5</v>
       </c>
@@ -5558,7 +5699,7 @@
       <c r="AL43" s="0"/>
       <c r="AM43" s="10" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
-        <v>41.976</v>
+        <v>54.976</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,6 +5795,10 @@
         <f aca="false">(AB44/50)*15 + 1.302</f>
         <v>8.451</v>
       </c>
+      <c r="AD44" s="5" t="n">
+        <f aca="false">(23/30)*15</f>
+        <v>11.5</v>
+      </c>
       <c r="AE44" s="6" t="n">
         <v>5</v>
       </c>
@@ -5667,7 +5812,7 @@
       <c r="AL44" s="0"/>
       <c r="AM44" s="10" t="n">
         <f aca="false">AL44+AK44+AD44+AC44+AA44+M44+(N44/2)</f>
-        <v>33.21766666675</v>
+        <v>44.71766666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,6 +5908,10 @@
         <f aca="false">(AB45/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
+      <c r="AD45" s="5" t="n">
+        <f aca="false">(19/30)*15</f>
+        <v>9.5</v>
+      </c>
       <c r="AE45" s="6" t="n">
         <v>5</v>
       </c>
@@ -5778,7 +5927,7 @@
       </c>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>46.21766666675</v>
+        <v>55.71766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,6 +6132,10 @@
         <f aca="false">(AB47/50)*15 + 1.302</f>
         <v>11.952</v>
       </c>
+      <c r="AD47" s="5" t="n">
+        <f aca="false">(28/30)*15</f>
+        <v>14</v>
+      </c>
       <c r="AE47" s="6" t="n">
         <v>5</v>
       </c>
@@ -5998,7 +6151,7 @@
       </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>52.11866666675</v>
+        <v>66.11866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6095,6 +6248,10 @@
         <f aca="false">(AB48/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
+      <c r="AD48" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE48" s="6" t="n">
         <v>5</v>
       </c>
@@ -6108,7 +6265,7 @@
       <c r="AL48" s="0"/>
       <c r="AM48" s="10" t="n">
         <f aca="false">AL48+AK48+AD48+AC48+AA48+M48+(N48/2)</f>
-        <v>36.28433333325</v>
+        <v>49.28433333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,6 +6470,10 @@
         <f aca="false">(AB50/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
+      <c r="AD50" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE50" s="6" t="n">
         <v>5</v>
       </c>
@@ -6328,7 +6489,7 @@
       </c>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>47.101</v>
+        <v>60.101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,6 +6585,10 @@
         <f aca="false">(AB51/50)*15 + 1.302</f>
         <v>13.152</v>
       </c>
+      <c r="AD51" s="5" t="n">
+        <f aca="false">(24/30)*15</f>
+        <v>12</v>
+      </c>
       <c r="AE51" s="6" t="n">
         <v>5</v>
       </c>
@@ -6437,7 +6602,7 @@
       <c r="AL51" s="0"/>
       <c r="AM51" s="10" t="n">
         <f aca="false">AL51+AK51+AD51+AC51+AA51+M51+(N51/2)</f>
-        <v>31.277</v>
+        <v>43.277</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,6 +6698,10 @@
         <f aca="false">(AB52/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
+      <c r="AD52" s="5" t="n">
+        <f aca="false">(26/30)*15</f>
+        <v>13</v>
+      </c>
       <c r="AE52" s="6" t="n">
         <v>5</v>
       </c>
@@ -6548,7 +6717,7 @@
       </c>
       <c r="AM52" s="10" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
-        <v>45.24266666675</v>
+        <v>58.24266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -782,12 +782,12 @@
   <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="topLeft" activeCell="AD7" activeCellId="0" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3010204081633"/>
     <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
     <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="11" min="9" style="2" width="0"/>
@@ -797,15 +797,14 @@
     <col collapsed="false" hidden="true" max="25" min="15" style="7" width="0"/>
     <col collapsed="false" hidden="true" max="26" min="26" style="8" width="0"/>
     <col collapsed="false" hidden="true" max="29" min="27" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,8 +1022,8 @@
         <v>12.252</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <f aca="false">(28/30)*15</f>
-        <v>14</v>
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
       </c>
       <c r="AE2" s="6" t="n">
         <v>5</v>
@@ -1039,7 +1038,7 @@
       <c r="AL2" s="0"/>
       <c r="AM2" s="10" t="n">
         <f aca="false">AL2+AK2+AD2+AC2+AA2+M2+(N2/2)</f>
-        <v>51.202</v>
+        <v>51.702</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,8 +1135,8 @@
         <v>10.401</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <f aca="false">(23/30)*15</f>
-        <v>11.5</v>
+        <f aca="false">(23/30)*15 + 0.5</f>
+        <v>12</v>
       </c>
       <c r="AE3" s="6" t="n">
         <v>5</v>
@@ -1152,7 +1151,7 @@
       <c r="AL3" s="0"/>
       <c r="AM3" s="10" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
-        <v>48.73433333325</v>
+        <v>49.23433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,8 +1248,8 @@
         <v>11.652</v>
       </c>
       <c r="AD4" s="5" t="n">
-        <f aca="false">(29/30)*15</f>
-        <v>14.5</v>
+        <f aca="false">(29/30)*15  + 0.5</f>
+        <v>15</v>
       </c>
       <c r="AE4" s="6" t="n">
         <v>5</v>
@@ -1267,7 +1266,7 @@
       </c>
       <c r="AM4" s="10" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
-        <v>66.852</v>
+        <v>67.352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,8 +1363,8 @@
         <v>11.25</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <f aca="false">(23/30)*15</f>
-        <v>11.5</v>
+        <f aca="false">(23/30)*15  + 0.5</f>
+        <v>12</v>
       </c>
       <c r="AE5" s="6" t="n">
         <v>5</v>
@@ -1380,7 +1379,7 @@
       <c r="AL5" s="0"/>
       <c r="AM5" s="10" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
-        <v>49.83333333325</v>
+        <v>50.33333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,8 +1477,8 @@
         <v>12.6</v>
       </c>
       <c r="AD6" s="5" t="n">
-        <f aca="false">(28/30)*15</f>
-        <v>14</v>
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
       </c>
       <c r="AE6" s="6" t="n">
         <v>0</v>
@@ -1494,7 +1493,7 @@
       <c r="AL6" s="0"/>
       <c r="AM6" s="10" t="n">
         <f aca="false">AL6+AK6+AD6+AC6+AA6+M6+(N6/2)</f>
-        <v>42.89166666675</v>
+        <v>43.39166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,8 +1590,8 @@
         <v>12.501</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <f aca="false">(27/30)*15</f>
-        <v>13.5</v>
+        <f aca="false">(27/30)*15 + 0.5</f>
+        <v>14</v>
       </c>
       <c r="AE7" s="6" t="n">
         <v>5</v>
@@ -1607,7 +1606,7 @@
       <c r="AL7" s="0"/>
       <c r="AM7" s="10" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
-        <v>55.04266666675</v>
+        <v>55.54266666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,6 +1703,7 @@
         <f aca="false">(AB8/50)*15 + 1.302</f>
         <v>14.652</v>
       </c>
+      <c r="AD8" s="0"/>
       <c r="AE8" s="6" t="n">
         <v>5</v>
       </c>
@@ -1814,6 +1814,7 @@
         <f aca="false">(AB9/50)*15 + 1.302</f>
         <v>12.051</v>
       </c>
+      <c r="AD9" s="0"/>
       <c r="AE9" s="6" t="n">
         <v>0</v>
       </c>
@@ -1924,8 +1925,8 @@
         <v>14.751</v>
       </c>
       <c r="AD10" s="5" t="n">
-        <f aca="false">(28/30)*15</f>
-        <v>14</v>
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
       </c>
       <c r="AE10" s="6" t="n">
         <v>5</v>
@@ -1942,7 +1943,7 @@
       </c>
       <c r="AM10" s="10" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
-        <v>69.426</v>
+        <v>69.926</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,8 +2040,8 @@
         <v>14.652</v>
       </c>
       <c r="AD11" s="5" t="n">
-        <f aca="false">(25/30)*15</f>
-        <v>12.5</v>
+        <f aca="false">(25/30)*15 + 0.5</f>
+        <v>13</v>
       </c>
       <c r="AE11" s="6" t="n">
         <v>5</v>
@@ -2057,7 +2058,7 @@
       </c>
       <c r="AM11" s="10" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
-        <v>68.152</v>
+        <v>68.652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,8 +2155,8 @@
         <v>10.302</v>
       </c>
       <c r="AD12" s="5" t="n">
-        <f aca="false">(25/30)*15</f>
-        <v>12.5</v>
+        <f aca="false">(25/30)*15 + 0.5</f>
+        <v>13</v>
       </c>
       <c r="AE12" s="6" t="n">
         <v>5</v>
@@ -2172,7 +2173,7 @@
       </c>
       <c r="AM12" s="10" t="n">
         <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
-        <v>60.09366666675</v>
+        <v>60.59366666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,8 +2272,8 @@
         <v>13.452</v>
       </c>
       <c r="AD13" s="5" t="n">
-        <f aca="false">(27/30)*15</f>
-        <v>13.5</v>
+        <f aca="false">(27/30)*15 + 0.5</f>
+        <v>14</v>
       </c>
       <c r="AE13" s="6" t="n">
         <v>5</v>
@@ -2287,7 +2288,7 @@
       <c r="AL13" s="0"/>
       <c r="AM13" s="10" t="n">
         <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
-        <v>56.41866666675</v>
+        <v>56.91866666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,8 +2385,8 @@
         <v>11.751</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <f aca="false">(28/30)*15</f>
-        <v>14</v>
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
       </c>
       <c r="AE14" s="6" t="n">
         <v>5</v>
@@ -2402,7 +2403,7 @@
       </c>
       <c r="AM14" s="10" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
-        <v>67.09266666675</v>
+        <v>67.59266666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,8 +2501,8 @@
         <v>10.851</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE15" s="6" t="n">
         <v>5</v>
@@ -2518,7 +2519,7 @@
       </c>
       <c r="AM15" s="10" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
-        <v>64.101</v>
+        <v>64.601</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,8 +2618,8 @@
         <v>11.202</v>
       </c>
       <c r="AD16" s="5" t="n">
-        <f aca="false">(14/30)*15</f>
-        <v>7</v>
+        <f aca="false">(14/30)*15 + 0.5</f>
+        <v>7.5</v>
       </c>
       <c r="AE16" s="6" t="n">
         <v>5</v>
@@ -2633,7 +2634,7 @@
       <c r="AL16" s="0"/>
       <c r="AM16" s="10" t="n">
         <f aca="false">AL16+AK16+AD16+AC16+AA16+M16+(N16/2)</f>
-        <v>43.252</v>
+        <v>43.752</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,8 +2732,8 @@
         <v>10.902</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <f aca="false">(25/30)*15</f>
-        <v>12.5</v>
+        <f aca="false">(25/30)*15 + 0.5</f>
+        <v>13</v>
       </c>
       <c r="AE17" s="6" t="n">
         <v>5</v>
@@ -2749,7 +2750,7 @@
       </c>
       <c r="AM17" s="10" t="n">
         <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
-        <v>63.652</v>
+        <v>64.152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,6 +2847,7 @@
         <f aca="false">(AB18/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
+      <c r="AD18" s="0"/>
       <c r="AE18" s="6" t="n">
         <v>5</v>
       </c>
@@ -2957,8 +2959,8 @@
         <v>12.651</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <f aca="false">(27/30)*15</f>
-        <v>13.5</v>
+        <f aca="false">(27/30)*15 + 0.5</f>
+        <v>14</v>
       </c>
       <c r="AE19" s="6" t="n">
         <v>5</v>
@@ -2975,7 +2977,7 @@
       </c>
       <c r="AM19" s="10" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
-        <v>65.81766666675</v>
+        <v>66.31766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,8 +3075,8 @@
         <v>8.652</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <f aca="false">(28/30)*15</f>
-        <v>14</v>
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
       </c>
       <c r="AE20" s="6" t="n">
         <v>5</v>
@@ -3089,7 +3091,7 @@
       <c r="AL20" s="0"/>
       <c r="AM20" s="10" t="n">
         <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
-        <v>51.927</v>
+        <v>52.427</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,6 +3188,7 @@
         <f aca="false">(AB21/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
+      <c r="AD21" s="0"/>
       <c r="AE21" s="6" t="n">
         <v>5</v>
       </c>
@@ -3298,8 +3301,8 @@
         <v>11.601</v>
       </c>
       <c r="AD22" s="5" t="n">
-        <f aca="false">(25/30)*15</f>
-        <v>12.5</v>
+        <f aca="false">(25/30)*15 + 0.5</f>
+        <v>13</v>
       </c>
       <c r="AE22" s="6" t="n">
         <v>5</v>
@@ -3314,7 +3317,7 @@
       <c r="AL22" s="0"/>
       <c r="AM22" s="10" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
-        <v>55.726</v>
+        <v>56.226</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,8 +3416,8 @@
         <v>11.001</v>
       </c>
       <c r="AD23" s="5" t="n">
-        <f aca="false">(28/30)*15</f>
-        <v>14</v>
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
       </c>
       <c r="AE23" s="6" t="n">
         <v>5</v>
@@ -3431,7 +3434,7 @@
       </c>
       <c r="AM23" s="10" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
-        <v>60.501</v>
+        <v>61.001</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,8 +3532,8 @@
         <v>12.801</v>
       </c>
       <c r="AD24" s="5" t="n">
-        <f aca="false">(28/30)*15</f>
-        <v>14</v>
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
       </c>
       <c r="AE24" s="6" t="n">
         <v>5</v>
@@ -3547,7 +3550,7 @@
       </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>63.876</v>
+        <v>64.376</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,8 +3648,8 @@
         <v>12.351</v>
       </c>
       <c r="AD25" s="5" t="n">
-        <f aca="false">(24/30)*15</f>
-        <v>12</v>
+        <f aca="false">(24/30)*15 + 0.5</f>
+        <v>12.5</v>
       </c>
       <c r="AE25" s="6" t="n">
         <v>5</v>
@@ -3661,7 +3664,7 @@
       <c r="AL25" s="0"/>
       <c r="AM25" s="10" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
-        <v>54.476</v>
+        <v>54.976</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,8 +3761,8 @@
         <v>13.701</v>
       </c>
       <c r="AD26" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE26" s="6" t="n">
         <v>5</v>
@@ -3774,7 +3777,7 @@
       <c r="AL26" s="0"/>
       <c r="AM26" s="10" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
-        <v>56.44266666675</v>
+        <v>56.94266666675</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,8 +3875,8 @@
         <v>12.651</v>
       </c>
       <c r="AD27" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE27" s="6" t="n">
         <v>5</v>
@@ -3888,7 +3891,7 @@
       <c r="AL27" s="0"/>
       <c r="AM27" s="10" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
-        <v>57.151</v>
+        <v>57.651</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,8 +3989,8 @@
         <v>13.851</v>
       </c>
       <c r="AD28" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE28" s="6" t="n">
         <v>5</v>
@@ -4002,7 +4005,7 @@
       <c r="AL28" s="0"/>
       <c r="AM28" s="10" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
-        <v>58.476</v>
+        <v>58.976</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,8 +4102,8 @@
         <v>12.951</v>
       </c>
       <c r="AD29" s="5" t="n">
-        <f aca="false">(23/30)*15</f>
-        <v>11.5</v>
+        <f aca="false">(23/30)*15 + 0.5</f>
+        <v>12</v>
       </c>
       <c r="AE29" s="6" t="n">
         <v>5</v>
@@ -4115,7 +4118,7 @@
       <c r="AL29" s="0"/>
       <c r="AM29" s="10" t="n">
         <f aca="false">AL29+AK29+AD29+AC29+AA29+M29+(N29/2)</f>
-        <v>51.58225</v>
+        <v>52.08225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,6 +4215,7 @@
         <f aca="false">(AB30/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
+      <c r="AD30" s="0"/>
       <c r="AE30" s="6" t="n">
         <v>0</v>
       </c>
@@ -4323,8 +4327,8 @@
         <v>15</v>
       </c>
       <c r="AD31" s="5" t="n">
-        <f aca="false">(23/30)*15</f>
-        <v>11.5</v>
+        <f aca="false">(23/30)*15 + 0.5</f>
+        <v>12</v>
       </c>
       <c r="AE31" s="6" t="n">
         <v>5</v>
@@ -4339,7 +4343,7 @@
       <c r="AL31" s="0"/>
       <c r="AM31" s="10" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
-        <v>57.95</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,8 +4442,8 @@
         <v>13.602</v>
       </c>
       <c r="AD32" s="5" t="n">
-        <f aca="false">(25/30)*15</f>
-        <v>12.5</v>
+        <f aca="false">(25/30)*15 + 0.5</f>
+        <v>13</v>
       </c>
       <c r="AE32" s="6" t="n">
         <v>5</v>
@@ -4454,7 +4458,7 @@
       <c r="AL32" s="0"/>
       <c r="AM32" s="10" t="n">
         <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
-        <v>54.81033333325</v>
+        <v>55.31033333325</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,8 +4555,8 @@
         <v>13.401</v>
       </c>
       <c r="AD33" s="5" t="n">
-        <f aca="false">(27/30)*15</f>
-        <v>13.5</v>
+        <f aca="false">(27/30)*15 + 0.5</f>
+        <v>14</v>
       </c>
       <c r="AE33" s="6" t="n">
         <v>5</v>
@@ -4567,7 +4571,7 @@
       <c r="AL33" s="0"/>
       <c r="AM33" s="10" t="n">
         <f aca="false">AL33+AK33+AD33+AC33+AA33+M33+(N33/2)</f>
-        <v>53.96766666675</v>
+        <v>54.46766666675</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,8 +4669,8 @@
         <v>10.902</v>
       </c>
       <c r="AD34" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE34" s="6" t="n">
         <v>5</v>
@@ -4681,7 +4685,7 @@
       <c r="AL34" s="0"/>
       <c r="AM34" s="10" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
-        <v>51.527</v>
+        <v>52.027</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,6 +4781,7 @@
         <f aca="false">(AB35/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
+      <c r="AD35" s="0"/>
       <c r="AE35" s="6" t="n">
         <v>5</v>
       </c>
@@ -4888,8 +4893,8 @@
         <v>11.751</v>
       </c>
       <c r="AD36" s="5" t="n">
-        <f aca="false">(27/30)*15</f>
-        <v>13.5</v>
+        <f aca="false">(27/30)*15 + 0.5</f>
+        <v>14</v>
       </c>
       <c r="AE36" s="6" t="n">
         <v>5</v>
@@ -4904,7 +4909,7 @@
       <c r="AL36" s="0"/>
       <c r="AM36" s="10" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
-        <v>56.626</v>
+        <v>57.126</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,8 +5008,8 @@
         <v>13.401</v>
       </c>
       <c r="AD37" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE37" s="6" t="n">
         <v>5</v>
@@ -5019,7 +5024,7 @@
       <c r="AL37" s="0"/>
       <c r="AM37" s="10" t="n">
         <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
-        <v>57.31766666675</v>
+        <v>57.81766666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,8 +5122,8 @@
         <v>10.551</v>
       </c>
       <c r="AD38" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE38" s="6" t="n">
         <v>5</v>
@@ -5133,7 +5138,7 @@
       <c r="AL38" s="0"/>
       <c r="AM38" s="10" t="n">
         <f aca="false">AL38+AK38+AD38+AC38+AA38+M38+(N38/2)</f>
-        <v>48.08016666675</v>
+        <v>48.58016666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,8 +5236,8 @@
         <v>12.651</v>
       </c>
       <c r="AD39" s="5" t="n">
-        <f aca="false">(25/30)*15</f>
-        <v>12.5</v>
+        <f aca="false">(25/30)*15 + 0.5</f>
+        <v>13</v>
       </c>
       <c r="AE39" s="6" t="n">
         <v>5</v>
@@ -5247,7 +5252,7 @@
       <c r="AL39" s="0"/>
       <c r="AM39" s="10" t="n">
         <f aca="false">AL39+AK39+AD39+AC39+AA39+M39+(N39/2)</f>
-        <v>51.43016666675</v>
+        <v>51.93016666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,8 +5350,8 @@
         <v>11.502</v>
       </c>
       <c r="AD40" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE40" s="6" t="n">
         <v>5</v>
@@ -5361,7 +5366,7 @@
       <c r="AL40" s="0"/>
       <c r="AM40" s="10" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
-        <v>50.29366666675</v>
+        <v>50.79366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,8 +5464,8 @@
         <v>14.202</v>
       </c>
       <c r="AD41" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE41" s="6" t="n">
         <v>5</v>
@@ -5475,7 +5480,7 @@
       <c r="AL41" s="0"/>
       <c r="AM41" s="10" t="n">
         <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
-        <v>51.752</v>
+        <v>52.252</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,6 +5577,7 @@
         <f aca="false">(AB42/50)*15 + 1.302</f>
         <v>12.501</v>
       </c>
+      <c r="AD42" s="0"/>
       <c r="AE42" s="6" t="n">
         <v>0</v>
       </c>
@@ -5683,8 +5689,8 @@
         <v>12.351</v>
       </c>
       <c r="AD43" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE43" s="6" t="n">
         <v>5</v>
@@ -5699,7 +5705,7 @@
       <c r="AL43" s="0"/>
       <c r="AM43" s="10" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
-        <v>54.976</v>
+        <v>55.476</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,8 +5802,8 @@
         <v>8.451</v>
       </c>
       <c r="AD44" s="5" t="n">
-        <f aca="false">(23/30)*15</f>
-        <v>11.5</v>
+        <f aca="false">(23/30)*15 + 0.5</f>
+        <v>12</v>
       </c>
       <c r="AE44" s="6" t="n">
         <v>5</v>
@@ -5812,7 +5818,7 @@
       <c r="AL44" s="0"/>
       <c r="AM44" s="10" t="n">
         <f aca="false">AL44+AK44+AD44+AC44+AA44+M44+(N44/2)</f>
-        <v>44.71766666675</v>
+        <v>45.21766666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,8 +5915,8 @@
         <v>11.301</v>
       </c>
       <c r="AD45" s="5" t="n">
-        <f aca="false">(19/30)*15</f>
-        <v>9.5</v>
+        <f aca="false">(19/30)*15 + 0.5</f>
+        <v>10</v>
       </c>
       <c r="AE45" s="6" t="n">
         <v>5</v>
@@ -5927,7 +5933,7 @@
       </c>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>55.71766666675</v>
+        <v>56.21766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,6 +6029,7 @@
         <f aca="false">(AB46/50)*15 + 1.302</f>
         <v>12.552</v>
       </c>
+      <c r="AD46" s="0"/>
       <c r="AE46" s="6" t="n">
         <v>5</v>
       </c>
@@ -6133,8 +6140,8 @@
         <v>11.952</v>
       </c>
       <c r="AD47" s="5" t="n">
-        <f aca="false">(28/30)*15</f>
-        <v>14</v>
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
       </c>
       <c r="AE47" s="6" t="n">
         <v>5</v>
@@ -6151,7 +6158,7 @@
       </c>
       <c r="AM47" s="10" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
-        <v>66.11866666675</v>
+        <v>66.61866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,8 +6256,8 @@
         <v>11.751</v>
       </c>
       <c r="AD48" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE48" s="6" t="n">
         <v>5</v>
@@ -6265,7 +6272,7 @@
       <c r="AL48" s="0"/>
       <c r="AM48" s="10" t="n">
         <f aca="false">AL48+AK48+AD48+AC48+AA48+M48+(N48/2)</f>
-        <v>49.28433333325</v>
+        <v>49.78433333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6361,6 +6368,7 @@
         <f aca="false">(AB49/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
+      <c r="AD49" s="0"/>
       <c r="AE49" s="6" t="n">
         <v>5</v>
       </c>
@@ -6471,8 +6479,8 @@
         <v>11.601</v>
       </c>
       <c r="AD50" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE50" s="6" t="n">
         <v>5</v>
@@ -6489,7 +6497,7 @@
       </c>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>60.101</v>
+        <v>60.601</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6586,8 +6594,8 @@
         <v>13.152</v>
       </c>
       <c r="AD51" s="5" t="n">
-        <f aca="false">(24/30)*15</f>
-        <v>12</v>
+        <f aca="false">(24/30)*15 + 0.5</f>
+        <v>12.5</v>
       </c>
       <c r="AE51" s="6" t="n">
         <v>5</v>
@@ -6602,7 +6610,7 @@
       <c r="AL51" s="0"/>
       <c r="AM51" s="10" t="n">
         <f aca="false">AL51+AK51+AD51+AC51+AA51+M51+(N51/2)</f>
-        <v>43.277</v>
+        <v>43.777</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,8 +6707,8 @@
         <v>11.601</v>
       </c>
       <c r="AD52" s="5" t="n">
-        <f aca="false">(26/30)*15</f>
-        <v>13</v>
+        <f aca="false">(26/30)*15 + 0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AE52" s="6" t="n">
         <v>5</v>
@@ -6717,7 +6725,7 @@
       </c>
       <c r="AM52" s="10" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
-        <v>58.24266666675</v>
+        <v>58.74266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,30 +781,31 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD7" activeCellId="0" sqref="AD7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="true" max="6" min="2" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="8" min="7" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="11" min="9" style="2" width="0"/>
-    <col collapsed="false" hidden="true" max="12" min="12" style="4" width="0"/>
-    <col collapsed="false" hidden="true" max="13" min="13" style="5" width="0"/>
-    <col collapsed="false" hidden="true" max="14" min="14" style="6" width="0"/>
-    <col collapsed="false" hidden="true" max="25" min="15" style="7" width="0"/>
-    <col collapsed="false" hidden="true" max="26" min="26" style="8" width="0"/>
-    <col collapsed="false" hidden="true" max="29" min="27" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,7 +3676,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>5</v>
@@ -3703,11 +3704,11 @@
       </c>
       <c r="L26" s="4" t="n">
         <f aca="false">(SUM(B26:K26)-(SMALL(B26:K26,2)+SMALL(B26:K26,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M26" s="5" t="n">
         <f aca="false">L26*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>3</v>
@@ -3777,7 +3778,7 @@
       <c r="AL26" s="0"/>
       <c r="AM26" s="10" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
-        <v>56.94266666675</v>
+        <v>58.19266666675</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,7 +5830,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>5</v>
@@ -5857,11 +5858,11 @@
       </c>
       <c r="L45" s="4" t="n">
         <f aca="false">(SUM(B45:K45)-(SMALL(B45:K45,2)+SMALL(B45:K45,1)))/40</f>
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="M45" s="5" t="n">
         <f aca="false">L45*10</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0</v>
@@ -5933,7 +5934,7 @@
       </c>
       <c r="AM45" s="10" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
-        <v>56.21766666675</v>
+        <v>57.46766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,7 +6394,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>5</v>
@@ -6421,11 +6422,11 @@
       </c>
       <c r="L50" s="4" t="n">
         <f aca="false">(SUM(B50:K50)-(SMALL(B50:K50,2)+SMALL(B50:K50,1)))/40</f>
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="M50" s="5" t="n">
         <f aca="false">L50*10</f>
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
@@ -6497,7 +6498,7 @@
       </c>
       <c r="AM50" s="10" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
-        <v>60.601</v>
+        <v>61.351</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,31 +781,31 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD35" activeCellId="0" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,7 +4782,10 @@
         <f aca="false">(AB35/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
-      <c r="AD35" s="0"/>
+      <c r="AD35" s="5" t="n">
+        <f aca="false">(20/30)*15 + 0.5</f>
+        <v>10.5</v>
+      </c>
       <c r="AE35" s="6" t="n">
         <v>5</v>
       </c>
@@ -4796,7 +4799,7 @@
       <c r="AL35" s="0"/>
       <c r="AM35" s="10" t="n">
         <f aca="false">AL35+AK35+AD35+AC35+AA35+M35+(N35/2)</f>
-        <v>36.576</v>
+        <v>47.076</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,31 +781,31 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD35" activeCellId="0" sqref="AD35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,18 +3467,18 @@
         <v>3</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L24" s="4" t="n">
         <f aca="false">(SUM(B24:K24)-(SMALL(B24:K24,2)+SMALL(B24:K24,1)))/40</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="M24" s="5" t="n">
         <f aca="false">L24*10</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="N24" s="6" t="n">
         <f aca="false">0.5+1.5+0.5</f>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="AM24" s="10" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
-        <v>64.376</v>
+        <v>64.876</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,18 +5402,18 @@
         <v>5</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L41" s="4" t="n">
         <f aca="false">(SUM(B41:K41)-(SMALL(B41:K41,2)+SMALL(B41:K41,1)))/40</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M41" s="5" t="n">
         <f aca="false">L41*10</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0</v>
@@ -5484,7 +5484,7 @@
       <c r="AL41" s="0"/>
       <c r="AM41" s="10" t="n">
         <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
-        <v>52.252</v>
+        <v>53.502</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -439,20 +439,20 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +493,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5F9EA0"/>
         <bgColor rgb="FF778899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E90FF"/>
+        <bgColor rgb="FF4682B4"/>
       </patternFill>
     </fill>
   </fills>
@@ -565,7 +571,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -599,6 +605,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,6 +664,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -690,7 +704,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,7 +712,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -753,7 +767,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF1E90FF"/>
       <rgbColor rgb="FF20B2AA"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -781,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN4" activeCellId="0" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,146 +804,147 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0816326530612"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="29" min="27" style="5" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="9" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="9" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="10" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="10" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="11" width="24.8367346938776"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.1224489795918"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AM1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="13"/>
+      <c r="AN1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -944,13 +959,13 @@
       <c r="E2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" s="16" t="n">
+      <c r="F2" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
@@ -959,7 +974,7 @@
       <c r="J2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
@@ -992,13 +1007,13 @@
       <c r="T2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="17" t="n">
+      <c r="U2" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="W2" s="17" t="n">
+      <c r="W2" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X2" s="7" t="n">
@@ -1015,21 +1030,21 @@
         <f aca="false">Z2*10</f>
         <v>5.45</v>
       </c>
-      <c r="AB2" s="18" t="n">
+      <c r="AB2" s="19" t="n">
         <v>36.5</v>
       </c>
       <c r="AC2" s="5" t="n">
         <f aca="false">(AB2/50)*15 + 1.302</f>
         <v>12.252</v>
       </c>
-      <c r="AD2" s="5" t="n">
+      <c r="AD2" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
         <v>14.5</v>
       </c>
       <c r="AE2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH2" s="19" t="n">
+      <c r="AH2" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK2" s="5" t="n">
@@ -1037,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="AL2" s="0"/>
-      <c r="AM2" s="10" t="n">
+      <c r="AM2" s="11" t="n">
         <f aca="false">AL2+AK2+AD2+AC2+AA2+M2+(N2/2)</f>
         <v>51.702</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -1058,10 +1073,10 @@
       <c r="E3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="16" t="n">
+      <c r="F3" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
@@ -1073,7 +1088,7 @@
       <c r="J3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
@@ -1105,13 +1120,13 @@
       <c r="T3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="20" t="n">
+      <c r="U3" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V3" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W3" s="20" t="n">
+      <c r="W3" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X3" s="7" t="n">
@@ -1128,21 +1143,21 @@
         <f aca="false">Z3*10</f>
         <v>8.33333333325</v>
       </c>
-      <c r="AB3" s="18" t="n">
+      <c r="AB3" s="19" t="n">
         <v>30.33</v>
       </c>
       <c r="AC3" s="5" t="n">
         <f aca="false">(AB3/50)*15 + 1.302</f>
         <v>10.401</v>
       </c>
-      <c r="AD3" s="5" t="n">
+      <c r="AD3" s="9" t="n">
         <f aca="false">(23/30)*15 + 0.5</f>
         <v>12</v>
       </c>
       <c r="AE3" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH3" s="9" t="n">
+      <c r="AH3" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK3" s="5" t="n">
@@ -1150,13 +1165,13 @@
         <v>10</v>
       </c>
       <c r="AL3" s="0"/>
-      <c r="AM3" s="10" t="n">
+      <c r="AM3" s="11" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
         <v>49.23433333325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -1171,10 +1186,10 @@
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16" t="n">
+      <c r="F4" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H4" s="3" t="n">
@@ -1186,7 +1201,7 @@
       <c r="J4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
@@ -1218,13 +1233,13 @@
       <c r="T4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="17" t="n">
+      <c r="U4" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W4" s="20" t="n">
+      <c r="W4" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X4" s="7" t="n">
@@ -1241,21 +1256,21 @@
         <f aca="false">Z4*10</f>
         <v>8.7</v>
       </c>
-      <c r="AB4" s="18" t="n">
+      <c r="AB4" s="19" t="n">
         <v>34.5</v>
       </c>
       <c r="AC4" s="5" t="n">
         <f aca="false">(AB4/50)*15 + 1.302</f>
         <v>11.652</v>
       </c>
-      <c r="AD4" s="5" t="n">
+      <c r="AD4" s="9" t="n">
         <f aca="false">(29/30)*15  + 0.5</f>
         <v>15</v>
       </c>
       <c r="AE4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH4" s="19" t="n">
+      <c r="AH4" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK4" s="5" t="n">
@@ -1265,13 +1280,13 @@
       <c r="AL4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AM4" s="11" t="n">
         <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
         <v>67.352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -1286,10 +1301,10 @@
       <c r="E5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="16" t="n">
+      <c r="F5" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="n">
@@ -1301,7 +1316,7 @@
       <c r="J5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
@@ -1333,13 +1348,13 @@
       <c r="T5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="20" t="n">
+      <c r="U5" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V5" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W5" s="20" t="n">
+      <c r="W5" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X5" s="7" t="n">
@@ -1356,21 +1371,21 @@
         <f aca="false">Z5*10</f>
         <v>7.83333333325</v>
       </c>
-      <c r="AB5" s="18" t="n">
+      <c r="AB5" s="19" t="n">
         <v>33.16</v>
       </c>
       <c r="AC5" s="5" t="n">
         <f aca="false">(AB5/50)*15 + 1.302</f>
         <v>11.25</v>
       </c>
-      <c r="AD5" s="5" t="n">
+      <c r="AD5" s="9" t="n">
         <f aca="false">(23/30)*15  + 0.5</f>
         <v>12</v>
       </c>
       <c r="AE5" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH5" s="9" t="n">
+      <c r="AH5" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK5" s="5" t="n">
@@ -1378,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="AL5" s="0"/>
-      <c r="AM5" s="10" t="n">
+      <c r="AM5" s="11" t="n">
         <f aca="false">AL5+AK5+AD5+AC5+AA5+M5+(N5/2)</f>
         <v>50.33333333325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -1399,10 +1414,10 @@
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16" t="n">
+      <c r="F6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H6" s="3" t="n">
@@ -1414,7 +1429,7 @@
       <c r="J6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
@@ -1447,13 +1462,13 @@
       <c r="T6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="20" t="n">
+      <c r="U6" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V6" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W6" s="20" t="n">
+      <c r="W6" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X6" s="7" t="n">
@@ -1470,21 +1485,21 @@
         <f aca="false">Z6*10</f>
         <v>9.04166666675</v>
       </c>
-      <c r="AB6" s="18" t="n">
+      <c r="AB6" s="19" t="n">
         <v>37.66</v>
       </c>
       <c r="AC6" s="5" t="n">
         <f aca="false">(AB6/50)*15 + 1.302</f>
         <v>12.6</v>
       </c>
-      <c r="AD6" s="5" t="n">
+      <c r="AD6" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
         <v>14.5</v>
       </c>
       <c r="AE6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH6" s="19" t="n">
+      <c r="AH6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AK6" s="5" t="n">
@@ -1492,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="AL6" s="0"/>
-      <c r="AM6" s="10" t="n">
+      <c r="AM6" s="11" t="n">
         <f aca="false">AL6+AK6+AD6+AC6+AA6+M6+(N6/2)</f>
         <v>43.39166666675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -1513,10 +1528,10 @@
       <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="16" t="n">
+      <c r="F7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="3" t="n">
@@ -1528,7 +1543,7 @@
       <c r="J7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
@@ -1560,13 +1575,13 @@
       <c r="T7" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U7" s="20" t="n">
+      <c r="U7" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V7" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W7" s="20" t="n">
+      <c r="W7" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X7" s="7" t="n">
@@ -1583,21 +1598,21 @@
         <f aca="false">Z7*10</f>
         <v>9.29166666675</v>
       </c>
-      <c r="AB7" s="21" t="n">
+      <c r="AB7" s="22" t="n">
         <v>37.33</v>
       </c>
       <c r="AC7" s="5" t="n">
         <f aca="false">(AB7/50)*15 + 1.302</f>
         <v>12.501</v>
       </c>
-      <c r="AD7" s="5" t="n">
+      <c r="AD7" s="9" t="n">
         <f aca="false">(27/30)*15 + 0.5</f>
         <v>14</v>
       </c>
       <c r="AE7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH7" s="19" t="n">
+      <c r="AH7" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK7" s="5" t="n">
@@ -1605,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="AL7" s="0"/>
-      <c r="AM7" s="10" t="n">
+      <c r="AM7" s="11" t="n">
         <f aca="false">AL7+AK7+AD7+AC7+AA7+M7+(N7/2)</f>
         <v>55.54266666675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -1626,10 +1641,10 @@
       <c r="E8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="16" t="n">
+      <c r="F8" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H8" s="3" t="n">
@@ -1641,7 +1656,7 @@
       <c r="J8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
@@ -1674,13 +1689,13 @@
       <c r="T8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U8" s="20" t="n">
+      <c r="U8" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V8" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W8" s="20" t="n">
+      <c r="W8" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X8" s="7" t="n">
@@ -1697,18 +1712,20 @@
         <f aca="false">Z8*10</f>
         <v>9.9</v>
       </c>
-      <c r="AB8" s="18" t="n">
+      <c r="AB8" s="19" t="n">
         <v>44.5</v>
       </c>
       <c r="AC8" s="5" t="n">
         <f aca="false">(AB8/50)*15 + 1.302</f>
         <v>14.652</v>
       </c>
-      <c r="AD8" s="0"/>
+      <c r="AD8" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH8" s="9" t="n">
+      <c r="AH8" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK8" s="5" t="n">
@@ -1716,13 +1733,13 @@
         <v>10</v>
       </c>
       <c r="AL8" s="0"/>
-      <c r="AM8" s="10" t="n">
+      <c r="AM8" s="11" t="n">
         <f aca="false">AL8+AK8+AD8+AC8+AA8+M8+(N8/2)</f>
         <v>45.302</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -1737,13 +1754,13 @@
       <c r="E9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="n">
+      <c r="F9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
@@ -1752,7 +1769,7 @@
       <c r="J9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
@@ -1785,13 +1802,13 @@
       <c r="T9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U9" s="17" t="n">
+      <c r="U9" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="17" t="n">
+      <c r="W9" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X9" s="7" t="n">
@@ -1808,18 +1825,20 @@
         <f aca="false">Z9*10</f>
         <v>5.4</v>
       </c>
-      <c r="AB9" s="18" t="n">
+      <c r="AB9" s="19" t="n">
         <v>35.83</v>
       </c>
       <c r="AC9" s="5" t="n">
         <f aca="false">(AB9/50)*15 + 1.302</f>
         <v>12.051</v>
       </c>
-      <c r="AD9" s="0"/>
+      <c r="AD9" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="19" t="n">
+      <c r="AH9" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AK9" s="5" t="n">
@@ -1827,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="AL9" s="0"/>
-      <c r="AM9" s="10" t="n">
+      <c r="AM9" s="11" t="n">
         <f aca="false">AL9+AK9+AD9+AC9+AA9+M9+(N9/2)</f>
         <v>23.201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -1848,10 +1867,10 @@
       <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="16" t="n">
+      <c r="F10" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H10" s="3" t="n">
@@ -1863,7 +1882,7 @@
       <c r="J10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
@@ -1895,13 +1914,13 @@
       <c r="T10" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U10" s="20" t="n">
+      <c r="U10" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W10" s="20" t="n">
+      <c r="W10" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X10" s="7" t="n">
@@ -1918,21 +1937,21 @@
         <f aca="false">Z10*10</f>
         <v>9.675</v>
       </c>
-      <c r="AB10" s="18" t="n">
+      <c r="AB10" s="19" t="n">
         <v>44.83</v>
       </c>
       <c r="AC10" s="5" t="n">
         <f aca="false">(AB10/50)*15 + 1.302</f>
         <v>14.751</v>
       </c>
-      <c r="AD10" s="5" t="n">
+      <c r="AD10" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
         <v>14.5</v>
       </c>
       <c r="AE10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH10" s="9" t="n">
+      <c r="AH10" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK10" s="5" t="n">
@@ -1942,13 +1961,13 @@
       <c r="AL10" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM10" s="10" t="n">
+      <c r="AM10" s="11" t="n">
         <f aca="false">AL10+AK10+AD10+AC10+AA10+M10+(N10/2)</f>
         <v>69.926</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -1963,10 +1982,10 @@
       <c r="E11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="16" t="n">
+      <c r="F11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H11" s="3" t="n">
@@ -1978,7 +1997,7 @@
       <c r="J11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
@@ -2010,13 +2029,13 @@
       <c r="T11" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U11" s="20" t="n">
+      <c r="U11" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V11" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W11" s="20" t="n">
+      <c r="W11" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X11" s="7" t="n">
@@ -2033,21 +2052,21 @@
         <f aca="false">Z11*10</f>
         <v>10</v>
       </c>
-      <c r="AB11" s="18" t="n">
+      <c r="AB11" s="19" t="n">
         <v>44.5</v>
       </c>
       <c r="AC11" s="5" t="n">
         <f aca="false">(AB11/50)*15 + 1.302</f>
         <v>14.652</v>
       </c>
-      <c r="AD11" s="5" t="n">
+      <c r="AD11" s="9" t="n">
         <f aca="false">(25/30)*15 + 0.5</f>
         <v>13</v>
       </c>
       <c r="AE11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH11" s="9" t="n">
+      <c r="AH11" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK11" s="5" t="n">
@@ -2057,13 +2076,13 @@
       <c r="AL11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM11" s="10" t="n">
+      <c r="AM11" s="11" t="n">
         <f aca="false">AL11+AK11+AD11+AC11+AA11+M11+(N11/2)</f>
         <v>68.652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -2078,13 +2097,13 @@
       <c r="E12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" s="16" t="n">
+      <c r="F12" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
@@ -2093,7 +2112,7 @@
       <c r="J12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
@@ -2125,13 +2144,13 @@
       <c r="T12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="17" t="n">
+      <c r="U12" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V12" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W12" s="20" t="n">
+      <c r="W12" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X12" s="7" t="n">
@@ -2148,21 +2167,21 @@
         <f aca="false">Z12*10</f>
         <v>8.41666666675</v>
       </c>
-      <c r="AB12" s="18" t="n">
+      <c r="AB12" s="19" t="n">
         <v>30</v>
       </c>
       <c r="AC12" s="5" t="n">
         <f aca="false">(AB12/50)*15 + 1.302</f>
         <v>10.302</v>
       </c>
-      <c r="AD12" s="5" t="n">
+      <c r="AD12" s="9" t="n">
         <f aca="false">(25/30)*15 + 0.5</f>
         <v>13</v>
       </c>
       <c r="AE12" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH12" s="9" t="n">
+      <c r="AH12" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK12" s="5" t="n">
@@ -2172,13 +2191,13 @@
       <c r="AL12" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM12" s="10" t="n">
+      <c r="AM12" s="11" t="n">
         <f aca="false">AL12+AK12+AD12+AC12+AA12+M12+(N12/2)</f>
         <v>60.59366666675</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -2193,10 +2212,10 @@
       <c r="E13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16" t="n">
+      <c r="F13" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H13" s="3" t="n">
@@ -2208,7 +2227,7 @@
       <c r="J13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
@@ -2242,13 +2261,13 @@
       <c r="T13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U13" s="20" t="n">
+      <c r="U13" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V13" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W13" s="20" t="n">
+      <c r="W13" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X13" s="7" t="n">
@@ -2265,21 +2284,21 @@
         <f aca="false">Z13*10</f>
         <v>9.21666666675</v>
       </c>
-      <c r="AB13" s="18" t="n">
+      <c r="AB13" s="19" t="n">
         <v>40.5</v>
       </c>
       <c r="AC13" s="5" t="n">
         <f aca="false">(AB13/50)*15 + 1.302</f>
         <v>13.452</v>
       </c>
-      <c r="AD13" s="5" t="n">
+      <c r="AD13" s="9" t="n">
         <f aca="false">(27/30)*15 + 0.5</f>
         <v>14</v>
       </c>
       <c r="AE13" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH13" s="9" t="n">
+      <c r="AH13" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK13" s="5" t="n">
@@ -2287,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="AL13" s="0"/>
-      <c r="AM13" s="10" t="n">
+      <c r="AM13" s="11" t="n">
         <f aca="false">AL13+AK13+AD13+AC13+AA13+M13+(N13/2)</f>
         <v>56.91866666675</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -2308,10 +2327,10 @@
       <c r="E14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="16" t="n">
+      <c r="F14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="n">
@@ -2323,7 +2342,7 @@
       <c r="J14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
@@ -2355,13 +2374,13 @@
       <c r="T14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U14" s="17" t="n">
+      <c r="U14" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V14" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W14" s="20" t="n">
+      <c r="W14" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X14" s="7" t="n">
@@ -2378,21 +2397,21 @@
         <f aca="false">Z14*10</f>
         <v>9.34166666675</v>
       </c>
-      <c r="AB14" s="18" t="n">
+      <c r="AB14" s="19" t="n">
         <v>34.83</v>
       </c>
       <c r="AC14" s="5" t="n">
         <f aca="false">(AB14/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AD14" s="5" t="n">
+      <c r="AD14" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
         <v>14.5</v>
       </c>
       <c r="AE14" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH14" s="19" t="n">
+      <c r="AH14" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK14" s="5" t="n">
@@ -2402,13 +2421,13 @@
       <c r="AL14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM14" s="10" t="n">
+      <c r="AM14" s="11" t="n">
         <f aca="false">AL14+AK14+AD14+AC14+AA14+M14+(N14/2)</f>
         <v>67.59266666675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -2423,10 +2442,10 @@
       <c r="E15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="16" t="n">
+      <c r="F15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H15" s="3" t="n">
@@ -2438,7 +2457,7 @@
       <c r="J15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="3" t="n">
         <v>5</v>
       </c>
       <c r="L15" s="4" t="n">
@@ -2471,13 +2490,13 @@
       <c r="T15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="20" t="n">
+      <c r="U15" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W15" s="20" t="n">
+      <c r="W15" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X15" s="7" t="n">
@@ -2494,21 +2513,21 @@
         <f aca="false">Z15*10</f>
         <v>9.5</v>
       </c>
-      <c r="AB15" s="18" t="n">
+      <c r="AB15" s="19" t="n">
         <v>31.83</v>
       </c>
       <c r="AC15" s="5" t="n">
         <f aca="false">(AB15/50)*15 + 1.302</f>
         <v>10.851</v>
       </c>
-      <c r="AD15" s="5" t="n">
+      <c r="AD15" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE15" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH15" s="9" t="n">
+      <c r="AH15" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK15" s="5" t="n">
@@ -2518,13 +2537,13 @@
       <c r="AL15" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM15" s="10" t="n">
+      <c r="AM15" s="11" t="n">
         <f aca="false">AL15+AK15+AD15+AC15+AA15+M15+(N15/2)</f>
         <v>64.601</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -2539,13 +2558,13 @@
       <c r="E16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" s="16" t="n">
+      <c r="F16" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
@@ -2554,7 +2573,7 @@
       <c r="J16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
@@ -2588,13 +2607,13 @@
       <c r="T16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U16" s="20" t="n">
+      <c r="U16" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="20" t="n">
+      <c r="W16" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X16" s="7" t="n">
@@ -2611,21 +2630,21 @@
         <f aca="false">Z16*10</f>
         <v>7.8</v>
       </c>
-      <c r="AB16" s="18" t="n">
+      <c r="AB16" s="19" t="n">
         <v>33</v>
       </c>
       <c r="AC16" s="5" t="n">
         <f aca="false">(AB16/50)*15 + 1.302</f>
         <v>11.202</v>
       </c>
-      <c r="AD16" s="5" t="n">
+      <c r="AD16" s="9" t="n">
         <f aca="false">(14/30)*15 + 0.5</f>
         <v>7.5</v>
       </c>
       <c r="AE16" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH16" s="9" t="n">
+      <c r="AH16" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK16" s="5" t="n">
@@ -2633,13 +2652,13 @@
         <v>10</v>
       </c>
       <c r="AL16" s="0"/>
-      <c r="AM16" s="10" t="n">
+      <c r="AM16" s="11" t="n">
         <f aca="false">AL16+AK16+AD16+AC16+AA16+M16+(N16/2)</f>
         <v>43.752</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -2654,10 +2673,10 @@
       <c r="E17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="16" t="n">
+      <c r="F17" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H17" s="3" t="n">
@@ -2669,7 +2688,7 @@
       <c r="J17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
@@ -2702,13 +2721,13 @@
       <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="20" t="n">
+      <c r="U17" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V17" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W17" s="20" t="n">
+      <c r="W17" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X17" s="7" t="n">
@@ -2725,21 +2744,21 @@
         <f aca="false">Z17*10</f>
         <v>9.5</v>
       </c>
-      <c r="AB17" s="18" t="n">
+      <c r="AB17" s="19" t="n">
         <v>32</v>
       </c>
       <c r="AC17" s="5" t="n">
         <f aca="false">(AB17/50)*15 + 1.302</f>
         <v>10.902</v>
       </c>
-      <c r="AD17" s="5" t="n">
+      <c r="AD17" s="9" t="n">
         <f aca="false">(25/30)*15 + 0.5</f>
         <v>13</v>
       </c>
       <c r="AE17" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH17" s="9" t="n">
+      <c r="AH17" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK17" s="5" t="n">
@@ -2749,13 +2768,13 @@
       <c r="AL17" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM17" s="10" t="n">
+      <c r="AM17" s="11" t="n">
         <f aca="false">AL17+AK17+AD17+AC17+AA17+M17+(N17/2)</f>
         <v>64.152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -2770,13 +2789,13 @@
       <c r="E18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16" t="n">
+      <c r="F18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
@@ -2785,7 +2804,7 @@
       <c r="J18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
@@ -2818,13 +2837,13 @@
       <c r="T18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="20" t="n">
+      <c r="U18" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="17" t="n">
+      <c r="W18" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X18" s="7" t="n">
@@ -2841,18 +2860,20 @@
         <f aca="false">Z18*10</f>
         <v>7.4</v>
       </c>
-      <c r="AB18" s="21" t="n">
+      <c r="AB18" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AC18" s="5" t="n">
         <f aca="false">(AB18/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AD18" s="0"/>
+      <c r="AD18" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH18" s="9" t="n">
+      <c r="AH18" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK18" s="5" t="n">
@@ -2860,13 +2881,13 @@
         <v>10</v>
       </c>
       <c r="AL18" s="0"/>
-      <c r="AM18" s="10" t="n">
+      <c r="AM18" s="11" t="n">
         <f aca="false">AL18+AK18+AD18+AC18+AA18+M18+(N18/2)</f>
         <v>25.202</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -2881,10 +2902,10 @@
       <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="16" t="n">
+      <c r="F19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H19" s="3" t="n">
@@ -2896,7 +2917,7 @@
       <c r="J19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
@@ -2929,13 +2950,13 @@
       <c r="T19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="20" t="n">
+      <c r="U19" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V19" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W19" s="20" t="n">
+      <c r="W19" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X19" s="7" t="n">
@@ -2952,21 +2973,21 @@
         <f aca="false">Z19*10</f>
         <v>9.66666666675</v>
       </c>
-      <c r="AB19" s="18" t="n">
+      <c r="AB19" s="19" t="n">
         <v>37.83</v>
       </c>
       <c r="AC19" s="5" t="n">
         <f aca="false">(AB19/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AD19" s="5" t="n">
+      <c r="AD19" s="9" t="n">
         <f aca="false">(27/30)*15 + 0.5</f>
         <v>14</v>
       </c>
       <c r="AE19" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH19" s="9" t="n">
+      <c r="AH19" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK19" s="5" t="n">
@@ -2976,13 +2997,13 @@
       <c r="AL19" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM19" s="10" t="n">
+      <c r="AM19" s="11" t="n">
         <f aca="false">AL19+AK19+AD19+AC19+AA19+M19+(N19/2)</f>
         <v>66.31766666675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -2997,10 +3018,10 @@
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16" t="n">
+      <c r="F20" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H20" s="3" t="n">
@@ -3012,7 +3033,7 @@
       <c r="J20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
@@ -3045,13 +3066,13 @@
       <c r="T20" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U20" s="20" t="n">
+      <c r="U20" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V20" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="W20" s="20" t="n">
+      <c r="W20" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X20" s="7" t="n">
@@ -3068,21 +3089,21 @@
         <f aca="false">Z20*10</f>
         <v>9.275</v>
       </c>
-      <c r="AB20" s="18" t="n">
+      <c r="AB20" s="19" t="n">
         <v>24.5</v>
       </c>
       <c r="AC20" s="5" t="n">
         <f aca="false">(AB20/50)*15 + 1.302</f>
         <v>8.652</v>
       </c>
-      <c r="AD20" s="5" t="n">
+      <c r="AD20" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
         <v>14.5</v>
       </c>
       <c r="AE20" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH20" s="9" t="n">
+      <c r="AH20" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK20" s="5" t="n">
@@ -3090,13 +3111,13 @@
         <v>10</v>
       </c>
       <c r="AL20" s="0"/>
-      <c r="AM20" s="10" t="n">
+      <c r="AM20" s="11" t="n">
         <f aca="false">AL20+AK20+AD20+AC20+AA20+M20+(N20/2)</f>
         <v>52.427</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -3111,13 +3132,13 @@
       <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16" t="n">
+      <c r="F21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
@@ -3126,7 +3147,7 @@
       <c r="J21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
@@ -3159,13 +3180,13 @@
       <c r="T21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U21" s="17" t="n">
+      <c r="U21" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W21" s="17" t="n">
+      <c r="W21" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X21" s="7" t="n">
@@ -3182,18 +3203,20 @@
         <f aca="false">Z21*10</f>
         <v>4.95</v>
       </c>
-      <c r="AB21" s="21" t="n">
+      <c r="AB21" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AC21" s="5" t="n">
         <f aca="false">(AB21/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AD21" s="0"/>
+      <c r="AD21" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH21" s="19" t="n">
+      <c r="AH21" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AK21" s="5" t="n">
@@ -3201,13 +3224,13 @@
         <v>5</v>
       </c>
       <c r="AL21" s="0"/>
-      <c r="AM21" s="10" t="n">
+      <c r="AM21" s="11" t="n">
         <f aca="false">AL21+AK21+AD21+AC21+AA21+M21+(N21/2)</f>
         <v>16.502</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -3222,7 +3245,7 @@
       <c r="E22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="17" t="n">
         <v>5</v>
       </c>
       <c r="G22" s="3" t="n">
@@ -3237,7 +3260,7 @@
       <c r="J22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
@@ -3271,13 +3294,13 @@
       <c r="T22" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U22" s="20" t="n">
+      <c r="U22" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="20" t="n">
+      <c r="W22" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X22" s="7" t="n">
@@ -3294,21 +3317,21 @@
         <f aca="false">Z22*10</f>
         <v>9.875</v>
       </c>
-      <c r="AB22" s="18" t="n">
+      <c r="AB22" s="19" t="n">
         <v>34.33</v>
       </c>
       <c r="AC22" s="5" t="n">
         <f aca="false">(AB22/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AD22" s="5" t="n">
+      <c r="AD22" s="9" t="n">
         <f aca="false">(25/30)*15 + 0.5</f>
         <v>13</v>
       </c>
       <c r="AE22" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH22" s="9" t="n">
+      <c r="AH22" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK22" s="5" t="n">
@@ -3316,13 +3339,13 @@
         <v>10</v>
       </c>
       <c r="AL22" s="0"/>
-      <c r="AM22" s="10" t="n">
+      <c r="AM22" s="11" t="n">
         <f aca="false">AL22+AK22+AD22+AC22+AA22+M22+(N22/2)</f>
         <v>56.226</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -3337,10 +3360,10 @@
       <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="16" t="n">
+      <c r="F23" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H23" s="3" t="n">
@@ -3352,7 +3375,7 @@
       <c r="J23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
@@ -3386,13 +3409,13 @@
       <c r="T23" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U23" s="20" t="n">
+      <c r="U23" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V23" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W23" s="20" t="n">
+      <c r="W23" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X23" s="7" t="n">
@@ -3409,21 +3432,21 @@
         <f aca="false">Z23*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB23" s="18" t="n">
+      <c r="AB23" s="19" t="n">
         <v>32.33</v>
       </c>
       <c r="AC23" s="5" t="n">
         <f aca="false">(AB23/50)*15 + 1.302</f>
         <v>11.001</v>
       </c>
-      <c r="AD23" s="5" t="n">
+      <c r="AD23" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
         <v>14.5</v>
       </c>
       <c r="AE23" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH23" s="9" t="n">
+      <c r="AH23" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK23" s="5" t="n">
@@ -3433,13 +3456,13 @@
       <c r="AL23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AM23" s="10" t="n">
+      <c r="AM23" s="11" t="n">
         <f aca="false">AL23+AK23+AD23+AC23+AA23+M23+(N23/2)</f>
         <v>61.001</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -3454,10 +3477,10 @@
       <c r="E24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" s="16" t="n">
+      <c r="F24" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H24" s="3" t="n">
@@ -3469,7 +3492,7 @@
       <c r="J24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="17" t="n">
         <v>5</v>
       </c>
       <c r="L24" s="4" t="n">
@@ -3502,13 +3525,13 @@
       <c r="T24" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U24" s="20" t="n">
+      <c r="U24" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V24" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W24" s="20" t="n">
+      <c r="W24" s="21" t="n">
         <v>3.5</v>
       </c>
       <c r="X24" s="7" t="n">
@@ -3525,21 +3548,21 @@
         <f aca="false">Z24*10</f>
         <v>8.325</v>
       </c>
-      <c r="AB24" s="18" t="n">
+      <c r="AB24" s="19" t="n">
         <v>38.33</v>
       </c>
       <c r="AC24" s="5" t="n">
         <f aca="false">(AB24/50)*15 + 1.302</f>
         <v>12.801</v>
       </c>
-      <c r="AD24" s="5" t="n">
+      <c r="AD24" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
         <v>14.5</v>
       </c>
       <c r="AE24" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH24" s="9" t="n">
+      <c r="AH24" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK24" s="5" t="n">
@@ -3549,13 +3572,13 @@
       <c r="AL24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AM24" s="10" t="n">
+      <c r="AM24" s="11" t="n">
         <f aca="false">AL24+AK24+AD24+AC24+AA24+M24+(N24/2)</f>
         <v>64.876</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -3570,7 +3593,7 @@
       <c r="E25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="16" t="n">
+      <c r="F25" s="17" t="n">
         <v>5</v>
       </c>
       <c r="G25" s="3" t="n">
@@ -3585,7 +3608,7 @@
       <c r="J25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
@@ -3618,13 +3641,13 @@
       <c r="T25" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="17" t="n">
+      <c r="U25" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W25" s="20" t="n">
+      <c r="W25" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X25" s="7" t="n">
@@ -3641,21 +3664,21 @@
         <f aca="false">Z25*10</f>
         <v>8.375</v>
       </c>
-      <c r="AB25" s="18" t="n">
+      <c r="AB25" s="19" t="n">
         <v>36.83</v>
       </c>
       <c r="AC25" s="5" t="n">
         <f aca="false">(AB25/50)*15 + 1.302</f>
         <v>12.351</v>
       </c>
-      <c r="AD25" s="5" t="n">
+      <c r="AD25" s="9" t="n">
         <f aca="false">(24/30)*15 + 0.5</f>
         <v>12.5</v>
       </c>
       <c r="AE25" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH25" s="9" t="n">
+      <c r="AH25" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK25" s="5" t="n">
@@ -3663,13 +3686,13 @@
         <v>10</v>
       </c>
       <c r="AL25" s="0"/>
-      <c r="AM25" s="10" t="n">
+      <c r="AM25" s="11" t="n">
         <f aca="false">AL25+AK25+AD25+AC25+AA25+M25+(N25/2)</f>
         <v>54.976</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -3684,10 +3707,10 @@
       <c r="E26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="16" t="n">
+      <c r="F26" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="3" t="n">
@@ -3699,7 +3722,7 @@
       <c r="J26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
@@ -3731,13 +3754,13 @@
       <c r="T26" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U26" s="20" t="n">
+      <c r="U26" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V26" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W26" s="20" t="n">
+      <c r="W26" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X26" s="7" t="n">
@@ -3754,21 +3777,21 @@
         <f aca="false">Z26*10</f>
         <v>9.49166666675</v>
       </c>
-      <c r="AB26" s="18" t="n">
+      <c r="AB26" s="19" t="n">
         <v>41.33</v>
       </c>
       <c r="AC26" s="5" t="n">
         <f aca="false">(AB26/50)*15 + 1.302</f>
         <v>13.701</v>
       </c>
-      <c r="AD26" s="5" t="n">
+      <c r="AD26" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE26" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH26" s="9" t="n">
+      <c r="AH26" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK26" s="5" t="n">
@@ -3776,13 +3799,13 @@
         <v>10</v>
       </c>
       <c r="AL26" s="0"/>
-      <c r="AM26" s="10" t="n">
+      <c r="AM26" s="11" t="n">
         <f aca="false">AL26+AK26+AD26+AC26+AA26+M26+(N26/2)</f>
         <v>58.19266666675</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -3797,7 +3820,7 @@
       <c r="E27" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="16" t="n">
+      <c r="F27" s="17" t="n">
         <v>5</v>
       </c>
       <c r="G27" s="3" t="n">
@@ -3812,7 +3835,7 @@
       <c r="J27" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
@@ -3845,13 +3868,13 @@
       <c r="T27" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U27" s="20" t="n">
+      <c r="U27" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W27" s="20" t="n">
+      <c r="W27" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X27" s="7" t="n">
@@ -3868,21 +3891,21 @@
         <f aca="false">Z27*10</f>
         <v>9.75</v>
       </c>
-      <c r="AB27" s="18" t="n">
+      <c r="AB27" s="19" t="n">
         <v>37.83</v>
       </c>
       <c r="AC27" s="5" t="n">
         <f aca="false">(AB27/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AD27" s="5" t="n">
+      <c r="AD27" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE27" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH27" s="9" t="n">
+      <c r="AH27" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK27" s="5" t="n">
@@ -3890,13 +3913,13 @@
         <v>10</v>
       </c>
       <c r="AL27" s="0"/>
-      <c r="AM27" s="10" t="n">
+      <c r="AM27" s="11" t="n">
         <f aca="false">AL27+AK27+AD27+AC27+AA27+M27+(N27/2)</f>
         <v>57.651</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -3911,7 +3934,7 @@
       <c r="E28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="17" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="3" t="n">
@@ -3926,7 +3949,7 @@
       <c r="J28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
@@ -3959,13 +3982,13 @@
       <c r="T28" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U28" s="20" t="n">
+      <c r="U28" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W28" s="20" t="n">
+      <c r="W28" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X28" s="7" t="n">
@@ -3982,21 +4005,21 @@
         <f aca="false">Z28*10</f>
         <v>9.875</v>
       </c>
-      <c r="AB28" s="18" t="n">
+      <c r="AB28" s="19" t="n">
         <v>41.83</v>
       </c>
       <c r="AC28" s="5" t="n">
         <f aca="false">(AB28/50)*15 + 1.302</f>
         <v>13.851</v>
       </c>
-      <c r="AD28" s="5" t="n">
+      <c r="AD28" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE28" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH28" s="9" t="n">
+      <c r="AH28" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK28" s="5" t="n">
@@ -4004,13 +4027,13 @@
         <v>10</v>
       </c>
       <c r="AL28" s="0"/>
-      <c r="AM28" s="10" t="n">
+      <c r="AM28" s="11" t="n">
         <f aca="false">AL28+AK28+AD28+AC28+AA28+M28+(N28/2)</f>
         <v>58.976</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -4025,13 +4048,13 @@
       <c r="E29" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" s="16" t="n">
+      <c r="F29" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
@@ -4040,7 +4063,7 @@
       <c r="J29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
@@ -4072,13 +4095,13 @@
       <c r="T29" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U29" s="17" t="n">
+      <c r="U29" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V29" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W29" s="20" t="n">
+      <c r="W29" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X29" s="7" t="n">
@@ -4095,21 +4118,21 @@
         <f aca="false">Z29*10</f>
         <v>8.63125</v>
       </c>
-      <c r="AB29" s="18" t="n">
+      <c r="AB29" s="19" t="n">
         <v>38.83</v>
       </c>
       <c r="AC29" s="5" t="n">
         <f aca="false">(AB29/50)*15 + 1.302</f>
         <v>12.951</v>
       </c>
-      <c r="AD29" s="5" t="n">
+      <c r="AD29" s="9" t="n">
         <f aca="false">(23/30)*15 + 0.5</f>
         <v>12</v>
       </c>
       <c r="AE29" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH29" s="9" t="n">
+      <c r="AH29" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK29" s="5" t="n">
@@ -4117,13 +4140,13 @@
         <v>10</v>
       </c>
       <c r="AL29" s="0"/>
-      <c r="AM29" s="10" t="n">
+      <c r="AM29" s="11" t="n">
         <f aca="false">AL29+AK29+AD29+AC29+AA29+M29+(N29/2)</f>
         <v>52.08225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -4138,13 +4161,13 @@
       <c r="E30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16" t="n">
+      <c r="F30" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
@@ -4153,7 +4176,7 @@
       <c r="J30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
@@ -4186,13 +4209,13 @@
       <c r="T30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U30" s="17" t="n">
+      <c r="U30" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W30" s="17" t="n">
+      <c r="W30" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X30" s="7" t="n">
@@ -4209,18 +4232,20 @@
         <f aca="false">Z30*10</f>
         <v>3.55</v>
       </c>
-      <c r="AB30" s="21" t="n">
+      <c r="AB30" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AC30" s="5" t="n">
         <f aca="false">(AB30/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AD30" s="0"/>
+      <c r="AD30" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE30" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH30" s="19" t="n">
+      <c r="AH30" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AK30" s="5" t="n">
@@ -4228,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="AL30" s="0"/>
-      <c r="AM30" s="10" t="n">
+      <c r="AM30" s="11" t="n">
         <f aca="false">AL30+AK30+AD30+AC30+AA30+M30+(N30/2)</f>
         <v>7.602</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -4249,10 +4274,10 @@
       <c r="E31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="16" t="n">
+      <c r="F31" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H31" s="3" t="n">
@@ -4264,7 +4289,7 @@
       <c r="J31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
@@ -4297,13 +4322,13 @@
       <c r="T31" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U31" s="20" t="n">
+      <c r="U31" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V31" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="W31" s="20" t="n">
+      <c r="W31" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X31" s="7" t="n">
@@ -4320,21 +4345,21 @@
         <f aca="false">Z31*10</f>
         <v>9.95</v>
       </c>
-      <c r="AB31" s="18" t="n">
+      <c r="AB31" s="19" t="n">
         <v>45.66</v>
       </c>
       <c r="AC31" s="5" t="n">
         <f aca="false">(AB31/50)*15 + 1.302</f>
         <v>15</v>
       </c>
-      <c r="AD31" s="5" t="n">
+      <c r="AD31" s="9" t="n">
         <f aca="false">(23/30)*15 + 0.5</f>
         <v>12</v>
       </c>
       <c r="AE31" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH31" s="9" t="n">
+      <c r="AH31" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK31" s="5" t="n">
@@ -4342,13 +4367,13 @@
         <v>10</v>
       </c>
       <c r="AL31" s="0"/>
-      <c r="AM31" s="10" t="n">
+      <c r="AM31" s="11" t="n">
         <f aca="false">AL31+AK31+AD31+AC31+AA31+M31+(N31/2)</f>
         <v>58.45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -4363,13 +4388,13 @@
       <c r="E32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G32" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H32" s="16" t="n">
+      <c r="F32" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" s="17" t="n">
         <v>5</v>
       </c>
       <c r="I32" s="2" t="n">
@@ -4378,7 +4403,7 @@
       <c r="J32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
@@ -4412,13 +4437,13 @@
       <c r="T32" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U32" s="20" t="n">
+      <c r="U32" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V32" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W32" s="20" t="n">
+      <c r="W32" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X32" s="7" t="n">
@@ -4435,21 +4460,21 @@
         <f aca="false">Z32*10</f>
         <v>9.70833333325</v>
       </c>
-      <c r="AB32" s="18" t="n">
+      <c r="AB32" s="19" t="n">
         <v>41</v>
       </c>
       <c r="AC32" s="5" t="n">
         <f aca="false">(AB32/50)*15 + 1.302</f>
         <v>13.602</v>
       </c>
-      <c r="AD32" s="5" t="n">
+      <c r="AD32" s="9" t="n">
         <f aca="false">(25/30)*15 + 0.5</f>
         <v>13</v>
       </c>
       <c r="AE32" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH32" s="9" t="n">
+      <c r="AH32" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK32" s="5" t="n">
@@ -4457,13 +4482,13 @@
         <v>10</v>
       </c>
       <c r="AL32" s="0"/>
-      <c r="AM32" s="10" t="n">
+      <c r="AM32" s="11" t="n">
         <f aca="false">AL32+AK32+AD32+AC32+AA32+M32+(N32/2)</f>
         <v>55.31033333325</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -4478,10 +4503,10 @@
       <c r="E33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F33" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" s="16" t="n">
+      <c r="F33" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
@@ -4493,7 +4518,7 @@
       <c r="J33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
@@ -4525,13 +4550,13 @@
       <c r="T33" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U33" s="20" t="n">
+      <c r="U33" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V33" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W33" s="20" t="n">
+      <c r="W33" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X33" s="7" t="n">
@@ -4548,21 +4573,21 @@
         <f aca="false">Z33*10</f>
         <v>9.31666666675</v>
       </c>
-      <c r="AB33" s="18" t="n">
+      <c r="AB33" s="19" t="n">
         <v>40.33</v>
       </c>
       <c r="AC33" s="5" t="n">
         <f aca="false">(AB33/50)*15 + 1.302</f>
         <v>13.401</v>
       </c>
-      <c r="AD33" s="5" t="n">
+      <c r="AD33" s="9" t="n">
         <f aca="false">(27/30)*15 + 0.5</f>
         <v>14</v>
       </c>
       <c r="AE33" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH33" s="9" t="n">
+      <c r="AH33" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK33" s="5" t="n">
@@ -4570,13 +4595,13 @@
         <v>10</v>
       </c>
       <c r="AL33" s="0"/>
-      <c r="AM33" s="10" t="n">
+      <c r="AM33" s="11" t="n">
         <f aca="false">AL33+AK33+AD33+AC33+AA33+M33+(N33/2)</f>
         <v>54.46766666675</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -4591,10 +4616,10 @@
       <c r="E34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="16" t="n">
+      <c r="F34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H34" s="3" t="n">
@@ -4606,7 +4631,7 @@
       <c r="J34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
@@ -4639,13 +4664,13 @@
       <c r="T34" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U34" s="20" t="n">
+      <c r="U34" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V34" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W34" s="20" t="n">
+      <c r="W34" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X34" s="7" t="n">
@@ -4662,21 +4687,21 @@
         <f aca="false">Z34*10</f>
         <v>8.875</v>
       </c>
-      <c r="AB34" s="18" t="n">
+      <c r="AB34" s="19" t="n">
         <v>32</v>
       </c>
       <c r="AC34" s="5" t="n">
         <f aca="false">(AB34/50)*15 + 1.302</f>
         <v>10.902</v>
       </c>
-      <c r="AD34" s="5" t="n">
+      <c r="AD34" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE34" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH34" s="9" t="n">
+      <c r="AH34" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK34" s="5" t="n">
@@ -4684,13 +4709,13 @@
         <v>10</v>
       </c>
       <c r="AL34" s="0"/>
-      <c r="AM34" s="10" t="n">
+      <c r="AM34" s="11" t="n">
         <f aca="false">AL34+AK34+AD34+AC34+AA34+M34+(N34/2)</f>
         <v>52.027</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -4705,13 +4730,13 @@
       <c r="E35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H35" s="16" t="n">
+      <c r="F35" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
@@ -4720,7 +4745,7 @@
       <c r="J35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
@@ -4752,13 +4777,13 @@
       <c r="T35" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U35" s="17" t="n">
+      <c r="U35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W35" s="20" t="n">
+      <c r="W35" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X35" s="7" t="n">
@@ -4775,21 +4800,21 @@
         <f aca="false">Z35*10</f>
         <v>5.025</v>
       </c>
-      <c r="AB35" s="18" t="n">
+      <c r="AB35" s="19" t="n">
         <v>33.33</v>
       </c>
       <c r="AC35" s="5" t="n">
         <f aca="false">(AB35/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
-      <c r="AD35" s="5" t="n">
+      <c r="AD35" s="9" t="n">
         <f aca="false">(20/30)*15 + 0.5</f>
         <v>10.5</v>
       </c>
       <c r="AE35" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH35" s="19" t="n">
+      <c r="AH35" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK35" s="5" t="n">
@@ -4797,13 +4822,13 @@
         <v>10</v>
       </c>
       <c r="AL35" s="0"/>
-      <c r="AM35" s="10" t="n">
+      <c r="AM35" s="11" t="n">
         <f aca="false">AL35+AK35+AD35+AC35+AA35+M35+(N35/2)</f>
         <v>47.076</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -4818,7 +4843,7 @@
       <c r="E36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F36" s="16" t="n">
+      <c r="F36" s="17" t="n">
         <v>5</v>
       </c>
       <c r="G36" s="3" t="n">
@@ -4833,7 +4858,7 @@
       <c r="J36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
@@ -4866,13 +4891,13 @@
       <c r="T36" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U36" s="20" t="n">
+      <c r="U36" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="20" t="n">
+      <c r="W36" s="21" t="n">
         <v>5</v>
       </c>
       <c r="X36" s="7" t="n">
@@ -4889,21 +4914,21 @@
         <f aca="false">Z36*10</f>
         <v>9.625</v>
       </c>
-      <c r="AB36" s="18" t="n">
+      <c r="AB36" s="19" t="n">
         <v>34.83</v>
       </c>
       <c r="AC36" s="5" t="n">
         <f aca="false">(AB36/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AD36" s="5" t="n">
+      <c r="AD36" s="9" t="n">
         <f aca="false">(27/30)*15 + 0.5</f>
         <v>14</v>
       </c>
       <c r="AE36" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH36" s="9" t="n">
+      <c r="AH36" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK36" s="5" t="n">
@@ -4911,13 +4936,13 @@
         <v>10</v>
       </c>
       <c r="AL36" s="0"/>
-      <c r="AM36" s="10" t="n">
+      <c r="AM36" s="11" t="n">
         <f aca="false">AL36+AK36+AD36+AC36+AA36+M36+(N36/2)</f>
         <v>57.126</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -4932,10 +4957,10 @@
       <c r="E37" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" s="16" t="n">
+      <c r="F37" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H37" s="3" t="n">
@@ -4947,7 +4972,7 @@
       <c r="J37" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
@@ -4981,13 +5006,13 @@
       <c r="T37" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U37" s="20" t="n">
+      <c r="U37" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V37" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W37" s="20" t="n">
+      <c r="W37" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X37" s="7" t="n">
@@ -5004,21 +5029,21 @@
         <f aca="false">Z37*10</f>
         <v>9.41666666675</v>
       </c>
-      <c r="AB37" s="18" t="n">
+      <c r="AB37" s="19" t="n">
         <v>40.33</v>
       </c>
       <c r="AC37" s="5" t="n">
         <f aca="false">(AB37/50)*15 + 1.302</f>
         <v>13.401</v>
       </c>
-      <c r="AD37" s="5" t="n">
+      <c r="AD37" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE37" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH37" s="9" t="n">
+      <c r="AH37" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK37" s="5" t="n">
@@ -5026,13 +5051,13 @@
         <v>10</v>
       </c>
       <c r="AL37" s="0"/>
-      <c r="AM37" s="10" t="n">
+      <c r="AM37" s="11" t="n">
         <f aca="false">AL37+AK37+AD37+AC37+AA37+M37+(N37/2)</f>
         <v>57.81766666675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -5047,10 +5072,10 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" s="16" t="n">
+      <c r="F38" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H38" s="3" t="n">
@@ -5062,7 +5087,7 @@
       <c r="J38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
@@ -5095,13 +5120,13 @@
       <c r="T38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U38" s="20" t="n">
+      <c r="U38" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V38" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W38" s="20" t="n">
+      <c r="W38" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X38" s="7" t="n">
@@ -5118,21 +5143,21 @@
         <f aca="false">Z38*10</f>
         <v>7.52916666675</v>
       </c>
-      <c r="AB38" s="18" t="n">
+      <c r="AB38" s="19" t="n">
         <v>30.83</v>
       </c>
       <c r="AC38" s="5" t="n">
         <f aca="false">(AB38/50)*15 + 1.302</f>
         <v>10.551</v>
       </c>
-      <c r="AD38" s="5" t="n">
+      <c r="AD38" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE38" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH38" s="19" t="n">
+      <c r="AH38" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK38" s="5" t="n">
@@ -5140,13 +5165,13 @@
         <v>10</v>
       </c>
       <c r="AL38" s="0"/>
-      <c r="AM38" s="10" t="n">
+      <c r="AM38" s="11" t="n">
         <f aca="false">AL38+AK38+AD38+AC38+AA38+M38+(N38/2)</f>
         <v>48.58016666675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -5161,10 +5186,10 @@
       <c r="E39" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="16" t="n">
+      <c r="F39" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H39" s="3" t="n">
@@ -5176,7 +5201,7 @@
       <c r="J39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
@@ -5209,13 +5234,13 @@
       <c r="T39" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="U39" s="20" t="n">
+      <c r="U39" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V39" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W39" s="20" t="n">
+      <c r="W39" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X39" s="7" t="n">
@@ -5232,21 +5257,21 @@
         <f aca="false">Z39*10</f>
         <v>8.77916666675</v>
       </c>
-      <c r="AB39" s="18" t="n">
+      <c r="AB39" s="19" t="n">
         <v>37.83</v>
       </c>
       <c r="AC39" s="5" t="n">
         <f aca="false">(AB39/50)*15 + 1.302</f>
         <v>12.651</v>
       </c>
-      <c r="AD39" s="5" t="n">
+      <c r="AD39" s="9" t="n">
         <f aca="false">(25/30)*15 + 0.5</f>
         <v>13</v>
       </c>
       <c r="AE39" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH39" s="19" t="n">
+      <c r="AH39" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK39" s="5" t="n">
@@ -5254,13 +5279,13 @@
         <v>10</v>
       </c>
       <c r="AL39" s="0"/>
-      <c r="AM39" s="10" t="n">
+      <c r="AM39" s="11" t="n">
         <f aca="false">AL39+AK39+AD39+AC39+AA39+M39+(N39/2)</f>
         <v>51.93016666675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -5275,10 +5300,10 @@
       <c r="E40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F40" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="16" t="n">
+      <c r="F40" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H40" s="3" t="n">
@@ -5290,7 +5315,7 @@
       <c r="J40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
@@ -5323,13 +5348,13 @@
       <c r="T40" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U40" s="20" t="n">
+      <c r="U40" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V40" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W40" s="20" t="n">
+      <c r="W40" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X40" s="7" t="n">
@@ -5346,21 +5371,21 @@
         <f aca="false">Z40*10</f>
         <v>9.54166666675</v>
       </c>
-      <c r="AB40" s="18" t="n">
+      <c r="AB40" s="19" t="n">
         <v>34</v>
       </c>
       <c r="AC40" s="5" t="n">
         <f aca="false">(AB40/50)*15 + 1.302</f>
         <v>11.502</v>
       </c>
-      <c r="AD40" s="5" t="n">
+      <c r="AD40" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE40" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH40" s="9" t="n">
+      <c r="AH40" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK40" s="5" t="n">
@@ -5368,13 +5393,13 @@
         <v>10</v>
       </c>
       <c r="AL40" s="0"/>
-      <c r="AM40" s="10" t="n">
+      <c r="AM40" s="11" t="n">
         <f aca="false">AL40+AK40+AD40+AC40+AA40+M40+(N40/2)</f>
         <v>50.79366666675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -5389,10 +5414,10 @@
       <c r="E41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F41" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" s="16" t="n">
+      <c r="F41" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="17" t="n">
         <v>5</v>
       </c>
       <c r="H41" s="3" t="n">
@@ -5404,7 +5429,7 @@
       <c r="J41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41" s="17" t="n">
         <v>5</v>
       </c>
       <c r="L41" s="4" t="n">
@@ -5437,13 +5462,13 @@
       <c r="T41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U41" s="17" t="n">
+      <c r="U41" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W41" s="20" t="n">
+      <c r="W41" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X41" s="7" t="n">
@@ -5460,21 +5485,21 @@
         <f aca="false">Z41*10</f>
         <v>5.8</v>
       </c>
-      <c r="AB41" s="18" t="n">
+      <c r="AB41" s="19" t="n">
         <v>43</v>
       </c>
       <c r="AC41" s="5" t="n">
         <f aca="false">(AB41/50)*15 + 1.302</f>
         <v>14.202</v>
       </c>
-      <c r="AD41" s="5" t="n">
+      <c r="AD41" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE41" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH41" s="9" t="n">
+      <c r="AH41" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK41" s="5" t="n">
@@ -5482,13 +5507,13 @@
         <v>10</v>
       </c>
       <c r="AL41" s="0"/>
-      <c r="AM41" s="10" t="n">
+      <c r="AM41" s="11" t="n">
         <f aca="false">AL41+AK41+AD41+AC41+AA41+M41+(N41/2)</f>
         <v>53.502</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -5503,13 +5528,13 @@
       <c r="E42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F42" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="16" t="n">
+      <c r="F42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
@@ -5518,7 +5543,7 @@
       <c r="J42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
@@ -5551,13 +5576,13 @@
       <c r="T42" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="20" t="n">
+      <c r="U42" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V42" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W42" s="17" t="n">
+      <c r="W42" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X42" s="7" t="n">
@@ -5574,18 +5599,20 @@
         <f aca="false">Z42*10</f>
         <v>6.9</v>
       </c>
-      <c r="AB42" s="18" t="n">
+      <c r="AB42" s="19" t="n">
         <v>37.33</v>
       </c>
       <c r="AC42" s="5" t="n">
         <f aca="false">(AB42/50)*15 + 1.302</f>
         <v>12.501</v>
       </c>
-      <c r="AD42" s="0"/>
+      <c r="AD42" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE42" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH42" s="19" t="n">
+      <c r="AH42" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AK42" s="5" t="n">
@@ -5593,13 +5620,13 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0"/>
-      <c r="AM42" s="10" t="n">
+      <c r="AM42" s="11" t="n">
         <f aca="false">AL42+AK42+AD42+AC42+AA42+M42+(N42/2)</f>
         <v>25.151</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -5614,7 +5641,7 @@
       <c r="E43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="16" t="n">
+      <c r="F43" s="17" t="n">
         <v>5</v>
       </c>
       <c r="G43" s="3" t="n">
@@ -5629,7 +5656,7 @@
       <c r="J43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
@@ -5662,13 +5689,13 @@
       <c r="T43" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U43" s="20" t="n">
+      <c r="U43" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W43" s="17" t="n">
+      <c r="W43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X43" s="7" t="n">
@@ -5685,21 +5712,21 @@
         <f aca="false">Z43*10</f>
         <v>7.875</v>
       </c>
-      <c r="AB43" s="18" t="n">
+      <c r="AB43" s="19" t="n">
         <v>36.83</v>
       </c>
       <c r="AC43" s="5" t="n">
         <f aca="false">(AB43/50)*15 + 1.302</f>
         <v>12.351</v>
       </c>
-      <c r="AD43" s="5" t="n">
+      <c r="AD43" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE43" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH43" s="9" t="n">
+      <c r="AH43" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK43" s="5" t="n">
@@ -5707,13 +5734,13 @@
         <v>10</v>
       </c>
       <c r="AL43" s="0"/>
-      <c r="AM43" s="10" t="n">
+      <c r="AM43" s="11" t="n">
         <f aca="false">AL43+AK43+AD43+AC43+AA43+M43+(N43/2)</f>
         <v>55.476</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -5728,13 +5755,13 @@
       <c r="E44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F44" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H44" s="16" t="n">
+      <c r="F44" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" s="17" t="n">
         <v>5</v>
       </c>
       <c r="I44" s="2" t="n">
@@ -5743,7 +5770,7 @@
       <c r="J44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
@@ -5775,13 +5802,13 @@
       <c r="T44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U44" s="20" t="n">
+      <c r="U44" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V44" s="7" t="n">
         <v>4.166666667</v>
       </c>
-      <c r="W44" s="20" t="n">
+      <c r="W44" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X44" s="7" t="n">
@@ -5798,21 +5825,21 @@
         <f aca="false">Z44*10</f>
         <v>4.51666666675</v>
       </c>
-      <c r="AB44" s="18" t="n">
+      <c r="AB44" s="19" t="n">
         <v>23.83</v>
       </c>
       <c r="AC44" s="5" t="n">
         <f aca="false">(AB44/50)*15 + 1.302</f>
         <v>8.451</v>
       </c>
-      <c r="AD44" s="5" t="n">
+      <c r="AD44" s="9" t="n">
         <f aca="false">(23/30)*15 + 0.5</f>
         <v>12</v>
       </c>
       <c r="AE44" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH44" s="9" t="n">
+      <c r="AH44" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK44" s="5" t="n">
@@ -5820,13 +5847,13 @@
         <v>10</v>
       </c>
       <c r="AL44" s="0"/>
-      <c r="AM44" s="10" t="n">
+      <c r="AM44" s="11" t="n">
         <f aca="false">AL44+AK44+AD44+AC44+AA44+M44+(N44/2)</f>
         <v>45.21766666675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="28" t="s">
         <v>82</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -5841,10 +5868,10 @@
       <c r="E45" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F45" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" s="16" t="n">
+      <c r="F45" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="3" t="n">
@@ -5856,7 +5883,7 @@
       <c r="J45" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
@@ -5888,13 +5915,13 @@
       <c r="T45" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U45" s="20" t="n">
+      <c r="U45" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V45" s="7" t="n">
         <v>3.666666667</v>
       </c>
-      <c r="W45" s="20" t="n">
+      <c r="W45" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X45" s="7" t="n">
@@ -5911,21 +5938,21 @@
         <f aca="false">Z45*10</f>
         <v>8.66666666675</v>
       </c>
-      <c r="AB45" s="18" t="n">
+      <c r="AB45" s="19" t="n">
         <v>33.33</v>
       </c>
       <c r="AC45" s="5" t="n">
         <f aca="false">(AB45/50)*15 + 1.302</f>
         <v>11.301</v>
       </c>
-      <c r="AD45" s="5" t="n">
+      <c r="AD45" s="9" t="n">
         <f aca="false">(19/30)*15 + 0.5</f>
         <v>10</v>
       </c>
       <c r="AE45" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH45" s="9" t="n">
+      <c r="AH45" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK45" s="5" t="n">
@@ -5935,13 +5962,13 @@
       <c r="AL45" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AM45" s="10" t="n">
+      <c r="AM45" s="11" t="n">
         <f aca="false">AL45+AK45+AD45+AC45+AA45+M45+(N45/2)</f>
         <v>57.46766666675</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -5956,13 +5983,13 @@
       <c r="E46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H46" s="16" t="n">
+      <c r="F46" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" s="17" t="n">
         <v>5</v>
       </c>
       <c r="I46" s="2" t="n">
@@ -5971,7 +5998,7 @@
       <c r="J46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="17" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
@@ -6003,13 +6030,13 @@
       <c r="T46" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U46" s="17" t="n">
+      <c r="U46" s="18" t="n">
         <v>0</v>
       </c>
       <c r="V46" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="W46" s="17" t="n">
+      <c r="W46" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X46" s="7" t="n">
@@ -6026,18 +6053,20 @@
         <f aca="false">Z46*10</f>
         <v>5.5</v>
       </c>
-      <c r="AB46" s="18" t="n">
+      <c r="AB46" s="19" t="n">
         <v>37.5</v>
       </c>
       <c r="AC46" s="5" t="n">
         <f aca="false">(AB46/50)*15 + 1.302</f>
         <v>12.552</v>
       </c>
-      <c r="AD46" s="0"/>
+      <c r="AD46" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE46" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH46" s="19" t="n">
+      <c r="AH46" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK46" s="5" t="n">
@@ -6045,13 +6074,13 @@
         <v>10</v>
       </c>
       <c r="AL46" s="0"/>
-      <c r="AM46" s="10" t="n">
+      <c r="AM46" s="11" t="n">
         <f aca="false">AL46+AK46+AD46+AC46+AA46+M46+(N46/2)</f>
         <v>35.052</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -6066,13 +6095,13 @@
       <c r="E47" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H47" s="16" t="n">
+      <c r="F47" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" s="17" t="n">
         <v>5</v>
       </c>
       <c r="I47" s="2" t="n">
@@ -6081,7 +6110,7 @@
       <c r="J47" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="K47" s="3" t="n">
         <v>5</v>
       </c>
       <c r="L47" s="4" t="n">
@@ -6113,13 +6142,13 @@
       <c r="T47" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="U47" s="20" t="n">
+      <c r="U47" s="21" t="n">
         <v>4</v>
       </c>
       <c r="V47" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W47" s="20" t="n">
+      <c r="W47" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X47" s="7" t="n">
@@ -6136,21 +6165,21 @@
         <f aca="false">Z47*10</f>
         <v>9.66666666675</v>
       </c>
-      <c r="AB47" s="18" t="n">
+      <c r="AB47" s="19" t="n">
         <v>35.5</v>
       </c>
       <c r="AC47" s="5" t="n">
         <f aca="false">(AB47/50)*15 + 1.302</f>
         <v>11.952</v>
       </c>
-      <c r="AD47" s="5" t="n">
+      <c r="AD47" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
         <v>14.5</v>
       </c>
       <c r="AE47" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH47" s="19" t="n">
+      <c r="AH47" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK47" s="5" t="n">
@@ -6160,13 +6189,13 @@
       <c r="AL47" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM47" s="10" t="n">
+      <c r="AM47" s="11" t="n">
         <f aca="false">AL47+AK47+AD47+AC47+AA47+M47+(N47/2)</f>
         <v>66.61866666675</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -6181,13 +6210,13 @@
       <c r="E48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H48" s="16" t="n">
+      <c r="F48" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
@@ -6196,7 +6225,7 @@
       <c r="J48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="K48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
@@ -6229,13 +6258,13 @@
       <c r="T48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U48" s="20" t="n">
+      <c r="U48" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="V48" s="7" t="n">
         <v>4.333333333</v>
       </c>
-      <c r="W48" s="20" t="n">
+      <c r="W48" s="21" t="n">
         <v>4</v>
       </c>
       <c r="X48" s="7" t="n">
@@ -6252,21 +6281,21 @@
         <f aca="false">Z48*10</f>
         <v>8.78333333325</v>
       </c>
-      <c r="AB48" s="18" t="n">
+      <c r="AB48" s="19" t="n">
         <v>34.83</v>
       </c>
       <c r="AC48" s="5" t="n">
         <f aca="false">(AB48/50)*15 + 1.302</f>
         <v>11.751</v>
       </c>
-      <c r="AD48" s="5" t="n">
+      <c r="AD48" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE48" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH48" s="19" t="n">
+      <c r="AH48" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK48" s="5" t="n">
@@ -6274,13 +6303,13 @@
         <v>10</v>
       </c>
       <c r="AL48" s="0"/>
-      <c r="AM48" s="10" t="n">
+      <c r="AM48" s="11" t="n">
         <f aca="false">AL48+AK48+AD48+AC48+AA48+M48+(N48/2)</f>
         <v>49.78433333325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -6295,13 +6324,13 @@
       <c r="E49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16" t="n">
+      <c r="F49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
@@ -6310,7 +6339,7 @@
       <c r="J49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="K49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
@@ -6342,13 +6371,13 @@
       <c r="T49" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="20" t="n">
+      <c r="U49" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W49" s="17" t="n">
+      <c r="W49" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X49" s="7" t="n">
@@ -6365,18 +6394,20 @@
         <f aca="false">Z49*10</f>
         <v>5.1</v>
       </c>
-      <c r="AB49" s="21" t="n">
+      <c r="AB49" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AC49" s="5" t="n">
         <f aca="false">(AB49/50)*15 + 1.302</f>
         <v>1.302</v>
       </c>
-      <c r="AD49" s="0"/>
+      <c r="AD49" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE49" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH49" s="19" t="n">
+      <c r="AH49" s="20" t="n">
         <v>5</v>
       </c>
       <c r="AK49" s="5" t="n">
@@ -6384,13 +6415,13 @@
         <v>10</v>
       </c>
       <c r="AL49" s="0"/>
-      <c r="AM49" s="10" t="n">
+      <c r="AM49" s="11" t="n">
         <f aca="false">AL49+AK49+AD49+AC49+AA49+M49+(N49/2)</f>
         <v>22.152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="28" t="s">
         <v>87</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -6405,10 +6436,10 @@
       <c r="E50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" s="16" t="n">
+      <c r="F50" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H50" s="3" t="n">
@@ -6420,7 +6451,7 @@
       <c r="J50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="3" t="n">
         <v>2</v>
       </c>
       <c r="L50" s="4" t="n">
@@ -6452,13 +6483,13 @@
       <c r="T50" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U50" s="20" t="n">
+      <c r="U50" s="21" t="n">
         <v>5</v>
       </c>
       <c r="V50" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="W50" s="20" t="n">
+      <c r="W50" s="21" t="n">
         <v>3</v>
       </c>
       <c r="X50" s="7" t="n">
@@ -6475,21 +6506,21 @@
         <f aca="false">Z50*10</f>
         <v>8.75</v>
       </c>
-      <c r="AB50" s="18" t="n">
+      <c r="AB50" s="19" t="n">
         <v>34.33</v>
       </c>
       <c r="AC50" s="5" t="n">
         <f aca="false">(AB50/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AD50" s="5" t="n">
+      <c r="AD50" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE50" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH50" s="9" t="n">
+      <c r="AH50" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK50" s="5" t="n">
@@ -6499,13 +6530,13 @@
       <c r="AL50" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AM50" s="10" t="n">
+      <c r="AM50" s="11" t="n">
         <f aca="false">AL50+AK50+AD50+AC50+AA50+M50+(N50/2)</f>
         <v>61.351</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>88</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -6520,13 +6551,13 @@
       <c r="E51" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="16" t="n">
+      <c r="F51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
@@ -6535,7 +6566,7 @@
       <c r="J51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="3" t="n">
         <v>3</v>
       </c>
       <c r="L51" s="4" t="n">
@@ -6567,13 +6598,13 @@
       <c r="T51" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="U51" s="20" t="n">
+      <c r="U51" s="21" t="n">
         <v>0</v>
       </c>
       <c r="V51" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="W51" s="20" t="n">
+      <c r="W51" s="21" t="n">
         <v>0</v>
       </c>
       <c r="X51" s="7" t="n">
@@ -6590,21 +6621,21 @@
         <f aca="false">Z51*10</f>
         <v>4.875</v>
       </c>
-      <c r="AB51" s="18" t="n">
+      <c r="AB51" s="19" t="n">
         <v>39.5</v>
       </c>
       <c r="AC51" s="5" t="n">
         <f aca="false">(AB51/50)*15 + 1.302</f>
         <v>13.152</v>
       </c>
-      <c r="AD51" s="5" t="n">
+      <c r="AD51" s="9" t="n">
         <f aca="false">(24/30)*15 + 0.5</f>
         <v>12.5</v>
       </c>
       <c r="AE51" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH51" s="9" t="n">
+      <c r="AH51" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK51" s="5" t="n">
@@ -6612,13 +6643,13 @@
         <v>10</v>
       </c>
       <c r="AL51" s="0"/>
-      <c r="AM51" s="10" t="n">
+      <c r="AM51" s="11" t="n">
         <f aca="false">AL51+AK51+AD51+AC51+AA51+M51+(N51/2)</f>
         <v>43.777</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -6633,10 +6664,10 @@
       <c r="E52" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="16" t="n">
+      <c r="F52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="3" t="n">
@@ -6648,7 +6679,7 @@
       <c r="J52" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K52" s="3" t="n">
         <v>4</v>
       </c>
       <c r="L52" s="4" t="n">
@@ -6686,7 +6717,7 @@
       <c r="V52" s="7" t="n">
         <v>4.666666667</v>
       </c>
-      <c r="W52" s="20" t="n">
+      <c r="W52" s="21" t="n">
         <v>0</v>
       </c>
       <c r="X52" s="7" t="n">
@@ -6703,21 +6734,21 @@
         <f aca="false">Z52*10</f>
         <v>4.39166666675</v>
       </c>
-      <c r="AB52" s="18" t="n">
+      <c r="AB52" s="19" t="n">
         <v>34.33</v>
       </c>
       <c r="AC52" s="5" t="n">
         <f aca="false">(AB52/50)*15 + 1.302</f>
         <v>11.601</v>
       </c>
-      <c r="AD52" s="5" t="n">
+      <c r="AD52" s="9" t="n">
         <f aca="false">(26/30)*15 + 0.5</f>
         <v>13.5</v>
       </c>
       <c r="AE52" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH52" s="9" t="n">
+      <c r="AH52" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK52" s="5" t="n">
@@ -6727,154 +6758,154 @@
       <c r="AL52" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="AM52" s="10" t="n">
+      <c r="AM52" s="11" t="n">
         <f aca="false">AL52+AK52+AD52+AC52+AA52+M52+(N52/2)</f>
         <v>58.74266666675</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="16"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
     </row>
     <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29"/>
-      <c r="E57" s="30" t="s">
+      <c r="A57" s="31"/>
+      <c r="E57" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="29"/>
-      <c r="E58" s="32" t="s">
+      <c r="A58" s="31"/>
+      <c r="E58" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G58" s="33" t="n">
+      <c r="G58" s="35" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="29"/>
-      <c r="E59" s="32" t="s">
+      <c r="A59" s="31"/>
+      <c r="E59" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="33" t="n">
+      <c r="G59" s="35" t="n">
         <v>3.67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29"/>
-      <c r="E60" s="32" t="s">
+      <c r="A60" s="31"/>
+      <c r="E60" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="33" t="n">
+      <c r="G60" s="35" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="29"/>
-      <c r="E61" s="32" t="s">
+      <c r="A61" s="31"/>
+      <c r="E61" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="33" t="n">
+      <c r="G61" s="35" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="29"/>
-      <c r="E62" s="32" t="s">
+      <c r="A62" s="31"/>
+      <c r="E62" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G62" s="33" t="n">
+      <c r="G62" s="35" t="n">
         <v>2.67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="29"/>
-      <c r="E63" s="32" t="s">
+      <c r="A63" s="31"/>
+      <c r="E63" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="F63" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="33" t="n">
+      <c r="G63" s="35" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="29"/>
-      <c r="E64" s="32" t="s">
+      <c r="A64" s="31"/>
+      <c r="E64" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G64" s="33" t="n">
+      <c r="G64" s="35" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="29"/>
-      <c r="E65" s="32" t="s">
+      <c r="A65" s="31"/>
+      <c r="E65" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G65" s="33" t="n">
+      <c r="G65" s="35" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="29"/>
-      <c r="E66" s="32" t="s">
+      <c r="A66" s="31"/>
+      <c r="E66" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="33" t="n">
+      <c r="G66" s="35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">Registered Trainee Name</t>
   </si>
@@ -139,157 +139,160 @@
     <t xml:space="preserve">Total (100%)</t>
   </si>
   <si>
+    <t xml:space="preserve">Grades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Yasir Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Usama Saleem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammad Asad Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umair Shuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamza Khalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faisal Jamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahar Sindhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Saeed Salim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarrar Farman Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fariha Shaikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saeeda Ramzan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Umair Siddiqui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muhammad hamza gaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarang IShaque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad wahab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talha faraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Farhan Qamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muhammad ata jilani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahmida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saad Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Talha Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul Samad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaikh Riaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syed Anwar Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamza Mairaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atoofa Akber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahzaib Waqar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hafiz Umer Bin Nasir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Ghazali</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zohaib Ahmed</t>
   </si>
   <si>
+    <t xml:space="preserve">Muhammad Ali Shafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syed muhammad zaki ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabia Akmal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yousra Ali</t>
   </si>
   <si>
-    <t xml:space="preserve">Umair Shuja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syed muhammad zaki ahmed</t>
+    <t xml:space="preserve">Junaid Shabbir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rida Hassan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahrukh Karim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabia Ali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Raza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javeria Qayyum</t>
   </si>
   <si>
     <t xml:space="preserve">Soha Gazdar</t>
   </si>
   <si>
-    <t xml:space="preserve">simran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahrukh Karim</t>
+    <t xml:space="preserve">Ali Adil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husn-e-Zahra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamza Ansari</t>
   </si>
   <si>
     <t xml:space="preserve">Raza Ali</t>
   </si>
   <si>
-    <t xml:space="preserve">Muhammad Yasir Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Usama Saleem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Umair Siddiqui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Talha Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammad Asad Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.Saeed Salim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javeria Qayyum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jarrar Farman Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husn-e-Zahra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faisal Jamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atoofa Akber</t>
+    <t xml:space="preserve">Jakey Sharaf</t>
   </si>
   <si>
     <t xml:space="preserve">Fahad Waseem</t>
   </si>
   <si>
-    <t xml:space="preserve">Umair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saeeda Ramzan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahar Sindhu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">syed Anwar Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talha faraz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muhammad ata jilani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muhammad hamza gaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahzaib Waqar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Muhammad Owais Alam Ansari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad wahab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaikh Riaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamza Mairaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hafiz Umer Bin Nasir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rida Hassan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saad Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Farhan Qamar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junaid Shabbir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Ghazali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Ali Shafi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamza Ansari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdul Samad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabia Ali </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahmida </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali Adil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamza Khalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabia Akmal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakey Sharaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fariha Shaikh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Raza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarang IShaque</t>
   </si>
   <si>
     <t xml:space="preserve">GRADING PLAN</t>
@@ -365,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -410,6 +413,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -417,6 +421,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -452,7 +463,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +512,18 @@
         <bgColor rgb="FF4682B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD5C5C"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC143C"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
@@ -527,8 +550,8 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -541,8 +564,8 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -571,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -616,7 +639,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,8 +659,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -644,27 +675,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,19 +707,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,7 +723,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -704,7 +735,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,7 +743,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -729,7 +760,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFDC143C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -748,7 +779,7 @@
       <rgbColor rgb="FFF8F8FF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFCD5C5C"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -793,165 +824,169 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN4" activeCellId="0" sqref="AN4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN2" activeCellId="0" sqref="AN1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="9" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="10" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="5" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="11" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="7" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="8" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="9" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="6" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="10" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="6" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="11" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="12" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="13" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="14"/>
+      <c r="AN1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>39</v>
+      <c r="A2" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>5</v>
@@ -959,83 +994,82 @@
       <c r="E2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="n">
-        <v>0</v>
+      <c r="F2" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>5</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="19" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
         <f aca="false">(SUM(B2:K2)-(SMALL(B2:K2,2)+SMALL(B2:K2,1)))/40</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M2" s="5" t="n">
         <f aca="false">L2*10</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="N2" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="P2" s="7" t="n">
-        <f aca="false">2+0.8+0.5</f>
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="Q2" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2" s="7" t="n">
         <v>5</v>
       </c>
       <c r="S2" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="18" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="U2" s="20" t="n">
+        <v>5</v>
       </c>
       <c r="V2" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" s="18" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W2" s="20" t="n">
+        <v>5</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Y2" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="8" t="n">
         <f aca="false">(SUM(O2:Y2)-(SMALL(O2:Y2,2)+SMALL(O2:Y2,1)+SMALL(O2:Y2,3)))/40</f>
-        <v>0.545</v>
+        <v>0.9675</v>
       </c>
       <c r="AA2" s="5" t="n">
         <f aca="false">Z2*10</f>
-        <v>5.45</v>
-      </c>
-      <c r="AB2" s="19" t="n">
-        <v>36.5</v>
+        <v>9.675</v>
+      </c>
+      <c r="AB2" s="11" t="n">
+        <v>44.83</v>
       </c>
       <c r="AC2" s="5" t="n">
         <f aca="false">(AB2/50)*15 + 1.302</f>
-        <v>12.252</v>
+        <v>14.751</v>
       </c>
       <c r="AD2" s="9" t="n">
         <f aca="false">(28/30)*15 + 0.5</f>
@@ -1044,28 +1078,35 @@
       <c r="AE2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH2" s="20" t="n">
+      <c r="AH2" s="10" t="n">
         <v>5</v>
       </c>
       <c r="AK2" s="5" t="n">
         <f aca="false">AE2+AF2+AG2+AI2+AJ2+AH2</f>
         <v>10</v>
       </c>
-      <c r="AL2" s="0"/>
-      <c r="AM2" s="11" t="n">
+      <c r="AL2" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="12" t="n">
         <f aca="false">AL2+AK2+AD2+AC2+AA2+M2+(N2/2)</f>
-        <v>51.702</v>
-      </c>
+        <v>69.926</v>
+      </c>
+      <c r="AN2" s="13" t="str">
+        <f aca="false">IF(AM2 &lt; 60, "F", IF(AND(AM2 &gt;=60, AM2 &lt; 64),"C-",IF(AND(AM2 &gt;=64, AM2 &lt; 68),"C",IF(AND(AM2&gt;=68, AM2 &lt; 72),"C+",IF(AND(AM2 &gt;=72, AM2 &lt; 77),"B-",IF(AND(AM2 &gt;=77, AM2 &lt; 82),"B",IF(AND(AM2 &gt;=82, AM2 &lt; 87),"B+",IF(AND(AM2 &gt;= 87, AM2 &lt; 93),"A-",IF(AM2 &gt;= 93,"A","F")))))))))</f>
+        <v>C+</v>
+      </c>
+      <c r="AO2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>40</v>
+      <c r="A3" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>5</v>
@@ -1073,11 +1114,11 @@
       <c r="E3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="17" t="n">
-        <v>0</v>
+      <c r="F3" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19" t="n">
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>5</v>
@@ -1086,30 +1127,30 @@
         <v>5</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" s="19" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
         <f aca="false">(SUM(B3:K3)-(SMALL(B3:K3,2)+SMALL(B3:K3,1)))/40</f>
-        <v>0.775</v>
+        <v>1</v>
       </c>
       <c r="M3" s="5" t="n">
         <f aca="false">L3*10</f>
-        <v>7.75</v>
+        <v>10</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P3" s="7" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R3" s="7" t="n">
         <v>5</v>
@@ -1118,16 +1159,16 @@
         <v>5</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="21" t="n">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="U3" s="20" t="n">
+        <v>5</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>4.333333333</v>
-      </c>
-      <c r="W3" s="21" t="n">
         <v>4</v>
+      </c>
+      <c r="W3" s="20" t="n">
+        <v>5</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0</v>
@@ -1137,22 +1178,22 @@
       </c>
       <c r="Z3" s="8" t="n">
         <f aca="false">(SUM(O3:Y3)-(SMALL(O3:Y3,2)+SMALL(O3:Y3,1)+SMALL(O3:Y3,3)))/40</f>
-        <v>0.833333333325</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="5" t="n">
         <f aca="false">Z3*10</f>
-        <v>8.33333333325</v>
-      </c>
-      <c r="AB3" s="19" t="n">
-        <v>30.33</v>
+        <v>10</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>44.5</v>
       </c>
       <c r="AC3" s="5" t="n">
         <f aca="false">(AB3/50)*15 + 1.302</f>
-        <v>10.401</v>
+        <v>14.652</v>
       </c>
       <c r="AD3" s="9" t="n">
-        <f aca="false">(23/30)*15 + 0.5</f>
-        <v>12</v>
+        <f aca="false">(25/30)*15 + 0.5</f>
+        <v>13</v>
       </c>
       <c r="AE3" s="6" t="n">
         <v>5</v>
@@ -1164,21 +1205,27 @@
         <f aca="false">AE3+AF3+AG3+AI3+AJ3+AH3</f>
         <v>10</v>
       </c>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="11" t="n">
+      <c r="AL3" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="12" t="n">
         <f aca="false">AL3+AK3+AD3+AC3+AA3+M3+(N3/2)</f>
-        <v>49.23433333325</v>
+        <v>69.652</v>
+      </c>
+      <c r="AN3" s="13" t="str">
+        <f aca="false">IF(AM3 &lt; 60, "F", IF(AND(AM3 &gt;=60, AM3 &lt; 64),"C-",IF(AND(AM3 &gt;=64, AM3 &lt; 68),"C",IF(AND(AM3&gt;=68, AM3 &lt; 72),"C+",IF(AND(AM3 &gt;=72, AM3 &lt; 77),"B-",IF(AND(AM3 &gt;=77, AM3 &lt; 82),"B",IF(AND(AM3 &gt;=82, AM3 &lt; 87),"B+",IF(AND(AM3 &gt;= 87, AM3 &lt; 93),"A-",IF(AM3 &gt;= 93,"A","F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>41</v>
+      <c r="A4" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>5</v>
@@ -1186,10 +1233,10 @@
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="n">
+      <c r="F4" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="19" t="n">
         <v>5</v>
       </c>
       <c r="H4" s="3" t="n">
@@ -1201,7 +1248,7 @@
       <c r="J4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="19" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
@@ -1219,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q4" s="7" t="n">
         <v>5</v>
@@ -1233,294 +1280,309 @@
       <c r="T4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="18" t="n">
+      <c r="U4" s="22" t="n">
         <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21" t="n">
-        <v>5</v>
+        <v>4.666666667</v>
+      </c>
+      <c r="W4" s="20" t="n">
+        <v>4</v>
       </c>
       <c r="X4" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="8" t="n">
         <f aca="false">(SUM(O4:Y4)-(SMALL(O4:Y4,2)+SMALL(O4:Y4,1)+SMALL(O4:Y4,3)))/40</f>
-        <v>0.87</v>
+        <v>0.934166666675</v>
       </c>
       <c r="AA4" s="5" t="n">
         <f aca="false">Z4*10</f>
-        <v>8.7</v>
-      </c>
-      <c r="AB4" s="19" t="n">
-        <v>34.5</v>
+        <v>9.34166666675</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>34.83</v>
       </c>
       <c r="AC4" s="5" t="n">
         <f aca="false">(AB4/50)*15 + 1.302</f>
+        <v>11.751</v>
+      </c>
+      <c r="AD4" s="9" t="n">
+        <f aca="false">(28/30)*15 + 0.5</f>
+        <v>14.5</v>
+      </c>
+      <c r="AE4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <f aca="false">AE4+AF4+AG4+AI4+AJ4+AH4</f>
+        <v>10</v>
+      </c>
+      <c r="AL4" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
+        <v>67.59266666675</v>
+      </c>
+      <c r="AN4" s="13" t="str">
+        <f aca="false">IF(AM4 &lt; 60, "F", IF(AND(AM4 &gt;=60, AM4 &lt; 64),"C-",IF(AND(AM4 &gt;=64, AM4 &lt; 68),"C",IF(AND(AM4&gt;=68, AM4 &lt; 72),"C+",IF(AND(AM4 &gt;=72, AM4 &lt; 77),"B-",IF(AND(AM4 &gt;=77, AM4 &lt; 82),"B",IF(AND(AM4 &gt;=82, AM4 &lt; 87),"B+",IF(AND(AM4 &gt;= 87, AM4 &lt; 93),"A-",IF(AM4 &gt;= 93,"A","F")))))))))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <f aca="false">L5*10</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8" t="n">
+        <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
+        <v>0.87</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <f aca="false">Z5*10</f>
+        <v>8.7</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <f aca="false">(AB5/50)*15 + 1.302</f>
         <v>11.652</v>
       </c>
-      <c r="AD4" s="9" t="n">
+      <c r="AD5" s="9" t="n">
         <f aca="false">(29/30)*15  + 0.5</f>
         <v>15</v>
       </c>
-      <c r="AE4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="5" t="n">
-        <f aca="false">AE4+AF4+AG4+AI4+AJ4+AH4</f>
-        <v>10</v>
-      </c>
-      <c r="AL4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM4" s="11" t="n">
-        <f aca="false">AL4+AK4+AD4+AC4+AA4+M4+(N4/2)</f>
-        <v>67.352</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <f aca="false">(SUM(B5:K5)-(SMALL(B5:K5,2)+SMALL(B5:K5,1)))/40</f>
-        <v>0.85</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <f aca="false">L5*10</f>
-        <v>8.5</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V5" s="7" t="n">
-        <v>4.333333333</v>
-      </c>
-      <c r="W5" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="X5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="8" t="n">
-        <f aca="false">(SUM(O5:Y5)-(SMALL(O5:Y5,2)+SMALL(O5:Y5,1)+SMALL(O5:Y5,3)))/40</f>
-        <v>0.783333333325</v>
-      </c>
-      <c r="AA5" s="5" t="n">
-        <f aca="false">Z5*10</f>
-        <v>7.83333333325</v>
-      </c>
-      <c r="AB5" s="19" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="AC5" s="5" t="n">
-        <f aca="false">(AB5/50)*15 + 1.302</f>
-        <v>11.25</v>
-      </c>
-      <c r="AD5" s="9" t="n">
-        <f aca="false">(23/30)*15  + 0.5</f>
-        <